--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -19,6 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2696,10 +2697,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2765,16 +2766,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$28</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2840,6 +2844,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.697095720867364E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0162489777649166E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,10 +2886,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2948,16 +2955,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$28</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3023,6 +3033,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5.8131655567992491E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5954846532323632E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,10 +3075,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3131,16 +3144,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$28</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3206,6 +3222,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5.9022332841838665E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3948186385649031E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,10 +3264,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3314,16 +3333,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$28</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3389,6 +3411,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9.1870032223056133E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10124529068893316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,10 +3453,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3497,16 +3522,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$28</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -3572,6 +3600,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.14595955662406412</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16070366373131109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,10 +3642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3680,16 +3711,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$28</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -3755,6 +3789,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.6938712657837862E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3165999384046834E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,10 +4103,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4135,16 +4172,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$28</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -4210,6 +4250,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.7596430359927435E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.8549009450871194E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,10 +4292,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4318,16 +4361,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$28</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -4393,6 +4439,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.5469520533358825E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3721368490983155E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,10 +4481,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4501,16 +4550,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$28</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -4576,6 +4628,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.1779119572379981E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.0450907168433368E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,10 +4670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4684,16 +4739,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$28</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -4759,6 +4817,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.079738850868873E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.7904644038352409E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,10 +4859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4867,16 +4928,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$28</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -4942,6 +5006,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.1421848204960625E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.7079656794272182E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5253,10 +5320,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5322,16 +5389,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$28</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -5397,6 +5467,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.7830849551858652E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.3786948430506438E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,10 +5509,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5505,16 +5578,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$28</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -5580,6 +5656,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.759623557336365E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.406229825387074E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5619,10 +5698,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5688,16 +5767,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$28</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -5763,6 +5845,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.658107270266501E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9179098703840123E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5802,10 +5887,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5871,16 +5956,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$28</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -5946,6 +6034,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.3633345553015994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3114993896264915E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6257,10 +6348,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6326,16 +6417,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$28</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -6401,6 +6495,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.6108529884238072E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6817073558690137E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6440,10 +6537,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6509,16 +6606,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$28</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -6584,6 +6684,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.2590313980551011E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8328498022199184E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6623,10 +6726,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6692,16 +6795,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$28</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -6767,6 +6873,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.0903092838519033E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.8469104128329175E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6806,10 +6915,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6875,16 +6984,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$28</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -6950,6 +7062,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9.6551101330499822E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5072859438364237E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6989,10 +7104,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7058,16 +7173,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$28</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -7133,6 +7251,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.4849032511701692E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3651691684318576E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7172,10 +7293,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7241,16 +7362,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$28</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -7316,6 +7440,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.187867443290159E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1828694902920711E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7357,10 +7484,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7426,16 +7553,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$28</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -7501,6 +7631,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-2.3590336913861809E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.5320242092267919E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,10 +7675,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7611,16 +7744,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$28</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -7686,6 +7822,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5.1088924511094591E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2283761770311354E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7727,10 +7866,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7796,16 +7935,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$28</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -7871,6 +8013,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.11344443089358446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1327675521630296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8182,10 +8327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8251,16 +8396,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$28</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -8326,6 +8474,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.2282219034646165E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.051597091530184E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8365,10 +8516,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8434,16 +8585,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$28</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -8509,6 +8663,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.6099694162732101E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4865015351839537E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8548,10 +8705,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8617,16 +8774,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$28</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -8692,6 +8852,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.0372506017747578E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6559334778383535E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8731,10 +8894,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$28</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8800,16 +8963,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$28</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -8875,6 +9041,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9.1133742224876357E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.8678684136478831E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9162,6 +9331,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>最新涨跌幅</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9266,93 +9438,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$28:$AE$28</c:f>
+              <c:f>'2018累积涨跌幅'!$D$29:$AE$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7.697095720867364E-2</c:v>
+                  <c:v>9.0162489777649166E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8131655567992491E-2</c:v>
+                  <c:v>5.5954846532323632E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9022332841838665E-2</c:v>
+                  <c:v>6.3948186385649031E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7596430359927435E-3</c:v>
+                  <c:v>-9.8549009450871194E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5469520533358825E-3</c:v>
+                  <c:v>-1.3721368490983155E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1779119572379981E-2</c:v>
+                  <c:v>-5.0450907168433368E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.079738850868873E-2</c:v>
+                  <c:v>-8.7904644038352409E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1421848204960625E-2</c:v>
+                  <c:v>-5.7079656794272182E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7830849551858652E-4</c:v>
+                  <c:v>-2.3786948430506438E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.759623557336365E-2</c:v>
+                  <c:v>-2.406229825387074E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.658107270266501E-2</c:v>
+                  <c:v>8.9179098703840123E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3633345553015994E-2</c:v>
+                  <c:v>1.3114993896264915E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6108529884238072E-2</c:v>
+                  <c:v>4.6817073558690137E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2590313980551011E-2</c:v>
+                  <c:v>4.8328498022199184E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0903092838519033E-3</c:v>
+                  <c:v>-5.8469104128329175E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6551101330499822E-3</c:v>
+                  <c:v>2.5072859438364237E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4849032511701692E-2</c:v>
+                  <c:v>2.3651691684318576E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.187867443290159E-2</c:v>
+                  <c:v>1.1828694902920711E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.3590336913861809E-2</c:v>
+                  <c:v>-4.5320242092267919E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1088924511094591E-2</c:v>
+                  <c:v>5.2283761770311354E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11344443089358446</c:v>
+                  <c:v>0.1327675521630296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.1870032223056133E-2</c:v>
+                  <c:v>0.10124529068893316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14595955662406412</c:v>
+                  <c:v>0.16070366373131109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.6938712657837862E-2</c:v>
+                  <c:v>-1.3165999384046834E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.2282219034646165E-2</c:v>
+                  <c:v>8.051597091530184E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6099694162732101E-2</c:v>
+                  <c:v>7.4865015351839537E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0372506017747578E-2</c:v>
+                  <c:v>9.6559334778383535E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1133742224876357E-2</c:v>
+                  <c:v>9.8678684136478831E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13352,8 +13524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13376,7 +13548,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180130</v>
+        <v>20180131</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -13446,31 +13618,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>3079.1178</v>
+        <v>3116.8330999999998</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>-1.3323089461703574E-2</v>
+        <v>1.2248735660584265E-2</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>-2.9519812545322988E-2</v>
+        <v>-1.7632657265356455E-2</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>7.6450400241389715E-2</v>
+        <v>8.9635556645676781E-2</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>7.6450400241389715E-2</v>
+        <v>8.9635556645676781E-2</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>694.73844578000001</v>
+        <v>729.90261127999997</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>2.865860472</v>
+        <v>2.891303352</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -13482,31 +13654,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3488.009</v>
+        <v>3480.8334</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>-9.9323568116237437E-3</v>
+        <v>-2.0572194624497442E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>-1.9706931351107904E-2</v>
+        <v>-2.1723609330837057E-2</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>5.4680220602973728E-2</v>
+        <v>5.251051192648859E-2</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>5.4680220602973728E-2</v>
+        <v>5.251051192648859E-2</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>2246.8169250000001</v>
+        <v>2426.5795859999998</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>28.98764572</v>
+        <v>26.156385410000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -13518,27 +13690,27 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4256.1021000000001</v>
+        <v>4275.8986000000004</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>-1.0673130361771421E-2</v>
+        <v>4.6513216870431862E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>-2.8575425428564616E-2</v>
+        <v>-2.4057017237533729E-2</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>5.5880751252048277E-2</v>
+        <v>6.0791992289278562E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>5.5880751252048277E-2</v>
+        <v>6.0791992289278562E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1866.50566155</v>
+        <v>1944.0179802499999</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
@@ -13565,31 +13737,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7522.6913999999997</v>
+        <v>7420.6570000000002</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>-1.5752081286128927E-3</v>
+        <v>-1.3563549875247993E-2</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>-1.9896027848133158E-2</v>
+        <v>-3.318971695734374E-2</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>-4.2574867838979236E-3</v>
+        <v>-1.7763290024809364E-2</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>-4.2574867838979236E-3</v>
+        <v>-1.7763290024809364E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>785.44971699999996</v>
+        <v>1003.7446660000001</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>935.90009580000003</v>
+        <v>924.66817400000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -13601,31 +13773,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1478.3024</v>
+        <v>1454.3140000000001</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>1.0349816351729046E-5</v>
+        <v>-1.6226991175824379E-2</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>-1.5956810539010102E-2</v>
+        <v>-3.1924870691023677E-2</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>-6.7579053087000185E-3</v>
+        <v>-2.2875236014713085E-2</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>-6.7579053087000185E-3</v>
+        <v>-2.2875236014713085E-2</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>484.39703400000002</v>
+        <v>599.90661899999998</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>596.92103399999996</v>
+        <v>580.03719939999996</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -13637,31 +13809,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1909.5708999999999</v>
+        <v>1877.8179</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>-5.328833006250977E-3</v>
+        <v>-1.6628343048168515E-2</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>-2.0840428707779912E-2</v>
+        <v>-3.7122229958124531E-2</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>5.384649728464197E-3</v>
+        <v>-1.1333231122583554E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>5.384649728464197E-3</v>
+        <v>-1.1333231122583554E-2</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>2130.1351789999999</v>
+        <v>2514.1220050000002</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2626.5596418</v>
+        <v>2543.1400027999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -13673,31 +13845,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1547.0360000000001</v>
+        <v>1502.1950999999999</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>-1.1116087731329993E-2</v>
+        <v>-2.898503977929423E-2</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>-1.3342903323056543E-2</v>
+        <v>-4.1941198518760547E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>1.7953130106714177E-2</v>
+        <v>-1.1552281862885927E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>1.7953130106714177E-2</v>
+        <v>-1.1552281862885927E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>187.820108</v>
+        <v>215.08839399999999</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>256.0412078</v>
+        <v>235.40328</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -13709,31 +13881,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1782.3989999999999</v>
+        <v>1735.057</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>-9.652284076823392E-3</v>
+        <v>-2.6560831777845406E-2</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>-1.8935102553648941E-2</v>
+        <v>-4.4993002257870618E-2</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>1.6972565004347517E-2</v>
+        <v>-1.0039072217416845E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>1.6972565004347517E-2</v>
+        <v>-1.0039072217416845E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>577.18519100000003</v>
+        <v>686.37560800000006</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>781.9457132</v>
+        <v>735.98862440000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13756,31 +13928,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6955.2425000000003</v>
+        <v>6791.0093999999999</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>-2.472090594003995E-3</v>
+        <v>-2.3612850306801048E-2</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>-1.4281549044132258E-2</v>
+        <v>-3.7557171271204948E-2</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>-8.8507327380165091E-3</v>
+        <v>-3.2254592017569306E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-8.8507327380165091E-3</v>
+        <v>-3.2254592017569306E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>801.89948787000003</v>
+        <v>981.71546816</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.87039034999999987</v>
+        <v>0.86575532000000011</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -13792,31 +13964,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6313.442</v>
+        <v>6189.3413</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>5.639406723763063E-4</v>
+        <v>-1.9656583524486293E-2</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>-1.099518405762534E-2</v>
+        <v>-3.0435639828315875E-2</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>1.0018092504237019E-2</v>
+        <v>-9.8354124923147879E-3</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>1.0018092504237019E-2</v>
+        <v>-9.8354124923147879E-3</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>815.77586588999998</v>
+        <v>881.06213761000004</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.60780207600000002</v>
+        <v>0.51925971000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -13828,31 +14000,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4390.1737000000003</v>
+        <v>4441.5469999999996</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>-1.3203688862800989E-2</v>
+        <v>1.1701883230724963E-2</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>-3.3182932059563686E-2</v>
+        <v>-2.186935162505288E-2</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>7.569406168089543E-2</v>
+        <v>8.8281707982669419E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>7.569406168089543E-2</v>
+        <v>8.8281707982669419E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>1120.66501945</v>
+        <v>1175.8708202800001</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.26384967000000004</v>
+        <v>0.265933578</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -13864,31 +14036,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4442.2820000000002</v>
+        <v>4396.6352999999999</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>-5.2725716017212321E-3</v>
+        <v>-1.0275507047954213E-2</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>-1.8669543521650733E-2</v>
+        <v>-2.8753211543566137E-2</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>1.6205411442131057E-2</v>
+        <v>5.7633855746881402E-3</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>1.6205411442131057E-2</v>
+        <v>5.7633855746881402E-3</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>745.840642</v>
+        <v>768.14715899999999</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>875.18604319999997</v>
+        <v>836.11719240000002</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -13911,31 +14083,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>9435.2785000000003</v>
+        <v>9532.7954000000009</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>5.0389551421115009E-4</v>
+        <v>1.033534940171621E-2</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>-3.0008991093761206E-2</v>
+        <v>-1.9983795100191992E-2</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>3.6526819029450985E-2</v>
+        <v>4.7239685868369907E-2</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>3.6526819029450985E-2</v>
+        <v>4.7239685868369907E-2</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>103.10217517</v>
+        <v>108.5299184</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>5.4839451019999998</v>
+        <v>6.4035719259999997</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -13947,31 +14119,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>13227.623799999999</v>
+        <v>13429.232099999999</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>-3.0271888805216696E-3</v>
+        <v>1.5241460072367596E-2</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>-3.703619849516826E-2</v>
+        <v>-2.2359224163397085E-2</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>3.9338575285579491E-2</v>
+        <v>5.5179612682466184E-2</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>3.9338575285579491E-2</v>
+        <v>5.5179612682466184E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>158.97759736</v>
+        <v>173.01390172999999</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>3.519285848</v>
+        <v>4.2599789100000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -13983,31 +14155,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13512.6307</v>
+        <v>13339.045599999999</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>8.5522761201661801E-4</v>
+        <v>-1.2846136614982018E-2</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>-1.698516803011052E-2</v>
+        <v>-2.9613110856149261E-2</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>-4.4981293918014975E-3</v>
+        <v>-1.7286482422104621E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>-4.4981293918014975E-3</v>
+        <v>-1.7286482422104621E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>136.34676368000001</v>
+        <v>154.05915637000001</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.18382135199999999</v>
+        <v>0.19472788599999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -14019,27 +14191,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>10100.231900000001</v>
+        <v>10028.7276</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>-3.5801207326013884E-4</v>
+        <v>-7.0794711159057888E-3</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>-2.0906652775880441E-2</v>
+        <v>-2.7838115847329203E-2</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>2.0427465410555179E-4</v>
+        <v>-6.8766426183137774E-3</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>2.0427465410555179E-4</v>
+        <v>-6.8766426183137774E-3</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>187.42680211000001</v>
+        <v>216.30081364</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -14055,31 +14227,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>7155.6392999999998</v>
+        <v>7010.4695000000002</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>4.7058153537598013E-3</v>
+        <v>-2.0287467536268866E-2</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>-9.442937638673321E-3</v>
+        <v>-2.9538831884150629E-2</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>3.0604787242117126E-2</v>
+        <v>9.6964260782195222E-3</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>3.0604787242117126E-2</v>
+        <v>9.6964260782195222E-3</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>28.99349634</v>
+        <v>40.777430430000003</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>38.899028887999997</v>
+        <v>38.205229877999997</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -14091,31 +14263,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8642.0303000000004</v>
+        <v>8557.0375999999997</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>-6.307636211581924E-3</v>
+        <v>-9.8348069897418178E-3</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>-2.6490879157211156E-2</v>
+        <v>-3.6065153463453292E-2</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>1.1817203745129401E-2</v>
+        <v>1.866176837395761E-3</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>1.1817203745129401E-2</v>
+        <v>1.866176837395761E-3</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>311.51131299999997</v>
+        <v>335.59342299999997</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>430.37159380000003</v>
+        <v>394.43350799999996</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -14127,27 +14299,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1687.0123000000001</v>
+        <v>1649.4680000000001</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>-9.0740871798156153E-4</v>
+        <v>-2.2254905906732292E-2</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>-1.6254310926448357E-2</v>
+        <v>-3.8147478672933777E-2</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>-3.0142848511199527E-2</v>
+        <v>-5.1726928160554235E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-3.0142848511199527E-2</v>
+        <v>-5.1726928160554235E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>146.14102155</v>
+        <v>163.93528058000001</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -14163,27 +14335,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>10738.2258</v>
+        <v>10750.4326</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>-6.8129276682004081E-3</v>
+        <v>1.136761344690651E-3</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>-3.210814122620731E-2</v>
+        <v>-3.1007879175312447E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>5.5176845414202313E-2</v>
+        <v>5.637632966388173E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>5.5176845414202313E-2</v>
+        <v>5.637632966388173E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>250.89016899999999</v>
+        <v>279.20319499999999</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -14199,31 +14371,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>7210.6814999999997</v>
+        <v>7335.8182999999999</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>-1.8487217133584477E-2</v>
+        <v>1.7354365187257192E-2</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>-2.4019532815642508E-2</v>
+        <v>-7.0820113724952005E-3</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>0.10550120994947187</v>
+        <v>0.12468648166188977</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>0.10550120994947187</v>
+        <v>0.12468648166188977</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>279.29264699999999</v>
+        <v>294.502095</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>420.33577400000001</v>
+        <v>367.82209240000003</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14246,31 +14418,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>32607.29</v>
+        <v>32887.269999999997</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>-1.0907913970653493E-2</v>
+        <v>8.586423465427373E-3</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>-1.6493576062341586E-2</v>
+        <v>-8.0487734254447441E-3</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>8.9846803802915431E-2</v>
+        <v>9.9204689972809845E-2</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>8.9846803802915431E-2</v>
+        <v>9.9204689972809845E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1734.479417</v>
+        <v>1768.164315</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1841.1796869999998</v>
+        <v>1819.1218723999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -14282,31 +14454,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>13389.38</v>
+        <v>13561.65</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>-1.9781706478744998E-2</v>
+        <v>1.2866167066734935E-2</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>-2.4379260796446478E-2</v>
+        <v>-1.1826761372082051E-2</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>0.14348253097964858</v>
+        <v>0.15819476826112577</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>0.14348253097964858</v>
+        <v>0.15819476826112577</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>411.38076799999999</v>
+        <v>400.11377599999997</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>470.72101220000002</v>
+        <v>445.51387839999995</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -14318,23 +14490,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>127.68</v>
+        <v>128.16999999999999</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>3.1338138514569458E-4</v>
+        <v>3.8377192982455011E-3</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>-5.2976004985977321E-3</v>
+        <v>-1.4802119040201456E-3</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-2.0483314154200127E-2</v>
+        <v>-1.67242040659763E-2</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-2.0483314154200127E-2</v>
+        <v>-1.67242040659763E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -14400,31 +14572,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3222.9832000000001</v>
+        <v>3217.7233999999999</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>-1.0737589365192535E-2</v>
+        <v>-1.6319663099703119E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>-1.7206567546009688E-2</v>
+        <v>-1.8810453317434583E-2</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>7.6483607053178693E-2</v>
+        <v>7.4726822073232668E-2</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>7.6483607053178693E-2</v>
+        <v>7.4726822073232668E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>401.20439010000001</v>
+        <v>431.13069848999999</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>562.66925903800006</v>
+        <v>510.21643131399998</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -14436,31 +14608,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>5077.6356999999998</v>
+        <v>5071.8098</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>-1.2029587614561854E-2</v>
+        <v>-1.1473647075547211E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>-2.1704177183587636E-2</v>
+        <v>-2.2826639284235339E-2</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>6.8798763758613823E-2</v>
+        <v>6.7572461777599235E-2</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>6.8798763758613823E-2</v>
+        <v>6.7572461777599235E-2</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>688.54730500000005</v>
+        <v>721.55698900000004</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>893.67847280000001</v>
+        <v>822.5587493999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -14472,31 +14644,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9652.4866000000002</v>
+        <v>9797.1062999999995</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>-1.9248273816142136E-2</v>
+        <v>1.4982636702132179E-2</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>-4.7505573740661777E-2</v>
+        <v>-3.3234695791212188E-2</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>7.7332946947609837E-2</v>
+        <v>9.3474235098963229E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>7.7332946947609837E-2</v>
+        <v>9.3474235098963229E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>289.86701299999999</v>
+        <v>313.07701900000001</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>346.09884879999998</v>
+        <v>335.33366039999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -14508,31 +14680,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6499.5627999999997</v>
+        <v>6544.5057999999999</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>-1.7754985742585716E-2</v>
+        <v>6.914772790563628E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>-2.8236444481656409E-2</v>
+        <v>-2.1516920289096686E-2</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>8.6115810827541703E-2</v>
+        <v>9.3626054883652929E-2</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>8.6115810827541703E-2</v>
+        <v>9.3626054883652929E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>540.84132881999994</v>
+        <v>586.38589306999995</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>708.473958122</v>
+        <v>657.29674157800002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -14577,27 +14749,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>2083.59</v>
+        <v>2081.84</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>-6.475393029654164E-3</v>
+        <v>-8.3989652474814047E-4</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>-3.0847802931285417E-2</v>
+        <v>-3.1661790493555442E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>5.6978496096425246E-2</v>
+        <v>5.609074353082022E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>5.6978496096425246E-2</v>
+        <v>5.609074353082022E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>286.83769999999998</v>
+        <v>316.41329999999999</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -14614,27 +14786,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>4037.46</v>
+        <v>4106.41</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>-1.8273067468104087E-2</v>
+        <v>1.7077568570338819E-2</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>-2.3548731144932167E-2</v>
+        <v>-6.8733176454655043E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>0.10846449721199548</v>
+        <v>0.12739437567091927</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>0.10846449721199548</v>
+        <v>0.12739437567091927</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>279.29259999999999</v>
+        <v>294.50209999999998</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -14651,31 +14823,31 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11935.88</v>
+        <v>12166.64</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>-1.4180742133871327E-3</v>
+        <v>1.9333304289252284E-2</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>-4.1839660658838262E-2</v>
+        <v>-2.3315255260462409E-2</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>3.5215549204889784E-2</v>
+        <v>5.5229686422633373E-2</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>3.5215549204889784E-2</v>
+        <v>5.5229686422633373E-2</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>160.93039999999999</v>
+        <v>185.84360000000001</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
-        <v>179.19657999999998</v>
+        <v>182.15996000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -14687,31 +14859,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7861.5</v>
+        <v>7971.35</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>-1.4432178040322818E-2</v>
+        <v>1.3973160338357937E-2</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>-4.402483601952456E-2</v>
+        <v>-3.0666841773737352E-2</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>8.823244417989784E-2</v>
+        <v>0.10343849060782651</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>8.823244417989784E-2</v>
+        <v>0.10343849060782651</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>103.4541</v>
+        <v>112.73690000000001</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>127.76822</v>
+        <v>125.92909999999999</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -14725,31 +14897,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3273.89</v>
+        <v>3202.54</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>-4.7932198836198037E-4</v>
+        <v>-2.1793646090736085E-2</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>-2.7390830310538461E-2</v>
+        <v>-4.8587530339355256E-2</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>-5.7848980261359317E-2</v>
+        <v>-7.8381886149569313E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-5.7848980261359317E-2</v>
+        <v>-7.8381886149569313E-2</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>280.42750000000001</v>
+        <v>376.81560000000002</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>384.53409999999997</v>
+        <v>363.74969999999996</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -14763,27 +14935,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4177.1099999999997</v>
+        <v>4028.31</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>-5.2640268369674725E-4</v>
+        <v>-3.5622715226556134E-2</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>-2.0117901789170278E-2</v>
+        <v>-5.5023962729334963E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>-9.1845154809322427E-4</v>
+        <v>-3.650844903670214E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>-9.1845154809322427E-4</v>
+        <v>-3.650844903670214E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>171.8288</v>
+        <v>243.87049999999999</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -14801,27 +14973,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5723</v>
+        <v>5733.43</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>8.6918046949735484E-4</v>
+        <v>1.8224707321334854E-3</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>-8.8515805899090916E-3</v>
+        <v>-7.0452416043337296E-3</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>6.0415717054479012E-2</v>
+        <v>6.2348293662705334E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>6.0415717054479012E-2</v>
+        <v>6.2348293662705334E-2</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>17.4544</v>
+        <v>23.856000000000002</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -14839,27 +15011,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>8042.98</v>
+        <v>7970.11</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>-5.7532609060328976E-4</v>
+        <v>-9.060074748414082E-3</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>-2.0986222200041649E-2</v>
+        <v>-2.9856160206636506E-2</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>-4.0405616417831247E-3</v>
+        <v>-1.3064028599697131E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>-4.0405616417831247E-3</v>
+        <v>-1.3064028599697131E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>218.14420000000001</v>
+        <v>252.7664</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -14877,27 +15049,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3679.49</v>
+        <v>3619.25</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>-7.7075136122026766E-3</v>
+        <v>-1.6371834140057384E-2</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>8.9391234723283919E-3</v>
+        <v>-7.5790605145753531E-3</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>7.3751882244452283E-2</v>
+        <v>5.6172594520771835E-2</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>7.3751882244452283E-2</v>
+        <v>5.6172594520771835E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>151.8227</v>
+        <v>124.4021</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -14915,27 +15087,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>5093.38</v>
+        <v>5021.3</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>-2.8075148990156507E-3</v>
+        <v>-1.4151702798534505E-2</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>-1.8968153994907366E-2</v>
+        <v>-3.2851425115469124E-2</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>-2.0773133542122069E-2</v>
+        <v>-3.4630861128574275E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-2.0773133542122069E-2</v>
+        <v>-3.4630861128574275E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>101.7226</v>
+        <v>135.12700000000001</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -14953,27 +15125,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>944.81</v>
+        <v>917.88</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>-9.2384807365617494E-3</v>
+        <v>-2.8503085276404772E-2</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>-2.2785569484092605E-2</v>
+        <v>-5.0639195730420743E-2</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>1.7204439994401355E-2</v>
+        <v>-1.1789024902296497E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>1.7204439994401355E-2</v>
+        <v>-1.1789024902296497E-2</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>187.16569999999999</v>
+        <v>232.08779999999999</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -14991,27 +15163,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2643</v>
+        <v>2595.81</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>-1.1238140843384259E-2</v>
+        <v>-1.7854710556186149E-2</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>-4.8613235902881587E-2</v>
+        <v>-6.5599971202822238E-2</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>-5.5504731410274788E-2</v>
+        <v>-7.2368421052631637E-2</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-5.5504731410274788E-2</v>
+        <v>-7.2368421052631637E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>145.8717</v>
+        <v>135.01070000000001</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -15029,31 +15201,31 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>3038.07</v>
+        <v>2995.93</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>1.8466794395328723E-3</v>
+        <v>-1.3870648141747988E-2</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>-5.1607325882579991E-3</v>
+        <v>-1.8959798024120511E-2</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>2.0232922070507975E-2</v>
+        <v>6.0816301858406252E-3</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>2.0232922070507975E-2</v>
+        <v>6.0816301858406252E-3</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>89.025199999999998</v>
+        <v>100.7281</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
-        <v>92.898179999999996</v>
+        <v>94.12</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -15067,27 +15239,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>5532.78</v>
+        <v>5579.14</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>-2.2216174279710676E-2</v>
+        <v>8.3791511681290398E-3</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>-3.3182063617157809E-2</v>
+        <v>-2.5080949976147404E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>0.12674960644673838</v>
+        <v>0.13619081172778547</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>0.12674960644673838</v>
+        <v>0.13619081172778547</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>305.01240000000001</v>
+        <v>346.99119999999999</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -15105,31 +15277,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2767.43</v>
+        <v>2740.44</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>5.7164661845405806E-3</v>
+        <v>-9.7527308730481765E-3</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>7.3768980143840146E-4</v>
+        <v>-9.0222355617108896E-3</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>1.4004052454739568E-2</v>
+        <v>4.1147438269681924E-3</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>1.4004052454739568E-2</v>
+        <v>4.1147438269681924E-3</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>50.350099999999998</v>
+        <v>70.757599999999996</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>44.618920000000003</v>
+        <v>50.56306</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -15143,27 +15315,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3274.53</v>
+        <v>3205.37</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>2.1882976574503221E-3</v>
+        <v>-2.1120588298168097E-2</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>-5.4790027243156736E-3</v>
+        <v>-2.6483871261658853E-2</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>2.7271301292508543E-2</v>
+        <v>5.5747270673860427E-3</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>2.7271301292508543E-2</v>
+        <v>5.5747270673860427E-3</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>322.93610000000001</v>
+        <v>356.89240000000001</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -15181,27 +15353,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1432.93</v>
+        <v>1402.86</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>-2.7559520909742341E-3</v>
+        <v>-2.0984974841757875E-2</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>-1.8003015350877227E-2</v>
+        <v>-3.8610197368421195E-2</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>-1.7410444895496147E-2</v>
+        <v>-3.8030061989138164E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-1.7410444895496147E-2</v>
+        <v>-3.8030061989138164E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>189.3588</v>
+        <v>235.541</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -15219,31 +15391,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>3003.19</v>
+        <v>2936</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>-9.714276293011026E-3</v>
+        <v>-2.2372876840959122E-2</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>-1.8029447443539404E-2</v>
+        <v>-3.9998953677333637E-2</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>2.405682252168706E-2</v>
+        <v>1.1457253532654033E-3</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>2.405682252168706E-2</v>
+        <v>1.1457253532654033E-3</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>79.095500000000001</v>
+        <v>91.152600000000007</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>87.445300000000003</v>
+        <v>89.797260000000009</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -15257,27 +15429,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2724.38</v>
+        <v>2653.98</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>-2.9789351953507515E-3</v>
+        <v>-2.584074174674611E-2</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>-1.348126636273772E-2</v>
+        <v>-3.897364218698518E-2</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>-1.6508369703730152E-2</v>
+        <v>-4.1922522932302364E-2</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-1.6508369703730152E-2</v>
+        <v>-4.1922522932302364E-2</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>25.8658</v>
+        <v>33.153100000000002</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -15295,27 +15467,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>3004.3</v>
+        <v>2965.82</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>-2.3974604186589588E-3</v>
+        <v>-1.2808308091735165E-2</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>-1.0493518128161794E-2</v>
+        <v>-2.3167422006745264E-2</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>3.3161730063586248E-2</v>
+        <v>1.9928676316341543E-2</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>3.3161730063586248E-2</v>
+        <v>1.9928676316341543E-2</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>134.2159</v>
+        <v>134.31489999999999</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -15333,31 +15505,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4556.99</v>
+        <v>4494.68</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>8.4982262165851363E-3</v>
+        <v>-1.3673499393239696E-2</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>-2.0519626135477864E-3</v>
+        <v>-1.5697404497236223E-2</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>2.9618834587315623E-2</v>
+        <v>1.5540342077317693E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>2.9618834587315623E-2</v>
+        <v>1.5540342077317693E-2</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>114.33920000000001</v>
+        <v>104.2208</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>112.73769999999999</v>
+        <v>110.62840000000001</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -15371,27 +15543,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3310.71</v>
+        <v>3300.08</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>-1.4446720091449206E-2</v>
+        <v>-3.2107916428802952E-3</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>6.9099966849048844E-3</v>
+        <v>3.6770184824164165E-3</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>6.9658267395989126E-2</v>
+        <v>6.6223817570296273E-2</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>6.9658267395989126E-2</v>
+        <v>6.6223817570296273E-2</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>128.8681</v>
+        <v>106.7971</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -15409,27 +15581,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>5225.2299999999996</v>
+        <v>5107.67</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>2.5114444354907839E-3</v>
+        <v>-2.2498531165135227E-2</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>-1.0136888727234172E-2</v>
+        <v>-3.2407354785422227E-2</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>-2.9092496934111423E-2</v>
+        <v>-5.0936489650302841E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-2.9092496934111423E-2</v>
+        <v>-5.0936489650302841E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>119.49120000000001</v>
+        <v>146.04429999999999</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -15447,27 +15619,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>3090.56</v>
+        <v>3059.71</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>-1.4606057321043142E-2</v>
+        <v>-9.9820097328638946E-3</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>-2.4844602909159796E-2</v>
+        <v>-3.4578613573975403E-2</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>2.415779113617833E-2</v>
+        <v>1.393463809706863E-2</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>2.415779113617833E-2</v>
+        <v>1.393463809706863E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>131.8877</v>
+        <v>158.17599999999999</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -15485,27 +15657,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2643.72</v>
+        <v>2581.15</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>-5.2002980199734594E-3</v>
+        <v>-2.3667408046237792E-2</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>-1.0920681953376699E-2</v>
+        <v>-3.4329625763680705E-2</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>-1.4122218534526332E-2</v>
+        <v>-3.7455390272189248E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-1.4122218534526332E-2</v>
+        <v>-3.7455390272189248E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>129.3964</v>
+        <v>147.76599999999999</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -15523,27 +15695,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>4146.6499999999996</v>
+        <v>4091.91</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>-5.0913296240046035E-3</v>
+        <v>-1.3201017688977745E-2</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>-3.9465972308964092E-3</v>
+        <v>-1.7095515820017892E-2</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>1.6883946984402876E-4</v>
+        <v>-1.3034407071961795E-2</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>1.6883946984402876E-4</v>
+        <v>-1.3034407071961795E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>320.55489999999998</v>
+        <v>321.75740000000002</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -15561,27 +15733,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>6287.09</v>
+        <v>6229.67</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>-1.7709719956752856E-2</v>
+        <v>-9.1330011181643966E-3</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>-2.5352562462891193E-2</v>
+        <v>-3.4254018599733649E-2</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>4.7436341705595853E-2</v>
+        <v>3.7870104425592688E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>4.7436341705595853E-2</v>
+        <v>3.7870104425592688E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>87.5411</v>
+        <v>94.822699999999998</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -15599,27 +15771,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1252.17</v>
+        <v>1226.08</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>-4.151066904022338E-4</v>
+        <v>-2.0835829000854678E-2</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>-1.3682121083226861E-2</v>
+        <v>-3.4232871748822391E-2</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>-2.4956783105698377E-2</v>
+        <v>-4.5272616841351192E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-2.4956783105698377E-2</v>
+        <v>-4.5272616841351192E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>40.240900000000003</v>
+        <v>53.160400000000003</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -15703,31 +15875,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1529.4729</v>
+        <v>1483.4362000000001</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>-4.4022538727452876E-3</v>
+        <v>-3.0099716052504055E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>-2.1475334247748168E-2</v>
+        <v>-5.0928648837262343E-2</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>-2.486159260552101E-2</v>
+        <v>-5.4212981779985799E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-2.486159260552101E-2</v>
+        <v>-5.4212981779985799E-2</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>74.327040749999995</v>
+        <v>107.17491434999999</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>101.66427510600001</v>
+        <v>98.677173115999992</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -15739,31 +15911,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>9398.1789000000008</v>
+        <v>9127.1908999999996</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>-6.0929109673115711E-3</v>
+        <v>-2.8834096784431384E-2</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>-3.0044416370371141E-2</v>
+        <v>-5.8012209545347471E-2</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>-7.8158028445316274E-2</v>
+        <v>-0.10473850907307503</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-7.8158028445316274E-2</v>
+        <v>-0.10473850907307503</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>66.712395360000002</v>
+        <v>80.067466030000006</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>90.018318323999992</v>
+        <v>84.383018061999991</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -15775,31 +15947,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2333.1396</v>
+        <v>2265.2020000000002</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>-8.2506230686910653E-3</v>
+        <v>-2.9118531955824589E-2</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>-2.9792487400428169E-2</v>
+        <v>-5.8043505859839861E-2</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>-5.3443642270490921E-2</v>
+        <v>-8.1005973821026492E-2</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-5.3443642270490921E-2</v>
+        <v>-8.1005973821026492E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>91.349428709999998</v>
+        <v>105.99021643</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>138.01102169999999</v>
+        <v>123.872105362</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -15811,31 +15983,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3292.4670000000001</v>
+        <v>3157.0136000000002</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>-1.9283594751111521E-2</v>
+        <v>-4.1140397155081561E-2</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>-2.1131347443374637E-2</v>
+        <v>-6.1402392572213686E-2</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>3.3282025959819661E-2</v>
+        <v>-9.2276069613747014E-3</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>3.3282025959819661E-2</v>
+        <v>-9.2276069613747014E-3</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>64.808951699999994</v>
+        <v>70.002813410000002</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>83.02064219799999</v>
+        <v>77.814278782000002</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -15848,31 +16020,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>2037.5340000000001</v>
+        <v>1980.4757999999999</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>-7.8577385925593379E-4</v>
+        <v>-2.8003557241253474E-2</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>-9.3945749177640758E-3</v>
+        <v>-3.7135050642550738E-2</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>-2.5589382371791203E-3</v>
+        <v>-3.0490836105031005E-2</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-2.5589382371791203E-3</v>
+        <v>-3.0490836105031005E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>9.4681956799999991</v>
+        <v>15.419155330000001</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>12.159869349999999</v>
+        <v>12.808569995999999</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -15885,31 +16057,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>6182.0328</v>
+        <v>5989.6324000000004</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>-9.8433414544327746E-3</v>
+        <v>-3.112251361720364E-2</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>-3.6402665518669108E-2</v>
+        <v>-6.6392236682565442E-2</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>-3.9091454754970556E-2</v>
+        <v>-6.8997344039246289E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-3.9091454754970556E-2</v>
+        <v>-6.8997344039246289E-2</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>93.00120192</v>
+        <v>118.96724277</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>131.19611562400002</v>
+        <v>128.132742466</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -15922,31 +16094,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6960.2087000000001</v>
+        <v>6754.1013000000003</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>-9.6239750324583762E-3</v>
+        <v>-2.9612244242044006E-2</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>-2.0082993947518557E-2</v>
+        <v>-4.910053566767713E-2</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>1.0597378432192883E-2</v>
+        <v>-1.9328677968310615E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>1.0597378432192883E-2</v>
+        <v>-1.9328677968310615E-2</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>51.604361130000001</v>
+        <v>63.982815739999999</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>80.497607087999995</v>
+        <v>73.487294601999992</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -15959,31 +16131,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2881.7278999999999</v>
+        <v>2764.3418000000001</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>-1.8878293076728392E-3</v>
+        <v>-4.0734623140512231E-2</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>-2.3135071141939689E-2</v>
+        <v>-6.2927295878156042E-2</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>-4.4559114070818806E-2</v>
+        <v>-8.3478638492181179E-2</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-4.4559114070818806E-2</v>
+        <v>-8.3478638492181179E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>78.912350349999997</v>
+        <v>90.340853019999997</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>115.33526787599999</v>
+        <v>107.61501456000001</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -15996,31 +16168,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>4915.8783000000003</v>
+        <v>4746.6818000000003</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>-1.662893870340576E-3</v>
+        <v>-3.4418366296822267E-2</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>-3.6376454463641794E-2</v>
+        <v>-6.9542802626154754E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>-6.2815685559481471E-2</v>
+        <v>-9.5072038581531459E-2</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>-6.2815685559481471E-2</v>
+        <v>-9.5072038581531459E-2</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>56.756336339999997</v>
+        <v>56.951259899999997</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>82.566090729999999</v>
+        <v>75.257067329999998</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -16034,31 +16206,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1847.4186999999999</v>
+        <v>1819.3932</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-9.0340378933094767E-3</v>
+        <v>-1.5170085698493763E-2</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>-1.8891016060996191E-2</v>
+        <v>-3.3774523426913006E-2</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>-1.2351710009291805E-3</v>
+        <v>-1.6386519049486625E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-1.2351710009291805E-3</v>
+        <v>-1.6386519049486625E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>51.463381310000003</v>
+        <v>58.743404060000003</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>68.236034865999997</v>
+        <v>68.708381887999991</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -16072,31 +16244,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2597.1080999999999</v>
+        <v>2542.4155999999998</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>-1.8626381874611297E-3</v>
+        <v>-2.1059000201031353E-2</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>-1.6315938745509184E-2</v>
+        <v>-3.7031341589218836E-2</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>-6.4728830031074436E-3</v>
+        <v>-2.7395570759675136E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-6.4728830031074436E-3</v>
+        <v>-2.7395570759675136E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>12.044389320000001</v>
+        <v>18.0638942</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>20.319959398000002</v>
+        <v>17.919707566</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -16110,31 +16282,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>999.43020000000001</v>
+        <v>967.0915</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>1.4546640580659798E-2</v>
+        <v>-3.2357137096717725E-2</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>1.9915310891027715E-4</v>
+        <v>-3.2164428012255719E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>2.7749107225215841E-2</v>
+        <v>-5.5059115382997126E-3</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>2.7749107225215841E-2</v>
+        <v>-5.5059115382997126E-3</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>48.863958650000001</v>
+        <v>42.527114650000001</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>43.404050372</v>
+        <v>45.052412836000002</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -16148,31 +16320,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2489.2723000000001</v>
+        <v>2429.2194</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>-2.141333202598239E-3</v>
+        <v>-2.4124680935870391E-2</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>-1.848601014519724E-2</v>
+        <v>-4.2164721984537357E-2</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>-4.852438223058142E-2</v>
+        <v>-7.1478427927528787E-2</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-4.852438223058142E-2</v>
+        <v>-7.1478427927528787E-2</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>44.151201309999998</v>
+        <v>50.678895939999997</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>47.732850522</v>
+        <v>49.685815658000003</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -16186,31 +16358,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1591.44</v>
+        <v>1507.9627</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>-1.868726668664511E-2</v>
+        <v>-5.2453941084803724E-2</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>-3.4905769534449904E-2</v>
+        <v>-8.5528765440573876E-2</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>1.3694597176720613E-2</v>
+        <v>-3.9477679501570773E-2</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>1.3694597176720613E-2</v>
+        <v>-3.9477679501570773E-2</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>10.536337720000001</v>
+        <v>12.77135679</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>18.083941802000002</v>
+        <v>15.461925901999999</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -16224,31 +16396,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>2042.1252999999999</v>
+        <v>1982.1161</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>9.5952896421214184E-4</v>
+        <v>-2.9385660125752278E-2</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>-1.030868429436882E-2</v>
+        <v>-3.9391416927103129E-2</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>-2.3474575100024486E-2</v>
+        <v>-5.2170419340290985E-2</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-2.3474575100024486E-2</v>
+        <v>-5.2170419340290985E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>95.463573640000007</v>
+        <v>82.489258620000001</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>65.994679976</v>
+        <v>70.536546396000006</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -16262,31 +16434,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4780.4027999999998</v>
+        <v>4709.7293</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>7.8713389865652239E-3</v>
+        <v>-1.4784005230688901E-2</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>1.7750670938896373E-3</v>
+        <v>-1.303518073800003E-2</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>5.028958196350386E-2</v>
+        <v>3.4762095290017392E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>5.028958196350386E-2</v>
+        <v>3.4762095290017392E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>8.0491472799999997</v>
+        <v>12.86325366</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>9.7670866820000004</v>
+        <v>10.221931688</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -16300,31 +16472,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4202.7816999999995</v>
+        <v>4059.7170000000001</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>-4.0392182000849042E-3</v>
+        <v>-3.4040478476433655E-2</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>-3.1975400441076607E-2</v>
+        <v>-6.4927420987020423E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>-3.444466185692685E-2</v>
+        <v>-6.7312627562791771E-2</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>-3.444466185692685E-2</v>
+        <v>-6.7312627562791771E-2</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>84.236880720000016</v>
+        <v>87.983507829999994</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>116.83162531800001</v>
+        <v>108.37754599</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -16338,31 +16510,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2537.1305000000002</v>
+        <v>2481.3937999999998</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>-1.1369821066198327E-4</v>
+        <v>-2.1968400915916786E-2</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>-1.543911524000896E-2</v>
+        <v>-3.7068343482546173E-2</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>-6.3143294260380567E-2</v>
+        <v>-8.3724537972833524E-2</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-6.3143294260380567E-2</v>
+        <v>-8.3724537972833524E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>27.90222254</v>
+        <v>37.77238766</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>42.989746378</v>
+        <v>38.982681475999996</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -16376,31 +16548,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2707.79</v>
+        <v>2574.9294</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>-1.0179600902561092E-2</v>
+        <v>-4.9066064945952226E-2</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>-2.355073215033654E-2</v>
+        <v>-7.146125534307568E-2</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>3.4355607790065745E-2</v>
+        <v>-1.6396151638971568E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>3.4355607790065745E-2</v>
+        <v>-1.6396151638971568E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>31.26218411</v>
+        <v>40.739767819999997</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>52.181413829999997</v>
+        <v>47.647101564000003</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -16414,31 +16586,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3941.9537</v>
+        <v>3826.2959999999998</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>2.3097944062233644E-4</v>
+        <v>-2.9340197476190655E-2</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>-7.6606377020835836E-3</v>
+        <v>-3.6776070555301521E-2</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>3.0966038031533749E-2</v>
+        <v>7.1729088444283384E-4</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>3.0966038031533749E-2</v>
+        <v>7.1729088444283384E-4</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>58.917927579999997</v>
+        <v>61.042303320000002</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>64.916353286000003</v>
+        <v>61.616175225999996</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -16452,31 +16624,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3501.7251000000001</v>
+        <v>3375.3777</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>-9.5683155094431482E-3</v>
+        <v>-3.60814731002157E-2</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>-2.6996871279835966E-2</v>
+        <v>-6.2104257495178228E-2</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>-3.0407178717765992E-2</v>
+        <v>-6.5391516017023088E-2</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-3.0407178717765992E-2</v>
+        <v>-6.5391516017023088E-2</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>174.01533666</v>
+        <v>194.97901794000001</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>236.69727345199999</v>
+        <v>218.44460472199998</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -16490,31 +16662,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>2119.0214000000001</v>
+        <v>2064.1568000000002</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>-5.2872275710378336E-3</v>
+        <v>-2.5891479906715364E-2</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>-1.5435940722872687E-2</v>
+        <v>-4.0927761280520558E-2</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>-6.5841094253609622E-2</v>
+        <v>-9.0027850791421504E-2</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-6.5841094253609622E-2</v>
+        <v>-9.0027850791421504E-2</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>21.410419770000001</v>
+        <v>26.00604929</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>20.84436097</v>
+        <v>22.359827045999999</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -16528,31 +16700,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>4040.6842999999999</v>
+        <v>3896.9083999999998</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>3.1188983647709723E-3</v>
+        <v>-3.5582067126600392E-2</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>-1.9293491985744704E-2</v>
+        <v>-5.4189056785401757E-2</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>-3.9437853465338901E-2</v>
+        <v>-7.3616640242606501E-2</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-3.9437853465338901E-2</v>
+        <v>-7.3616640242606501E-2</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>35.499875189999997</v>
+        <v>36.98928085</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>46.381484116000003</v>
+        <v>42.215706304000001</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -16566,31 +16738,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1374.6488999999999</v>
+        <v>1342.537</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>4.0749559920236766E-3</v>
+        <v>-2.336007397961759E-2</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>-1.4784073210108994E-3</v>
+        <v>-2.4803945596237553E-2</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>3.2477016125564973E-4</v>
+        <v>-2.3042890473355282E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>3.2477016125564973E-4</v>
+        <v>-2.3042890473355282E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>21.630615209999998</v>
+        <v>23.246923840000001</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>21.751390688000001</v>
+        <v>23.006002950000003</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -16604,31 +16776,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2611.5435000000002</v>
+        <v>2555.6822000000002</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>-3.6628277199388659E-3</v>
+        <v>-2.1390147244340407E-2</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>-1.3802345491288226E-2</v>
+        <v>-3.4897258533252651E-2</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>-7.0832961684889062E-3</v>
+        <v>-2.8321930664810036E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-7.0832961684889062E-3</v>
+        <v>-2.8321930664810036E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>180.97330484</v>
+        <v>202.33938749000001</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>219.15874897399999</v>
+        <v>206.56012395600001</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -16642,31 +16814,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>4945.7428</v>
+        <v>4754.0879999999997</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>-1.4780225566335403E-4</v>
+        <v>-3.8751469243406778E-2</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>-2.1891042804993766E-2</v>
+        <v>-5.979420197643659E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>-3.0571762481807374E-2</v>
+        <v>-6.8138531011683656E-2</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>-3.0571762481807374E-2</v>
+        <v>-6.8138531011683656E-2</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>75.949234700000005</v>
+        <v>116.37212881000001</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>109.52335712999999</v>
+        <v>101.530865612</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -16680,31 +16852,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>2003.2907</v>
+        <v>1966.0767000000001</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>5.2741069765693815E-4</v>
+        <v>-1.8576435262241286E-2</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>-1.3549101162429911E-2</v>
+        <v>-3.1873842424065657E-2</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>5.5008424302143144E-3</v>
+        <v>-1.3177778875319568E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>5.5008424302143144E-3</v>
+        <v>-1.3177778875319568E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>107.4281123</v>
+        <v>108.21313551</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>142.71266019199999</v>
+        <v>133.10496766199998</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -16718,31 +16890,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3255.6408999999999</v>
+        <v>3132.4144999999999</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>-2.394731229714786E-3</v>
+        <v>-3.7850120386434538E-2</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>-2.5368160187274502E-2</v>
+        <v>-6.225809265663839E-2</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>-7.6404811031893338E-2</v>
+        <v>-0.11136300012266798</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-7.6404811031893338E-2</v>
+        <v>-0.11136300012266798</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>30.472275239999998</v>
+        <v>43.44590883</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>40.278297817999999</v>
+        <v>38.737780795999996</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -16756,31 +16928,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3535.3926000000001</v>
+        <v>3442.875</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>-2.7128557645412776E-3</v>
+        <v>-2.6168974840304893E-2</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>-1.3765798428750475E-2</v>
+        <v>-3.9574536436316698E-2</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>-1.9420012100150541E-2</v>
+        <v>-4.5080785132408208E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-1.9420012100150541E-2</v>
+        <v>-4.5080785132408208E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>134.74326296000001</v>
+        <v>166.98867597</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>151.73385149999999</v>
+        <v>153.78761687399998</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -16794,31 +16966,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2414.6232</v>
+        <v>2367.5147999999999</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>1.8652122928914938E-3</v>
+        <v>-1.9509627837585586E-2</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>-1.7218975395707492E-2</v>
+        <v>-3.6392667431578318E-2</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>4.3429697039256698E-2</v>
+        <v>2.3072771975336082E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>4.3429697039256698E-2</v>
+        <v>2.3072771975336082E-2</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>28.215284149999999</v>
+        <v>34.163748890000001</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>36.351074663999995</v>
+        <v>35.815932388</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -16832,31 +17004,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1345.3570999999999</v>
+        <v>1323.7113999999999</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>7.0577130437743385E-3</v>
+        <v>-1.6089185540404172E-2</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>-1.0670160341403889E-2</v>
+        <v>-2.658767169232934E-2</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>-1.0531694002574699E-2</v>
+        <v>-2.6451433164116689E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-1.0531694002574699E-2</v>
+        <v>-2.6451433164116689E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>9.8586828400000002</v>
+        <v>8.6718105300000001</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>9.0189754859999987</v>
+        <v>9.2118179720000004</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -16870,31 +17042,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>4210.2212</v>
+        <v>4078.5666000000001</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>4.9608691130909044E-4</v>
+        <v>-3.1270233497470379E-2</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>-1.4660381107468257E-2</v>
+        <v>-4.5472181064546202E-2</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>-2.836301662985885E-2</v>
+        <v>-5.8746331974620869E-2</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-2.836301662985885E-2</v>
+        <v>-5.8746331974620869E-2</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>70.071152299999994</v>
+        <v>79.827516750000001</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>87.09226439599999</v>
+        <v>83.308163415999999</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -16908,31 +17080,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>3223.6289999999999</v>
+        <v>3137.3074000000001</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>1.5343818571174062E-3</v>
+        <v>-2.6777771263380434E-2</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>-1.4059797977054589E-2</v>
+        <v>-4.0461079186196125E-2</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>-2.7419781408558497E-2</v>
+        <v>-5.3463312037288609E-2</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-2.7419781408558497E-2</v>
+        <v>-5.3463312037288609E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>12.811326149999999</v>
+        <v>23.260433160000002</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>15.723454164</v>
+        <v>16.865205889999999</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -16946,31 +17118,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2568.7917000000002</v>
+        <v>2460.0122999999999</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>4.2459710012483498E-3</v>
+        <v>-4.2346524243285444E-2</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>3.2249129888599626E-3</v>
+        <v>-3.9258175110490678E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>8.5718532816231985E-2</v>
+        <v>3.9742126644945142E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>8.5718532816231985E-2</v>
+        <v>3.9742126644945142E-2</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>36.258471040000003</v>
+        <v>49.42494164</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>30.679363252000002</v>
+        <v>34.796858999999998</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -16984,31 +17156,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2272.1554999999998</v>
+        <v>2207.7424000000001</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>6.0684060855797917E-4</v>
+        <v>-2.8348896015259362E-2</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>-1.3335473855114355E-2</v>
+        <v>-4.1306323908740887E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>-1.6996192678403577E-2</v>
+        <v>-4.4863265394767593E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>-1.6996192678403577E-2</v>
+        <v>-4.4863265394767593E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>40.499790920000002</v>
+        <v>51.657558850000001</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>55.577906931999998</v>
+        <v>52.399138628000003</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -17022,31 +17194,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4429.4660000000003</v>
+        <v>4318.0063</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>1.2741449749398281E-3</v>
+        <v>-2.516323638108986E-2</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>-1.4691234406164932E-2</v>
+        <v>-3.9484791783162443E-2</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>-5.4829304532324041E-2</v>
+        <v>-7.8612858162856125E-2</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-5.4829304532324041E-2</v>
+        <v>-7.8612858162856125E-2</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>168.37355246000001</v>
+        <v>177.45058176000001</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>177.60211410799999</v>
+        <v>177.298304196</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -17060,31 +17232,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>5028.9579999999996</v>
+        <v>4823.6989000000003</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>4.1558101022272087E-3</v>
+        <v>-4.0815433336289446E-2</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>-1.8057198323720547E-2</v>
+        <v>-5.8135619285587969E-2</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>-5.8133448003906185E-2</v>
+        <v>-9.6576139468583455E-2</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-5.8133448003906185E-2</v>
+        <v>-9.6576139468583455E-2</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>34.854495729999996</v>
+        <v>65.596321709999998</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>45.845429258000003</v>
+        <v>47.250773307999999</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -17098,31 +17270,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5189.7696999999998</v>
+        <v>5056.4353000000001</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>-9.5583316569558541E-4</v>
+        <v>-2.5691775879765899E-2</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>-1.1961206771408439E-2</v>
+        <v>-3.734567800755173E-2</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>1.5552934308205479E-2</v>
+        <v>-1.0538424074079455E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>1.5552934308205479E-2</v>
+        <v>-1.0538424074079455E-2</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>127.0994903</v>
+        <v>158.11453243</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>171.213375388</v>
+        <v>164.60029806</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -17136,31 +17308,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>4855.9908999999998</v>
+        <v>4599.5246999999999</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>-4.7344681513203923E-3</v>
+        <v>-5.2814390570624765E-2</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>-3.5893957587077141E-2</v>
+        <v>-8.681263066257261E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>-0.11779274747249702</v>
+        <v>-0.16438598587172237</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-0.11779274747249702</v>
+        <v>-0.16438598587172237</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>93.632364080000002</v>
+        <v>110.38324007999999</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>145.24987075600001</v>
+        <v>130.21764166</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -17174,31 +17346,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1685.7981</v>
+        <v>1636.4664</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>-5.8415279651468088E-3</v>
+        <v>-2.9263112824720827E-2</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>-1.05641093904838E-2</v>
+        <v>-3.9518083490218125E-2</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>5.0362759602122775E-3</v>
+        <v>-2.4374213976148695E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>5.0362759602122775E-3</v>
+        <v>-2.4374213976148695E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>29.782255960000001</v>
+        <v>34.258211719999998</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>47.034468619999998</v>
+        <v>40.506295944000001</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -17212,31 +17384,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>5192.2069000000001</v>
+        <v>5119.2385999999997</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>-6.7471168167482221E-3</v>
+        <v>-1.405342687711475E-2</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>-2.8984517427247281E-2</v>
+        <v>-4.2630612508129717E-2</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>-2.5491741071311358E-2</v>
+        <v>-3.9186921629310034E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-2.5491741071311358E-2</v>
+        <v>-3.9186921629310034E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>48.026056480000001</v>
+        <v>54.725647430000002</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>60.088998600000004</v>
+        <v>57.870461442</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -17250,31 +17422,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>11040.5738</v>
+        <v>10720.2312</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>-2.8874931624802702E-3</v>
+        <v>-2.9015031809306868E-2</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>-2.2402423366775115E-2</v>
+        <v>-5.0767448149489421E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>-8.444933761816098E-3</v>
+        <v>-3.7214935549396366E-2</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>-8.444933761816098E-3</v>
+        <v>-3.7214935549396366E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>21.197950649999999</v>
+        <v>30.080034260000001</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>33.462981036000002</v>
+        <v>31.82330743</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -17288,31 +17460,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>2159.8546000000001</v>
+        <v>2124.4351999999999</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>-1.5114251425252245E-3</v>
+        <v>-1.639897426428627E-2</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>-1.6183593957466491E-2</v>
+        <v>-3.2317173880940575E-2</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>-7.6071572697966605E-3</v>
+        <v>-2.3881381957791104E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-7.6071572697966605E-3</v>
+        <v>-2.3881381957791104E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>162.47852957999999</v>
+        <v>156.05930935999999</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>204.01249689599999</v>
+        <v>199.97215807399999</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -17326,31 +17498,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2606.7565</v>
+        <v>2533.0969</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>-3.2121592097270613E-3</v>
+        <v>-2.8257184742802033E-2</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>-2.0504922582224694E-2</v>
+        <v>-4.8182695939483988E-2</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>-5.6183302775605244E-2</v>
+        <v>-8.2852905552416201E-2</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-5.6183302775605244E-2</v>
+        <v>-8.2852905552416201E-2</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>84.131483520000003</v>
+        <v>94.867320950000007</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>102.89253752400001</v>
+        <v>102.03652638999999</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -17364,31 +17536,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1211.8214</v>
+        <v>1173.6454000000001</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>-3.8517654356476916E-3</v>
+        <v>-3.1502992107582783E-2</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>-1.8895124428829013E-2</v>
+        <v>-4.9802863580658663E-2</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>-2.3210157725639946E-2</v>
+        <v>-5.3981960417576191E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-2.3210157725639946E-2</v>
+        <v>-5.3981960417576191E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>6.5633940300000004</v>
+        <v>11.937516090000001</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>11.397313292</v>
+        <v>10.509292852</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -17402,31 +17574,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2952.0025999999998</v>
+        <v>2870.5432000000001</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>-2.8287615279244394E-3</v>
+        <v>-2.7594623392269257E-2</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>-1.767298582126009E-2</v>
+        <v>-4.4779929825574778E-2</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>-3.0699957803306699E-2</v>
+        <v>-5.7447427421835166E-2</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-3.0699957803306699E-2</v>
+        <v>-5.7447427421835166E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>49.480706640000001</v>
+        <v>59.345685680000003</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>64.086856537999992</v>
+        <v>63.575130432000002</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -17440,31 +17612,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>821.9194</v>
+        <v>802.52089999999998</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>5.2698674320188488E-3</v>
+        <v>-2.360146262516738E-2</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>3.7850805079162608E-3</v>
+        <v>-1.9905715553392045E-2</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>2.2231232226574527E-2</v>
+        <v>-1.8949199950997198E-3</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>2.2231232226574527E-2</v>
+        <v>-1.8949199950997198E-3</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>9.88003711</v>
+        <v>9.1676065799999993</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>11.794211526</v>
+        <v>11.055856477999999</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -17478,31 +17650,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4470.8495000000003</v>
+        <v>4340.9120000000003</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>8.3102439745985635E-4</v>
+        <v>-2.9063268624900052E-2</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>-1.411868814053574E-2</v>
+        <v>-4.2771621539376185E-2</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>1.1353143537739196E-2</v>
+        <v>-1.8040084547535251E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>1.1353143537739196E-2</v>
+        <v>-1.8040084547535251E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>35.32458364</v>
+        <v>48.425359999999998</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>52.369379600000002</v>
+        <v>47.742685576</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -17516,31 +17688,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>5187.3153000000002</v>
+        <v>4994.9294</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>-4.8256213030114514E-3</v>
+        <v>-3.708775905717554E-2</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>-1.9552047385248295E-2</v>
+        <v>-5.5914664819925249E-2</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>1.4819533816683217E-2</v>
+        <v>-2.2817848540025221E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>1.4819533816683217E-2</v>
+        <v>-2.2817848540025221E-2</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>95.455521099999999</v>
+        <v>119.47904263</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>133.61100939800002</v>
+        <v>120.768332672</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -17554,31 +17726,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>756.65819999999997</v>
+        <v>733.08</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>8.0166432974659863E-4</v>
+        <v>-3.1160965413445485E-2</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>-2.785958623613638E-2</v>
+        <v>-5.8152420046444719E-2</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>-4.7201814483836202E-2</v>
+        <v>-7.6891925788698967E-2</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-4.7201814483836202E-2</v>
+        <v>-7.6891925788698967E-2</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>8.79330006</v>
+        <v>12.96866316</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>13.288821332000001</v>
+        <v>13.187728509999999</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -17592,31 +17764,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>25950.081999999999</v>
+        <v>24646.1332</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>-4.861827092761728E-3</v>
+        <v>-5.0248349889607254E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>1.1698192193830836E-2</v>
+        <v>-3.91379725502079E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>3.078667650742406E-2</v>
+        <v>-2.1008653075266337E-2</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>3.078667650742406E-2</v>
+        <v>-2.1008653075266337E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>230.87715231000001</v>
+        <v>244.56524468999999</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>268.85225441199998</v>
+        <v>259.57578458</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -17630,31 +17802,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1952.8431</v>
+        <v>1901.6575</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>6.5585677824764321E-3</v>
+        <v>-2.6210810279637897E-2</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>-6.7458716116147732E-3</v>
+        <v>-3.2779867130269924E-2</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>3.1941608021023526E-2</v>
+        <v>4.8935823135201062E-3</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>3.1941608021023526E-2</v>
+        <v>4.8935823135201062E-3</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>70.495207769999993</v>
+        <v>77.755000510000002</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>68.669375442000003</v>
+        <v>69.761258143999996</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -17668,31 +17840,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2991.0216999999998</v>
+        <v>2938.9598999999998</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>8.6681431356818717E-3</v>
+        <v>-1.7406025506267575E-2</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>-5.4229626865831548E-4</v>
+        <v>-1.7938882552241631E-2</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>4.077418144365641E-2</v>
+        <v>2.2658439495183202E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>4.077418144365641E-2</v>
+        <v>2.2658439495183202E-2</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>27.000167950000002</v>
+        <v>32.276534679999997</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>29.450852228000002</v>
+        <v>28.364614011999997</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -17706,31 +17878,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2738.7482</v>
+        <v>2661.4805000000001</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>-5.0136446278784552E-3</v>
+        <v>-2.8212779838613811E-2</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>-1.8807875595039047E-2</v>
+        <v>-4.6490032980258E-2</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>-3.7050387498913984E-2</v>
+        <v>-6.4217872912085583E-2</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-3.7050387498913984E-2</v>
+        <v>-6.4217872912085583E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>21.910090019999998</v>
+        <v>29.40637993</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>32.771897594000002</v>
+        <v>31.473135828</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -17744,31 +17916,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1836.8162</v>
+        <v>1800.2557999999999</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>-1.8805322177330996E-3</v>
+        <v>-1.9904223405695198E-2</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>-1.8431133542260447E-2</v>
+        <v>-3.7968499548310275E-2</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>-8.0774980142013231E-3</v>
+        <v>-2.7820945094862881E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-8.0774980142013231E-3</v>
+        <v>-2.7820945094862881E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>94.682744310000004</v>
+        <v>94.641051430000005</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>108.30971083</v>
+        <v>106.78899149599999</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -17782,31 +17954,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2518.2570999999998</v>
+        <v>2454.4776999999999</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>-5.669906319819118E-3</v>
+        <v>-2.5326802414256999E-2</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>-1.5989476304296368E-2</v>
+        <v>-4.0911316411487049E-2</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>-1.5614327830366204E-2</v>
+        <v>-4.0545669248832183E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-1.5614327830366204E-2</v>
+        <v>-4.0545669248832183E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>83.094974050000005</v>
+        <v>99.086069910000006</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>102.87075167200001</v>
+        <v>98.409006016000006</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -17820,31 +17992,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1586.8213000000001</v>
+        <v>1546.4567</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>-3.6155811132556614E-3</v>
+        <v>-2.543739487237795E-2</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>-6.6537281316356722E-3</v>
+        <v>-3.1921869494155763E-2</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>2.3490560348400136E-2</v>
+        <v>-2.5443731833334482E-3</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>2.3490560348400136E-2</v>
+        <v>-2.5443731833334482E-3</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>38.966511490000002</v>
+        <v>37.865257960000001</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>43.149705310000002</v>
+        <v>41.980014453999999</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -17858,31 +18030,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2873.3159000000001</v>
+        <v>2768.0873000000001</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>-1.6983854029537504E-3</v>
+        <v>-3.662270479900942E-2</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>-1.8905085285948808E-2</v>
+        <v>-5.4835434727330767E-2</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>-4.6770268327724906E-2</v>
+        <v>-8.1680119396397632E-2</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-4.6770268327724906E-2</v>
+        <v>-8.1680119396397632E-2</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>11.73388491</v>
+        <v>22.873725520000001</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>15.59097476</v>
+        <v>16.777014638000001</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -17896,31 +18068,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6569.0685999999996</v>
+        <v>6376.5366000000004</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>-1.4560591671769485E-3</v>
+        <v>-2.9308873407106639E-2</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>-1.731022351553424E-2</v>
+        <v>-4.6111753772975383E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>-6.4768142180652299E-3</v>
+        <v>-3.5595859497173254E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>-6.4768142180652299E-3</v>
+        <v>-3.5595859497173254E-2</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>35.451991339999999</v>
+        <v>41.374535940000001</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>49.530262788000002</v>
+        <v>44.627494142000003</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -17934,31 +18106,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1591.0038999999999</v>
+        <v>1544.6194</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>2.945665000200659E-3</v>
+        <v>-2.9154234002820467E-2</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>-4.8807010626422676E-3</v>
+        <v>-3.3892641964584524E-2</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>-2.6402539889860743E-2</v>
+        <v>-5.4787028066463413E-2</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-2.6402539889860743E-2</v>
+        <v>-5.4787028066463413E-2</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>21.632293199999999</v>
+        <v>22.1415437</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>20.883129115999999</v>
+        <v>21.49489926</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -17972,31 +18144,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1440.5469000000001</v>
+        <v>1411.498</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>1.3250703476601622E-3</v>
+        <v>-2.016518865161554E-2</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>-1.1408000835592125E-2</v>
+        <v>-3.1343144998220107E-2</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>-3.2723500071913936E-2</v>
+        <v>-5.2228813171238182E-2</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-3.2723500071913936E-2</v>
+        <v>-5.2228813171238182E-2</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>19.226495969999998</v>
+        <v>23.47079961</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>20.708134092000002</v>
+        <v>21.563825538</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -18010,31 +18182,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1914.8689999999999</v>
+        <v>1884.5767000000001</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>4.0408724500859972E-3</v>
+        <v>-1.5819515590883682E-2</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>-1.200503741635528E-2</v>
+        <v>-2.7634639130661776E-2</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>1.3337760220051731E-2</v>
+        <v>-2.6927522765806122E-3</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>1.3337760220051731E-2</v>
+        <v>-2.6927522765806122E-3</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>32.531443430000003</v>
+        <v>34.579890829999997</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>39.437501193999999</v>
+        <v>36.865332645999999</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -18048,31 +18220,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2247.3521000000001</v>
+        <v>2207.4837000000002</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>1.146081436777413E-3</v>
+        <v>-1.7740166305048488E-2</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>-1.713563498069326E-2</v>
+        <v>-3.4571812271441571E-2</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>-2.4217963977009926E-2</v>
+        <v>-4.1528499573536548E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-2.4217963977009926E-2</v>
+        <v>-4.1528499573536548E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>55.542446130000002</v>
+        <v>62.990629869999999</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>71.444256387999999</v>
+        <v>66.716617576000004</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -18086,31 +18258,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>4135.2227000000003</v>
+        <v>4008.4908</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>-2.072252087592652E-4</v>
+        <v>-3.064693468625046E-2</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>-1.3979938493306476E-2</v>
+        <v>-4.419843091763475E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>-2.4088471020386804E-2</v>
+        <v>-5.3997167908583776E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-2.4088471020386804E-2</v>
+        <v>-5.3997167908583776E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>53.77036536</v>
+        <v>71.390856690000007</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>77.123211072000004</v>
+        <v>74.687281102</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -18124,31 +18296,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2415.6352999999999</v>
+        <v>2330.2357000000002</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>-6.821159169466906E-3</v>
+        <v>-3.535285313971015E-2</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>-2.1558094523980942E-2</v>
+        <v>-5.6148807514012855E-2</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>-3.2696859089745622E-2</v>
+        <v>-6.6893784971926218E-2</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-3.2696859089745622E-2</v>
+        <v>-6.6893784971926218E-2</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>40.082036170000002</v>
+        <v>52.005647779999997</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>54.575871868</v>
+        <v>51.055240032</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -18162,31 +18334,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1940.3425</v>
+        <v>1889.6121000000001</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>1.1364504698552214E-3</v>
+        <v>-2.614507490301321E-2</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>-1.6295135211208844E-2</v>
+        <v>-4.2014172583570202E-2</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>-5.513046749549888E-3</v>
+        <v>-3.1513982632352278E-2</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-5.513046749549888E-3</v>
+        <v>-3.1513982632352278E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>23.805840679999999</v>
+        <v>31.917571779999999</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>27.181634972000001</v>
+        <v>27.603971266000002</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -18200,31 +18372,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>13206.0412</v>
+        <v>12779.2906</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>-4.0215427220745559E-3</v>
+        <v>-3.2314801501603596E-2</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>-2.5600607699853284E-2</v>
+        <v>-5.7088130645315704E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>-2.7083291002575893E-2</v>
+        <v>-5.8522901331421122E-2</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>-2.7083291002575893E-2</v>
+        <v>-5.8522901331421122E-2</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>32.499834110000002</v>
+        <v>41.430230999999999</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>47.939372429999999</v>
+        <v>44.007073659999996</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -18238,31 +18410,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>3018.2777999999998</v>
+        <v>2901.5506</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>2.1920444484321289E-2</v>
+        <v>-3.8673444836654802E-2</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>1.182312773882388E-2</v>
+        <v>-2.7307558176234981E-2</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>4.7214587515401751E-2</v>
+        <v>6.7151919329846432E-3</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>4.7214587515401751E-2</v>
+        <v>6.7151919329846432E-3</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>23.591469379999999</v>
+        <v>26.22570017</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>16.540727562000001</v>
+        <v>18.570880536000001</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -18276,31 +18448,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>2035.8941</v>
+        <v>1967.9501</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>1.2741860658772142E-2</v>
+        <v>-3.3373052164157202E-2</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>-1.7242237401444704E-3</v>
+        <v>-3.503973329547927E-2</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>5.045804365334261E-2</v>
+        <v>1.5401052566240914E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>5.045804365334261E-2</v>
+        <v>1.5401052566240914E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>19.575954469999999</v>
+        <v>21.632962460000002</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>23.017611104</v>
+        <v>21.506228748000002</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -18314,31 +18486,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3151.4301</v>
+        <v>3022.9243000000001</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>3.7755410642168474E-3</v>
+        <v>-4.0776979314883111E-2</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>-8.7033779067591244E-3</v>
+        <v>-4.9125459760768653E-2</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>-6.009638140264828E-2</v>
+        <v>-9.8422811816176181E-2</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-6.009638140264828E-2</v>
+        <v>-9.8422811816176181E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>31.99434041</v>
+        <v>47.564639790000001</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>43.386686492000003</v>
+        <v>43.086641135999997</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -18352,31 +18524,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1429.5897</v>
+        <v>1382.1697999999999</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>-4.6083844523110429E-3</v>
+        <v>-3.3170286551449046E-2</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>-1.4662175085509488E-2</v>
+        <v>-4.7346113087904589E-2</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>-3.3812938457171371E-2</v>
+        <v>-6.5861640150849499E-2</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-3.3812938457171371E-2</v>
+        <v>-6.5861640150849499E-2</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>21.504097099999999</v>
+        <v>27.770785010000001</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>32.56556398</v>
+        <v>30.888694588</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -18390,31 +18562,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1214.3796</v>
+        <v>1188.3149000000001</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>-8.5938008967543222E-3</v>
+        <v>-2.1463387560199387E-2</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>-1.449081535293939E-2</v>
+        <v>-3.5643180927155349E-2</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>-1.2074307838391474E-2</v>
+        <v>-3.3278539849934341E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-1.2074307838391474E-2</v>
+        <v>-3.3278539849934341E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>33.606927349999999</v>
+        <v>32.225762019999998</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>33.086334354000002</v>
+        <v>32.570205356000002</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -18428,31 +18600,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>4216.6223</v>
+        <v>4066.7096000000001</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>-3.4659189793668777E-3</v>
+        <v>-3.5552793049545839E-2</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>-2.1013709102098099E-2</v>
+        <v>-5.5819406100733653E-2</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>-3.6088627165528631E-2</v>
+        <v>-7.0358368722016174E-2</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-3.6088627165528631E-2</v>
+        <v>-7.0358368722016174E-2</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>20.31373219</v>
+        <v>30.010921360000001</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>31.433228874000001</v>
+        <v>29.919515814</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -18466,31 +18638,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3857.636</v>
+        <v>3721.2501000000002</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>-3.6884053202377309E-3</v>
+        <v>-3.535478723238783E-2</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>-2.033718462477041E-2</v>
+        <v>-5.4972955021843732E-2</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>-4.6770829176358768E-2</v>
+        <v>-8.047204369453409E-2</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-4.6770829176358768E-2</v>
+        <v>-8.047204369453409E-2</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>44.771824639999998</v>
+        <v>62.036862059999997</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>68.073500565999993</v>
+        <v>63.303975625999996</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -18504,31 +18676,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2520.4564</v>
+        <v>2466.8206</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>-7.8385066170107986E-3</v>
+        <v>-2.1280193539551018E-2</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>-1.9085337393584645E-2</v>
+        <v>-3.9959391259632548E-2</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>2.856967495615792E-2</v>
+        <v>6.6815132041777581E-3</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>2.856967495615792E-2</v>
+        <v>6.6815132041777581E-3</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>14.24552312</v>
+        <v>11.041783260000001</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>14.546800888000002</v>
+        <v>14.288380717999999</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -18542,31 +18714,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3586.0335</v>
+        <v>3410.3533000000002</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>-9.9309404292663439E-3</v>
+        <v>-4.8990116796176049E-2</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>-2.6061492751328075E-2</v>
+        <v>-7.3774853973733734E-2</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>-6.9159094072353544E-2</v>
+        <v>-0.11476109877240726</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-6.9159094072353544E-2</v>
+        <v>-0.11476109877240726</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>17.589566680000001</v>
+        <v>23.303898629999999</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>25.590541668</v>
+        <v>23.204813922</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -18580,31 +18752,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2346.9630999999999</v>
+        <v>2279.4074000000001</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>-1.9506513744227405E-4</v>
+        <v>-2.8784304278154149E-2</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>-1.2847028420946871E-2</v>
+        <v>-4.126153992396242E-2</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>-1.8865707316559344E-2</v>
+        <v>-4.7106975334891048E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-1.8865707316559344E-2</v>
+        <v>-4.7106975334891048E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>12.40891673</v>
+        <v>19.034813140000001</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>21.387958344000001</v>
+        <v>20.938735546</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -18618,31 +18790,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3924.52</v>
+        <v>3776.5266999999999</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>2.7486072431903708E-4</v>
+        <v>-3.7709911020965659E-2</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>-2.0799636715896797E-2</v>
+        <v>-5.7725195287037574E-2</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>-1.163048984899695E-2</v>
+        <v>-4.8901816132626674E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-1.163048984899695E-2</v>
+        <v>-4.8901816132626674E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>18.295433389999999</v>
+        <v>25.115956189999999</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>31.551340326000002</v>
+        <v>28.185142502000001</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -18656,31 +18828,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2286.6008999999999</v>
+        <v>2223.3912</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>-3.115513475744569E-3</v>
+        <v>-2.7643521000975668E-2</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>-2.063086150014326E-2</v>
+        <v>-4.770407284797152E-2</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>-4.1330761174942499E-2</v>
+        <v>-6.7831754411392331E-2</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-4.1330761174942499E-2</v>
+        <v>-6.7831754411392331E-2</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>5.9472906700000001</v>
+        <v>6.8395129499999996</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>6.9235745199999998</v>
+        <v>6.5897748959999998</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -18694,31 +18866,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2395.3393999999998</v>
+        <v>2285.4297000000001</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>-3.1824146176090418E-3</v>
+        <v>-4.5884812816087701E-2</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>-1.0668561948856459E-2</v>
+        <v>-5.6063849796903931E-2</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>-1.0916530375549183E-2</v>
+        <v>-5.6300440238753587E-2</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-1.0916530375549183E-2</v>
+        <v>-5.6300440238753587E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>9.6947452999999992</v>
+        <v>12.104352479999999</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>9.64190638</v>
+        <v>10.259940075999999</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -18732,31 +18904,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2288.8204000000001</v>
+        <v>2227.7491</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>-5.7062332607549227E-4</v>
+        <v>-2.6682434322937709E-2</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>-1.0281598493399824E-2</v>
+        <v>-3.6689694739802547E-2</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>-2.6832946020152959E-2</v>
+        <v>-5.2799412023217036E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-2.6832946020152959E-2</v>
+        <v>-5.2799412023217036E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>28.239280959999999</v>
+        <v>38.65673589</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>44.601672453999996</v>
+        <v>43.853879149999997</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -18862,27 +19034,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>2083.59</v>
+        <v>2081.84</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>-6.475393029654164E-3</v>
+        <v>-8.3989652474814047E-4</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>-3.0847802931285417E-2</v>
+        <v>-3.1661790493555442E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>5.6978496096425246E-2</v>
+        <v>5.609074353082022E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>5.6978496096425246E-2</v>
+        <v>5.609074353082022E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>286.83769999999998</v>
+        <v>316.41329999999999</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -18904,27 +19076,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3586.8</v>
+        <v>3560.38</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-1.8117000759744206E-3</v>
+        <v>-7.3658971785435234E-3</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>2.2626188901307076E-2</v>
+        <v>1.5093629541774067E-2</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>7.9928823694122686E-2</v>
+        <v>7.1974179018646112E-2</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>7.9928823694122686E-2</v>
+        <v>7.1974179018646112E-2</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>123.1133</v>
+        <v>94.700299999999999</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -18946,27 +19118,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>4146.6499999999996</v>
+        <v>4091.91</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>-5.0913296240046035E-3</v>
+        <v>-1.3201017688977745E-2</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>-3.9465972308964092E-3</v>
+        <v>-1.7095515820017892E-2</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>1.6883946984402876E-4</v>
+        <v>-1.3034407071961795E-2</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>1.6883946984402876E-4</v>
+        <v>-1.3034407071961795E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>320.55489999999998</v>
+        <v>321.75740000000002</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -18988,27 +19160,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>6527.11</v>
+        <v>6588.03</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>-2.3209422046631345E-2</v>
+        <v>9.3333803168631491E-3</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>-3.3696437454106221E-2</v>
+        <v>-2.4677558803325783E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>0.13312570417706104</v>
+        <v>0.14370159732095877</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>0.13312570417706104</v>
+        <v>0.14370159732095877</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>300.81450000000001</v>
+        <v>340.93060000000003</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -19030,27 +19202,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2940.4</v>
+        <v>2878.96</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>-1.6703730332569666E-2</v>
+        <v>-2.0895116310706063E-2</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>-8.1897540375351907E-3</v>
+        <v>-2.891374448507078E-2</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>9.0677092220153188E-2</v>
+        <v>6.788726752079044E-2</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>9.0677092220153188E-2</v>
+        <v>6.788726752079044E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>32.726300000000002</v>
+        <v>32.347000000000001</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -19072,27 +19244,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>6192.07</v>
+        <v>6056.47</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>-1.4207660848137849E-3</v>
+        <v>-2.1898977240244255E-2</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>-1.5245080654523901E-2</v>
+        <v>-3.6810206220489139E-2</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>-1.2786439359275148E-2</v>
+        <v>-3.4405406655006909E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-1.2786439359275148E-2</v>
+        <v>-3.4405406655006909E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>105.53749999999999</v>
+        <v>131.8169</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -19114,27 +19286,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4629.08</v>
+        <v>4528.46</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>8.8482460422625309E-3</v>
+        <v>-2.1736500557346106E-2</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>-3.4681035651932257E-3</v>
+        <v>-2.5129219687461513E-2</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>2.6298869738341502E-2</v>
+        <v>3.9907237842702337E-3</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>2.6298869738341502E-2</v>
+        <v>3.9907237842702337E-3</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>205.52080000000001</v>
+        <v>224.54839999999999</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -19156,31 +19328,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>7864.69</v>
+        <v>7826.5</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>-1.9618915883581334E-3</v>
+        <v>-4.8558811599693774E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>-2.1641666645933588E-2</v>
+        <v>-2.6392458444566613E-2</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>2.467125192011288E-2</v>
+        <v>1.9695570092751691E-2</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>2.467125192011288E-2</v>
+        <v>1.9695570092751691E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>18.5884</v>
+        <v>23.7363</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>27.95252</v>
+        <v>27.73302</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -19198,31 +19370,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3290.18</v>
+        <v>3271.38</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>1.0026032073479074E-2</v>
+        <v>-5.7139730956967671E-3</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>1.1644031473014627E-2</v>
+        <v>5.8635246947553732E-3</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>2.0214016167491966E-2</v>
+        <v>1.4384540727258255E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>2.0214016167491966E-2</v>
+        <v>1.4384540727258255E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>45.391800000000003</v>
+        <v>33.496200000000002</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>57.760379999999998</v>
+        <v>56.948560000000001</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -19240,31 +19412,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2767.43</v>
+        <v>2740.44</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>5.7164661845405806E-3</v>
+        <v>-9.7527308730481765E-3</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>7.3768980143840146E-4</v>
+        <v>-9.0222355617108896E-3</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>1.4004052454739568E-2</v>
+        <v>4.1147438269681924E-3</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>1.4004052454739568E-2</v>
+        <v>4.1147438269681924E-3</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>50.350099999999998</v>
+        <v>70.757599999999996</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>44.618920000000003</v>
+        <v>50.56306</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -19282,27 +19454,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3517.88</v>
+        <v>3461.76</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>-4.4994312039798867E-3</v>
+        <v>-1.595278974837111E-2</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>4.7382536150961663E-3</v>
+        <v>-1.1290124496971088E-2</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>5.6464836359486625E-2</v>
+        <v>3.9611274948496256E-2</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>5.6464836359486625E-2</v>
+        <v>3.9611274948496256E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>22.2759</v>
+        <v>26.8612</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -19324,31 +19496,31 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3066.39</v>
+        <v>3024.59</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>-1.4999103314472517E-4</v>
+        <v>-1.3631664595827542E-2</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>1.7052303531002178E-3</v>
+        <v>-1.1949679370959476E-2</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>7.4817556625796477E-2</v>
+        <v>6.0166004192166778E-2</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>7.4817556625796477E-2</v>
+        <v>6.0166004192166778E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>34.2059</v>
+        <v>29.870799999999999</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
-        <v>34.870379999999997</v>
+        <v>34.71808</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
@@ -19366,31 +19538,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2642.89</v>
+        <v>2592.7600000000002</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>4.6948535281727821E-3</v>
+        <v>-1.8967872291317356E-2</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>-5.9839025124117651E-3</v>
+        <v>-2.4838272905069902E-2</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>4.8541185618954596E-2</v>
+        <v>2.8652590317947757E-2</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>4.8541185618954596E-2</v>
+        <v>2.8652590317947757E-2</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>9.4374000000000002</v>
+        <v>10.932499999999999</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>9.2755399999999995</v>
+        <v>10.0449</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19421,27 +19593,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>8042.98</v>
+        <v>7970.11</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>-5.7532609060328976E-4</v>
+        <v>-9.060074748414082E-3</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>-2.0986222200041649E-2</v>
+        <v>-2.9856160206636506E-2</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>-4.0405616417831247E-3</v>
+        <v>-1.3064028599697131E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>-4.0405616417831247E-3</v>
+        <v>-1.3064028599697131E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>218.14420000000001</v>
+        <v>252.7664</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -19463,31 +19635,31 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>11935.88</v>
+        <v>12166.64</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>-1.4180742133871327E-3</v>
+        <v>1.9333304289252284E-2</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>-4.1839660658838262E-2</v>
+        <v>-2.3315255260462409E-2</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>3.5215549204889784E-2</v>
+        <v>5.5229686422633373E-2</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>3.5215549204889784E-2</v>
+        <v>5.5229686422633373E-2</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>160.93039999999999</v>
+        <v>185.84360000000001</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
-        <v>179.19657999999998</v>
+        <v>182.15996000000001</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.15">
@@ -19505,31 +19677,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4556.99</v>
+        <v>4494.68</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>8.4982262165851363E-3</v>
+        <v>-1.3673499393239696E-2</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>-2.0519626135477864E-3</v>
+        <v>-1.5697404497236223E-2</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>2.9618834587315623E-2</v>
+        <v>1.5540342077317693E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>2.9618834587315623E-2</v>
+        <v>1.5540342077317693E-2</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>114.33920000000001</v>
+        <v>104.2208</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>112.73769999999999</v>
+        <v>110.62840000000001</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -19589,27 +19761,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>5225.2299999999996</v>
+        <v>5107.67</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>2.5114444354907839E-3</v>
+        <v>-2.2498531165135227E-2</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>-1.0136888727234172E-2</v>
+        <v>-3.2407354785422227E-2</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>-2.9092496934111423E-2</v>
+        <v>-5.0936489650302841E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-2.9092496934111423E-2</v>
+        <v>-5.0936489650302841E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>119.49120000000001</v>
+        <v>146.04429999999999</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -19631,31 +19803,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3273.89</v>
+        <v>3202.54</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>-4.7932198836198037E-4</v>
+        <v>-2.1793646090736085E-2</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>-2.7390830310538461E-2</v>
+        <v>-4.8587530339355256E-2</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>-5.7848980261359317E-2</v>
+        <v>-7.8381886149569313E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>-5.7848980261359317E-2</v>
+        <v>-7.8381886149569313E-2</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>280.42750000000001</v>
+        <v>376.81560000000002</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>384.53409999999997</v>
+        <v>363.74969999999996</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -19673,31 +19845,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7861.5</v>
+        <v>7971.35</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>-1.4432178040322818E-2</v>
+        <v>1.3973160338357937E-2</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>-4.402483601952456E-2</v>
+        <v>-3.0666841773737352E-2</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>8.823244417989784E-2</v>
+        <v>0.10343849060782651</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>8.823244417989784E-2</v>
+        <v>0.10343849060782651</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>103.4541</v>
+        <v>112.73690000000001</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>127.76822</v>
+        <v>125.92909999999999</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -19715,27 +19887,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>9481.9699999999993</v>
+        <v>9293.42</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>-1.5970551668455291E-2</v>
+        <v>-1.9885108263367091E-2</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>-3.2485607642183889E-2</v>
+        <v>-5.1724736080584928E-2</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>-3.6793154997227795E-4</v>
+        <v>-2.0245723454634712E-2</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-3.6793154997227795E-4</v>
+        <v>-2.0245723454634712E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>15.0488</v>
+        <v>20.903600000000001</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -19770,27 +19942,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2708.28</v>
+        <v>2661</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>-4.0048985536027537E-3</v>
+        <v>-1.7457574549160415E-2</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>-7.2141820261293343E-3</v>
+        <v>-2.4545814454757453E-2</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>1.3801700225723579E-2</v>
+        <v>-3.8968185340325645E-3</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>1.3801700225723579E-2</v>
+        <v>-3.8968185340325645E-3</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>47.065100000000001</v>
+        <v>53.193600000000004</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -19812,27 +19984,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1555.41</v>
+        <v>1496.49</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>-5.0764683202675354E-4</v>
+        <v>-3.788068740717887E-2</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>-1.8749250850088051E-2</v>
+        <v>-5.5919703746695859E-2</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>4.8946946042365047E-2</v>
+        <v>9.2121146726193981E-3</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>4.8946946042365047E-2</v>
+        <v>9.2121146726193981E-3</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>8.5071999999999992</v>
+        <v>17.757899999999999</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -19854,27 +20026,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5421.45</v>
+        <v>5362.88</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>-1.1200358936759303E-2</v>
+        <v>-1.0803382858829202E-2</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>-2.2357148138196781E-2</v>
+        <v>-3.2918998166057478E-2</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>4.2129604711780289E-2</v>
+        <v>3.0871079603558504E-2</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>4.2129604711780289E-2</v>
+        <v>3.0871079603558504E-2</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>15.922000000000001</v>
+        <v>16.008800000000001</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -19896,27 +20068,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>3206.85</v>
+        <v>3148.84</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>-4.9645500100842233E-3</v>
+        <v>-1.8089402373045127E-2</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>-1.3859504538857093E-2</v>
+        <v>-3.1698196757607766E-2</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>9.5799673846657107E-3</v>
+        <v>-8.6827308731213249E-3</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>9.5799673846657107E-3</v>
+        <v>-8.6827308731213249E-3</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>10.0098</v>
+        <v>11.5059</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -19938,27 +20110,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6081.75</v>
+        <v>6153.74</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>8.2125788061091498E-3</v>
+        <v>1.1837053479672788E-2</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>-1.0109279833850349E-2</v>
+        <v>1.6081095597881845E-3</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>5.2865289333458021E-2</v>
+        <v>6.5328112070189182E-2</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>5.2865289333458021E-2</v>
+        <v>6.5328112070189182E-2</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>6.5445000000000002</v>
+        <v>6.1974</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -20048,23 +20220,23 @@
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>3087.2</v>
+        <v>3125</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>-1.5937778911130945E-2</v>
+        <v>9.9541076853468368E-3</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>12005</v>
+        <v>13673</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>14398</v>
+        <v>14329</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>-596</v>
+        <v>-69</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -20079,23 +20251,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>3097.8</v>
+        <v>3138</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>-1.6259129882502325E-2</v>
+        <v>1.0628019323671498E-2</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>3025</v>
+        <v>3263</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>8312</v>
+        <v>8333</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>-194</v>
+        <v>21</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -20110,23 +20282,23 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>3117.2</v>
+        <v>3150.2</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>-1.4915939830615685E-2</v>
+        <v>8.2575854564075433E-3</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>472</v>
+        <v>670</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>2432</v>
+        <v>2504</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
@@ -20138,23 +20310,23 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>3121.4</v>
+        <v>3150</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>-1.3463969658659895E-2</v>
+        <v>7.677543186180422E-3</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -20172,23 +20344,23 @@
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4267.6000000000004</v>
+        <v>4280</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>-1.1717845398545564E-2</v>
+        <v>1.1227544910180067E-3</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>14737</v>
+        <v>16237</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>20482</v>
+        <v>20062</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>-521</v>
+        <v>-420</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -20200,23 +20372,23 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4276.2</v>
+        <v>4283.6000000000004</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>-1.1694554867338532E-2</v>
+        <v>-9.3370681605890783E-5</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>3075</v>
+        <v>3570</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>17142</v>
+        <v>17419</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
@@ -20228,23 +20400,23 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4301</v>
+        <v>4308.3999999999996</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>-1.0991537895511447E-2</v>
+        <v>2.7860326894498004E-4</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>575</v>
+        <v>757</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>3936</v>
+        <v>3993</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -20256,23 +20428,23 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4306.2</v>
+        <v>4313.8</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>-1.3154276285635837E-2</v>
+        <v>-1.1114713101468489E-3</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -20289,23 +20461,23 @@
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>6302.8</v>
+        <v>6186.6</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>-7.2930208960894421E-4</v>
+        <v>-1.9089900110987733E-2</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>7853</v>
+        <v>9923</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>15163</v>
+        <v>15486</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>-948</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -20317,23 +20489,23 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>6282</v>
+        <v>6156</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>-6.0453721085624451E-4</v>
+        <v>-2.0431544777544337E-2</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>1377</v>
+        <v>2148</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>10622</v>
+        <v>11069</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>21</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -20345,23 +20517,23 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>6248.4</v>
+        <v>6123</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>-7.3564688949310153E-4</v>
+        <v>-2.1197007481296815E-2</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>3557</v>
+        <v>3608</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>-16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -20373,23 +20545,23 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>6223</v>
+        <v>6085</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>-8.9907844459434917E-4</v>
+        <v>-2.2898066670948736E-2</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>-10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -20909,8 +21081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23768,6 +23940,123 @@
         <v>9.1133742224876357E-2</v>
       </c>
     </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C29" s="40">
+        <v>20180131</v>
+      </c>
+      <c r="D29" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C29)/100</f>
+        <v>9.0162489777649166E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C29)/100</f>
+        <v>5.5954846532323632E-2</v>
+      </c>
+      <c r="F29" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C29)/100</f>
+        <v>6.3948186385649031E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C29)/100</f>
+        <v>-9.8549009450871194E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C29)/100</f>
+        <v>-1.3721368490983155E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C29)/100</f>
+        <v>-5.0450907168433368E-3</v>
+      </c>
+      <c r="J29" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C29)/100</f>
+        <v>-8.7904644038352409E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C29)/100</f>
+        <v>-5.7079656794272182E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C29)/100</f>
+        <v>-2.3786948430506438E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C29)/100</f>
+        <v>-2.406229825387074E-3</v>
+      </c>
+      <c r="N29" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C29)/100</f>
+        <v>8.9179098703840123E-2</v>
+      </c>
+      <c r="O29" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C29)/100</f>
+        <v>1.3114993896264915E-2</v>
+      </c>
+      <c r="P29" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C29)/100</f>
+        <v>4.6817073558690137E-2</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C29)/100</f>
+        <v>4.8328498022199184E-2</v>
+      </c>
+      <c r="R29" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C29)/100</f>
+        <v>-5.8469104128329175E-3</v>
+      </c>
+      <c r="S29" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C29)/100</f>
+        <v>2.5072859438364237E-3</v>
+      </c>
+      <c r="T29" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C29)/100</f>
+        <v>2.3651691684318576E-2</v>
+      </c>
+      <c r="U29" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C29)/100</f>
+        <v>1.1828694902920711E-2</v>
+      </c>
+      <c r="V29" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C29)/100</f>
+        <v>-4.5320242092267919E-2</v>
+      </c>
+      <c r="W29" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C29)/100</f>
+        <v>5.2283761770311354E-2</v>
+      </c>
+      <c r="X29" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C29)/100</f>
+        <v>0.1327675521630296</v>
+      </c>
+      <c r="Y29" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C29)/100</f>
+        <v>0.10124529068893316</v>
+      </c>
+      <c r="Z29" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C29)/100</f>
+        <v>0.16070366373131109</v>
+      </c>
+      <c r="AA29" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C29)/100</f>
+        <v>-1.3165999384046834E-2</v>
+      </c>
+      <c r="AB29" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C29)/100</f>
+        <v>8.051597091530184E-2</v>
+      </c>
+      <c r="AC29" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C29)/100</f>
+        <v>7.4865015351839537E-2</v>
+      </c>
+      <c r="AD29" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C29)/100</f>
+        <v>9.6559334778383535E-2</v>
+      </c>
+      <c r="AE29" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C29)/100</f>
+        <v>9.8678684136478831E-2</v>
+      </c>
+    </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>404</v>
@@ -23775,7 +24064,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D28">
+  <conditionalFormatting sqref="D7:D29">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -23787,7 +24076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E28">
+  <conditionalFormatting sqref="E7:E29">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -23799,7 +24088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F28">
+  <conditionalFormatting sqref="F7:F29">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -23811,7 +24100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z28">
+  <conditionalFormatting sqref="Z7:Z29">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -23823,7 +24112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA28">
+  <conditionalFormatting sqref="G7:AA29">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -23835,7 +24124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE28">
+  <conditionalFormatting sqref="AB7:AE29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\每日交易数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\党\东方工作\期权业务\期权每日交易\每日交易数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18312" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="最新" sheetId="3" r:id="rId1"/>
@@ -2829,22 +2829,22 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>20180129</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>20180129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>20180101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -2876,12 +2876,12 @@
         <v>20180101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>3120.6950999999999</v>
+        <v>3149.6414</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
@@ -2946,7 +2946,7 @@
         <v>3.6000136560000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3523.0007000000001</v>
+        <v>3462.0808000000002</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
@@ -2982,7 +2982,7 @@
         <v>32.977151986000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4302.0181000000002</v>
+        <v>4271.2326000000003</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
@@ -3015,10 +3015,10 @@
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.84040784E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3029,7 +3029,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7534.5599000000002</v>
+        <v>7291.8225000000002</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
@@ -3065,7 +3065,7 @@
         <v>958.78346959999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1478.2871</v>
+        <v>1417.7421999999999</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
@@ -3101,7 +3101,7 @@
         <v>612.61948259999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>399106</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1919.8012000000001</v>
+        <v>1821.5287000000001</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
@@ -3137,7 +3137,7 @@
         <v>2679.2717098000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>371</v>
@@ -3150,7 +3150,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>399006</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1799.7709</v>
+        <v>1702.4264000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
@@ -3186,7 +3186,7 @@
         <v>783.67036580000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
@@ -3197,7 +3197,7 @@
       <c r="H20" s="36"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6972.4790999999996</v>
+        <v>6487.8671000000004</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
@@ -3233,7 +3233,7 @@
         <v>0.85155563000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6309.8836000000001</v>
+        <v>6004.8494000000001</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
@@ -3269,7 +3269,7 @@
         <v>0.65026552999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4448.9157999999998</v>
+        <v>4463.0581000000002</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
@@ -3305,7 +3305,7 @@
         <v>0.26992127799999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>351</v>
@@ -3318,7 +3318,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>352</v>
@@ -3331,7 +3331,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
@@ -3342,7 +3342,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>381</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>9430.5264999999999</v>
+        <v>9262.3127000000004</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
@@ -3378,7 +3378,7 @@
         <v>5.3882853380000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>382</v>
       </c>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13267.787899999999</v>
+        <v>13149.4385</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
@@ -3414,7 +3414,7 @@
         <v>3.324472042</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>383</v>
       </c>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>13501.084199999999</v>
+        <v>12939.6921</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
@@ -3450,7 +3450,7 @@
         <v>0.23885817600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>384</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>10103.849200000001</v>
+        <v>9764.2139999999999</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>385</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>7122.1238999999996</v>
+        <v>6777.1309000000001</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
@@ -3522,7 +3522,7 @@
         <v>37.811097618000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>386</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>8696.8870999999999</v>
+        <v>8401.2181</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
@@ -3558,7 +3558,7 @@
         <v>457.63304619999997</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>387</v>
       </c>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>1688.5445</v>
+        <v>1575.075</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>388</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>10811.886399999999</v>
+        <v>10781.828100000001</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>389</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="C35" s="12">
         <f>[1]!i_dq_close(A35,"")</f>
-        <v>7346.4978000000001</v>
+        <v>7381.7235000000001</v>
       </c>
       <c r="D35" s="4">
         <f>[1]!i_dq_pctchange(A35,$B$1)/100</f>
@@ -3666,7 +3666,7 @@
         <v>473.87146659999996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
@@ -3677,7 +3677,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="39"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>353</v>
@@ -3690,7 +3690,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>354</v>
@@ -3703,7 +3703,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>355</v>
@@ -3716,7 +3716,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="12"/>
@@ -3727,13 +3727,13 @@
       <c r="H40" s="12"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>260</v>
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>261</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>270</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>3257.9659000000001</v>
+        <v>3241.9933000000001</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
@@ -3798,7 +3798,7 @@
         <v>624.30327843600003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>5139.4612999999999</v>
+        <v>5061.5214999999998</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
@@ -3834,7 +3834,7 @@
         <v>964.88058020000005</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>274</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>9841.9267</v>
+        <v>9687.7116000000005</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
@@ -3870,7 +3870,7 @@
         <v>359.79412500000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>276</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="C47" s="12">
         <f>[1]!i_dq_close(A47,"")</f>
-        <v>6617.0483999999997</v>
+        <v>6617.0105999999996</v>
       </c>
       <c r="D47" s="4">
         <f>[1]!i_dq_pctchange(A47,$B$1)/100</f>
@@ -3906,10 +3906,10 @@
         <v>776.07067583799994</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>32</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>2097.17</v>
+        <v>2081.598</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>4112.6099999999997</v>
+        <v>4129.3760000000002</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>11952.83</v>
+        <v>11884.29</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
@@ -4049,7 +4049,7 @@
         <v>183.81038000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>7976.62</v>
+        <v>7886.0169999999998</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
@@ -4087,7 +4087,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>3275.46</v>
+        <v>3130.634</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
@@ -4125,7 +4125,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>4179.3100000000004</v>
+        <v>3888.9360000000001</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
@@ -4163,7 +4163,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>5718.03</v>
+        <v>5762.2120000000004</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
@@ -4201,7 +4201,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>8047.61</v>
+        <v>7722.8549999999996</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
@@ -4239,7 +4239,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>3708.07</v>
+        <v>3697.9589999999998</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
@@ -4277,7 +4277,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>5107.72</v>
+        <v>4878.3159999999998</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
@@ -4315,7 +4315,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>953.62</v>
+        <v>897.42200000000003</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
@@ -4353,7 +4353,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2673.04</v>
+        <v>2477.8539999999998</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
@@ -4391,7 +4391,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>3032.47</v>
+        <v>2889.8679999999999</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
@@ -4429,7 +4429,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>5658.49</v>
+        <v>5473.3329999999996</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
@@ -4467,7 +4467,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>2751.7</v>
+        <v>2605.3980000000001</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
@@ -4505,7 +4505,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>3267.38</v>
+        <v>3118.4</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
@@ -4543,7 +4543,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>73</v>
       </c>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>1436.89</v>
+        <v>1345.3119999999999</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
@@ -4581,7 +4581,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>3032.65</v>
+        <v>2807.6439999999998</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
@@ -4619,7 +4619,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2732.52</v>
+        <v>2517.3789999999999</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
@@ -4657,7 +4657,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>79</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>3011.52</v>
+        <v>2919.607</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
@@ -4695,7 +4695,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>81</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>4518.59</v>
+        <v>4291.5870000000004</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
@@ -4733,7 +4733,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>83</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>3359.24</v>
+        <v>3434.1950000000002</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
@@ -4771,7 +4771,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>85</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>5212.1400000000003</v>
+        <v>4877.8220000000001</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
@@ -4809,7 +4809,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>3136.37</v>
+        <v>2982.8470000000002</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
@@ -4847,7 +4847,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>2657.54</v>
+        <v>2496.6790000000001</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
@@ -4885,7 +4885,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>4167.87</v>
+        <v>4022.5749999999998</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
@@ -4923,7 +4923,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>93</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>6400.44</v>
+        <v>6182.299</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
@@ -4961,7 +4961,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C78" s="12">
         <f>[1]!i_dq_close(A78,"")</f>
-        <v>1252.69</v>
+        <v>1186.1410000000001</v>
       </c>
       <c r="D78" s="4">
         <f>[1]!i_dq_pctchange(A78,$B$1)/100</f>
@@ -4999,13 +4999,13 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5013,7 +5013,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5021,22 +5021,22 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>32</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>98</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>1536.2357999999999</v>
+        <v>1404.1739</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
@@ -5101,7 +5101,7 @@
         <v>108.84041727799999</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>100</v>
       </c>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>9455.7921999999999</v>
+        <v>8903.2055</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
@@ -5137,7 +5137,7 @@
         <v>92.508866866000005</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>102</v>
       </c>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>2352.5495999999998</v>
+        <v>2160.3434000000002</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
@@ -5173,7 +5173,7 @@
         <v>146.562857154</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>104</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>3357.2060000000001</v>
+        <v>3026.1417999999999</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>106</v>
       </c>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>2039.1362999999999</v>
+        <v>1833.4881</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6243.4895999999999</v>
+        <v>5700.8431</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>110</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>7027.8445000000002</v>
+        <v>6463.2349000000004</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>112</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>2887.1783999999998</v>
+        <v>2623.9630999999999</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>114</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>4924.0664999999999</v>
+        <v>4580.5522000000001</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
@@ -5396,7 +5396,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>116</v>
       </c>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>1864.2605000000001</v>
+        <v>1741.9416000000001</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
@@ -5434,7 +5434,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>118</v>
       </c>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>2601.9546</v>
+        <v>2444.3461000000002</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
@@ -5472,7 +5472,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>985.10029999999995</v>
+        <v>910.6807</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
@@ -5510,7 +5510,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>122</v>
       </c>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>2494.6140999999998</v>
+        <v>2295.3557000000001</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
@@ -5548,7 +5548,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>124</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1621.7460000000001</v>
+        <v>1409.3423</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
@@ -5586,7 +5586,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>126</v>
       </c>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>2040.1677</v>
+        <v>1915.0985000000001</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
@@ -5624,7 +5624,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4743.0685000000003</v>
+        <v>4744.1324999999997</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
@@ -5662,7 +5662,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>130</v>
       </c>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>4219.8265000000001</v>
+        <v>3876.1965</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
@@ -5700,7 +5700,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>132</v>
       </c>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2537.4189999999999</v>
+        <v>2376.0698000000002</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
@@ -5738,7 +5738,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>2735.6377000000002</v>
+        <v>2422.7343000000001</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
@@ -5776,7 +5776,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>136</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3941.0434</v>
+        <v>3653.1898999999999</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
@@ -5814,7 +5814,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>138</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>3535.5544</v>
+        <v>3233.9616000000001</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
@@ -5852,7 +5852,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>140</v>
       </c>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>2130.2847000000002</v>
+        <v>1944.3775000000001</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
@@ -5890,7 +5890,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>142</v>
       </c>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>4028.1210000000001</v>
+        <v>3690.66</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
@@ -5928,7 +5928,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>144</v>
       </c>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>1369.07</v>
+        <v>1265.8303000000001</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
@@ -5966,7 +5966,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>146</v>
       </c>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>2621.1442999999999</v>
+        <v>2420.6237999999998</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
@@ -6004,7 +6004,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>4946.4739</v>
+        <v>4530.9261999999999</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
@@ -6042,7 +6042,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>2002.2347</v>
+        <v>1871.7150999999999</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
@@ -6080,7 +6080,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>152</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3263.4560000000001</v>
+        <v>2955.5160999999998</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
@@ -6118,7 +6118,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>154</v>
       </c>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>3545.0097000000001</v>
+        <v>3254.2139999999999</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
@@ -6156,7 +6156,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>156</v>
       </c>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>2410.1278000000002</v>
+        <v>2230.8481000000002</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
@@ -6194,7 +6194,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>158</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>1335.9285</v>
+        <v>1259.2281</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
@@ -6232,7 +6232,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>160</v>
       </c>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>4208.1336000000001</v>
+        <v>3885.9213</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
@@ -6270,7 +6270,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>162</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>3218.6903000000002</v>
+        <v>2978.6900999999998</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
@@ -6308,7 +6308,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>164</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2557.9308000000001</v>
+        <v>2327.8699000000001</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
@@ -6346,7 +6346,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>166</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>2270.7775000000001</v>
+        <v>2108.4949999999999</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
@@ -6384,7 +6384,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>168</v>
       </c>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>4423.8293999999996</v>
+        <v>4135.2097000000003</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
@@ -6422,7 +6422,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>170</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5008.1450999999997</v>
+        <v>4585.7001</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
@@ -6460,7 +6460,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>172</v>
       </c>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>5194.7349999999997</v>
+        <v>4863.0433000000003</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
@@ -6498,7 +6498,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>174</v>
       </c>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>4879.0907999999999</v>
+        <v>4362.6292999999996</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
@@ -6536,7 +6536,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>176</v>
       </c>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>1695.7036000000001</v>
+        <v>1585.3607</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
@@ -6574,7 +6574,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>178</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>5227.4772999999996</v>
+        <v>4849.6193999999996</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
@@ -6612,7 +6612,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>180</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>11072.545700000001</v>
+        <v>10194.200699999999</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
@@ -6650,7 +6650,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>182</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2163.1239999999998</v>
+        <v>2035.0708999999999</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
@@ -6688,7 +6688,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>184</v>
       </c>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>2615.1568000000002</v>
+        <v>2415.9967999999999</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
@@ -6726,7 +6726,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>186</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>1216.5071</v>
+        <v>1100.4549</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
@@ -6764,7 +6764,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>188</v>
       </c>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>2960.3768</v>
+        <v>2723.6073999999999</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
@@ -6802,7 +6802,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>190</v>
       </c>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>817.61069999999995</v>
+        <v>775.8537</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
@@ -6840,7 +6840,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>192</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>4467.1372000000001</v>
+        <v>4131.2591000000002</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
@@ -6878,7 +6878,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>5212.4687000000004</v>
+        <v>4749.3492999999999</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
@@ -6916,7 +6916,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>196</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>756.0521</v>
+        <v>683.48609999999996</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
@@ -6949,12 +6949,12 @@
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>14.731398978000001</v>
+        <v>14.731398977999998</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>198</v>
       </c>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>26076.8632</v>
+        <v>23166.978299999999</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
@@ -6992,7 +6992,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>200</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>1940.1187</v>
+        <v>1789.9811</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
@@ -7030,7 +7030,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>202</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2965.3179</v>
+        <v>2807.1925000000001</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
@@ -7068,7 +7068,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>204</v>
       </c>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>2752.5484999999999</v>
+        <v>2545.8589000000002</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
@@ -7106,7 +7106,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>206</v>
       </c>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>1840.2769000000001</v>
+        <v>1722.894</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
@@ -7144,7 +7144,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>208</v>
       </c>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>2532.6167999999998</v>
+        <v>2316.5063</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
@@ -7182,7 +7182,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>210</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>1592.5794000000001</v>
+        <v>1473.7608</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
@@ -7220,7 +7220,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>212</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>2878.2042000000001</v>
+        <v>2611.1988000000001</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
@@ -7258,7 +7258,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>6578.6475</v>
+        <v>6083.5653000000002</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
@@ -7296,7 +7296,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1586.3311000000001</v>
+        <v>1455.0940000000001</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
@@ -7334,7 +7334,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1438.6405999999999</v>
+        <v>1317.0184999999999</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
@@ -7372,7 +7372,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>1907.1623999999999</v>
+        <v>1767.8973000000001</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
@@ -7410,7 +7410,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>222</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>2244.7793999999999</v>
+        <v>2102.2518</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
@@ -7448,7 +7448,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>224</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>4136.0798000000004</v>
+        <v>3774.6116999999999</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
@@ -7486,7 +7486,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>226</v>
       </c>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>2432.2258999999999</v>
+        <v>2211.3155000000002</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
@@ -7524,7 +7524,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>228</v>
       </c>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>1938.1398999999999</v>
+        <v>1786.5210999999999</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
@@ -7562,7 +7562,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>230</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>13259.364299999999</v>
+        <v>12057.9409</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
@@ -7600,7 +7600,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>232</v>
       </c>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>2953.5349999999999</v>
+        <v>2731.9901</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
@@ -7638,7 +7638,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>2010.2793999999999</v>
+        <v>1877.751</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
@@ -7676,7 +7676,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>236</v>
       </c>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>3139.5765000000001</v>
+        <v>2901.3703</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
@@ -7714,7 +7714,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>238</v>
       </c>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1436.2083</v>
+        <v>1320.0147999999999</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
@@ -7752,7 +7752,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>240</v>
       </c>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>1224.9061999999999</v>
+        <v>1135.7973</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
@@ -7790,7 +7790,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>242</v>
       </c>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>4231.2875999999997</v>
+        <v>3828.4539</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
@@ -7828,7 +7828,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>244</v>
       </c>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>3871.9171999999999</v>
+        <v>3511.6810999999998</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
@@ -7866,7 +7866,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>246</v>
       </c>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>2540.3690999999999</v>
+        <v>2373.1525999999999</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
@@ -7904,7 +7904,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>248</v>
       </c>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>3622.0034000000001</v>
+        <v>3179.1972000000001</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
@@ -7942,7 +7942,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>250</v>
       </c>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>2347.4209999999998</v>
+        <v>2166.7006999999999</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
@@ -7980,7 +7980,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>252</v>
       </c>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>3923.4416000000001</v>
+        <v>3578.2247000000002</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
@@ -8018,7 +8018,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>254</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2293.7471</v>
+        <v>2113.8096</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
@@ -8056,7 +8056,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>256</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2402.9866999999999</v>
+        <v>2172.0192999999999</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
@@ -8094,7 +8094,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>258</v>
       </c>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C166" s="12">
         <f>[1]!i_dq_close(A166,"")</f>
-        <v>2290.1271999999999</v>
+        <v>2114.7860000000001</v>
       </c>
       <c r="D166" s="4">
         <f>[1]!i_dq_pctchange(A166,$B$1)/100</f>
@@ -8132,7 +8132,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -8140,7 +8140,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -8148,11 +8148,11 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="12"/>
@@ -8165,7 +8165,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -8173,7 +8173,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>278</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>261</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="16">
         <v>801790</v>
       </c>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>2097.17</v>
+        <v>2081.598</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <v>801021</v>
       </c>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>3593.518</v>
+        <v>3687.2530000000002</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="16">
         <v>801050</v>
       </c>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>4167.87</v>
+        <v>4022.5749999999998</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="16">
         <v>801181</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>6681.4849999999997</v>
+        <v>6469.55</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="16">
         <v>801035</v>
       </c>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>2990.9349999999999</v>
+        <v>2908.8209999999999</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="16">
         <v>801074</v>
       </c>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>6200.6319999999996</v>
+        <v>5831.7370000000001</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="16">
         <v>801034</v>
       </c>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>4588.4210000000003</v>
+        <v>4394.0360000000001</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="16">
         <v>850911</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>8038.66</v>
+        <v>7694.82</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
@@ -8554,7 +8554,7 @@
         <v>30.502980000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="16">
         <v>851741</v>
       </c>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>3252.31</v>
+        <v>3309.91</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
@@ -8596,7 +8596,7 @@
         <v>57.718100000000007</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>801130</v>
       </c>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>2751.7</v>
+        <v>2605.3980000000001</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
@@ -8638,7 +8638,7 @@
         <v>41.74248</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>801032</v>
       </c>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3533.1379999999999</v>
+        <v>3377.0309999999999</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>801143</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>3066.9319999999998</v>
+        <v>2946.6860000000001</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
@@ -8722,7 +8722,7 @@
         <v>33.796340000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>850321</v>
       </c>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E186" s="12">
         <f>[1]!i_dq_close(A186,"")</f>
-        <v>2658.8</v>
+        <v>2489.42</v>
       </c>
       <c r="F186" s="4">
         <f>[1]!i_dq_pctchange(A186,$B$1)/100</f>
@@ -8764,7 +8764,7 @@
         <v>8.6903800000000011</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="20"/>
       <c r="C187" s="21"/>
@@ -8777,7 +8777,7 @@
       <c r="J187" s="23"/>
       <c r="K187" s="25"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>801150</v>
       </c>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>8047.61</v>
+        <v>7722.8549999999996</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="16">
         <v>801120</v>
       </c>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>11952.83</v>
+        <v>11884.29</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
@@ -8861,7 +8861,7 @@
         <v>183.81038000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="16">
         <v>801200</v>
       </c>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="E190" s="12">
         <f>[1]!i_dq_close(A190,"")</f>
-        <v>4518.59</v>
+        <v>4291.5870000000004</v>
       </c>
       <c r="F190" s="4">
         <f>[1]!i_dq_pctchange(A190,$B$1)/100</f>
@@ -8903,7 +8903,7 @@
         <v>106.98150000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="16">
         <v>801220</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>801730</v>
       </c>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>5212.1400000000003</v>
+        <v>4877.8220000000001</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>312</v>
       </c>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>3275.46</v>
+        <v>3130.634</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
@@ -9029,7 +9029,7 @@
         <v>400.87090000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>801110</v>
       </c>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>7976.62</v>
+        <v>7886.0169999999998</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
@@ -9071,7 +9071,7 @@
         <v>135.55090000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>857221</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="E195" s="12">
         <f>[1]!i_dq_close(A195,"")</f>
-        <v>9800.34</v>
+        <v>8855.02</v>
       </c>
       <c r="F195" s="4">
         <f>[1]!i_dq_pctchange(A195,$B$1)/100</f>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="20"/>
       <c r="C196" s="21"/>
@@ -9126,7 +9126,7 @@
       <c r="J196" s="23"/>
       <c r="K196" s="25"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>801161</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>2719.1439999999998</v>
+        <v>2617.9879999999998</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>851771</v>
       </c>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>1585.13</v>
+        <v>1490.85</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>851711</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>5545.43</v>
+        <v>5258.59</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="16">
         <v>851731</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>3251.92</v>
+        <v>3056.58</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="16">
         <v>851751</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="E201" s="12">
         <f>[1]!i_dq_close(A201,"")</f>
-        <v>6143.86</v>
+        <v>6181.18</v>
       </c>
       <c r="F201" s="4">
         <f>[1]!i_dq_pctchange(A201,$B$1)/100</f>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="30"/>
       <c r="C202" s="30"/>
@@ -9344,7 +9344,7 @@
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="30"/>
       <c r="C203" s="30"/>
@@ -9352,7 +9352,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
@@ -9360,7 +9360,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -9368,7 +9368,7 @@
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -9376,7 +9376,7 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>334</v>
       </c>
@@ -9384,7 +9384,7 @@
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>335</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>342</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>3127</v>
+        <v>3158</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>0</v>
+        <v>14994</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
@@ -9441,7 +9441,7 @@
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>343</v>
       </c>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>3141</v>
+        <v>3172</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>0</v>
+        <v>8506</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
@@ -9472,7 +9472,7 @@
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>344</v>
       </c>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>3155</v>
+        <v>3188</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
@@ -9493,14 +9493,14 @@
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>0</v>
+        <v>2399</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>356</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C212" s="12">
         <f>[1]!i_dq_close(A212,"")</f>
-        <v>3161.4</v>
+        <v>3192.6</v>
       </c>
       <c r="D212" s="4">
         <f>[1]!i_dq_pctchange(A212,$B$1)/100</f>
@@ -9521,20 +9521,20 @@
       </c>
       <c r="F212" s="31">
         <f>[1]!s_dq_oi(A212,$B$1)</f>
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="G212" s="31">
         <f>[1]!s_dq_oichange(A212,$B$1)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="32"/>
       <c r="B213" s="32"/>
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>345</v>
       </c>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4315.2</v>
+        <v>4270.3999999999996</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
@@ -9555,14 +9555,14 @@
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>0</v>
+        <v>21003</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
         <v>1015</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>346</v>
       </c>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4323.3999999999996</v>
+        <v>4277.8</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
@@ -9583,14 +9583,14 @@
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>0</v>
+        <v>17036</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
         <v>407</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>347</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4347.3999999999996</v>
+        <v>4306.6000000000004</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
@@ -9611,14 +9611,14 @@
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>0</v>
+        <v>3905</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>361</v>
       </c>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="C217" s="12">
         <f>[1]!i_dq_close(A217,"")</f>
-        <v>4363.3999999999996</v>
+        <v>4309.3999999999996</v>
       </c>
       <c r="D217" s="4">
         <f>[1]!i_dq_pctchange(A217,$B$1)/100</f>
@@ -9639,19 +9639,19 @@
       </c>
       <c r="F217" s="31">
         <f>[1]!s_dq_oi(A217,$B$1)</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="G217" s="31">
         <f>[1]!s_dq_oichange(A217,$B$1)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>348</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>6312.2</v>
+        <v>5986.2</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
@@ -9672,14 +9672,14 @@
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>0</v>
+        <v>16111</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
         <v>-71</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>349</v>
       </c>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>6293.2</v>
+        <v>5959.4</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
@@ -9700,14 +9700,14 @@
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>0</v>
+        <v>10601</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>350</v>
       </c>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>6254.4</v>
+        <v>5912</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
@@ -9728,14 +9728,14 @@
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>0</v>
+        <v>3573</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>366</v>
       </c>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C222" s="12">
         <f>[1]!i_dq_close(A222,"")</f>
-        <v>6239.8</v>
+        <v>5882</v>
       </c>
       <c r="D222" s="4">
         <f>[1]!i_dq_pctchange(A222,$B$1)/100</f>
@@ -9756,63 +9756,63 @@
       </c>
       <c r="F222" s="31">
         <f>[1]!s_dq_oi(A222,$B$1)</f>
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="G222" s="31">
         <f>[1]!s_dq_oichange(A222,$B$1)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -9820,7 +9820,7 @@
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -9828,7 +9828,7 @@
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -9836,7 +9836,7 @@
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -9844,42 +9844,42 @@
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="最新" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2633,7 +2632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2697,10 +2695,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2769,16 +2767,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$29</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2847,6 +2848,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>9.0162489777649166E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.869569781078269E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,10 +2890,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2958,16 +2962,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$29</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3036,6 +3043,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.5954846532323632E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5684959040126483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,10 +3085,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3147,16 +3157,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$29</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3225,6 +3238,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.3948186385649031E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6483253342073381E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3264,10 +3280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3336,16 +3352,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$29</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3414,6 +3433,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.10124529068893316</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3035326153381614E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,10 +3475,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3525,16 +3547,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$29</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -3603,6 +3628,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.16070366373131109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14979043973847972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,10 +3670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3714,16 +3742,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$29</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -3792,6 +3823,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-1.3165999384046834E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4656606097936979E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,7 +3966,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4039,7 +4072,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4103,10 +4135,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4175,16 +4207,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$29</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -4253,6 +4288,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-9.8549009450871194E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5844535737584171E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,10 +4330,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4364,16 +4402,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$29</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -4442,6 +4483,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-1.3721368490983155E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.4006673779360635E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,10 +4525,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4553,16 +4597,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$29</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -4631,6 +4678,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-5.0450907168433368E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5117419508528314E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,10 +4720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4742,16 +4792,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$29</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -4820,6 +4873,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-8.7904644038352409E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.1561238631933719E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,10 +4915,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4931,16 +4987,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$29</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -5009,6 +5068,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-5.7079656794272182E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7293422558799407E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5149,7 +5211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5256,7 +5317,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5320,10 +5380,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5392,16 +5452,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$29</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -5470,6 +5533,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-2.3786948430506438E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.4692216809733027E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5509,10 +5575,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5581,16 +5647,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$29</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -5659,6 +5728,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-2.406229825387074E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5383275215834398E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5698,10 +5770,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5770,16 +5842,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$29</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -5848,6 +5923,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.9179098703840123E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9881742370904197E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,10 +5965,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5959,16 +6037,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$29</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -6037,6 +6118,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.3114993896264915E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0790880766290867E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6177,7 +6261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6284,7 +6367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6348,10 +6430,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6420,16 +6502,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$29</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -6498,6 +6583,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.6817073558690137E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.013161495276039E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6537,10 +6625,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6609,16 +6697,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$29</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -6687,6 +6778,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.8328498022199184E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9181662017145893E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6726,10 +6820,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6798,16 +6892,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$29</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -6876,6 +6973,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-5.8469104128329175E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3589753498351915E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6915,10 +7015,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6987,16 +7087,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$29</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -7065,6 +7168,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.5072859438364237E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.3416133414402407E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7104,10 +7210,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7176,16 +7282,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$29</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -7254,6 +7363,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.3651691684318576E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.7644428566170394E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7293,10 +7405,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7365,16 +7477,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$29</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -7443,6 +7558,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.1828694902920711E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.2916496309808352E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7484,10 +7602,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7556,16 +7674,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$29</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -7634,6 +7755,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-4.5320242092267919E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.0747274957155724E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7675,10 +7799,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7747,16 +7871,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$29</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -7825,6 +7952,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.2283761770311354E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0854866866647308E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7866,10 +7996,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7938,16 +8068,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$29</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -8016,6 +8149,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1327675521630296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14447615908415767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,7 +8292,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8263,7 +8398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8327,10 +8461,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8399,16 +8533,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$29</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -8477,6 +8614,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.051597091530184E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8585112957541003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8516,10 +8656,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8588,16 +8728,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$29</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -8666,6 +8809,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7.4865015351839537E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3922597830848638E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8705,10 +8851,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8777,16 +8923,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$29</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -8855,6 +9004,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>9.6559334778383535E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8673187674703771E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,10 +9046,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$29</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8966,16 +9118,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$29</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -9044,6 +9199,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>9.8678684136478831E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10048060287817817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9184,7 +9342,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9291,7 +9448,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9331,9 +9487,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>最新涨跌幅</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9438,93 +9591,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$29:$AE$29</c:f>
+              <c:f>'2018累积涨跌幅'!$D$30:$AE$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>9.0162489777649166E-2</c:v>
+                  <c:v>9.869569781078269E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5954846532323632E-2</c:v>
+                  <c:v>4.5684959040126483E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3948186385649031E-2</c:v>
+                  <c:v>5.6483253342073381E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.8549009450871194E-3</c:v>
+                  <c:v>-3.5844535737584171E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3721368490983155E-2</c:v>
+                  <c:v>-4.4006673779360635E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.0450907168433368E-3</c:v>
+                  <c:v>-3.5117419508528314E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.7904644038352409E-3</c:v>
+                  <c:v>-3.1561238631933719E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.7079656794272182E-3</c:v>
+                  <c:v>-2.7293422558799407E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3786948430506438E-2</c:v>
+                  <c:v>-6.4692216809733027E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.406229825387074E-3</c:v>
+                  <c:v>-3.5383275215834398E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9179098703840123E-2</c:v>
+                  <c:v>8.9881742370904197E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3114993896264915E-2</c:v>
+                  <c:v>-1.0790880766290867E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6817073558690137E-2</c:v>
+                  <c:v>2.013161495276039E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8328498022199184E-2</c:v>
+                  <c:v>2.9181662017145893E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.8469104128329175E-3</c:v>
+                  <c:v>-3.3589753498351915E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5072859438364237E-3</c:v>
+                  <c:v>-2.3416133414402407E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3651691684318576E-2</c:v>
+                  <c:v>-9.7644428566170394E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1828694902920711E-2</c:v>
+                  <c:v>-8.2916496309808352E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.5320242092267919E-2</c:v>
+                  <c:v>-8.0747274957155724E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2283761770311354E-2</c:v>
+                  <c:v>5.0854866866647308E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1327675521630296</c:v>
+                  <c:v>0.14447615908415767</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.10124529068893316</c:v>
+                  <c:v>9.3035326153381614E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16070366373131109</c:v>
+                  <c:v>0.14979043973847972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.3165999384046834E-2</c:v>
+                  <c:v>4.4656606097936979E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.051597091530184E-2</c:v>
+                  <c:v>7.8585112957541003E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4865015351839537E-2</c:v>
+                  <c:v>6.3922597830848638E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6559334778383535E-2</c:v>
+                  <c:v>7.8673187674703771E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.8678684136478831E-2</c:v>
+                  <c:v>0.10048060287817817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13029,13 +13182,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13059,13 +13212,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13089,13 +13242,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13119,13 +13272,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13149,13 +13302,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13179,13 +13332,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13524,8 +13677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13548,7 +13701,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180131</v>
+        <v>20180202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -13618,31 +13771,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>3116.8330999999998</v>
+        <v>3149.6414</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>1.2248735660584265E-2</v>
+        <v>2.6777408849398832E-3</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>-1.7632657265356455E-2</v>
+        <v>-7.2920963637664871E-3</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>8.9635556645676781E-2</v>
+        <v>0.10110524048376825</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>8.9635556645676781E-2</v>
+        <v>0.10110524048376825</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>729.90261127999997</v>
+        <v>720.98054089000004</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>2.891303352</v>
+        <v>1.9188200099999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -13654,31 +13807,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3480.8334</v>
+        <v>3462.0808000000002</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>-2.0572194624497442E-3</v>
+        <v>4.3809074720744245E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>-2.1723609330837057E-2</v>
+        <v>-2.6993963793553455E-2</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>5.251051192648859E-2</v>
+        <v>4.6840229451621251E-2</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>5.251051192648859E-2</v>
+        <v>4.6840229451621251E-2</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>2426.5795859999998</v>
+        <v>2362.7875560000002</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>26.156385410000002</v>
+        <v>22.582937921999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -13690,31 +13843,31 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4275.8986000000004</v>
+        <v>4271.2326000000003</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>4.6513216870431862E-3</v>
+        <v>5.9668887932253778E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>-2.4057017237533729E-2</v>
+        <v>-2.5121998048250327E-2</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>6.0791992289278562E-2</v>
+        <v>5.9634421472229304E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>6.0791992289278562E-2</v>
+        <v>5.9634421472229304E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1944.0179802499999</v>
+        <v>1911.69867288</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
-        <v>0</v>
+        <v>2.0677024000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13737,31 +13890,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7420.6570000000002</v>
+        <v>7291.8225000000002</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>-1.3563549875247993E-2</v>
+        <v>9.1262551607400599E-3</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>-3.318971695734374E-2</v>
+        <v>-4.997509315929715E-2</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>-1.7763290024809364E-2</v>
+        <v>-3.4816493725141839E-2</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>-1.7763290024809364E-2</v>
+        <v>-3.4816493725141839E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>1003.7446660000001</v>
+        <v>872.30679599999996</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>924.66817400000002</v>
+        <v>929.40609740000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -13773,31 +13926,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1454.3140000000001</v>
+        <v>1417.7421999999999</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>-1.6226991175824379E-2</v>
+        <v>5.7356509942241285E-3</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>-3.1924870691023677E-2</v>
+        <v>-5.6269166361740064E-2</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>-2.2875236014713085E-2</v>
+        <v>-4.7447103880605364E-2</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>-2.2875236014713085E-2</v>
+        <v>-4.7447103880605364E-2</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>599.90661899999998</v>
+        <v>554.87891100000002</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>580.03719939999996</v>
+        <v>580.72064280000006</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -13809,31 +13962,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1877.8179</v>
+        <v>1821.5287000000001</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>-1.6628343048168515E-2</v>
+        <v>2.5671844526686804E-4</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>-3.7122229958124531E-2</v>
+        <v>-6.5985315869405481E-2</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>-1.1333231122583554E-2</v>
+        <v>-4.0969364363562126E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-1.1333231122583554E-2</v>
+        <v>-4.0969364363562126E-2</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>2514.1220050000002</v>
+        <v>2265.5296320000002</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2543.1400027999998</v>
+        <v>2470.3816087999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -13845,31 +13998,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1502.1950999999999</v>
+        <v>1476.9184</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>-2.898503977929423E-2</v>
+        <v>6.2907205739430871E-3</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>-4.1941198518760547E-2</v>
+        <v>-5.8061983966270499E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>-1.1552281862885927E-2</v>
+        <v>-2.8184406702752796E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>-1.1552281862885927E-2</v>
+        <v>-2.8184406702752796E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>215.08839399999999</v>
+        <v>189.41353599999999</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>235.40328</v>
+        <v>203.82049939999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -13881,31 +14034,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1735.057</v>
+        <v>1702.4264000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>-2.6560831777845406E-2</v>
+        <v>2.9671436735223544E-3</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>-4.4993002257870618E-2</v>
+        <v>-6.2953479256911193E-2</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>-1.0039072217416845E-2</v>
+        <v>-2.8656915348854173E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>-1.0039072217416845E-2</v>
+        <v>-2.8656915348854173E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>686.37560800000006</v>
+        <v>596.50170400000002</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>735.98862440000005</v>
+        <v>655.70727539999996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13928,31 +14081,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6791.0093999999999</v>
+        <v>6487.8671000000004</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>-2.3612850306801048E-2</v>
+        <v>-2.8564720505301899E-3</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>-3.7557171271204948E-2</v>
+        <v>-8.0519434395056932E-2</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>-3.2254592017569306E-2</v>
+        <v>-7.5453555751919588E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-3.2254592017569306E-2</v>
+        <v>-7.5453555751919588E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>981.71546816</v>
+        <v>857.79041352000002</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.86575532000000011</v>
+        <v>0.8676724979999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -13964,31 +14117,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6189.3413</v>
+        <v>6004.8494000000001</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>-1.9656583524486293E-2</v>
+        <v>3.3596431245133118E-3</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>-3.0435639828315875E-2</v>
+        <v>-5.9336416552384745E-2</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>-9.8354124923147879E-3</v>
+        <v>-3.9350240841174666E-2</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>-9.8354124923147879E-3</v>
+        <v>-3.9350240841174666E-2</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>881.06213761000004</v>
+        <v>895.57325619999995</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.51925971000000004</v>
+        <v>0.63219561200000007</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -14000,31 +14153,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4441.5469999999996</v>
+        <v>4463.0581000000002</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>1.1701883230724963E-2</v>
+        <v>4.1953353427628404E-3</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>-2.186935162505288E-2</v>
+        <v>-1.7132113408220073E-2</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>8.8281707982669419E-2</v>
+        <v>9.3552424840689152E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>8.8281707982669419E-2</v>
+        <v>9.3552424840689152E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>1175.8708202800001</v>
+        <v>1164.2823039</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.265933578</v>
+        <v>0.346760982</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -14036,31 +14189,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4396.6352999999999</v>
+        <v>4335.3536999999997</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>-1.0275507047954213E-2</v>
+        <v>9.8915171491094078E-3</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>-2.8753211543566137E-2</v>
+        <v>-4.2290735838899869E-2</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>5.7633855746881402E-3</v>
+        <v>-8.255241235098465E-3</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>5.7633855746881402E-3</v>
+        <v>-8.255241235098465E-3</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>768.14715899999999</v>
+        <v>747.41636800000003</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>836.11719240000002</v>
+        <v>813.05096000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -14083,31 +14236,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>9532.7954000000009</v>
+        <v>9262.3127000000004</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>1.033534940171621E-2</v>
+        <v>-2.9573018984916377E-3</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>-1.9983795100191992E-2</v>
+        <v>-4.7790688883420973E-2</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>4.7239685868369907E-2</v>
+        <v>1.752539893624605E-2</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>4.7239685868369907E-2</v>
+        <v>1.752539893624605E-2</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>108.5299184</v>
+        <v>115.11151608999999</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>6.4035719259999997</v>
+        <v>5.4707801000000007</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -14119,31 +14272,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>13429.232099999999</v>
+        <v>13149.4385</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>1.5241460072367596E-2</v>
+        <v>-2.6183334845903961E-3</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>-2.2359224163397085E-2</v>
+        <v>-4.2728045711884155E-2</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>5.5179612682466184E-2</v>
+        <v>3.3195295166721372E-2</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>5.5179612682466184E-2</v>
+        <v>3.3195295166721372E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>173.01390172999999</v>
+        <v>167.62304879999999</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>4.2599789100000001</v>
+        <v>5.4254454260000005</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -14155,31 +14308,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13339.045599999999</v>
+        <v>12939.6921</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>-1.2846136614982018E-2</v>
+        <v>-2.0910314992679258E-3</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>-2.9613110856149261E-2</v>
+        <v>-5.8665219391838545E-2</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>-1.7286482422104621E-2</v>
+        <v>-4.6707634017991155E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>-1.7286482422104621E-2</v>
+        <v>-4.6707634017991155E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>154.05915637000001</v>
+        <v>144.61925405</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.19472788599999999</v>
+        <v>0.22024147799999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -14191,27 +14344,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>10028.7276</v>
+        <v>9764.2139999999999</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>-7.0794711159057888E-3</v>
+        <v>-5.3072866130998708E-4</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>-2.7838115847329203E-2</v>
+        <v>-5.3479458400097935E-2</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>-6.8766426183137774E-3</v>
+        <v>-3.3070856379301405E-2</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>-6.8766426183137774E-3</v>
+        <v>-3.3070856379301405E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>216.30081364</v>
+        <v>217.15269889000001</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -14227,31 +14380,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>7010.4695000000002</v>
+        <v>6777.1309000000001</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>-2.0287467536268866E-2</v>
+        <v>-6.6186256338707228E-4</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>-2.9538831884150629E-2</v>
+        <v>-6.1839956697904874E-2</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>9.6964260782195222E-3</v>
+        <v>-2.3910617000149958E-2</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>9.6964260782195222E-3</v>
+        <v>-2.3910617000149958E-2</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>40.777430430000003</v>
+        <v>35.481815279999999</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>38.205229877999997</v>
+        <v>37.776271440000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -14263,31 +14416,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8557.0375999999997</v>
+        <v>8401.2181</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>-9.8348069897418178E-3</v>
+        <v>1.7096107660918847E-3</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>-3.6065153463453292E-2</v>
+        <v>-5.3617938999875436E-2</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>1.866176837395761E-3</v>
+        <v>-1.6377319807016955E-2</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>1.866176837395761E-3</v>
+        <v>-1.6377319807016955E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>335.59342299999997</v>
+        <v>347.71151200000003</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>394.43350799999996</v>
+        <v>372.66178880000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -14299,27 +14452,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1649.4680000000001</v>
+        <v>1575.075</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>-2.2254905906732292E-2</v>
+        <v>-8.3004136229234415E-3</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>-3.8147478672933777E-2</v>
+        <v>-8.1528189677381638E-2</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>-5.1726928160554235E-2</v>
+        <v>-9.4495189583844633E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-5.1726928160554235E-2</v>
+        <v>-9.4495189583844633E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>163.93528058000001</v>
+        <v>158.17571505000001</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -14335,27 +14488,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>10750.4326</v>
+        <v>10781.828100000001</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>1.136761344690651E-3</v>
+        <v>4.2841103382871282E-3</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>-3.1007879175312447E-2</v>
+        <v>-2.8178040297074936E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>5.637632966388173E-2</v>
+        <v>5.9461364870554645E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>5.637632966388173E-2</v>
+        <v>5.9461364870554645E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>279.20319499999999</v>
+        <v>252.52468099999999</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -14371,31 +14524,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>7335.8182999999999</v>
+        <v>7381.7235000000001</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>1.7354365187257192E-2</v>
+        <v>-4.0368779749980765E-3</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>-7.0820113724952005E-3</v>
+        <v>-8.6864880167691894E-4</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>0.12468648166188977</v>
+        <v>0.13172440923405793</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>0.12468648166188977</v>
+        <v>0.13172440923405793</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>294.502095</v>
+        <v>239.188963</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>367.82209240000003</v>
+        <v>327.18048199999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14418,31 +14571,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>32887.269999999997</v>
+        <v>32601.78</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>8.586423465427373E-3</v>
+        <v>-1.2349086715954805E-3</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>-8.0487734254447441E-3</v>
+        <v>-1.6659769585197992E-2</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>9.9204689972809845E-2</v>
+        <v>8.9662640817001815E-2</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>9.9204689972809845E-2</v>
+        <v>8.9662640817001815E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1768.164315</v>
+        <v>1479.319154</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1819.1218723999998</v>
+        <v>1688.7546367999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -14454,31 +14607,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>13561.65</v>
+        <v>13538.66</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>1.2866167066734935E-2</v>
+        <v>7.7801779644994795E-3</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>-1.1826761372082051E-2</v>
+        <v>-1.3501933844167424E-2</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>0.15819476826112577</v>
+        <v>0.15623137164476097</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>0.15819476826112577</v>
+        <v>0.15623137164476097</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>400.11377599999997</v>
+        <v>303.605638</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>445.51387839999995</v>
+        <v>388.43269199999997</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -14490,23 +14643,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>128.16999999999999</v>
+        <v>130.84</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>3.8377192982455011E-3</v>
+        <v>2.9127701977618159E-3</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>-1.4802119040201456E-3</v>
+        <v>1.9320660641944487E-2</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-1.67242040659763E-2</v>
+        <v>3.7591100882241602E-3</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-1.67242040659763E-2</v>
+        <v>3.7591100882241602E-3</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -14572,31 +14725,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3217.7233999999999</v>
+        <v>3241.9933000000001</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>-1.6319663099703119E-3</v>
+        <v>9.3462480106467627E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>-1.8810453317434583E-2</v>
+        <v>-1.1409763693512542E-2</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>7.4726822073232668E-2</v>
+        <v>8.2833023028552541E-2</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>7.4726822073232668E-2</v>
+        <v>8.2833023028552541E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>431.13069848999999</v>
+        <v>416.38452058000001</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>510.21643131399998</v>
+        <v>474.54118590600001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -14608,31 +14761,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>5071.8098</v>
+        <v>5061.5214999999998</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>-1.1473647075547211E-3</v>
+        <v>8.2355854595896893E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>-2.2826639284235339E-2</v>
+        <v>-2.480886122935877E-2</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>6.7572461777599235E-2</v>
+        <v>6.5406862870773796E-2</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>6.7572461777599235E-2</v>
+        <v>6.5406862870773796E-2</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>721.55698900000004</v>
+        <v>665.37552300000004</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>822.5587493999999</v>
+        <v>778.36862339999993</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -14644,31 +14797,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9797.1062999999995</v>
+        <v>9687.7116000000005</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>1.4982636702132179E-2</v>
+        <v>5.2304460826295696E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>-3.3234695791212188E-2</v>
+        <v>-4.402961800455274E-2</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>9.3474235098963229E-2</v>
+        <v>8.1264478233675566E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>9.3474235098963229E-2</v>
+        <v>8.1264478233675566E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>313.07701900000001</v>
+        <v>272.297889</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>335.33366039999999</v>
+        <v>330.7291242</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -14680,31 +14833,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6544.5057999999999</v>
+        <v>6617.0105999999996</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>6.914772790563628E-3</v>
+        <v>9.4231952752661385E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>-2.1516920289096686E-2</v>
+        <v>-1.0676572344440194E-2</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>9.3626054883652929E-2</v>
+        <v>0.10574204053747094</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>9.3626054883652929E-2</v>
+        <v>0.10574204053747094</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>586.38589306999995</v>
+        <v>539.94620810000004</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>657.29674157800002</v>
+        <v>624.87627018000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -14749,27 +14902,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>2081.84</v>
+        <v>2081.63</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>-8.3989652474814047E-4</v>
+        <v>2.7940630976526215E-3</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>-3.1661790493555442E-2</v>
+        <v>-3.1759469001027885E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>5.609074353082022E-2</v>
+        <v>5.5984213222947776E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>5.609074353082022E-2</v>
+        <v>5.5984213222947776E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>316.41329999999999</v>
+        <v>287.38299999999998</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -14786,27 +14939,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>4106.41</v>
+        <v>4128.54</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>1.7077568570338819E-2</v>
+        <v>-3.5912362251473429E-3</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>-6.8733176454655043E-3</v>
+        <v>-1.5212233634755989E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>0.12739437567091927</v>
+        <v>0.13347005674845369</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>0.12739437567091927</v>
+        <v>0.13347005674845369</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>294.50209999999998</v>
+        <v>239.18899999999999</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -14823,31 +14976,31 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>12166.64</v>
+        <v>11884.16</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>1.9333304289252284E-2</v>
+        <v>-8.6388404133562746E-3</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>-2.3315255260462409E-2</v>
+        <v>-4.5991516470954681E-2</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>5.5229686422633373E-2</v>
+        <v>3.0729801341734753E-2</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>5.5229686422633373E-2</v>
+        <v>3.0729801341734753E-2</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>185.84360000000001</v>
+        <v>179.51820000000001</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
-        <v>182.15996000000001</v>
+        <v>191.26476</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -14859,31 +15012,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7971.35</v>
+        <v>7885.37</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>1.3973160338357937E-2</v>
+        <v>2.5376935213803353E-3</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>-3.0666841773737352E-2</v>
+        <v>-4.1122193118778627E-2</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>0.10343849060782651</v>
+        <v>9.1536662006339822E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>0.10343849060782651</v>
+        <v>9.1536662006339822E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>112.73690000000001</v>
+        <v>92.885300000000001</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>125.92909999999999</v>
+        <v>117.30625999999999</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -14897,31 +15050,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3202.54</v>
+        <v>3130.63</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>-2.1793646090736085E-2</v>
+        <v>9.5517266954958657E-3</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>-4.8587530339355256E-2</v>
+        <v>-6.9950595498040724E-2</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>-7.8381886149569313E-2</v>
+        <v>-9.9075947290721111E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-7.8381886149569313E-2</v>
+        <v>-9.9075947290721111E-2</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>376.81560000000002</v>
+        <v>327.91320000000002</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>363.74969999999996</v>
+        <v>363.71837999999997</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -14935,27 +15088,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4028.31</v>
+        <v>3888.73</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>-3.5622715226556134E-2</v>
+        <v>2.932407995699382E-4</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>-5.5023962729334963E-2</v>
+        <v>-8.7767161560169504E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>-3.650844903670214E-2</v>
+        <v>-6.9893206089525095E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>-3.650844903670214E-2</v>
+        <v>-6.9893206089525095E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>243.87049999999999</v>
+        <v>197.03030000000001</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -14973,27 +15126,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5733.43</v>
+        <v>5762.58</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>1.8224707321334854E-3</v>
+        <v>2.1161902196641602E-2</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>-7.0452416043337296E-3</v>
+        <v>-1.9968445353482078E-3</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>6.2348293662705334E-2</v>
+        <v>6.774950249585876E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>6.2348293662705334E-2</v>
+        <v>6.774950249585876E-2</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>23.856000000000002</v>
+        <v>25.532900000000001</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -15011,27 +15164,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>7970.11</v>
+        <v>7722.68</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>-9.060074748414082E-3</v>
+        <v>-2.8380845640737506E-3</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>-2.9856160206636506E-2</v>
+        <v>-5.9974024361594387E-2</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>-1.3064028599697131E-2</v>
+        <v>-4.3703200129773363E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>-1.3064028599697131E-2</v>
+        <v>-4.3703200129773363E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>252.7664</v>
+        <v>242.018</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -15049,27 +15202,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3619.25</v>
+        <v>3697.86</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>-1.6371834140057384E-2</v>
+        <v>4.6728072509468532E-2</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>-7.5790605145753531E-3</v>
+        <v>1.3976292128361489E-2</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>5.6172594520771835E-2</v>
+        <v>7.9112631173470005E-2</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>5.6172594520771835E-2</v>
+        <v>7.9112631173470005E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>124.4021</v>
+        <v>193.95959999999999</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -15087,27 +15240,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>5021.3</v>
+        <v>4878.95</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>-1.4151702798534505E-2</v>
+        <v>4.1829765158674093E-4</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>-3.2851425115469124E-2</v>
+        <v>-6.0269344704980465E-2</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>-3.4630861128574275E-2</v>
+        <v>-6.1998335073239597E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-3.4630861128574275E-2</v>
+        <v>-6.1998335073239597E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>135.12700000000001</v>
+        <v>125.25449999999999</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -15125,27 +15278,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>917.88</v>
+        <v>897.45</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>-2.8503085276404772E-2</v>
+        <v>4.8819267934923083E-3</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>-5.0639195730420743E-2</v>
+        <v>-7.1769889537048548E-2</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>-1.1789024902296497E-2</v>
+        <v>-3.3784438487128976E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>-1.1789024902296497E-2</v>
+        <v>-3.3784438487128976E-2</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>232.08779999999999</v>
+        <v>210.33109999999999</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -15163,27 +15316,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2595.81</v>
+        <v>2478.12</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>-1.7854710556186149E-2</v>
+        <v>1.1958822863975538E-3</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>-6.5599971202822238E-2</v>
+        <v>-0.10796421950648849</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>-7.2368421052631637E-2</v>
+        <v>-0.11442579833614464</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-7.2368421052631637E-2</v>
+        <v>-0.11442579833614464</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>135.01070000000001</v>
+        <v>140.80080000000001</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -15201,31 +15354,31 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2995.93</v>
+        <v>2889.87</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>-1.3870648141747988E-2</v>
+        <v>-3.3865689090903928E-3</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>-1.8959798024120511E-2</v>
+        <v>-5.3689956546369648E-2</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>6.0816301858406252E-3</v>
+        <v>-2.953502898093241E-2</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>6.0816301858406252E-3</v>
+        <v>-2.953502898093241E-2</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>100.7281</v>
+        <v>82.480699999999999</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
-        <v>94.12</v>
+        <v>95.971260000000001</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -15239,27 +15392,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>5579.14</v>
+        <v>5473.24</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>8.3791511681290398E-3</v>
+        <v>-1.2518019744166553E-3</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>-2.5080949976147404E-2</v>
+        <v>-4.3586298004253281E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>0.13619081172778547</v>
+        <v>0.11462429664446194</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>0.13619081172778547</v>
+        <v>0.11462429664446194</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>346.99119999999999</v>
+        <v>306.9513</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -15277,31 +15430,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2740.44</v>
+        <v>2605.39</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>-9.7527308730481765E-3</v>
+        <v>-1.3367718285751118E-2</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>-9.0222355617108896E-3</v>
+        <v>-5.7858023642234906E-2</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>4.1147438269681924E-3</v>
+        <v>-4.5368439951487878E-2</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>4.1147438269681924E-3</v>
+        <v>-4.5368439951487878E-2</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>70.757599999999996</v>
+        <v>56.829599999999999</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>50.56306</v>
+        <v>58.93468</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -15315,27 +15468,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3205.37</v>
+        <v>3118.42</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>-2.1120588298168097E-2</v>
+        <v>2.6719312178669075E-3</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>-2.6483871261658853E-2</v>
+        <v>-5.2891813993324439E-2</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>5.5747270673860427E-3</v>
+        <v>-2.1702848538085018E-2</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>5.5747270673860427E-3</v>
+        <v>-2.1702848538085018E-2</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>356.89240000000001</v>
+        <v>343.66899999999998</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -15353,27 +15506,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1402.86</v>
+        <v>1345.36</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>-2.0984974841757875E-2</v>
+        <v>-7.378113563923927E-3</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>-3.8610197368421195E-2</v>
+        <v>-7.8015350877193135E-2</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>-3.8030061989138164E-2</v>
+        <v>-7.7458993910801466E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-3.8030061989138164E-2</v>
+        <v>-7.7458993910801466E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>235.541</v>
+        <v>180.3519</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -15391,31 +15544,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2936</v>
+        <v>2807.62</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>-2.2372876840959122E-2</v>
+        <v>-3.3191691782304966E-3</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>-3.9998953677333637E-2</v>
+        <v>-8.1976111145625197E-2</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>1.1457253532654033E-3</v>
+        <v>-4.2630530852747039E-2</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>1.1457253532654033E-3</v>
+        <v>-4.2630530852747039E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>91.152600000000007</v>
+        <v>78.807500000000005</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>89.797260000000009</v>
+        <v>89.345839999999995</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -15429,27 +15582,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2653.98</v>
+        <v>2517.4</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>-2.584074174674611E-2</v>
+        <v>-5.4912495555643481E-3</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>-3.897364218698518E-2</v>
+        <v>-8.8430299716469762E-2</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>-4.1922522932302364E-2</v>
+        <v>-9.1227424181711245E-2</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-4.1922522932302364E-2</v>
+        <v>-9.1227424181711245E-2</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>33.153100000000002</v>
+        <v>25.537800000000001</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -15467,27 +15620,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2965.82</v>
+        <v>2919.57</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>-1.2808308091735165E-2</v>
+        <v>2.1240514568598989E-4</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>-2.3167422006745264E-2</v>
+        <v>-3.8400479553119649E-2</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>1.9928676316341543E-2</v>
+        <v>4.0235636393650687E-3</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>1.9928676316341543E-2</v>
+        <v>4.0235636393650687E-3</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>134.31489999999999</v>
+        <v>132.5581</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -15505,31 +15658,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4494.68</v>
+        <v>4291.46</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>-1.3673499393239696E-2</v>
+        <v>-3.2794652520682366E-3</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>-1.5697404497236223E-2</v>
+        <v>-6.0201122995120822E-2</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>1.5540342077317693E-2</v>
+        <v>-3.0375742786777793E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>1.5540342077317693E-2</v>
+        <v>-3.0375742786777793E-2</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>104.2208</v>
+        <v>85.891599999999997</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>110.62840000000001</v>
+        <v>107.36282000000001</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -15543,27 +15696,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3300.08</v>
+        <v>3434.11</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>-3.2107916428802952E-3</v>
+        <v>3.6221323025765972E-2</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>3.6770184824164165E-3</v>
+        <v>4.4440524454149921E-2</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>6.6223817570296273E-2</v>
+        <v>0.10952760968107755</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>6.6223817570296273E-2</v>
+        <v>0.10952760968107755</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>106.7971</v>
+        <v>169.46080000000001</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -15581,27 +15734,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>5107.67</v>
+        <v>4877.76</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>-2.2498531165135227E-2</v>
+        <v>-6.6066555333794685E-3</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>-3.2407354785422227E-2</v>
+        <v>-7.5961308948726325E-2</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>-5.0936489650302841E-2</v>
+        <v>-9.365639748782939E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-5.0936489650302841E-2</v>
+        <v>-9.365639748782939E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>146.04429999999999</v>
+        <v>115.5282</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -15619,27 +15772,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>3059.71</v>
+        <v>2982.88</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>-9.9820097328638946E-3</v>
+        <v>-3.1980484218615546E-3</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>-3.4578613573975403E-2</v>
+        <v>-5.882055974505418E-2</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>1.393463809706863E-2</v>
+        <v>-1.1525486635339921E-2</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>1.393463809706863E-2</v>
+        <v>-1.1525486635339921E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>158.17599999999999</v>
+        <v>130.0034</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -15657,27 +15810,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2581.15</v>
+        <v>2496.59</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>-2.3667408046237792E-2</v>
+        <v>-4.7518247884202891E-3</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>-3.4329625763680705E-2</v>
+        <v>-6.5965558137011659E-2</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>-3.7455390272189248E-2</v>
+        <v>-6.8988920752240279E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-3.7455390272189248E-2</v>
+        <v>-6.8988920752240279E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>147.76599999999999</v>
+        <v>131.31200000000001</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -15695,27 +15848,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>4091.91</v>
+        <v>4023.11</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>-1.3201017688977745E-2</v>
+        <v>2.4667240580094063E-2</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>-1.7095515820017892E-2</v>
+        <v>-3.3621741595165067E-2</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>-1.3034407071961795E-2</v>
+        <v>-2.9628914965206921E-2</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-1.3034407071961795E-2</v>
+        <v>-2.9628914965206921E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>321.75740000000002</v>
+        <v>356.84609999999998</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -15733,27 +15886,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>6229.67</v>
+        <v>6182.29</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>-9.1330011181643966E-3</v>
+        <v>1.8480719459779138E-2</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>-3.4254018599733649E-2</v>
+        <v>-4.159903761338047E-2</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>3.7870104425592688E-2</v>
+        <v>2.9976542559926544E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>3.7870104425592688E-2</v>
+        <v>2.9976542559926544E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>94.822699999999998</v>
+        <v>120.45099999999999</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -15771,27 +15924,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1226.08</v>
+        <v>1186.1600000000001</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>-2.0835829000854678E-2</v>
+        <v>6.0388112362601554E-3</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>-3.4232871748822391E-2</v>
+        <v>-6.5677331947004314E-2</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>-4.5272616841351192E-2</v>
+        <v>-7.6357633427294291E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-4.5272616841351192E-2</v>
+        <v>-7.6357633427294291E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>53.160400000000003</v>
+        <v>45.253300000000003</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -15875,31 +16028,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1483.4362000000001</v>
+        <v>1404.1739</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>-3.0099716052504055E-2</v>
+        <v>-1.1233433521570024E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>-5.0928648837262343E-2</v>
+        <v>-0.10163900507453526</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>-5.4212981779985799E-2</v>
+        <v>-0.10474785100743243</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-5.4212981779985799E-2</v>
+        <v>-0.10474785100743243</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>107.17491434999999</v>
+        <v>76.535226059999999</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>98.677173115999992</v>
+        <v>92.107818569999992</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -15911,31 +16064,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>9127.1908999999996</v>
+        <v>8903.2055</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>-2.8834096784431384E-2</v>
+        <v>1.2181193873301854E-2</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>-5.8012209545347471E-2</v>
+        <v>-8.1129016715459468E-2</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>-0.10473850907307503</v>
+        <v>-0.12670863168219715</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-0.10473850907307503</v>
+        <v>-0.12670863168219715</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>80.067466030000006</v>
+        <v>93.180418540000005</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>84.383018061999991</v>
+        <v>84.421614566000002</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -15947,31 +16100,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2265.2020000000002</v>
+        <v>2160.3434000000002</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>-2.9118531955824589E-2</v>
+        <v>1.3698973017373106E-3</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>-5.8043505859839861E-2</v>
+        <v>-0.10164766974299255</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>-8.1005973821026492E-2</v>
+        <v>-0.12354718073921334</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-8.1005973821026492E-2</v>
+        <v>-0.12354718073921334</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>105.99021643</v>
+        <v>115.19125257</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>123.872105362</v>
+        <v>128.37036746199999</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -15983,31 +16136,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3157.0136000000002</v>
+        <v>3026.1417999999999</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>-4.1140397155081561E-2</v>
+        <v>-5.0990394592569377E-3</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>-6.1402392572213686E-2</v>
+        <v>-0.10031130267629684</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>-9.2276069613747014E-3</v>
+        <v>-5.0299386464406466E-2</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>-9.2276069613747014E-3</v>
+        <v>-5.0299386464406466E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>70.002813410000002</v>
+        <v>46.42749706</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>77.814278782000002</v>
+        <v>65.818273887999993</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -16020,31 +16173,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1980.4757999999999</v>
+        <v>1833.4881</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>-2.8003557241253474E-2</v>
+        <v>-2.0264963539299297E-2</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>-3.7135050642550738E-2</v>
+        <v>-0.10859732466613024</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>-3.0490836105031005E-2</v>
+        <v>-0.10244623294948842</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-3.0490836105031005E-2</v>
+        <v>-0.10244623294948842</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>15.419155330000001</v>
+        <v>18.928769679999998</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>12.808569995999999</v>
+        <v>14.359637344000001</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -16057,31 +16210,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>5989.6324000000004</v>
+        <v>5700.8431</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>-3.112251361720364E-2</v>
+        <v>-2.186673310303755E-3</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>-6.6392236682565442E-2</v>
+        <v>-0.11140600621590246</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>-6.8997344039246289E-2</v>
+        <v>-0.11388550868071035</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-6.8997344039246289E-2</v>
+        <v>-0.11388550868071035</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>118.96724277</v>
+        <v>105.88165986</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>128.132742466</v>
+        <v>129.928005582</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -16094,31 +16247,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6754.1013000000003</v>
+        <v>6463.2349000000004</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>-2.9612244242044006E-2</v>
+        <v>-5.5553937442860413E-3</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>-4.910053566767713E-2</v>
+        <v>-9.0051165761464991E-2</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>-1.9328677968310615E-2</v>
+        <v>-6.1561437643176342E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>-1.9328677968310615E-2</v>
+        <v>-6.1561437643176342E-2</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>63.982815739999999</v>
+        <v>59.984975419999998</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>73.487294601999992</v>
+        <v>62.976633447999994</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -16131,31 +16284,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2764.3418000000001</v>
+        <v>2623.9630999999999</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>-4.0734623140512231E-2</v>
+        <v>-5.2133015315570796E-3</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>-6.2927295878156042E-2</v>
+        <v>-0.11051368624786695</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>-8.3478638492181179E-2</v>
+        <v>-0.13002139136402135</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-8.3478638492181179E-2</v>
+        <v>-0.13002139136402135</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>90.340853019999997</v>
+        <v>88.083630080000006</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>107.61501456000001</v>
+        <v>106.27321955400001</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -16168,31 +16321,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>4746.6818000000003</v>
+        <v>4580.5522000000001</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>-3.4418366296822267E-2</v>
+        <v>8.4357146455120713E-3</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>-6.9542802626154754E-2</v>
+        <v>-0.10210796888963547</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>-9.5072038581531459E-2</v>
+        <v>-0.1267437045144082</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>-9.5072038581531459E-2</v>
+        <v>-0.1267437045144082</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>56.951259899999997</v>
+        <v>66.642520309999995</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>75.257067329999998</v>
+        <v>77.771807756000001</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -16206,31 +16359,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1819.3932</v>
+        <v>1741.9416000000001</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-1.5170085698493763E-2</v>
+        <v>4.9566446476476678E-3</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>-3.3774523426913006E-2</v>
+        <v>-7.4906758680594265E-2</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>-1.6386519049486625E-2</v>
+        <v>-5.8258961950332096E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-1.6386519049486625E-2</v>
+        <v>-5.8258961950332096E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>58.743404060000003</v>
+        <v>73.136385099999998</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>68.708381887999991</v>
+        <v>65.309265860000011</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -16244,31 +16397,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2542.4155999999998</v>
+        <v>2444.3461000000002</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>-2.1059000201031353E-2</v>
+        <v>1.5734851706983299E-3</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>-3.7031341589218836E-2</v>
+        <v>-7.4176273694739225E-2</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>-2.7395570759675136E-2</v>
+        <v>-6.4912186876010969E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-2.7395570759675136E-2</v>
+        <v>-6.4912186876010969E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>18.0638942</v>
+        <v>14.01945999</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>17.919707566</v>
+        <v>16.522762682</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -16282,31 +16435,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>967.0915</v>
+        <v>910.6807</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>-3.2357137096717725E-2</v>
+        <v>-7.4020795623277458E-3</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>-3.2164428012255719E-2</v>
+        <v>-8.8618630002746071E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>-5.5059115382997126E-3</v>
+        <v>-6.35151145200189E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>-5.5059115382997126E-3</v>
+        <v>-6.35151145200189E-2</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>42.527114650000001</v>
+        <v>30.896234419999999</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>45.052412836000002</v>
+        <v>42.162460293999999</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -16320,31 +16473,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2429.2194</v>
+        <v>2295.3557000000001</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>-2.4124680935870391E-2</v>
+        <v>-1.1765615074115776E-2</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>-4.2164721984537357E-2</v>
+        <v>-9.4946852040669216E-2</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>-7.1478427927528787E-2</v>
+        <v>-0.12264520733306028</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-7.1478427927528787E-2</v>
+        <v>-0.12264520733306028</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>50.678895939999997</v>
+        <v>41.536233539999998</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>49.685815658000003</v>
+        <v>45.260606772000003</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -16358,31 +16511,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1507.9627</v>
+        <v>1409.3423</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>-5.2453941084803724E-2</v>
+        <v>-1.008429237831332E-2</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>-8.5528765440573876E-2</v>
+        <v>-0.14533496551484915</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>-3.9477679501570773E-2</v>
+        <v>-0.10229560958464468</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>-3.9477679501570773E-2</v>
+        <v>-0.10229560958464468</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>12.77135679</v>
+        <v>8.6596920500000003</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>15.461925901999999</v>
+        <v>12.989492028000001</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -16396,31 +16549,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1982.1161</v>
+        <v>1915.0985000000001</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>-2.9385660125752278E-2</v>
+        <v>1.4591267244474793E-3</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>-3.9391416927103129E-2</v>
+        <v>-7.1870685813999358E-2</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>-5.2170419340290985E-2</v>
+        <v>-8.4217615619469624E-2</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-5.2170419340290985E-2</v>
+        <v>-8.4217615619469624E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>82.489258620000001</v>
+        <v>77.517633399999994</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>70.536546396000006</v>
+        <v>80.853971876000003</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -16434,31 +16587,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4709.7293</v>
+        <v>4744.1324999999997</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>-1.4784005230688901E-2</v>
+        <v>1.3651305271431324E-2</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>-1.303518073800003E-2</v>
+        <v>-5.8256903602762478E-3</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>3.4762095290017392E-2</v>
+        <v>4.2320730839767728E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>3.4762095290017392E-2</v>
+        <v>4.2320730839767728E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>12.86325366</v>
+        <v>14.63548686</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>10.221931688</v>
+        <v>12.102766916</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -16472,31 +16625,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4059.7170000000001</v>
+        <v>3876.1965</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>-3.4040478476433655E-2</v>
+        <v>-1.3986665792805608E-3</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>-6.4927420987020423E-2</v>
+        <v>-0.1071976056419488</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>-6.7312627562791771E-2</v>
+        <v>-0.10947498837103599</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>-6.7312627562791771E-2</v>
+        <v>-0.10947498837103599</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>87.983507829999994</v>
+        <v>94.822609119999996</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>108.37754599</v>
+        <v>108.760439428</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -16510,31 +16663,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2481.3937999999998</v>
+        <v>2376.0698000000002</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>-2.1968400915916786E-2</v>
+        <v>-4.2102241304897703E-4</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>-3.7068343482546173E-2</v>
+        <v>-7.7940458900519705E-2</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>-8.3724537972833524E-2</v>
+        <v>-0.12261630789768339</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-8.3724537972833524E-2</v>
+        <v>-0.12261630789768339</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>37.77238766</v>
+        <v>32.468190030000002</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>38.982681475999996</v>
+        <v>37.565068060000002</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -16548,31 +16701,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2574.9294</v>
+        <v>2422.7343000000001</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>-4.9066064945952226E-2</v>
+        <v>-1.2918295261875157E-2</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>-7.146125534307568E-2</v>
+        <v>-0.1263439434264596</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>-1.6396151638971568E-2</v>
+        <v>-7.4533546031878561E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>-1.6396151638971568E-2</v>
+        <v>-7.4533546031878561E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>40.739767819999997</v>
+        <v>36.1597796</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>47.647101564000003</v>
+        <v>38.53362096</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -16586,31 +16739,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3826.2959999999998</v>
+        <v>3653.1898999999999</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>-2.9340197476190655E-2</v>
+        <v>-1.1744774402095426E-2</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>-3.6776070555301521E-2</v>
+        <v>-8.03534461302301E-2</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>7.1729088444283384E-4</v>
+        <v>-4.4556328152759672E-2</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>7.1729088444283384E-4</v>
+        <v>-4.4556328152759672E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>61.042303320000002</v>
+        <v>57.548646730000002</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>61.616175225999996</v>
+        <v>61.407930634000003</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -16624,31 +16777,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3375.3777</v>
+        <v>3233.9616000000001</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>-3.60814731002157E-2</v>
+        <v>-2.1257073027152185E-3</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>-6.2104257495178228E-2</v>
+        <v>-0.10139869204442477</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>-6.5391516017023088E-2</v>
+        <v>-0.10454822634066631</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-6.5391516017023088E-2</v>
+        <v>-0.10454822634066631</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>194.97901794000001</v>
+        <v>187.92220753999999</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>218.44460472199998</v>
+        <v>210.29202339399998</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -16662,31 +16815,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>2064.1568000000002</v>
+        <v>1944.3775000000001</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>-2.5891479906715364E-2</v>
+        <v>-2.3520991829702909E-2</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>-4.0927761280520558E-2</v>
+        <v>-9.6580995280598603E-2</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>-9.0027850791421504E-2</v>
+        <v>-0.14283189506349392</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-9.0027850791421504E-2</v>
+        <v>-0.14283189506349392</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>26.00604929</v>
+        <v>23.304693360000002</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>22.359827045999999</v>
+        <v>23.759384743999998</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -16700,31 +16853,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>3896.9083999999998</v>
+        <v>3690.66</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>-3.5582067126600392E-2</v>
+        <v>-4.2697587024345118E-3</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>-5.4189056785401757E-2</v>
+        <v>-0.10424719870644406</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>-7.3616640242606501E-2</v>
+        <v>-0.12264655476063491</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-7.3616640242606501E-2</v>
+        <v>-0.12264655476063491</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>36.98928085</v>
+        <v>33.415011</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>42.215706304000001</v>
+        <v>40.469485390000003</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -16738,31 +16891,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1342.537</v>
+        <v>1265.8303000000001</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>-2.336007397961759E-2</v>
+        <v>-1.6778447379798167E-2</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>-2.4803945596237553E-2</v>
+        <v>-8.0522388504204456E-2</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>-2.3042890473355282E-2</v>
+        <v>-7.8861952378783129E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-2.3042890473355282E-2</v>
+        <v>-7.8861952378783129E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>23.246923840000001</v>
+        <v>18.891739359999999</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>23.006002950000003</v>
+        <v>22.838138563999998</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -16776,31 +16929,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2555.6822000000002</v>
+        <v>2420.6237999999998</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>-2.1390147244340407E-2</v>
+        <v>-1.6495179366380675E-2</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>-3.4897258533252651E-2</v>
+        <v>-8.5899387083552381E-2</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>-2.8321930664810036E-2</v>
+        <v>-7.9671541097398269E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-2.8321930664810036E-2</v>
+        <v>-7.9671541097398269E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>202.33938749000001</v>
+        <v>161.59454012</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>206.56012395600001</v>
+        <v>194.52743196399999</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -16814,31 +16967,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>4754.0879999999997</v>
+        <v>4530.9261999999999</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>-3.8751469243406778E-2</v>
+        <v>-3.5163404318977465E-3</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>-5.979420197643659E-2</v>
+        <v>-0.10392843303344999</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>-6.8138531011683656E-2</v>
+        <v>-0.11188107064706199</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>-6.8138531011683656E-2</v>
+        <v>-0.11188107064706199</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>116.37212881000001</v>
+        <v>78.849506399999996</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>101.530865612</v>
+        <v>95.193951342000005</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -16852,31 +17005,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1966.0767000000001</v>
+        <v>1871.7150999999999</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>-1.8576435262241286E-2</v>
+        <v>-1.0844632093137241E-2</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>-3.1873842424065657E-2</v>
+        <v>-7.8338933654086063E-2</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>-1.3177778875319568E-2</v>
+        <v>-6.0540185286462551E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-1.3177778875319568E-2</v>
+        <v>-6.0540185286462551E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>108.21313551</v>
+        <v>112.97658303</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>133.10496766199998</v>
+        <v>126.750026764</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -16890,31 +17043,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3132.4144999999999</v>
+        <v>2955.5160999999998</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>-3.7850120386434538E-2</v>
+        <v>-4.7651805820255744E-3</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>-6.225809265663839E-2</v>
+        <v>-0.11521565718776572</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>-0.11136300012266798</v>
+        <v>-0.1615474388229422</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-0.11136300012266798</v>
+        <v>-0.1615474388229422</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>43.44590883</v>
+        <v>42.508640810000003</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>38.737780795999996</v>
+        <v>40.501497854</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -16928,31 +17081,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3442.875</v>
+        <v>3254.2139999999999</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>-2.6168974840304893E-2</v>
+        <v>-1.2191019615916288E-2</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>-3.9574536436316698E-2</v>
+        <v>-9.2203466728990158E-2</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>-4.5080785132408208E-2</v>
+        <v>-9.7407986670696611E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-4.5080785132408208E-2</v>
+        <v>-9.7407986670696611E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>166.98867597</v>
+        <v>141.88136377000001</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>153.78761687399998</v>
+        <v>155.23766762400001</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -16966,31 +17119,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2367.5147999999999</v>
+        <v>2230.8481000000002</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>-1.9509627837585586E-2</v>
+        <v>-5.9357829111799099E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>-3.6392667431578318E-2</v>
+        <v>-9.2017677352499772E-2</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>2.3072771975336082E-2</v>
+        <v>-3.5984928363314905E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>2.3072771975336082E-2</v>
+        <v>-3.5984928363314905E-2</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>34.163748890000001</v>
+        <v>30.02618936</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>35.815932388</v>
+        <v>33.766527281999998</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -17004,31 +17157,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1323.7113999999999</v>
+        <v>1259.2281</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>-1.6089185540404172E-2</v>
+        <v>-8.0341801398875479E-4</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>-2.658767169232934E-2</v>
+        <v>-7.4006496664269505E-2</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>-2.6451433164116689E-2</v>
+        <v>-7.387689486207305E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-2.6451433164116689E-2</v>
+        <v>-7.387689486207305E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>8.6718105300000001</v>
+        <v>7.1684903699999998</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>9.2118179720000004</v>
+        <v>9.0808024599999992</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -17042,31 +17195,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>4078.5666000000001</v>
+        <v>3885.9213</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>-3.1270233497470379E-2</v>
+        <v>-2.6101548405944586E-3</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>-4.5472181064546202E-2</v>
+        <v>-9.0557946744372675E-2</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>-5.8746331974620869E-2</v>
+        <v>-0.10320511199131832</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-5.8746331974620869E-2</v>
+        <v>-0.10320511199131832</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>79.827516750000001</v>
+        <v>66.617391870000006</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>83.308163415999999</v>
+        <v>81.483384040000004</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -17080,31 +17233,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>3137.3074000000001</v>
+        <v>2978.6900999999998</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>-2.6777771263380434E-2</v>
+        <v>-1.2398228139652079E-2</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>-4.0461079186196125E-2</v>
+        <v>-8.8973849361155613E-2</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>-5.3463312037288609E-2</v>
+        <v>-0.10131870988436864</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-5.3463312037288609E-2</v>
+        <v>-0.10131870988436864</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>23.260433160000002</v>
+        <v>19.13074538</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>16.865205889999999</v>
+        <v>18.554122114000002</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -17118,31 +17271,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2460.0122999999999</v>
+        <v>2327.8699000000001</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>-4.2346524243285444E-2</v>
+        <v>-9.514005012275395E-3</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>-3.9258175110490678E-2</v>
+        <v>-9.0865531106750996E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>3.9742126644945142E-2</v>
+        <v>-1.6108821740949741E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>3.9742126644945142E-2</v>
+        <v>-1.6108821740949741E-2</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>49.42494164</v>
+        <v>32.50416018</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>34.796858999999998</v>
+        <v>40.215699700000002</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -17156,31 +17309,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2207.7424000000001</v>
+        <v>2108.4949999999999</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>-2.8348896015259362E-2</v>
+        <v>-4.6548839743958403E-3</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>-4.1306323908740887E-2</v>
+        <v>-8.4403677453475101E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>-4.4863265394767593E-2</v>
+        <v>-8.7800719308801956E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>-4.4863265394767593E-2</v>
+        <v>-8.7800719308801956E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>51.657558850000001</v>
+        <v>44.078068930000001</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>52.399138628000003</v>
+        <v>50.176132522000003</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -17194,31 +17347,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4318.0063</v>
+        <v>4135.2097000000003</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>-2.516323638108986E-2</v>
+        <v>-1.6560804523477746E-3</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>-3.9484791783162443E-2</v>
+        <v>-8.0146824701069375E-2</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>-7.8612858162856125E-2</v>
+        <v>-0.11761846054272007</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-7.8612858162856125E-2</v>
+        <v>-0.11761846054272007</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>177.45058176000001</v>
+        <v>154.9481342</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>177.298304196</v>
+        <v>177.318659774</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -17232,31 +17385,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>4823.6989000000003</v>
+        <v>4585.7001</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>-4.0815433336289446E-2</v>
+        <v>-4.4713146221183608E-3</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>-5.8135619285587969E-2</v>
+        <v>-0.10460671895824236</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>-9.6576139468583455E-2</v>
+        <v>-0.14115060382784206</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-9.6576139468583455E-2</v>
+        <v>-0.14115060382784206</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>65.596321709999998</v>
+        <v>44.012304690000001</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>47.250773307999999</v>
+        <v>47.919171297999995</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -17270,31 +17423,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5056.4353000000001</v>
+        <v>4863.0433000000003</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>-2.5691775879765899E-2</v>
+        <v>-8.9421599545613795E-5</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>-3.734567800755173E-2</v>
+        <v>-7.4164035920440186E-2</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>-1.0538424074079455E-2</v>
+        <v>-4.8382071176904073E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>-1.0538424074079455E-2</v>
+        <v>-4.8382071176904073E-2</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>158.11453243</v>
+        <v>136.04034375000001</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>164.60029806</v>
+        <v>143.56736369399999</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -17308,31 +17461,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>4599.5246999999999</v>
+        <v>4362.6292999999996</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>-5.2814390570624765E-2</v>
+        <v>-8.2783852490937448E-3</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>-8.681263066257261E-2</v>
+        <v>-0.13384572674185613</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>-0.16438598587172237</v>
+        <v>-0.20742371890586053</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-0.16438598587172237</v>
+        <v>-0.20742371890586053</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>110.38324007999999</v>
+        <v>106.72403998999999</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>130.21764166</v>
+        <v>126.79465150000001</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -17346,31 +17499,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1636.4664</v>
+        <v>1585.3607</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>-2.9263112824720827E-2</v>
+        <v>5.5431193273869361E-3</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>-3.9518083490218125E-2</v>
+        <v>-6.9513261320067965E-2</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>-2.4374213976148695E-2</v>
+        <v>-5.4842324248867487E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-2.4374213976148695E-2</v>
+        <v>-5.4842324248867487E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>34.258211719999998</v>
+        <v>43.068259390000001</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>40.506295944000001</v>
+        <v>38.934850768000004</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -17384,31 +17537,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>5119.2385999999997</v>
+        <v>4849.6193999999996</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>-1.405342687711475E-2</v>
+        <v>-5.9858898359411716E-3</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>-4.2630612508129717E-2</v>
+        <v>-9.3053182841157045E-2</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>-3.9186921629310034E-2</v>
+        <v>-8.9790863695976442E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-3.9186921629310034E-2</v>
+        <v>-8.9790863695976442E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>54.725647430000002</v>
+        <v>51.621243370000002</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>57.870461442</v>
+        <v>60.323768963999996</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -17422,31 +17575,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>10720.2312</v>
+        <v>10194.200699999999</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>-2.9015031809306868E-2</v>
+        <v>-7.0606977572627017E-3</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>-5.0767448149489421E-2</v>
+        <v>-9.7345293771531671E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>-3.7214935549396366E-2</v>
+        <v>-8.4457788748820276E-2</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>-3.7214935549396366E-2</v>
+        <v>-8.4457788748820276E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>30.080034260000001</v>
+        <v>23.55302343</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>31.82330743</v>
+        <v>28.502915231999999</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -17460,31 +17613,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>2124.4351999999999</v>
+        <v>2035.0708999999999</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>-1.639897426428627E-2</v>
+        <v>-7.2957561445275987E-3</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>-3.2317173880940575E-2</v>
+        <v>-7.3022721585173422E-2</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>-2.3881381957791104E-2</v>
+        <v>-6.4941780984463904E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-2.3881381957791104E-2</v>
+        <v>-6.4941780984463904E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>156.05930935999999</v>
+        <v>174.67902090000001</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>199.97215807399999</v>
+        <v>185.55777978</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -17498,31 +17651,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2533.0969</v>
+        <v>2415.9967999999999</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>-2.8257184742802033E-2</v>
+        <v>-7.8007661299529518E-3</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>-4.8182695939483988E-2</v>
+        <v>-9.2183342534257751E-2</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>-8.2852905552416201E-2</v>
+        <v>-0.12525081637632574</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-8.2852905552416201E-2</v>
+        <v>-0.12525081637632574</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>94.867320950000007</v>
+        <v>80.81406432</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>102.03652638999999</v>
+        <v>98.454985180000008</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -17536,31 +17689,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1173.6454000000001</v>
+        <v>1100.4549</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>-3.1502992107582783E-2</v>
+        <v>-5.6338280157639531E-3</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>-4.9802863580658663E-2</v>
+        <v>-0.10905875425521838</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>-5.3981960417576191E-2</v>
+        <v>-0.11297723558847317</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-5.3981960417576191E-2</v>
+        <v>-0.11297723558847317</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>11.937516090000001</v>
+        <v>10.45010278</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>10.509292852</v>
+        <v>10.593818670000001</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -17574,31 +17727,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2870.5432000000001</v>
+        <v>2723.6073999999999</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>-2.7594623392269257E-2</v>
+        <v>-1.235653353605437E-2</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>-4.4779929825574778E-2</v>
+        <v>-9.3675213891369569E-2</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>-5.7447427421835166E-2</v>
+        <v>-0.10569429452832256</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-5.7447427421835166E-2</v>
+        <v>-0.10569429452832256</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>59.345685680000003</v>
+        <v>55.737413449999998</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>63.575130432000002</v>
+        <v>59.559429264000002</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -17612,31 +17765,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>802.52089999999998</v>
+        <v>775.8537</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>-2.360146262516738E-2</v>
+        <v>-2.4980820823744532E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>-1.9905715553392045E-2</v>
+        <v>-5.2473553104033455E-2</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>-1.8949199950997198E-3</v>
+        <v>-3.5061243500826067E-2</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>-1.8949199950997198E-3</v>
+        <v>-3.5061243500826067E-2</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>9.1676065799999993</v>
+        <v>11.565585199999999</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>11.055856477999999</v>
+        <v>10.567850504000001</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -17650,31 +17803,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4340.9120000000003</v>
+        <v>4131.2591000000002</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>-2.9063268624900052E-2</v>
+        <v>-7.0767124172663731E-3</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>-4.2771621539376185E-2</v>
+        <v>-8.9002852558702758E-2</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>-1.8040084547535251E-2</v>
+        <v>-6.5465773886172807E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>-1.8040084547535251E-2</v>
+        <v>-6.5465773886172807E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>48.425359999999998</v>
+        <v>44.573847129999997</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>47.742685576</v>
+        <v>48.019162613999995</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -17688,31 +17841,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>4994.9294</v>
+        <v>4749.3492999999999</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>-3.708775905717554E-2</v>
+        <v>-9.5893230195283063E-3</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>-5.5914664819925249E-2</v>
+        <v>-0.10233145121575626</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>-2.2817848540025221E-2</v>
+        <v>-7.0861869036842662E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>-2.2817848540025221E-2</v>
+        <v>-7.0861869036842662E-2</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>119.47904263</v>
+        <v>97.369979779999994</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>120.768332672</v>
+        <v>107.06336744400001</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -17726,31 +17879,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>733.08</v>
+        <v>683.48609999999996</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>-3.1160965413445485E-2</v>
+        <v>-3.0038856653403778E-3</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>-5.8152420046444719E-2</v>
+        <v>-0.12186974243344029</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>-7.6891925788698967E-2</v>
+        <v>-0.13934149407814611</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-7.6891925788698967E-2</v>
+        <v>-0.13934149407814611</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>12.96866316</v>
+        <v>16.326670109999998</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>13.187728509999999</v>
+        <v>16.838903952000003</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -17764,31 +17917,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>24646.1332</v>
+        <v>23166.978299999999</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>-5.0248349889607254E-2</v>
+        <v>-2.5489384445315344E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>-3.91379725502079E-2</v>
+        <v>-9.6804778316164519E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>-2.1008653075266337E-2</v>
+        <v>-7.9763502613339976E-2</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-2.1008653075266337E-2</v>
+        <v>-7.9763502613339976E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>244.56524468999999</v>
+        <v>216.3551932</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>259.57578458</v>
+        <v>236.95239178800003</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -17802,31 +17955,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1901.6575</v>
+        <v>1789.9811</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>-2.6210810279637897E-2</v>
+        <v>-1.0624950047087078E-2</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>-3.2779867130269924E-2</v>
+        <v>-8.9580664564304802E-2</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>4.8935823135201062E-3</v>
+        <v>-5.4119619409649156E-2</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>4.8935823135201062E-3</v>
+        <v>-5.4119619409649156E-2</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>77.755000510000002</v>
+        <v>64.405166219999998</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>69.761258143999996</v>
+        <v>71.505718250000001</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -17840,31 +17993,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2938.9598999999998</v>
+        <v>2807.1925000000001</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>-1.7406025506267575E-2</v>
+        <v>-9.1907754398237174E-3</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>-1.7938882552241631E-2</v>
+        <v>-6.1969303003771348E-2</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>2.2658439495183202E-2</v>
+        <v>-2.3192149912429127E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>2.2658439495183202E-2</v>
+        <v>-2.3192149912429127E-2</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>32.276534679999997</v>
+        <v>19.225116150000002</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>28.364614011999997</v>
+        <v>27.436739987999999</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -17878,31 +18031,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2661.4805000000001</v>
+        <v>2545.8589000000002</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>-2.8212779838613811E-2</v>
+        <v>-5.5577046934796037E-4</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>-4.6490032980258E-2</v>
+        <v>-8.7912973333482358E-2</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>-6.4217872912085583E-2</v>
+        <v>-0.10487067002456041</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-6.4217872912085583E-2</v>
+        <v>-0.10487067002456041</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>29.40637993</v>
+        <v>29.348675310000001</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>31.473135828</v>
+        <v>28.516846476000001</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -17916,31 +18069,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1800.2557999999999</v>
+        <v>1722.894</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>-1.9904223405695198E-2</v>
+        <v>-4.6526541099599639E-3</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>-3.7968499548310275E-2</v>
+        <v>-7.9309562597041139E-2</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>-2.7820945094862881E-2</v>
+        <v>-6.9598075661396863E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-2.7820945094862881E-2</v>
+        <v>-6.9598075661396863E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>94.641051430000005</v>
+        <v>107.06947137</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>106.78899149599999</v>
+        <v>103.92338942799999</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -17954,31 +18107,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2454.4776999999999</v>
+        <v>2316.5063</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>-2.5326802414256999E-2</v>
+        <v>-1.348214686483229E-2</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>-4.0911316411487049E-2</v>
+        <v>-9.4823726533959984E-2</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>-4.0545669248832183E-2</v>
+        <v>-9.4478633174233342E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-4.0545669248832183E-2</v>
+        <v>-9.4478633174233342E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>99.086069910000006</v>
+        <v>90.501648410000001</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>98.409006016000006</v>
+        <v>99.427397577999997</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -17992,31 +18145,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1546.4567</v>
+        <v>1473.7608</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>-2.543739487237795E-2</v>
+        <v>-7.6816158265593515E-3</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>-3.1921869494155763E-2</v>
+        <v>-7.7429325970266416E-2</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>-2.5443731833334482E-3</v>
+        <v>-4.9432808211292374E-2</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-2.5443731833334482E-3</v>
+        <v>-4.9432808211292374E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>37.865257960000001</v>
+        <v>30.366275510000001</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>41.980014453999999</v>
+        <v>39.088596618000004</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -18030,31 +18183,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2768.0873000000001</v>
+        <v>2611.1988000000001</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>-3.662270479900942E-2</v>
+        <v>-1.4305784742735916E-2</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>-5.4835434727330767E-2</v>
+        <v>-0.10840507861059312</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>-8.1680119396397632E-2</v>
+        <v>-0.13372827141388577</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-8.1680119396397632E-2</v>
+        <v>-0.13372827141388577</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>22.873725520000001</v>
+        <v>14.9139629</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>16.777014638000001</v>
+        <v>16.855418141999998</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -18068,31 +18221,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6376.5366000000004</v>
+        <v>6083.5653000000002</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>-2.9308873407106639E-2</v>
+        <v>-2.0081837239329658E-3</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>-4.6111753772975383E-2</v>
+        <v>-8.9938347593804688E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>-3.5595859497173254E-2</v>
+        <v>-7.9905608267139772E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>-3.5595859497173254E-2</v>
+        <v>-7.9905608267139772E-2</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>41.374535940000001</v>
+        <v>46.336489999999998</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>44.627494142000003</v>
+        <v>44.928757279999999</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -18106,31 +18259,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1544.6194</v>
+        <v>1455.0940000000001</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>-2.9154234002820467E-2</v>
+        <v>-8.926036739428822E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>-3.3892641964584524E-2</v>
+        <v>-8.9887761326068571E-2</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>-5.4787028066463413E-2</v>
+        <v>-0.10957111882535109</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-5.4787028066463413E-2</v>
+        <v>-0.10957111882535109</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>22.1415437</v>
+        <v>16.313271820000001</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>21.49489926</v>
+        <v>22.201845479999999</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -18144,31 +18297,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1411.498</v>
+        <v>1317.0184999999999</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>-2.016518865161554E-2</v>
+        <v>-2.1786012419800938E-2</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>-3.1343144998220107E-2</v>
+        <v>-9.6180796438137706E-2</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>-5.2228813171238182E-2</v>
+        <v>-0.11566846937053012</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-5.2228813171238182E-2</v>
+        <v>-0.11566846937053012</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>23.47079961</v>
+        <v>17.872261200000001</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>21.563825538</v>
+        <v>22.148779932</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -18182,31 +18335,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1884.5767000000001</v>
+        <v>1767.8973000000001</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>-1.5819515590883682E-2</v>
+        <v>-2.0441058736447304E-2</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>-2.7634639130661776E-2</v>
+        <v>-8.7836490765046293E-2</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>-2.6927522765806122E-3</v>
+        <v>-6.4438825694563495E-2</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-2.6927522765806122E-3</v>
+        <v>-6.4438825694563495E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>34.579890829999997</v>
+        <v>33.932925849999997</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>36.865332645999999</v>
+        <v>36.784214804000001</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -18220,31 +18373,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2207.4837000000002</v>
+        <v>2102.2518</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>-1.7740166305048488E-2</v>
+        <v>-9.6274633684960698E-3</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>-3.4571812271441571E-2</v>
+        <v>-8.059427780911832E-2</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>-4.1528499573536548E-2</v>
+        <v>-8.7219336197031372E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-4.1528499573536548E-2</v>
+        <v>-8.7219336197031372E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>62.990629869999999</v>
+        <v>58.88808272</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>66.716617576000004</v>
+        <v>69.459799360000005</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -18258,31 +18411,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>4008.4908</v>
+        <v>3774.6116999999999</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>-3.064693468625046E-2</v>
+        <v>-7.1364379061328309E-3</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>-4.419843091763475E-2</v>
+        <v>-9.9965556728568772E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>-5.3997167908583776E-2</v>
+        <v>-0.10919257735470043</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-5.3997167908583776E-2</v>
+        <v>-0.10919257735470043</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>71.390856690000007</v>
+        <v>56.325318449999997</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>74.687281102</v>
+        <v>67.285057141999999</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -18296,31 +18449,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2330.2357000000002</v>
+        <v>2211.3155000000002</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>-3.535285313971015E-2</v>
+        <v>-6.9087909624797605E-3</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>-5.6148807514012855E-2</v>
+        <v>-0.10431688449466847</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>-6.6893784971926218E-2</v>
+        <v>-0.11451350760873137</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-6.6893784971926218E-2</v>
+        <v>-0.11451350760873137</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>52.005647779999997</v>
+        <v>35.725944230000003</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>51.055240032</v>
+        <v>49.076081613999996</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -18334,31 +18487,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1889.6121000000001</v>
+        <v>1786.5210999999999</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>-2.614507490301321E-2</v>
+        <v>1.1735980891118825E-3</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>-4.2014172583570202E-2</v>
+        <v>-9.4278717742964258E-2</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>-3.1513982632352278E-2</v>
+        <v>-8.4351383502323518E-2</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-3.1513982632352278E-2</v>
+        <v>-8.4351383502323518E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>31.917571779999999</v>
+        <v>27.6595564</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>27.603971266000002</v>
+        <v>29.51229373</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -18372,31 +18525,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>12779.2906</v>
+        <v>12057.9409</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>-3.2314801501603596E-2</v>
+        <v>-1.2534008698522281E-2</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>-5.7088130645315704E-2</v>
+        <v>-0.11031246174280573</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>-5.8522901331421122E-2</v>
+        <v>-0.11166624425543692</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>-5.8522901331421122E-2</v>
+        <v>-0.11166624425543692</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>41.430230999999999</v>
+        <v>39.53156809</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>44.007073659999996</v>
+        <v>40.096533530000002</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -18410,31 +18563,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>2901.5506</v>
+        <v>2731.9901</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>-3.8673444836654802E-2</v>
+        <v>-4.277394890109476E-3</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>-2.7307558176234981E-2</v>
+        <v>-8.4149653841173122E-2</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>6.7151919329846432E-3</v>
+        <v>-5.2115121521398307E-2</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>6.7151919329846432E-3</v>
+        <v>-5.2115121521398307E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>26.22570017</v>
+        <v>19.897483510000001</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>18.570880536000001</v>
+        <v>22.036849419999999</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -18448,31 +18601,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1967.9501</v>
+        <v>1877.751</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>-3.3373052164157202E-2</v>
+        <v>-1.4540926507592422E-3</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>-3.503973329547927E-2</v>
+        <v>-7.9267758992120463E-2</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>1.5401052566240914E-2</v>
+        <v>-3.1138878034909778E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>1.5401052566240914E-2</v>
+        <v>-3.1138878034909778E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>21.632962460000002</v>
+        <v>19.43275135</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>21.506228748000002</v>
+        <v>20.870781470000001</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -18486,31 +18639,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3022.9243000000001</v>
+        <v>2901.3703</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>-4.0776979314883111E-2</v>
+        <v>7.541917735759851E-3</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>-4.9125459760768653E-2</v>
+        <v>-8.7360821415124246E-2</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>-9.8422811816176181E-2</v>
+        <v>-0.1346758908405159</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-9.8422811816176181E-2</v>
+        <v>-0.1346758908405159</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>47.564639790000001</v>
+        <v>37.87162301</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>43.086641135999997</v>
+        <v>40.136246368000002</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -18524,31 +18677,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1382.1697999999999</v>
+        <v>1320.0147999999999</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>-3.3170286551449046E-2</v>
+        <v>-3.3347893039390453E-3</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>-4.7346113087904589E-2</v>
+        <v>-9.0186147894786739E-2</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>-6.5861640150849499E-2</v>
+        <v>-0.10786904745813108</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-6.5861640150849499E-2</v>
+        <v>-0.10786904745813108</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>27.770785010000001</v>
+        <v>27.25671796</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>30.888694588</v>
+        <v>30.046938388000001</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -18562,31 +18715,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1188.3149000000001</v>
+        <v>1135.7973</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>-2.1463387560199387E-2</v>
+        <v>7.9055416419460123E-4</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>-3.5643180927155349E-2</v>
+        <v>-7.8262949206876598E-2</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>-3.3278539849934341E-2</v>
+        <v>-7.6002813487820342E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-3.3278539849934341E-2</v>
+        <v>-7.6002813487820342E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>32.225762019999998</v>
+        <v>26.818707230000001</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>32.570205356000002</v>
+        <v>32.976992207999999</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -18600,31 +18753,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>4066.7096000000001</v>
+        <v>3828.4539</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>-3.5552793049545839E-2</v>
+        <v>-1.6298828401265841E-2</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>-5.5819406100733653E-2</v>
+        <v>-0.11113597169122613</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>-7.0358368722016174E-2</v>
+        <v>-0.12482314230931102</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-7.0358368722016174E-2</v>
+        <v>-0.12482314230931102</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>30.010921360000001</v>
+        <v>25.444969069999999</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>29.919515814</v>
+        <v>28.718318427999996</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -18638,31 +18791,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3721.2501000000002</v>
+        <v>3511.6810999999998</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>-3.535478723238783E-2</v>
+        <v>-1.3740111860790494E-2</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>-5.4972955021843732E-2</v>
+        <v>-0.10819388010533315</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>-8.047204369453409E-2</v>
+        <v>-0.13225694099960383</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-8.047204369453409E-2</v>
+        <v>-0.13225694099960383</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>62.036862059999997</v>
+        <v>50.060103769999998</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>63.303975625999996</v>
+        <v>57.757935699999997</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -18676,31 +18829,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2466.8206</v>
+        <v>2373.1525999999999</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>-2.1280193539551018E-2</v>
+        <v>1.9249823872238281E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>-3.9959391259632548E-2</v>
+        <v>-7.641323137248579E-2</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>6.6815132041777581E-3</v>
+        <v>-3.1543335404111361E-2</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>6.6815132041777581E-3</v>
+        <v>-3.1543335404111361E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>11.041783260000001</v>
+        <v>10.70686386</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>14.288380717999999</v>
+        <v>13.933549958</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -18714,31 +18867,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3410.3533000000002</v>
+        <v>3179.1972000000001</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>-4.8990116796176049E-2</v>
+        <v>-1.8030576921443497E-2</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>-7.3774853973733734E-2</v>
+        <v>-0.13655503351623521</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>-0.11476109877240726</v>
+        <v>-0.17476320235975573</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.11476109877240726</v>
+        <v>-0.17476320235975573</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>23.303898629999999</v>
+        <v>23.125734120000001</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>23.204813922</v>
+        <v>22.162315983999999</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -18752,31 +18905,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2279.4074000000001</v>
+        <v>2166.7006999999999</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>-2.8784304278154149E-2</v>
+        <v>-2.5252441549665772E-3</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>-4.126153992396242E-2</v>
+        <v>-8.8666952400140206E-2</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>-4.7106975334891048E-2</v>
+        <v>-9.4223356664101102E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-4.7106975334891048E-2</v>
+        <v>-9.4223356664101102E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>19.034813140000001</v>
+        <v>19.126103059999998</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>20.938735546</v>
+        <v>18.619282613999999</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -18790,31 +18943,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3776.5266999999999</v>
+        <v>3578.2247000000002</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>-3.7709911020965659E-2</v>
+        <v>-8.6511229340864304E-3</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>-5.7725195287037574E-2</v>
+        <v>-0.10720319270836909</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>-4.8901816132626674E-2</v>
+        <v>-9.8843121209926318E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-4.8901816132626674E-2</v>
+        <v>-9.8843121209926318E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>25.115956189999999</v>
+        <v>16.924061739999999</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>28.185142502000001</v>
+        <v>22.867478634000001</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -18828,31 +18981,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2223.3912</v>
+        <v>2113.8096</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>-2.7643521000975668E-2</v>
+        <v>-9.6614030004809059E-3</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>-4.770407284797152E-2</v>
+        <v>-9.4638733455966517E-2</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>-6.7831754411392331E-2</v>
+        <v>-0.11377440625817148</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-6.7831754411392331E-2</v>
+        <v>-0.11377440625817148</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>6.8395129499999996</v>
+        <v>5.0042851800000001</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>6.5897748959999998</v>
+        <v>6.1521660479999998</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -18866,31 +19019,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2285.4297000000001</v>
+        <v>2172.0192999999999</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>-4.5884812816087701E-2</v>
+        <v>-6.7064099473719274E-3</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>-5.6063849796903931E-2</v>
+        <v>-0.10290500897541355</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>-5.6300440238753587E-2</v>
+        <v>-0.10312985903572958</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-5.6300440238753587E-2</v>
+        <v>-0.10312985903572958</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>12.104352479999999</v>
+        <v>8.0117213100000004</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>10.259940075999999</v>
+        <v>10.992032073999999</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -18904,31 +19057,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2227.7491</v>
+        <v>2114.7860000000001</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>-2.6682434322937709E-2</v>
+        <v>-5.8120514448187777E-3</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>-3.6689694739802547E-2</v>
+        <v>-8.5536541246951092E-2</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>-5.2799412023217036E-2</v>
+        <v>-0.10082937856643326</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-5.2799412023217036E-2</v>
+        <v>-0.10082937856643326</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>38.65673589</v>
+        <v>34.555073919999998</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>43.853879149999997</v>
+        <v>37.47633218</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -19034,27 +19187,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>2081.84</v>
+        <v>2081.63</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>-8.3989652474814047E-4</v>
+        <v>2.7940630976526215E-3</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>-3.1661790493555442E-2</v>
+        <v>-3.1759469001027885E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>5.609074353082022E-2</v>
+        <v>5.5984213222947776E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>5.609074353082022E-2</v>
+        <v>5.5984213222947776E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>316.41329999999999</v>
+        <v>287.38299999999998</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -19076,27 +19229,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3560.38</v>
+        <v>3687.15</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-7.3658971785435234E-3</v>
+        <v>5.5854643337819754E-2</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>1.5093629541774067E-2</v>
+        <v>5.1236799489086104E-2</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>7.1974179018646112E-2</v>
+        <v>0.11014262358753868</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>7.1974179018646112E-2</v>
+        <v>0.11014262358753868</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>94.700299999999999</v>
+        <v>161.6618</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -19118,27 +19271,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>4091.91</v>
+        <v>4023.11</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>-1.3201017688977745E-2</v>
+        <v>2.4667240580094063E-2</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>-1.7095515820017892E-2</v>
+        <v>-3.3621741595165067E-2</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>-1.3034407071961795E-2</v>
+        <v>-2.9628914965206921E-2</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-1.3034407071961795E-2</v>
+        <v>-2.9628914965206921E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>321.75740000000002</v>
+        <v>356.84609999999998</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -19160,27 +19313,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>6588.03</v>
+        <v>6469.44</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>9.3333803168631491E-3</v>
+        <v>-1.0206839045406868E-3</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>-2.4677558803325783E-2</v>
+        <v>-4.2234171068527004E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>0.14370159732095877</v>
+        <v>0.12311402069694634</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>0.14370159732095877</v>
+        <v>0.12311402069694634</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>340.93060000000003</v>
+        <v>302.9083</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -19202,27 +19355,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2878.96</v>
+        <v>2908.82</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>-2.0895116310706063E-2</v>
+        <v>2.9645283125727895E-2</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>-2.891374448507078E-2</v>
+        <v>-1.8841831158843303E-2</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>6.788726752079044E-2</v>
+        <v>7.8963181673182614E-2</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>6.788726752079044E-2</v>
+        <v>7.8963181673182614E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>32.347000000000001</v>
+        <v>44.281999999999996</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -19244,27 +19397,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>6056.47</v>
+        <v>5832.55</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>-2.1898977240244255E-2</v>
+        <v>7.9101706606454769E-4</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>-3.6810206220489139E-2</v>
+        <v>-7.2421289677206957E-2</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>-3.4405406655006909E-2</v>
+        <v>-7.0105400437162291E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-3.4405406655006909E-2</v>
+        <v>-7.0105400437162291E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>131.8169</v>
+        <v>96.596900000000005</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -19286,27 +19439,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4528.46</v>
+        <v>4393.9799999999996</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>-2.1736500557346106E-2</v>
+        <v>1.9610615271652421E-3</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>-2.5129219687461513E-2</v>
+        <v>-5.4079596313606156E-2</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>3.9907237842702337E-3</v>
+        <v>-2.5824417021767299E-2</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>3.9907237842702337E-3</v>
+        <v>-2.5824417021767299E-2</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>224.54839999999999</v>
+        <v>209.04750000000001</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -19328,31 +19481,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>7826.5</v>
+        <v>7668.44</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>-4.8558811599693774E-3</v>
+        <v>-3.4282803236462822E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>-2.6392458444566613E-2</v>
+        <v>-4.6054939504842851E-2</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>1.9695570092751691E-2</v>
+        <v>-8.9768127233624817E-4</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>1.9695570092751691E-2</v>
+        <v>-8.9768127233624817E-4</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>23.7363</v>
+        <v>29.972200000000001</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>27.73302</v>
+        <v>31.159199999999998</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -19370,31 +19523,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3271.38</v>
+        <v>3277.54</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>-5.7139730956967671E-3</v>
+        <v>-9.7797221072476459E-3</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>5.8635246947553732E-3</v>
+        <v>7.7575630859296751E-3</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>1.4384540727258255E-2</v>
+        <v>1.6294624169377325E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>1.4384540727258255E-2</v>
+        <v>1.6294624169377325E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>33.496200000000002</v>
+        <v>36.596299999999999</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>56.948560000000001</v>
+        <v>44.443920000000006</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -19412,31 +19565,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2740.44</v>
+        <v>2605.39</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>-9.7527308730481765E-3</v>
+        <v>-1.3367718285751118E-2</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>-9.0222355617108896E-3</v>
+        <v>-5.7858023642234906E-2</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>4.1147438269681924E-3</v>
+        <v>-4.5368439951487878E-2</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>4.1147438269681924E-3</v>
+        <v>-4.5368439951487878E-2</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>70.757599999999996</v>
+        <v>56.829599999999999</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>50.56306</v>
+        <v>58.93468</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -19454,27 +19607,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3461.76</v>
+        <v>3377.03</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>-1.595278974837111E-2</v>
+        <v>-1.8414192228797255E-3</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>-1.1290124496971088E-2</v>
+        <v>-3.5489776625186598E-2</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>3.9611274948496256E-2</v>
+        <v>1.416576072267306E-2</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>3.9611274948496256E-2</v>
+        <v>1.416576072267306E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>26.8612</v>
+        <v>25.273299999999999</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -19496,31 +19649,31 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3024.59</v>
+        <v>2946.47</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>-1.3631664595827542E-2</v>
+        <v>6.4214887606868221E-3</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>-1.1949679370959476E-2</v>
+        <v>-3.7469333620805179E-2</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>6.0166004192166778E-2</v>
+        <v>3.2783724859267949E-2</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>6.0166004192166778E-2</v>
+        <v>3.2783724859267949E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>29.870799999999999</v>
+        <v>24.561399999999999</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
-        <v>34.71808</v>
+        <v>33.445100000000004</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
@@ -19538,31 +19691,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2592.7600000000002</v>
+        <v>2520.9699999999998</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>-1.8967872291317356E-2</v>
+        <v>1.2673634822569113E-2</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>-2.4838272905069902E-2</v>
+        <v>-5.18391755679255E-2</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>2.8652590317947757E-2</v>
+        <v>1.705983638427E-4</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>2.8652590317947757E-2</v>
+        <v>1.705983638427E-4</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>10.932499999999999</v>
+        <v>9.2187000000000001</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>10.0449</v>
+        <v>10.08544</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19593,27 +19746,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>7970.11</v>
+        <v>7722.68</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>-9.060074748414082E-3</v>
+        <v>-2.8380845640737506E-3</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>-2.9856160206636506E-2</v>
+        <v>-5.9974024361594387E-2</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>-1.3064028599697131E-2</v>
+        <v>-4.3703200129773363E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>-1.3064028599697131E-2</v>
+        <v>-4.3703200129773363E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>252.7664</v>
+        <v>242.018</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -19635,31 +19788,31 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>12166.64</v>
+        <v>11884.16</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>1.9333304289252284E-2</v>
+        <v>-8.6388404133562746E-3</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>-2.3315255260462409E-2</v>
+        <v>-4.5991516470954681E-2</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>5.5229686422633373E-2</v>
+        <v>3.0729801341734753E-2</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>5.5229686422633373E-2</v>
+        <v>3.0729801341734753E-2</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>185.84360000000001</v>
+        <v>179.51820000000001</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
-        <v>182.15996000000001</v>
+        <v>191.26476</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.15">
@@ -19677,31 +19830,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4494.68</v>
+        <v>4291.46</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>-1.3673499393239696E-2</v>
+        <v>-3.2794652520682366E-3</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>-1.5697404497236223E-2</v>
+        <v>-6.0201122995120822E-2</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>1.5540342077317693E-2</v>
+        <v>-3.0375742786777793E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>1.5540342077317693E-2</v>
+        <v>-3.0375742786777793E-2</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>104.2208</v>
+        <v>85.891599999999997</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>110.62840000000001</v>
+        <v>107.36282000000001</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -19761,27 +19914,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>5107.67</v>
+        <v>4877.76</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>-2.2498531165135227E-2</v>
+        <v>-6.6066555333794685E-3</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>-3.2407354785422227E-2</v>
+        <v>-7.5961308948726325E-2</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>-5.0936489650302841E-2</v>
+        <v>-9.365639748782939E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-5.0936489650302841E-2</v>
+        <v>-9.365639748782939E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>146.04429999999999</v>
+        <v>115.5282</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -19803,31 +19956,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3202.54</v>
+        <v>3130.63</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>-2.1793646090736085E-2</v>
+        <v>9.5517266954958657E-3</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>-4.8587530339355256E-2</v>
+        <v>-6.9950595498040724E-2</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>-7.8381886149569313E-2</v>
+        <v>-9.9075947290721111E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>-7.8381886149569313E-2</v>
+        <v>-9.9075947290721111E-2</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>376.81560000000002</v>
+        <v>327.91320000000002</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>363.74969999999996</v>
+        <v>363.71837999999997</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -19845,31 +19998,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7971.35</v>
+        <v>7885.37</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>1.3973160338357937E-2</v>
+        <v>2.5376935213803353E-3</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>-3.0666841773737352E-2</v>
+        <v>-4.1122193118778627E-2</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>0.10343849060782651</v>
+        <v>9.1536662006339822E-2</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>0.10343849060782651</v>
+        <v>9.1536662006339822E-2</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>112.73690000000001</v>
+        <v>92.885300000000001</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>125.92909999999999</v>
+        <v>117.30625999999999</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -19887,27 +20040,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>9293.42</v>
+        <v>8868.2900000000009</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>-1.9885108263367091E-2</v>
+        <v>1.4985849834332488E-3</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>-5.1724736080584928E-2</v>
+        <v>-9.5103843336047489E-2</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>-2.0245723454634712E-2</v>
+        <v>-6.5064846617876038E-2</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-2.0245723454634712E-2</v>
+        <v>-6.5064846617876038E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>20.903600000000001</v>
+        <v>14.7081</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -19942,27 +20095,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2661</v>
+        <v>2617.83</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>-1.7457574549160415E-2</v>
+        <v>-3.2459101532067436E-4</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>-2.4545814454757453E-2</v>
+        <v>-4.037082655170899E-2</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>-3.8968185340325645E-3</v>
+        <v>-2.0056823924444411E-2</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>-3.8968185340325645E-3</v>
+        <v>-2.0056823924444411E-2</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>53.193600000000004</v>
+        <v>44.348700000000001</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -19984,27 +20137,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1496.49</v>
+        <v>1494.9</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>-3.788068740717887E-2</v>
+        <v>2.7165710836101198E-3</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>-5.5919703746695859E-2</v>
+        <v>-5.6922776049913908E-2</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>9.2121146726193981E-3</v>
+        <v>8.1398407099937398E-3</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>9.2121146726193981E-3</v>
+        <v>8.1398407099937398E-3</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>17.757899999999999</v>
+        <v>8.0577000000000005</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -20026,27 +20179,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5362.88</v>
+        <v>5241.62</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>-1.0803382858829202E-2</v>
+        <v>-3.2271008007850321E-3</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>-3.2918998166057478E-2</v>
+        <v>-5.4785652329936596E-2</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>3.0871079603558504E-2</v>
+        <v>7.5620689390036855E-3</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>3.0871079603558504E-2</v>
+        <v>7.5620689390036855E-3</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>16.008800000000001</v>
+        <v>15.8438</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -20068,27 +20221,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>3148.84</v>
+        <v>3051.87</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>-1.8089402373045127E-2</v>
+        <v>-1.5409379109986299E-3</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>-3.1698196757607766E-2</v>
+        <v>-6.1517503505621358E-2</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>-8.6827308731213249E-3</v>
+        <v>-3.9210809653635326E-2</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>-8.6827308731213249E-3</v>
+        <v>-3.9210809653635326E-2</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>11.5059</v>
+        <v>10.452999999999999</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -20110,27 +20263,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6153.74</v>
+        <v>6335.16</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>1.1837053479672788E-2</v>
+        <v>2.4911101116615209E-2</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>1.6081095597881845E-3</v>
+        <v>3.1136777205209798E-2</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>6.5328112070189182E-2</v>
+        <v>9.673532558453557E-2</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>6.5328112070189182E-2</v>
+        <v>9.673532558453557E-2</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>6.1974</v>
+        <v>9.1631</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -20220,23 +20373,23 @@
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>3125</v>
+        <v>3158</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>9.9541076853468368E-3</v>
+        <v>8.4301954272576612E-3</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>13673</v>
+        <v>14326</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>14329</v>
+        <v>14304</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>-69</v>
+        <v>-46</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -20251,23 +20404,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>3138</v>
+        <v>3172</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>1.0628019323671498E-2</v>
+        <v>9.1626368032578856E-3</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>3263</v>
+        <v>2909</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>8333</v>
+        <v>8274</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -20282,23 +20435,23 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>3150.2</v>
+        <v>3188</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>8.2575854564075433E-3</v>
+        <v>1.1421319796954314E-2</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>670</v>
+        <v>396</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
@@ -20310,23 +20463,23 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>3150</v>
+        <v>3192.6</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>7.677543186180422E-3</v>
+        <v>1.3266472007109217E-2</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -20344,23 +20497,23 @@
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4280</v>
+        <v>4270.3999999999996</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>1.1227544910180067E-3</v>
+        <v>8.6447163304831237E-3</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>16237</v>
+        <v>18113</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>20062</v>
+        <v>19755</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>-420</v>
+        <v>-998</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -20372,23 +20525,23 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4283.6000000000004</v>
+        <v>4277.8</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>-9.3370681605890783E-5</v>
+        <v>9.1531021467327629E-3</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>3570</v>
+        <v>3919</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>17419</v>
+        <v>17817</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>277</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
@@ -20400,23 +20553,23 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4308.3999999999996</v>
+        <v>4306.6000000000004</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>2.7860326894498004E-4</v>
+        <v>1.0037994277405173E-2</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>757</v>
+        <v>632</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>3993</v>
+        <v>4126</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -20428,23 +20581,23 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4313.8</v>
+        <v>4309.3999999999996</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>-1.1114713101468489E-3</v>
+        <v>8.5186051954129743E-3</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>580</v>
+        <v>685</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -20461,23 +20614,23 @@
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>6186.6</v>
+        <v>5986.2</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>-1.9089900110987733E-2</v>
+        <v>-1.0013016921998599E-3</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>9923</v>
+        <v>11551</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>15486</v>
+        <v>15578</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>323</v>
+        <v>-557</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -20489,23 +20642,23 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>6156</v>
+        <v>5959.4</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>-2.0431544777544337E-2</v>
+        <v>-2.4439236692334054E-3</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>2148</v>
+        <v>2511</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>11069</v>
+        <v>11574</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>447</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -20517,23 +20670,23 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>6123</v>
+        <v>5912</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>-2.1197007481296815E-2</v>
+        <v>-4.0095690555612016E-3</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>435</v>
+        <v>668</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>3608</v>
+        <v>3762</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>51</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -20545,23 +20698,23 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>6085</v>
+        <v>5882</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>-2.2898066670948736E-2</v>
+        <v>-6.519609499037321E-3</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>643</v>
+        <v>822</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -21079,10 +21232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE82"/>
+  <dimension ref="B1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24057,14 +24210,162 @@
         <v>9.8678684136478831E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C30" s="40">
+        <v>20180201</v>
+      </c>
+      <c r="D30" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C30)/100</f>
+        <v>9.869569781078269E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C30)/100</f>
+        <v>4.5684959040126483E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C30)/100</f>
+        <v>5.6483253342073381E-2</v>
+      </c>
+      <c r="G30" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C30)/100</f>
+        <v>-3.5844535737584171E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C30)/100</f>
+        <v>-4.4006673779360635E-2</v>
+      </c>
+      <c r="I30" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C30)/100</f>
+        <v>-3.5117419508528314E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C30)/100</f>
+        <v>-3.1561238631933719E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C30)/100</f>
+        <v>-2.7293422558799407E-2</v>
+      </c>
+      <c r="L30" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C30)/100</f>
+        <v>-6.4692216809733027E-2</v>
+      </c>
+      <c r="M30" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C30)/100</f>
+        <v>-3.5383275215834398E-2</v>
+      </c>
+      <c r="N30" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C30)/100</f>
+        <v>8.9881742370904197E-2</v>
+      </c>
+      <c r="O30" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C30)/100</f>
+        <v>-1.0790880766290867E-2</v>
+      </c>
+      <c r="P30" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C30)/100</f>
+        <v>2.013161495276039E-2</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C30)/100</f>
+        <v>2.9181662017145893E-2</v>
+      </c>
+      <c r="R30" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C30)/100</f>
+        <v>-3.3589753498351915E-2</v>
+      </c>
+      <c r="S30" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C30)/100</f>
+        <v>-2.3416133414402407E-2</v>
+      </c>
+      <c r="T30" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C30)/100</f>
+        <v>-9.7644428566170394E-3</v>
+      </c>
+      <c r="U30" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C30)/100</f>
+        <v>-8.2916496309808352E-3</v>
+      </c>
+      <c r="V30" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C30)/100</f>
+        <v>-8.0747274957155724E-2</v>
+      </c>
+      <c r="W30" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C30)/100</f>
+        <v>5.0854866866647308E-2</v>
+      </c>
+      <c r="X30" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C30)/100</f>
+        <v>0.14447615908415767</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C30)/100</f>
+        <v>9.3035326153381614E-2</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C30)/100</f>
+        <v>0.14979043973847972</v>
+      </c>
+      <c r="AA30" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C30)/100</f>
+        <v>4.4656606097936979E-3</v>
+      </c>
+      <c r="AB30" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C30)/100</f>
+        <v>7.8585112957541003E-2</v>
+      </c>
+      <c r="AC30" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C30)/100</f>
+        <v>6.3922597830848638E-2</v>
+      </c>
+      <c r="AD30" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C30)/100</f>
+        <v>7.8673187674703771E-2</v>
+      </c>
+      <c r="AE30" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C30)/100</f>
+        <v>0.10048060287817817</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C31" s="40"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D29">
+  <conditionalFormatting sqref="D7:D31">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -24076,7 +24377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E29">
+  <conditionalFormatting sqref="E7:E31">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -24088,7 +24389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F29">
+  <conditionalFormatting sqref="F7:F31">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -24100,7 +24401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z29">
+  <conditionalFormatting sqref="Z7:Z31">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -24112,7 +24413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA29">
+  <conditionalFormatting sqref="G7:AA31">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -24124,7 +24425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE29">
+  <conditionalFormatting sqref="AB7:AE31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="最新" sheetId="3" r:id="rId1"/>
@@ -2696,10 +2696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2804,16 +2804,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$41</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2918,6 +2927,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.4318103224154184E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0129291730337302E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3799168235280055E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.859927115045128E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,10 +2975,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3065,16 +3083,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$41</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3179,6 +3206,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-2.2329311260302909E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0068303010871249E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3095558901241589E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1217349722561276E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,10 +3254,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3326,16 +3362,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$41</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3440,6 +3485,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.2986522124202704E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4763309458957661E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.9736808409192079E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1804481497836861E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,10 +3533,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3587,16 +3641,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$41</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3701,6 +3764,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.6995500559039671E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4745040050281801E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.7045393891113951E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2849568924959494E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,10 +3812,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3848,16 +3920,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$41</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -3962,6 +4043,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8.9958139300016379E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8431272193830952E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2381960272133181E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.9747569109525056E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,10 +4091,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4109,16 +4199,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$41</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -4223,6 +4322,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.9402525408068971E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.4166923313828184E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9556513704958367E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8709578072066413E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4534,10 +4642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4642,16 +4750,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$41</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -4756,6 +4873,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-2.7932455719914651E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.1250090816420428E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.7997198004027259E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.3019369086032526E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,10 +4921,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4903,16 +5029,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$41</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -5017,6 +5152,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4.1813389714046349E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.643732162315914E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9325056349517089E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.4215893317187311E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5056,10 +5200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5164,16 +5308,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$41</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -5278,6 +5431,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-5.943333889495362E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.8319916653054009E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.1552615037981792E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.0033757568920914E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,10 +5479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5425,16 +5587,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$41</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -5539,6 +5710,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4.153314789168993E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.3111581973467299E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.7701299595940316E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.647675130311943E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5578,10 +5758,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5686,16 +5866,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$41</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -5800,6 +5989,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4.3657441830812542E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.0914847558833944E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.4595140163346016E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9339906333318861E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,10 +6309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6219,16 +6417,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$41</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -6333,6 +6540,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-8.4894408351093631E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.459512751767138E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.1396341533449306E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.6447389527831682E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,10 +6588,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6480,16 +6696,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$41</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -6594,6 +6819,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4.9416561515970174E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8140408842928788E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.1222511875772185E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.9107887660985488E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6633,10 +6867,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6741,16 +6975,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$41</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -6855,6 +7098,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.685856851918512E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5566416060443427E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6725423270284043E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3282988933797535E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6894,10 +7146,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7002,16 +7254,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$41</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -7116,6 +7377,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3.5127727943916276E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7180601909353665E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3821376121532567E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.3264197304531109E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7427,10 +7697,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7535,16 +7805,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$41</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -7649,6 +7928,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4.5578205453038478E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1486071362302184E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.83256090894713E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.4236086881510577E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7688,10 +7976,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7796,16 +8084,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$41</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -7910,6 +8207,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7.3942220166973716E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0013788610885381E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.5014027562264607E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.8621285514080386E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7949,10 +8255,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8057,16 +8363,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$41</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -8171,6 +8486,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-5.2148454072635693E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.2759553915292616E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.3609846665508702E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.3464186109532279E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8210,10 +8534,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8318,16 +8642,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$41</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -8432,6 +8765,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3.7519911740975687E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.0532254761204238E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.4468079916785568E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.6347154881216528E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,10 +8813,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8579,16 +8921,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$41</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -8693,6 +9044,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.5096055246388573E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4316292241366879E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3098082291440827E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.847850835346776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8732,10 +9092,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8840,16 +9200,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$41</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -8954,6 +9323,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3.2839685996065016E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3966000695069036E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3684813589325828E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.655551163797131E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8995,10 +9373,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9103,16 +9481,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$41</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -9217,6 +9604,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.10590396528243605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.4834448546711294E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.2925862281517659E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.7272219524462393E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,10 +9654,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9366,16 +9762,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$41</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -9480,6 +9885,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3.531842934674112E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.0950107048190114E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.3794656526230815E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.1024762255350575E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9521,10 +9935,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9629,16 +10043,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$41</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -9743,6 +10166,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8.4604467643351958E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4820850752356444E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2610691163135002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7939057819796682E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10054,10 +10486,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10162,16 +10594,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$41</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -10276,6 +10717,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.9653710867217917E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.882357357952305E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3921514082771331E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3941832752911729E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10315,10 +10765,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10423,16 +10873,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$41</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -10537,6 +10996,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.8567876636642398E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8256350974899211E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1998238401412351E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5093751898754171E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10576,10 +11044,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10684,16 +11152,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$41</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -10798,6 +11275,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.7047678379513949E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2605249862162076E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1417020896520524E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7270629966893463E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10837,10 +11323,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$41</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10945,16 +11431,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$41</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -11059,6 +11554,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5.2087177914894145E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8317550980651944E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7256128424940416E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.591870449739675E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11450,93 +11954,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$41:$AE$41</c:f>
+              <c:f>'2018累积涨跌幅'!$D$44:$AE$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>3.4318103224154184E-2</c:v>
+                  <c:v>6.859927115045128E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2329311260302909E-3</c:v>
+                  <c:v>-1.1217349722561276E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2986522124202704E-2</c:v>
+                  <c:v>1.1804481497836861E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.7932455719914651E-2</c:v>
+                  <c:v>-2.3019369086032526E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.1813389714046349E-2</c:v>
+                  <c:v>-1.4215893317187311E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.943333889495362E-2</c:v>
+                  <c:v>-4.0033757568920914E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.153314789168993E-2</c:v>
+                  <c:v>1.647675130311943E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.3657441830812542E-2</c:v>
+                  <c:v>4.9339906333318861E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.4894408351093631E-2</c:v>
+                  <c:v>-5.6447389527831682E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.9416561515970174E-2</c:v>
+                  <c:v>-2.9107887660985488E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.685856851918512E-2</c:v>
+                  <c:v>1.3282988933797535E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.5127727943916276E-2</c:v>
+                  <c:v>-2.3264197304531109E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.5578205453038478E-3</c:v>
+                  <c:v>-2.4236086881510577E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3942220166973716E-3</c:v>
+                  <c:v>-2.8621285514080386E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.2148454072635693E-2</c:v>
+                  <c:v>-3.3464186109532279E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.7519911740975687E-2</c:v>
+                  <c:v>-2.6347154881216528E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.5096055246388573E-2</c:v>
+                  <c:v>1.847850835346776E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.2839685996065016E-2</c:v>
+                  <c:v>-1.655551163797131E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.10590396528243605</c:v>
+                  <c:v>-7.7272219524462393E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.531842934674112E-2</c:v>
+                  <c:v>-5.1024762255350575E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4604467643351958E-2</c:v>
+                  <c:v>4.7939057819796682E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6995500559039671E-2</c:v>
+                  <c:v>3.2849568924959494E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9958139300016379E-2</c:v>
+                  <c:v>5.9747569109525056E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.9402525408068971E-2</c:v>
+                  <c:v>-1.8709578072066413E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9653710867217917E-2</c:v>
+                  <c:v>2.3941832752911729E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8567876636642398E-2</c:v>
+                  <c:v>1.5093751898754171E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7047678379513949E-2</c:v>
+                  <c:v>4.7270629966893463E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2087177914894145E-2</c:v>
+                  <c:v>2.591870449739675E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15041,13 +15545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15071,13 +15575,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15101,13 +15605,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15131,13 +15635,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15161,13 +15665,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15191,13 +15695,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15536,8 +16040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="I211" sqref="I211"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I214" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15560,7 +16064,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180223</v>
+        <v>20180228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -15568,7 +16072,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>20180219</v>
+        <v>20180226</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -15630,31 +16134,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>2957.1709999999998</v>
+        <v>2878.6666</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>8.6256896808414307E-3</v>
+        <v>-1.6545472633498037E-2</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>2.9731902498489227E-2</v>
+        <v>-2.6547128995922042E-2</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>-5.1225745773811227E-2</v>
+        <v>-7.6412978288763589E-2</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>3.3818162634839943E-2</v>
+        <v>6.3732585130458208E-3</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>458.50903405999998</v>
+        <v>477.25005592000002</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>0.68062526999999995</v>
+        <v>0.63011998000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -15666,31 +16170,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3289.0241000000001</v>
+        <v>3259.4079999999999</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>6.2612302932647523E-3</v>
+        <v>-9.9207856557272933E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>2.8090258348842934E-2</v>
+        <v>-9.0045250808591382E-3</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>-5.5104418384401832E-2</v>
+        <v>-6.3612754347852518E-2</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>-5.4874676766896169E-3</v>
+        <v>-1.4442580717223596E-2</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>1595.0251479999999</v>
+        <v>1802.338152</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>13.768574046000001</v>
+        <v>14.448081905999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -15702,31 +16206,31 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4071.0889000000002</v>
+        <v>4023.6415000000002</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>4.5292149998918951E-3</v>
+        <v>-8.7063978576294998E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>2.6248679909010475E-2</v>
+        <v>-1.1654719699193961E-2</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>-4.7898633517642446E-2</v>
+        <v>-5.8995108069213827E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>9.9815054121645819E-3</v>
+        <v>-1.789545934784087E-3</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1281.9583519400001</v>
+        <v>1524.9390926200001</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
-        <v>7.0671532800000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15749,31 +16253,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7285.1745000000001</v>
+        <v>7477.2628000000004</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>1.9562641506600809E-3</v>
+        <v>4.5285759392814651E-3</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>2.7958488912100066E-2</v>
+        <v>2.6367014269871092E-2</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>-1.8257480436031481E-2</v>
+        <v>7.62813858665079E-3</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>-3.5696457540733251E-2</v>
+        <v>-1.0270652276222592E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>699.056557</v>
+        <v>1052.035601</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>655.13197439999999</v>
+        <v>907.62978899999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -15785,31 +16289,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1412.8910000000001</v>
+        <v>1453.5848000000001</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>1.8706573835090001E-3</v>
+        <v>5.2098435525551601E-3</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>2.4588466913935791E-2</v>
+        <v>2.8801797166235765E-2</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>-2.848284483268404E-2</v>
+        <v>-5.0140478603655225E-4</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>-5.0706529049478914E-2</v>
+        <v>-2.3365171047930122E-2</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>453.40938299999999</v>
+        <v>719.80789800000002</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>421.20540579999999</v>
+        <v>601.68448799999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -15821,31 +16325,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1775.1687999999999</v>
+        <v>1811.7824000000001</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>1.8069750625702152E-3</v>
+        <v>1.5847061538187823E-3</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>2.0712748547951243E-2</v>
+        <v>2.0625418833408959E-2</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>-5.4664033184474443E-2</v>
+        <v>-3.5166082930618514E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-6.5377744184885733E-2</v>
+        <v>-4.6100768707673441E-2</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>1731.3327609999999</v>
+        <v>2446.4004749999999</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>1634.4260727999999</v>
+        <v>2192.5164054000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -15857,31 +16361,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1452.5730000000001</v>
+        <v>1540.4880000000001</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>-2.304988931808416E-3</v>
+        <v>6.6417307707387074E-3</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>2.1088764039967955E-2</v>
+        <v>6.0523636333595698E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>-3.3033059420843447E-2</v>
+        <v>2.5491296037378985E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>-4.4203734070506373E-2</v>
+        <v>1.364453153761902E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>132.809742</v>
+        <v>229.583268</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>138.75492879999999</v>
+        <v>191.89710120000001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -15893,31 +16397,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1668.8344999999999</v>
+        <v>1753.6274000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>-5.3226772502723563E-3</v>
+        <v>5.7848357248548865E-3</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>1.3397791581758023E-2</v>
+        <v>5.080965188579234E-2</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>-3.8167333983840313E-2</v>
+        <v>1.0703048948824234E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>-4.782324157904716E-2</v>
+        <v>5.5652805006367601E-4</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>479.994145</v>
+        <v>775.018505</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>465.08317399999999</v>
+        <v>648.97036779999996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15940,31 +16444,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6365.9164000000001</v>
+        <v>6563.8076000000001</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>2.9673318410465832E-3</v>
+        <v>5.2726749581426535E-3</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>2.1707738701571166E-2</v>
+        <v>3.1086050705912527E-2</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>-6.2596438167203838E-2</v>
+        <v>-3.3456263512166462E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-9.2832007609936942E-2</v>
+        <v>-6.4631737399718614E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>653.55546883</v>
+        <v>967.04991194000002</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.38744685400000001</v>
+        <v>0.61386060999999992</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -15976,31 +16480,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>5897.6764999999996</v>
+        <v>6023.6769999999997</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>3.7355886774319558E-3</v>
+        <v>2.1827759632204735E-3</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>2.4821235516351292E-2</v>
+        <v>2.1364430551590985E-2</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>-4.7123722196415363E-2</v>
+        <v>-2.6766063135022167E-2</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>-5.64956534427552E-2</v>
+        <v>-3.6338220355608741E-2</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>648.25103161000004</v>
+        <v>822.66508208000005</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.35241142199999997</v>
+        <v>0.52657166200000005</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -16012,31 +16516,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4228.1899000000003</v>
+        <v>4132.0514000000003</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>6.1693640138700268E-3</v>
+        <v>-1.3092530906335331E-2</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>2.7409585213431287E-2</v>
+        <v>-2.2737507603430962E-2</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>-4.8036663802048969E-2</v>
+        <v>-6.968193739703743E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>3.6004285454386276E-2</v>
+        <v>1.2448130136680113E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>744.22406158000001</v>
+        <v>825.19559508999998</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.189924604</v>
+        <v>0.18903916800000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -16048,31 +16552,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4187.2754000000004</v>
+        <v>4238.7597999999998</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>1.0030648473213777E-3</v>
+        <v>5.7077547425454789E-4</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>2.3748873876957566E-2</v>
+        <v>1.2295441565653764E-2</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>-4.7618209315655413E-2</v>
+        <v>-3.5908254660103389E-2</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>-4.2129265841629682E-2</v>
+        <v>-3.0351822202335565E-2</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>537.73428999999999</v>
+        <v>699.74349700000005</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>520.07213639999998</v>
+        <v>658.28647819999992</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -16095,31 +16599,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>9064.9521000000004</v>
+        <v>8885.7528000000002</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>-4.4028471175776573E-3</v>
+        <v>-1.4546555869162314E-2</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>2.4620581502436512E-2</v>
+        <v>-1.976836700549145E-2</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>-4.9077241288531193E-2</v>
+        <v>-6.7875431376613893E-2</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>-4.155948881917837E-3</v>
+        <v>-2.3842159564655407E-2</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>76.931115460000001</v>
+        <v>87.157858489999995</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>1.4026974940000001</v>
+        <v>1.582742326</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -16131,31 +16635,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>12904.858399999999</v>
+        <v>12443.4948</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>-2.7349473089363086E-3</v>
+        <v>-2.1279508924753276E-2</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>3.3140864670495374E-2</v>
+        <v>-3.5751155549292868E-2</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>-3.9047184239223931E-2</v>
+        <v>-7.340235783101845E-2</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>1.3977819940580893E-2</v>
+        <v>-2.2273058823647718E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>101.96023255999999</v>
+        <v>132.86887306</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>5.5423799860000003</v>
+        <v>6.8428945900000002</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -16167,31 +16671,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>12717.7948</v>
+        <v>12968.490900000001</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>3.0021288616510766E-4</v>
+        <v>1.5072644880920194E-4</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>1.7520012336529112E-2</v>
+        <v>1.9712230299548494E-2</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>-4.6573856828257654E-2</v>
+        <v>-2.7779701120445921E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>-6.3055241092970893E-2</v>
+        <v>-4.4585970227440604E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>100.16194907000001</v>
+        <v>126.27305051</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.15463681400000001</v>
+        <v>0.13815279600000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -16203,27 +16707,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>9628.3096999999998</v>
+        <v>9740.0779999999995</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>2.6973270807806315E-5</v>
+        <v>-1.9262055149058543E-3</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>1.6402067194809966E-2</v>
+        <v>1.160829922203277E-2</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>-3.9927089055644571E-2</v>
+        <v>-2.8782275430434545E-2</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>-4.6529167351733063E-2</v>
+        <v>-3.5460992626871302E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>148.03368128</v>
+        <v>202.13364179000001</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -16239,31 +16743,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>6745.1058999999996</v>
+        <v>6975.0410000000002</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>-2.3037767940833342E-3</v>
+        <v>5.3108639292431814E-3</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>1.5416505342926268E-2</v>
+        <v>3.4089175679213657E-2</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>-3.7852471935010956E-2</v>
+        <v>-5.0536558214824279E-3</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>-2.8523079552787212E-2</v>
+        <v>4.5937678566392304E-3</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>26.020791840000001</v>
+        <v>37.586845439999998</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>30.366917561999998</v>
+        <v>35.315391964</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -16275,31 +16779,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8179.277</v>
+        <v>8316.9922999999999</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>-4.8284322823891612E-3</v>
+        <v>-2.9105280829064828E-3</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>1.5445458874740581E-2</v>
+        <v>1.6837099415999646E-2</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>-4.4146189097030497E-2</v>
+        <v>-2.805238345569494E-2</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>-4.2362396855186724E-2</v>
+        <v>-2.6238557326537904E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>202.85077899999999</v>
+        <v>285.30003099999999</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>232.00500879999998</v>
+        <v>264.85327280000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -16311,27 +16815,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1544.7932000000001</v>
+        <v>1594.2623000000001</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>3.4818661492987957E-3</v>
+        <v>6.1648699102130333E-3</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>1.9067020509473842E-2</v>
+        <v>3.2023121282512168E-2</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>-6.3459733683830177E-2</v>
+        <v>-3.3468791149631305E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-0.11190408475903302</v>
+        <v>-8.3464481554767933E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>132.17294926</v>
+        <v>170.67683647999999</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -16347,27 +16851,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>9855.4634999999998</v>
+        <v>9695.0030999999999</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>9.8995525622718183E-3</v>
+        <v>-1.7832757648775677E-2</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>2.4587040407906047E-2</v>
+        <v>-1.6281365153450134E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>-8.3249589416522718E-2</v>
+        <v>-9.8175537605807661E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>-3.1566566049969547E-2</v>
+        <v>-4.733398441491965E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>141.976032</v>
+        <v>177.38308900000001</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -16383,31 +16887,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>7023.9134999999997</v>
+        <v>6786.4678000000004</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>8.4271319225430741E-3</v>
+        <v>-1.3807157659291747E-2</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>2.8059264833728337E-2</v>
+        <v>-3.3805328041126792E-2</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>-4.2518065094387714E-2</v>
+        <v>-7.4886055997324785E-2</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>7.6866988623811805E-2</v>
+        <v>4.0463146816723361E-2</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>163.49741299999999</v>
+        <v>161.20670799999999</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>189.6506938</v>
+        <v>188.72412779999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16430,31 +16934,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>31267.17</v>
+        <v>30844.720000000001</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>9.736262856168354E-3</v>
+        <v>-1.3557984256440725E-2</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>4.8766801551511918E-3</v>
+        <v>-1.3510976529055752E-2</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>-4.9262222130325724E-2</v>
+        <v>-6.2107617932409598E-2</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>4.505542436867338E-2</v>
+        <v>3.093570505846599E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1033.316039</v>
+        <v>1353.244451</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1011.0939930000001</v>
+        <v>1241.33619828</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -16466,31 +16970,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>12735.06</v>
+        <v>12382.08</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>1.647585053126277E-2</v>
+        <v>-2.0911648561582896E-2</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>1.5918777935640449E-2</v>
+        <v>-2.771718390019362E-2</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>-6.0950548052781217E-2</v>
+        <v>-8.6978354403778338E-2</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>8.7602162383746171E-2</v>
+        <v>5.745689323870784E-2</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>198.892066</v>
+        <v>265.73347100000001</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>214.17467000000002</v>
+        <v>193.26536845000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -16502,23 +17006,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>127.36</v>
+        <v>127.45</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>-4.3777360850532077E-3</v>
+        <v>8.6382911889426595E-4</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>1.8472610955617697E-2</v>
+        <v>7.0665829145721837E-4</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-6.3197316064600439E-3</v>
+        <v>-5.6175392057422613E-3</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-2.2938243191407692E-2</v>
+        <v>-2.2247794399693044E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -16584,31 +17088,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3096.0376000000001</v>
+        <v>3049.2483999999999</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>3.8436759427051825E-3</v>
+        <v>-9.6522619888732564E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>2.5632144140113944E-2</v>
+        <v>-1.5112607159551317E-2</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>-3.7817358695281134E-2</v>
+        <v>-5.2358446969058899E-2</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>3.4083492343449651E-2</v>
+        <v>1.8455794753486021E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>263.89975679000003</v>
+        <v>252.87930778</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>287.53971095000003</v>
+        <v>296.44558129799998</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -16620,31 +17124,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>4853.3541999999998</v>
+        <v>4789.7758000000003</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>2.9155994977645427E-3</v>
+        <v>-6.7558692796360065E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>2.4658216552180034E-2</v>
+        <v>-1.3099888732621134E-2</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>-4.3072514272913039E-2</v>
+        <v>-5.5608157861124718E-2</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>2.1589431680314686E-2</v>
+        <v>8.2067237948808547E-3</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>443.80162200000001</v>
+        <v>461.33244200000001</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>474.02622880000001</v>
+        <v>507.89006799999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -16656,31 +17160,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9265.4050000000007</v>
+        <v>8976.6394999999993</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>-1.514205143059999E-3</v>
+        <v>-6.6144406922293841E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>2.277343676437904E-2</v>
+        <v>-3.1165987887199931E-2</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>-5.4271259667765248E-2</v>
+        <v>-8.3745830133536536E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>3.4130010945896405E-2</v>
+        <v>1.9003275509668072E-3</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>187.69936100000001</v>
+        <v>236.048878</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>197.12409</v>
+        <v>231.49339420000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -16692,31 +17196,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6266.9739</v>
+        <v>6111.0959999999995</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>2.8048730727288085E-3</v>
+        <v>-1.093020674147227E-2</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>2.4817178852813537E-2</v>
+        <v>-2.4872913544446096E-2</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>-4.2406853700091451E-2</v>
+        <v>-6.622498523876319E-2</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>4.7248814771593706E-2</v>
+        <v>2.1200685542256181E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>349.78162294999998</v>
+        <v>369.33536708999998</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>384.97877664999999</v>
+        <v>404.16259795600001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -16761,27 +17265,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>1903.96</v>
+        <v>1876.43</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>1.0176253992508544E-2</v>
+        <v>-1.6865588749986782E-2</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>2.4681125881276689E-2</v>
+        <v>-1.445933738103744E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>-8.544364600545673E-2</v>
+        <v>-9.8667524881835278E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>-3.4145500109066695E-2</v>
+        <v>-4.8111116183982894E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>172.4984</v>
+        <v>214.09479999999999</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -16798,27 +17302,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>3927.23</v>
+        <v>3795.41</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>8.386034915279339E-3</v>
+        <v>-1.3830859732269052E-2</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>2.8326416255351372E-2</v>
+        <v>-3.3565642959541453E-2</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>-4.3634220645283772E-2</v>
+        <v>-7.5735252933827879E-2</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>7.8201400728642456E-2</v>
+        <v>4.2010877473307451E-2</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>169.7817</v>
+        <v>168.66030000000001</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -16835,27 +17339,27 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11695.8</v>
+        <v>11328.24</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>-3.8107276155953107E-3</v>
+        <v>-2.1062946876852506E-2</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>3.2782759579850884E-2</v>
+        <v>-3.1426665982660418E-2</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>-3.8699262902494036E-2</v>
+        <v>-6.8909740076142589E-2</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>1.4393075365247476E-2</v>
+        <v>-1.7485916989379735E-2</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>101.1357</v>
+        <v>158.00239999999999</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
@@ -16871,31 +17375,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7659.87</v>
+        <v>7431.27</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>-8.1896953562808905E-3</v>
+        <v>-2.4270573942692941E-3</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>1.0878344137334128E-2</v>
+        <v>-2.9843848524844341E-2</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>-3.9074937118555919E-2</v>
+        <v>-6.7752639138916271E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>6.0321700973131609E-2</v>
+        <v>2.8677620741684118E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>74.977000000000004</v>
+        <v>124.5228</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>83.091560000000001</v>
+        <v>107.57098000000001</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -16909,31 +17413,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3141.83</v>
+        <v>3308.83</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>-1.633317127268441E-3</v>
+        <v>3.8347304008568006E-3</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>2.0094547296375831E-2</v>
+        <v>5.3153735243472777E-2</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>-1.8956828017760885E-2</v>
+        <v>3.3189281008199734E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-9.5852842231885158E-2</v>
+        <v>-4.7794043586740331E-2</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>256.11340000000001</v>
+        <v>409.95659999999998</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>265.36432000000002</v>
+        <v>387.8177</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -16947,27 +17451,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>3871.38</v>
+        <v>4074.09</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>-2.9077928332822411E-3</v>
+        <v>9.0075587212585795E-3</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>2.4475441200987547E-2</v>
+        <v>5.2361173535018457E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>-3.8956783365729053E-2</v>
+        <v>1.1364567275110371E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>-7.4042980662289648E-2</v>
+        <v>-2.5558784486779285E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>179.07089999999999</v>
+        <v>320.79559999999998</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -16985,27 +17489,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5709.68</v>
+        <v>5684.37</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>5.3687233566759307E-3</v>
+        <v>3.5548672644236667E-4</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>3.4201193292349386E-2</v>
+        <v>-4.4328228552213966E-3</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>-4.1423720181461565E-3</v>
+        <v>-8.556832472010667E-3</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>5.7947651817511492E-2</v>
+        <v>5.3257957286907187E-2</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>16.185600000000001</v>
+        <v>18.304500000000001</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -17023,27 +17527,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>7579.95</v>
+        <v>7705.98</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>-1.2109408971241464E-3</v>
+        <v>-1.3128376863471569E-3</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>1.4494790307361782E-2</v>
+        <v>1.6626758751706827E-2</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>-4.8952900273647411E-2</v>
+        <v>-3.3140069584986942E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>-6.1377406784131505E-2</v>
+        <v>-4.5771155367829837E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>166.66579999999999</v>
+        <v>228.01519999999999</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -17061,27 +17565,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3398.49</v>
+        <v>3335.56</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>1.4807847352862114E-2</v>
+        <v>-2.7207548749349497E-3</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>3.5376877073577839E-2</v>
+        <v>-1.8517047276878751E-2</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>-6.099606272017688E-2</v>
+        <v>-7.8383643019962701E-2</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>-8.2497752979492356E-3</v>
+        <v>-2.6614061095612263E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>97.257099999999994</v>
+        <v>84.546000000000006</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -17099,27 +17603,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>4797.29</v>
+        <v>4854.32</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>1.494740226256841E-3</v>
+        <v>-5.0747272026694379E-3</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>2.0014203216560889E-2</v>
+        <v>1.1887961745068454E-2</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>-4.4611953079879745E-2</v>
+        <v>-3.3254336526397643E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-7.7697863856670213E-2</v>
+        <v>-6.67335713448034E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>80.052800000000005</v>
+        <v>107.0724</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -17137,27 +17641,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>861.67</v>
+        <v>898.67</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>-7.2240016591009759E-3</v>
+        <v>2.5547200963875749E-3</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>1.3669784130345253E-2</v>
+        <v>4.2939872573026783E-2</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>-6.1238941909617865E-2</v>
+        <v>-2.0928661698697004E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>-7.2306019400751542E-2</v>
+        <v>-3.2470958087055801E-2</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>159.08459999999999</v>
+        <v>236.39830000000001</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -17175,27 +17679,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2449.52</v>
+        <v>2573.41</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>3.6301656109414271E-3</v>
+        <v>8.2235682215308081E-3</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>2.1331243016060819E-2</v>
+        <v>5.0577255952186428E-2</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>-5.6356204806977332E-2</v>
+        <v>-8.6292910498072528E-3</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-0.12464621630120931</v>
+        <v>-8.0373223934360749E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>93.467799999999997</v>
+        <v>143.4417</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -17213,27 +17717,27 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2867.7</v>
+        <v>2894.95</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>1.0358313074727787E-2</v>
+        <v>-7.628159991164285E-4</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>2.6253068703164129E-2</v>
+        <v>9.5023886738501151E-3</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>-4.2801400566768955E-2</v>
+        <v>-3.3705727436889377E-2</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>-3.6980072670611541E-2</v>
+        <v>-2.7829083020464718E-2</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>74.428600000000003</v>
+        <v>86.187700000000007</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
@@ -17251,27 +17755,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>5035.7700000000004</v>
+        <v>4941.57</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>1.1716842961757568E-2</v>
+        <v>4.3841463414633353E-3</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>2.7930531910985046E-2</v>
+        <v>-1.8706176016776155E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>-9.739314661399423E-2</v>
+        <v>-0.11427746928738136</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>2.5533613419707946E-2</v>
+        <v>6.3498011359586215E-3</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>181.03729999999999</v>
+        <v>201.92580000000001</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -17289,31 +17793,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2570.08</v>
+        <v>2621.13</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>-7.9700481701938664E-4</v>
+        <v>5.1539868619352447E-3</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>2.0022781122625011E-2</v>
+        <v>1.9863194920002547E-2</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>-6.2165199748945528E-2</v>
+        <v>-4.3536804308797139E-2</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>-5.8306249793896425E-2</v>
+        <v>-3.9601203278604391E-2</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>29.189599999999999</v>
+        <v>36.379399999999997</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>30.100619999999999</v>
+        <v>35.109760000000001</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -17327,27 +17831,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3057.89</v>
+        <v>3103.88</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>5.5607074035344262E-3</v>
+        <v>-3.2851299558755986E-4</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>2.9187155228411532E-2</v>
+        <v>1.5039782333569951E-2</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>-4.6010288983799101E-2</v>
+        <v>-3.1662491381650115E-2</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>-4.0692056719789156E-2</v>
+        <v>-2.6264274061990167E-2</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>254.8032</v>
+        <v>296.50569999999999</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -17365,27 +17869,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1310.3900000000001</v>
+        <v>1338.94</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>2.0570467232545742E-3</v>
+        <v>-2.0422157295331145E-3</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>1.6736239350723991E-2</v>
+        <v>2.1787406802554976E-2</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>-6.5915344367933892E-2</v>
+        <v>-4.5564061987653733E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-0.10143864172472428</v>
+        <v>-8.1861319874924524E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>143.999</v>
+        <v>178.90780000000001</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -17403,31 +17907,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2713.02</v>
+        <v>2722.48</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>3.5770432981301337E-3</v>
+        <v>8.7864739769627498E-4</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>1.4300294978633721E-2</v>
+        <v>3.4868891493613496E-3</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>-7.5946866485013587E-2</v>
+        <v>-7.2724795640326967E-2</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>-7.4888155382181187E-2</v>
+        <v>-7.1662392929237817E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>56.404499999999999</v>
+        <v>56.351100000000002</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>51.233780000000003</v>
+        <v>62.035119999999992</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -17441,27 +17945,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2426.7199999999998</v>
+        <v>2484.2399999999998</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>3.3365720546585376E-3</v>
+        <v>-1.7306121134808006E-4</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>2.4723731826684636E-2</v>
+        <v>2.3702775763170036E-2</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>-8.5629884173957671E-2</v>
+        <v>-6.3956774353989165E-2</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-0.12396258632328694</v>
+        <v>-0.10319806794676033</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>26.616700000000002</v>
+        <v>27.604700000000001</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -17479,27 +17983,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2841.5</v>
+        <v>2859.83</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>5.0046863670929476E-3</v>
+        <v>-7.2930117604588229E-3</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>3.5290602774862956E-2</v>
+        <v>6.4508182298081973E-3</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>-4.1917580972547268E-2</v>
+        <v>-3.5737165438226248E-2</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>-2.2824266559371642E-2</v>
+        <v>-1.6520683524366642E-2</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>96.905199999999994</v>
+        <v>93.252600000000001</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -17517,31 +18021,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4186.18</v>
+        <v>4231.68</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>2.2698871985538105E-4</v>
+        <v>-5.2433926167350098E-4</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>1.6885006570845018E-2</v>
+        <v>1.0869097840991104E-2</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>-6.8636699386830702E-2</v>
+        <v>-5.8513620546957752E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>-5.4162995097042262E-2</v>
+        <v>-4.3882600149122035E-2</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>50.727499999999999</v>
+        <v>73.351699999999994</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>51.497599999999998</v>
+        <v>66.338899999999995</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -17555,27 +18059,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3373.57</v>
+        <v>3354.42</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>1.4494627665492921E-2</v>
+        <v>7.269811813669369E-3</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>3.1155628369869737E-2</v>
+        <v>-5.6764792193433333E-3</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>2.2269157111342919E-2</v>
+        <v>1.6466267484424701E-2</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>8.9967723279625003E-2</v>
+        <v>8.3780544148673197E-2</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>120.62860000000001</v>
+        <v>100.73390000000001</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -17593,27 +18097,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>4757.6499999999996</v>
+        <v>4914.95</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>-2.0409533118821432E-3</v>
+        <v>3.0366913125730033E-3</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>1.1132198577339603E-2</v>
+        <v>3.3062541380723731E-2</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>-6.8528311343528547E-2</v>
+        <v>-3.7731490092351327E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-0.11597420937232904</v>
+        <v>-8.6746070088074667E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>93.264700000000005</v>
+        <v>129.57079999999999</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -17631,27 +18135,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>2815.73</v>
+        <v>2850.72</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>1.3505098606656718E-2</v>
+        <v>2.5614124961848006E-4</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>3.1905653670103007E-2</v>
+        <v>1.2426617608932489E-2</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>-7.973958316311025E-2</v>
+        <v>-6.830385886244128E-2</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>-6.691608729943066E-2</v>
+        <v>-5.5321010319253967E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>108.105</v>
+        <v>108.2884</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -17669,27 +18173,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2421.9499999999998</v>
+        <v>2472.7199999999998</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>8.855787294486106E-3</v>
+        <v>8.7834692679744641E-4</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>2.1799112341157834E-2</v>
+        <v>2.096244761452537E-2</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>-6.167793425411161E-2</v>
+        <v>-4.2008407105360135E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-9.6823153427630704E-2</v>
+        <v>-7.7890356094705182E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>101.3395</v>
+        <v>94.813999999999993</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -17707,27 +18211,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>3968.91</v>
+        <v>3977.26</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>9.5539700103017822E-3</v>
+        <v>7.7380711071473041E-3</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>4.1230405981504514E-2</v>
+        <v>2.1038521911558306E-3</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>-3.0059312154959383E-2</v>
+        <v>-2.8018700313545475E-2</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-4.2701913915990319E-2</v>
+        <v>-4.0687900239993136E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>292.50459999999998</v>
+        <v>346.47070000000002</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -17745,27 +18249,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>5881.79</v>
+        <v>5859.96</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>9.2018750343161315E-3</v>
+        <v>-4.9041916574401601E-3</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>3.1851346349182519E-2</v>
+        <v>-3.7114551862612588E-3</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>-5.5842444302828254E-2</v>
+        <v>-5.9346642759568358E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>-2.0087099074364012E-2</v>
+        <v>-2.3724001892588831E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>82.968299999999999</v>
+        <v>78.359800000000007</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -17783,27 +18287,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1110.1500000000001</v>
+        <v>1176.21</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>3.6796615073051431E-3</v>
+        <v>5.5397399399861325E-3</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>1.6323055514867679E-2</v>
+        <v>5.9505472233482015E-2</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>-9.4553373352472825E-2</v>
+        <v>-4.0674344251598542E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-0.13554531155098026</v>
+        <v>-8.4105527090373902E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>36.26</v>
+        <v>91.060100000000006</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -17887,31 +18391,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1391.5889999999999</v>
+        <v>1447.7260000000001</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>4.6092117964113832E-3</v>
+        <v>-1.2951262267236863E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>2.2192461498716565E-2</v>
+        <v>4.0340215394056855E-2</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>-6.1915166961679979E-2</v>
+        <v>-2.4072622739016336E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-0.11277154292326752</v>
+        <v>-7.6980555861055344E-2</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>87.144941410000001</v>
+        <v>33.765739670000002</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>83.672889885999993</v>
+        <v>58.522482969999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -17923,31 +18427,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>8815.8377999999993</v>
+        <v>9362.8382999999994</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>-3.3180081613206625E-3</v>
+        <v>3.3413677042464229E-3</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>1.9571966884997627E-2</v>
+        <v>6.204747777913977E-2</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>-3.4112697259350622E-2</v>
+        <v>2.5818173694603042E-2</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-0.13527829328102015</v>
+        <v>-8.1624492398234438E-2</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>52.098753739999999</v>
+        <v>100.88672898</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>57.643064752000001</v>
+        <v>91.287716152000002</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -17959,31 +18463,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2143.9549000000002</v>
+        <v>2242.5868999999998</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>-6.1263125064203727E-3</v>
+        <v>1.3702500832544207E-3</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>1.0136680398658227E-2</v>
+        <v>4.6004699072727417E-2</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>-5.3525954859654945E-2</v>
+        <v>-9.9837012328262142E-3</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-0.1301960065825748</v>
+        <v>-9.0180935613149438E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>65.617789290000005</v>
+        <v>97.846930650000004</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>71.960333974000008</v>
+        <v>100.814231432</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -17995,31 +18499,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>2949.7826</v>
+        <v>3139.6979000000001</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>2.540284442660079E-3</v>
+        <v>6.957010568838351E-3</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>3.9644165957483102E-2</v>
+        <v>6.4382812482519869E-2</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>-6.5641465719374903E-2</v>
+        <v>-5.48483541534317E-3</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>-7.4263359034722587E-2</v>
+        <v>-1.4661830471257242E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>42.908502949999999</v>
+        <v>88.599589170000002</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>41.55427521</v>
+        <v>62.436587898000006</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -18032,31 +18536,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1803.79</v>
+        <v>1872.1472000000001</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>2.3777793922002299E-2</v>
+        <v>-7.5849113453916317E-3</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>4.1125553119053526E-2</v>
+        <v>3.7896429185215741E-2</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>-8.9213814175361228E-2</v>
+        <v>-5.4698269981385161E-2</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-0.11698444649406659</v>
+        <v>-8.352131010118502E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>11.792783460000001</v>
+        <v>12.830365499999999</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>12.3938439</v>
+        <v>12.940045004000002</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -18069,31 +18573,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>5611.7955000000002</v>
+        <v>5784.1102000000001</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>1.1406854620494844E-3</v>
+        <v>1.6216818840186775E-3</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>2.2253122885788068E-2</v>
+        <v>3.0705805298856692E-2</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>-6.3081817842443932E-2</v>
+        <v>-3.4312990560155243E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-0.12772668399339404</v>
+        <v>-0.10094282938470724</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>72.086066079999995</v>
+        <v>119.10721959</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>76.238894540000004</v>
+        <v>107.37348518399999</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -18106,31 +18610,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6273.3434999999999</v>
+        <v>6574.8122000000003</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>6.0742939923197348E-4</v>
+        <v>1.329540104557192E-2</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>1.4898584616746646E-2</v>
+        <v>4.8055506605050535E-2</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>-7.1180128731560544E-2</v>
+        <v>-2.6545219272917864E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>-8.9132988913875888E-2</v>
+        <v>-4.5360813246304144E-2</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>33.642481680000003</v>
+        <v>78.901554500000003</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>38.479329364000002</v>
+        <v>54.426085165999993</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -18143,31 +18647,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2621.9481999999998</v>
+        <v>2740.0365999999999</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>5.2235853882227623E-3</v>
+        <v>5.8556167145127347E-3</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>2.853511698915856E-2</v>
+        <v>4.5038418379127476E-2</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>-5.1510851516263445E-2</v>
+        <v>-8.7924004187905913E-3</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-0.13068943425629398</v>
+        <v>-9.1537061294932998E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>80.511982340000003</v>
+        <v>97.326475270000003</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>68.691639105999997</v>
+        <v>96.755359045999995</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -18180,31 +18684,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>4721.5014000000001</v>
+        <v>5000.1125000000002</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>5.431350683916758E-3</v>
+        <v>1.3696392556692194E-2</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>4.1887092528814618E-2</v>
+        <v>5.9009005059280417E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>-5.3048426376506308E-3</v>
+        <v>5.3391128935586174E-2</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>-9.9872539015266396E-2</v>
+        <v>-4.6756913116020919E-2</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>65.724177389999994</v>
+        <v>85.011226390000004</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>57.779949339999995</v>
+        <v>81.967997854000004</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -18218,31 +18722,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1699.3363999999999</v>
+        <v>1715.2911999999999</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-3.0896632996479934E-4</v>
+        <v>-2.6144509132669524E-3</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>1.2528437836685447E-2</v>
+        <v>9.3888414324556635E-3</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>-6.5987275317946681E-2</v>
+        <v>-5.7217977950011045E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-8.1292492623412094E-2</v>
+        <v>-7.2666893513846698E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>34.504325379999997</v>
+        <v>42.260712050000002</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>34.762749516</v>
+        <v>43.830181967999998</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -18256,31 +18760,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2386.0012000000002</v>
+        <v>2437.0055000000002</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>9.0616737677338133E-3</v>
+        <v>1.0984535179372479E-3</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>2.4893164820821934E-2</v>
+        <v>2.1376477094814605E-2</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>-6.1521963600286167E-2</v>
+        <v>-4.1460609351201105E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-8.7232105052875486E-2</v>
+        <v>-6.7720343053656151E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>17.79212802</v>
+        <v>14.340681529999999</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>12.14770407</v>
+        <v>15.708743780000001</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -18294,31 +18798,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>901.56359999999995</v>
+        <v>924.35400000000004</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>3.9185136239336948E-3</v>
+        <v>2.1179522472021262E-3</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>2.8464145352400161E-2</v>
+        <v>2.5278749053311511E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>-6.775770441576634E-2</v>
+        <v>-4.4191785368809411E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>-7.2890548027514601E-2</v>
+        <v>-4.9454380846148949E-2</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>22.626198110000001</v>
+        <v>39.895229569999998</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>23.43658211</v>
+        <v>33.417170390000003</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -18332,31 +18836,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2250.0617000000002</v>
+        <v>2306.3022000000001</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>-8.9069262396901383E-4</v>
+        <v>1.0888743965820069E-4</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>1.1303637568423675E-2</v>
+        <v>2.4995092356800752E-2</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>-7.3751139975252844E-2</v>
+        <v>-5.0599464173552988E-2</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-0.13995795235948738</v>
+        <v>-0.11846112194798086</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>24.09950907</v>
+        <v>34.300170659999999</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>24.374896084</v>
+        <v>33.012557319999999</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -18370,31 +18874,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1357.6805999999999</v>
+        <v>1458.4091000000001</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>4.3585953929041743E-3</v>
+        <v>1.2637194506991412E-2</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>3.8150849289418032E-2</v>
+        <v>7.4191602944021051E-2</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>-9.9659030027732243E-2</v>
+        <v>-3.2861290269314947E-2</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>-0.13520240228243074</v>
+        <v>-7.1041682285625685E-2</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>8.0715196700000007</v>
+        <v>19.428105049999999</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>7.3059687440000003</v>
+        <v>13.355165099999999</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -18408,31 +18912,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1889.9653000000001</v>
+        <v>1951.2691</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>4.1045786149955799E-3</v>
+        <v>1.128560364232345E-2</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>1.9585628477106987E-2</v>
+        <v>3.2436468542570651E-2</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>-4.6491121281947108E-2</v>
+        <v>-1.5562660532347228E-2</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-9.6236079329358515E-2</v>
+        <v>-6.6921169346615073E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>39.89092763</v>
+        <v>49.616409130000001</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>44.775794202</v>
+        <v>48.731201478000003</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -18446,31 +18950,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4522.3738000000003</v>
+        <v>4592.2842000000001</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>7.9897424458059696E-3</v>
+        <v>5.1498264549436623E-3</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>9.5381414376398688E-3</v>
+        <v>1.5458784057169161E-2</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>-3.9780524116322269E-2</v>
+        <v>-2.4936698591148332E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>-6.4012831963233818E-3</v>
+        <v>8.9585448062250439E-3</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>10.746600620000001</v>
+        <v>11.292046340000001</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>10.43369212</v>
+        <v>13.574158665999999</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -18484,31 +18988,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>3845.9796000000001</v>
+        <v>4061.0691000000002</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>-1.995060342381838E-3</v>
+        <v>8.5676124921181263E-3</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>2.2535053317669362E-2</v>
+        <v>5.592580366260913E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>-5.26483496263409E-2</v>
+        <v>3.3305277190498472E-4</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>-0.11641707843893923</v>
+        <v>-6.7001993448080777E-2</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>67.169005760000005</v>
+        <v>112.85010561999999</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>68.031342547999998</v>
+        <v>98.968404071999998</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -18522,31 +19026,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2372.3622</v>
+        <v>2496.1386000000002</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>-2.7068675302976963E-3</v>
+        <v>5.6020526679001481E-3</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>1.9664879760451504E-2</v>
+        <v>5.2174326500397106E-2</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>-4.3939660041062305E-2</v>
+        <v>5.9421442900358112E-3</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-0.12398537027827461</v>
+        <v>-7.8279896968048823E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>29.298546609999999</v>
+        <v>56.215190710000002</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>28.958750931999997</v>
+        <v>46.236612950000001</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -18560,31 +19064,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2374.5281</v>
+        <v>2517.2365</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>2.7707310629443427E-3</v>
+        <v>1.5990027200708523E-2</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>2.218170469220837E-2</v>
+        <v>6.0099688860283385E-2</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>-7.7827881416865252E-2</v>
+        <v>-2.2405624014390502E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>-9.2947955310386021E-2</v>
+        <v>-3.8434409644456213E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>21.744036550000001</v>
+        <v>45.302642380000002</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>24.9487016</v>
+        <v>34.747691762000002</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -18598,31 +19102,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3595.4241999999999</v>
+        <v>3717.7817</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>-9.765934064621673E-4</v>
+        <v>4.5063319362093068E-3</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>1.6849283412291749E-2</v>
+        <v>3.4031450308422695E-2</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>-6.0338196522171754E-2</v>
+        <v>-2.8360142550393319E-2</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>-5.9664185676078126E-2</v>
+        <v>-2.7663194137683478E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>38.69102462</v>
+        <v>65.266802380000001</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>33.141043508000003</v>
+        <v>52.271233447999997</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -18636,31 +19140,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3161.64</v>
+        <v>3333.2528000000002</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>-1.8444617670003716E-3</v>
+        <v>7.0997717262577531E-3</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>1.8369358627715604E-2</v>
+        <v>5.4279677635657553E-2</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>-6.3322602386097437E-2</v>
+        <v>-1.2480055195008166E-2</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-0.12457335743495046</v>
+        <v>-7.7055481482853572E-2</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>149.43481066999999</v>
+        <v>216.77521639</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>143.54252582199999</v>
+        <v>202.71208782000002</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -18674,31 +19178,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>1918.1709000000001</v>
+        <v>1968.5615</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>7.1637723439301748E-3</v>
+        <v>8.1983916754762021E-3</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>2.0646455410609832E-2</v>
+        <v>2.6270130570743122E-2</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>-7.0724229864708055E-2</v>
+        <v>-4.6312034047025996E-2</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-0.15438493024253142</v>
+        <v>-0.13217051194741458</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>21.454735070000002</v>
+        <v>21.716975959999999</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>18.223831659999998</v>
+        <v>21.444073469999999</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -18712,31 +19216,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>3655.0311000000002</v>
+        <v>3772.1318000000001</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>6.4408361147441084E-3</v>
+        <v>4.4085390701269489E-3</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>2.7010858208209809E-2</v>
+        <v>3.2038222602264632E-2</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>-6.2069023742000073E-2</v>
+        <v>-3.2019382339086966E-2</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-0.13111635099358199</v>
+        <v>-0.10327886323124646</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>37.16271424</v>
+        <v>54.269892460000001</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>35.231941464000002</v>
+        <v>57.045018746000004</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -18750,31 +19254,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1229.6041</v>
+        <v>1260.7538</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>5.9477251192396885E-4</v>
+        <v>2.0780687798243047E-3</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>1.4875938515692688E-2</v>
+        <v>2.5333113316717171E-2</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>-8.4119022418004175E-2</v>
+        <v>-6.0916905828293795E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-0.10522356747105566</v>
+        <v>-8.2556094712671987E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>8.8006533200000003</v>
+        <v>12.83481722</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>8.4888447080000002</v>
+        <v>12.273973614000001</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -18788,31 +19292,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2355.5904</v>
+        <v>2398.1468</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>2.704281823539878E-3</v>
+        <v>2.3644676033529599E-4</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>1.812337003320863E-2</v>
+        <v>1.8066128984054242E-2</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>-7.8292911379983066E-2</v>
+        <v>-6.164123223145667E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-0.10439743563714309</v>
+        <v>-8.8217364190913972E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>97.181396430000007</v>
+        <v>116.41796655</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>94.594920451999997</v>
+        <v>112.28575378600001</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -18826,31 +19330,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>4498.0686999999998</v>
+        <v>4747.1016</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>1.6295047309458077E-3</v>
+        <v>3.7035169361034903E-3</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>3.1933992104609565E-2</v>
+        <v>5.5364405617015278E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>-5.3852452878448975E-2</v>
+        <v>-1.4695563060674877E-3</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>-0.1183215568596192</v>
+        <v>-6.9507953909816789E-2</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>76.931274819999999</v>
+        <v>115.9802135</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>70.576881544000003</v>
+        <v>111.26663375799998</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -18864,31 +19368,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1827.7315000000001</v>
+        <v>1867.2497000000001</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>5.503409256325531E-3</v>
+        <v>1.9986851800386507E-3</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>2.5311697349942985E-2</v>
+        <v>2.1621447132688765E-2</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>-7.0366125594184536E-2</v>
+        <v>-5.0266095925962651E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-8.2616635226110957E-2</v>
+        <v>-6.2781479304244159E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>80.145674139999997</v>
+        <v>84.278648230000016</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>74.806752575999994</v>
+        <v>87.406980726</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -18902,31 +19406,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>2936.9243999999999</v>
+        <v>3078.8211000000001</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>1.5850141291235964E-3</v>
+        <v>8.6927898879274323E-3</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>2.9027990597167985E-2</v>
+        <v>4.8314726793784679E-2</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>-6.2408758483272209E-2</v>
+        <v>-1.7109293805146031E-2</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-0.16682173202731199</v>
+        <v>-0.12656695163969278</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>65.488347680000004</v>
+        <v>67.686753679999995</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>50.205203779999998</v>
+        <v>66.424017927999998</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -18940,31 +19444,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3168.6860000000001</v>
+        <v>3253.0373</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>2.9285630771644922E-3</v>
+        <v>2.1388163530051685E-3</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>1.8300273965664804E-2</v>
+        <v>2.6620277301064199E-2</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>-7.9639545438042303E-2</v>
+        <v>-5.513929492066949E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-0.1211301173345154</v>
+        <v>-9.7734357346406467E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>121.93856604</v>
+        <v>143.76259637000001</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>100.196238846</v>
+        <v>144.71972227399999</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -18978,31 +19482,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2196.1286</v>
+        <v>2204.7456999999999</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>7.973910242517368E-3</v>
+        <v>-5.2278261702904949E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>2.6492567642763865E-2</v>
+        <v>3.9237683986266259E-3</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>-7.2390761823326266E-2</v>
+        <v>-6.8751038008294629E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>-5.0988245388660654E-2</v>
+        <v>-4.7264543055991481E-2</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>23.994004660000002</v>
+        <v>22.000198860000001</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>18.782837883999999</v>
+        <v>22.024093128000001</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -19016,31 +19520,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1257.0062</v>
+        <v>1277.6600000000001</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>5.5329638397889624E-3</v>
+        <v>-6.3435150269341989E-4</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>1.6157963684455989E-2</v>
+        <v>1.6430945209339409E-2</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>-5.0392555356099426E-2</v>
+        <v>-3.4789607462774597E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-7.5511033210245215E-2</v>
+        <v>-6.0320805650283853E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>8.7142479500000007</v>
+        <v>8.6310259499999997</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>8.0168484840000005</v>
+        <v>9.784201264</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -19054,31 +19558,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>3773.0131000000001</v>
+        <v>3934.6821</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>2.0961345490924099E-3</v>
+        <v>2.0798848770591238E-3</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>1.8787697612872467E-2</v>
+        <v>4.2848777811028471E-2</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>-7.4916883789515665E-2</v>
+        <v>-3.5278202886278698E-2</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-0.12926212363853351</v>
+        <v>-9.1952069842674233E-2</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>53.402698600000001</v>
+        <v>94.633666300000002</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>55.783170521999999</v>
+        <v>85.171488134000001</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -19092,31 +19596,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>2906.5419999999999</v>
+        <v>2984.3867</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>-1.6583969840500146E-4</v>
+        <v>-2.1939860689023094E-3</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>1.023452013059134E-2</v>
+        <v>2.678258218873153E-2</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>-7.3555240394996058E-2</v>
+        <v>-4.8742657477555455E-2</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-0.12308604566306924</v>
+        <v>-9.9600025608594822E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>8.3858586600000002</v>
+        <v>12.14376629</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>10.02385514</v>
+        <v>12.100250894</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -19130,31 +19634,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2309.5074</v>
+        <v>2359.1365999999998</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>-1.8256655968940105E-3</v>
+        <v>-6.7662708599108834E-3</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>2.6718924025132651E-2</v>
+        <v>2.1489084642032363E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>-6.1180547755797739E-2</v>
+        <v>-4.1006177082935746E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>-2.3869866187970601E-2</v>
+        <v>-2.8937231208456815E-3</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>28.574527880000002</v>
+        <v>25.76068373</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>25.238825392000003</v>
+        <v>33.469643552000001</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -19168,31 +19672,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2063.0189999999998</v>
+        <v>2160.1271999999999</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>3.0068048741889175E-3</v>
+        <v>2.9051429707986909E-3</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>1.6916945219489277E-2</v>
+        <v>4.7070918881503276E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>-6.5552665926966958E-2</v>
+        <v>-2.1567371265778235E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>-0.10747502467291847</v>
+        <v>-6.5463053959581741E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>41.478266220000002</v>
+        <v>60.65823116</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>39.187585894000001</v>
+        <v>56.588987067999994</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -19206,31 +19710,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4241.1301000000003</v>
+        <v>4386.2442000000001</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>5.7781498376123785E-3</v>
+        <v>8.8804830929807288E-3</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>2.749271510388307E-2</v>
+        <v>3.4215903916741341E-2</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>-1.7803633125778373E-2</v>
+        <v>1.5803103390562567E-2</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-9.5016896802934236E-2</v>
+        <v>-6.4052081897668978E-2</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>233.52018480000001</v>
+        <v>286.94495218999998</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>201.43411071200001</v>
+        <v>253.49401877400001</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -19244,31 +19748,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>4503.2420000000002</v>
+        <v>4743.1945999999998</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>-3.6104402738708075E-3</v>
+        <v>1.2365268685936792E-2</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>2.1446803117034952E-2</v>
+        <v>5.3284411541729249E-2</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>-6.6433852245628366E-2</v>
+        <v>-1.6689329427257649E-2</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-0.15659406673430276</v>
+        <v>-0.11165367788943727</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>27.885571479999999</v>
+        <v>44.369270729999997</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>33.047307457999999</v>
+        <v>43.737539845999997</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -19282,31 +19786,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>4715.6396999999997</v>
+        <v>4853.4065000000001</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>-4.2480637997194259E-3</v>
+        <v>1.3711838037266944E-4</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>1.4337080931268842E-2</v>
+        <v>2.9214869829855772E-2</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>-6.7398390324504009E-2</v>
+        <v>-4.0152555694720322E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>-7.7226541579433428E-2</v>
+        <v>-5.0267835109230719E-2</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>124.35850001</v>
+        <v>166.85769112</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>110.535503718</v>
+        <v>147.32346949000001</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -19320,31 +19824,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>4304.2103999999999</v>
+        <v>4662.9363000000003</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>2.55786501390598E-3</v>
+        <v>6.0214539864462679E-3</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>3.7718325178456968E-2</v>
+        <v>8.3343021521438812E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>-6.420539496178812E-2</v>
+        <v>1.3786554945557805E-2</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-0.21803691368443368</v>
+        <v>-0.15286574735266478</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>99.033888500000003</v>
+        <v>154.44562237</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>89.065556665999992</v>
+        <v>140.183958408</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -19358,31 +19862,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1510.8461</v>
+        <v>1535.8624</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>3.5407141274865772E-3</v>
+        <v>-1.5885005974104471E-3</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>1.8126725550171363E-2</v>
+        <v>1.6557808237384286E-2</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>-7.6763140385894935E-2</v>
+        <v>-6.1476361506719639E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-9.9266313152796659E-2</v>
+        <v>-8.4352137493028501E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>18.353882939999998</v>
+        <v>17.985033550000001</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>19.771470995999998</v>
+        <v>19.271089187999998</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -19396,31 +19900,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>4689.5487999999996</v>
+        <v>4949.7457000000004</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>1.2770165697365998E-2</v>
+        <v>9.4702762011784625E-3</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>3.4275048664676344E-2</v>
+        <v>5.5484421017220509E-2</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>-8.393627130409588E-2</v>
+        <v>-3.3109005702527616E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-0.11983398884795582</v>
+        <v>-7.099848732014824E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>38.041972639999997</v>
+        <v>55.598527310000001</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>33.806128444000002</v>
+        <v>49.562389789999997</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -19434,31 +19938,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>10162.197700000001</v>
+        <v>10731.738300000001</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>-5.9080410242675629E-3</v>
+        <v>6.8799480297669913E-3</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>1.1355695237980745E-2</v>
+        <v>5.6045022623403717E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>-5.2054241143605129E-2</v>
+        <v>1.0734003572610007E-3</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>-8.7331981463769526E-2</v>
+        <v>-3.6181481717249442E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>28.195882619999999</v>
+        <v>55.047645469999999</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>26.988081680000001</v>
+        <v>41.559971255999997</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -19472,31 +19976,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>1946.5404000000001</v>
+        <v>1983.2525000000001</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>1.0236522263536774E-2</v>
+        <v>1.8939092555279036E-3</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>2.9818131491052613E-2</v>
+        <v>1.886017880748847E-2</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>-8.3737456430772669E-2</v>
+        <v>-6.6456581024452954E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-0.10561907220736666</v>
+        <v>-8.8750887987190219E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>107.39891849999999</v>
+        <v>118.61190569</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>108.523180848</v>
+        <v>128.00511784600002</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -19510,31 +20014,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2396.5367999999999</v>
+        <v>2451.1858000000002</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>3.0792994315453903E-3</v>
+        <v>4.666199852676689E-3</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>1.6448354528348919E-2</v>
+        <v>2.2803321860110914E-2</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>-5.3910334026305955E-2</v>
+        <v>-3.2336346864582977E-2</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-0.13229661176534147</v>
+        <v>-0.11251009212431773</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>81.196149680000005</v>
+        <v>99.719694340000004</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>84.084959548</v>
+        <v>100.350505252</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -19548,31 +20052,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1088.3924999999999</v>
+        <v>1137.0814</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>5.2631671309559813E-3</v>
+        <v>4.2425104724750362E-3</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>2.6063067678206098E-2</v>
+        <v>4.4734689002358996E-2</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>-7.2639401986324126E-2</v>
+        <v>-3.1154214041140604E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-0.12270014508111815</v>
+        <v>-8.3454408909507172E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>9.8871322399999997</v>
+        <v>13.49977127</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>8.9490493420000004</v>
+        <v>12.030293498000001</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -19586,31 +20090,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2690.9477000000002</v>
+        <v>2780.5857999999998</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>1.8848907572406315E-3</v>
+        <v>9.5481050769619102E-4</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>1.7851171909515351E-2</v>
+        <v>3.3310978136066982E-2</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>-6.2564987699888941E-2</v>
+        <v>-3.1338110501176297E-2</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-0.1164182175316868</v>
+        <v>-8.6985244094457737E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>31.186167690000001</v>
+        <v>52.860191870000001</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>35.128270698000001</v>
+        <v>45.502960741999999</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -19624,31 +20128,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>781.21270000000004</v>
+        <v>795.39890000000003</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>6.0328796901076842E-3</v>
+        <v>-5.0982219827315767E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>2.8449895017404581E-2</v>
+        <v>1.8159202992987566E-2</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>-2.655158264414037E-2</v>
+        <v>-8.8745352301727864E-3</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>-2.8396189514386272E-2</v>
+        <v>-1.0752638691017613E-2</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>10.49972167</v>
+        <v>13.592583899999999</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>7.6498017779999996</v>
+        <v>11.342714846</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -19662,31 +20166,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4101.8649999999998</v>
+        <v>4261.9818999999998</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>-2.357597547440915E-3</v>
+        <v>2.5715292658741173E-3</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>1.3049054477011657E-2</v>
+        <v>3.9035146207883509E-2</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>-5.5068381943702234E-2</v>
+        <v>-1.8182838076422736E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>-7.2115028225077094E-2</v>
+        <v>-3.58949026877452E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>33.88377912</v>
+        <v>44.878518470000003</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>32.087076259999996</v>
+        <v>43.32771924</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -19700,31 +20204,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>4632.5559000000003</v>
+        <v>4780.1063999999997</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>9.9082310465936629E-4</v>
+        <v>3.1533360244384578E-3</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>1.5859207406496934E-2</v>
+        <v>3.1850775939908038E-2</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>-7.2548272654264112E-2</v>
+        <v>-4.3008215491494257E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>-9.3710725697023878E-2</v>
+        <v>-6.484470908445783E-2</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>74.038410580000004</v>
+        <v>106.57686888000001</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>64.633400859999995</v>
+        <v>89.134471527999992</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -19738,31 +20242,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>689.00810000000001</v>
+        <v>709.11569999999995</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>5.2249295905415494E-6</v>
+        <v>1.207527070023473E-2</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>1.8137259248094395E-2</v>
+        <v>2.9183401472348436E-2</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>-6.0118813772030322E-2</v>
+        <v>-3.2689883778032502E-2</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-0.13238808819366576</v>
+        <v>-0.10706822144922989</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>8.9124429200000002</v>
+        <v>11.72751279</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>9.6638172759999996</v>
+        <v>12.731329261999999</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -19776,31 +20280,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>20927.315299999998</v>
+        <v>21322.954099999999</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>2.3828309216343824E-2</v>
+        <v>-3.3619871874660312E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>4.7062448941652235E-2</v>
+        <v>1.8905377700311199E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>-0.1508884931288127</v>
+        <v>-0.13483571938173256</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-0.16872718219888605</v>
+        <v>-0.15301165560635399</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>174.23837735999999</v>
+        <v>172.00630204000001</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>169.54630041600001</v>
+        <v>187.51977585399999</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -19814,31 +20318,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1726.9549</v>
+        <v>1761.0038</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>2.9973969011389823E-3</v>
+        <v>3.4384260154718405E-4</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>2.5182572747121768E-2</v>
+        <v>1.971614892780349E-2</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>-9.1868593582177707E-2</v>
+        <v>-7.3963739527228234E-2</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>-8.7424577793379421E-2</v>
+        <v>-6.943210486130047E-2</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>80.394441790000002</v>
+        <v>82.845493469999994</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>58.109242700000003</v>
+        <v>73.553272542000002</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -19852,31 +20356,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2743.2750999999998</v>
+        <v>2771.3317000000002</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>-1.7132776612971412E-6</v>
+        <v>2.2248464439706961E-3</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>1.1571878157157656E-2</v>
+        <v>1.0227410295088557E-2</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>-6.658301122107857E-2</v>
+        <v>-5.7036572700430381E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>-4.5433238857055303E-2</v>
+        <v>-3.5670492936792475E-2</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>12.36900121</v>
+        <v>29.84407118</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>11.898032177999999</v>
+        <v>21.825907350000001</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -19890,31 +20394,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2480.2327</v>
+        <v>2573.2138</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>1.9457334083858857E-3</v>
+        <v>5.8575870645327655E-4</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>1.4629419897102425E-2</v>
+        <v>3.7488861428203846E-2</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>-6.8100367445863341E-2</v>
+        <v>-3.3164511256047247E-2</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-0.12794497961604412</v>
+        <v>-9.5252629799100527E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>29.614205479999999</v>
+        <v>35.839010209999998</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>21.768774052000001</v>
+        <v>30.780470938000001</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -19928,31 +20432,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1659.8081999999999</v>
+        <v>1690.8570999999999</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>8.2042075401007608E-3</v>
+        <v>5.1213272302641499E-4</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>2.3039162026709636E-2</v>
+        <v>1.8706317995055066E-2</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>-7.8015357595292878E-2</v>
+        <v>-6.0768419687913244E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-0.10366584170994099</v>
+        <v>-8.689872991513703E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>56.514736370000001</v>
+        <v>58.521472809999999</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>56.126065298</v>
+        <v>64.292314849999997</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -19966,31 +20470,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2287.9879000000001</v>
+        <v>2376.9585000000002</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>7.2125693749940378E-3</v>
+        <v>6.7342250632831391E-3</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>2.4743338058165643E-2</v>
+        <v>3.888595739514189E-2</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>-6.7831050165988449E-2</v>
+        <v>-3.1582768097668912E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-0.10562646408998944</v>
+        <v>-7.0847892877250462E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>83.182742289999993</v>
+        <v>97.92559224</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>65.251888149999999</v>
+        <v>85.361633143999995</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -20004,31 +20508,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1428.8545999999999</v>
+        <v>1453.0904</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>3.5719277495154245E-3</v>
+        <v>3.9744689906573427E-3</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>1.8538067367930289E-2</v>
+        <v>1.6961697852251767E-2</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>-7.6046164111804759E-2</v>
+        <v>-6.0374338318040177E-2</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-7.8397047474476844E-2</v>
+        <v>-6.2765096653995656E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>24.297784920000002</v>
+        <v>21.618736550000001</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>20.996565662000002</v>
+        <v>23.784633507999999</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -20042,31 +20546,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2614.3851</v>
+        <v>2681.7739999999999</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>-8.2475232301726376E-4</v>
+        <v>-3.6313508662499938E-4</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>1.3483430319825906E-2</v>
+        <v>2.5776194945419384E-2</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>-5.5526500193834316E-2</v>
+        <v>-3.1181567142048006E-2</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-0.13267120842473534</v>
+        <v>-0.11031477241131625</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>12.79033838</v>
+        <v>15.289700209999999</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>12.225954504000001</v>
+        <v>15.683271288</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -20080,31 +20584,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>5949.3975</v>
+        <v>6156.2295999999997</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>1.626924707402555E-3</v>
+        <v>1.8426969042197872E-3</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>1.8416268743688402E-2</v>
+        <v>3.4765217822476879E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>-6.6986065758643965E-2</v>
+        <v>-3.4549633103337141E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>-0.10019749867080419</v>
+        <v>-6.8915668714885081E-2</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>40.298248510000001</v>
+        <v>54.740434749999999</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>37.99028586</v>
+        <v>50.961489727999997</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -20118,31 +20622,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1417.9449999999999</v>
+        <v>1457.1020000000001</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>2.1537246120337805E-3</v>
+        <v>3.0897407142902455E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>1.3428013194515476E-2</v>
+        <v>2.7615316532023648E-2</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>-8.2010105531498678E-2</v>
+        <v>-5.6659524022552032E-2</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-0.13230404364447423</v>
+        <v>-0.10834234515615948</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>11.76430822</v>
+        <v>18.57991226</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>11.270331027999999</v>
+        <v>15.399529938000001</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -20156,31 +20660,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1237.4863</v>
+        <v>1064.3544999999999</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>0.20516791461765571</v>
+        <v>8.340767053851561E-3</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>0.21380901310496658</v>
+        <v>3.9719693498162512E-2</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>-0.12328157744467226</v>
+        <v>-0.24593977462242259</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-0.16907154014009707</v>
+        <v>-0.28532344525352971</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>10.600472549999999</v>
+        <v>16.305291650000001</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>11.03600673</v>
+        <v>15.291473110000002</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -20194,31 +20698,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1704.7170000000001</v>
+        <v>1738.6420000000001</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>8.024914707230657E-3</v>
+        <v>1.3926599972768905E-4</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>2.9351533115871575E-2</v>
+        <v>1.9900663863855472E-2</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>-9.5437718188917456E-2</v>
+        <v>-7.7436328274673061E-2</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-9.7873480332573148E-2</v>
+        <v>-7.9920563702001957E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>27.258986910000001</v>
+        <v>24.381118180000001</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>19.873622193999999</v>
+        <v>26.725449565999998</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -20232,31 +20736,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2051.9657999999999</v>
+        <v>2127.7728000000002</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>-1.5397078754283422E-3</v>
+        <v>7.0638780955316616E-3</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>1.0614186875921749E-2</v>
+        <v>3.6943598182776816E-2</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>-7.0450305023769921E-2</v>
+        <v>-3.6109394601645306E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-0.10905310913517141</v>
+        <v>-7.6138325196866807E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>45.324058030000003</v>
+        <v>57.26285171</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>41.964879186000005</v>
+        <v>55.034942946000001</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -20270,31 +20774,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>3646.1315</v>
+        <v>3845.4665</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>4.275176898647759E-3</v>
+        <v>3.5135152697047811E-3</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>1.7801618302037081E-2</v>
+        <v>5.4670271766117162E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>-9.0397937298496545E-2</v>
+        <v>-4.0669745331584635E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-0.13951387260818382</v>
+        <v>-9.2470862172699619E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>43.360035259999997</v>
+        <v>97.648830259999997</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>43.361605079999997</v>
+        <v>68.428245346000011</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -20308,31 +20812,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2162.1167999999998</v>
+        <v>2220.1057000000001</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>3.8019848020889313E-3</v>
+        <v>3.5231477810944156E-3</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>2.213676406051146E-2</v>
+        <v>2.6820428942599284E-2</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>-7.2146736057644434E-2</v>
+        <v>-4.7261313522919624E-2</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-0.13421435278130434</v>
+        <v>-0.11099361035055288</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>28.196983159999998</v>
+        <v>34.711726489999997</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>25.814434549999998</v>
+        <v>32.824274848000002</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -20346,31 +20850,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1723.8827000000001</v>
+        <v>1757.5393999999999</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>9.4399598538790208E-3</v>
+        <v>-9.0414553068546288E-3</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>2.2573784549211329E-2</v>
+        <v>1.9523776182683195E-2</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>-8.7705513740095054E-2</v>
+        <v>-6.989408037766065E-2</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-0.11645554633568045</v>
+        <v>-9.9205422174887148E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>23.469300799999999</v>
+        <v>21.86844443</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>18.299379171999998</v>
+        <v>21.801853638000001</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -20384,31 +20888,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>11946.773999999999</v>
+        <v>12497.601199999999</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>1.3578223023360536E-3</v>
+        <v>1.4148942374208051E-3</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>2.1106352182866939E-2</v>
+        <v>4.6106773259458889E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>-6.5145760125370433E-2</v>
+        <v>-2.2042647656826952E-2</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>-0.11985614256481414</v>
+        <v>-7.9275549294344438E-2</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>35.834624650000002</v>
+        <v>65.520292409999996</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>37.602495953999998</v>
+        <v>53.006686274000003</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -20422,31 +20926,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>2688.3152</v>
+        <v>2765.2366000000002</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>6.2043490179504168E-3</v>
+        <v>-2.1741000560898671E-3</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>3.4588774550129875E-2</v>
+        <v>2.8613237019230464E-2</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>-7.3490153850841011E-2</v>
+        <v>-4.6979708022324311E-2</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>-6.7268462406149254E-2</v>
+        <v>-4.0579993845665123E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>13.618694420000001</v>
+        <v>21.303381090000002</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>13.366492328000001</v>
+        <v>19.048195684</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -20460,31 +20964,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1792.1228000000001</v>
+        <v>1819.7732000000001</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>6.1365068626777486E-3</v>
+        <v>-1.0144261065048177E-3</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>2.2788179501864292E-2</v>
+        <v>1.5428853424553246E-2</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>-8.9345405658405652E-2</v>
+        <v>-7.5295049401913117E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>-7.5320366381261827E-2</v>
+        <v>-6.1053619849488767E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>11.6884836</v>
+        <v>10.8771393</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>8.5861514040000007</v>
+        <v>11.448488634</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -20498,31 +21002,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>2889.9962</v>
+        <v>3030.7761</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>5.241160729978489E-4</v>
+        <v>2.591977574465254E-2</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>3.1552041690462662E-2</v>
+        <v>4.871283221756495E-2</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>-4.397334726509694E-2</v>
+        <v>2.5974186650985498E-3</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-0.1380681785984732</v>
+        <v>-9.6081038399560517E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>29.73603584</v>
+        <v>65.109195920000005</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>30.843936781999997</v>
+        <v>45.639251624000003</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -20536,31 +21040,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1307.1978999999999</v>
+        <v>1329.3539000000001</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>-9.8006825169627554E-4</v>
+        <v>-1.2380421934699015E-4</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>1.5032080873463194E-2</v>
+        <v>1.6949231635087658E-2</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>-5.424217777005403E-2</v>
+        <v>-3.8212309370382558E-2</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-0.11653133912761382</v>
+        <v>-0.10155722415214707</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>18.395474400000001</v>
+        <v>23.676990499999999</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>17.834376614</v>
+        <v>23.846638024000001</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -20574,31 +21078,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1111.2905000000001</v>
+        <v>1127.0871999999999</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>3.7727835698162515E-3</v>
+        <v>-6.3966113751701137E-5</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>2.6049962865039022E-2</v>
+        <v>1.4214735031029102E-2</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>-6.4818172354819459E-2</v>
+        <v>-5.1524810469009585E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-9.5939658073043943E-2</v>
+        <v>-8.3088679860490733E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>21.127326549999999</v>
+        <v>17.916687580000001</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>18.896567744000002</v>
+        <v>21.607249250000002</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -20612,31 +21116,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>3782.1262000000002</v>
+        <v>3900.9681</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>1.2287236741834962E-2</v>
+        <v>5.0015157662786081E-4</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>3.4531039778141759E-2</v>
+        <v>3.142198163562071E-2</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>-6.9978785797736864E-2</v>
+        <v>-4.0755676284335622E-2</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-0.13541356130587689</v>
+        <v>-0.10824654210682338</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>31.981259059999999</v>
+        <v>38.302812090000003</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>19.539334572000001</v>
+        <v>30.817666428000003</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -20650,31 +21154,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3458.8220999999999</v>
+        <v>3582.7863000000002</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>1.1502980066195878E-2</v>
+        <v>3.9403436124221258E-3</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>2.9094617040630544E-2</v>
+        <v>3.5840004607349041E-2</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>-7.0521462666537915E-2</v>
+        <v>-3.7208947606074627E-2</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-0.14531850013596792</v>
+        <v>-0.1146867112430251</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>48.262096720000002</v>
+        <v>59.672340859999998</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>33.682039920000001</v>
+        <v>50.766695944000006</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -20688,31 +21192,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2315.5014000000001</v>
+        <v>2330.7003</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>5.3395197315184717E-3</v>
+        <v>-1.2514886737383657E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>2.66984899404894E-2</v>
+        <v>6.5639778926498416E-3</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>-6.1341793562125983E-2</v>
+        <v>-5.5180461846313422E-2</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>-5.5070136361601518E-2</v>
+        <v>-4.8867637626574305E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>6.1103681999999999</v>
+        <v>6.2919675899999996</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>5.8227564200000002</v>
+        <v>7.2988785340000009</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -20726,31 +21230,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3131.4974000000002</v>
+        <v>3315.0533</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>1.9252745043747188E-2</v>
+        <v>1.6898089829829877E-2</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>4.0769170766350005E-2</v>
+        <v>5.8616015456375514E-2</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>-8.17674520701418E-2</v>
+        <v>-2.7944318848138194E-2</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.18714482819915942</v>
+        <v>-0.13949849688508664</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>21.114366</v>
+        <v>27.445934919999999</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>15.488424611999999</v>
+        <v>23.045156116000001</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -20764,31 +21268,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2042.9152999999999</v>
+        <v>2147.4884000000002</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>1.4325540054576091E-3</v>
+        <v>7.8982433352403625E-4</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>1.0831086041768634E-2</v>
+        <v>5.1188172118540765E-2</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>-0.10375157157075134</v>
+        <v>-5.7874252755343303E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-0.14597112418270286</v>
+        <v>-0.10225494709316318</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>14.42012501</v>
+        <v>36.436869799999997</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>13.261078158</v>
+        <v>24.501624142000001</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -20802,31 +21306,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3447.5111999999999</v>
+        <v>3620.3634000000002</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>7.2932174719562148E-3</v>
+        <v>5.0174484885181503E-3</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>2.6689339229057252E-2</v>
+        <v>5.013825625860191E-2</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>-8.7121189954780368E-2</v>
+        <v>-4.1351038243685585E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-0.13176262167498276</v>
+        <v>-8.8230713507226333E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>16.996579619999999</v>
+        <v>35.702626250000002</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>15.653279758</v>
+        <v>25.869099074000001</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -20840,31 +21344,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>1996.2639999999999</v>
+        <v>2042.5349000000001</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>8.7693721524098045E-3</v>
+        <v>-2.1957181273782878E-3</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>2.5649246190982522E-2</v>
+        <v>2.3178747901079433E-2</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>-0.10215350317119187</v>
+        <v>-8.1342545567329672E-2</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-0.16305600624321259</v>
+        <v>-0.14365669240460144</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>3.2864833400000002</v>
+        <v>3.4656537200000002</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>2.7886375120000002</v>
+        <v>3.5503440580000003</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -20878,31 +21382,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2130.3180000000002</v>
+        <v>2205.6385</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>2.5204684827084822E-3</v>
+        <v>3.301475640751228E-3</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>2.5799484114326976E-2</v>
+        <v>3.5356458519338441E-2</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>-6.7869818966647677E-2</v>
+        <v>-3.4912996886318659E-2</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-0.12034915851865445</v>
+        <v>-8.9247820030318281E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>5.4415084699999996</v>
+        <v>7.4423667599999996</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>5.5124211780000003</v>
+        <v>6.8527021739999991</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -20916,31 +21420,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2006.1115</v>
+        <v>2142.3126000000002</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>5.400696314048048E-3</v>
+        <v>7.2211733824929514E-3</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>2.1257208728280519E-2</v>
+        <v>6.7893085703362166E-2</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>-9.9489480211214065E-2</v>
+        <v>-3.8351042314414885E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-0.14703590617678353</v>
+        <v>-8.9125541852953294E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>25.763125890000001</v>
+        <v>70.754949429999996</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>23.726266431999999</v>
+        <v>44.956146510000004</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -21046,27 +21550,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>1903.96</v>
+        <v>1876.43</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>1.0176253992508544E-2</v>
+        <v>-1.6865588749986782E-2</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>2.4681125881276689E-2</v>
+        <v>-1.445933738103744E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>-8.544364600545673E-2</v>
+        <v>-9.8667524881835278E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>-3.4145500109066695E-2</v>
+        <v>-4.8111116183982894E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>172.4984</v>
+        <v>214.09479999999999</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -21088,27 +21592,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3414.68</v>
+        <v>3323.34</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>1.9709258573527455E-2</v>
+        <v>-1.0670626320676835E-3</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>4.057241417139501E-2</v>
+        <v>-2.6749212224864372E-2</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>-4.0922598149635829E-2</v>
+        <v>-6.6577163111802617E-2</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>2.810621046388051E-2</v>
+        <v>6.0517925048109156E-4</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>78.355599999999995</v>
+        <v>65.280900000000003</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -21130,27 +21634,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>3968.91</v>
+        <v>3977.26</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>9.5539700103017822E-3</v>
+        <v>7.7380711071473041E-3</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>4.1230405981504514E-2</v>
+        <v>2.1038521911558306E-3</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>-3.0059312154959383E-2</v>
+        <v>-2.8018700313545475E-2</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-4.2701913915990319E-2</v>
+        <v>-4.0687900239993136E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>292.50459999999998</v>
+        <v>346.47070000000002</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -21172,27 +21676,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>5933.99</v>
+        <v>5815.27</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>1.1521546433928886E-2</v>
+        <v>5.0066536474084877E-3</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>2.7689115725193947E-2</v>
+        <v>-2.0006774531133198E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>-9.9277022114349855E-2</v>
+        <v>-0.11729758364791898</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>3.0158308551508695E-2</v>
+        <v>9.5481635409451204E-3</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>175.55969999999999</v>
+        <v>197.8254</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -21214,27 +21718,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2628.28</v>
+        <v>2606.64</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>1.1814797562355928E-2</v>
+        <v>-1.3813063957777705E-2</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>3.3474234708924078E-2</v>
+        <v>-8.2335215426059261E-3</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>-8.7073109734070564E-2</v>
+        <v>-9.458971295189933E-2</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>-2.5096997707664048E-2</v>
+        <v>-3.3123882578989239E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>19.5732</v>
+        <v>17.988399999999999</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -21256,27 +21760,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>5738.14</v>
+        <v>5847.06</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>2.9486460174052986E-3</v>
+        <v>-2.104314612954572E-3</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>1.9995911583550408E-2</v>
+        <v>1.8981760640207401E-2</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>-5.2560319790240777E-2</v>
+        <v>-3.4576246559464452E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-8.5157367268947293E-2</v>
+        <v>-6.779204339098921E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>73.1922</v>
+        <v>94.662999999999997</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -21298,27 +21802,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4346.43</v>
+        <v>4429.78</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>4.950266125936853E-3</v>
+        <v>1.9769104102200785E-3</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>3.2553333016582142E-2</v>
+        <v>1.9176657624763171E-2</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>-4.0196888125322856E-2</v>
+        <v>-2.1791072461719962E-2</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>-3.6366579018547895E-2</v>
+        <v>-1.7887310828607395E-2</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>175.7329</v>
+        <v>211.98400000000001</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -21340,31 +21844,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>7561.66</v>
+        <v>7578.56</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>3.3543956116861562E-3</v>
+        <v>-7.9977381192356534E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>2.4499954612150709E-2</v>
+        <v>2.2349589904862022E-3</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>-3.3838880725739484E-2</v>
+        <v>-3.1679550245959143E-2</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>-1.4809786680181847E-2</v>
+        <v>-1.2607926955583659E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>14.93</v>
+        <v>17.180199999999999</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>15.633779999999998</v>
+        <v>20.314540000000001</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -21382,31 +21886,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3284.24</v>
+        <v>3235.05</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>-5.1164298285739651E-3</v>
+        <v>-1.3632095031343772E-2</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>5.5038533076767315E-2</v>
+        <v>-1.4977589944705549E-2</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>3.9310627319355529E-3</v>
+        <v>-1.1105405058415729E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>1.8372149991162656E-2</v>
+        <v>3.1193895174870256E-3</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>25.606100000000001</v>
+        <v>23.273599999999998</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>30.0046</v>
+        <v>33.388379999999998</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -21424,31 +21928,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2570.08</v>
+        <v>2621.13</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>-7.9700481701938664E-4</v>
+        <v>5.1539868619352447E-3</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>2.0022781122625011E-2</v>
+        <v>1.9863194920002547E-2</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>-6.2165199748945528E-2</v>
+        <v>-4.3536804308797139E-2</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>-5.8306249793896425E-2</v>
+        <v>-3.9601203278604391E-2</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>29.189599999999999</v>
+        <v>36.379399999999997</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>30.100619999999999</v>
+        <v>35.109760000000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -21466,27 +21970,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3371.7</v>
+        <v>3418.82</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>2.1578628241252229E-3</v>
+        <v>-1.810208407542091E-3</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>2.1123881342842932E-2</v>
+        <v>1.3975146068748723E-2</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>-2.6015668330560238E-2</v>
+        <v>-1.2404095026807171E-2</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>1.2565092826725355E-2</v>
+        <v>2.6715837903094952E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>17.159500000000001</v>
+        <v>19.5473</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -21508,27 +22012,27 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>2980.35</v>
+        <v>3021.2</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>3.5526910114311416E-2</v>
+        <v>5.0336459492394958E-4</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>5.9826962672157036E-2</v>
+        <v>1.3706443874041518E-2</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>-1.4626775860529961E-2</v>
+        <v>-1.1208130688789009E-3</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>4.465919367389426E-2</v>
+        <v>5.8977756279487092E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>38.4572</v>
+        <v>39.351999999999997</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
@@ -21550,31 +22054,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2470.25</v>
+        <v>2499.63</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>-8.8172364839445017E-4</v>
+        <v>8.3625801766913366E-3</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>2.3187133170689211E-2</v>
+        <v>1.1893533043214388E-2</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>-4.7250806090806785E-2</v>
+        <v>-3.5919252071151986E-2</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>-1.9952073761971612E-2</v>
+        <v>-8.2958413673259734E-3</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>4.7474999999999996</v>
+        <v>5.7803000000000004</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>5.6292400000000002</v>
+        <v>5.6281799999999995</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21605,27 +22109,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>7579.95</v>
+        <v>7705.98</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>-1.2109408971241464E-3</v>
+        <v>-1.3128376863471569E-3</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>1.4494790307361782E-2</v>
+        <v>1.6626758751706827E-2</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>-4.8952900273647411E-2</v>
+        <v>-3.3140069584986942E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>-6.1377406784131505E-2</v>
+        <v>-4.5771155367829837E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>166.66579999999999</v>
+        <v>228.01519999999999</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -21647,27 +22151,27 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>11695.8</v>
+        <v>11328.24</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>-3.8107276155953107E-3</v>
+        <v>-2.1062946876852506E-2</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>3.2782759579850884E-2</v>
+        <v>-3.1426665982660418E-2</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>-3.8699262902494036E-2</v>
+        <v>-6.8909740076142589E-2</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>1.4393075365247476E-2</v>
+        <v>-1.7485916989379735E-2</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>101.1357</v>
+        <v>158.00239999999999</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
@@ -21689,31 +22193,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4186.18</v>
+        <v>4231.68</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>2.2698871985538105E-4</v>
+        <v>-5.2433926167350098E-4</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>1.6885006570845018E-2</v>
+        <v>1.0869097840991104E-2</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>-6.8636699386830702E-2</v>
+        <v>-5.8513620546957752E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>-5.4162995097042262E-2</v>
+        <v>-4.3882600149122035E-2</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>50.727499999999999</v>
+        <v>73.351699999999994</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>51.497599999999998</v>
+        <v>66.338899999999995</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -21773,27 +22277,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>4757.6499999999996</v>
+        <v>4914.95</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>-2.0409533118821432E-3</v>
+        <v>3.0366913125730033E-3</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>1.1132198577339603E-2</v>
+        <v>3.3062541380723731E-2</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>-6.8528311343528547E-2</v>
+        <v>-3.7731490092351327E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-0.11597420937232904</v>
+        <v>-8.6746070088074667E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>93.264700000000005</v>
+        <v>129.57079999999999</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -21815,31 +22319,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3141.83</v>
+        <v>3308.83</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>-1.633317127268441E-3</v>
+        <v>3.8347304008568006E-3</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>2.0094547296375831E-2</v>
+        <v>5.3153735243472777E-2</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>-1.8956828017760885E-2</v>
+        <v>3.3189281008199734E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>-9.5852842231885158E-2</v>
+        <v>-4.7794043586740331E-2</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>256.11340000000001</v>
+        <v>409.95659999999998</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>265.36432000000002</v>
+        <v>387.8177</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -21857,31 +22361,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7659.87</v>
+        <v>7431.27</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>-8.1896953562808905E-3</v>
+        <v>-2.4270573942692941E-3</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>1.0878344137334128E-2</v>
+        <v>-2.9843848524844341E-2</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>-3.9074937118555919E-2</v>
+        <v>-6.7752639138916271E-2</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>6.0321700973131609E-2</v>
+        <v>2.8677620741684118E-2</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>74.977000000000004</v>
+        <v>124.5228</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>83.091560000000001</v>
+        <v>107.57098000000001</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -21899,27 +22403,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>8473.98</v>
+        <v>8640.17</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>-5.5076277064304291E-3</v>
+        <v>5.2121083792784351E-3</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>1.6594986593726935E-2</v>
+        <v>1.9611799886239956E-2</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>-8.8174213583374073E-2</v>
+        <v>-7.0291668729057788E-2</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-0.10663478629396994</v>
+        <v>-8.9114286497439132E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>12.8262</v>
+        <v>15.392300000000001</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -21954,27 +22458,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2540.46</v>
+        <v>2572.54</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>6.9283149291710089E-3</v>
+        <v>-1.9514503970794461E-3</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>1.6615044778986343E-2</v>
+        <v>1.2627634365429907E-2</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>-4.5298759864712546E-2</v>
+        <v>-3.3243141676061683E-2</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>-4.9019057351735507E-2</v>
+        <v>-3.7010417719481437E-2</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>30.1858</v>
+        <v>22.665099999999999</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -21996,27 +22500,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1431.63</v>
+        <v>1426.41</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>1.3550538410891377E-2</v>
+        <v>-1.0852530407888583E-2</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>3.7232655190401642E-2</v>
+        <v>-3.6461934997171763E-3</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>-4.3341418920273329E-2</v>
+        <v>-4.6829581220054879E-2</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>-3.4528570368821621E-2</v>
+        <v>-3.8048866019705474E-2</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>7.6124999999999998</v>
+        <v>5.2671999999999999</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -22038,27 +22542,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5172.18</v>
+        <v>5248.51</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>2.1265756800303404E-2</v>
+        <v>3.5104155712553098E-3</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>3.9410619223604337E-2</v>
+        <v>1.4757800385910791E-2</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>-3.5559251745330811E-2</v>
+        <v>-2.1326227698549971E-2</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>-5.7859246330453917E-3</v>
+        <v>8.8864882320829341E-3</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>18.6098</v>
+        <v>12.819599999999999</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -22080,27 +22584,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>2963.96</v>
+        <v>2954.28</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>7.5944547562227793E-3</v>
+        <v>-6.7877638705381438E-3</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>2.2358354546520687E-2</v>
+        <v>-3.26590102430524E-3</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>-5.8713685039570196E-2</v>
+        <v>-6.1787832979763986E-2</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>-6.6886620786923645E-2</v>
+        <v>-6.9934076727888539E-2</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>9.0854999999999997</v>
+        <v>5.6920999999999999</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -22122,27 +22626,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6068.64</v>
+        <v>6224.92</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>6.0511428745724238E-4</v>
+        <v>-1.4858810440573467E-2</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>5.4092079163207352E-2</v>
+        <v>2.5752063065200836E-2</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>-1.3828988550052435E-2</v>
+        <v>1.1566949529879356E-2</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>5.0595701806321669E-2</v>
+        <v>7.7650708575266902E-2</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>4.5505000000000004</v>
+        <v>5.6398000000000001</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -22232,23 +22736,23 @@
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>2953.8</v>
+        <v>2868.8</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>1.2268677176148109E-2</v>
+        <v>-1.8408266611920798E-2</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>12641</v>
+        <v>14894</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>16850</v>
+        <v>17485</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>1061</v>
+        <v>80</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -22263,23 +22767,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>2949.2</v>
+        <v>2872.4</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>1.0692254969156894E-2</v>
+        <v>-1.8720962011478454E-2</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>73</v>
+        <v>586</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>71</v>
+        <v>587</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -22294,23 +22798,23 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>2958.2</v>
+        <v>2869</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>1.377655928718294E-2</v>
+        <v>-1.9681541720768095E-2</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>724</v>
+        <v>919</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>2903</v>
+        <v>3072</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
@@ -22322,23 +22826,23 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>2953</v>
+        <v>2866.2</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>1.3244578643974714E-2</v>
+        <v>-2.0571350464734919E-2</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>786</v>
+        <v>1015</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -22356,23 +22860,23 @@
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4049.6</v>
+        <v>4002</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>6.5119053536809197E-3</v>
+        <v>-1.1607804396147196E-2</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>15936</v>
+        <v>19969</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>31619</v>
+        <v>32039</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>696</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -22384,23 +22888,23 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4047</v>
+        <v>3996.8</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>5.8656857384301606E-3</v>
+        <v>-1.2794546262905628E-2</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>212</v>
+        <v>480</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>200</v>
+        <v>645</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
@@ -22412,23 +22916,23 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4039.8</v>
+        <v>3994.6</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>6.2269602470857825E-3</v>
+        <v>-1.153122834801542E-2</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>959</v>
+        <v>1506</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>5137</v>
+        <v>5765</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -22440,23 +22944,23 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4041.2</v>
+        <v>4004.4</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>6.7261222659558573E-3</v>
+        <v>-8.7137340330725368E-3</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>1199</v>
+        <v>1652</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -22473,23 +22977,23 @@
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>5833.4</v>
+        <v>5983.4</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>2.8193226749182797E-3</v>
+        <v>-1.6018688469882137E-3</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>9405</v>
+        <v>10025</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>23047</v>
+        <v>22847</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -22501,23 +23005,23 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>5802</v>
+        <v>5950</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>-2.5786487880350693E-3</v>
+        <v>-1.3427324605572338E-3</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>67</v>
+        <v>424</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -22529,23 +23033,23 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>5741.4</v>
+        <v>5895.8</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>1.7447744006699934E-3</v>
+        <v>-1.8960555273404124E-3</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>4838</v>
+        <v>5378</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>156</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -22557,23 +23061,23 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>5694.4</v>
+        <v>5813.2</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>1.0899757392496428E-3</v>
+        <v>-3.6336212806800734E-3</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>1424</v>
+        <v>1810</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -23091,10 +23595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE97"/>
+  <dimension ref="B1:AE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="AG82" sqref="AG82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27474,19 +27978,367 @@
       </c>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C42" s="40"/>
+      <c r="C42" s="40">
+        <v>20180226</v>
+      </c>
+      <c r="D42" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C42)/100</f>
+        <v>4.0129291730337302E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C42)/100</f>
+        <v>1.0068303010871249E-2</v>
+      </c>
+      <c r="F42" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C42)/100</f>
+        <v>2.4763309458957661E-2</v>
+      </c>
+      <c r="G42" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C42)/100</f>
+        <v>-8.1250090816420428E-4</v>
+      </c>
+      <c r="H42" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C42)/100</f>
+        <v>-1.643732162315914E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C42)/100</f>
+        <v>-3.8319916653054009E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C42)/100</f>
+        <v>-2.3111581973467299E-3</v>
+      </c>
+      <c r="K42" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C42)/100</f>
+        <v>-9.0914847558833944E-3</v>
+      </c>
+      <c r="L42" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C42)/100</f>
+        <v>-6.459512751767138E-2</v>
+      </c>
+      <c r="M42" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C42)/100</f>
+        <v>-2.8140408842928788E-2</v>
+      </c>
+      <c r="N42" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C42)/100</f>
+        <v>4.5566416060443427E-2</v>
+      </c>
+      <c r="O42" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C42)/100</f>
+        <v>-1.7180601909353665E-2</v>
+      </c>
+      <c r="P42" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C42)/100</f>
+        <v>2.1486071362302184E-3</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C42)/100</f>
+        <v>9.0013788610885381E-3</v>
+      </c>
+      <c r="R42" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C42)/100</f>
+        <v>-3.2759553915292616E-2</v>
+      </c>
+      <c r="S42" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C42)/100</f>
+        <v>-2.0532254761204238E-2</v>
+      </c>
+      <c r="T42" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C42)/100</f>
+        <v>1.4316292241366879E-2</v>
+      </c>
+      <c r="U42" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C42)/100</f>
+        <v>-1.3966000695069036E-2</v>
+      </c>
+      <c r="V42" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C42)/100</f>
+        <v>-8.4834448546711294E-2</v>
+      </c>
+      <c r="W42" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C42)/100</f>
+        <v>-2.0950107048190114E-2</v>
+      </c>
+      <c r="X42" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C42)/100</f>
+        <v>8.4820850752356444E-2</v>
+      </c>
+      <c r="Y42" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C42)/100</f>
+        <v>5.4745040050281801E-2</v>
+      </c>
+      <c r="Z42" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C42)/100</f>
+        <v>9.8431272193830952E-2</v>
+      </c>
+      <c r="AA42" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C42)/100</f>
+        <v>-1.4166923313828184E-2</v>
+      </c>
+      <c r="AB42" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C42)/100</f>
+        <v>4.882357357952305E-2</v>
+      </c>
+      <c r="AC42" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C42)/100</f>
+        <v>3.8256350974899211E-2</v>
+      </c>
+      <c r="AD42" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C42)/100</f>
+        <v>4.2605249862162076E-2</v>
+      </c>
+      <c r="AE42" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C42)/100</f>
+        <v>5.8317550980651944E-2</v>
+      </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C43" s="40"/>
+      <c r="C43" s="40">
+        <v>20180227</v>
+      </c>
+      <c r="D43" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C43)/100</f>
+        <v>2.3799168235280055E-2</v>
+      </c>
+      <c r="E43" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C43)/100</f>
+        <v>-1.3095558901241589E-3</v>
+      </c>
+      <c r="F43" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C43)/100</f>
+        <v>9.9736808409192079E-3</v>
+      </c>
+      <c r="G43" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C43)/100</f>
+        <v>-6.7997198004027259E-3</v>
+      </c>
+      <c r="H43" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C43)/100</f>
+        <v>-1.9325056349517089E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C43)/100</f>
+        <v>-4.1552615037981792E-2</v>
+      </c>
+      <c r="J43" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C43)/100</f>
+        <v>9.7701299595940316E-3</v>
+      </c>
+      <c r="K43" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C43)/100</f>
+        <v>-8.4595140163346016E-4</v>
+      </c>
+      <c r="L43" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C43)/100</f>
+        <v>-6.1396341533449306E-2</v>
+      </c>
+      <c r="M43" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C43)/100</f>
+        <v>-3.1222511875772185E-2</v>
+      </c>
+      <c r="N43" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C43)/100</f>
+        <v>2.6725423270284043E-2</v>
+      </c>
+      <c r="O43" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C43)/100</f>
+        <v>-2.3821376121532567E-2</v>
+      </c>
+      <c r="P43" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C43)/100</f>
+        <v>-9.83256090894713E-3</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C43)/100</f>
+        <v>-7.5014027562264607E-3</v>
+      </c>
+      <c r="R43" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C43)/100</f>
+        <v>-3.3609846665508702E-2</v>
+      </c>
+      <c r="S43" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C43)/100</f>
+        <v>-2.4468079916785568E-2</v>
+      </c>
+      <c r="T43" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C43)/100</f>
+        <v>1.3098082291440827E-2</v>
+      </c>
+      <c r="U43" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C43)/100</f>
+        <v>-1.3684813589325828E-2</v>
+      </c>
+      <c r="V43" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C43)/100</f>
+        <v>-8.2925862281517659E-2</v>
+      </c>
+      <c r="W43" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C43)/100</f>
+        <v>-3.3794656526230815E-2</v>
+      </c>
+      <c r="X43" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C43)/100</f>
+        <v>6.2610691163135002E-2</v>
+      </c>
+      <c r="Y43" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C43)/100</f>
+        <v>4.7045393891113951E-2</v>
+      </c>
+      <c r="Z43" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C43)/100</f>
+        <v>8.2381960272133181E-2</v>
+      </c>
+      <c r="AA43" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C43)/100</f>
+        <v>-1.9556513704958367E-2</v>
+      </c>
+      <c r="AB43" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C43)/100</f>
+        <v>3.3921514082771331E-2</v>
+      </c>
+      <c r="AC43" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C43)/100</f>
+        <v>2.1998238401412351E-2</v>
+      </c>
+      <c r="AD43" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C43)/100</f>
+        <v>1.1417020896520524E-2</v>
+      </c>
+      <c r="AE43" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C43)/100</f>
+        <v>3.7256128424940416E-2</v>
+      </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C44" s="40">
+        <v>20180228</v>
+      </c>
+      <c r="D44" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C44)/100</f>
+        <v>6.859927115045128E-3</v>
+      </c>
+      <c r="E44" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C44)/100</f>
+        <v>-1.1217349722561276E-2</v>
+      </c>
+      <c r="F44" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C44)/100</f>
+        <v>1.1804481497836861E-3</v>
+      </c>
+      <c r="G44" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C44)/100</f>
+        <v>-2.3019369086032526E-3</v>
+      </c>
+      <c r="H44" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C44)/100</f>
+        <v>-1.4215893317187311E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C44)/100</f>
+        <v>-4.0033757568920914E-2</v>
+      </c>
+      <c r="J44" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C44)/100</f>
+        <v>1.647675130311943E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C44)/100</f>
+        <v>4.9339906333318861E-3</v>
+      </c>
+      <c r="L44" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C44)/100</f>
+        <v>-5.6447389527831682E-2</v>
+      </c>
+      <c r="M44" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C44)/100</f>
+        <v>-2.9107887660985488E-2</v>
+      </c>
+      <c r="N44" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C44)/100</f>
+        <v>1.3282988933797535E-2</v>
+      </c>
+      <c r="O44" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C44)/100</f>
+        <v>-2.3264197304531109E-2</v>
+      </c>
+      <c r="P44" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C44)/100</f>
+        <v>-2.4236086881510577E-2</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C44)/100</f>
+        <v>-2.8621285514080386E-2</v>
+      </c>
+      <c r="R44" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C44)/100</f>
+        <v>-3.3464186109532279E-2</v>
+      </c>
+      <c r="S44" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C44)/100</f>
+        <v>-2.6347154881216528E-2</v>
+      </c>
+      <c r="T44" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C44)/100</f>
+        <v>1.847850835346776E-2</v>
+      </c>
+      <c r="U44" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C44)/100</f>
+        <v>-1.655551163797131E-2</v>
+      </c>
+      <c r="V44" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C44)/100</f>
+        <v>-7.7272219524462393E-2</v>
+      </c>
+      <c r="W44" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C44)/100</f>
+        <v>-5.1024762255350575E-2</v>
+      </c>
+      <c r="X44" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C44)/100</f>
+        <v>4.7939057819796682E-2</v>
+      </c>
+      <c r="Y44" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C44)/100</f>
+        <v>3.2849568924959494E-2</v>
+      </c>
+      <c r="Z44" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C44)/100</f>
+        <v>5.9747569109525056E-2</v>
+      </c>
+      <c r="AA44" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C44)/100</f>
+        <v>-1.8709578072066413E-2</v>
+      </c>
+      <c r="AB44" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C44)/100</f>
+        <v>2.3941832752911729E-2</v>
+      </c>
+      <c r="AC44" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C44)/100</f>
+        <v>1.5093751898754171E-2</v>
+      </c>
+      <c r="AD44" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C44)/100</f>
+        <v>4.7270629966893463E-3</v>
+      </c>
+      <c r="AE44" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C44)/100</f>
+        <v>2.591870449739675E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C45" s="40"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
         <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D41">
+  <conditionalFormatting sqref="D7:D44">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -27498,7 +28350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E41">
+  <conditionalFormatting sqref="E7:E44">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -27510,7 +28362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F41">
+  <conditionalFormatting sqref="F7:F44">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -27522,7 +28374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z41">
+  <conditionalFormatting sqref="Z7:Z44">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -27534,7 +28386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA41">
+  <conditionalFormatting sqref="G7:AA44">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -27546,7 +28398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE41">
+  <conditionalFormatting sqref="AB7:AE44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -2632,7 +2632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,10 +2695,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2813,16 +2812,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$44</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2936,6 +2953,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6.859927115045128E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1278032308382313E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7941950513207239E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7268650812678477E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1689706982418668E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.6794478186960049E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3711005148311806E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,10 +3010,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3092,16 +3127,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$44</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3215,6 +3268,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.1217349722561276E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.865036110621503E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.2697668448709898E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.1970204812563279E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.045513680487554E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.4980326173702538E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.4205912616934722E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,10 +3325,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3371,16 +3442,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$44</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3494,6 +3583,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.1804481497836861E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5117369256552102E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.062359292874353E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9915910269308057E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1860790474521821E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.418176985558242E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4606667988090516E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,10 +3640,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3650,16 +3757,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$44</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3773,6 +3898,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.2849568924959494E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.953092231340305E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4100823373921054E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5945018217771221E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1665760885034135E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1157689382866431E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6480634857490859E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3812,10 +3955,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3929,16 +4072,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$44</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -4052,6 +4213,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5.9747569109525056E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3753050113873666E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.449849751668733E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6343740451677977E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3710247954680046E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2476927830304545E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.570357386475E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,10 +4270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4208,16 +4387,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$44</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -4331,6 +4528,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.8709578072066413E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4099168463196818E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.6322759470280168E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0797659377888031E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1934093008931224E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.6196489066829827E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.0240221743147426E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4471,7 +4686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4578,7 +4792,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4642,10 +4855,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4759,16 +4972,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$44</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -4882,6 +5113,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.3019369086032526E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.165817981516537E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.1061611767869719E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.6888751982833128E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0867944658244983E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.4072786594173676E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5637664437431216E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,10 +5170,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5038,16 +5287,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$44</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -5161,6 +5428,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.4215893317187311E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.5074462200860284E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.2904507337440974E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.1763788033042415E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1863710259981701E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0331106479631535E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.3354337753132022E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5200,10 +5485,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5317,16 +5602,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$44</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -5440,6 +5743,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-4.0033757568920914E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.8255909627715736E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.4506135805864813E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.9938436625902565E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8605871534414287E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.6211868483453249E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6354448539391164E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5479,10 +5800,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5596,16 +5917,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$44</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -5719,6 +6058,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.647675130311943E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.554205785325304E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.266869686467432E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9088965799926267E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7590401481421676E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5681661679590295E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9561261330455446E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,10 +6115,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5875,16 +6232,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$44</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -5998,6 +6373,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.9339906333318861E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5691031751830629E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5465690172161706E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.903999530090684E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0138379701063256E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3066874687503125E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7623849044493998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6138,7 +6531,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6245,7 +6637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6309,10 +6700,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6426,16 +6817,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$44</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -6549,6 +6958,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-5.6447389527831682E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.28240397169668E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.6591302625066507E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.0567281492203566E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.1714819567801977E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.8516273791171063E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.3249603761693947E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,10 +7015,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6705,16 +7132,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$44</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -6828,6 +7273,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.9107887660985488E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.8381775184452831E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.384402923006157E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.2592810351812265E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.4601618092003958E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8984150625806051E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.1726761996922797E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,10 +7330,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6984,16 +7447,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$44</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -7107,6 +7588,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.3282988933797535E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8818726345120718E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0839393725899482E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0048836836959341E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1335815535156399E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4536015962588911E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6391745387418952E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,10 +7645,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7263,16 +7762,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$44</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -7386,6 +7903,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.3264197304531109E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.5333708518837752E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.372964209049544E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0914160842500418E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.3015772285212055E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6035712350928488E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.2002251113028066E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,7 +8061,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7633,7 +8167,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7697,10 +8230,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7814,16 +8347,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$44</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -7937,6 +8488,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.4236086881510577E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.5667123781841097E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0622178918153877E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.8280667245618507E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8975160890496445E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.0720748859350611E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.0389190409350944E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7976,10 +8545,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8093,16 +8662,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$44</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -8216,6 +8803,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.8621285514080386E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.95492126415443E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.5686172577664923E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.7305501500709881E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.2396326990216329E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.2446586092042986E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.4062638079120013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8255,10 +8860,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8372,16 +8977,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$44</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -8495,6 +9118,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-3.3464186109532279E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1027305652734807E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.3567213153362854E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4119757735729488E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.704163962330977E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8646548556944254E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1328509383252037E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,10 +9175,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8651,16 +9292,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$44</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -8774,6 +9433,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.6347154881216528E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3720927898525304E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.7904262821945571E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.8977416792933592E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0908363247094766E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8547555903021298E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0365100099107867E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8813,10 +9490,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8930,16 +9607,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$44</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -9053,6 +9748,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.847850835346776E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5063796753711296E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2867152298701185E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.68225767278867E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5589338358050808E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.3939077032603597E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.2420476533874729E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9092,10 +9805,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9209,16 +9922,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$44</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -9332,6 +10063,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.655551163797131E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.7409349409779376E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1286505148520587E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.6375652516967847E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0093458293135349E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3666187249351545E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3688585611476123E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9373,10 +10122,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9490,16 +10239,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$44</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -9613,6 +10380,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-7.7272219524462393E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.8795459583474772E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.2152154423242409E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.9351551797084188E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.0942567041581297E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.7710072689031064E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.6548408324945898E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9654,10 +10439,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9771,16 +10556,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$44</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -9894,6 +10697,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-5.1024762255350575E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.2693310476496382E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.7563410001013393E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.5726568440958142E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.5270466714682258E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.4862366675751275E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.2792501800091522E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9935,10 +10756,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10052,16 +10873,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$44</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -10175,6 +11014,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7939057819796682E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0466584861199815E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2654032021982369E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0365340172684672E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3270506928197117E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8934145260777662E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8776363015162305E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10315,7 +11172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10422,7 +11278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10486,10 +11341,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10603,16 +11458,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$44</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -10726,6 +11599,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.3941832752911729E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4218801734400719E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2434017378661908E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3274998364647193E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1856134090596733E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9466202060826507E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3748979331693407E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10765,10 +11656,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10882,16 +11773,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$44</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -11005,6 +11914,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.5093751898754171E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6493756743457544E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3851591984164857E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2471042247657715E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6004952236331924E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1966046343296908E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1545610222926124E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11044,10 +11971,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11161,16 +12088,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$44</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -11284,6 +12229,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7270629966893463E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.613376871389077E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6072782006995059E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.6210590832788085E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4839262957156762E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.6815298073537033E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0777535742163353E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11323,10 +12286,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$44</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11440,16 +12403,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$44</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -11563,6 +12544,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.591870449739675E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6629768644444995E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4728482901934079E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2409583793619792E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2396949461614533E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.027732156459173E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9610919854210058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11703,7 +12702,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11810,7 +12808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11954,93 +12951,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$44:$AE$44</c:f>
+              <c:f>'2018累积涨跌幅'!$D$50:$AE$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>6.859927115045128E-3</c:v>
+                  <c:v>1.3711005148311806E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1217349722561276E-2</c:v>
+                  <c:v>-2.4205912616934722E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1804481497836861E-3</c:v>
+                  <c:v>1.4606667988090516E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3019369086032526E-3</c:v>
+                  <c:v>3.5637664437431216E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.4215893317187311E-2</c:v>
+                  <c:v>-4.3354337753132022E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.0033757568920914E-2</c:v>
+                  <c:v>-1.6354448539391164E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.647675130311943E-2</c:v>
+                  <c:v>2.9561261330455446E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9339906333318861E-3</c:v>
+                  <c:v>2.7623849044493998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.6447389527831682E-2</c:v>
+                  <c:v>-3.3249603761693947E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.9107887660985488E-2</c:v>
+                  <c:v>-1.1726761996922797E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3282988933797535E-2</c:v>
+                  <c:v>2.6391745387418952E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.3264197304531109E-2</c:v>
+                  <c:v>-9.2002251113028066E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4236086881510577E-2</c:v>
+                  <c:v>-2.0389190409350944E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.8621285514080386E-2</c:v>
+                  <c:v>-2.4062638079120013E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.3464186109532279E-2</c:v>
+                  <c:v>2.1328509383252037E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.6347154881216528E-2</c:v>
+                  <c:v>3.0365100099107867E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.847850835346776E-2</c:v>
+                  <c:v>8.2420476533874729E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.655551163797131E-2</c:v>
+                  <c:v>1.3688585611476123E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.7272219524462393E-2</c:v>
+                  <c:v>-5.6548408324945898E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.1024762255350575E-2</c:v>
+                  <c:v>-3.2792501800091522E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7939057819796682E-2</c:v>
+                  <c:v>4.8776363015162305E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2849568924959494E-2</c:v>
+                  <c:v>2.6480634857490859E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9747569109525056E-2</c:v>
+                  <c:v>5.570357386475E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.8709578072066413E-2</c:v>
+                  <c:v>-1.0240221743147426E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3941832752911729E-2</c:v>
+                  <c:v>3.3748979331693407E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5093751898754171E-2</c:v>
+                  <c:v>3.1545610222926124E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.7270629966893463E-3</c:v>
+                  <c:v>3.0777535742163353E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.591870449739675E-2</c:v>
+                  <c:v>3.9610919854210058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15543,16 +16540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15574,14 +16571,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15603,16 +16600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15634,15 +16631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15664,15 +16661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15693,16 +16690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16040,8 +17037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="I214" sqref="I214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16064,7 +17061,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180228</v>
+        <v>20180309</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -16072,7 +17069,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>20180226</v>
+        <v>20180305</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -16080,7 +17077,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>20180201</v>
+        <v>20180301</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -16134,31 +17131,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>2878.6666</v>
+        <v>2908.1974</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>-1.6545472633498037E-2</v>
+        <v>3.4307549696641626E-3</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>-2.6547128995922042E-2</v>
+        <v>1.5367032711662398E-2</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>-7.6412978288763589E-2</v>
+        <v>1.0258499542809218E-2</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>6.3732585130458208E-3</v>
+        <v>1.6697138125397304E-2</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>477.25005592000002</v>
+        <v>393.03801991</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>0.63011998000000002</v>
+        <v>1.1443249520000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -16170,31 +17167,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3259.4079999999999</v>
+        <v>3307.1655999999998</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>-9.9207856557272933E-3</v>
+        <v>5.7049229482191155E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>-9.0045250808591382E-3</v>
+        <v>1.6173557317046505E-2</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>-6.3612754347852518E-2</v>
+        <v>1.4652231325443132E-2</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>-1.4442580717223596E-2</v>
+        <v>-1.9654253856637993E-6</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>1802.338152</v>
+        <v>2023.4918190000001</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>14.448081905999999</v>
+        <v>11.971930376</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -16206,31 +17203,31 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4023.6415000000002</v>
+        <v>4108.8652000000002</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>-8.7063978576294998E-3</v>
+        <v>7.6675248266744322E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>-1.1654719699193961E-2</v>
+        <v>2.3006373023415572E-2</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>-5.8995108069213827E-2</v>
+        <v>2.1180738890380857E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>-1.789545934784087E-3</v>
+        <v>1.9353289050419553E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1524.9390926200001</v>
+        <v>1500.24119651</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
-        <v>0</v>
+        <v>3.15175456E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16253,31 +17250,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7477.2628000000004</v>
+        <v>7665.1674000000003</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>4.5285759392814651E-3</v>
+        <v>1.913837581263711E-2</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>2.6367014269871092E-2</v>
+        <v>2.8019580629476293E-2</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>7.62813858665079E-3</v>
+        <v>2.513013184450319E-2</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>-1.0270652276222592E-2</v>
+        <v>1.460137672245021E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>1052.035601</v>
+        <v>1229.8661729999999</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>907.62978899999996</v>
+        <v>1032.3272265999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -16289,31 +17286,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1453.5848000000001</v>
+        <v>1493.7194999999999</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>5.2098435525551601E-3</v>
+        <v>1.7413363993150632E-2</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>2.8801797166235765E-2</v>
+        <v>2.6245629993710162E-2</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>-5.0140478603655225E-4</v>
+        <v>2.7610841830486788E-2</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>-2.3365171047930122E-2</v>
+        <v>3.6005387404101086E-3</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>719.80789800000002</v>
+        <v>719.45705799999996</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>601.68448799999999</v>
+        <v>621.65699500000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -16325,31 +17322,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1811.7824000000001</v>
+        <v>1885.3841</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>1.5847061538187823E-3</v>
+        <v>1.5572968380423102E-2</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>2.0625418833408959E-2</v>
+        <v>3.4666163689035745E-2</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>-3.5166082930618514E-2</v>
+        <v>4.0623918192383313E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-4.6100768707673441E-2</v>
+        <v>-7.3496443718766846E-3</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>2446.4004749999999</v>
+        <v>3096.7167060000002</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2192.5164054000002</v>
+        <v>2516.0543571999997</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -16361,31 +17358,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1540.4880000000001</v>
+        <v>1626.5759</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>6.6417307707387074E-3</v>
+        <v>4.2464490246794551E-2</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>6.0523636333595698E-2</v>
+        <v>4.9490474052050759E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>2.5491296037378985E-2</v>
+        <v>5.5883525220579378E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>1.364453153761902E-2</v>
+        <v>7.0290561280503816E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>229.583268</v>
+        <v>305.01518800000002</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>191.89710120000001</v>
+        <v>198.08289580000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -16397,31 +17394,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1753.6274000000001</v>
+        <v>1856.4554000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>5.7848357248548865E-3</v>
+        <v>3.5262680306773042E-2</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>5.080965188579234E-2</v>
+        <v>4.7657868311236529E-2</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>1.0703048948824234E-2</v>
+        <v>5.8637313718980399E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>5.5652805006367601E-4</v>
+        <v>5.9226475078909102E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>775.018505</v>
+        <v>1103.187054</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>648.97036779999996</v>
+        <v>801.32586379999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16444,31 +17441,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6563.8076000000001</v>
+        <v>6837.1264000000001</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>5.2726749581426535E-3</v>
+        <v>1.6645466250983176E-2</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>3.1086050705912527E-2</v>
+        <v>3.0872080397549517E-2</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>-3.3456263512166462E-2</v>
+        <v>4.1640282082613167E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-6.4631737399718614E-2</v>
+        <v>-2.5682739093919049E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>967.04991194000002</v>
+        <v>1175.5293595099999</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.61386060999999992</v>
+        <v>0.74030851999999991</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -16480,31 +17477,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6023.6769999999997</v>
+        <v>6206.9754000000003</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>2.1827759632204735E-3</v>
+        <v>1.2307106782856403E-2</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>2.1364430551590985E-2</v>
+        <v>2.4873127072850165E-2</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>-2.6766063135022167E-2</v>
+        <v>3.0429652851572397E-2</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>-3.6338220355608741E-2</v>
+        <v>-7.014326934701498E-3</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>822.66508208000005</v>
+        <v>984.13231492</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.52657166200000005</v>
+        <v>0.43475344999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -16516,31 +17513,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4132.0514000000003</v>
+        <v>4208.8577999999998</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>-1.3092530906335331E-2</v>
+        <v>5.5788696013294725E-3</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>-2.2737507603430962E-2</v>
+        <v>2.1050285041311678E-2</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>-6.968193739703743E-2</v>
+        <v>1.8587958513778258E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>1.2448130136680113E-2</v>
+        <v>3.1267473977013127E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>825.19559508999998</v>
+        <v>789.32748318999995</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.18903916800000001</v>
+        <v>0.35070008600000002</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -16552,31 +17549,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4238.7597999999998</v>
+        <v>4351.4660000000003</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>5.7077547425454789E-4</v>
+        <v>1.2017437581595569E-2</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>1.2295441565653764E-2</v>
+        <v>2.7078863160799882E-2</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>-3.5908254660103389E-2</v>
+        <v>2.6589428351189159E-2</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>-3.0351822202335565E-2</v>
+        <v>-4.5694314529235447E-3</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>699.74349700000005</v>
+        <v>710.91371300000003</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>658.28647819999992</v>
+        <v>648.95993959999998</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -16599,31 +17596,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>8885.7528000000002</v>
+        <v>9012.4999000000007</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>-1.4546555869162314E-2</v>
+        <v>1.0281102634875916E-2</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>-1.976836700549145E-2</v>
+        <v>1.0521442861607389E-2</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>-6.7875431376613893E-2</v>
+        <v>1.4264081260509487E-2</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>-2.3842159564655407E-2</v>
+        <v>-9.9181648056021476E-3</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>87.157858489999995</v>
+        <v>91.517517040000001</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>1.582742326</v>
+        <v>1.2957420420000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -16635,31 +17632,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>12443.4948</v>
+        <v>12577.0128</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>-2.1279508924753276E-2</v>
+        <v>6.0087786554734457E-3</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>-3.5751155549292868E-2</v>
+        <v>7.6851276017952941E-3</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>-7.340235783101845E-2</v>
+        <v>1.0729943809676401E-2</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>-2.2273058823647718E-2</v>
+        <v>-1.1782103683618761E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>132.86887306</v>
+        <v>121.18442804</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>6.8428945900000002</v>
+        <v>6.9873234319999993</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -16671,31 +17668,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>12968.490900000001</v>
+        <v>13818.928</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>1.5072644880920194E-4</v>
+        <v>8.4106145070594884E-3</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>1.9712230299548494E-2</v>
+        <v>5.4776656042898386E-2</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>-2.7779701120445921E-2</v>
+        <v>6.5577182924190458E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>-4.4585970227440604E-2</v>
+        <v>1.8067390371292458E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>126.27305051</v>
+        <v>189.59400939</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.13815279600000002</v>
+        <v>0.17683379800000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -16707,27 +17704,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>9740.0779999999995</v>
+        <v>10403.1273</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>-1.9262055149058543E-3</v>
+        <v>9.2865254291445432E-3</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>1.160829922203277E-2</v>
+        <v>5.8892297802470628E-2</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>-2.8782275430434545E-2</v>
+        <v>6.8074331642929309E-2</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>-3.5460992626871302E-2</v>
+        <v>3.0199355643588888E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>202.13364179000001</v>
+        <v>298.86155532999999</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -16743,31 +17740,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>6975.0410000000002</v>
+        <v>7484.3432000000003</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>5.3108639292431814E-3</v>
+        <v>9.6312842921986164E-3</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>3.4089175679213657E-2</v>
+        <v>5.8069833506548374E-2</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>-5.0536558214824279E-3</v>
+        <v>7.3017807350523212E-2</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>4.5937678566392304E-3</v>
+        <v>7.7947002063531556E-2</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>37.586845439999998</v>
+        <v>53.588857529999999</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>35.315391964</v>
+        <v>49.090161475999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -16779,31 +17776,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8316.9922999999999</v>
+        <v>8721.3516999999993</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>-2.9105280829064828E-3</v>
+        <v>1.733221084856984E-2</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>1.6837099415999646E-2</v>
+        <v>4.3030215812917882E-2</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>-2.805238345569494E-2</v>
+        <v>4.8618465115087162E-2</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>-2.6238557326537904E-2</v>
+        <v>2.1104229404498964E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>285.30003099999999</v>
+        <v>344.27801899999997</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>264.85327280000001</v>
+        <v>289.9041532</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -16815,27 +17812,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1594.2623000000001</v>
+        <v>1649.9521</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>6.1648699102130333E-3</v>
+        <v>1.219813918226631E-2</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>3.2023121282512168E-2</v>
+        <v>2.9220415884488427E-2</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>-3.3468791149631305E-2</v>
+        <v>3.4931391151882485E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-8.3464481554767933E-2</v>
+        <v>-5.1448620855364065E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>170.67683647999999</v>
+        <v>186.16927987</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -16851,27 +17848,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>9695.0030999999999</v>
+        <v>9984.0478999999996</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>-1.7832757648775677E-2</v>
+        <v>1.040137647905981E-2</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>-1.6281365153450134E-2</v>
+        <v>3.6958664267381813E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>-9.8175537605807661E-2</v>
+        <v>2.9813791395280731E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>-4.733398441491965E-2</v>
+        <v>-1.8931398556892853E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>177.38308900000001</v>
+        <v>160.706366</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -16887,31 +17884,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>6786.4678000000004</v>
+        <v>6800.5228999999999</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>-1.3807157659291747E-2</v>
+        <v>1.2710305593575111E-3</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>-3.3805328041126792E-2</v>
+        <v>7.1503658658911284E-3</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>-7.4886055997324785E-2</v>
+        <v>2.0710479168559726E-3</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>4.0463146816723361E-2</v>
+        <v>4.2617995849503432E-2</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>161.20670799999999</v>
+        <v>118.67686</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>188.72412779999999</v>
+        <v>159.0752942</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16934,31 +17931,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>30844.720000000001</v>
+        <v>30996.21</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>-1.3557984256440725E-2</v>
+        <v>1.1146480192806729E-2</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>-1.3510976529055752E-2</v>
+        <v>1.3496188297919209E-2</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>-6.2107617932409598E-2</v>
+        <v>4.9113754315162073E-3</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>3.093570505846599E-2</v>
+        <v>3.599901735176303E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1353.244451</v>
+        <v>999.89471300000002</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1241.33619828</v>
+        <v>1096.9060688</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -16970,31 +17967,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>12382.08</v>
+        <v>12431.2</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>-2.0911648561582896E-2</v>
+        <v>7.8128356856155268E-3</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>-2.771718390019362E-2</v>
+        <v>1.8624358914479222E-2</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>-8.6978354403778338E-2</v>
+        <v>3.9670233111077646E-3</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>5.745689323870784E-2</v>
+        <v>6.165184938467716E-2</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>265.73347100000001</v>
+        <v>248.72222199999999</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>193.26536845000001</v>
+        <v>339.94130680000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -17006,23 +18003,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>127.45</v>
+        <v>128.19</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>8.6382911889426595E-4</v>
+        <v>-2.8004667444575526E-3</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>7.0665829145721837E-4</v>
+        <v>3.365685660613682E-3</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-5.6175392057422613E-3</v>
+        <v>5.8061985092192625E-3</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-2.2247794399693044E-2</v>
+        <v>-1.6570771001150675E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -17088,31 +18085,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3049.2483999999999</v>
+        <v>3085.1365999999998</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>-9.6522619888732564E-3</v>
+        <v>2.1708951533327969E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>-1.5112607159551317E-2</v>
+        <v>1.3261611381816696E-2</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>-5.2358446969058899E-2</v>
+        <v>1.1769523270062088E-2</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>1.8455794753486021E-2</v>
+        <v>3.0442533929367022E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>252.87930778</v>
+        <v>218.41144111</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>296.44558129799998</v>
+        <v>260.75080718200002</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -17124,31 +18121,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>4789.7758000000003</v>
+        <v>4884.4115000000002</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>-6.7558692796360065E-3</v>
+        <v>3.4939974583581002E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>-1.3099888732621134E-2</v>
+        <v>2.10072520943414E-2</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>-5.5608157861124718E-2</v>
+        <v>1.9757855889622089E-2</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>8.2067237948808547E-3</v>
+        <v>2.8126726950568282E-2</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>461.33244200000001</v>
+        <v>413.28855900000002</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>507.89006799999999</v>
+        <v>438.44062199999996</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -17160,31 +18157,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>8976.6394999999993</v>
+        <v>9265.0907000000007</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>-6.6144406922293841E-3</v>
+        <v>6.0487969609264169E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>-3.1165987887199931E-2</v>
+        <v>3.1230105676288034E-2</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>-8.3745830133536536E-2</v>
+        <v>3.2133539505513342E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>1.9003275509668072E-3</v>
+        <v>3.4094931306912546E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>236.048878</v>
+        <v>207.65157099999999</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>231.49339420000001</v>
+        <v>197.0253854</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -17196,31 +18193,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6111.0959999999995</v>
+        <v>6203.3074999999999</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>-1.093020674147227E-2</v>
+        <v>1.7199403842276251E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>-2.4872913544446096E-2</v>
+        <v>1.6268217420880138E-2</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>-6.622498523876319E-2</v>
+        <v>1.5089191856910933E-2</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>2.1200685542256181E-2</v>
+        <v>3.660977861081216E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>369.33536708999998</v>
+        <v>312.16299326000001</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>404.16259795600001</v>
+        <v>349.19872163599996</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -17265,27 +18262,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>1876.43</v>
+        <v>1932.96</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>-1.6865588749986782E-2</v>
+        <v>1.0518391501641577E-2</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>-1.445933738103744E-2</v>
+        <v>3.6523044748907552E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>-9.8667524881835278E-2</v>
+        <v>3.012635696508803E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>-4.8111116183982894E-2</v>
+        <v>-1.9434171879042395E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>214.09479999999999</v>
+        <v>228.23169999999999</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -17302,27 +18299,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>3795.41</v>
+        <v>3804.85</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>-1.3830859732269052E-2</v>
+        <v>1.4449802071927476E-3</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>-3.3565642959541453E-2</v>
+        <v>7.4269222622325159E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>-7.5735252933827879E-2</v>
+        <v>2.487214820006356E-3</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>4.2010877473307451E-2</v>
+        <v>4.4602582370366628E-2</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>168.66030000000001</v>
+        <v>124.9555</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -17339,27 +18336,27 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11328.24</v>
+        <v>11462</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>-2.1062946876852506E-2</v>
+        <v>6.2798111052486671E-3</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>-3.1426665982660418E-2</v>
+        <v>6.5192803501303853E-3</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>-6.8909740076142589E-2</v>
+        <v>1.1807659442243379E-2</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>-1.7485916989379735E-2</v>
+        <v>-5.8847252999822963E-3</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>158.00239999999999</v>
+        <v>149.2423</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
@@ -17375,31 +18372,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7431.27</v>
+        <v>7796.27</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>-2.4270573942692941E-3</v>
+        <v>7.1828407618461654E-3</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>-2.9843848524844341E-2</v>
+        <v>3.5868838780225731E-2</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>-6.7752639138916271E-2</v>
+        <v>4.9116772772352491E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>2.8677620741684118E-2</v>
+        <v>7.9202945695657556E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>124.5228</v>
+        <v>116.9053</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>107.57098000000001</v>
+        <v>97.131879999999995</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -17413,31 +18410,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3308.83</v>
+        <v>3469.58</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>3.8347304008568006E-3</v>
+        <v>2.9558126630207404E-2</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>5.3153735243472777E-2</v>
+        <v>4.7673400368390961E-2</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>3.3189281008199734E-2</v>
+        <v>4.8582127217173365E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-4.7794043586740331E-2</v>
+        <v>-1.5338526753210235E-3</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>409.95659999999998</v>
+        <v>564.28160000000003</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>387.8177</v>
+        <v>448.56234000000006</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -17451,27 +18448,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4074.09</v>
+        <v>4426.2299999999996</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>9.0075587212585795E-3</v>
+        <v>3.3777013786869814E-2</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>5.2361173535018457E-2</v>
+        <v>5.0233478545599342E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>1.1364567275110371E-2</v>
+        <v>8.6434025757899283E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>-2.5558784486779285E-2</v>
+        <v>5.8666092634449107E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>320.79559999999998</v>
+        <v>524.47450000000003</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -17489,27 +18486,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5684.37</v>
+        <v>5972.04</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>3.5548672644236667E-4</v>
+        <v>1.5380220961034308E-2</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>-4.4328228552213966E-3</v>
+        <v>4.0151458414249941E-2</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>-8.556832472010667E-3</v>
+        <v>5.0607191298244203E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>5.3257957286907187E-2</v>
+        <v>0.1065603842177234</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>18.304500000000001</v>
+        <v>23.1873</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -17527,27 +18524,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>7705.98</v>
+        <v>8251.51</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>-1.3128376863471569E-3</v>
+        <v>9.3071670935560569E-3</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>1.6626758751706827E-2</v>
+        <v>6.0786741178119108E-2</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>-3.3140069584986942E-2</v>
+        <v>7.0793072393128487E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>-4.5771155367829837E-2</v>
+        <v>2.1781636309826879E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>228.01519999999999</v>
+        <v>342.2244</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -17565,27 +18562,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3335.56</v>
+        <v>3293.18</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>-2.7207548749349497E-3</v>
+        <v>1.9134105784268662E-4</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>-1.8517047276878751E-2</v>
+        <v>2.1697783052601061E-3</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>-7.8383643019962701E-2</v>
+        <v>-1.2705512717504752E-2</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>-2.6614061095612263E-2</v>
+        <v>-3.8981428521402295E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>84.546000000000006</v>
+        <v>72.207300000000004</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -17603,27 +18600,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>4854.32</v>
+        <v>5033.51</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>-5.0747272026694379E-3</v>
+        <v>1.2517902833877992E-2</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>1.1887961745068454E-2</v>
+        <v>2.8834283098004398E-2</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>-3.3254336526397643E-2</v>
+        <v>3.6913512088202038E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-6.67335713448034E-2</v>
+        <v>-3.228342974912668E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>107.0724</v>
+        <v>147.67959999999999</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -17641,27 +18638,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>898.67</v>
+        <v>933.03</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>2.5547200963875749E-3</v>
+        <v>2.8596941869053705E-2</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>4.2939872573026783E-2</v>
+        <v>2.9084772682152149E-2</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>-2.0928661698697004E-2</v>
+        <v>3.8234279546440764E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>-3.2470958087055801E-2</v>
+        <v>4.5218177707437857E-3</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>236.39830000000001</v>
+        <v>305.35789999999997</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -17679,27 +18676,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2573.41</v>
+        <v>2690.41</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>8.2235682215308081E-3</v>
+        <v>3.2299528437628178E-2</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>5.0577255952186428E-2</v>
+        <v>4.0676917126003298E-2</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>-8.6292910498072528E-3</v>
+        <v>4.5464966717312816E-2</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-8.0373223934360749E-2</v>
+        <v>-3.8562423168186699E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>143.4417</v>
+        <v>241.65780000000001</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -17717,27 +18714,27 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2894.95</v>
+        <v>2971.79</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>-7.628159991164285E-4</v>
+        <v>7.8750038154087321E-3</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>9.5023886738501151E-3</v>
+        <v>1.9712868093633595E-2</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>-3.3705727436889377E-2</v>
+        <v>2.6542772759460487E-2</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>-2.7829083020464718E-2</v>
+        <v>-2.0249712877206116E-3</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>86.187700000000007</v>
+        <v>95.562600000000003</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
@@ -17755,27 +18752,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>4941.57</v>
+        <v>5064.03</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>4.3841463414633353E-3</v>
+        <v>-2.1721358414383829E-5</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>-1.8706176016776155E-2</v>
+        <v>2.985630091799818E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>-0.11427746928738136</v>
+        <v>2.4781597751321938E-2</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>6.3498011359586215E-3</v>
+        <v>3.1288757104832587E-2</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>201.92580000000001</v>
+        <v>171.6934</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -17793,31 +18790,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2621.13</v>
+        <v>2682.14</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>5.1539868619352447E-3</v>
+        <v>1.1822845933302961E-2</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>1.9863194920002547E-2</v>
+        <v>1.6732373009855861E-2</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>-4.3536804308797139E-2</v>
+        <v>2.3276220561360805E-2</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>-3.9601203278604391E-2</v>
+        <v>-1.7246749059251609E-2</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>36.379399999999997</v>
+        <v>44.468899999999998</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>35.109760000000001</v>
+        <v>35.357999999999997</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -17831,27 +18828,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3103.88</v>
+        <v>3145.6</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>-3.2851299558755986E-4</v>
+        <v>8.9359600223239966E-3</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>1.5039782333569951E-2</v>
+        <v>1.1021081152311929E-2</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>-3.1662491381650115E-2</v>
+        <v>1.3441241285101269E-2</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>-2.6264274061990167E-2</v>
+        <v>-1.3176057221734205E-2</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>296.50569999999999</v>
+        <v>307.9486</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -17869,27 +18866,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1338.94</v>
+        <v>1391.54</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>-2.0422157295331145E-3</v>
+        <v>1.4811519584606581E-2</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>2.1787406802554976E-2</v>
+        <v>2.9877809602048444E-2</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>-4.5564061987653733E-2</v>
+        <v>3.928480738494633E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-8.1861319874924524E-2</v>
+        <v>-4.5792418673542112E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>178.90780000000001</v>
+        <v>251.13890000000001</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -17907,31 +18904,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2722.48</v>
+        <v>2785.28</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>8.7864739769627498E-4</v>
+        <v>1.5180618377842459E-2</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>3.4868891493613496E-3</v>
+        <v>2.0245347086640608E-2</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>-7.2724795640326967E-2</v>
+        <v>2.306720343216484E-2</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>-7.1662392929237817E-2</v>
+        <v>-5.0248240493207419E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>56.351100000000002</v>
+        <v>62.323</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>62.035119999999992</v>
+        <v>59.465400000000002</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -17945,27 +18942,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2484.2399999999998</v>
+        <v>2571.04</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>-1.7306121134808006E-4</v>
+        <v>9.0780286587830439E-3</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>2.3702775763170036E-2</v>
+        <v>3.5924379905555304E-2</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>-6.3956774353989165E-2</v>
+        <v>3.4940263420603523E-2</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-0.10319806794676033</v>
+        <v>-7.1863572204713955E-2</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>27.604700000000001</v>
+        <v>52.912700000000001</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -17983,27 +18980,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2859.83</v>
+        <v>2907.12</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>-7.2930117604588229E-3</v>
+        <v>8.9962515618493555E-3</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>6.4508182298081973E-3</v>
+        <v>1.8926648721399708E-2</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>-3.5737165438226248E-2</v>
+        <v>1.6535947940961471E-2</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>-1.6520683524366642E-2</v>
+        <v>-2.579207461130828E-4</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>93.252600000000001</v>
+        <v>134.97030000000001</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -18021,31 +19018,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4231.68</v>
+        <v>4361.05</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>-5.2433926167350098E-4</v>
+        <v>1.2970331296266568E-2</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>1.0869097840991104E-2</v>
+        <v>2.7025945001401208E-2</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>-5.8513620546957752E-2</v>
+        <v>3.057178236539615E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>-4.3882600149122035E-2</v>
+        <v>-1.4652387085112517E-2</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>73.351699999999994</v>
+        <v>82.643799999999999</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>66.338899999999995</v>
+        <v>72.88646</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -18059,27 +19056,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3354.42</v>
+        <v>3175.23</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>7.269811813669369E-3</v>
+        <v>-1.6219582473556038E-2</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>-5.6764792193433333E-3</v>
+        <v>-2.7175827912976014E-2</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>1.6466267484424701E-2</v>
+        <v>-5.3419070957125288E-2</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>8.3780544148673197E-2</v>
+        <v>2.5885994358843423E-2</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>100.73390000000001</v>
+        <v>101.8168</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -18097,27 +19094,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>4914.95</v>
+        <v>5107.4799999999996</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>3.0366913125730033E-3</v>
+        <v>1.8308693788442243E-2</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>3.3062541380723731E-2</v>
+        <v>2.8881310043492148E-2</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>-3.7731490092351327E-2</v>
+        <v>3.9172321183328362E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-8.6746070088074667E-2</v>
+        <v>-5.0971793823627924E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>129.57079999999999</v>
+        <v>191.7816</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -18135,27 +19132,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>2850.72</v>
+        <v>2891.91</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>2.5614124961848006E-4</v>
+        <v>6.4978908827664217E-3</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>1.2426617608932489E-2</v>
+        <v>1.8030830537651088E-2</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>-6.830385886244128E-2</v>
+        <v>1.4448981309984843E-2</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>-5.5321010319253967E-2</v>
+        <v>-4.1671361253421517E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>108.2884</v>
+        <v>127.7197</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -18173,27 +19170,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2472.7199999999998</v>
+        <v>2560.09</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>8.7834692679744641E-4</v>
+        <v>3.1464777473884098E-3</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>2.096244761452537E-2</v>
+        <v>2.6964903905939863E-2</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>-4.2008407105360135E-2</v>
+        <v>3.5333559804587855E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-7.7890356094705182E-2</v>
+        <v>-4.5308939845390202E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>94.813999999999993</v>
+        <v>167.8092</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -18211,27 +19208,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>3977.26</v>
+        <v>3987.35</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>7.7380711071473041E-3</v>
+        <v>2.8142730674822758E-3</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>2.1038521911558306E-3</v>
+        <v>6.6803167974873734E-3</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>-2.8018700313545475E-2</v>
+        <v>2.5369224038658267E-3</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-4.0687900239993136E-2</v>
+        <v>-3.8254199881812334E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>346.47070000000002</v>
+        <v>288.24869999999999</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -18249,27 +19246,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>5859.96</v>
+        <v>6010.32</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>-4.9041916574401601E-3</v>
+        <v>2.6758843430736423E-3</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>-3.7114551862612588E-3</v>
+        <v>1.8888267304073558E-2</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>-5.9346642759568358E-2</v>
+        <v>2.5658878217598602E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>-2.3724001892588831E-2</v>
+        <v>1.3261450496138139E-3</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>78.359800000000007</v>
+        <v>120.38330000000001</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -18287,27 +19284,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1176.21</v>
+        <v>1211.71</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>5.5397399399861325E-3</v>
+        <v>1.5768295749853278E-2</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>5.9505472233482015E-2</v>
+        <v>2.5039970899493502E-2</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>-4.0674344251598542E-2</v>
+        <v>3.0181685243281464E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-8.4105527090373902E-2</v>
+        <v>-5.6462288392954418E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>91.060100000000006</v>
+        <v>75.386399999999995</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -18391,31 +19388,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1447.7260000000001</v>
+        <v>1555.2946999999999</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>-1.2951262267236863E-2</v>
+        <v>2.1288752205861128E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>4.0340215394056855E-2</v>
+        <v>7.2016187892482542E-2</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>-2.4072622739016336E-2</v>
+        <v>7.4301836120923337E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-7.6980555861055344E-2</v>
+        <v>-8.3985163862178025E-3</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>33.765739670000002</v>
+        <v>52.82581416</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>58.522482969999999</v>
+        <v>41.795387585999997</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -18427,31 +19424,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>9362.8382999999994</v>
+        <v>9899.1990999999998</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>3.3413677042464229E-3</v>
+        <v>2.8641130361487965E-2</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>6.204747777913977E-2</v>
+        <v>4.1678015561950277E-2</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>2.5818173694603042E-2</v>
+        <v>5.7286132988113359E-2</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-8.1624492398234438E-2</v>
+        <v>-2.9014310936733678E-2</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>100.88672898</v>
+        <v>118.34333391</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>91.287716152000002</v>
+        <v>89.935620040000003</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -18463,31 +19460,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2242.5868999999998</v>
+        <v>2354.4180000000001</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>1.3702500832544207E-3</v>
+        <v>2.4348584933550299E-2</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>4.6004699072727417E-2</v>
+        <v>4.3232909049830015E-2</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>-9.9837012328262142E-3</v>
+        <v>4.9867008498087895E-2</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-9.0180935613149438E-2</v>
+        <v>-4.4810980597648091E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>97.846930650000004</v>
+        <v>144.55536247000001</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>100.814231432</v>
+        <v>108.645966288</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -18499,31 +19496,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3139.6979000000001</v>
+        <v>3407.7357999999999</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>6.957010568838351E-3</v>
+        <v>3.339999704633323E-2</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>6.4382812482519869E-2</v>
+        <v>6.2106903488325482E-2</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>-5.48483541534317E-3</v>
+        <v>8.5370602056968448E-2</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>-1.4661830471257242E-2</v>
+        <v>6.9457082291122907E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>88.599589170000002</v>
+        <v>133.42092281000001</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>62.436587898000006</v>
+        <v>97.831754106000005</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -18536,31 +19533,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1872.1472000000001</v>
+        <v>1906.3493000000001</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>-7.5849113453916317E-3</v>
+        <v>1.3710124050386074E-2</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>3.7896429185215741E-2</v>
+        <v>1.0515760521326412E-2</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>-5.4698269981385161E-2</v>
+        <v>1.8268916033952864E-2</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-8.352131010118502E-2</v>
+        <v>-6.6778237868516443E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>12.830365499999999</v>
+        <v>11.152789370000001</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>12.940045004000002</v>
+        <v>10.771933731999999</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -18573,31 +19570,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>5784.1102000000001</v>
+        <v>6149.2699000000002</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>1.6216818840186775E-3</v>
+        <v>2.1120101153041304E-2</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>3.0705805298856692E-2</v>
+        <v>4.3848116291628658E-2</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>-3.4312990560155243E-2</v>
+        <v>6.3131525398668842E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-0.10094282938470724</v>
+        <v>-4.4183978783152389E-2</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>119.10721959</v>
+        <v>133.76943048000001</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>107.37348518399999</v>
+        <v>111.46626181399999</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -18610,31 +19607,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6574.8122000000003</v>
+        <v>6865.8091999999997</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>1.329540104557192E-2</v>
+        <v>3.2845722633983776E-2</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>4.8055506605050535E-2</v>
+        <v>3.8007254913833277E-2</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>-2.6545219272917864E-2</v>
+        <v>4.4259363027889798E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>-4.5360813246304144E-2</v>
+        <v>-3.1090909191227034E-3</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>78.901554500000003</v>
+        <v>108.84275959999999</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>54.426085165999993</v>
+        <v>72.892274205999996</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -18647,31 +19644,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2740.0365999999999</v>
+        <v>2906.4196000000002</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>5.8556167145127347E-3</v>
+        <v>2.8161909079743364E-2</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>4.5038418379127476E-2</v>
+        <v>4.0238125021362814E-2</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>-8.7924004187905913E-3</v>
+        <v>6.072291151147402E-2</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-9.1537061294932998E-2</v>
+        <v>-3.6372546656491589E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>97.326475270000003</v>
+        <v>132.55387518000001</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>96.755359045999995</v>
+        <v>110.09786556399999</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -18684,31 +19681,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>5000.1125000000002</v>
+        <v>5576.982</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>1.3696392556692194E-2</v>
+        <v>3.0184255985118424E-2</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>5.9009005059280417E-2</v>
+        <v>4.6435328221025696E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>5.3391128935586174E-2</v>
+        <v>0.11537130414565677</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>-4.6756913116020919E-2</v>
+        <v>6.3219984985615207E-2</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>85.011226390000004</v>
+        <v>139.76788687999999</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>81.967997854000004</v>
+        <v>115.66930525800001</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -18722,31 +19719,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1715.2911999999999</v>
+        <v>1764.8662999999999</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-2.6144509132669524E-3</v>
+        <v>5.1644305901599186E-3</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>9.3888414324556635E-3</v>
+        <v>1.5431995769038975E-2</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>-5.7217977950011045E-2</v>
+        <v>2.8901856431141182E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-7.2666893513846698E-2</v>
+        <v>-4.5865245206339722E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>42.260712050000002</v>
+        <v>44.917112080000003</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>43.830181967999998</v>
+        <v>43.659969771999997</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -18760,31 +19757,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2437.0055000000002</v>
+        <v>2473.6718000000001</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>1.0984535179372479E-3</v>
+        <v>1.2601769439119836E-2</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>2.1376477094814605E-2</v>
+        <v>1.5410467233294867E-2</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>-4.1460609351201105E-2</v>
+        <v>1.5045636950757668E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-6.7720343053656151E-2</v>
+        <v>-5.3693601798664448E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>14.340681529999999</v>
+        <v>43.498445080000003</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>15.708743780000001</v>
+        <v>27.489311992000001</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -18798,31 +19795,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>924.35400000000004</v>
+        <v>975.40139999999997</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>2.1179522472021262E-3</v>
+        <v>2.2900822598168613E-2</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>2.5278749053311511E-2</v>
+        <v>4.0821174075330813E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>-4.4191785368809411E-2</v>
+        <v>5.5224946286812182E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>-4.9454380846148949E-2</v>
+        <v>3.0394499147869958E-3</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>39.895229569999998</v>
+        <v>48.857376610000003</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>33.417170390000003</v>
+        <v>38.300837999999999</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -18836,31 +19833,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2306.3022000000001</v>
+        <v>2375.9149000000002</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>1.0888743965820069E-4</v>
+        <v>1.6400613421451826E-2</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>2.4995092356800752E-2</v>
+        <v>2.257417651209348E-2</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>-5.0599464173552988E-2</v>
+        <v>3.018368538173366E-2</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-0.11846112194798086</v>
+        <v>-9.1853029801092223E-2</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>34.300170659999999</v>
+        <v>43.481465989999997</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>33.012557319999999</v>
+        <v>33.860249019999998</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -18874,31 +19871,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1458.4091000000001</v>
+        <v>1584.9244000000001</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>1.2637194506991412E-2</v>
+        <v>4.4468815813735407E-2</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>7.4191602944021051E-2</v>
+        <v>6.8708273295698286E-2</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>-3.2861290269314947E-2</v>
+        <v>8.6748841597326778E-2</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>-7.1041682285625685E-2</v>
+        <v>9.5443756682977998E-3</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>19.428105049999999</v>
+        <v>23.90134827</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>13.355165099999999</v>
+        <v>18.841601102000002</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -18912,31 +19909,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1951.2691</v>
+        <v>1961.3512000000001</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>1.128560364232345E-2</v>
+        <v>1.2369131749282669E-2</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>3.2436468542570651E-2</v>
+        <v>7.6491588021427859E-3</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>-1.5562660532347228E-2</v>
+        <v>5.1669449385531863E-3</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-6.6921169346615073E-2</v>
+        <v>-6.2100002405299559E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>49.616409130000001</v>
+        <v>38.780151580000002</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>48.731201478000003</v>
+        <v>43.836145569999999</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -18950,31 +19947,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4592.2842000000001</v>
+        <v>4724.6779999999999</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>5.1498264549436623E-3</v>
+        <v>1.6373593025270194E-2</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>1.5458784057169161E-2</v>
+        <v>3.1434277746174022E-2</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>-2.4936698591148332E-2</v>
+        <v>2.8829618166924309E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>8.9585448062250439E-3</v>
+        <v>3.8046434399244156E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>11.292046340000001</v>
+        <v>13.060740940000001</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>13.574158665999999</v>
+        <v>11.277178852</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -18988,31 +19985,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4061.0691000000002</v>
+        <v>4444.1448</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>8.5676124921181263E-3</v>
+        <v>2.9761954552413261E-2</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>5.592580366260913E-2</v>
+        <v>4.4097834887932619E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>3.3305277190498472E-4</v>
+        <v>9.4328781551636265E-2</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>-6.7001993448080777E-2</v>
+        <v>2.1006571700067367E-2</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>112.85010561999999</v>
+        <v>200.48110299000001</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>98.968404071999998</v>
+        <v>159.41316925000001</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -19026,31 +20023,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2496.1386000000002</v>
+        <v>2640.6529</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>5.6020526679001481E-3</v>
+        <v>2.6094714190979529E-2</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>5.2174326500397106E-2</v>
+        <v>4.8740182704148038E-2</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>5.9421442900358112E-3</v>
+        <v>5.7895142521332765E-2</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-7.8279896968048823E-2</v>
+        <v>-2.4916780238236624E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>56.215190710000002</v>
+        <v>67.214051330000004</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>46.236612950000001</v>
+        <v>54.879750872000002</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -19064,31 +20061,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2517.2365</v>
+        <v>2616.5779000000002</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>1.5990027200708523E-2</v>
+        <v>4.1521289908303505E-2</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>6.0099688860283385E-2</v>
+        <v>3.3302263447071878E-2</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>-2.2405624014390502E-2</v>
+        <v>3.9464468277017328E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>-3.8434409644456213E-2</v>
+        <v>-4.8673490759842952E-4</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>45.302642380000002</v>
+        <v>59.885044329999999</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>34.747691762000002</v>
+        <v>42.953898542000005</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -19102,31 +20099,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3717.7817</v>
+        <v>3894.0902000000001</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>4.5063319362093068E-3</v>
+        <v>2.1016779107009276E-2</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>3.4031450308422695E-2</v>
+        <v>3.8765516333862715E-2</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>-2.8360142550393319E-2</v>
+        <v>4.7423037237501076E-2</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>-2.7663194137683478E-2</v>
+        <v>1.8447970414118053E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>65.266802380000001</v>
+        <v>68.775359019999996</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>52.271233447999997</v>
+        <v>51.375498970000002</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -19140,31 +20137,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3333.2528000000002</v>
+        <v>3505.6527000000001</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>7.0997717262577531E-3</v>
+        <v>3.2823744689902679E-2</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>5.4279677635657553E-2</v>
+        <v>3.7374880890552298E-2</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>-1.2480055195008166E-2</v>
+        <v>5.1721219584665024E-2</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-7.7055481482853572E-2</v>
+        <v>-2.931966537616526E-2</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>216.77521639</v>
+        <v>297.42724792000001</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>202.71208782000002</v>
+        <v>205.40848886200001</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -19178,31 +20175,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>1968.5615</v>
+        <v>2019.9994999999999</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>8.1983916754762021E-3</v>
+        <v>7.9470155055720859E-3</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>2.6270130570743122E-2</v>
+        <v>8.9420256274332921E-3</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>-4.6312034047025996E-2</v>
+        <v>2.6129739914145356E-2</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-0.13217051194741458</v>
+        <v>-0.10949435313477462</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>21.716975959999999</v>
+        <v>32.110973209999997</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>21.444073469999999</v>
+        <v>22.117817199999998</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -19216,31 +20213,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>3772.1318000000001</v>
+        <v>4159.9943999999996</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>4.4085390701269489E-3</v>
+        <v>1.9719164551788237E-2</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>3.2038222602264632E-2</v>
+        <v>6.3365090842686156E-2</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>-3.2019382339086966E-2</v>
+        <v>0.10282318343171347</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-0.10327886323124646</v>
+        <v>-1.1075141298178326E-2</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>54.269892460000001</v>
+        <v>90.428656610000004</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>57.045018746000004</v>
+        <v>72.469276440000002</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -19254,31 +20251,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1260.7538</v>
+        <v>1303.1605</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>2.0780687798243047E-3</v>
+        <v>1.0504932796903788E-2</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>2.5333113316717171E-2</v>
+        <v>2.7272580363537191E-2</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>-6.0916905828293795E-2</v>
+        <v>3.3635988247665782E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-8.2556094712671987E-2</v>
+        <v>-5.1696962296534865E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>12.83481722</v>
+        <v>13.44765924</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>12.273973614000001</v>
+        <v>11.660885412000001</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -19292,31 +20289,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2398.1468</v>
+        <v>2472.0625</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>2.3644676033529599E-4</v>
+        <v>1.1360415969549953E-2</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>1.8066128984054242E-2</v>
+        <v>2.5111656385952363E-2</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>-6.164123223145667E-2</v>
+        <v>3.082200806055746E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-8.8217364190913972E-2</v>
+        <v>-6.0114392440529955E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>116.41796655</v>
+        <v>127.85588739000001</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>112.28575378600001</v>
+        <v>117.35231686</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -19330,31 +20327,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>4747.1016</v>
+        <v>5340.5742</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>3.7035169361034903E-3</v>
+        <v>3.6601551602387428E-2</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>5.5364405617015278E-2</v>
+        <v>7.4379006799142333E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>-1.4695563060674877E-3</v>
+        <v>0.12501788459720342</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>-6.9507953909816789E-2</v>
+        <v>4.682019332690146E-2</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>115.9802135</v>
+        <v>204.90994928000001</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>111.26663375799998</v>
+        <v>172.49268159799999</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -19368,31 +20365,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1867.2497000000001</v>
+        <v>1938.3252</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>1.9986851800386507E-3</v>
+        <v>1.2717609589087964E-2</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>2.1621447132688765E-2</v>
+        <v>2.8328290878316675E-2</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>-5.0266095925962651E-2</v>
+        <v>3.8064271746837131E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-6.2781479304244159E-2</v>
+        <v>-2.7106938846312323E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>84.278648230000016</v>
+        <v>94.257597520000004</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>87.406980726</v>
+        <v>91.378807256000002</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -19406,31 +20403,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3078.8211000000001</v>
+        <v>3280.1381000000001</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>8.6927898879274323E-3</v>
+        <v>2.5964632797225828E-2</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>4.8314726793784679E-2</v>
+        <v>3.4230973339688608E-2</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>-1.7109293805146031E-2</v>
+        <v>6.5387690112946206E-2</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-0.12656695163969278</v>
+        <v>-6.9455182139103067E-2</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>67.686753679999995</v>
+        <v>77.826655360000004</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>66.424017927999998</v>
+        <v>63.825110461999998</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -19444,31 +20441,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3253.0373</v>
+        <v>3418.7869999999998</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>2.1388163530051685E-3</v>
+        <v>1.4715207287266496E-2</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>2.6620277301064199E-2</v>
+        <v>3.6100424176059409E-2</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>-5.513929492066949E-2</v>
+        <v>5.0952290033686287E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-9.7734357346406467E-2</v>
+        <v>-5.1761856634490178E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>143.76259637000001</v>
+        <v>234.2796003</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>144.71972227399999</v>
+        <v>197.70901779000002</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -19482,31 +20479,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2204.7456999999999</v>
+        <v>2304.6091000000001</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>-5.2278261702904949E-3</v>
+        <v>8.8500568707097216E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>3.9237683986266259E-3</v>
+        <v>2.8832187222254779E-2</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>-6.8751038008294629E-2</v>
+        <v>4.5294747598328522E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>-4.7264543055991481E-2</v>
+        <v>-4.1106310057344997E-3</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>22.000198860000001</v>
+        <v>20.462740220000001</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>22.024093128000001</v>
+        <v>23.449914811999999</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -19520,31 +20517,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1277.6600000000001</v>
+        <v>1320.9097999999999</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>-6.3435150269341989E-4</v>
+        <v>9.2354019334786042E-3</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>1.6430945209339409E-2</v>
+        <v>2.4956564402744297E-2</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>-3.4789607462774597E-2</v>
+        <v>3.3850789724965802E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-6.0320805650283853E-2</v>
+        <v>-2.8511922833426295E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>8.6310259499999997</v>
+        <v>20.613093549999999</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>9.784201264</v>
+        <v>12.748445516</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -19558,31 +20555,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>3934.6821</v>
+        <v>4213.6373999999996</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>2.0798848770591238E-3</v>
+        <v>2.4500033662609111E-2</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>4.2848777811028471E-2</v>
+        <v>4.022969181617353E-2</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>-3.5278202886278698E-2</v>
+        <v>7.0896528082916799E-2</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-9.1952069842674233E-2</v>
+        <v>-2.7574624261641034E-2</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>94.633666300000002</v>
+        <v>126.8821504</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>85.171488134000001</v>
+        <v>97.185716990000003</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -19596,31 +20593,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>2984.3867</v>
+        <v>3150.3180000000002</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>-2.1939860689023094E-3</v>
+        <v>2.1530058649362527E-2</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>2.678258218873153E-2</v>
+        <v>3.8808336060342175E-2</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>-4.8742657477555455E-2</v>
+        <v>5.5599798779427667E-2</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-9.9600025608594822E-2</v>
+        <v>-4.9537968211430868E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>12.14376629</v>
+        <v>19.408223150000001</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>12.100250894</v>
+        <v>14.319441183999999</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -19634,31 +20631,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2359.1365999999998</v>
+        <v>2481.0958999999998</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>-6.7662708599108834E-3</v>
+        <v>1.0173994387578933E-3</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>2.1489084642032363E-2</v>
+        <v>1.9747986075573154E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>-4.1006177082935746E-2</v>
+        <v>5.1696582554821013E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>-2.8937231208456815E-3</v>
+        <v>4.8653263837767913E-2</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>25.76068373</v>
+        <v>26.6352853</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>33.469643552000001</v>
+        <v>30.937471202000001</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -19672,31 +20669,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2160.1271999999999</v>
+        <v>2358.6426000000001</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>2.9051429707986909E-3</v>
+        <v>2.806385806227718E-2</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>4.7070918881503276E-2</v>
+        <v>5.3704827342686334E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>-2.1567371265778235E-2</v>
+        <v>9.1899865896786212E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>-6.5463053959581741E-2</v>
+        <v>2.0420766057124951E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>60.65823116</v>
+        <v>111.06016362</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>56.588987067999994</v>
+        <v>93.700881367999997</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -19710,31 +20707,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4386.2442000000001</v>
+        <v>4544.6977999999999</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>8.8804830929807288E-3</v>
+        <v>1.9188754333073765E-2</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>3.4215903916741341E-2</v>
+        <v>2.7074164476672324E-2</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>1.5803103390562567E-2</v>
+        <v>3.6125120439030711E-2</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-6.4052081897668978E-2</v>
+        <v>-3.0240850631562233E-2</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>286.94495218999998</v>
+        <v>228.87743610999999</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>253.49401877400001</v>
+        <v>226.27691219799999</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -19748,31 +20745,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>4743.1945999999998</v>
+        <v>5138.0844999999999</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>1.2365268685936792E-2</v>
+        <v>3.277748252467938E-2</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>5.3284411541729249E-2</v>
+        <v>4.757180193495425E-2</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>-1.6689329427257649E-2</v>
+        <v>8.3253995102794173E-2</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-0.11165367788943727</v>
+        <v>-3.769529753885914E-2</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>44.369270729999997</v>
+        <v>73.269483820000005</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>43.737539845999997</v>
+        <v>62.297523306000002</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -19786,31 +20783,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>4853.4065000000001</v>
+        <v>5078.3903</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>1.3711838037266944E-4</v>
+        <v>2.4392133636146562E-2</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>2.9214869829855772E-2</v>
+        <v>2.9006096828191774E-2</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>-4.0152555694720322E-2</v>
+        <v>4.6355853357842536E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>-5.0267835109230719E-2</v>
+        <v>-6.2421901443279193E-3</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>166.85769112</v>
+        <v>190.64658155999999</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>147.32346949000001</v>
+        <v>142.00235726</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -19824,31 +20821,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>4662.9363000000003</v>
+        <v>5063.9022000000004</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>6.0214539864462679E-3</v>
+        <v>3.1875481523172988E-2</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>8.3343021521438812E-2</v>
+        <v>6.5990125970511349E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>1.3786554945557805E-2</v>
+        <v>8.5990001621939496E-2</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-0.15286574735266478</v>
+        <v>-8.0020671593519999E-2</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>154.44562237</v>
+        <v>202.12862332</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>140.183958408</v>
+        <v>183.59018579399998</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -19862,31 +20859,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1535.8624</v>
+        <v>1582.1132</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>-1.5885005974104471E-3</v>
+        <v>1.1891561383429172E-2</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>1.6557808237384286E-2</v>
+        <v>2.9596034816077754E-2</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>-6.1476361506719639E-2</v>
+        <v>3.0113895619815922E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-8.4352137493028501E-2</v>
+        <v>-5.6778413336985967E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>17.985033550000001</v>
+        <v>21.912479210000001</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>19.271089187999998</v>
+        <v>16.702932053999998</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -19900,31 +20897,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>4949.7457000000004</v>
+        <v>5230.5164999999997</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>9.4702762011784625E-3</v>
+        <v>2.3187421522623319E-2</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>5.5484421017220509E-2</v>
+        <v>4.9847728903817501E-2</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>-3.3109005702527616E-2</v>
+        <v>5.6724287876041668E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-7.099848732014824E-2</v>
+        <v>-1.830153807761814E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>55.598527310000001</v>
+        <v>65.00420957</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>49.562389789999997</v>
+        <v>52.021858085999995</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -19938,31 +20935,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>10731.738300000001</v>
+        <v>11648.368399999999</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>6.8799480297669913E-3</v>
+        <v>4.0835414134133607E-2</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>5.6045022623403717E-2</v>
+        <v>6.0893226905525344E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>1.0734003572610007E-3</v>
+        <v>8.541301272693147E-2</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>-3.6181481717249442E-2</v>
+        <v>4.6141161651287455E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>55.047645469999999</v>
+        <v>96.172034569999994</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>41.559971255999997</v>
+        <v>74.306691372000003</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -19976,31 +20973,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>1983.2525000000001</v>
+        <v>2035.0853</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>1.8939092555279036E-3</v>
+        <v>1.0408258328766351E-2</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>1.886017880748847E-2</v>
+        <v>2.3035069529536711E-2</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>-6.6456581024452954E-2</v>
+        <v>2.6135250050107084E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-8.8750887987190219E-2</v>
+        <v>-6.4935164586797378E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>118.61190569</v>
+        <v>117.47838056000001</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>128.00511784600002</v>
+        <v>117.31472607000001</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -20014,31 +21011,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2451.1858000000002</v>
+        <v>2544.0237999999999</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>4.666199852676689E-3</v>
+        <v>1.8934868962757312E-2</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>2.2803321860110914E-2</v>
+        <v>2.3117452342335865E-2</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>-3.2336346864582977E-2</v>
+        <v>3.7874729855239764E-2</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-0.11251009212431773</v>
+        <v>-7.8896651614274615E-2</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>99.719694340000004</v>
+        <v>102.44840413</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>100.350505252</v>
+        <v>88.921144518000006</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -20052,31 +21049,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1137.0814</v>
+        <v>1197.193</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>4.2425104724750362E-3</v>
+        <v>1.8673088009121486E-2</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>4.4734689002358996E-2</v>
+        <v>2.6622715661061669E-2</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>-3.1154214041140604E-2</v>
+        <v>5.2864816889978128E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-8.3454408909507172E-2</v>
+        <v>-3.5001394065191538E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>13.49977127</v>
+        <v>19.423665150000001</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>12.030293498000001</v>
+        <v>17.079245046</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -20090,31 +21087,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2780.5857999999998</v>
+        <v>2974.4618999999998</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>9.5481050769619102E-4</v>
+        <v>1.4550951507151799E-2</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>3.3310978136066982E-2</v>
+        <v>5.3926919285915531E-2</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>-3.1338110501176297E-2</v>
+        <v>6.9724911923235711E-2</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-8.6985244094457737E-2</v>
+        <v>-2.3325370654329158E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>52.860191870000001</v>
+        <v>63.28486384</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>45.502960741999999</v>
+        <v>61.664975396000003</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -20128,31 +21125,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>795.39890000000003</v>
+        <v>834.77850000000001</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>-5.0982219827315767E-3</v>
+        <v>8.764806494157229E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>1.8159202992987566E-2</v>
+        <v>5.5519505233351918E-2</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>-8.8745352301727864E-3</v>
+        <v>4.950924624109998E-2</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>-1.0752638691017613E-2</v>
+        <v>3.8224252513387125E-2</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>13.592583899999999</v>
+        <v>11.30396193</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>11.342714846</v>
+        <v>12.404299763999999</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -20166,31 +21163,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4261.9818999999998</v>
+        <v>4520.6301999999996</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>2.5715292658741173E-3</v>
+        <v>1.2355487085275563E-2</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>3.9035146207883509E-2</v>
+        <v>4.4261699482866623E-2</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>-1.8182838076422736E-2</v>
+        <v>6.068732952620004E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>-3.58949026877452E-2</v>
+        <v>2.2614061050732825E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>44.878518470000003</v>
+        <v>55.431789420000001</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>43.32771924</v>
+        <v>53.079907452</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -20204,31 +21201,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>4780.1063999999997</v>
+        <v>5033.2750999999998</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>3.1533360244384578E-3</v>
+        <v>2.7783242335347014E-2</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>3.1850775939908038E-2</v>
+        <v>3.2473972739417656E-2</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>-4.3008215491494257E-2</v>
+        <v>5.2962984254911083E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>-6.484470908445783E-2</v>
+        <v>-1.5316094135801039E-2</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>106.57686888000001</v>
+        <v>158.5567508</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>89.134471527999992</v>
+        <v>103.77647010000001</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -20242,31 +21239,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>709.11569999999995</v>
+        <v>732.11490000000003</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>1.207527070023473E-2</v>
+        <v>1.3536339196754676E-2</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>2.9183401472348436E-2</v>
+        <v>2.3631122226982271E-2</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>-3.2689883778032502E-2</v>
+        <v>3.2433635300981312E-2</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-0.10706822144922989</v>
+        <v>-7.8107197795057592E-2</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>11.72751279</v>
+        <v>13.44543455</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>12.731329261999999</v>
+        <v>14.230805588000001</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -20280,31 +21277,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>21322.954099999999</v>
+        <v>23860.6803</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>-3.3619871874660312E-2</v>
+        <v>1.9384073661412593E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>1.8905377700311199E-2</v>
+        <v>0.11401431700090804</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>-0.13483571938173256</v>
+        <v>0.11901381900925267</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-0.15301165560635399</v>
+        <v>-5.2208338083742145E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>172.00630204000001</v>
+        <v>250.88062553</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>187.51977585399999</v>
+        <v>226.51676734799997</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -20318,31 +21315,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1761.0038</v>
+        <v>1849.9528</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>3.4384260154718405E-4</v>
+        <v>1.8434071970113042E-2</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>1.971614892780349E-2</v>
+        <v>4.0089267798391282E-2</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>-7.3963739527228234E-2</v>
+        <v>5.0510396400053281E-2</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>-6.943210486130047E-2</v>
+        <v>-2.2428751600681585E-2</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>82.845493469999994</v>
+        <v>76.474753370000002</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>73.553272542000002</v>
+        <v>61.707516410000004</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -20356,31 +21353,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2771.3317000000002</v>
+        <v>2846.7532999999999</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>2.2248464439706961E-3</v>
+        <v>1.9155154203625679E-2</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>1.0227410295088557E-2</v>
+        <v>2.0323435792313216E-2</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>-5.7036572700430381E-2</v>
+        <v>2.7214930641467294E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>-3.5670492936792475E-2</v>
+        <v>-9.4263322865469901E-3</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>29.84407118</v>
+        <v>32.618530679999999</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>21.825907350000001</v>
+        <v>21.920559865999998</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -20394,31 +21391,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2573.2138</v>
+        <v>2721.7952</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>5.8575870645327655E-4</v>
+        <v>1.9989284434920318E-2</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>3.7488861428203846E-2</v>
+        <v>4.6508257790604191E-2</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>-3.3164511256047247E-2</v>
+        <v>5.7741568151080225E-2</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-9.5252629799100527E-2</v>
+        <v>-4.3011097863134735E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>35.839010209999998</v>
+        <v>42.002388230000001</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>30.780470938000001</v>
+        <v>33.327632096000002</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -20432,31 +21429,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1690.8570999999999</v>
+        <v>1758.3969</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>5.1213272302641499E-4</v>
+        <v>1.1996065041120163E-2</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>1.8706317995055066E-2</v>
+        <v>3.0192050540429838E-2</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>-6.0768419687913244E-2</v>
+        <v>3.9944120647451564E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-8.689872991513703E-2</v>
+        <v>-5.0425702619526058E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>58.521472809999999</v>
+        <v>66.487979039999999</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>64.292314849999997</v>
+        <v>64.53511121599999</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -20470,31 +21467,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2376.9585000000002</v>
+        <v>2441.4555</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>6.7342250632831391E-3</v>
+        <v>1.1091103350137299E-2</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>3.888595739514189E-2</v>
+        <v>2.2902841270740382E-2</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>-3.1582768097668912E-2</v>
+        <v>2.7134255814731167E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-7.0847892877250462E-2</v>
+        <v>-4.5636041911785163E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>97.92559224</v>
+        <v>87.829329479999998</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>85.361633143999995</v>
+        <v>79.408655920000001</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -20508,31 +21505,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1453.0904</v>
+        <v>1506.9255000000001</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>3.9744689906573427E-3</v>
+        <v>1.0679595241375406E-2</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>1.6961697852251767E-2</v>
+        <v>2.746151073218539E-2</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>-6.0374338318040177E-2</v>
+        <v>3.7048692909952496E-2</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-6.2765096653995656E-2</v>
+        <v>-2.8041768535440603E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>21.618736550000001</v>
+        <v>29.128632469999999</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>23.784633507999999</v>
+        <v>26.319357272000001</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -20546,31 +21543,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2681.7739999999999</v>
+        <v>2863.2235000000001</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>-3.6313508662499938E-4</v>
+        <v>2.8058528911018454E-2</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>2.5776194945419384E-2</v>
+        <v>4.0960772148638247E-2</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>-3.1181567142048006E-2</v>
+        <v>6.7660250267173927E-2</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-0.11031477241131625</v>
+        <v>-5.0118447253658334E-2</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>15.289700209999999</v>
+        <v>32.937747680000001</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>15.683271288</v>
+        <v>21.374806362000001</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -20584,31 +21581,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6156.2295999999997</v>
+        <v>6572.4521999999997</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>1.8426969042197872E-3</v>
+        <v>1.7956243717394793E-2</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>3.4765217822476879E-2</v>
+        <v>4.7582390981822487E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>-3.4549633103337141E-2</v>
+        <v>6.7609986476137918E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>-6.8915668714885081E-2</v>
+        <v>-5.9650696685545901E-3</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>54.740434749999999</v>
+        <v>75.537254680000004</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>50.961489727999997</v>
+        <v>62.542248145999999</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -20622,31 +21619,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1457.1020000000001</v>
+        <v>1509.6957</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>3.0897407142902455E-3</v>
+        <v>9.1527210636981327E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>2.7615316532023648E-2</v>
+        <v>2.6334386365247875E-2</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>-5.6659524022552032E-2</v>
+        <v>3.6094727754131029E-2</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-0.10834234515615948</v>
+        <v>-7.6158204854684053E-2</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>18.57991226</v>
+        <v>19.981562</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>15.399529938000001</v>
+        <v>15.683587087999999</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -20660,31 +21657,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1064.3544999999999</v>
+        <v>1098.6497999999999</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>8.340767053851561E-3</v>
+        <v>1.4829735066255623E-2</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>3.9719693498162512E-2</v>
+        <v>2.6353174483434438E-2</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>-0.24593977462242259</v>
+        <v>3.2221689296188405E-2</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-0.28532344525352971</v>
+        <v>-8.2222564723307134E-2</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>16.305291650000001</v>
+        <v>20.126676839999998</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>15.291473110000002</v>
+        <v>16.228766626000002</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -20698,31 +21695,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1738.6420000000001</v>
+        <v>1804.5544</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>1.3926599972768905E-4</v>
+        <v>1.1942013797549444E-2</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>1.9900663863855472E-2</v>
+        <v>2.6267037609263966E-2</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>-7.7436328274673061E-2</v>
+        <v>3.7910277101323775E-2</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-7.9920563702001957E-2</v>
+        <v>-4.5040097316714982E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>24.381118180000001</v>
+        <v>29.964695800000001</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>26.725449565999998</v>
+        <v>30.554425478000002</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -20736,31 +21733,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2127.7728000000002</v>
+        <v>2226.1974</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>7.0638780955316616E-3</v>
+        <v>1.5722176710405877E-2</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>3.6943598182776816E-2</v>
+        <v>3.6478624244586477E-2</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>-3.6109394601645306E-2</v>
+        <v>4.6257100382145921E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-7.6138325196866807E-2</v>
+        <v>-3.3403162966280764E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>57.26285171</v>
+        <v>72.365156339999999</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>55.034942946000001</v>
+        <v>58.518513889999994</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -20774,31 +21771,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>3845.4665</v>
+        <v>4069.0713000000001</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>3.5135152697047811E-3</v>
+        <v>2.4583427516222889E-2</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>5.4670271766117162E-2</v>
+        <v>4.0882268992519899E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>-4.0669745331584635E-2</v>
+        <v>5.8147639564666509E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-9.2470862172699619E-2</v>
+        <v>-3.97001849718851E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>97.648830259999997</v>
+        <v>101.91657789</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>68.428245346000011</v>
+        <v>88.21779302600001</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -20812,31 +21809,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2220.1057000000001</v>
+        <v>2315.6747999999998</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>3.5231477810944156E-3</v>
+        <v>1.5210168152672177E-2</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>2.6820428942599284E-2</v>
+        <v>2.7139269127699706E-2</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>-4.7261313522919624E-2</v>
+        <v>4.3047094559506727E-2</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-0.11099361035055288</v>
+        <v>-7.2724468231307515E-2</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>34.711726489999997</v>
+        <v>47.192792840000003</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>32.824274848000002</v>
+        <v>37.784115782000001</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -20850,31 +21847,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1757.5393999999999</v>
+        <v>1879.2741000000001</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>-9.0414553068546288E-3</v>
+        <v>1.2757536479282239E-2</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>1.9523776182683195E-2</v>
+        <v>3.779496703645413E-2</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>-6.989408037766065E-2</v>
+        <v>6.9264279366937798E-2</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-9.9205422174887148E-2</v>
+        <v>-3.6812534884185677E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>21.86844443</v>
+        <v>24.577426710000001</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>21.801853638000001</v>
+        <v>28.892533622000002</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -20888,31 +21885,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>12497.601199999999</v>
+        <v>13596.940500000001</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>1.4148942374208051E-3</v>
+        <v>3.0289530886520977E-2</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>4.6106773259458889E-2</v>
+        <v>4.5520655263272758E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>-2.2042647656826952E-2</v>
+        <v>8.7964024648186298E-2</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>-7.9275549294344438E-2</v>
+        <v>1.7150789817155232E-3</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>65.520292409999996</v>
+        <v>111.17945182</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>53.006686274000003</v>
+        <v>86.294604759999999</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -20926,31 +21923,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>2765.2366000000002</v>
+        <v>2934.6698000000001</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>-2.1741000560898671E-3</v>
+        <v>1.8758301123988685E-2</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>2.8613237019230464E-2</v>
+        <v>3.5434326601229804E-2</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>-4.6979708022324311E-2</v>
+        <v>6.1272586946086172E-2</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>-4.0579993845665123E-2</v>
+        <v>1.8206151899240908E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>21.303381090000002</v>
+        <v>22.408458809999999</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>19.048195684</v>
+        <v>23.533870827999998</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -20964,31 +21961,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1819.7732000000001</v>
+        <v>1905.7385999999999</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>-1.0144261065048177E-3</v>
+        <v>1.1849232898742956E-2</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>1.5428853424553246E-2</v>
+        <v>3.6465587423478718E-2</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>-7.5295049401913117E-2</v>
+        <v>4.7239623047531376E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>-6.1053619849488767E-2</v>
+        <v>-1.6698146789334567E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>10.8771393</v>
+        <v>24.77023462</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>11.448488634</v>
+        <v>14.274913882000002</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -21002,31 +21999,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3030.7761</v>
+        <v>3119.6559000000002</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>2.591977574465254E-2</v>
+        <v>1.0337246317465132E-2</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>4.871283221756495E-2</v>
+        <v>1.2070531837816922E-2</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>2.5974186650985498E-3</v>
+        <v>2.9325755868274239E-2</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-9.6081038399560517E-2</v>
+        <v>-6.9572931606962096E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>65.109195920000005</v>
+        <v>48.40600594</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>45.639251624000003</v>
+        <v>53.797736673999999</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -21040,31 +22037,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1329.3539000000001</v>
+        <v>1389.6303</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>-1.2380421934699015E-4</v>
+        <v>1.3222276988048121E-2</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>1.6949231635087658E-2</v>
+        <v>2.695468166133641E-2</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>-3.8212309370382558E-2</v>
+        <v>4.5342628475381952E-2</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-0.10155722415214707</v>
+        <v>-6.0819467160487035E-2</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>23.676990499999999</v>
+        <v>30.348231139999999</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>23.846638024000001</v>
+        <v>25.843705854</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -21078,31 +22075,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1127.0871999999999</v>
+        <v>1144.4446</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>-6.3966113751701137E-5</v>
+        <v>7.4414308843238075E-3</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>1.4214735031029102E-2</v>
+        <v>7.9146043195437166E-3</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>-5.1524810469009585E-2</v>
+        <v>1.540022812786801E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-8.3088679860490733E-2</v>
+        <v>-6.8968036357317519E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>17.916687580000001</v>
+        <v>23.360563469999999</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>21.607249250000002</v>
+        <v>20.895720774000001</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -21116,31 +22113,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>3900.9681</v>
+        <v>4048.3180000000002</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>5.0015157662786081E-4</v>
+        <v>1.0436984160398177E-2</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>3.142198163562071E-2</v>
+        <v>3.5441069641191092E-2</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>-4.0755676284335622E-2</v>
+        <v>3.7772649307232342E-2</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-0.10824654210682338</v>
+        <v>-7.4562651473312758E-2</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>38.302812090000003</v>
+        <v>52.06154669</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>30.817666428000003</v>
+        <v>32.900386976</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -21154,31 +22151,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3582.7863000000002</v>
+        <v>3700.3622</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>3.9403436124221258E-3</v>
+        <v>9.8971697809393522E-3</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>3.5840004607349041E-2</v>
+        <v>2.8017970884491206E-2</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>-3.7208947606074627E-2</v>
+        <v>3.2816888911292308E-2</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-0.1146867112430251</v>
+        <v>-8.563348339419663E-2</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>59.672340859999998</v>
+        <v>77.904165280000001</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>50.766695944000006</v>
+        <v>52.329450182000002</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -21192,31 +22189,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2330.7003</v>
+        <v>2383.4499000000001</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>-1.2514886737383657E-3</v>
+        <v>8.2324854047506335E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>6.5639778926498416E-3</v>
+        <v>2.418163653356542E-2</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>-5.5180461846313422E-2</v>
+        <v>2.2632510923862759E-2</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>-4.8867637626574305E-2</v>
+        <v>-2.7341124045118459E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>6.2919675899999996</v>
+        <v>7.6088020600000004</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>7.2988785340000009</v>
+        <v>6.6482909719999999</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -21230,31 +22227,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3315.0533</v>
+        <v>3399.4043000000001</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>1.6898089829829877E-2</v>
+        <v>1.0899224858299972E-2</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>5.8616015456375514E-2</v>
+        <v>2.0859453020749541E-2</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>-2.7944318848138194E-2</v>
+        <v>2.544483975566858E-2</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.13949849688508664</v>
+        <v>-0.1176031740288157</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>27.445934919999999</v>
+        <v>26.362299879999998</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>23.045156116000001</v>
+        <v>19.934553623999999</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -21268,31 +22265,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2147.4884000000002</v>
+        <v>2249.9470000000001</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>7.8982433352403625E-4</v>
+        <v>2.1808820425176956E-2</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>5.1188172118540765E-2</v>
+        <v>3.3157182772060922E-2</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>-5.7874252755343303E-2</v>
+        <v>4.7710897996003032E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-0.10225494709316318</v>
+        <v>-5.9422724447508631E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>36.436869799999997</v>
+        <v>40.18460597</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>24.501624142000001</v>
+        <v>31.880393507999997</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -21306,31 +22303,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3620.3634000000002</v>
+        <v>3858.0684999999999</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>5.0174484885181503E-3</v>
+        <v>2.5783697592636212E-2</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>5.013825625860191E-2</v>
+        <v>4.7058841409524543E-2</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>-4.1351038243685585E-2</v>
+        <v>6.5657801092564361E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-8.8230713507226333E-2</v>
+        <v>-2.8365947052374607E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>35.702626250000002</v>
+        <v>37.970481720000002</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>25.869099074000001</v>
+        <v>34.908621432000004</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -21344,31 +22341,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2042.5349000000001</v>
+        <v>2190.5025999999998</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>-2.1957181273782878E-3</v>
+        <v>1.0192253584748512E-2</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>2.3178747901079433E-2</v>
+        <v>4.8113897236920389E-2</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>-8.1342545567329672E-2</v>
+        <v>7.2443168535333058E-2</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-0.14365669240460144</v>
+        <v>-8.1620469848363464E-2</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>3.4656537200000002</v>
+        <v>8.0576972399999995</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>3.5503440580000003</v>
+        <v>7.9007520240000009</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -21382,31 +22379,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2205.6385</v>
+        <v>2312.4748</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>3.301475640751228E-3</v>
+        <v>5.859713207023276E-3</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>3.5356458519338441E-2</v>
+        <v>3.8801605643164372E-2</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>-3.4912996886318659E-2</v>
+        <v>4.8437810638506607E-2</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-8.9247820030318281E-2</v>
+        <v>-4.5132978398339629E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>7.4423667599999996</v>
+        <v>7.6731926100000001</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>6.8527021739999991</v>
+        <v>7.5447850340000002</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -21420,31 +22417,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2142.3126000000002</v>
+        <v>2235.741</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>7.2211733824929514E-3</v>
+        <v>2.3111779719200198E-2</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>6.7893085703362166E-2</v>
+        <v>2.973620223930018E-2</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>-3.8351042314414885E-2</v>
+        <v>4.3611002427936807E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-8.9125541852953294E-2</v>
+        <v>-4.9401393647156781E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>70.754949429999996</v>
+        <v>57.732741439999998</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>44.956146510000004</v>
+        <v>49.730810494000004</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -21550,27 +22547,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>1876.43</v>
+        <v>1932.96</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>-1.6865588749986782E-2</v>
+        <v>1.0518391501641577E-2</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>-1.445933738103744E-2</v>
+        <v>3.6523044748907552E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>-9.8667524881835278E-2</v>
+        <v>3.012635696508803E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>-4.8111116183982894E-2</v>
+        <v>-1.9434171879042395E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>214.09479999999999</v>
+        <v>228.23169999999999</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -21592,27 +22589,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3323.34</v>
+        <v>3240.4</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-1.0670626320676835E-3</v>
+        <v>-3.5333298481805553E-3</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>-2.6749212224864372E-2</v>
+        <v>-2.8863492297940274E-3</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>-6.6577163111802617E-2</v>
+        <v>-2.4956820548002967E-2</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>6.0517925048109156E-4</v>
+        <v>-2.4366744647475458E-2</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>65.280900000000003</v>
+        <v>53.097099999999998</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -21634,27 +22631,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>3977.26</v>
+        <v>3987.35</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>7.7380711071473041E-3</v>
+        <v>2.8142730674822758E-3</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>2.1038521911558306E-3</v>
+        <v>6.6803167974873734E-3</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>-2.8018700313545475E-2</v>
+        <v>2.5369224038658267E-3</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-4.0687900239993136E-2</v>
+        <v>-3.8254199881812334E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>346.47070000000002</v>
+        <v>288.24869999999999</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -21676,27 +22673,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>5815.27</v>
+        <v>5956.27</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>5.0066536474084877E-3</v>
+        <v>-4.0109689091161194E-4</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>-2.0006774531133198E-2</v>
+        <v>3.0580341308030334E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>-0.11729758364791898</v>
+        <v>2.4246509620361456E-2</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>9.5481635409451204E-3</v>
+        <v>3.4026182800459104E-2</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>197.8254</v>
+        <v>166.5693</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -21718,27 +22715,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2606.64</v>
+        <v>2629.69</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>-1.3813063957777705E-2</v>
+        <v>3.1572620831843423E-4</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>-8.2335215426059261E-3</v>
+        <v>1.150871038591883E-2</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>-9.458971295189933E-2</v>
+        <v>8.842801460884564E-3</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>-3.3123882578989239E-2</v>
+        <v>-2.4573989035364341E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>17.988399999999999</v>
+        <v>16.477399999999999</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -21760,27 +22757,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>5847.06</v>
+        <v>6032.31</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>-2.104314612954572E-3</v>
+        <v>1.1648792104446803E-2</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>1.8981760640207401E-2</v>
+        <v>2.4711050410746616E-2</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>-3.4576246559464452E-2</v>
+        <v>3.1682589198674282E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-6.779204339098921E-2</v>
+        <v>-3.8257281654010433E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>94.662999999999997</v>
+        <v>117.65519999999999</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -21802,27 +22799,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4429.78</v>
+        <v>4496.83</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>1.9769104102200785E-3</v>
+        <v>1.0557659246940743E-2</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>1.9176657624763171E-2</v>
+        <v>1.153057988064532E-2</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>-2.1791072461719962E-2</v>
+        <v>1.5136191865058768E-2</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>-1.7887310828607395E-2</v>
+        <v>-3.0218647322003411E-3</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>211.98400000000001</v>
+        <v>212.92439999999999</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -21844,31 +22841,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>7578.56</v>
+        <v>7918.81</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>-7.9977381192356534E-3</v>
+        <v>1.0026529935460937E-2</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>2.2349589904862022E-3</v>
+        <v>2.8111120199317385E-2</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>-3.1679550245959143E-2</v>
+        <v>4.4896391926698476E-2</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>-1.2607926955583659E-2</v>
+        <v>3.1722414541133892E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>17.180199999999999</v>
+        <v>21.581099999999999</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>20.314540000000001</v>
+        <v>23.223800000000001</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -21886,31 +22883,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3235.05</v>
+        <v>3153.34</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>-1.3632095031343772E-2</v>
+        <v>5.5293367346940236E-3</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>-1.4977589944705549E-2</v>
+        <v>-1.4534837694311076E-3</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>-1.1105405058415729E-2</v>
+        <v>-2.5257723991901182E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>3.1193895174870256E-3</v>
+        <v>-2.2217123153870144E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>23.273599999999998</v>
+        <v>31.543800000000001</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>33.388379999999998</v>
+        <v>22.934379999999997</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -21928,31 +22925,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2621.13</v>
+        <v>2682.14</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>5.1539868619352447E-3</v>
+        <v>1.1822845933302961E-2</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>1.9863194920002547E-2</v>
+        <v>1.6732373009855861E-2</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>-4.3536804308797139E-2</v>
+        <v>2.3276220561360805E-2</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>-3.9601203278604391E-2</v>
+        <v>-1.7246749059251609E-2</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>36.379399999999997</v>
+        <v>44.468899999999998</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>35.109760000000001</v>
+        <v>35.357999999999997</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -21970,27 +22967,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3418.82</v>
+        <v>3421.54</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>-1.810208407542091E-3</v>
+        <v>9.166897707095778E-3</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>1.3975146068748723E-2</v>
+        <v>-3.3033487916851456E-3</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>-1.2404095026807171E-2</v>
+        <v>7.9559614135860102E-4</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>2.6715837903094952E-2</v>
+        <v>2.7532689062002458E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>19.5473</v>
+        <v>23.977599999999999</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -22012,27 +23009,27 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3021.2</v>
+        <v>3036.47</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>5.0336459492394958E-4</v>
+        <v>-8.7196293663960311E-4</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>1.3706443874041518E-2</v>
+        <v>4.4658068058895939E-3</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>-1.1208130688789009E-3</v>
+        <v>5.0542830663311555E-3</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>5.8977756279487092E-2</v>
+        <v>6.4330129620671972E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>39.351999999999997</v>
+        <v>30.5229</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
@@ -22054,31 +23051,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2499.63</v>
+        <v>2524.62</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>8.3625801766913366E-3</v>
+        <v>1.3763560280031228E-3</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>1.1893533043214388E-2</v>
+        <v>1.6581838095544921E-2</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>-3.5919252071151986E-2</v>
+        <v>9.9974796269846067E-3</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>-8.2958413673259734E-3</v>
+        <v>1.6187007546002441E-3</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>5.7803000000000004</v>
+        <v>5.5231000000000003</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>5.6281799999999995</v>
+        <v>6.0640599999999996</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22109,27 +23106,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>7705.98</v>
+        <v>8251.51</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>-1.3128376863471569E-3</v>
+        <v>9.3071670935560569E-3</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>1.6626758751706827E-2</v>
+        <v>6.0786741178119108E-2</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>-3.3140069584986942E-2</v>
+        <v>7.0793072393128487E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>-4.5771155367829837E-2</v>
+        <v>2.1781636309826879E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>228.01519999999999</v>
+        <v>342.2244</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -22151,27 +23148,27 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>11328.24</v>
+        <v>11462</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>-2.1062946876852506E-2</v>
+        <v>6.2798111052486671E-3</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>-3.1426665982660418E-2</v>
+        <v>6.5192803501303853E-3</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>-6.8909740076142589E-2</v>
+        <v>1.1807659442243379E-2</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>-1.7485916989379735E-2</v>
+        <v>-5.8847252999822963E-3</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>158.00239999999999</v>
+        <v>149.2423</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
@@ -22193,31 +23190,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4231.68</v>
+        <v>4361.05</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>-5.2433926167350098E-4</v>
+        <v>1.2970331296266568E-2</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>1.0869097840991104E-2</v>
+        <v>2.7025945001401208E-2</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>-5.8513620546957752E-2</v>
+        <v>3.057178236539615E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>-4.3882600149122035E-2</v>
+        <v>-1.4652387085112517E-2</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>73.351699999999994</v>
+        <v>82.643799999999999</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>66.338899999999995</v>
+        <v>72.88646</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -22277,27 +23274,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>4914.95</v>
+        <v>5107.4799999999996</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>3.0366913125730033E-3</v>
+        <v>1.8308693788442243E-2</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>3.3062541380723731E-2</v>
+        <v>2.8881310043492148E-2</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>-3.7731490092351327E-2</v>
+        <v>3.9172321183328362E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-8.6746070088074667E-2</v>
+        <v>-5.0971793823627924E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>129.57079999999999</v>
+        <v>191.7816</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -22319,31 +23316,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3308.83</v>
+        <v>3469.58</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>3.8347304008568006E-3</v>
+        <v>2.9558126630207404E-2</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>5.3153735243472777E-2</v>
+        <v>4.7673400368390961E-2</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>3.3189281008199734E-2</v>
+        <v>4.8582127217173365E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>-4.7794043586740331E-2</v>
+        <v>-1.5338526753210235E-3</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>409.95659999999998</v>
+        <v>564.28160000000003</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>387.8177</v>
+        <v>448.56234000000006</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -22361,31 +23358,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7431.27</v>
+        <v>7796.27</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>-2.4270573942692941E-3</v>
+        <v>7.1828407618461654E-3</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>-2.9843848524844341E-2</v>
+        <v>3.5868838780225731E-2</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>-6.7752639138916271E-2</v>
+        <v>4.9116772772352491E-2</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>2.8677620741684118E-2</v>
+        <v>7.9202945695657556E-2</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>124.5228</v>
+        <v>116.9053</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>107.57098000000001</v>
+        <v>97.131879999999995</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -22403,27 +23400,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>8640.17</v>
+        <v>8840.77</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>5.2121083792784351E-3</v>
+        <v>9.9708801860745044E-3</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>1.9611799886239956E-2</v>
+        <v>1.9076041349674E-2</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>-7.0291668729057788E-2</v>
+        <v>2.3217135773949016E-2</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-8.9114286497439132E-2</v>
+        <v>-6.7966129212499893E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>15.392300000000001</v>
+        <v>20.312100000000001</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -22458,27 +23455,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2572.54</v>
+        <v>2677.82</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>-1.9514503970794461E-3</v>
+        <v>4.9318139361109736E-4</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>1.2627634365429907E-2</v>
+        <v>2.9091663720351102E-2</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>-3.3243141676061683E-2</v>
+        <v>4.0924533729310486E-2</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>-3.7010417719481437E-2</v>
+        <v>2.399481921532276E-3</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>22.665099999999999</v>
+        <v>48.701999999999998</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -22500,27 +23497,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1426.41</v>
+        <v>1407.32</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>-1.0852530407888583E-2</v>
+        <v>5.2716544994784176E-3</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>-3.6461934997171763E-3</v>
+        <v>1.2664171777394539E-3</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>-4.6829581220054879E-2</v>
+        <v>-1.3383248855518448E-2</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>-3.8048866019705474E-2</v>
+        <v>-5.0922897432611913E-2</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>5.2671999999999999</v>
+        <v>6.2846000000000002</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -22542,27 +23539,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5248.51</v>
+        <v>5356.45</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>3.5104155712553098E-3</v>
+        <v>9.8202233634219205E-3</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>1.4757800385910791E-2</v>
+        <v>1.7622618353284603E-2</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>-2.1326227698549971E-2</v>
+        <v>2.0565836780343405E-2</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>8.8864882320829341E-3</v>
+        <v>2.9635083078957791E-2</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>12.819599999999999</v>
+        <v>18.717600000000001</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -22584,27 +23581,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>2954.28</v>
+        <v>3025.48</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>-6.7877638705381438E-3</v>
+        <v>3.6856789312527116E-3</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>-3.26590102430524E-3</v>
+        <v>2.3130926454475453E-2</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>-6.1787832979763986E-2</v>
+        <v>2.4100626887092469E-2</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>-6.9934076727888539E-2</v>
+        <v>-4.7518904930708213E-2</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>5.6920999999999999</v>
+        <v>7.3994</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -22626,27 +23623,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6224.92</v>
+        <v>6379.4</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>-1.4858810440573467E-2</v>
+        <v>1.8221169500290513E-2</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>2.5752063065200836E-2</v>
+        <v>1.012116260363416E-2</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>1.1566949529879356E-2</v>
+        <v>2.4816383182434398E-2</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>7.7650708575266902E-2</v>
+        <v>0.10439410149609252</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>5.6398000000000001</v>
+        <v>4.5179999999999998</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -22736,23 +23733,23 @@
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>2868.8</v>
+        <v>2908.4</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>-1.8408266611920798E-2</v>
+        <v>4.4205000690703761E-3</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>14894</v>
+        <v>12400</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>17485</v>
+        <v>15890</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>80</v>
+        <v>-691</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -22767,23 +23764,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>2872.4</v>
+        <v>2908.8</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>-1.8720962011478454E-2</v>
+        <v>4.489260308032322E-3</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>587</v>
+        <v>1526</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>448</v>
+        <v>243</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -22798,23 +23795,23 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>2869</v>
+        <v>2907.4</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>-1.9681541720768095E-2</v>
+        <v>4.1445050770187192E-3</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>3072</v>
+        <v>4117</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
@@ -22826,23 +23823,23 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>2866.2</v>
+        <v>2900</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>-2.0571350464734919E-2</v>
+        <v>3.2519200166055808E-3</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>1015</v>
+        <v>1429</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -22860,23 +23857,23 @@
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4002</v>
+        <v>4103.6000000000004</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>-1.1607804396147196E-2</v>
+        <v>1.1037745146348719E-2</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>19969</v>
+        <v>17675</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>32039</v>
+        <v>26529</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>571</v>
+        <v>-1731</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -22888,23 +23885,23 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>3996.8</v>
+        <v>4098.3999999999996</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>-1.2794546262905628E-2</v>
+        <v>1.1501061256725271E-2</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>480</v>
+        <v>2003</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>645</v>
+        <v>3914</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>223</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
@@ -22916,23 +23913,23 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>3994.6</v>
+        <v>4085</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>-1.153122834801542E-2</v>
+        <v>1.1288805268109102E-2</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>1506</v>
+        <v>1783</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>5765</v>
+        <v>7736</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -22944,23 +23941,23 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4004.4</v>
+        <v>4071.8</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>-8.7137340330725368E-3</v>
+        <v>9.8209414215565619E-3</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>1652</v>
+        <v>2496</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -22977,23 +23974,23 @@
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>5983.4</v>
+        <v>6198.8</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>-1.6018688469882137E-3</v>
+        <v>1.7397584033613446E-2</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>10025</v>
+        <v>10397</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>22847</v>
+        <v>18511</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>242</v>
+        <v>-1131</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -23005,23 +24002,23 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>5950</v>
+        <v>6162</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>-1.3427324605572338E-3</v>
+        <v>1.7805820752535461E-2</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>259</v>
+        <v>1341</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>424</v>
+        <v>2784</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>130</v>
+        <v>802</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -23033,23 +24030,23 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>5895.8</v>
+        <v>6101.2</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>-1.8960555273404124E-3</v>
+        <v>1.7307499916630571E-2</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>829</v>
+        <v>1252</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>5378</v>
+        <v>7488</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>86</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -23061,23 +24058,23 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>5813.2</v>
+        <v>6005.8</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>-3.6336212806800734E-3</v>
+        <v>1.7380403848760058E-2</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>1810</v>
+        <v>2739</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -23595,10 +24592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE99"/>
+  <dimension ref="B1:AE105"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="AG82" sqref="AG82"/>
+    <sheetView topLeftCell="C89" workbookViewId="0">
+      <selection activeCell="AC109" sqref="AC109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28329,16 +29326,715 @@
       </c>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C45" s="40"/>
+      <c r="C45" s="40">
+        <v>20180301</v>
+      </c>
+      <c r="D45" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C45)/100</f>
+        <v>1.1278032308382313E-2</v>
+      </c>
+      <c r="E45" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C45)/100</f>
+        <v>-6.865036110621503E-3</v>
+      </c>
+      <c r="F45" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C45)/100</f>
+        <v>7.5117369256552102E-3</v>
+      </c>
+      <c r="G45" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C45)/100</f>
+        <v>1.165817981516537E-2</v>
+      </c>
+      <c r="H45" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C45)/100</f>
+        <v>-1.5074462200860284E-3</v>
+      </c>
+      <c r="I45" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C45)/100</f>
+        <v>-2.8255909627715736E-2</v>
+      </c>
+      <c r="J45" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C45)/100</f>
+        <v>3.554205785325304E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C45)/100</f>
+        <v>2.5691031751830629E-2</v>
+      </c>
+      <c r="L45" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C45)/100</f>
+        <v>-4.28240397169668E-2</v>
+      </c>
+      <c r="M45" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C45)/100</f>
+        <v>-1.8381775184452831E-2</v>
+      </c>
+      <c r="N45" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C45)/100</f>
+        <v>1.8818726345120718E-2</v>
+      </c>
+      <c r="O45" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C45)/100</f>
+        <v>-1.5333708518837752E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C45)/100</f>
+        <v>-1.5667123781841097E-2</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C45)/100</f>
+        <v>-1.95492126415443E-2</v>
+      </c>
+      <c r="R45" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C45)/100</f>
+        <v>-2.1027305652734807E-2</v>
+      </c>
+      <c r="S45" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C45)/100</f>
+        <v>-1.3720927898525304E-2</v>
+      </c>
+      <c r="T45" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C45)/100</f>
+        <v>3.5063796753711296E-2</v>
+      </c>
+      <c r="U45" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C45)/100</f>
+        <v>-5.7409349409779376E-3</v>
+      </c>
+      <c r="V45" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C45)/100</f>
+        <v>-6.8795459583474772E-2</v>
+      </c>
+      <c r="W45" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C45)/100</f>
+        <v>-4.2693310476496382E-2</v>
+      </c>
+      <c r="X45" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C45)/100</f>
+        <v>5.0466584861199815E-2</v>
+      </c>
+      <c r="Y45" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C45)/100</f>
+        <v>3.953092231340305E-2</v>
+      </c>
+      <c r="Z45" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C45)/100</f>
+        <v>6.3753050113873666E-2</v>
+      </c>
+      <c r="AA45" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C45)/100</f>
+        <v>-2.4099168463196818E-2</v>
+      </c>
+      <c r="AB45" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C45)/100</f>
+        <v>2.4218801734400719E-2</v>
+      </c>
+      <c r="AC45" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C45)/100</f>
+        <v>1.6493756743457544E-2</v>
+      </c>
+      <c r="AD45" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C45)/100</f>
+        <v>7.613376871389077E-3</v>
+      </c>
+      <c r="AE45" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C45)/100</f>
+        <v>2.6629768644444995E-2</v>
+      </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C46" s="40">
+        <v>20180302</v>
+      </c>
+      <c r="D46" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C46)/100</f>
+        <v>1.7941950513207239E-3</v>
+      </c>
+      <c r="E46" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C46)/100</f>
+        <v>-1.2697668448709898E-2</v>
+      </c>
+      <c r="F46" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C46)/100</f>
+        <v>-6.062359292874353E-4</v>
+      </c>
+      <c r="G46" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C46)/100</f>
+        <v>-5.1061611767869719E-3</v>
+      </c>
+      <c r="H46" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C46)/100</f>
+        <v>-1.2904507337440974E-2</v>
+      </c>
+      <c r="I46" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C46)/100</f>
+        <v>-3.4506135805864813E-2</v>
+      </c>
+      <c r="J46" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C46)/100</f>
+        <v>2.266869686467432E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C46)/100</f>
+        <v>1.5465690172161706E-2</v>
+      </c>
+      <c r="L46" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C46)/100</f>
+        <v>-4.6591302625066507E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C46)/100</f>
+        <v>-2.384402923006157E-2</v>
+      </c>
+      <c r="N46" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C46)/100</f>
+        <v>1.0839393725899482E-2</v>
+      </c>
+      <c r="O46" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C46)/100</f>
+        <v>-2.372964209049544E-2</v>
+      </c>
+      <c r="P46" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C46)/100</f>
+        <v>-2.0622178918153877E-2</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C46)/100</f>
+        <v>-2.5686172577664923E-2</v>
+      </c>
+      <c r="R46" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C46)/100</f>
+        <v>-2.3567213153362854E-2</v>
+      </c>
+      <c r="S46" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C46)/100</f>
+        <v>-1.7904262821945571E-2</v>
+      </c>
+      <c r="T46" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C46)/100</f>
+        <v>3.2867152298701185E-2</v>
+      </c>
+      <c r="U46" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C46)/100</f>
+        <v>-1.1286505148520587E-2</v>
+      </c>
+      <c r="V46" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C46)/100</f>
+        <v>-7.2152154423242409E-2</v>
+      </c>
+      <c r="W46" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C46)/100</f>
+        <v>-5.7563410001013393E-2</v>
+      </c>
+      <c r="X46" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C46)/100</f>
+        <v>4.2654032021982369E-2</v>
+      </c>
+      <c r="Y46" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C46)/100</f>
+        <v>2.4100823373921054E-2</v>
+      </c>
+      <c r="Z46" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C46)/100</f>
+        <v>4.449849751668733E-2</v>
+      </c>
+      <c r="AA46" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C46)/100</f>
+        <v>-1.6322759470280168E-2</v>
+      </c>
+      <c r="AB46" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C46)/100</f>
+        <v>2.2434017378661908E-2</v>
+      </c>
+      <c r="AC46" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C46)/100</f>
+        <v>1.3851591984164857E-2</v>
+      </c>
+      <c r="AD46" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C46)/100</f>
+        <v>5.6072782006995059E-3</v>
+      </c>
+      <c r="AE46" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C46)/100</f>
+        <v>2.4728482901934079E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C47" s="40">
+        <v>20180305</v>
+      </c>
+      <c r="D47" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C47)/100</f>
+        <v>1.7268650812678477E-3</v>
+      </c>
+      <c r="E47" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C47)/100</f>
+        <v>-1.1970204812563279E-2</v>
+      </c>
+      <c r="F47" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C47)/100</f>
+        <v>-1.9915910269308057E-4</v>
+      </c>
+      <c r="G47" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C47)/100</f>
+        <v>-1.6888751982833128E-3</v>
+      </c>
+      <c r="H47" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C47)/100</f>
+        <v>-9.1763788033042415E-3</v>
+      </c>
+      <c r="I47" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C47)/100</f>
+        <v>-2.9938436625902565E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C47)/100</f>
+        <v>3.9088965799926267E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C47)/100</f>
+        <v>2.903999530090684E-2</v>
+      </c>
+      <c r="L47" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C47)/100</f>
+        <v>-4.0567281492203566E-2</v>
+      </c>
+      <c r="M47" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C47)/100</f>
+        <v>-2.2592810351812265E-2</v>
+      </c>
+      <c r="N47" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C47)/100</f>
+        <v>1.0048836836959341E-2</v>
+      </c>
+      <c r="O47" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C47)/100</f>
+        <v>-2.0914160842500418E-2</v>
+      </c>
+      <c r="P47" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C47)/100</f>
+        <v>-2.8280667245618507E-2</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C47)/100</f>
+        <v>-3.7305501500709881E-2</v>
+      </c>
+      <c r="R47" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C47)/100</f>
+        <v>-1.4119757735729488E-2</v>
+      </c>
+      <c r="S47" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C47)/100</f>
+        <v>-9.8977416792933592E-3</v>
+      </c>
+      <c r="T47" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C47)/100</f>
+        <v>4.68225767278867E-2</v>
+      </c>
+      <c r="U47" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C47)/100</f>
+        <v>-4.6375652516967847E-3</v>
+      </c>
+      <c r="V47" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C47)/100</f>
+        <v>-6.9351551797084188E-2</v>
+      </c>
+      <c r="W47" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C47)/100</f>
+        <v>-5.5726568440958142E-2</v>
+      </c>
+      <c r="X47" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C47)/100</f>
+        <v>4.0365340172684672E-2</v>
+      </c>
+      <c r="Y47" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C47)/100</f>
+        <v>7.5945018217771221E-4</v>
+      </c>
+      <c r="Z47" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C47)/100</f>
+        <v>2.6343740451677977E-2</v>
+      </c>
+      <c r="AA47" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C47)/100</f>
+        <v>3.0797659377888031E-3</v>
+      </c>
+      <c r="AB47" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C47)/100</f>
+        <v>2.3274998364647193E-2</v>
+      </c>
+      <c r="AC47" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C47)/100</f>
+        <v>1.2471042247657715E-2</v>
+      </c>
+      <c r="AD47" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C47)/100</f>
+        <v>-1.6210590832788085E-3</v>
+      </c>
+      <c r="AE47" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C47)/100</f>
+        <v>2.2409583793619792E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C48" s="40">
+        <v>20180306</v>
+      </c>
+      <c r="D48" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C48)/100</f>
+        <v>1.1689706982418668E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C48)/100</f>
+        <v>-2.045513680487554E-3</v>
+      </c>
+      <c r="F48" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C48)/100</f>
+        <v>1.1860790474521821E-2</v>
+      </c>
+      <c r="G48" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C48)/100</f>
+        <v>8.0867944658244983E-3</v>
+      </c>
+      <c r="H48" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C48)/100</f>
+        <v>4.1863710259981701E-4</v>
+      </c>
+      <c r="I48" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C48)/100</f>
+        <v>-1.8605871534414287E-2</v>
+      </c>
+      <c r="J48" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C48)/100</f>
+        <v>3.7590401481421676E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C48)/100</f>
+        <v>3.0138379701063256E-2</v>
+      </c>
+      <c r="L48" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C48)/100</f>
+        <v>-3.1714819567801977E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C48)/100</f>
+        <v>-9.4601618092003958E-3</v>
+      </c>
+      <c r="N48" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C48)/100</f>
+        <v>2.1335815535156399E-2</v>
+      </c>
+      <c r="O48" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C48)/100</f>
+        <v>-7.3015772285212055E-3</v>
+      </c>
+      <c r="P48" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C48)/100</f>
+        <v>-1.8975160890496445E-2</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C48)/100</f>
+        <v>-3.2396326990216329E-2</v>
+      </c>
+      <c r="R48" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C48)/100</f>
+        <v>5.704163962330977E-3</v>
+      </c>
+      <c r="S48" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C48)/100</f>
+        <v>1.0908363247094766E-2</v>
+      </c>
+      <c r="T48" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C48)/100</f>
+        <v>6.5589338358050808E-2</v>
+      </c>
+      <c r="U48" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C48)/100</f>
+        <v>1.0093458293135349E-2</v>
+      </c>
+      <c r="V48" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C48)/100</f>
+        <v>-6.0942567041581297E-2</v>
+      </c>
+      <c r="W48" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C48)/100</f>
+        <v>-3.5270466714682258E-2</v>
+      </c>
+      <c r="X48" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C48)/100</f>
+        <v>4.3270506928197117E-2</v>
+      </c>
+      <c r="Y48" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C48)/100</f>
+        <v>2.1665760885034135E-2</v>
+      </c>
+      <c r="Z48" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C48)/100</f>
+        <v>5.3710247954680046E-2</v>
+      </c>
+      <c r="AA48" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C48)/100</f>
+        <v>-1.1934093008931224E-2</v>
+      </c>
+      <c r="AB48" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C48)/100</f>
+        <v>3.1856134090596733E-2</v>
+      </c>
+      <c r="AC48" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C48)/100</f>
+        <v>2.6004952236331924E-2</v>
+      </c>
+      <c r="AD48" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C48)/100</f>
+        <v>1.4839262957156762E-2</v>
+      </c>
+      <c r="AE48" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C48)/100</f>
+        <v>3.2396949461614533E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C49" s="40">
+        <v>20180307</v>
+      </c>
+      <c r="D49" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C49)/100</f>
+        <v>6.6794478186960049E-3</v>
+      </c>
+      <c r="E49" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C49)/100</f>
+        <v>-7.4980326173702538E-3</v>
+      </c>
+      <c r="F49" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C49)/100</f>
+        <v>4.418176985558242E-3</v>
+      </c>
+      <c r="G49" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C49)/100</f>
+        <v>-3.4072786594173676E-3</v>
+      </c>
+      <c r="H49" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C49)/100</f>
+        <v>-1.0331106479631535E-2</v>
+      </c>
+      <c r="I49" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C49)/100</f>
+        <v>-2.6211868483453249E-2</v>
+      </c>
+      <c r="J49" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C49)/100</f>
+        <v>2.5681661679590295E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C49)/100</f>
+        <v>2.3066874687503125E-2</v>
+      </c>
+      <c r="L49" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C49)/100</f>
+        <v>-3.8516273791171063E-2</v>
+      </c>
+      <c r="M49" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C49)/100</f>
+        <v>-1.8984150625806051E-2</v>
+      </c>
+      <c r="N49" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C49)/100</f>
+        <v>1.4536015962588911E-2</v>
+      </c>
+      <c r="O49" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C49)/100</f>
+        <v>-1.6035712350928488E-2</v>
+      </c>
+      <c r="P49" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C49)/100</f>
+        <v>-3.0720748859350611E-2</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C49)/100</f>
+        <v>-4.2446586092042986E-2</v>
+      </c>
+      <c r="R49" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C49)/100</f>
+        <v>-1.8646548556944254E-4</v>
+      </c>
+      <c r="S49" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C49)/100</f>
+        <v>5.8547555903021298E-3</v>
+      </c>
+      <c r="T49" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C49)/100</f>
+        <v>6.3939077032603597E-2</v>
+      </c>
+      <c r="U49" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C49)/100</f>
+        <v>2.3666187249351545E-3</v>
+      </c>
+      <c r="V49" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C49)/100</f>
+        <v>-6.7710072689031064E-2</v>
+      </c>
+      <c r="W49" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C49)/100</f>
+        <v>-4.4862366675751275E-2</v>
+      </c>
+      <c r="X49" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C49)/100</f>
+        <v>4.8934145260777662E-2</v>
+      </c>
+      <c r="Y49" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C49)/100</f>
+        <v>1.1157689382866431E-2</v>
+      </c>
+      <c r="Z49" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C49)/100</f>
+        <v>4.2476927830304545E-2</v>
+      </c>
+      <c r="AA49" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C49)/100</f>
+        <v>-4.6196489066829827E-4</v>
+      </c>
+      <c r="AB49" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C49)/100</f>
+        <v>2.9466202060826507E-2</v>
+      </c>
+      <c r="AC49" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C49)/100</f>
+        <v>2.1966046343296908E-2</v>
+      </c>
+      <c r="AD49" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C49)/100</f>
+        <v>6.6815298073537033E-3</v>
+      </c>
+      <c r="AE49" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C49)/100</f>
+        <v>3.027732156459173E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C50" s="40">
+        <v>20180308</v>
+      </c>
+      <c r="D50" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C50)/100</f>
+        <v>1.3711005148311806E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C50)/100</f>
+        <v>-2.4205912616934722E-3</v>
+      </c>
+      <c r="F50" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C50)/100</f>
+        <v>1.4606667988090516E-2</v>
+      </c>
+      <c r="G50" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C50)/100</f>
+        <v>3.5637664437431216E-3</v>
+      </c>
+      <c r="H50" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C50)/100</f>
+        <v>-4.3354337753132022E-3</v>
+      </c>
+      <c r="I50" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C50)/100</f>
+        <v>-1.6354448539391164E-2</v>
+      </c>
+      <c r="J50" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C50)/100</f>
+        <v>2.9561261330455446E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C50)/100</f>
+        <v>2.7623849044493998E-2</v>
+      </c>
+      <c r="L50" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C50)/100</f>
+        <v>-3.3249603761693947E-2</v>
+      </c>
+      <c r="M50" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C50)/100</f>
+        <v>-1.1726761996922797E-2</v>
+      </c>
+      <c r="N50" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C50)/100</f>
+        <v>2.6391745387418952E-2</v>
+      </c>
+      <c r="O50" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C50)/100</f>
+        <v>-9.2002251113028066E-3</v>
+      </c>
+      <c r="P50" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C50)/100</f>
+        <v>-2.0389190409350944E-2</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C50)/100</f>
+        <v>-2.4062638079120013E-2</v>
+      </c>
+      <c r="R50" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C50)/100</f>
+        <v>2.1328509383252037E-2</v>
+      </c>
+      <c r="S50" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C50)/100</f>
+        <v>3.0365100099107867E-2</v>
+      </c>
+      <c r="T50" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C50)/100</f>
+        <v>8.2420476533874729E-2</v>
+      </c>
+      <c r="U50" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C50)/100</f>
+        <v>1.3688585611476123E-2</v>
+      </c>
+      <c r="V50" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C50)/100</f>
+        <v>-5.6548408324945898E-2</v>
+      </c>
+      <c r="W50" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C50)/100</f>
+        <v>-3.2792501800091522E-2</v>
+      </c>
+      <c r="X50" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C50)/100</f>
+        <v>4.8776363015162305E-2</v>
+      </c>
+      <c r="Y50" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C50)/100</f>
+        <v>2.6480634857490859E-2</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C50)/100</f>
+        <v>5.570357386475E-2</v>
+      </c>
+      <c r="AA50" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C50)/100</f>
+        <v>-1.0240221743147426E-2</v>
+      </c>
+      <c r="AB50" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C50)/100</f>
+        <v>3.3748979331693407E-2</v>
+      </c>
+      <c r="AC50" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C50)/100</f>
+        <v>3.1545610222926124E-2</v>
+      </c>
+      <c r="AD50" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C50)/100</f>
+        <v>3.0777535742163353E-2</v>
+      </c>
+      <c r="AE50" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C50)/100</f>
+        <v>3.9610919854210058E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
         <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D44">
+  <conditionalFormatting sqref="D7:D50">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -28350,7 +30046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E44">
+  <conditionalFormatting sqref="E7:E50">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -28362,7 +30058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F44">
+  <conditionalFormatting sqref="F7:F50">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -28374,7 +30070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z44">
+  <conditionalFormatting sqref="Z7:Z50">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -28386,7 +30082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA44">
+  <conditionalFormatting sqref="G7:AA50">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -28398,7 +30094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE44">
+  <conditionalFormatting sqref="AB7:AE50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="最新" sheetId="3" r:id="rId1"/>
@@ -2632,6 +2632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2695,10 +2696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2830,16 +2831,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$50</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2971,6 +2981,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.3711005148311806E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.718879921702765E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7672140960486304E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.5075002263861332E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,10 +3029,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3145,16 +3164,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$50</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3286,6 +3314,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-2.4205912616934722E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2705223998885646E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1962870717121614E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.202846833987417E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,10 +3362,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3460,16 +3497,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$50</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3601,6 +3647,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.4606667988090516E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2386189804198597E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7064338591972881E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8003918189103407E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,10 +3695,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3775,16 +3830,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$50</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3916,6 +3980,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.6480634857490859E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7922280922229712E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7950602922409944E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.8189019381717833E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3955,10 +4028,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4090,16 +4163,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$50</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -4231,6 +4313,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5.570357386475E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3951612420072301E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6727222464243692E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0961221295122741E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4270,10 +4361,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4405,16 +4496,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$50</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -4546,6 +4646,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1.0240221743147426E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.3012011087157327E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.1336618417000306E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.2808746535263342E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,6 +4795,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4792,6 +4902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4855,10 +4966,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4990,16 +5101,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$50</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -5131,6 +5251,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.5637664437431216E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2770346957889265E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8302733597947336E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.729070636154729E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,10 +5299,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5305,16 +5434,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$50</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -5446,6 +5584,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-4.3354337753132022E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3002435731439554E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8971749150315196E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0175012417374738E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,10 +5632,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5620,16 +5767,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$50</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -5761,6 +5917,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1.6354448539391164E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0361674689511879E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1390742217736394E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2220274389395129E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5800,10 +5965,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5935,16 +6100,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$50</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -6076,6 +6250,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.9561261330455446E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.3281055470699963E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2254182268601159E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7562120707043167E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,10 +6298,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6250,16 +6433,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$50</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -6391,6 +6583,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.7623849044493998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3860620308965554E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.873359436223426E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3157260600538399E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6531,6 +6732,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6637,6 +6839,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6700,10 +6903,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6835,16 +7038,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$50</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -6976,6 +7188,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-3.3249603761693947E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.7157592667984556E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.2970203664267599E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6.4425084693301438E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7015,10 +7236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7150,16 +7371,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$50</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -7291,6 +7521,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1.1726761996922797E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3602227382044667E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4749099741014016E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0388987571817783E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,10 +7569,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7465,16 +7704,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$50</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -7606,6 +7854,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.6391745387418952E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2117851094816352E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.36537208296388E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4604176542599276E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7645,10 +7902,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7780,16 +8037,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$50</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -7921,6 +8187,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-9.2002251113028066E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7066493392811086E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3701690747368378E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6203903620600784E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8061,6 +8336,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8167,6 +8443,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8230,10 +8507,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8365,16 +8642,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$50</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -8506,6 +8792,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-2.0389190409350944E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0317711133715601E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.0912817944568376E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.5461039257888554E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8545,10 +8840,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8680,16 +8975,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$50</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -8821,6 +9125,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-2.4062638079120013E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8198446489730791E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.9891644565810718E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.0145109918961577E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8860,10 +9173,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8995,16 +9308,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$50</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -9136,6 +9458,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.1328509383252037E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9918509760744172E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9253008189717109E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4974837891703627E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9175,10 +9506,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9310,16 +9641,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$50</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -9451,6 +9791,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.0365100099107867E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9933611802481339E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8522580608013621E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4481499424569906E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,10 +9839,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9625,16 +9974,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$50</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -9766,6 +10124,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>8.2420476533874729E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2845575867069416E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1026822244099872</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7579817399485282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9805,10 +10172,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9940,16 +10307,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$50</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -10081,6 +10457,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.3688585611476123E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1258049912082919E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1230980864224165E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.9529056649304719E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10122,10 +10507,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10257,16 +10642,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$50</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -10398,6 +10792,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-5.6548408324945898E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.5040054497963E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.3171062600309775E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.9096153367546904E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10439,10 +10842,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10574,16 +10977,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$50</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -10715,6 +11127,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-3.2792501800091522E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.2732212477944769E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.5010160198421274E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.4920153523099629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10756,10 +11177,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10891,16 +11312,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$50</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -11032,6 +11462,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.8776363015162305E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.010938982248625E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5496088967568404E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5698111390682916E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11172,6 +11611,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11278,6 +11718,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11341,10 +11782,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11476,16 +11917,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$50</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -11617,6 +12067,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.3748979331693407E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5993139980687205E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.699869722495075E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3013943682346891E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11656,10 +12115,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11791,16 +12250,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$50</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -11932,6 +12400,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.1545610222926124E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5149827963225633E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.7258842224815902E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0905329472575405E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11971,10 +12448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -12106,16 +12583,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$50</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -12247,6 +12733,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.0777535742163353E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7012499767751672E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6638182773426564E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7972581501221061E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12286,10 +12781,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$50</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -12421,16 +12916,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$50</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -12562,6 +13066,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.9610919854210058E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1398988659151259E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9882731158508156E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5190557250778465E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12702,6 +13215,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12808,6 +13322,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12951,93 +13466,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$50:$AE$50</c:f>
+              <c:f>'2018累积涨跌幅'!$D$53:$AE$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1.3711005148311806E-2</c:v>
+                  <c:v>8.5075002263861332E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.4205912616934722E-3</c:v>
+                  <c:v>4.202846833987417E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4606667988090516E-2</c:v>
+                  <c:v>1.8003918189103407E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5637664437431216E-3</c:v>
+                  <c:v>2.729070636154729E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.3354337753132022E-3</c:v>
+                  <c:v>2.0175012417374738E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.6354448539391164E-2</c:v>
+                  <c:v>4.2220274389395129E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9561261330455446E-2</c:v>
+                  <c:v>8.7562120707043167E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7623849044493998E-2</c:v>
+                  <c:v>7.3157260600538399E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.3249603761693947E-2</c:v>
+                  <c:v>-6.4425084693301438E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1726761996922797E-2</c:v>
+                  <c:v>8.0388987571817783E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6391745387418952E-2</c:v>
+                  <c:v>2.4604176542599276E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.2002251113028066E-3</c:v>
+                  <c:v>4.6203903620600784E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.0389190409350944E-2</c:v>
+                  <c:v>-1.5461039257888554E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.4062638079120013E-2</c:v>
+                  <c:v>-3.0145109918961577E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1328509383252037E-2</c:v>
+                  <c:v>2.4974837891703627E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0365100099107867E-2</c:v>
+                  <c:v>3.4481499424569906E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2420476533874729E-2</c:v>
+                  <c:v>8.7579817399485282E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3688585611476123E-2</c:v>
+                  <c:v>2.9529056649304719E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.6548408324945898E-2</c:v>
+                  <c:v>-3.9096153367546904E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.2792501800091522E-2</c:v>
+                  <c:v>-3.4920153523099629E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8776363015162305E-2</c:v>
+                  <c:v>4.5698111390682916E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6480634857490859E-2</c:v>
+                  <c:v>5.8189019381717833E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.570357386475E-2</c:v>
+                  <c:v>9.0961221295122741E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0240221743147426E-2</c:v>
+                  <c:v>-4.2808746535263342E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3748979331693407E-2</c:v>
+                  <c:v>3.3013943682346891E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1545610222926124E-2</c:v>
+                  <c:v>3.0905329472575405E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0777535742163353E-2</c:v>
+                  <c:v>2.7972581501221061E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9610919854210058E-2</c:v>
+                  <c:v>3.5190557250778465E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16542,13 +17057,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16572,13 +17087,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16602,13 +17117,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16632,13 +17147,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16662,13 +17177,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16692,13 +17207,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17037,8 +17552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17061,7 +17576,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180309</v>
+        <v>20180313</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -17069,7 +17584,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>20180305</v>
+        <v>20180312</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -17131,31 +17646,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>2908.1974</v>
+        <v>2883.3771000000002</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>3.4307549696641626E-3</v>
+        <v>-9.0054943682063016E-3</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>1.5367032711662398E-2</v>
+        <v>-8.5345994738871278E-3</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>1.0258499542809218E-2</v>
+        <v>1.6363478841210366E-3</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>1.6697138125397304E-2</v>
+        <v>8.0200352652497475E-3</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>393.03801991</v>
+        <v>443.83331437999999</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>1.1443249520000001</v>
+        <v>1.103687992</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -17167,31 +17682,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3307.1655999999998</v>
+        <v>3310.2388999999998</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>5.7049229482191155E-3</v>
+        <v>-4.9479375832958139E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>1.6173557317046505E-2</v>
+        <v>9.2928518608204058E-4</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>1.4652231325443132E-2</v>
+        <v>1.559513261303902E-2</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>-1.9654253856637993E-6</v>
+        <v>9.2731793425571141E-4</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>2023.4918190000001</v>
+        <v>2023.75117</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>11.971930376</v>
+        <v>13.10293897</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -17203,31 +17718,31 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4108.8652000000002</v>
+        <v>4091.2532999999999</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>7.6675248266744322E-3</v>
+        <v>-8.8216677986218128E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>2.3006373023415572E-2</v>
+        <v>-4.2863173024026979E-3</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>2.1180738890380857E-2</v>
+        <v>1.6803634220394548E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>1.9353289050419553E-2</v>
+        <v>1.4984017410301753E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1500.24119651</v>
+        <v>1411.7416063799999</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
-        <v>3.15175456E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17250,31 +17765,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7665.1674000000003</v>
+        <v>7699.0452999999998</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>1.913837581263711E-2</v>
+        <v>-1.0605796248114419E-2</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>2.8019580629476293E-2</v>
+        <v>4.419720826970952E-3</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>2.513013184450319E-2</v>
+        <v>2.966092083857208E-2</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>1.460137672245021E-2</v>
+        <v>1.9085631558223737E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>1229.8661729999999</v>
+        <v>1265.160914</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>1032.3272265999999</v>
+        <v>1180.1192023999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -17286,31 +17801,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1493.7194999999999</v>
+        <v>1504.2958000000001</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>1.7413363993150632E-2</v>
+        <v>-8.5490556375377169E-3</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>2.6245629993710162E-2</v>
+        <v>7.0805127736499607E-3</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>2.7610841830486788E-2</v>
+        <v>3.4886853522408945E-2</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>3.6005387404101086E-3</v>
+        <v>1.0706545174603566E-2</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>719.45705799999996</v>
+        <v>727.576458</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>621.65699500000005</v>
+        <v>695.51205440000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -17322,31 +17837,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1885.3841</v>
+        <v>1895.3081</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>1.5572968380423102E-2</v>
+        <v>-7.0879774547645269E-3</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>3.4666163689035745E-2</v>
+        <v>5.2636489296795652E-3</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>4.0623918192383313E-2</v>
+        <v>4.6101397165575708E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-7.3496443718766846E-3</v>
+        <v>-2.1246813899286066E-3</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>3096.7167060000002</v>
+        <v>2999.841492</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2516.0543571999997</v>
+        <v>2861.9845426000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -17358,31 +17873,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1626.5759</v>
+        <v>1648.2191</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>4.2464490246794551E-2</v>
+        <v>-4.2957597578729967E-3</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>4.9490474052050759E-2</v>
+        <v>1.3305988364883614E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>5.5883525220579378E-2</v>
+        <v>6.9933099121836761E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>7.0290561280503816E-2</v>
+        <v>8.4531835035946981E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>305.01518800000002</v>
+        <v>262.92425500000002</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>198.08289580000002</v>
+        <v>238.52290079999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -17394,31 +17909,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1856.4554000000001</v>
+        <v>1872.6782000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>3.5262680306773042E-2</v>
+        <v>-5.1693335507851934E-3</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>4.7657868311236529E-2</v>
+        <v>8.7385886027748771E-3</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>5.8637313718980399E-2</v>
+        <v>6.7888309683117321E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>5.9226475078909102E-2</v>
+        <v>6.8482619481791129E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>1103.187054</v>
+        <v>1002.121956</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>801.32586379999998</v>
+        <v>944.86423059999993</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17441,31 +17956,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6837.1264000000001</v>
+        <v>6911.6656999999996</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>1.6645466250983176E-2</v>
+        <v>-5.1521705730679379E-3</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>3.0872080397549517E-2</v>
+        <v>1.0902138652870264E-2</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>4.1640282082613167E-2</v>
+        <v>5.2996388864292587E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-2.5682739093919049E-2</v>
+        <v>-1.5060597223636285E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>1175.5293595099999</v>
+        <v>1245.24862727</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.74030851999999991</v>
+        <v>0.96755912599999994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -17477,31 +17992,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6206.9754000000003</v>
+        <v>6254.1457</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>1.2307106782856403E-2</v>
+        <v>-6.6126700536562888E-3</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>2.4873127072850165E-2</v>
+        <v>7.5995629046636815E-3</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>3.0429652851572397E-2</v>
+        <v>3.8260467817248456E-2</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>-7.014326934701498E-3</v>
+        <v>5.3193015118790932E-4</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>984.13231492</v>
+        <v>975.23497129999998</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.43475344999999999</v>
+        <v>0.65347419600000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -17513,31 +18028,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4208.8577999999998</v>
+        <v>4178.2178999999996</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>5.5788696013294725E-3</v>
+        <v>-8.7549090228943305E-3</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>2.1050285041311678E-2</v>
+        <v>-7.2798610587414547E-3</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>1.8587958513778258E-2</v>
+        <v>1.1172779699690993E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>3.1267473977013127E-2</v>
+        <v>2.3759990052061308E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>789.32748318999995</v>
+        <v>756.82271956</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.35070008600000002</v>
+        <v>0.415120198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -17549,31 +18064,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4351.4660000000003</v>
+        <v>4359.7710999999999</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>1.2017437581595569E-2</v>
+        <v>-8.9585530617128928E-3</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>2.7078863160799882E-2</v>
+        <v>1.9085751790315353E-3</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>2.6589428351189159E-2</v>
+        <v>2.8548751453196353E-2</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>-4.5694314529235447E-3</v>
+        <v>-2.6695773773453002E-3</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>710.91371300000003</v>
+        <v>654.91888600000004</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>648.95993959999998</v>
+        <v>692.32214980000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -17596,31 +18111,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>9012.4999000000007</v>
+        <v>8965.6623999999993</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>1.0281102634875916E-2</v>
+        <v>-9.4271810799169131E-3</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>1.0521442861607389E-2</v>
+        <v>-5.1969487400495007E-3</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>1.4264081260509487E-2</v>
+        <v>8.9930028213252022E-3</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>-9.9181648056021476E-3</v>
+        <v>-1.5063569351561501E-2</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>91.517517040000001</v>
+        <v>94.253009460000001</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>1.2957420420000001</v>
+        <v>1.318423458</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -17632,31 +18147,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>12577.0128</v>
+        <v>12423.974399999999</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>6.0087786554734457E-3</v>
+        <v>-1.0461563046882172E-2</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>7.6851276017952941E-3</v>
+        <v>-1.2168104019103954E-2</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>1.0729943809676401E-2</v>
+        <v>-1.5687232818227814E-3</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>-1.1782103683618761E-2</v>
+        <v>-2.3806841839536519E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>121.18442804</v>
+        <v>124.71044976</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>6.9873234319999993</v>
+        <v>6.5065069100000006</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -17668,31 +18183,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13818.928</v>
+        <v>13752.596299999999</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>8.4106145070594884E-3</v>
+        <v>-1.3738878007083954E-2</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>5.4776656042898386E-2</v>
+        <v>-4.8000611914325031E-3</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>6.5577182924190458E-2</v>
+        <v>6.046234724196009E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>1.8067390371292458E-2</v>
+        <v>1.3180604600508294E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>189.59400939</v>
+        <v>177.89523410000001</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.17683379800000001</v>
+        <v>0.25135468599999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -17704,27 +18219,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>10403.1273</v>
+        <v>10348.586300000001</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>9.2865254291445432E-3</v>
+        <v>-1.3391300715051457E-2</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>5.8892297802470628E-2</v>
+        <v>-5.2427504179439754E-3</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>6.8074331642929309E-2</v>
+        <v>6.2474684494313149E-2</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>3.0199355643588888E-2</v>
+        <v>2.4798277541222991E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>298.86155532999999</v>
+        <v>282.45299277999999</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -17740,31 +18255,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>7484.3432000000003</v>
+        <v>7448.2807000000003</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>9.6312842921986164E-3</v>
+        <v>-1.3696064628758053E-2</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>5.8069833506548374E-2</v>
+        <v>-4.8183920801494473E-3</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>7.3017807350523212E-2</v>
+        <v>6.7847586845726005E-2</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>7.7947002063531556E-2</v>
+        <v>7.2753030765967841E-2</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>53.588857529999999</v>
+        <v>54.832235939999997</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>49.090161475999999</v>
+        <v>54.429308698</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -17776,31 +18291,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8721.3516999999993</v>
+        <v>8706.7296000000006</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>1.733221084856984E-2</v>
+        <v>-1.1238547863037018E-2</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>4.3030215812917882E-2</v>
+        <v>-1.6765864401498964E-3</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>4.8618465115087162E-2</v>
+        <v>4.6860365615584376E-2</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>2.1104229404498964E-2</v>
+        <v>1.9392259899499553E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>344.27801899999997</v>
+        <v>314.19988599999999</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>289.9041532</v>
+        <v>317.21120500000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -17812,27 +18327,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1649.9521</v>
+        <v>1660.2218</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>1.219813918226631E-2</v>
+        <v>-6.1283754944000401E-3</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>2.9220415884488427E-2</v>
+        <v>6.2242412976716288E-3</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>3.4931391151882485E-2</v>
+        <v>4.1373053856946784E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-5.1448620855364065E-2</v>
+        <v>-4.5544608188328617E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>186.16927987</v>
+        <v>171.99270999000001</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -17848,27 +18363,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>9984.0478999999996</v>
+        <v>9859.5324000000001</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>1.040137647905981E-2</v>
+        <v>-2.0213399692213141E-2</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>3.6958664267381813E-2</v>
+        <v>-1.2471444573097457E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>2.9813791395280731E-2</v>
+        <v>1.6970525775283241E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>-1.8931398556892853E-2</v>
+        <v>-3.116674124219676E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>160.706366</v>
+        <v>143.51958200000001</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -17884,31 +18399,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>6800.5228999999999</v>
+        <v>6771.9553999999998</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>1.2710305593575111E-3</v>
+        <v>1.9323116102154536E-4</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>7.1503658658911284E-3</v>
+        <v>-4.200779913556385E-3</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>2.0710479168559726E-3</v>
+        <v>-2.1384320131896395E-3</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>4.2617995849503432E-2</v>
+        <v>3.8238187115026578E-2</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>118.67686</v>
+        <v>182.92361700000001</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>159.0752942</v>
+        <v>168.7693434</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17931,31 +18446,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>30996.21</v>
+        <v>31601.45</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>1.1146480192806729E-2</v>
+        <v>2.2535689156888417E-4</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>1.3496188297919209E-2</v>
+        <v>1.952625821027798E-2</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>4.9113754315162073E-3</v>
+        <v>2.4533534426637749E-2</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>3.599901735176303E-2</v>
+        <v>5.6228201670167843E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>999.89471300000002</v>
+        <v>1101.8926389999999</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1096.9060688</v>
+        <v>1086.9411462</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -17967,31 +18482,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>12431.2</v>
+        <v>12746.78</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>7.8128356856155268E-3</v>
+        <v>3.8961008276556797E-3</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>1.8624358914479222E-2</v>
+        <v>2.5386125233284096E-2</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>3.9670233111077646E-3</v>
+        <v>2.9453855894970848E-2</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>6.165184938467716E-2</v>
+        <v>8.8603076187304244E-2</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>248.72222199999999</v>
+        <v>354.32509700000003</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>339.94130680000001</v>
+        <v>329.11410139999998</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -18003,23 +18518,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>128.19</v>
+        <v>124.32</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>-2.8004667444575526E-3</v>
+        <v>-1.1843255703044342E-2</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>3.365685660613682E-3</v>
+        <v>-3.0189562368359457E-2</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>5.8061985092192625E-3</v>
+        <v>-2.4558650451157349E-2</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-1.6570771001150675E-2</v>
+        <v>-4.6260069044879233E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -18085,31 +18600,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3085.1365999999998</v>
+        <v>3076.2647000000002</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>2.1708951533327969E-3</v>
+        <v>-3.8425829784234367E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>1.3261611381816696E-2</v>
+        <v>-2.87569114443742E-3</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>1.1769523270062088E-2</v>
+        <v>8.8599866117828885E-3</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>3.0442533929367022E-2</v>
+        <v>2.7479299459694628E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>218.41144111</v>
+        <v>276.66654399999999</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>260.75080718200002</v>
+        <v>274.91617570799997</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -18121,31 +18636,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>4884.4115000000002</v>
+        <v>4864.3836000000001</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>3.4939974583581002E-3</v>
+        <v>-6.1252914832840011E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>2.10072520943414E-2</v>
+        <v>-4.1003711501375051E-3</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>1.9757855889622089E-2</v>
+        <v>1.5576470197206316E-2</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>2.8126726950568282E-2</v>
+        <v>2.3911025780694706E-2</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>413.28855900000002</v>
+        <v>449.95035200000001</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>438.44062199999996</v>
+        <v>467.0074472</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -18157,31 +18672,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9265.0907000000007</v>
+        <v>9184.3243999999995</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>6.0487969609264169E-3</v>
+        <v>-8.3593305901790149E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>3.1230105676288034E-2</v>
+        <v>-8.7172703015202524E-3</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>3.2133539505513342E-2</v>
+        <v>2.3136152454378944E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>3.4094931306912546E-2</v>
+        <v>2.5080446273278101E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>207.65157099999999</v>
+        <v>189.353768</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>197.0253854</v>
+        <v>208.25344460000002</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -18193,31 +18708,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6203.3074999999999</v>
+        <v>6166.3257000000003</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>1.7199403842276251E-3</v>
+        <v>-4.5122144710512124E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>1.6268217420880138E-2</v>
+        <v>-5.9616261163902839E-3</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>1.5089191856910933E-2</v>
+        <v>9.0376096202711143E-3</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>3.660977861081216E-2</v>
+        <v>3.0429898682140522E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>312.16299326000001</v>
+        <v>362.42083812999999</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>349.19872163599996</v>
+        <v>372.526206876</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -18262,27 +18777,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>1932.96</v>
+        <v>1911.35</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>1.0518391501641577E-2</v>
+        <v>-1.9574149401644592E-2</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>3.6523044748907552E-2</v>
+        <v>-1.1179745054217483E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>3.012635696508803E-2</v>
+        <v>1.8609806920588445E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>-1.9434171879042395E-2</v>
+        <v>-3.0396647846312352E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>228.23169999999999</v>
+        <v>200.28710000000001</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -18299,27 +18814,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>3804.85</v>
+        <v>3786.52</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>1.4449802071927476E-3</v>
+        <v>-3.4584445447660705E-4</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>7.4269222622325159E-3</v>
+        <v>-4.8175355138835307E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>2.487214820006356E-3</v>
+        <v>-2.3423029396033579E-3</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>4.4602582370366628E-2</v>
+        <v>3.9570172331903075E-2</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>124.9555</v>
+        <v>191.25020000000001</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -18336,27 +18851,27 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11462</v>
+        <v>11296.69</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>6.2798111052486671E-3</v>
+        <v>-1.1127636051369794E-2</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>6.5192803501303853E-3</v>
+        <v>-1.4422439364857764E-2</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>1.1807659442243379E-2</v>
+        <v>-2.7850751749609604E-3</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>-5.8847252999822963E-3</v>
+        <v>-2.0222292571022149E-2</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>149.2423</v>
+        <v>149.2826</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
@@ -18372,31 +18887,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7796.27</v>
+        <v>7855.23</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>7.1828407618461654E-3</v>
+        <v>-1.8209404337727886E-3</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>3.5868838780225731E-2</v>
+        <v>7.5625908286911514E-3</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>4.9116772772352491E-2</v>
+        <v>5.7050813656346566E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>7.9202945695657556E-2</v>
+        <v>8.7364515995072001E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>116.9053</v>
+        <v>120.0611</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>97.131879999999995</v>
+        <v>115.49375999999999</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -18410,31 +18925,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3469.58</v>
+        <v>3493.48</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>2.9558126630207404E-2</v>
+        <v>-1.0807979273144253E-2</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>4.7673400368390961E-2</v>
+        <v>6.8884418286940807E-3</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>4.8582127217173365E-2</v>
+        <v>5.5805224203117065E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-1.5338526753210235E-3</v>
+        <v>5.3440232984451885E-3</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>564.28160000000003</v>
+        <v>467.40269999999998</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>448.56234000000006</v>
+        <v>482.44552000000004</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -18448,27 +18963,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4426.2299999999996</v>
+        <v>4513.1400000000003</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>3.3777013786869814E-2</v>
+        <v>-7.1517612595950464E-4</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>5.0233478545599342E-2</v>
+        <v>1.9635220040531198E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>8.6434025757899283E-2</v>
+        <v>0.1077663969131757</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>5.8666092634449107E-2</v>
+        <v>7.9453234312775844E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>524.47450000000003</v>
+        <v>531.90859999999998</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -18486,27 +19001,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5972.04</v>
+        <v>5979.17</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>1.5380220961034308E-2</v>
+        <v>-1.5613206601965413E-3</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>4.0151458414249941E-2</v>
+        <v>1.193896892853985E-3</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>5.0607191298244203E-2</v>
+        <v>5.186150795954525E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>0.1065603842177234</v>
+        <v>0.10788150322219646</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>23.1873</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -18524,27 +19039,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>8251.51</v>
+        <v>8217.0400000000009</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>9.3071670935560569E-3</v>
+        <v>-1.3181534322908917E-2</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>6.0786741178119108E-2</v>
+        <v>-4.1774172242412533E-3</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>7.0793072393128487E-2</v>
+        <v>6.6319922968915312E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>2.1781636309826879E-2</v>
+        <v>1.7513228102892686E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>342.2244</v>
+        <v>318.96910000000003</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -18562,27 +19077,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3293.18</v>
+        <v>3315.63</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>1.9134105784268662E-4</v>
+        <v>-3.4773984130800351E-3</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>2.1697783052601061E-3</v>
+        <v>6.8171190156627315E-3</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>-1.2705512717504752E-2</v>
+        <v>-5.9750086941922076E-3</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>-3.8981428521402295E-2</v>
+        <v>-3.2430050543370448E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>72.207300000000004</v>
+        <v>81.390900000000002</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -18600,27 +19115,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>5033.51</v>
+        <v>5088.88</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>1.2517902833877992E-2</v>
+        <v>-3.8582074505881803E-3</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>2.8834283098004398E-2</v>
+        <v>1.1000276149247812E-2</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>3.6913512088202038E-2</v>
+        <v>4.8319847064058452E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-3.228342974912668E-2</v>
+        <v>-2.1638280242164187E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>147.67959999999999</v>
+        <v>163.49600000000001</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -18638,27 +19153,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>933.03</v>
+        <v>946.23</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>2.8596941869053705E-2</v>
+        <v>-6.1653187690369204E-3</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>2.9084772682152149E-2</v>
+        <v>1.4147455065753656E-2</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>3.8234279546440764E-2</v>
+        <v>5.2922652364049139E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>4.5218177707437857E-3</v>
+        <v>1.8733245050224445E-2</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>305.35789999999997</v>
+        <v>271.0213</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -18676,27 +19191,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2690.41</v>
+        <v>2708.83</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>3.2299528437628178E-2</v>
+        <v>-1.1116059694518343E-2</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>4.0676917126003298E-2</v>
+        <v>6.8465401184205632E-3</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>4.5464966717312816E-2</v>
+        <v>5.2622784554346103E-2</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-3.8562423168186699E-2</v>
+        <v>-3.1979902227050605E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>241.65780000000001</v>
+        <v>195.60480000000001</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -18714,27 +19229,27 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2971.79</v>
+        <v>2981.32</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>7.8750038154087321E-3</v>
+        <v>-8.8861554827878164E-3</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>1.9712868093633595E-2</v>
+        <v>3.2068214779645832E-3</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>2.6542772759460487E-2</v>
+        <v>2.9834712171194822E-2</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>-2.0249712877206116E-3</v>
+        <v>1.1753564688261608E-3</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>95.562600000000003</v>
+        <v>89.249099999999999</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
@@ -18752,27 +19267,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>5064.03</v>
+        <v>4978.9399999999996</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>-2.1721358414383829E-5</v>
+        <v>-3.3429150218992065E-3</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>2.985630091799818E-2</v>
+        <v>-1.68028230480467E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>2.4781597751321938E-2</v>
+        <v>7.5623739014119007E-3</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>3.1288757104832587E-2</v>
+        <v>1.3960194607760101E-2</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>171.6934</v>
+        <v>161.88399999999999</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -18790,31 +19305,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2682.14</v>
+        <v>2719.54</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>1.1822845933302961E-2</v>
+        <v>8.9064892238854831E-4</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>1.6732373009855861E-2</v>
+        <v>1.3944089421134009E-2</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>2.3276220561360805E-2</v>
+        <v>3.754487568338849E-2</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>-1.7246749059251609E-2</v>
+        <v>-3.5431498492237701E-3</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>44.468899999999998</v>
+        <v>48.806600000000003</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>35.357999999999997</v>
+        <v>41.909399999999998</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -18828,27 +19343,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3145.6</v>
+        <v>3195.22</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>8.9359600223239966E-3</v>
+        <v>-3.9496366770681579E-3</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>1.1021081152311929E-2</v>
+        <v>1.5774415055951119E-2</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>1.3441241285101269E-2</v>
+        <v>2.9427684059950776E-2</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>-1.3176057221734205E-2</v>
+        <v>2.3905132388002404E-3</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>307.9486</v>
+        <v>368.18759999999997</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -18866,27 +19381,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1391.54</v>
+        <v>1398.79</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>1.4811519584606581E-2</v>
+        <v>-7.7885045078275317E-3</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>2.9877809602048444E-2</v>
+        <v>5.2100550469265094E-3</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>3.928480738494633E-2</v>
+        <v>4.4699538440856168E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-4.5792418673542112E-2</v>
+        <v>-4.0820944648636726E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>251.13890000000001</v>
+        <v>263.14530000000002</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -18904,31 +19419,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2785.28</v>
+        <v>2806.55</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>1.5180618377842459E-2</v>
+        <v>1.5559259008133264E-3</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>2.0245347086640608E-2</v>
+        <v>7.6365751378675295E-3</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>2.306720343216484E-2</v>
+        <v>3.0879933002262661E-2</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>-5.0248240493207419E-2</v>
+        <v>-4.2995389819411756E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>62.323</v>
+        <v>76.391099999999994</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>59.465400000000002</v>
+        <v>65.78792</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -18942,27 +19457,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2571.04</v>
+        <v>2564.08</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>9.0780286587830439E-3</v>
+        <v>-7.1095553042859194E-3</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>3.5924379905555304E-2</v>
+        <v>-2.7070757358890196E-3</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>3.4940263420603523E-2</v>
+        <v>3.2138601745403061E-2</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-7.1863572204713955E-2</v>
+        <v>-7.4376107807993308E-2</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>52.912700000000001</v>
+        <v>47.972200000000001</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -18980,27 +19495,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2907.12</v>
+        <v>2910.84</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>8.9962515618493555E-3</v>
+        <v>-5.2151327705819428E-3</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>1.8926648721399708E-2</v>
+        <v>1.2796169404771796E-3</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>1.6535947940961471E-2</v>
+        <v>1.7836724560550854E-2</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>-2.579207461130828E-4</v>
+        <v>1.0213661546081276E-3</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>134.97030000000001</v>
+        <v>124.5745</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -19018,31 +19533,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4361.05</v>
+        <v>4400.2</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>1.2970331296266568E-2</v>
+        <v>-5.7348415348948967E-3</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>2.7025945001401208E-2</v>
+        <v>8.977195858795417E-3</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>3.057178236539615E-2</v>
+        <v>3.9823427102238185E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>-1.4652387085112517E-2</v>
+        <v>-5.8067285749791031E-3</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>82.643799999999999</v>
+        <v>87.312799999999996</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>72.88646</v>
+        <v>79.057100000000005</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -19056,27 +19571,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3175.23</v>
+        <v>3186.85</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>-1.6219582473556038E-2</v>
+        <v>-5.923564494797029E-3</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>-2.7175827912976014E-2</v>
+        <v>3.6595774164391859E-3</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>-5.3419070957125288E-2</v>
+        <v>-4.9954984766367956E-2</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>2.5885994358843423E-2</v>
+        <v>2.9640303575640292E-2</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>101.8168</v>
+        <v>68.052000000000007</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -19094,27 +19609,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>5107.4799999999996</v>
+        <v>5186.3100000000004</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>1.8308693788442243E-2</v>
+        <v>-5.4213378642190557E-3</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>2.8881310043492148E-2</v>
+        <v>1.5434225880473607E-2</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>3.9172321183328362E-2</v>
+        <v>5.5211141517207851E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-5.0971793823627924E-2</v>
+        <v>-3.6324278122561227E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>191.7816</v>
+        <v>206.93129999999999</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -19132,27 +19647,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>2891.91</v>
+        <v>2886.11</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>6.4978908827664217E-3</v>
+        <v>-8.4515461863255981E-3</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>1.8030830537651088E-2</v>
+        <v>-2.0055949182373745E-3</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>1.4448981309984843E-2</v>
+        <v>1.2414407588258625E-2</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>-4.1671361253421517E-2</v>
+        <v>-4.3593380301293012E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>127.7197</v>
+        <v>128.7833</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -19170,27 +19685,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2560.09</v>
+        <v>2549.8000000000002</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>3.1464777473884098E-3</v>
+        <v>-7.7904289016351713E-3</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>2.6964903905939863E-2</v>
+        <v>-4.0193899433222935E-3</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>3.5333559804587855E-2</v>
+        <v>3.1172150506325158E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-4.5308939845390202E-2</v>
+        <v>-4.9146215491555401E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>167.8092</v>
+        <v>114.22799999999999</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -19208,27 +19723,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>3987.35</v>
+        <v>4073.09</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>2.8142730674822758E-3</v>
+        <v>-4.4679410564186783E-3</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>6.6803167974873734E-3</v>
+        <v>2.1503003247771213E-2</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>2.5369224038658267E-3</v>
+        <v>2.4094477102326817E-2</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-3.8254199881812334E-2</v>
+        <v>-1.7573776818340714E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>288.24869999999999</v>
+        <v>311.91640000000001</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -19246,27 +19761,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>6010.32</v>
+        <v>6137.77</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>2.6758843430736423E-3</v>
+        <v>2.1176201671890826E-3</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>1.8888267304073558E-2</v>
+        <v>2.1205193733445205E-2</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>2.5658878217598602E-2</v>
+        <v>4.7408173434630996E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>1.3261450496138139E-3</v>
+        <v>2.2559459945754812E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>120.38330000000001</v>
+        <v>145.57069999999999</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -19284,27 +19799,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1211.71</v>
+        <v>1216.22</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>1.5768295749853278E-2</v>
+        <v>-1.234347338844588E-2</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>2.5039970899493502E-2</v>
+        <v>3.7220126928059205E-3</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>3.0181685243281464E-2</v>
+        <v>3.401603455165314E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-5.6462288392954418E-2</v>
+        <v>-5.2950429054211871E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>75.386399999999995</v>
+        <v>69.860399999999998</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -19388,31 +19903,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1555.2946999999999</v>
+        <v>1557.7608</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>2.1288752205861128E-2</v>
+        <v>-1.4432617647553769E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>7.2016187892482542E-2</v>
+        <v>1.585615896460002E-3</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>7.4301836120923337E-2</v>
+        <v>7.6005266189872911E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-8.3985163862178025E-3</v>
+        <v>-6.8262173108464275E-3</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>52.82581416</v>
+        <v>44.872206720000001</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>41.795387585999997</v>
+        <v>48.997406865999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -19424,31 +19939,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>9899.1990999999998</v>
+        <v>10011.971299999999</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>2.8641130361487965E-2</v>
+        <v>-8.1989550674403944E-3</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>4.1678015561950277E-2</v>
+        <v>1.1392052918705264E-2</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>5.7286132988113359E-2</v>
+        <v>6.9330792565327037E-2</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-2.9014310936733678E-2</v>
+        <v>-1.7952790583619538E-2</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>118.34333391</v>
+        <v>132.49118621</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>89.935620040000003</v>
+        <v>104.706619094</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -19460,31 +19975,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2354.4180000000001</v>
+        <v>2364.3215</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>2.4348584933550299E-2</v>
+        <v>-8.9008221944504307E-3</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>4.3232909049830015E-2</v>
+        <v>4.2063473860631806E-3</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>4.9867008498087895E-2</v>
+        <v>5.428311384499751E-2</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-4.4810980597648091E-2</v>
+        <v>-4.0793123762688843E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>144.55536247000001</v>
+        <v>99.428051890000006</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>108.645966288</v>
+        <v>114.26236180400001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -19496,31 +20011,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3407.7357999999999</v>
+        <v>3499.6093000000001</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>3.339999704633323E-2</v>
+        <v>6.7850503806892171E-3</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>6.2106903488325482E-2</v>
+        <v>2.6960276674030892E-2</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>8.5370602056968448E-2</v>
+        <v>0.114632493782284</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>6.9457082291122907E-2</v>
+        <v>9.8289941120693461E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>133.42092281000001</v>
+        <v>131.27666869000001</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>97.831754106000005</v>
+        <v>112.40766101199999</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -19533,31 +20048,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1906.3493000000001</v>
+        <v>1955.2007000000001</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>1.3710124050386074E-2</v>
+        <v>1.3325127365262368E-2</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>1.0515760521326412E-2</v>
+        <v>2.5625629049198961E-2</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>1.8268916033952864E-2</v>
+        <v>4.4362697548568919E-2</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-6.6778237868516443E-2</v>
+        <v>-4.2863843171495282E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>11.152789370000001</v>
+        <v>14.67485922</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>10.771933731999999</v>
+        <v>11.757858713999999</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -19570,31 +20085,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>6149.2699000000002</v>
+        <v>6195.3140999999996</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>2.1120101153041304E-2</v>
+        <v>-6.2839927477006396E-3</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>4.3848116291628658E-2</v>
+        <v>7.4877507002903965E-3</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>6.3131525398668842E-2</v>
+        <v>7.1091989222473506E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-4.4183978783152389E-2</v>
+        <v>-3.702706670093725E-2</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>133.76943048000001</v>
+        <v>124.33525277</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>111.46626181399999</v>
+        <v>122.20629492200001</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -19607,31 +20122,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6865.8091999999997</v>
+        <v>6927.6293999999998</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>3.2845722633983776E-2</v>
+        <v>-8.3535935327683219E-3</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>3.8007254913833277E-2</v>
+        <v>9.0040661194021876E-3</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>4.4259363027889798E-2</v>
+        <v>5.3661943378397803E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>-3.1090909191227034E-3</v>
+        <v>5.8669807400724139E-3</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>108.84275959999999</v>
+        <v>89.476673450000007</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>72.892274205999996</v>
+        <v>86.165122812000007</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -19644,31 +20159,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2906.4196000000002</v>
+        <v>2936.2829000000002</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>2.8161909079743364E-2</v>
+        <v>-7.6360389431530118E-3</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>4.0238125021362814E-2</v>
+        <v>1.0274944471197367E-2</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>6.072291151147402E-2</v>
+        <v>7.1621780526581302E-2</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-3.6372546656491589E-2</v>
+        <v>-2.6471328082465551E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>132.55387518000001</v>
+        <v>136.06484871000001</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>110.09786556399999</v>
+        <v>121.32096836999999</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -19681,31 +20196,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>5576.982</v>
+        <v>5707.4414999999999</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>3.0184255985118424E-2</v>
+        <v>3.3435458902311144E-3</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>4.6435328221025696E-2</v>
+        <v>2.3392490777269792E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>0.11537130414565677</v>
+        <v>0.14146261709111529</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>6.3219984985615207E-2</v>
+        <v>8.8091348678600134E-2</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>139.76788687999999</v>
+        <v>123.4357918</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>115.66930525800001</v>
+        <v>115.70237771800001</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -19719,31 +20234,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1764.8662999999999</v>
+        <v>1783.5254</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>5.1644305901599186E-3</v>
+        <v>-9.4235533490016898E-4</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>1.5431995769038975E-2</v>
+        <v>1.057252892187921E-2</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>2.8901856431141182E-2</v>
+        <v>3.9779951066034824E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-4.5865245206339722E-2</v>
+        <v>-3.5777627915913546E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>44.917112080000003</v>
+        <v>48.248654080000001</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>43.659969771999997</v>
+        <v>49.82904027</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -19757,31 +20272,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2473.6718000000001</v>
+        <v>2477.1453000000001</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>1.2601769439119836E-2</v>
+        <v>-8.7456954795691599E-3</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>1.5410467233294867E-2</v>
+        <v>1.4041878959043519E-3</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>1.5045636950757668E-2</v>
+        <v>1.6470951747954654E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-5.3693601798664448E-2</v>
+        <v>-5.2364809808493229E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>43.498445080000003</v>
+        <v>28.042836059999999</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>27.489311992000001</v>
+        <v>31.426408626000001</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -19795,31 +20310,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>975.40139999999997</v>
+        <v>991.82640000000004</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>2.2900822598168613E-2</v>
+        <v>-5.5377778802716549E-3</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>4.0821174075330813E-2</v>
+        <v>1.6839221268290183E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>5.5224946286812182E-2</v>
+        <v>7.2994112645155429E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>3.0394499147869958E-3</v>
+        <v>1.9929853152726107E-2</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>48.857376610000003</v>
+        <v>51.854695220000004</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>38.300837999999999</v>
+        <v>42.602540185999999</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -19833,31 +20348,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2375.9149000000002</v>
+        <v>2422.1278000000002</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>1.6400613421451826E-2</v>
+        <v>3.649868987508853E-3</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>2.257417651209348E-2</v>
+        <v>1.9450570388695354E-2</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>3.018368538173366E-2</v>
+        <v>5.0221345667536665E-2</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-9.1853029801092223E-2</v>
+        <v>-7.4189053233957969E-2</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>43.481465989999997</v>
+        <v>63.177392740000002</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>33.860249019999998</v>
+        <v>45.032040092000003</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -19871,31 +20386,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1584.9244000000001</v>
+        <v>1595.9749999999999</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>4.4468815813735407E-2</v>
+        <v>-2.5522188654704125E-3</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>6.8708273295698286E-2</v>
+        <v>6.9723199415694381E-3</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>8.6748841597326778E-2</v>
+        <v>9.4326002217073324E-2</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>9.5443756682977998E-3</v>
+        <v>1.6583242050669078E-2</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>23.90134827</v>
+        <v>20.248056720000001</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>18.841601102000002</v>
+        <v>19.196146415999998</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -19909,31 +20424,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1961.3512000000001</v>
+        <v>1984.4374</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>1.2369131749282669E-2</v>
+        <v>-1.5504757438796757E-3</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>7.6491588021427859E-3</v>
+        <v>1.1770558990149116E-2</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>5.1669449385531863E-3</v>
+        <v>1.6998321758900481E-2</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-6.2100002405299559E-2</v>
+        <v>-5.1060395156750316E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>38.780151580000002</v>
+        <v>39.452859940000003</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>43.836145569999999</v>
+        <v>39.186199002000002</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -19947,31 +20462,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4724.6779999999999</v>
+        <v>4792.4853999999996</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>1.6373593025270194E-2</v>
+        <v>1.1056375944771268E-3</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>3.1434277746174022E-2</v>
+        <v>1.435175053199389E-2</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>2.8829618166924309E-2</v>
+        <v>4.3595124186782686E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>3.8046434399244156E-2</v>
+        <v>5.2944217866367937E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>13.060740940000001</v>
+        <v>9.5817285499999993</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>11.277178852</v>
+        <v>11.601966848</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -19985,31 +20500,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4444.1448</v>
+        <v>4548.9245000000001</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>2.9761954552413261E-2</v>
+        <v>2.5369299610213947E-3</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>4.4097834887932619E-2</v>
+        <v>2.3577022062827524E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>9.4328781551636265E-2</v>
+        <v>0.12012979537826629</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>2.1006571700067367E-2</v>
+        <v>4.5078866167331588E-2</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>200.48110299000001</v>
+        <v>198.79223241</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>159.41316925000001</v>
+        <v>172.62704798800002</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -20023,31 +20538,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2640.6529</v>
+        <v>2667.5509000000002</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>2.6094714190979529E-2</v>
+        <v>-6.9962341399757433E-3</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>4.8740182704148038E-2</v>
+        <v>1.0186117228811131E-2</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>5.7895142521332765E-2</v>
+        <v>6.867098645884484E-2</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-2.4916780238236624E-2</v>
+        <v>-1.4984468253896654E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>67.214051330000004</v>
+        <v>60.213025960000003</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>54.879750872000002</v>
+        <v>59.036282624000002</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -20061,31 +20576,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2616.5779000000002</v>
+        <v>2668.7471</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>4.1521289908303505E-2</v>
+        <v>-7.354234530080106E-3</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>3.3302263447071878E-2</v>
+        <v>1.9937950251738945E-2</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>3.9464468277017328E-2</v>
+        <v>6.0189259133974993E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>-4.8673490759842952E-4</v>
+        <v>1.944151084776724E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>59.885044329999999</v>
+        <v>54.066103839999997</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>42.953898542000005</v>
+        <v>48.362019056000001</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -20099,31 +20614,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3894.0902000000001</v>
+        <v>3956.3150999999998</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>2.1016779107009276E-2</v>
+        <v>-2.1885035091491201E-3</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>3.8765516333862715E-2</v>
+        <v>1.5979316555122303E-2</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>4.7423037237501076E-2</v>
+        <v>6.416014151664684E-2</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>1.8447970414118053E-2</v>
+        <v>3.4722072928287107E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>68.775359019999996</v>
+        <v>64.040564770000003</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>51.375498970000002</v>
+        <v>60.278249164000002</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -20137,31 +20652,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3505.6527000000001</v>
+        <v>3583.9600999999998</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>3.2823744689902679E-2</v>
+        <v>2.7529007202862221E-3</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>3.7374880890552298E-2</v>
+        <v>2.2337466572202036E-2</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>5.1721219584665024E-2</v>
+        <v>7.5214007170413044E-2</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-2.931966537616526E-2</v>
+        <v>-7.6371258492115013E-3</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>297.42724792000001</v>
+        <v>241.94876482999999</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>205.40848886200001</v>
+        <v>233.06241327799998</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -20175,31 +20690,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>2019.9994999999999</v>
+        <v>2033.7862</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>7.9470155055720859E-3</v>
+        <v>2.3292065129072448E-3</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>8.9420256274332921E-3</v>
+        <v>6.8251006992823271E-3</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>2.6129739914145356E-2</v>
+        <v>3.3133178719587875E-2</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-0.10949435313477462</v>
+        <v>-0.10341656242163989</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>32.110973209999997</v>
+        <v>24.9202911</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>22.117817199999998</v>
+        <v>22.700571062000002</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -20213,31 +20728,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>4159.9943999999996</v>
+        <v>4197.3504000000003</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>1.9719164551788237E-2</v>
+        <v>-1.047241577340785E-2</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>6.3365090842686156E-2</v>
+        <v>8.9798197805268654E-3</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>0.10282318343171347</v>
+        <v>0.11272633686871704</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-1.1075141298178326E-2</v>
+        <v>-2.1947742905530365E-3</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>90.428656610000004</v>
+        <v>74.394042720000002</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>72.469276440000002</v>
+        <v>78.798975041999995</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -20251,31 +20766,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1303.1605</v>
+        <v>1318.6348</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>1.0504932796903788E-2</v>
+        <v>-4.6388072527049351E-3</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>2.7272580363537191E-2</v>
+        <v>1.1874439104009094E-2</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>3.3635988247665782E-2</v>
+        <v>4.5909835845824976E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-5.1696962296534865E-2</v>
+        <v>-4.0436395623178134E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>13.44765924</v>
+        <v>18.592687139999999</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>11.660885412000001</v>
+        <v>15.003375460000001</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -20289,31 +20804,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2472.0625</v>
+        <v>2496.3161</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>1.1360415969549953E-2</v>
+        <v>-6.1052722689214356E-4</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>2.5111656385952363E-2</v>
+        <v>9.8110788056531284E-3</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>3.082200806055746E-2</v>
+        <v>4.0935484016241253E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-6.0114392440529955E-2</v>
+        <v>-5.0893100676464798E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>127.85588739000001</v>
+        <v>137.68611357</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>117.35231686</v>
+        <v>134.29085128599999</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -20327,31 +20842,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>5340.5742</v>
+        <v>5463.3200999999999</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>3.6601551602387428E-2</v>
+        <v>-4.9100250397179357E-3</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>7.4379006799142333E-2</v>
+        <v>2.2983652207285044E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>0.12501788459720342</v>
+        <v>0.15087490438376117</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>4.682019332690146E-2</v>
+        <v>7.0879944573889908E-2</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>204.90994928000001</v>
+        <v>215.46467448999999</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>172.49268159799999</v>
+        <v>186.51442394999998</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -20365,31 +20880,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1938.3252</v>
+        <v>1956.1463000000001</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>1.2717609589087964E-2</v>
+        <v>-4.3994010149276397E-3</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>2.8328290878316675E-2</v>
+        <v>9.1940712528528756E-3</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>3.8064271746837131E-2</v>
+        <v>4.7608308626318152E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-2.7106938846312323E-2</v>
+        <v>-1.816209072065933E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>94.257597520000004</v>
+        <v>100.96805191999999</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>91.378807256000002</v>
+        <v>97.826961686000004</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -20403,31 +20918,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3280.1381000000001</v>
+        <v>3327.2197999999999</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>2.5964632797225828E-2</v>
+        <v>-2.126017969662386E-3</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>3.4230973339688608E-2</v>
+        <v>1.4353572491353273E-2</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>6.5387690112946206E-2</v>
+        <v>8.0679809554377702E-2</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-6.9455182139103067E-2</v>
+        <v>-5.6098539639483642E-2</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>77.826655360000004</v>
+        <v>68.527650859999994</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>63.825110461999998</v>
+        <v>66.487226514</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -20441,31 +20956,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3418.7869999999998</v>
+        <v>3457.9553999999998</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>1.4715207287266496E-2</v>
+        <v>-3.1199749052830406E-3</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>3.6100424176059409E-2</v>
+        <v>1.1456812021339635E-2</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>5.0952290033686287E-2</v>
+        <v>6.2992852863998694E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-5.1761856634490178E-2</v>
+        <v>-4.0898070474487354E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>234.2796003</v>
+        <v>228.65626198000001</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>197.70901779000002</v>
+        <v>213.14294531000002</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -20479,31 +20994,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2304.6091000000001</v>
+        <v>2318.0270999999998</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>8.8500568707097216E-3</v>
+        <v>-6.3573524988385088E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>2.8832187222254779E-2</v>
+        <v>5.82224551660393E-3</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>4.5294747598328522E-2</v>
+        <v>5.1380710256062612E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>-4.1106310057344997E-3</v>
+        <v>1.6876814079258562E-3</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>20.462740220000001</v>
+        <v>25.716401909999998</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>23.449914811999999</v>
+        <v>25.912169364</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -20517,31 +21032,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1320.9097999999999</v>
+        <v>1330.492</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>9.2354019334786042E-3</v>
+        <v>-2.7181247719937351E-3</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>2.4956564402744297E-2</v>
+        <v>7.2542424925607918E-3</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>3.3850789724965802E-2</v>
+        <v>4.1350594054756273E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-2.8511922833426295E-2</v>
+        <v>-2.1464512743028297E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>20.613093549999999</v>
+        <v>16.01310668</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>12.748445516</v>
+        <v>15.492323841999999</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -20555,31 +21070,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>4213.6373999999996</v>
+        <v>4294.4268000000002</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>2.4500033662609111E-2</v>
+        <v>-4.5802374621330966E-3</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>4.022969181617353E-2</v>
+        <v>1.9173315672582625E-2</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>7.0896528082916799E-2</v>
+        <v>9.142916526852328E-2</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-2.7574624261641034E-2</v>
+        <v>-8.9300055645796794E-3</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>126.8821504</v>
+        <v>123.00419334999999</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>97.185716990000003</v>
+        <v>114.31075143800001</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -20593,31 +21108,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>3150.3180000000002</v>
+        <v>3192.7709</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>2.1530058649362527E-2</v>
+        <v>-2.9163588227184567E-3</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>3.8808336060342175E-2</v>
+        <v>1.3475750701992473E-2</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>5.5599798779427667E-2</v>
+        <v>6.9824798508852703E-2</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-4.9537968211430868E-2</v>
+        <v>-3.672977881933881E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>19.408223150000001</v>
+        <v>17.470410489999999</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>14.319441183999999</v>
+        <v>17.038841080000001</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -20631,31 +21146,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2481.0958999999998</v>
+        <v>2512.0230999999999</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>1.0173994387578933E-3</v>
+        <v>-2.0463423646382983E-3</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>1.9747986075573154E-2</v>
+        <v>1.2465136877619409E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>5.1696582554821013E-2</v>
+        <v>6.4806124410091481E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>4.8653263837767913E-2</v>
+        <v>6.1724870308667912E-2</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>26.6352853</v>
+        <v>35.069957170000002</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>30.937471202000001</v>
+        <v>34.053804784</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -20669,31 +21184,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2358.6426000000001</v>
+        <v>2393.5034999999998</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>2.806385806227718E-2</v>
+        <v>-7.1425484031301112E-3</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>5.3704827342686334E-2</v>
+        <v>1.4780068841290239E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>9.1899865896786212E-2</v>
+        <v>0.10803822108253612</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>2.0420766057124951E-2</v>
+        <v>3.5502655226531177E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>111.06016362</v>
+        <v>98.95303964</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>93.700881367999997</v>
+        <v>104.602718772</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -20707,31 +21222,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4544.6977999999999</v>
+        <v>4648.9012000000002</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>1.9188754333073765E-2</v>
+        <v>-4.6911323310209196E-3</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>2.7074164476672324E-2</v>
+        <v>2.2928565239255461E-2</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>3.6125120439030711E-2</v>
+        <v>5.9881982859048222E-2</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-3.0240850631562233E-2</v>
+        <v>-8.0056647089031818E-3</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>228.87743610999999</v>
+        <v>269.03406770999999</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>226.27691219799999</v>
+        <v>264.02532953599996</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -20745,31 +21260,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>5138.0844999999999</v>
+        <v>5264.1323000000002</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>3.277748252467938E-2</v>
+        <v>-6.2658423134167585E-3</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>4.757180193495425E-2</v>
+        <v>2.4532060537346245E-2</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>8.3253995102794173E-2</v>
+        <v>0.10982844768797806</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-3.769529753885914E-2</v>
+        <v>-1.4087980322709526E-2</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>73.269483820000005</v>
+        <v>86.510255240000006</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>62.297523306000002</v>
+        <v>73.33924335399999</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -20783,31 +21298,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5078.3903</v>
+        <v>5164.8225000000002</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>2.4392133636146562E-2</v>
+        <v>-2.4612145908879945E-3</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>2.9006096828191774E-2</v>
+        <v>1.7019605602192511E-2</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>4.6355853357842536E-2</v>
+        <v>6.4164417301538546E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>-6.2421901443279193E-3</v>
+        <v>1.0671175843514291E-2</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>190.64658155999999</v>
+        <v>186.04963652999999</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>142.00235726</v>
+        <v>165.62427288800001</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -20821,31 +21336,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>5063.9022000000004</v>
+        <v>5135.2133999999996</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>3.1875481523172988E-2</v>
+        <v>-1.1905609678066198E-2</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>6.5990125970511349E-2</v>
+        <v>1.4082262489192532E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>8.5990001621939496E-2</v>
+        <v>0.10128319788541805</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-8.0020671593519999E-2</v>
+        <v>-6.7065281206268867E-2</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>202.12862332</v>
+        <v>180.37746623000001</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>183.59018579399998</v>
+        <v>179.82042104800001</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -20859,31 +21374,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1582.1132</v>
+        <v>1592.2718</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>1.1891561383429172E-2</v>
+        <v>-9.428728307423806E-3</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>2.9596034816077754E-2</v>
+        <v>6.420905912421393E-3</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>3.0113895619815922E-2</v>
+        <v>3.6728160022668765E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-5.6778413336985967E-2</v>
+        <v>-5.0722076274457899E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>21.912479210000001</v>
+        <v>19.501129800000001</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>16.702932053999998</v>
+        <v>20.471538521999999</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -20897,31 +21412,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>5230.5164999999997</v>
+        <v>5259.7242999999999</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>2.3187421522623319E-2</v>
+        <v>-5.8177265942387368E-3</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>4.9847728903817501E-2</v>
+        <v>5.5841139206807E-3</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>5.6724287876041668E-2</v>
+        <v>6.2625156682291738E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-1.830153807761814E-2</v>
+        <v>-1.2819622030486588E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>65.00420957</v>
+        <v>50.365490289999997</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>52.021858085999995</v>
+        <v>56.030661045999999</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -20935,31 +21450,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>11648.368399999999</v>
+        <v>11855.705</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>4.0835414134133607E-2</v>
+        <v>-2.4452815085153068E-3</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>6.0893226905525344E-2</v>
+        <v>1.7799625911556927E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>8.541301272693147E-2</v>
+        <v>0.10473295831300679</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>4.6141161651287455E-2</v>
+        <v>6.4762082979361812E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>96.172034569999994</v>
+        <v>101.51255053</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>74.306691372000003</v>
+        <v>85.279963508000009</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -20973,31 +21488,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>2035.0853</v>
+        <v>2050.3964000000001</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>1.0408258328766351E-2</v>
+        <v>-4.0954847958909468E-3</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>2.3035069529536711E-2</v>
+        <v>7.5235667025850272E-3</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>2.6135250050107084E-2</v>
+        <v>3.3855447049732756E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-6.4935164586797378E-2</v>
+        <v>-5.7900141926324533E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>117.47838056000001</v>
+        <v>109.68699164</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>117.31472607000001</v>
+        <v>120.66442945399999</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -21011,31 +21526,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2544.0237999999999</v>
+        <v>2601.7941999999998</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>1.8934868962757312E-2</v>
+        <v>3.5474853978461063E-3</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>2.3117452342335865E-2</v>
+        <v>2.2708278122240744E-2</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>3.7874729855239764E-2</v>
+        <v>6.1443077876838004E-2</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-7.8896651614274615E-2</v>
+        <v>-5.7979980599804248E-2</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>102.44840413</v>
+        <v>118.63106467999999</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>88.921144518000006</v>
+        <v>103.827024944</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -21049,31 +21564,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1197.193</v>
+        <v>1209.5898999999999</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>1.8673088009121486E-2</v>
+        <v>-9.7036102319364437E-3</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>2.6622715661061669E-2</v>
+        <v>1.0354972005349072E-2</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>5.2864816889978128E-2</v>
+        <v>6.3767202594290806E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-3.5001394065191538E-2</v>
+        <v>-2.5008860515535636E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>19.423665150000001</v>
+        <v>24.596881159999999</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>17.079245046</v>
+        <v>19.957076735999998</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -21087,31 +21602,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2974.4618999999998</v>
+        <v>2997.2015000000001</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>1.4550951507151799E-2</v>
+        <v>-7.7018283875929239E-3</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>5.3926919285915531E-2</v>
+        <v>7.6449457967506795E-3</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>6.9724911923235711E-2</v>
+        <v>7.7902900892322879E-2</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-2.3325370654329158E-2</v>
+        <v>-1.5858746051919947E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>63.28486384</v>
+        <v>75.187049490000007</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>61.664975396000003</v>
+        <v>69.946836254000004</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -21125,31 +21640,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>834.77850000000001</v>
+        <v>830.59709999999995</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>8.764806494157229E-3</v>
+        <v>-8.664725444165966E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>5.5519505233351918E-2</v>
+        <v>-5.0089934036394723E-3</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>4.950924624109998E-2</v>
+        <v>4.4252261349619681E-2</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>3.8224252513387125E-2</v>
+        <v>3.3023794081048941E-2</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>11.30396193</v>
+        <v>10.32222749</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>12.404299763999999</v>
+        <v>12.476109107999999</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -21163,31 +21678,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4520.6301999999996</v>
+        <v>4543.8154999999997</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>1.2355487085275563E-2</v>
+        <v>-6.3261803335349365E-3</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>4.4261699482866623E-2</v>
+        <v>5.1287760719733733E-3</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>6.068732952620004E-2</v>
+        <v>6.6127357321719149E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>2.2614061050732825E-2</v>
+        <v>2.7858819577913252E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>55.431789420000001</v>
+        <v>64.192213989999999</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>53.079907452</v>
+        <v>58.023247837999996</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -21201,31 +21716,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>5033.2750999999998</v>
+        <v>5133.2070999999996</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>2.7783242335347014E-2</v>
+        <v>5.0271060518281008E-3</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>3.2473972739417656E-2</v>
+        <v>1.9854269439792738E-2</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>5.2962984254911083E-2</v>
+        <v>7.3868795054436331E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>-1.5316094135801039E-2</v>
+        <v>4.2340854442541875E-3</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>158.5567508</v>
+        <v>135.06598081000001</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>103.77647010000001</v>
+        <v>120.53293677799999</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -21239,31 +21754,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>732.11490000000003</v>
+        <v>747.23040000000003</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>1.3536339196754676E-2</v>
+        <v>2.9131885906086286E-3</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>2.3631122226982271E-2</v>
+        <v>2.0646349364013661E-2</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>3.2433635300981312E-2</v>
+        <v>5.3749620830564115E-2</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-7.8107197795057592E-2</v>
+        <v>-5.9073476924564661E-2</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>13.44543455</v>
+        <v>20.026834650000001</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>14.230805588000001</v>
+        <v>15.213954214000001</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -21277,31 +21792,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>23860.6803</v>
+        <v>23615.276099999999</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>1.9384073661412593E-2</v>
+        <v>-2.5315309390525398E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>0.11401431700090804</v>
+        <v>-1.0284878591663715E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>0.11901381900925267</v>
+        <v>0.10750489773834859</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-5.2208338083742145E-2</v>
+        <v>-6.1956260256741939E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>250.88062553</v>
+        <v>240.31852470000001</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>226.51676734799997</v>
+        <v>245.78197772799999</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -21315,31 +21830,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1849.9528</v>
+        <v>1889.7835</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>1.8434071970113042E-2</v>
+        <v>2.864647539723153E-3</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>4.0089267798391282E-2</v>
+        <v>2.1530657430827382E-2</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>5.0510396400053281E-2</v>
+        <v>7.3128575872465573E-2</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>-2.2428751600681585E-2</v>
+        <v>-1.380999937169558E-3</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>76.474753370000002</v>
+        <v>70.158116500000006</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>61.707516410000004</v>
+        <v>68.503400251999992</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -21353,31 +21868,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2846.7532999999999</v>
+        <v>2899.8669</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>1.9155154203625679E-2</v>
+        <v>5.9396603793704372E-4</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>2.0323435792313216E-2</v>
+        <v>1.8657605490437268E-2</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>2.7214930641467294E-2</v>
+        <v>4.6380301571262494E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>-9.4263322865469901E-3</v>
+        <v>9.0554004148659661E-3</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>32.618530679999999</v>
+        <v>31.744005229999999</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>21.920559865999998</v>
+        <v>27.518027419999999</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -21391,31 +21906,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2721.7952</v>
+        <v>2750.547</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>1.9989284434920318E-2</v>
+        <v>-7.3843138004965336E-3</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>4.6508257790604191E-2</v>
+        <v>1.0563542767655809E-2</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>5.7741568151080225E-2</v>
+        <v>6.8915066443371309E-2</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-4.3011097863134735E-2</v>
+        <v>-3.2901904667240078E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>42.002388230000001</v>
+        <v>42.627921989999997</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>33.327632096000002</v>
+        <v>38.268716771999998</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -21429,31 +21944,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1758.3969</v>
+        <v>1783.68</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>1.1996065041120163E-2</v>
+        <v>2.2310947074335452E-3</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>3.0192050540429838E-2</v>
+        <v>1.4378494411585896E-2</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>3.9944120647451564E-2</v>
+        <v>5.4896951374542535E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-5.0425702619526058E-2</v>
+        <v>-3.6772253891255269E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>66.487979039999999</v>
+        <v>66.130615750000004</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>64.53511121599999</v>
+        <v>67.787110787999993</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -21467,31 +21982,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2441.4555</v>
+        <v>2453.1383999999998</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>1.1091103350137299E-2</v>
+        <v>-4.0565456101346875E-3</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>2.2902841270740382E-2</v>
+        <v>4.7852193087278838E-3</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>2.7134255814731167E-2</v>
+        <v>3.2049318488311718E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-4.5636041911785163E-2</v>
+        <v>-4.1069201071987527E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>87.829329479999998</v>
+        <v>83.284273999999996</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>79.408655920000001</v>
+        <v>85.667474928000004</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -21505,31 +22020,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1506.9255000000001</v>
+        <v>1508.8976</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>1.0679595241375406E-2</v>
+        <v>-1.1354534894935764E-2</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>2.746151073218539E-2</v>
+        <v>1.3086911064945639E-3</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>3.7048692909952496E-2</v>
+        <v>3.8405869311365581E-2</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-2.8041768535440603E-2</v>
+        <v>-2.6769775442038735E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>29.128632469999999</v>
+        <v>25.923515640000002</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>26.319357272000001</v>
+        <v>28.980277496000003</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -21543,31 +22058,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2863.2235000000001</v>
+        <v>2918.3969999999999</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>2.8058528911018454E-2</v>
+        <v>7.4963714044140595E-4</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>4.0960772148638247E-2</v>
+        <v>1.9269714711408259E-2</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>6.7660250267173927E-2</v>
+        <v>8.8233758698533116E-2</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-5.0118447253658334E-2</v>
+        <v>-3.1814500722606831E-2</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>32.937747680000001</v>
+        <v>29.85201906</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>21.374806362000001</v>
+        <v>26.981968776000002</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -21581,31 +22096,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6572.4521999999997</v>
+        <v>6637.3302999999996</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>1.7956243717394793E-2</v>
+        <v>-4.4841579719978597E-3</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>4.7582390981822487E-2</v>
+        <v>9.8712167126906447E-3</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>6.7609986476137918E-2</v>
+        <v>7.8148596017276528E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>-5.9650696685545901E-3</v>
+        <v>3.8472645487312995E-3</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>75.537254680000004</v>
+        <v>76.254077879999997</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>62.542248145999999</v>
+        <v>70.086759819999997</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -21619,31 +22134,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1509.6957</v>
+        <v>1523.0007000000001</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>9.1527210636981327E-3</v>
+        <v>-4.3087326660395942E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>2.6334386365247875E-2</v>
+        <v>8.8130343088346219E-3</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>3.6094727754131029E-2</v>
+        <v>4.5225866137030835E-2</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-7.6158204854684053E-2</v>
+        <v>-6.8016355418133001E-2</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>19.981562</v>
+        <v>17.57028343</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>15.683587087999999</v>
+        <v>19.066506554</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -21657,31 +22172,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1098.6497999999999</v>
+        <v>1110.4902999999999</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>1.4829735066255623E-2</v>
+        <v>-2.3074569843384296E-4</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>2.6353174483434438E-2</v>
+        <v>1.077731957899597E-2</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>3.2221689296188405E-2</v>
+        <v>4.3346272318104617E-2</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-8.2222564723307134E-2</v>
+        <v>-7.233138400093897E-2</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>20.126676839999998</v>
+        <v>17.967931799999999</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>16.228766626000002</v>
+        <v>18.707776459999998</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -21695,31 +22210,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1804.5544</v>
+        <v>1823.6031</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>1.1942013797549444E-2</v>
+        <v>-1.7339341896568383E-3</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>2.6267037609263966E-2</v>
+        <v>1.0555902332453959E-2</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>3.7910277101323775E-2</v>
+        <v>4.8866356616255713E-2</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-4.5040097316714982E-2</v>
+        <v>-3.4959633852580496E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>29.964695800000001</v>
+        <v>37.725700570000001</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>30.554425478000002</v>
+        <v>32.063673729999998</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -21733,31 +22248,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2226.1974</v>
+        <v>2245.1522</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>1.5722176710405877E-2</v>
+        <v>-5.7514596749058677E-3</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>3.6478624244586477E-2</v>
+        <v>8.5144291337326816E-3</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>4.6257100382145921E-2</v>
+        <v>5.5165382319014356E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-3.3403162966280764E-2</v>
+        <v>-2.5173142696466977E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>72.365156339999999</v>
+        <v>81.352452850000006</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>58.518513889999994</v>
+        <v>71.579239623999996</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -21771,31 +22286,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>4069.0713000000001</v>
+        <v>4125.3019000000004</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>2.4583427516222889E-2</v>
+        <v>-5.4095012870986059E-3</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>4.0882268992519899E-2</v>
+        <v>1.3819025486233372E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>5.8147639564666509E-2</v>
+        <v>7.2770208764008304E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-3.97001849718851E-2</v>
+        <v>-2.6429777353586426E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>101.91657789</v>
+        <v>104.33929568000001</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>88.21779302600001</v>
+        <v>95.646438837999995</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -21809,31 +22324,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2315.6747999999998</v>
+        <v>2331.6358</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>1.5210168152672177E-2</v>
+        <v>-7.702233529412239E-3</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>2.7139269127699706E-2</v>
+        <v>6.8925913085897683E-3</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>4.3047094559506727E-2</v>
+        <v>5.0236391897917176E-2</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-7.2724468231307515E-2</v>
+        <v>-6.6333136960370687E-2</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>47.192792840000003</v>
+        <v>42.316070170000003</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>37.784115782000001</v>
+        <v>41.213602844</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -21847,31 +22362,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1879.2741000000001</v>
+        <v>1892.6503</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>1.2757536479282239E-2</v>
+        <v>-1.1259566250901076E-2</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>3.779496703645413E-2</v>
+        <v>7.1177482837654349E-3</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>6.9264279366937798E-2</v>
+        <v>7.6875033356293532E-2</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-3.6812534884185677E-2</v>
+        <v>-2.995680895741315E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>24.577426710000001</v>
+        <v>24.49277253</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>28.892533622000002</v>
+        <v>28.890998505999999</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -21885,31 +22400,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>13596.940500000001</v>
+        <v>13780.596799999999</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>3.0289530886520977E-2</v>
+        <v>-7.4261118904864754E-3</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>4.5520655263272758E-2</v>
+        <v>1.3507178324417835E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>8.7964024648186298E-2</v>
+        <v>0.10265934873966052</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>1.7150789817155232E-3</v>
+        <v>1.5245423183779971E-2</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>111.17945182</v>
+        <v>104.29872690000001</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>86.294604759999999</v>
+        <v>94.240313356000001</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -21923,31 +22438,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>2934.6698000000001</v>
+        <v>3011.1783999999998</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>1.8758301123988685E-2</v>
+        <v>-1.5907619427090181E-3</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>3.5434326601229804E-2</v>
+        <v>2.6070599152245189E-2</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>6.1272586946086172E-2</v>
+        <v>8.8940599151623889E-2</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>1.8206151899240908E-2</v>
+        <v>4.4751396339756333E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>22.408458809999999</v>
+        <v>30.65483867</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>23.533870827999998</v>
+        <v>27.259391950000001</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -21961,31 +22476,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1905.7385999999999</v>
+        <v>1905.9956</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>1.1849232898742956E-2</v>
+        <v>-1.0122533194729444E-2</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>3.6465587423478718E-2</v>
+        <v>1.3485585063977013E-4</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>4.7239623047531376E-2</v>
+        <v>4.7380849437721029E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>-1.6698146789334567E-2</v>
+        <v>-1.6565542781484144E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>24.77023462</v>
+        <v>13.354413389999999</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>14.274913882000002</v>
+        <v>17.141972383999999</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -21999,31 +22514,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3119.6559000000002</v>
+        <v>3158.5118000000002</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>1.0337246317465132E-2</v>
+        <v>-8.931288962488404E-3</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>1.2070531837816922E-2</v>
+        <v>1.2455187766061027E-2</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>2.9325755868274239E-2</v>
+        <v>4.2146201430056207E-2</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-6.9572931606962096E-2</v>
+        <v>-5.7984287767501197E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>48.40600594</v>
+        <v>50.145330790000003</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>53.797736673999999</v>
+        <v>53.284600671999996</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -22037,31 +22552,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1389.6303</v>
+        <v>1415.3017</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>1.3222276988048121E-2</v>
+        <v>6.2866354232093968E-3</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>2.695468166133641E-2</v>
+        <v>1.8473546525288098E-2</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>4.5342628475381952E-2</v>
+        <v>6.4653814157388689E-2</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-6.0819467160487035E-2</v>
+        <v>-4.3469471891431584E-2</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>30.348231139999999</v>
+        <v>32.941115920000001</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>25.843705854</v>
+        <v>30.350990603999996</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -22075,31 +22590,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1144.4446</v>
+        <v>1166.5563</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>7.4414308843238075E-3</v>
+        <v>6.3299541889643152E-3</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>7.9146043195437166E-3</v>
+        <v>1.9320900286479592E-2</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>1.540022812786801E-2</v>
+        <v>3.501867468639519E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-6.8968036357317519E-2</v>
+        <v>-5.0979660624252077E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>23.360563469999999</v>
+        <v>29.177508320000001</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>20.895720774000001</v>
+        <v>23.716519099999999</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -22113,31 +22628,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>4048.3180000000002</v>
+        <v>4044.1997999999999</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>1.0436984160398177E-2</v>
+        <v>-1.3410947026005537E-2</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>3.5441069641191092E-2</v>
+        <v>-1.0172619838659802E-3</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>3.7772649307232342E-2</v>
+        <v>3.6716962643196238E-2</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-7.4562651473312758E-2</v>
+        <v>-7.5504063706418711E-2</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>52.06154669</v>
+        <v>31.938568549999999</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>32.900386976</v>
+        <v>38.760600203999999</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -22151,31 +22666,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3700.3622</v>
+        <v>3701.1433999999999</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>9.8971697809393522E-3</v>
+        <v>-9.496582025840139E-3</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>2.8017970884491206E-2</v>
+        <v>2.1111446874044759E-4</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>3.2816888911292308E-2</v>
+        <v>3.3034931500100839E-2</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-8.563348339419663E-2</v>
+        <v>-8.5440447392809413E-2</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>77.904165280000001</v>
+        <v>50.777720670000001</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>52.329450182000002</v>
+        <v>60.427674593999996</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -22189,31 +22704,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2383.4499000000001</v>
+        <v>2402.3159000000001</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>8.2324854047506335E-3</v>
+        <v>-6.3207805105648385E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>2.418163653356542E-2</v>
+        <v>7.9154170599515794E-3</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>2.2632510923862759E-2</v>
+        <v>3.0727073746890543E-2</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>-2.7341124045118459E-2</v>
+        <v>-1.9642123384871812E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>7.6088020600000004</v>
+        <v>8.7369122899999994</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>6.6482909719999999</v>
+        <v>8.3200507039999998</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -22227,31 +22742,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3399.4043000000001</v>
+        <v>3417.9600999999998</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>1.0899224858299972E-2</v>
+        <v>-6.9265502622625208E-3</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>2.0859453020749541E-2</v>
+        <v>5.4585446044177477E-3</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>2.544483975566858E-2</v>
+        <v>3.1042276152844828E-2</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.1176031740288157</v>
+        <v>-0.11278657159545535</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>26.362299879999998</v>
+        <v>21.756731640000002</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>19.934553623999999</v>
+        <v>22.943440557999999</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -22265,31 +22780,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2249.9470000000001</v>
+        <v>2263.3105999999998</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>2.1808820425176956E-2</v>
+        <v>-8.4054473698969012E-3</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>3.3157182772060922E-2</v>
+        <v>5.93951768641654E-3</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>4.7710897996003032E-2</v>
+        <v>5.393379540490173E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-5.9422724447508631E-2</v>
+        <v>-5.3836149083923202E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>40.18460597</v>
+        <v>32.717151039999997</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>31.880393507999997</v>
+        <v>32.278713355999997</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -22303,31 +22818,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3858.0684999999999</v>
+        <v>3876.2815000000001</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>2.5783697592636212E-2</v>
+        <v>-1.5830371538946952E-2</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>4.7058841409524543E-2</v>
+        <v>4.7207559948716504E-3</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>6.5657801092564361E-2</v>
+        <v>7.0688511545553556E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-2.8365947052374607E-2</v>
+        <v>-2.3779099772100687E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>37.970481720000002</v>
+        <v>32.497417919999997</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>34.908621432000004</v>
+        <v>34.430703907999998</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -22341,31 +22856,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2190.5025999999998</v>
+        <v>2221.5938000000001</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>1.0192253584748512E-2</v>
+        <v>2.6269839013293161E-3</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>4.8113897236920389E-2</v>
+        <v>1.4193637569752449E-2</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>7.2443168535333058E-2</v>
+        <v>8.7665038183680544E-2</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-8.1620469848363464E-2</v>
+        <v>-6.8585323645911633E-2</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>8.0576972399999995</v>
+        <v>11.265330369999999</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>7.9007520240000009</v>
+        <v>8.6250203420000009</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -22379,31 +22894,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2312.4748</v>
+        <v>2338.5738000000001</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>5.859713207023276E-3</v>
+        <v>-6.1927726295639696E-3</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>3.8801605643164372E-2</v>
+        <v>1.1286177042880707E-2</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>4.8437810638506607E-2</v>
+        <v>6.0270665387823108E-2</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-4.5132978398339629E-2</v>
+        <v>-3.4356180140135084E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>7.6731926100000001</v>
+        <v>12.1914462</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>7.5447850340000002</v>
+        <v>9.8126757359999992</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -22417,31 +22932,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2235.741</v>
+        <v>2241.1696999999999</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>2.3111779719200198E-2</v>
+        <v>-1.3438842043621335E-2</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>2.973620223930018E-2</v>
+        <v>2.4281435103619131E-3</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>4.3611002427936807E-2</v>
+        <v>4.6145039710824509E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-4.9401393647156781E-2</v>
+        <v>-4.7093203810182116E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>57.732741439999998</v>
+        <v>45.678576900000003</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>49.730810494000004</v>
+        <v>48.016330749999995</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -22547,27 +23062,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>1932.96</v>
+        <v>1911.35</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>1.0518391501641577E-2</v>
+        <v>-1.9574149401644592E-2</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>3.6523044748907552E-2</v>
+        <v>-1.1179745054217483E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>3.012635696508803E-2</v>
+        <v>1.8609806920588445E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>-1.9434171879042395E-2</v>
+        <v>-3.0396647846312352E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>228.23169999999999</v>
+        <v>200.28710000000001</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -22589,27 +23104,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3240.4</v>
+        <v>3255.99</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-3.5333298481805553E-3</v>
+        <v>-4.1778171975594969E-3</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>-2.8863492297940274E-3</v>
+        <v>4.811134427848307E-3</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>-2.4956820548002967E-2</v>
+        <v>-2.0265756738702789E-2</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>-2.4366744647475458E-2</v>
+        <v>-1.9672841903695226E-2</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>53.097099999999998</v>
+        <v>58.918700000000001</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -22631,27 +23146,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>3987.35</v>
+        <v>4073.09</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>2.8142730674822758E-3</v>
+        <v>-4.4679410564186783E-3</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>6.6803167974873734E-3</v>
+        <v>2.1503003247771213E-2</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>2.5369224038658267E-3</v>
+        <v>2.4094477102326817E-2</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-3.8254199881812334E-2</v>
+        <v>-1.7573776818340714E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>288.24869999999999</v>
+        <v>311.91640000000001</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -22673,27 +23188,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>5956.27</v>
+        <v>5848.04</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>-4.0109689091161194E-4</v>
+        <v>-3.2826001738448518E-3</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>3.0580341308030334E-2</v>
+        <v>-1.8170767947054189E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>2.4246509620361456E-2</v>
+        <v>5.6351639734697478E-3</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>3.4026182800459104E-2</v>
+        <v>1.5237132981613666E-2</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>166.5693</v>
+        <v>155.83529999999999</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -22715,27 +23230,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2629.69</v>
+        <v>2648.5</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>3.1572620831843423E-4</v>
+        <v>-6.7094461050333232E-3</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>1.150871038591883E-2</v>
+        <v>7.1529343762952724E-3</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>8.842801460884564E-3</v>
+        <v>1.6058987815732229E-2</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>-2.4573989035364341E-2</v>
+        <v>-1.7596830790002738E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>16.477399999999999</v>
+        <v>16.258299999999998</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -22757,27 +23272,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>6032.31</v>
+        <v>6071.46</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>1.1648792104446803E-2</v>
+        <v>-8.200390090269627E-3</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>2.4711050410746616E-2</v>
+        <v>6.4900510749612561E-3</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>3.1682589198674282E-2</v>
+        <v>3.8378261895721799E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-3.8257281654010433E-2</v>
+        <v>-3.201552229097282E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>117.65519999999999</v>
+        <v>121.25369999999999</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -22799,27 +23314,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4496.83</v>
+        <v>4583.24</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>1.0557659246940743E-2</v>
+        <v>-4.7144920140284041E-3</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>1.153057988064532E-2</v>
+        <v>1.9215758656653703E-2</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>1.5136191865058768E-2</v>
+        <v>3.4642803931572264E-2</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>-3.0218647322003411E-3</v>
+        <v>1.6135826501066264E-2</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>212.92439999999999</v>
+        <v>260.17430000000002</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -22841,31 +23356,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>7918.81</v>
+        <v>8052.5</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>1.0026529935460937E-2</v>
+        <v>-2.2538345544185212E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>2.8111120199317385E-2</v>
+        <v>1.6882587156403561E-2</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>4.4896391926698476E-2</v>
+        <v>6.2536946332812482E-2</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>3.1722414541133892E-2</v>
+        <v>4.9140558125839506E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>21.581099999999999</v>
+        <v>30.9132</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>23.223800000000001</v>
+        <v>25.282140000000002</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -22883,31 +23398,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3153.34</v>
+        <v>3186.24</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>5.5293367346940236E-3</v>
+        <v>-1.0831602574251975E-2</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>-1.4534837694311076E-3</v>
+        <v>1.0433381747607218E-2</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>-2.5257723991901182E-2</v>
+        <v>-1.5087865720777249E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>-2.2217123153870144E-2</v>
+        <v>-1.2015541133460927E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>31.543800000000001</v>
+        <v>27.363299999999999</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>22.934379999999997</v>
+        <v>30.826100000000004</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -22925,31 +23440,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2682.14</v>
+        <v>2719.54</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>1.1822845933302961E-2</v>
+        <v>8.9064892238854831E-4</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>1.6732373009855861E-2</v>
+        <v>1.3944089421134009E-2</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>2.3276220561360805E-2</v>
+        <v>3.754487568338849E-2</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>-1.7246749059251609E-2</v>
+        <v>-3.5431498492237701E-3</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>44.468899999999998</v>
+        <v>48.806600000000003</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>35.357999999999997</v>
+        <v>41.909399999999998</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -22967,27 +23482,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3421.54</v>
+        <v>3498.88</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>9.166897707095778E-3</v>
+        <v>3.9914260381008759E-3</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>-3.3033487916851456E-3</v>
+        <v>2.2603856742870132E-2</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>7.9559614135860102E-4</v>
+        <v>2.3417436425433369E-2</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>2.7532689062002458E-2</v>
+        <v>5.0758890764176279E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>23.977599999999999</v>
+        <v>35.826000000000001</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -23009,27 +23524,27 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3036.47</v>
+        <v>3021.18</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>-8.7196293663960311E-4</v>
+        <v>-1.8727832560315072E-2</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>4.4658068058895939E-3</v>
+        <v>-5.0354523509206217E-3</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>5.0542830663311555E-3</v>
+        <v>-6.6198861379263008E-6</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>6.4330129620671972E-2</v>
+        <v>5.8970745967317884E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>30.5229</v>
+        <v>32.410899999999998</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
@@ -23051,31 +23566,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2524.62</v>
+        <v>2542.3000000000002</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>1.3763560280031228E-3</v>
+        <v>-5.5389092729789535E-3</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>1.6581838095544921E-2</v>
+        <v>7.0030341199864843E-3</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>9.9974796269846067E-3</v>
+        <v>1.7070526437912736E-2</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>1.6187007546002441E-3</v>
+        <v>8.6330706912012278E-3</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>5.5231000000000003</v>
+        <v>6.9893000000000001</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>6.0640599999999996</v>
+        <v>6.7702200000000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23106,27 +23621,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>8251.51</v>
+        <v>8217.0400000000009</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>9.3071670935560569E-3</v>
+        <v>-1.3181534322908917E-2</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>6.0786741178119108E-2</v>
+        <v>-4.1774172242412533E-3</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>7.0793072393128487E-2</v>
+        <v>6.6319922968915312E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>2.1781636309826879E-2</v>
+        <v>1.7513228102892686E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>342.2244</v>
+        <v>318.96910000000003</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -23148,27 +23663,27 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>11462</v>
+        <v>11296.69</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>6.2798111052486671E-3</v>
+        <v>-1.1127636051369794E-2</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>6.5192803501303853E-3</v>
+        <v>-1.4422439364857764E-2</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>1.1807659442243379E-2</v>
+        <v>-2.7850751749609604E-3</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>-5.8847252999822963E-3</v>
+        <v>-2.0222292571022149E-2</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>149.2423</v>
+        <v>149.2826</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
@@ -23190,31 +23705,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4361.05</v>
+        <v>4400.2</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>1.2970331296266568E-2</v>
+        <v>-5.7348415348948967E-3</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>2.7025945001401208E-2</v>
+        <v>8.977195858795417E-3</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>3.057178236539615E-2</v>
+        <v>3.9823427102238185E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>-1.4652387085112517E-2</v>
+        <v>-5.8067285749791031E-3</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>82.643799999999999</v>
+        <v>87.312799999999996</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>72.88646</v>
+        <v>79.057100000000005</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -23274,27 +23789,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>5107.4799999999996</v>
+        <v>5186.3100000000004</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>1.8308693788442243E-2</v>
+        <v>-5.4213378642190557E-3</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>2.8881310043492148E-2</v>
+        <v>1.5434225880473607E-2</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>3.9172321183328362E-2</v>
+        <v>5.5211141517207851E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-5.0971793823627924E-2</v>
+        <v>-3.6324278122561227E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>191.7816</v>
+        <v>206.93129999999999</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -23316,31 +23831,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3469.58</v>
+        <v>3493.48</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>2.9558126630207404E-2</v>
+        <v>-1.0807979273144253E-2</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>4.7673400368390961E-2</v>
+        <v>6.8884418286940807E-3</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>4.8582127217173365E-2</v>
+        <v>5.5805224203117065E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>-1.5338526753210235E-3</v>
+        <v>5.3440232984451885E-3</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>564.28160000000003</v>
+        <v>467.40269999999998</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>448.56234000000006</v>
+        <v>482.44552000000004</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -23358,31 +23873,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7796.27</v>
+        <v>7855.23</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>7.1828407618461654E-3</v>
+        <v>-1.8209404337727886E-3</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>3.5868838780225731E-2</v>
+        <v>7.5625908286911514E-3</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>4.9116772772352491E-2</v>
+        <v>5.7050813656346566E-2</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>7.9202945695657556E-2</v>
+        <v>8.7364515995072001E-2</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>116.9053</v>
+        <v>120.0611</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>97.131879999999995</v>
+        <v>115.49375999999999</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -23400,27 +23915,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>8840.77</v>
+        <v>8827.83</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>9.9708801860745044E-3</v>
+        <v>-1.282965951584325E-2</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>1.9076041349674E-2</v>
+        <v>-1.4636734130625273E-3</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>2.3217135773949016E-2</v>
+        <v>2.1719480056526574E-2</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-6.7966129212499893E-2</v>
+        <v>-6.9330322409245193E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>20.312100000000001</v>
+        <v>18.6724</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -23455,27 +23970,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2677.82</v>
+        <v>2659.38</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>4.9318139361109736E-4</v>
+        <v>-6.0101814267452536E-3</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>2.9091663720351102E-2</v>
+        <v>-6.886198474878813E-3</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>4.0924533729310486E-2</v>
+        <v>3.3756520792679767E-2</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>2.399481921532276E-3</v>
+        <v>-4.5032398620952208E-3</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>48.701999999999998</v>
+        <v>38.820399999999999</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -23497,27 +24012,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1407.32</v>
+        <v>1412.56</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>5.2716544994784176E-3</v>
+        <v>-2.2179840361659098E-3</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>1.2664171777394539E-3</v>
+        <v>3.7233891367989269E-3</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>-1.3383248855518448E-2</v>
+        <v>-9.7096907621231354E-3</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>-5.0922897432611913E-2</v>
+        <v>-4.7389114058927879E-2</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>6.2846000000000002</v>
+        <v>5.1113</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -23539,27 +24054,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5356.45</v>
+        <v>5380.64</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>9.8202233634219205E-3</v>
+        <v>6.2292770410654619E-3</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>1.7622618353284603E-2</v>
+        <v>4.5160507425627827E-3</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>2.0565836780343405E-2</v>
+        <v>2.5174763885369433E-2</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>2.9635083078957791E-2</v>
+        <v>3.4284967360465046E-2</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>18.717600000000001</v>
+        <v>24.063099999999999</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -23581,27 +24096,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>3025.48</v>
+        <v>3013.61</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>3.6856789312527116E-3</v>
+        <v>-8.3057735656579812E-3</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>2.3130926454475453E-2</v>
+        <v>-3.9233443949389102E-3</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>2.4100626887092469E-2</v>
+        <v>2.0082727432741532E-2</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>-4.7518904930708213E-2</v>
+        <v>-5.1255816296333571E-2</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>7.3994</v>
+        <v>7.2346000000000004</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -23623,27 +24138,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6379.4</v>
+        <v>6339.42</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>1.8221169500290513E-2</v>
+        <v>-4.2414906080145975E-4</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>1.012116260363416E-2</v>
+        <v>-6.2670470577169679E-3</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>2.4816383182434398E-2</v>
+        <v>1.8393810683510869E-2</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>0.10439410149609252</v>
+        <v>9.7472811691751607E-2</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>4.5179999999999998</v>
+        <v>4.0297000000000001</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -23733,23 +24248,23 @@
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>2908.4</v>
+        <v>2874.8</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>4.4205000690703761E-3</v>
+        <v>-1.2842524551885049E-2</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>12400</v>
+        <v>12502</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>15890</v>
+        <v>12625</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>-691</v>
+        <v>-1632</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -23764,23 +24279,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>2908.8</v>
+        <v>2871.4</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>4.489260308032322E-3</v>
+        <v>-1.4821930968228855E-2</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>690</v>
+        <v>3182</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>1526</v>
+        <v>4398</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>243</v>
+        <v>1712</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -23795,23 +24310,23 @@
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>2907.4</v>
+        <v>2867</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>4.1445050770187192E-3</v>
+        <v>-1.5182742511678971E-2</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>924</v>
+        <v>1607</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>4117</v>
+        <v>4792</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>53</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
@@ -23823,23 +24338,23 @@
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>2900</v>
+        <v>2852.4</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>3.2519200166055808E-3</v>
+        <v>-1.6481621957106313E-2</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>68</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -23857,23 +24372,23 @@
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4103.6000000000004</v>
+        <v>4075.2</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>1.1037745146348719E-2</v>
+        <v>-1.2216404886562086E-2</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>17675</v>
+        <v>17078</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>26529</v>
+        <v>18969</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>-1731</v>
+        <v>-3782</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -23885,23 +24400,23 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4098.3999999999996</v>
+        <v>4067</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>1.1501061256725271E-2</v>
+        <v>-1.3295162307729676E-2</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>2003</v>
+        <v>4981</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>3914</v>
+        <v>9233</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>1005</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
@@ -23913,23 +24428,23 @@
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4085</v>
+        <v>4051.2</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>1.1288805268109102E-2</v>
+        <v>-1.3538521476575522E-2</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>1783</v>
+        <v>2135</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>7736</v>
+        <v>9227</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>233</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
@@ -23941,23 +24456,23 @@
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4071.8</v>
+        <v>4036.2</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>9.8209414215565619E-3</v>
+        <v>-1.3443488463042629E-2</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>2496</v>
+        <v>2685</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -23974,23 +24489,23 @@
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>6198.8</v>
+        <v>6241</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>1.7397584033613446E-2</v>
+        <v>-6.1468883368367986E-3</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>10397</v>
+        <v>9979</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>18511</v>
+        <v>14193</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>-1131</v>
+        <v>-2055</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -24002,23 +24517,23 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>6162</v>
+        <v>6202</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>1.7805820752535461E-2</v>
+        <v>-6.8218941165167279E-3</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>1341</v>
+        <v>2511</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>2784</v>
+        <v>5517</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>802</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
@@ -24030,23 +24545,23 @@
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>6101.2</v>
+        <v>6143.2</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>1.7307499916630571E-2</v>
+        <v>-6.6297985188059896E-3</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>1252</v>
+        <v>1216</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>7488</v>
+        <v>8327</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>360</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
@@ -24058,23 +24573,23 @@
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>6005.8</v>
+        <v>6054.4</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>1.7380403848760058E-2</v>
+        <v>-6.172028890348057E-3</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>529</v>
+        <v>222</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>2739</v>
+        <v>2912</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>173</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -24592,10 +25107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE105"/>
+  <dimension ref="B1:AE106"/>
   <sheetViews>
-    <sheetView topLeftCell="C89" workbookViewId="0">
-      <selection activeCell="AC109" sqref="AC109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF120" sqref="AF120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30027,14 +30542,365 @@
         <v>3.9610919854210058E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C51" s="40">
+        <v>20180309</v>
+      </c>
+      <c r="D51" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C51)/100</f>
+        <v>1.718879921702765E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C51)/100</f>
+        <v>3.2705223998885646E-3</v>
+      </c>
+      <c r="F51" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C51)/100</f>
+        <v>2.2386189804198597E-2</v>
+      </c>
+      <c r="G51" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C51)/100</f>
+        <v>2.2770346957889265E-2</v>
+      </c>
+      <c r="H51" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C51)/100</f>
+        <v>1.3002435731439554E-2</v>
+      </c>
+      <c r="I51" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C51)/100</f>
+        <v>-1.0361674689511879E-3</v>
+      </c>
+      <c r="J51" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C51)/100</f>
+        <v>7.3281055470699963E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C51)/100</f>
+        <v>6.3860620308965554E-2</v>
+      </c>
+      <c r="L51" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C51)/100</f>
+        <v>-1.7157592667984556E-2</v>
+      </c>
+      <c r="M51" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C51)/100</f>
+        <v>4.3602227382044667E-4</v>
+      </c>
+      <c r="N51" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C51)/100</f>
+        <v>3.2117851094816352E-2</v>
+      </c>
+      <c r="O51" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C51)/100</f>
+        <v>2.7066493392811086E-3</v>
+      </c>
+      <c r="P51" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C51)/100</f>
+        <v>-1.0317711133715601E-2</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C51)/100</f>
+        <v>-1.8198446489730791E-2</v>
+      </c>
+      <c r="R51" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C51)/100</f>
+        <v>2.9918509760744172E-2</v>
+      </c>
+      <c r="S51" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C51)/100</f>
+        <v>3.9933611802481339E-2</v>
+      </c>
+      <c r="T51" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C51)/100</f>
+        <v>9.2845575867069416E-2</v>
+      </c>
+      <c r="U51" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C51)/100</f>
+        <v>3.1258049912082919E-2</v>
+      </c>
+      <c r="V51" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C51)/100</f>
+        <v>-4.5040054497963E-2</v>
+      </c>
+      <c r="W51" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C51)/100</f>
+        <v>-2.2732212477944769E-2</v>
+      </c>
+      <c r="X51" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C51)/100</f>
+        <v>5.010938982248625E-2</v>
+      </c>
+      <c r="Y51" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C51)/100</f>
+        <v>3.7922280922229712E-2</v>
+      </c>
+      <c r="Z51" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C51)/100</f>
+        <v>6.3951612420072301E-2</v>
+      </c>
+      <c r="AA51" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C51)/100</f>
+        <v>-1.3012011087157327E-2</v>
+      </c>
+      <c r="AB51" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C51)/100</f>
+        <v>3.5993139980687205E-2</v>
+      </c>
+      <c r="AC51" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C51)/100</f>
+        <v>3.5149827963225633E-2</v>
+      </c>
+      <c r="AD51" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C51)/100</f>
+        <v>3.7012499767751672E-2</v>
+      </c>
+      <c r="AE51" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C51)/100</f>
+        <v>4.1398988659151259E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C52" s="40">
+        <v>20180312</v>
+      </c>
+      <c r="D52" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C52)/100</f>
+        <v>1.7672140960486304E-2</v>
+      </c>
+      <c r="E52" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C52)/100</f>
+        <v>9.1962870717121614E-3</v>
+      </c>
+      <c r="F52" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C52)/100</f>
+        <v>2.7064338591972881E-2</v>
+      </c>
+      <c r="G52" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C52)/100</f>
+        <v>3.8302733597947336E-2</v>
+      </c>
+      <c r="H52" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C52)/100</f>
+        <v>2.8971749150315196E-2</v>
+      </c>
+      <c r="I52" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C52)/100</f>
+        <v>1.1390742217736394E-2</v>
+      </c>
+      <c r="J52" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C52)/100</f>
+        <v>9.2254182268601159E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C52)/100</f>
+        <v>7.873359436223426E-2</v>
+      </c>
+      <c r="L52" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C52)/100</f>
+        <v>-1.2970203664267599E-3</v>
+      </c>
+      <c r="M52" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C52)/100</f>
+        <v>1.4749099741014016E-2</v>
+      </c>
+      <c r="N52" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C52)/100</f>
+        <v>3.36537208296388E-2</v>
+      </c>
+      <c r="O52" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C52)/100</f>
+        <v>1.3701690747368378E-2</v>
+      </c>
+      <c r="P52" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C52)/100</f>
+        <v>-6.0912817944568376E-3</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C52)/100</f>
+        <v>-1.9891644565810718E-2</v>
+      </c>
+      <c r="R52" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C52)/100</f>
+        <v>3.9253008189717109E-2</v>
+      </c>
+      <c r="S52" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C52)/100</f>
+        <v>4.8522580608013621E-2</v>
+      </c>
+      <c r="T52" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C52)/100</f>
+        <v>0.1026822244099872</v>
+      </c>
+      <c r="U52" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C52)/100</f>
+        <v>4.1230980864224165E-2</v>
+      </c>
+      <c r="V52" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C52)/100</f>
+        <v>-3.3171062600309775E-2</v>
+      </c>
+      <c r="W52" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C52)/100</f>
+        <v>-1.5010160198421274E-2</v>
+      </c>
+      <c r="X52" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C52)/100</f>
+        <v>4.5496088967568404E-2</v>
+      </c>
+      <c r="Y52" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C52)/100</f>
+        <v>5.7950602922409944E-2</v>
+      </c>
+      <c r="Z52" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C52)/100</f>
+        <v>8.6727222464243692E-2</v>
+      </c>
+      <c r="AA52" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C52)/100</f>
+        <v>-3.1336618417000306E-2</v>
+      </c>
+      <c r="AB52" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C52)/100</f>
+        <v>3.699869722495075E-2</v>
+      </c>
+      <c r="AC52" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C52)/100</f>
+        <v>3.7258842224815902E-2</v>
+      </c>
+      <c r="AD52" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C52)/100</f>
+        <v>3.6638182773426564E-2</v>
+      </c>
+      <c r="AE52" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C52)/100</f>
+        <v>3.9882731158508156E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C53" s="40">
+        <v>20180313</v>
+      </c>
+      <c r="D53" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C53)/100</f>
+        <v>8.5075002263861332E-3</v>
+      </c>
+      <c r="E53" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C53)/100</f>
+        <v>4.202846833987417E-3</v>
+      </c>
+      <c r="F53" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C53)/100</f>
+        <v>1.8003918189103407E-2</v>
+      </c>
+      <c r="G53" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C53)/100</f>
+        <v>2.729070636154729E-2</v>
+      </c>
+      <c r="H53" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C53)/100</f>
+        <v>2.0175012417374738E-2</v>
+      </c>
+      <c r="I53" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C53)/100</f>
+        <v>4.2220274389395129E-3</v>
+      </c>
+      <c r="J53" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C53)/100</f>
+        <v>8.7562120707043167E-2</v>
+      </c>
+      <c r="K53" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C53)/100</f>
+        <v>7.3157260600538399E-2</v>
+      </c>
+      <c r="L53" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C53)/100</f>
+        <v>-6.4425084693301438E-3</v>
+      </c>
+      <c r="M53" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C53)/100</f>
+        <v>8.0388987571817783E-3</v>
+      </c>
+      <c r="N53" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C53)/100</f>
+        <v>2.4604176542599276E-2</v>
+      </c>
+      <c r="O53" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C53)/100</f>
+        <v>4.6203903620600784E-3</v>
+      </c>
+      <c r="P53" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C53)/100</f>
+        <v>-1.5461039257888554E-2</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C53)/100</f>
+        <v>-3.0145109918961577E-2</v>
+      </c>
+      <c r="R53" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C53)/100</f>
+        <v>2.4974837891703627E-2</v>
+      </c>
+      <c r="S53" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C53)/100</f>
+        <v>3.4481499424569906E-2</v>
+      </c>
+      <c r="T53" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C53)/100</f>
+        <v>8.7579817399485282E-2</v>
+      </c>
+      <c r="U53" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C53)/100</f>
+        <v>2.9529056649304719E-2</v>
+      </c>
+      <c r="V53" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C53)/100</f>
+        <v>-3.9096153367546904E-2</v>
+      </c>
+      <c r="W53" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C53)/100</f>
+        <v>-3.4920153523099629E-2</v>
+      </c>
+      <c r="X53" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C53)/100</f>
+        <v>4.5698111390682916E-2</v>
+      </c>
+      <c r="Y53" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C53)/100</f>
+        <v>5.8189019381717833E-2</v>
+      </c>
+      <c r="Z53" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C53)/100</f>
+        <v>9.0961221295122741E-2</v>
+      </c>
+      <c r="AA53" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C53)/100</f>
+        <v>-4.2808746535263342E-2</v>
+      </c>
+      <c r="AB53" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C53)/100</f>
+        <v>3.3013943682346891E-2</v>
+      </c>
+      <c r="AC53" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C53)/100</f>
+        <v>3.0905329472575405E-2</v>
+      </c>
+      <c r="AD53" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C53)/100</f>
+        <v>2.7972581501221061E-2</v>
+      </c>
+      <c r="AE53" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C53)/100</f>
+        <v>3.5190557250778465E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
         <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D50">
+  <conditionalFormatting sqref="D7:D53">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -30046,7 +30912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E50">
+  <conditionalFormatting sqref="E7:E53">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -30058,7 +30924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F50">
+  <conditionalFormatting sqref="F7:F53">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -30070,7 +30936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z50">
+  <conditionalFormatting sqref="Z7:Z53">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -30082,7 +30948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA50">
+  <conditionalFormatting sqref="G7:AA53">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -30094,7 +30960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE50">
+  <conditionalFormatting sqref="AB7:AE53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -1463,26 +1463,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IH1803.CFE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IH1806.CFE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IF1803.CFE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IF1806.CFE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IC1803.CFE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IC1806.CFE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1507,10 +1495,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IH1803</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IH1806</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1523,10 +1507,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IF1803</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IF1806</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1539,10 +1519,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IC1803</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>IC1806</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1712,6 +1688,30 @@
   </si>
   <si>
     <t>IC1804</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH1805.CFE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH1805</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1805.CFE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1805</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1805.CFE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1805</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2696,10 +2696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -2840,16 +2840,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$7:$D$53</c:f>
+              <c:f>'2018累积涨跌幅'!$D$7:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.8358657971347974E-4</c:v>
                 </c:pt>
@@ -2990,6 +3002,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.5075002263861332E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2952323700671258E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2566780400102395E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0846032377777064E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3361798695841198E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,10 +3053,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3173,16 +3197,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$E$7:$E$53</c:f>
+              <c:f>'2018累积涨跌幅'!$E$7:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>3.2724942571173976E-3</c:v>
                 </c:pt>
@@ -3323,6 +3359,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.202846833987417E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.5176626684380023E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.5995402478357068E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.0398989838778023E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.1975122927855333E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,10 +3410,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3506,16 +3554,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$F$7:$F$53</c:f>
+              <c:f>'2018累积涨跌幅'!$F$7:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2.975318553790407E-3</c:v>
                 </c:pt>
@@ -3656,6 +3716,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.8003918189103407E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3547820354906426E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9225497023138693E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3371878565500221E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3772558612717978E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,10 +3767,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -3839,16 +3911,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Y$7:$Y$53</c:f>
+              <c:f>'2018累积涨跌幅'!$Y$7:$Y$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.8564337786564078E-3</c:v>
                 </c:pt>
@@ -3989,6 +4073,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5.8189019381717833E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.2615699790816262E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6168172005420569E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4857886042959825E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.5252679590044318E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,10 +4124,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4172,16 +4268,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Z$7:$Z$53</c:f>
+              <c:f>'2018累积涨跌幅'!$Z$7:$Z$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2.166212055984218E-3</c:v>
                 </c:pt>
@@ -4322,6 +4430,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9.0961221295122741E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.5632562164123835E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.8655502101593786E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.4652588713273413E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3573334109323869E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4361,10 +4481,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -4505,16 +4625,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AA$7:$AA$53</c:f>
+              <c:f>'2018累积涨跌幅'!$AA$7:$AA$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>3.6187249769017438E-3</c:v>
                 </c:pt>
@@ -4655,6 +4787,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-4.2808746535263342E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.1345857714813583E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.2115799199260895E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.7120418848167415E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.9421004003695637E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4966,10 +5110,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5110,16 +5254,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$G$7:$G$53</c:f>
+              <c:f>'2018累积涨跌幅'!$G$7:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>8.0514085855352135E-3</c:v>
                 </c:pt>
@@ -5260,6 +5416,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.729070636154729E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8307843201641916E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0882659687090799E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2043051166474932E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1577120530566143E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5299,10 +5467,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5443,16 +5611,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$H$7:$H$53</c:f>
+              <c:f>'2018累积涨跌幅'!$H$7:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>9.3681665444595996E-3</c:v>
                 </c:pt>
@@ -5593,6 +5773,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.0175012417374738E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0373288931894153E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0681858317416637E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8807812678443003E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8015748296356122E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,10 +5824,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -5776,16 +5968,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$I$7:$I$53</c:f>
+              <c:f>'2018累积涨跌幅'!$I$7:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>6.3602222747711767E-3</c:v>
                 </c:pt>
@@ -5926,6 +6130,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.2220274389395129E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.6758937990866167E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.8502771387684014E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.2882630508964654E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0218881105505284E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,10 +6181,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6109,16 +6325,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$J$7:$J$53</c:f>
+              <c:f>'2018累积涨跌幅'!$J$7:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2.7940956394292282E-3</c:v>
                 </c:pt>
@@ -6259,6 +6487,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.7562120707043167E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0972602620412273E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8863242198768946E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8697981124859577E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.2568625417118282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6298,10 +6538,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -6442,16 +6682,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$K$7:$K$53</c:f>
+              <c:f>'2018累积涨跌幅'!$K$7:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.3750277576013463E-3</c:v>
                 </c:pt>
@@ -6592,6 +6844,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>7.3157260600538399E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5169532683769562E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9422326710190543E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3727240557759561E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6103964573421372E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6903,10 +7167,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7047,16 +7311,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$L$7:$L$53</c:f>
+              <c:f>'2018累积涨跌幅'!$L$7:$L$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>8.7498669766010728E-3</c:v>
                 </c:pt>
@@ -7197,6 +7473,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-6.4425084693301438E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.7486925756692417E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.9037120036620836E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.1642732709082124E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.9547421010694954E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7236,10 +7524,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7380,16 +7668,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$M$7:$M$53</c:f>
+              <c:f>'2018累积涨跌幅'!$M$7:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>7.5029775460133674E-3</c:v>
                 </c:pt>
@@ -7530,6 +7830,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.0388987571817783E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4101464826595809E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.8939954613839145E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.3426620910224134E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.1292881151436847E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,10 +7881,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -7713,16 +8025,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$N$7:$N$53</c:f>
+              <c:f>'2018累积涨跌幅'!$N$7:$N$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>8.2459414192870284E-4</c:v>
                 </c:pt>
@@ -7863,6 +8187,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.4604176542599276E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0682756396582125E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8932449760904255E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8390955566205403E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4500299162440786E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7902,10 +8238,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8046,16 +8382,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$O$7:$O$53</c:f>
+              <c:f>'2018累积涨跌幅'!$O$7:$O$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>7.3094809644280723E-3</c:v>
                 </c:pt>
@@ -8196,6 +8544,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.6203903620600784E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.101739492448635E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.0401224973074523E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.9779987874333278E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.9084827571475058E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8507,10 +8867,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8651,16 +9011,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$P$7:$P$53</c:f>
+              <c:f>'2018累积涨跌幅'!$P$7:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-4.0354879153503553E-4</c:v>
                 </c:pt>
@@ -8801,6 +9173,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1.5461039257888554E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.3235168269655651E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8788830699778583E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.280444260999607E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.437846090253216E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8840,10 +9224,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -8984,16 +9368,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$Q$7:$Q$53</c:f>
+              <c:f>'2018累积涨跌幅'!$Q$7:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-6.4928421454714114E-3</c:v>
                 </c:pt>
@@ -9134,6 +9530,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-3.0145109918961577E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4028180993593384E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.2168624826772776E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.0277432777574989E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.7315833005819292E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9173,10 +9581,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9317,16 +9725,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$R$7:$R$53</c:f>
+              <c:f>'2018累积涨跌幅'!$R$7:$R$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.1640800502537907E-2</c:v>
                 </c:pt>
@@ -9467,6 +9887,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.4974837891703627E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7075800988656908E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5565936611200204E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.597754841970711E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3408087715916412E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9506,10 +9938,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9650,16 +10082,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$S$7:$S$53</c:f>
+              <c:f>'2018累积涨跌幅'!$S$7:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>9.4489053070812012E-3</c:v>
                 </c:pt>
@@ -9800,6 +10244,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.4481499424569906E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6539634710769811E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8551691195457973E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6718029675101729E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.7879934890936227E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9839,10 +10295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -9983,16 +10439,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$T$7:$T$53</c:f>
+              <c:f>'2018累积涨跌幅'!$T$7:$T$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.3821248887948556E-2</c:v>
                 </c:pt>
@@ -10133,6 +10601,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.7579817399485282E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4805689679585008E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.1981257302064616E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0199404946295507E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.9844708858568776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10172,10 +10652,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10316,16 +10796,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$U$7:$U$53</c:f>
+              <c:f>'2018累积涨跌幅'!$U$7:$U$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>9.9439608760660825E-3</c:v>
                 </c:pt>
@@ -10466,6 +10958,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.9529056649304719E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1805681665712617E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1509572014660527E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6763694152004627E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1411922401865855E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10507,10 +11011,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10651,16 +11155,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$V$7:$V$53</c:f>
+              <c:f>'2018累积涨跌幅'!$V$7:$V$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>6.756161551501938E-3</c:v>
                 </c:pt>
@@ -10801,6 +11317,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-3.9096153367546904E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.6810428002322046E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.7836432027161029E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0760893660097291E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.0415188123889114E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10842,10 +11370,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -10986,16 +11514,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$W$7:$W$53</c:f>
+              <c:f>'2018累积涨跌幅'!$W$7:$W$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-3.8741571338243297E-3</c:v>
                 </c:pt>
@@ -11136,6 +11676,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-3.4920153523099629E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.2115928481137994E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.1328016665781333E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.6582234913199896E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.467909078941565E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11177,10 +11729,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11321,16 +11873,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$X$7:$X$53</c:f>
+              <c:f>'2018累积涨跌幅'!$X$7:$X$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>7.1851761650045809E-3</c:v>
                 </c:pt>
@@ -11471,6 +12035,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.5698111390682916E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6087739652438611E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5851390557567919E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5359967577585962E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0268048533188763E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11782,10 +12358,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -11926,16 +12502,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AB$7:$AB$53</c:f>
+              <c:f>'2018累积涨跌幅'!$AB$7:$AB$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>5.3866235802149109E-3</c:v>
                 </c:pt>
@@ -12076,6 +12664,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.3013943682346891E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.983910949771218E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9345313562601394E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1332118717340753E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6704070463487763E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12115,10 +12715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -12259,16 +12859,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AC$7:$AC$53</c:f>
+              <c:f>'2018累积涨跌幅'!$AC$7:$AC$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>6.8309682343226097E-3</c:v>
                 </c:pt>
@@ -12409,6 +13021,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.0905329472575405E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6840186734282456E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8127614743759244E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0032636685751726E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.548156129404954E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12448,10 +13072,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -12592,16 +13216,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AD$7:$AD$53</c:f>
+              <c:f>'2018累积涨跌幅'!$AD$7:$AD$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2.8213739111475622E-3</c:v>
                 </c:pt>
@@ -12742,6 +13378,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.7972581501221061E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4622453915794651E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4423329318143736E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3790501573355716E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9230668496596159E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12781,10 +13429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$C$7:$C$53</c:f>
+              <c:f>'2018累积涨跌幅'!$C$7:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180101</c:v>
                 </c:pt>
@@ -12925,16 +13573,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$AE$7:$AE$53</c:f>
+              <c:f>'2018累积涨跌幅'!$AE$7:$AE$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.6200702975784935E-3</c:v>
                 </c:pt>
@@ -13075,6 +13735,18 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.5190557250778465E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3900196415606265E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6405775883613822E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7351274804418235E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2322941946823383E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13466,93 +14138,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018累积涨跌幅'!$D$53:$AE$53</c:f>
+              <c:f>'2018累积涨跌幅'!$D$57:$AE$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>8.5075002263861332E-3</c:v>
+                  <c:v>1.3361798695841198E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.202846833987417E-3</c:v>
+                  <c:v>-5.1975122927855333E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8003918189103407E-2</c:v>
+                  <c:v>1.3772558612717978E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.729070636154729E-2</c:v>
+                  <c:v>1.1577120530566143E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0175012417374738E-2</c:v>
+                  <c:v>3.8015748296356122E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2220274389395129E-3</c:v>
+                  <c:v>-1.0218881105505284E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7562120707043167E-2</c:v>
+                  <c:v>7.2568625417118282E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3157260600538399E-2</c:v>
+                  <c:v>5.6103964573421372E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4425084693301438E-3</c:v>
+                  <c:v>-1.9547421010694954E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0388987571817783E-3</c:v>
+                  <c:v>-8.1292881151436847E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4604176542599276E-2</c:v>
+                  <c:v>2.4500299162440786E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6203903620600784E-3</c:v>
+                  <c:v>-7.9084827571475058E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5461039257888554E-2</c:v>
+                  <c:v>-3.437846090253216E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.0145109918961577E-2</c:v>
+                  <c:v>-1.7315833005819292E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4974837891703627E-2</c:v>
+                  <c:v>3.3408087715916412E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4481499424569906E-2</c:v>
+                  <c:v>4.7879934890936227E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7579817399485282E-2</c:v>
+                  <c:v>9.9844708858568776E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9529056649304719E-2</c:v>
+                  <c:v>3.1411922401865855E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.9096153367546904E-2</c:v>
+                  <c:v>-5.0415188123889114E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.4920153523099629E-2</c:v>
+                  <c:v>-1.467909078941565E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5698111390682916E-2</c:v>
+                  <c:v>3.0268048533188763E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8189019381717833E-2</c:v>
+                  <c:v>5.5252679590044318E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0961221295122741E-2</c:v>
+                  <c:v>8.3573334109323869E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.2808746535263342E-2</c:v>
+                  <c:v>-3.9421004003695637E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3013943682346891E-2</c:v>
+                  <c:v>1.6704070463487763E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0905329472575405E-2</c:v>
+                  <c:v>1.548156129404954E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7972581501221061E-2</c:v>
+                  <c:v>1.9230668496596159E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5190557250778465E-2</c:v>
+                  <c:v>2.2322941946823383E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17057,13 +17729,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17087,13 +17759,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17117,13 +17789,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17147,13 +17819,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17177,13 +17849,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17207,13 +17879,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17552,8 +18224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17576,7 +18248,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180313</v>
+        <v>20180319</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -17584,7 +18256,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>20180312</v>
+        <v>20180319</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -17646,31 +18318,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>2883.3771000000002</v>
+        <v>2897.2557999999999</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>-9.0054943682063016E-3</v>
+        <v>9.2394559463897519E-3</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>-8.5345994738871278E-3</v>
+        <v>9.2394559463897519E-3</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>1.6363478841210366E-3</v>
+        <v>6.457573099990066E-3</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>8.0200352652497475E-3</v>
+        <v>1.2871987395769002E-2</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>443.83331437999999</v>
+        <v>374.18712945999999</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>1.103687992</v>
+        <v>1.2324664679999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -17682,31 +18354,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3310.2388999999998</v>
+        <v>3279.2516999999998</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>-4.9479375832958139E-3</v>
+        <v>2.8654244139261209E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>9.2928518608204058E-4</v>
+        <v>2.8654244139261209E-3</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>1.559513261303902E-2</v>
+        <v>6.0881301144255495E-3</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>9.2731793425571141E-4</v>
+        <v>-8.4423789133925009E-3</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>2023.75117</v>
+        <v>1697.72207</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>13.10293897</v>
+        <v>11.003923539999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -17718,27 +18390,27 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4091.2532999999999</v>
+        <v>4074.2478999999998</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>-8.8216677986218128E-3</v>
+        <v>4.394339978285311E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>-4.2863173024026979E-3</v>
+        <v>4.394339978285311E-3</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>1.6803634220394548E-2</v>
+        <v>1.257726365532319E-2</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>1.4984017410301753E-2</v>
+        <v>1.0765210129493941E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1411.7416063799999</v>
+        <v>1181.8381514</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
@@ -17765,31 +18437,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7699.0452999999998</v>
+        <v>7581.2795999999998</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>-1.0605796248114419E-2</v>
+        <v>2.3511744865618578E-3</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>4.419720826970952E-3</v>
+        <v>2.3511744865618578E-3</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>2.966092083857208E-2</v>
+        <v>1.3911079867354514E-2</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>1.9085631558223737E-2</v>
+        <v>3.4975517270274814E-3</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>1265.160914</v>
+        <v>921.63834099999997</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>1180.1192023999999</v>
+        <v>1070.0607098</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -17801,31 +18473,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1504.2958000000001</v>
+        <v>1480.1523999999999</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>-8.5490556375377169E-3</v>
+        <v>1.9171877509822632E-3</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>7.0805127736499607E-3</v>
+        <v>1.9171877509822632E-3</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>3.4886853522408945E-2</v>
+        <v>1.8277296240301721E-2</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>1.0706545174603566E-2</v>
+        <v>-5.5149269605766493E-3</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>727.576458</v>
+        <v>511.51998600000002</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>695.51205440000001</v>
+        <v>612.39327939999998</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -17837,67 +18509,67 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1895.3081</v>
+        <v>1868.0532000000001</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>-7.0879774547645269E-3</v>
+        <v>2.6985133539214612E-3</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>5.2636489296795652E-3</v>
+        <v>2.6985133539214612E-3</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>4.6101397165575708E-2</v>
+        <v>3.1058255119378542E-2</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-2.1246813899286066E-3</v>
+        <v>-1.6474323024017301E-2</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>2999.841492</v>
+        <v>2271.306826</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2861.9845426000002</v>
+        <v>2547.060391</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1648.2191</v>
+        <v>1625.4962</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>-4.2957597578729967E-3</v>
+        <v>1.3101606444475777E-2</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>1.3305988364883614E-2</v>
+        <v>1.3101606444475777E-2</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>6.9933099121836761E-2</v>
+        <v>5.5182643422084343E-2</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>8.4531835035946981E-2</v>
+        <v>6.9580116278205262E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>262.92425500000002</v>
+        <v>216.09523200000001</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>238.52290079999997</v>
+        <v>220.29207919999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -17909,31 +18581,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1872.6782000000001</v>
+        <v>1842.9199000000001</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>-5.1693335507851934E-3</v>
+        <v>1.185819775006336E-2</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>8.7385886027748771E-3</v>
+        <v>1.185819775006336E-2</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>6.7888309683117321E-2</v>
+        <v>5.0918741347221186E-2</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>6.8482619481791129E-2</v>
+        <v>5.1503607105118476E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>1002.121956</v>
+        <v>778.29772500000001</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>944.86423059999993</v>
+        <v>825.68460660000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17956,31 +18628,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6911.6656999999996</v>
+        <v>6820.5015999999996</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>-5.1521705730679379E-3</v>
+        <v>2.1416631413073706E-3</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>1.0902138652870264E-2</v>
+        <v>2.1416631413073706E-3</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>5.2996388864292587E-2</v>
+        <v>3.9107483893952022E-2</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-1.5060597223636285E-2</v>
+        <v>-2.8051838135164209E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>1245.24862727</v>
+        <v>953.64093129000003</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.96755912599999994</v>
+        <v>0.66863026999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -17992,31 +18664,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6254.1457</v>
+        <v>6153.8338999999996</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>-6.6126700536562888E-3</v>
+        <v>1.2248170274897774E-3</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>7.5995629046636815E-3</v>
+        <v>1.2248170274897774E-3</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>3.8260467817248456E-2</v>
+        <v>2.1607549674393267E-2</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>5.3193015118790932E-4</v>
+        <v>-1.5515850582628388E-2</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>975.23497129999998</v>
+        <v>786.81889716000001</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.65347419600000001</v>
+        <v>0.49363301000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -18028,67 +18700,67 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4178.2178999999996</v>
+        <v>4177.7942999999996</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>-8.7549090228943305E-3</v>
+        <v>5.9990159602691939E-3</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>-7.2798610587414547E-3</v>
+        <v>5.9990159602691939E-3</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>1.1172779699690993E-2</v>
+        <v>1.1070264033985477E-2</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>2.3759990052061308E-2</v>
+        <v>2.3656198258008132E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>756.82271956</v>
+        <v>649.58473392999997</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.415120198</v>
+        <v>0.599334476</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4359.7710999999999</v>
+        <v>4305.3993</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>-8.9585530617128928E-3</v>
+        <v>1.0792051326582452E-3</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>1.9085751790315353E-3</v>
+        <v>1.0792051326582452E-3</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>2.8548751453196353E-2</v>
+        <v>1.5721461735104691E-2</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>-2.6695773773453002E-3</v>
+        <v>-1.5107535478575573E-2</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>654.91888600000004</v>
+        <v>532.25341700000001</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>692.32214980000003</v>
+        <v>599.44365919999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -18104,142 +18776,142 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>8965.6623999999993</v>
+        <v>9075.1510999999991</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>-9.4271810799169131E-3</v>
+        <v>2.8605637821350616E-3</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>-5.1969487400495007E-3</v>
+        <v>2.8605637821350616E-3</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>8.9930028213252022E-3</v>
+        <v>2.1314828834761101E-2</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>-1.5063569351561501E-2</v>
+        <v>-3.0355222800659831E-3</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>94.253009460000001</v>
+        <v>84.167560969999997</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>1.318423458</v>
+        <v>1.0451867379999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>12423.974399999999</v>
+        <v>12588.3192</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>-1.0461563046882172E-2</v>
+        <v>3.0228963492717753E-3</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>-1.2168104019103954E-2</v>
+        <v>3.0228963492717753E-3</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>-1.5687232818227814E-3</v>
+        <v>1.1638563147067016E-2</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>-2.3806841839536519E-2</v>
+        <v>-1.089372207817807E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>124.71044976</v>
+        <v>108.07648936</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>6.5065069100000006</v>
+        <v>5.3325185699999995</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13752.596299999999</v>
+        <v>13865.749400000001</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>-1.3738878007083954E-2</v>
+        <v>1.7156421737194227E-2</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>-4.8000611914325031E-3</v>
+        <v>1.7156421737194227E-2</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>6.046234724196009E-2</v>
+        <v>6.9187579874848915E-2</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>1.3180604600508294E-2</v>
+        <v>2.1516814270999607E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>177.89523410000001</v>
+        <v>196.37936117000001</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.25135468599999999</v>
+        <v>0.24712537800000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>10348.586300000001</v>
+        <v>10482.619500000001</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>-1.3391300715051457E-2</v>
+        <v>2.0611214183636317E-2</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>-5.2427504179439754E-3</v>
+        <v>2.0611214183636317E-2</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>6.2474684494313149E-2</v>
+        <v>7.6235683122866327E-2</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>2.4798277541222991E-2</v>
+        <v>3.8071297498870615E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>282.45299277999999</v>
+        <v>265.8723225</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -18248,106 +18920,106 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>7448.2807000000003</v>
+        <v>7532.2767000000003</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>-1.3696064628758053E-2</v>
+        <v>2.7700729205470953E-2</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>-4.8183920801494473E-3</v>
+        <v>2.7700729205470953E-2</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>6.7847586845726005E-2</v>
+        <v>7.9889953335041453E-2</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>7.2753030765967841E-2</v>
+        <v>8.4850717091379479E-2</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>54.832235939999997</v>
+        <v>51.676763919999999</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>54.429308698</v>
+        <v>45.315633825999996</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8706.7296000000006</v>
+        <v>8722.6530000000002</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>-1.1238547863037018E-2</v>
+        <v>1.4406718428393361E-2</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>-1.6765864401498964E-3</v>
+        <v>1.4406718428393361E-2</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>4.6860365615584376E-2</v>
+        <v>4.8774927926769962E-2</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>1.9392259899499553E-2</v>
+        <v>2.1256586857727688E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>314.19988599999999</v>
+        <v>331.30088799999999</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>317.21120500000001</v>
+        <v>301.48844880000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1660.2218</v>
+        <v>1640.6650999999999</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>-6.1283754944000401E-3</v>
+        <v>3.641922608321746E-4</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>6.2242412976716288E-3</v>
+        <v>3.641922608321746E-4</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>4.1373053856946784E-2</v>
+        <v>2.9106126388361409E-2</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-4.5544608188328617E-2</v>
+        <v>-5.6787682915478532E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>171.99270999000001</v>
+        <v>140.47471060000001</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -18356,34 +19028,34 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>9859.5324000000001</v>
+        <v>10066.320900000001</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>-2.0213399692213141E-2</v>
+        <v>2.2734835206003057E-2</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>-1.2471444573097457E-2</v>
+        <v>2.2734835206003057E-2</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>1.6970525775283241E-2</v>
+        <v>3.8299915551342156E-2</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>-3.116674124219676E-2</v>
+        <v>-1.08469564693775E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>143.51958200000001</v>
+        <v>143.00268</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -18392,38 +19064,38 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>6771.9553999999998</v>
+        <v>6672.0300999999999</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>1.9323116102154536E-4</v>
+        <v>4.7866906362632466E-3</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>-4.200779913556385E-3</v>
+        <v>4.7866906362632466E-3</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>-2.1384320131896395E-3</v>
+        <v>-1.6862630660385736E-2</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>3.8238187115026578E-2</v>
+        <v>2.2918201056210341E-2</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>182.92361700000001</v>
+        <v>90.766499999999994</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>168.7693434</v>
+        <v>122.21256960000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18439,102 +19111,102 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="41" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>31601.45</v>
+        <v>31513.759999999998</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>2.2535689156888417E-4</v>
+        <v>3.7426230803960792E-4</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>1.952625821027798E-2</v>
+        <v>3.7426230803960792E-4</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>2.4533534426637749E-2</v>
+        <v>2.1690584320428252E-2</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>5.6228201670167843E-2</v>
+        <v>5.3297302897976628E-2</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1101.8926389999999</v>
+        <v>1062.2266689999999</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1086.9411462</v>
+        <v>1147.985848</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>12746.78</v>
+        <v>12660.46</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>3.8961008276556797E-3</v>
+        <v>-9.9502330532386107E-4</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>2.5386125233284096E-2</v>
+        <v>-9.9502330532386107E-4</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>2.9453855894970848E-2</v>
+        <v>2.248249082545084E-2</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>8.8603076187304244E-2</v>
+        <v>8.1231158139256868E-2</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>354.32509700000003</v>
+        <v>296.89254199999999</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>329.11410139999998</v>
+        <v>350.03611919999997</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>124.32</v>
+        <v>124.76</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>-1.1843255703044342E-2</v>
+        <v>8.0801551389786397E-3</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>-3.0189562368359457E-2</v>
+        <v>8.0801551389786397E-3</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-2.4558650451157349E-2</v>
+        <v>-2.1106316202432307E-2</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-4.6260069044879233E-2</v>
+        <v>-4.288454161871879E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -18600,31 +19272,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3076.2647000000002</v>
+        <v>3027.6947</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>-3.8425829784234367E-3</v>
+        <v>-4.5313842275568339E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>-2.87569114443742E-3</v>
+        <v>-4.5313842275568339E-3</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>8.8599866117828885E-3</v>
+        <v>-7.0685287561353949E-3</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>2.7479299459694628E-2</v>
+        <v>1.1256810681418372E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>276.66654399999999</v>
+        <v>198.13601831</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>274.91617570799997</v>
+        <v>212.73240227400001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -18636,31 +19308,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>4864.3836000000001</v>
+        <v>4791.6057000000001</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>-6.1252914832840011E-3</v>
+        <v>-4.4616958595454781E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>-4.1003711501375051E-3</v>
+        <v>-4.4616958595454781E-3</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>1.5576470197206316E-2</v>
+        <v>3.8204293403465428E-4</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>2.3911025780694706E-2</v>
+        <v>8.5919020497529086E-3</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>449.95035200000001</v>
+        <v>327.52043500000002</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>467.0074472</v>
+        <v>373.299599</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -18672,31 +19344,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9184.3243999999995</v>
+        <v>9106.2206000000006</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>-8.3593305901790149E-3</v>
+        <v>-4.4538731994016034E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>-8.7172703015202524E-3</v>
+        <v>-4.4538731994016034E-3</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>2.3136152454378944E-2</v>
+        <v>1.4435368603139542E-2</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>2.5080446273278101E-2</v>
+        <v>1.6363128082771183E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>189.353768</v>
+        <v>146.05148500000001</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>208.25344460000002</v>
+        <v>177.61363739999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -18708,31 +19380,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6166.3257000000003</v>
+        <v>6089.6770999999999</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>-4.5122144710512124E-3</v>
+        <v>-4.8944630535959766E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>-5.9616261163902839E-3</v>
+        <v>-4.8944630535959766E-3</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>9.0376096202711143E-3</v>
+        <v>-3.5049195758011242E-3</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>3.0429898682140522E-2</v>
+        <v>1.7621459268677642E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>362.42083812999999</v>
+        <v>267.32599224000001</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>372.526206876</v>
+        <v>300.47272020999998</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -18777,27 +19449,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>1911.35</v>
+        <v>1945.65</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>-1.9574149401644592E-2</v>
+        <v>2.1558445649719982E-2</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>-1.1179745054217483E-2</v>
+        <v>2.1558445649719982E-2</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>1.8609806920588445E-2</v>
+        <v>3.688919917076583E-2</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>-3.0396647846312352E-2</v>
+        <v>-1.299669756045585E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>200.28710000000001</v>
+        <v>176.32560000000001</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -18814,27 +19486,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>3786.52</v>
+        <v>3727.61</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>-3.4584445447660705E-4</v>
+        <v>4.6626831720260054E-3</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>-4.8175355138835307E-3</v>
+        <v>4.6626831720260054E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>-2.3423029396033579E-3</v>
+        <v>-1.786368271148564E-2</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>3.9570172331903075E-2</v>
+        <v>2.339672577620755E-2</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>191.25020000000001</v>
+        <v>93.930599999999998</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -18851,27 +19523,27 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11296.69</v>
+        <v>11556.77</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>-1.1127636051369794E-2</v>
+        <v>5.9433398122816783E-3</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>-1.4422439364857764E-2</v>
+        <v>5.9433398122816783E-3</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>-2.7850751749609604E-3</v>
+        <v>2.0173477963037589E-2</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>-2.0222292571022149E-2</v>
+        <v>2.3348092126089792E-3</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>149.2826</v>
+        <v>120.0716</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
@@ -18887,31 +19559,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7855.23</v>
+        <v>7761.69</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>-1.8209404337727886E-3</v>
+        <v>-2.3444941021321108E-3</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>7.5625908286911514E-3</v>
+        <v>-2.3444941021321108E-3</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>5.7050813656346566E-2</v>
+        <v>4.44634631765497E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>8.7364515995072001E-2</v>
+        <v>7.44161902520728E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>120.0611</v>
+        <v>85.619299999999996</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>115.49375999999999</v>
+        <v>105.89955999999999</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -18925,31 +19597,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3493.48</v>
+        <v>3409.1</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>-1.0807979273144253E-2</v>
+        <v>7.9802253622738295E-3</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>6.8884418286940807E-3</v>
+        <v>7.9802253622738295E-3</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>5.5805224203117065E-2</v>
+        <v>3.0303762961530145E-2</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>5.3440232984451885E-3</v>
+        <v>-1.893861999303581E-2</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>467.40269999999998</v>
+        <v>362.28769999999997</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>482.44552000000004</v>
+        <v>396.41705999999999</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -18963,27 +19635,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4513.1400000000003</v>
+        <v>4428.8999999999996</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>-7.1517612595950464E-4</v>
+        <v>1.2942815125185358E-2</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>1.9635220040531198E-2</v>
+        <v>1.2942815125185358E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>0.1077663969131757</v>
+        <v>8.7089386832396767E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>7.9453234312775844E-2</v>
+        <v>5.9304703476482645E-2</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>531.90859999999998</v>
+        <v>418.41410000000002</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -19001,27 +19673,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5979.17</v>
+        <v>5900.61</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>-1.5613206601965413E-3</v>
+        <v>7.0039269093125078E-3</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>1.193896892853985E-3</v>
+        <v>7.0039269093125078E-3</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>5.186150795954525E-2</v>
+        <v>3.8041154956485856E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>0.10788150322219646</v>
+        <v>9.3325106449210229E-2</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>17.350000000000001</v>
+        <v>20.0534</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -19039,27 +19711,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>8217.0400000000009</v>
+        <v>8310.1299999999992</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>-1.3181534322908917E-2</v>
+        <v>2.0234957294442912E-2</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>-4.1774172242412533E-3</v>
+        <v>2.0234957294442912E-2</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>6.6319922968915312E-2</v>
+        <v>7.840015157059832E-2</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>1.7513228102892686E-2</v>
+        <v>2.9040530684369292E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>318.96910000000003</v>
+        <v>294.9699</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -19077,27 +19749,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3315.63</v>
+        <v>3206.53</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>-3.4773984130800351E-3</v>
+        <v>-2.1277439992186009E-2</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>6.8171190156627315E-3</v>
+        <v>-2.1277439992186009E-2</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>-5.9750086941922076E-3</v>
+        <v>-3.8683159649354204E-2</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>-3.2430050543370448E-2</v>
+        <v>-6.4267704770687217E-2</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>81.390900000000002</v>
+        <v>87.329899999999995</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -19115,27 +19787,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>5088.88</v>
+        <v>5038.6099999999997</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>-3.8582074505881803E-3</v>
+        <v>-1.1907904268415592E-5</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>1.1000276149247812E-2</v>
+        <v>-1.1907904268415592E-5</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>4.8319847064058452E-2</v>
+        <v>3.7964122678356693E-2</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-2.1638280242164187E-2</v>
+        <v>-3.1302930155745701E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>163.49600000000001</v>
+        <v>131.29429999999999</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -19153,27 +19825,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>946.23</v>
+        <v>927.22</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>-6.1653187690369204E-3</v>
+        <v>1.7285711198979925E-3</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>1.4147455065753656E-2</v>
+        <v>1.7285711198979925E-3</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>5.2922652364049139E-2</v>
+        <v>3.1769169995660373E-2</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>1.8733245050224445E-2</v>
+        <v>-1.7333634787851659E-3</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>271.0213</v>
+        <v>208.1095</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -19191,27 +19863,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2708.83</v>
+        <v>2651.75</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>-1.1116059694518343E-2</v>
+        <v>5.2389563028587549E-3</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>6.8465401184205632E-3</v>
+        <v>5.2389563028587549E-3</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>5.2622784554346103E-2</v>
+        <v>3.0442098227643433E-2</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-3.1979902227050605E-2</v>
+        <v>-5.237785528459938E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>195.60480000000001</v>
+        <v>151.5384</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -19229,27 +19901,27 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2981.32</v>
+        <v>2942.92</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>-8.8861554827878164E-3</v>
+        <v>6.3582734057554546E-4</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>3.2068214779645832E-3</v>
+        <v>6.3582734057554546E-4</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>2.9834712171194822E-2</v>
+        <v>1.6570234373650683E-2</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>1.1753564688261608E-3</v>
+        <v>-1.171998307486688E-2</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>89.249099999999999</v>
+        <v>65.624899999999997</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
@@ -19267,27 +19939,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>4978.9399999999996</v>
+        <v>4893.8999999999996</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>-3.3429150218992065E-3</v>
+        <v>-1.5486191579760611E-2</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>-1.68028230480467E-2</v>
+        <v>-1.5486191579760611E-2</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>7.5623739014119007E-3</v>
+        <v>-9.6467317067248093E-3</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>1.3960194607760101E-2</v>
+        <v>-3.3581853987159072E-3</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>161.88399999999999</v>
+        <v>160.89850000000001</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -19305,31 +19977,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2719.54</v>
+        <v>2686.04</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>8.9064892238854831E-4</v>
+        <v>-1.7244711374075905E-3</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>1.3944089421134009E-2</v>
+        <v>-1.7244711374075905E-3</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>3.754487568338849E-2</v>
+        <v>2.4764128448417244E-2</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>-3.5431498492237701E-3</v>
+        <v>-1.5817764114890442E-2</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>48.806600000000003</v>
+        <v>31.8491</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>41.909399999999998</v>
+        <v>38.150819999999996</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -19343,27 +20015,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3195.22</v>
+        <v>3146.36</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>-3.9496366770681579E-3</v>
+        <v>-9.3671312128684736E-4</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>1.5774415055951119E-2</v>
+        <v>-9.3671312128684736E-4</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>2.9427684059950776E-2</v>
+        <v>1.3686096111963142E-2</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>2.3905132388002404E-3</v>
+        <v>-1.2937633329150433E-2</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>368.18759999999997</v>
+        <v>271.01670000000001</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -19381,27 +20053,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1398.79</v>
+        <v>1373.31</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>-7.7885045078275317E-3</v>
+        <v>1.7141273268366231E-3</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>5.2100550469265094E-3</v>
+        <v>1.7141273268366231E-3</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>4.4699538440856168E-2</v>
+        <v>2.5669559502292882E-2</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-4.0820944648636726E-2</v>
+        <v>-5.8293104394097295E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>263.14530000000002</v>
+        <v>173.61150000000001</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -19419,31 +20091,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2806.55</v>
+        <v>2725.86</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>1.5559259008133264E-3</v>
+        <v>-9.0880670045003775E-3</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>7.6365751378675295E-3</v>
+        <v>-9.0880670045003775E-3</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>3.0879933002262661E-2</v>
+        <v>1.2415150891833537E-3</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>-4.2995389819411756E-2</v>
+        <v>-7.0509847782202928E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>76.391099999999994</v>
+        <v>57.137799999999999</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>65.78792</v>
+        <v>60.66516</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -19457,27 +20129,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2564.08</v>
+        <v>2504.54</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>-7.1095553042859194E-3</v>
+        <v>-4.1036081531378166E-3</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>-2.7070757358890196E-3</v>
+        <v>-4.1036081531378166E-3</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>3.2138601745403061E-2</v>
+        <v>8.1715132193347362E-3</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-7.4376107807993308E-2</v>
+        <v>-9.5869839103862375E-2</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>47.972200000000001</v>
+        <v>51.954099999999997</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -19495,27 +20167,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2910.84</v>
+        <v>2840.61</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>-5.2151327705819428E-3</v>
+        <v>-7.6991598693517682E-3</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>1.2796169404771796E-3</v>
+        <v>-7.6991598693517682E-3</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>1.7836724560550854E-2</v>
+        <v>-6.7206792012112215E-3</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>1.0213661546081276E-3</v>
+        <v>-2.3130332511425822E-2</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>124.5745</v>
+        <v>93.131699999999995</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -19533,31 +20205,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4400.2</v>
+        <v>4396.93</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>-5.7348415348948967E-3</v>
+        <v>4.1266448345005369E-3</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>8.977195858795417E-3</v>
+        <v>4.1266448345005369E-3</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>3.9823427102238185E-2</v>
+        <v>3.9050684361766397E-2</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>-5.8067285749791031E-3</v>
+        <v>-6.5455613547525937E-3</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>87.312799999999996</v>
+        <v>78.5548</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>79.057100000000005</v>
+        <v>84.064040000000006</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -19571,27 +20243,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3186.85</v>
+        <v>3086.11</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>-5.923564494797029E-3</v>
+        <v>-2.5978247833304935E-2</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>3.6595774164391859E-3</v>
+        <v>-2.5978247833304935E-2</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>-4.9954984766367956E-2</v>
+        <v>-7.9987002223931403E-2</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>2.9640303575640292E-2</v>
+        <v>-2.9078126464002763E-3</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>68.052000000000007</v>
+        <v>71.527199999999993</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -19609,27 +20281,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>5186.3100000000004</v>
+        <v>5123.18</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>-5.4213378642190557E-3</v>
+        <v>1.2410027302061089E-3</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>1.5434225880473607E-2</v>
+        <v>1.2410027302061089E-3</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>5.5211141517207851E-2</v>
+        <v>4.2366656832724781E-2</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-3.6324278122561227E-2</v>
+        <v>-4.8054554238358908E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>206.93129999999999</v>
+        <v>146.26310000000001</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -19647,27 +20319,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>2886.11</v>
+        <v>2837.16</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>-8.4515461863255981E-3</v>
+        <v>-1.7978587537426094E-3</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>-2.0055949182373745E-3</v>
+        <v>-1.7978587537426094E-3</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>1.2414407588258625E-2</v>
+        <v>-4.7566930459672641E-3</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>-4.3593380301293012E-2</v>
+        <v>-5.9814558300139813E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>128.7833</v>
+        <v>77.383499999999998</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -19685,27 +20357,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2549.8000000000002</v>
+        <v>2528.84</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>-7.7904289016351713E-3</v>
+        <v>2.3862185966496696E-3</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>-4.0193899433222935E-3</v>
+        <v>2.3862185966496696E-3</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>3.1172150506325158E-2</v>
+        <v>2.2695654987220593E-2</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-4.9146215491555401E-2</v>
+        <v>-5.6962473756241645E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>114.22799999999999</v>
+        <v>104.88339999999999</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -19723,27 +20395,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>4073.09</v>
+        <v>4012.32</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>-4.4679410564186783E-3</v>
+        <v>-2.9570947910401157E-3</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>2.1503003247771213E-2</v>
+        <v>-2.9570947910401157E-3</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>2.4094477102326817E-2</v>
+        <v>8.8151139226502195E-3</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-1.7573776818340714E-2</v>
+        <v>-3.2231454793231862E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>311.91640000000001</v>
+        <v>261.4024</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -19761,27 +20433,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>6137.77</v>
+        <v>6096.32</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>2.1176201671890826E-3</v>
+        <v>-1.3567587946609949E-2</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>2.1205193733445205E-2</v>
+        <v>-1.3567587946609949E-2</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>4.7408173434630996E-2</v>
+        <v>4.0334746312261416E-2</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>2.2559459945754812E-2</v>
+        <v>1.5653842821823361E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>145.57069999999999</v>
+        <v>118.4174</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -19799,27 +20471,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1216.22</v>
+        <v>1195.19</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>-1.234347338844588E-2</v>
+        <v>8.7353566726309229E-3</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>3.7220126928059205E-3</v>
+        <v>8.7353566726309229E-3</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>3.401603455165314E-2</v>
+        <v>1.6136574251196745E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-5.2950429054211871E-2</v>
+        <v>-6.9326127922007097E-2</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>69.860399999999998</v>
+        <v>52.874899999999997</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -19903,31 +20575,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1557.7608</v>
+        <v>1523.7116000000001</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>-1.4432617647553769E-2</v>
+        <v>1.1920004138765927E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>1.585615896460002E-3</v>
+        <v>1.1920004138765927E-2</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>7.6005266189872911E-2</v>
+        <v>5.248617487010665E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-6.8262173108464275E-3</v>
+        <v>-2.8534795907470101E-2</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>44.872206720000001</v>
+        <v>31.86346898</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>48.997406865999999</v>
+        <v>37.876219839999997</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -19939,31 +20611,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>10011.971299999999</v>
+        <v>9778.6736000000001</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>-8.1989550674403944E-3</v>
+        <v>-1.2740391035515053E-4</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>1.1392052918705264E-2</v>
+        <v>-1.2740391035515053E-4</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>6.9330792565327037E-2</v>
+        <v>4.4413380502363431E-2</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-1.7952790583619538E-2</v>
+        <v>-4.0836331535066162E-2</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>132.49118621</v>
+        <v>96.825758680000007</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>104.706619094</v>
+        <v>113.51901382200001</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -19975,31 +20647,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2364.3215</v>
+        <v>2305.5414000000001</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>-8.9008221944504307E-3</v>
+        <v>-2.1916334134767235E-3</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>4.2063473860631806E-3</v>
+        <v>-2.1916334134767235E-3</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>5.428311384499751E-2</v>
+        <v>2.8072267790380856E-2</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-4.0793123762688843E-2</v>
+        <v>-6.4640251196887988E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>99.428051890000006</v>
+        <v>72.495064920000004</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>114.26236180400001</v>
+        <v>84.020970239999997</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -20011,31 +20683,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3499.6093000000001</v>
+        <v>3410.5399000000002</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>6.7850503806892171E-3</v>
+        <v>2.8530021294104202E-5</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>2.6960276674030892E-2</v>
+        <v>2.8530021294104202E-5</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>0.114632493782284</v>
+        <v>8.6263713461094405E-2</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>9.8289941120693461E-2</v>
+        <v>7.0337099047249607E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>131.27666869000001</v>
+        <v>83.034603239999996</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>112.40766101199999</v>
+        <v>105.566236172</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -20048,31 +20720,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1955.2007000000001</v>
+        <v>1922.5931</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>1.3325127365262368E-2</v>
+        <v>3.9136900565923671E-3</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>2.5625629049198961E-2</v>
+        <v>3.9136900565923671E-3</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>4.4362697548568919E-2</v>
+        <v>2.6945477364173076E-2</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-4.2863843171495282E-2</v>
+        <v>-5.8826354307769509E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>14.67485922</v>
+        <v>12.11907972</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>11.757858713999999</v>
+        <v>10.534500694</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -20085,31 +20757,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>6195.3140999999996</v>
+        <v>6181.9314999999997</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>-6.2839927477006396E-3</v>
+        <v>1.3218883239472623E-2</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>7.4877507002903965E-3</v>
+        <v>1.3218883239472623E-2</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>7.1091989222473506E-2</v>
+        <v>6.8778305779858773E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-3.702706670093725E-2</v>
+        <v>-3.9107200390554042E-2</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>124.33525277</v>
+        <v>99.627331029999993</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>122.20629492200001</v>
+        <v>109.58131779800001</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -20122,31 +20794,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6927.6293999999998</v>
+        <v>6780.0393000000004</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>-8.3535935327683219E-3</v>
+        <v>4.939322248837863E-3</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>9.0040661194021876E-3</v>
+        <v>4.939322248837863E-3</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>5.3661943378397803E-2</v>
+        <v>3.1214138709543704E-2</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>5.8669807400724139E-3</v>
+        <v>-1.5562573253408263E-2</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>89.476673450000007</v>
+        <v>59.145228709999998</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>86.165122812000007</v>
+        <v>67.999137227999995</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -20159,31 +20831,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2936.2829000000002</v>
+        <v>2894.2121000000002</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>-7.6360389431530118E-3</v>
+        <v>8.1766399461380423E-3</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>1.0274944471197367E-2</v>
+        <v>8.1766399461380423E-3</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>7.1621780526581302E-2</v>
+        <v>5.6267679052170338E-2</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-2.6471328082465551E-2</v>
+        <v>-4.0419960229084777E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>136.06484871000001</v>
+        <v>99.324524420000003</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>121.32096836999999</v>
+        <v>107.446627096</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -20196,31 +20868,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>5707.4414999999999</v>
+        <v>5524.1448</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>3.3435458902311144E-3</v>
+        <v>1.8906979772533639E-2</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>2.3392490777269792E-2</v>
+        <v>1.8906979772533639E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>0.14146261709111529</v>
+        <v>0.10480410190770705</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>8.8091348678600134E-2</v>
+        <v>5.3146872504584719E-2</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>123.4357918</v>
+        <v>110.68559801000001</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>115.70237771800001</v>
+        <v>108.53487551999999</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -20234,31 +20906,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1783.5254</v>
+        <v>1757.1195</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-9.4235533490016898E-4</v>
+        <v>-3.0439984011206844E-3</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>1.057252892187921E-2</v>
+        <v>-3.0439984011206844E-3</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>3.9779951066034824E-2</v>
+        <v>2.4385538735347101E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-3.5777627915913546E-2</v>
+        <v>-5.0053376125058779E-2</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>48.248654080000001</v>
+        <v>35.107808370000001</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>49.82904027</v>
+        <v>43.210949782</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -20272,31 +20944,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2477.1453000000001</v>
+        <v>2476.8290000000002</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>-8.7456954795691599E-3</v>
+        <v>2.409305362454095E-4</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>1.4041878959043519E-3</v>
+        <v>2.409305362454095E-4</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>1.6470951747954654E-2</v>
+        <v>1.6341161314572306E-2</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-5.2364809808493229E-2</v>
+        <v>-5.2485810789201788E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>28.042836059999999</v>
+        <v>20.636398750000001</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>31.426408626000001</v>
+        <v>24.438498877999997</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -20310,31 +20982,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>991.82640000000004</v>
+        <v>984.37850000000003</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>-5.5377778802716549E-3</v>
+        <v>5.2755652858225144E-3</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>1.6839221268290183E-2</v>
+        <v>5.2755652858225144E-3</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>7.2994112645155429E-2</v>
+        <v>6.4936701739809699E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>1.9929853152726107E-2</v>
+        <v>1.2270916514927288E-2</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>51.854695220000004</v>
+        <v>43.531995879999997</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>42.602540185999999</v>
+        <v>47.512897894000005</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -20348,31 +21020,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2422.1278000000002</v>
+        <v>2384.8148000000001</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>3.649868987508853E-3</v>
+        <v>-2.5743526685820806E-3</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>1.9450570388695354E-2</v>
+        <v>-2.5743526685820806E-3</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>5.0221345667536665E-2</v>
+        <v>3.4042633268094757E-2</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-7.4189053233957969E-2</v>
+        <v>-8.8451217210888333E-2</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>63.177392740000002</v>
+        <v>35.975305069999997</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>45.032040092000003</v>
+        <v>45.110504188</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -20386,31 +21058,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1595.9749999999999</v>
+        <v>1606.4092000000001</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>-2.5522188654704125E-3</v>
+        <v>6.7907219100635796E-3</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>6.9723199415694381E-3</v>
+        <v>6.7907219100635796E-3</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>9.4326002217073324E-2</v>
+        <v>0.1014805105097054</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>1.6583242050669078E-2</v>
+        <v>2.3229482038266136E-2</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>20.248056720000001</v>
+        <v>18.005755570000002</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>19.196146415999998</v>
+        <v>17.873186466</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -20424,31 +21096,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1984.4374</v>
+        <v>1961.5177000000001</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>-1.5504757438796757E-3</v>
+        <v>-3.1934112060172382E-3</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>1.1770558990149116E-2</v>
+        <v>-3.1934112060172382E-3</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>1.6998321758900481E-2</v>
+        <v>5.2522740200211526E-3</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-5.1060395156750316E-2</v>
+        <v>-6.202038364574259E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>39.452859940000003</v>
+        <v>30.02565542</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>39.186199002000002</v>
+        <v>35.580064379999996</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -20462,31 +21134,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4792.4853999999996</v>
+        <v>4703.1463999999996</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>1.1056375944771268E-3</v>
+        <v>1.5827197667728221E-3</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>1.435175053199389E-2</v>
+        <v>1.5827197667728221E-3</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>4.3595124186782686E-2</v>
+        <v>2.4140971066207051E-2</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>5.2944217866367937E-2</v>
+        <v>3.331578384339462E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>9.5817285499999993</v>
+        <v>9.0388731500000006</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>11.601966848</v>
+        <v>9.0299175080000005</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -20500,31 +21172,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4548.9245000000001</v>
+        <v>4446.4516999999996</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>2.5369299610213947E-3</v>
+        <v>1.3588895002629942E-2</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>2.3577022062827524E-2</v>
+        <v>1.3588895002629942E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>0.12012979537826629</v>
+        <v>9.4896833939614358E-2</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>4.5078866167331588E-2</v>
+        <v>2.15365634456679E-2</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>198.79223241</v>
+        <v>143.18691937</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>172.62704798800002</v>
+        <v>159.48238933600001</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -20538,31 +21210,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2667.5509000000002</v>
+        <v>2606.4427999999998</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>-6.9962341399757433E-3</v>
+        <v>-1.6735405814919391E-3</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>1.0186117228811131E-2</v>
+        <v>-1.6735405814919391E-3</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>6.867098645884484E-2</v>
+        <v>4.4189934004465803E-2</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-1.4984468253896654E-2</v>
+        <v>-3.7549146444477488E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>60.213025960000003</v>
+        <v>59.617464079999998</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>59.036282624000002</v>
+        <v>60.016910970000005</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -20576,31 +21248,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2668.7471</v>
+        <v>2581.0320000000002</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>-7.354234530080106E-3</v>
+        <v>7.1269836760827765E-3</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>1.9937950251738945E-2</v>
+        <v>7.1269836760827765E-3</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>6.0189259133974993E-2</v>
+        <v>2.5343466932884695E-2</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>1.944151084776724E-2</v>
+        <v>-1.406500390148091E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>54.066103839999997</v>
+        <v>33.37698984</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>48.362019056000001</v>
+        <v>38.588364983999995</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -20614,31 +21286,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3956.3150999999998</v>
+        <v>3905.1597000000002</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>-2.1885035091491201E-3</v>
+        <v>3.7716881644094258E-3</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>1.5979316555122303E-2</v>
+        <v>3.7716881644094258E-3</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>6.416014151664684E-2</v>
+        <v>5.040048478370851E-2</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>3.4722072928287107E-2</v>
+        <v>2.1343052250820005E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>64.040564770000003</v>
+        <v>47.782333000000001</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>60.278249164000002</v>
+        <v>55.035826688</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -20652,31 +21324,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3583.9600999999998</v>
+        <v>3508.2564000000002</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>2.7529007202862221E-3</v>
+        <v>4.9166278058556667E-3</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>2.2337466572202036E-2</v>
+        <v>4.9166278058556667E-3</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>7.5214007170413044E-2</v>
+        <v>5.2502348456738623E-2</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-7.6371258492115013E-3</v>
+        <v>-2.8598726765429405E-2</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>241.94876482999999</v>
+        <v>153.92586152999999</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>233.06241327799998</v>
+        <v>186.88310970399999</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -20690,31 +21362,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>2033.7862</v>
+        <v>2018.0530000000001</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>2.3292065129072448E-3</v>
+        <v>-8.760670801517545E-4</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>6.8251006992823271E-3</v>
+        <v>-8.760670801517545E-4</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>3.3133178719587875E-2</v>
+        <v>2.5140946828432931E-2</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-0.10341656242163989</v>
+        <v>-0.11035245693213847</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>24.9202911</v>
+        <v>24.032674849999999</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>22.700571062000002</v>
+        <v>24.074698890000001</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -20728,31 +21400,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>4197.3504000000003</v>
+        <v>4092.4036000000001</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>-1.047241577340785E-2</v>
+        <v>3.2794834747948975E-3</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>8.9798197805268654E-3</v>
+        <v>3.2794834747948975E-3</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>0.11272633686871704</v>
+        <v>8.4904721515828285E-2</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-2.1947742905530365E-3</v>
+        <v>-2.7143004836538531E-2</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>74.394042720000002</v>
+        <v>63.57866027</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>78.798975041999995</v>
+        <v>67.060593845999989</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -20766,31 +21438,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1318.6348</v>
+        <v>1303.0378000000001</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>-4.6388072527049351E-3</v>
+        <v>-7.7060360063352373E-4</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>1.1874439104009094E-2</v>
+        <v>-7.7060360063352373E-4</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>4.5909835845824976E-2</v>
+        <v>3.3538665518993538E-2</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-4.0436395623178134E-2</v>
+        <v>-5.1786250440801096E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>18.592687139999999</v>
+        <v>14.807205529999999</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>15.003375460000001</v>
+        <v>15.174313746000001</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -20804,31 +21476,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2496.3161</v>
+        <v>2458.0814999999998</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>-6.1052722689214356E-4</v>
+        <v>-2.0650235793905347E-3</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>9.8110788056531284E-3</v>
+        <v>-2.0650235793905347E-3</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>4.0935484016241253E-2</v>
+        <v>2.4992089725282884E-2</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-5.0893100676464798E-2</v>
+        <v>-6.5430010746818423E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>137.68611357</v>
+        <v>103.9796145</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>134.29085128599999</v>
+        <v>112.75105113800001</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -20842,31 +21514,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>5463.3200999999999</v>
+        <v>5381.6688000000004</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>-4.9100250397179357E-3</v>
+        <v>1.5773563607882179E-2</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>2.2983652207285044E-2</v>
+        <v>1.5773563607882179E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>0.15087490438376117</v>
+        <v>0.13367466160825381</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>7.0879944573889908E-2</v>
+        <v>5.487525548046035E-2</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>215.46467448999999</v>
+        <v>186.83210324000001</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>186.51442394999998</v>
+        <v>186.34522182999999</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -20880,31 +21552,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1956.1463000000001</v>
+        <v>1932.4565</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>-4.3994010149276397E-3</v>
+        <v>1.8989068764683203E-3</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>9.1940712528528756E-3</v>
+        <v>1.8989068764683203E-3</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>4.7608308626318152E-2</v>
+        <v>3.4921306989632805E-2</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-1.816209072065933E-2</v>
+        <v>-3.005258362665808E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>100.96805191999999</v>
+        <v>95.634471219999995</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>97.826961686000004</v>
+        <v>90.056243550000005</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -20918,31 +21590,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3327.2197999999999</v>
+        <v>3280.2474999999999</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>-2.126017969662386E-3</v>
+        <v>2.0977394380756742E-3</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>1.4353572491353273E-2</v>
+        <v>2.0977394380756742E-3</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>8.0679809554377702E-2</v>
+        <v>6.5423223194098545E-2</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-5.6098539639483642E-2</v>
+        <v>-6.9424146371714568E-2</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>68.527650859999994</v>
+        <v>48.942669379999998</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>66.487226514</v>
+        <v>57.541248412000002</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -20956,31 +21628,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3457.9553999999998</v>
+        <v>3405.8946999999998</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>-3.1199749052830406E-3</v>
+        <v>-1.1161684142053652E-3</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>1.1456812021339635E-2</v>
+        <v>-1.1161684142053652E-3</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>6.2992852863998694E-2</v>
+        <v>4.6989132279546819E-2</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-4.0898070474487354E-2</v>
+        <v>-5.5337677712466442E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>228.65626198000001</v>
+        <v>198.80805072999999</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>213.14294531000002</v>
+        <v>204.462579906</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -20994,31 +21666,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2318.0270999999998</v>
+        <v>2377.5787</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>-6.3573524988385088E-3</v>
+        <v>7.1179597477912804E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>5.82224551660393E-3</v>
+        <v>7.1179597477912804E-3</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>5.1380710256062612E-2</v>
+        <v>7.8391353705781208E-2</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>1.6876814079258562E-3</v>
+        <v>2.7421679137345389E-2</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>25.716401909999998</v>
+        <v>39.745066620000003</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>25.912169364</v>
+        <v>30.186189169999999</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -21032,31 +21704,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1330.492</v>
+        <v>1312.0815</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>-2.7181247719937351E-3</v>
+        <v>7.0273401685161385E-3</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>7.2542424925607918E-3</v>
+        <v>7.0273401685161385E-3</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>4.1350594054756273E-2</v>
+        <v>2.6941048479251162E-2</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-2.1464512743028297E-2</v>
+        <v>-3.5004862920364532E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>16.01310668</v>
+        <v>9.1017088299999998</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>15.492323841999999</v>
+        <v>13.324971012000001</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -21070,31 +21742,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>4294.4268000000002</v>
+        <v>4222.0078999999996</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>-4.5802374621330966E-3</v>
+        <v>8.4018682675655043E-3</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>1.9173315672582625E-2</v>
+        <v>8.4018682675655043E-3</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>9.142916526852328E-2</v>
+        <v>7.3023891815808817E-2</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-8.9300055645796794E-3</v>
+        <v>-2.5642876027296535E-2</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>123.00419334999999</v>
+        <v>93.399320149999994</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>114.31075143800001</v>
+        <v>102.67654974</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -21108,31 +21780,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>3192.7709</v>
+        <v>3139.9951999999998</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>-2.9163588227184567E-3</v>
+        <v>4.3396495092353771E-3</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>1.3475750701992473E-2</v>
+        <v>4.3396495092353771E-3</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>6.9824798508852703E-2</v>
+        <v>5.2140863648802549E-2</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-3.672977881933881E-2</v>
+        <v>-5.2652393314467257E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>17.470410489999999</v>
+        <v>14.20801576</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>17.038841080000001</v>
+        <v>14.717602615999999</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -21146,31 +21818,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2512.0230999999999</v>
+        <v>2465.7224999999999</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>-2.0463423646382983E-3</v>
+        <v>-2.6229597539946137E-2</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>1.2465136877619409E-2</v>
+        <v>-2.6229597539946137E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>6.4806124410091481E-2</v>
+        <v>4.5180045954100301E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>6.1724870308667912E-2</v>
+        <v>4.2155584289676362E-2</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>35.069957170000002</v>
+        <v>41.367065359999998</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>34.053804784</v>
+        <v>35.993827553999999</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -21184,31 +21856,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2393.5034999999998</v>
+        <v>2358.2817</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>-7.1425484031301112E-3</v>
+        <v>9.9608444953580566E-3</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>1.4780068841290239E-2</v>
+        <v>9.9608444953580566E-3</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>0.10803822108253612</v>
+        <v>9.1732792402225302E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>3.5502655226531177E-2</v>
+        <v>2.0264629703753645E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>98.95303964</v>
+        <v>74.760325820000006</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>104.602718772</v>
+        <v>85.073665497999997</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -21222,31 +21894,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4648.9012000000002</v>
+        <v>4611.5693000000001</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>-4.6911323310209196E-3</v>
+        <v>2.3075561303964598E-4</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>2.2928565239255461E-2</v>
+        <v>2.3075561303964598E-4</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>5.9881982859048222E-2</v>
+        <v>5.1370851627458469E-2</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-8.0056647089031818E-3</v>
+        <v>-1.5971640265805442E-2</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>269.03406770999999</v>
+        <v>213.47197331000001</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>264.02532953599996</v>
+        <v>258.62870793799999</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -21260,31 +21932,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>5264.1323000000002</v>
+        <v>5172.1755999999996</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>-6.2658423134167585E-3</v>
+        <v>8.0548880894366626E-3</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>2.4532060537346245E-2</v>
+        <v>8.0548880894366626E-3</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>0.10982844768797806</v>
+        <v>9.0441366247127952E-2</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-1.4087980322709526E-2</v>
+        <v>-3.1310422817146688E-2</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>86.510255240000006</v>
+        <v>65.60616168</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>73.33924335399999</v>
+        <v>73.516298140000004</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -21298,31 +21970,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5164.8225000000002</v>
+        <v>5079.0294999999996</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>-2.4612145908879945E-3</v>
+        <v>7.3134337974556374E-4</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>1.7019605602192511E-2</v>
+        <v>7.3134337974556374E-4</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>6.4164417301538546E-2</v>
+        <v>4.648755466907617E-2</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>1.0671175843514291E-2</v>
+        <v>-6.1171091728909888E-3</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>186.04963652999999</v>
+        <v>132.94061060000001</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>165.62427288800001</v>
+        <v>148.677202126</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -21336,31 +22008,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>5135.2133999999996</v>
+        <v>5040.9612999999999</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>-1.1905609678066198E-2</v>
+        <v>1.386632231820073E-2</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>1.4082262489192532E-2</v>
+        <v>1.386632231820073E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>0.10128319788541805</v>
+        <v>8.1070161734784887E-2</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-6.7065281206268867E-2</v>
+        <v>-8.4188436479469053E-2</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>180.37746623000001</v>
+        <v>158.85898236</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>179.82042104800001</v>
+        <v>157.74618854800002</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -21374,31 +22046,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1592.2718</v>
+        <v>1576.7976000000001</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>-9.428728307423806E-3</v>
+        <v>5.9855850620866846E-3</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>6.420905912421393E-3</v>
+        <v>5.9855850620866846E-3</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>3.6728160022668765E-2</v>
+        <v>2.6652908489718907E-2</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-5.0722076274457899E-2</v>
+        <v>-5.9947458804823439E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>19.501129800000001</v>
+        <v>20.893134799999999</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>20.471538521999999</v>
+        <v>20.194880521999998</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -21412,31 +22084,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>5259.7242999999999</v>
+        <v>5202.9422999999997</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>-5.8177265942387368E-3</v>
+        <v>1.2777429735085777E-2</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>5.5841139206807E-3</v>
+        <v>1.2777429735085777E-2</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>6.2625156682291738E-2</v>
+        <v>5.1153456227054139E-2</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-1.2819622030486588E-2</v>
+        <v>-2.3476849106412456E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>50.365490289999997</v>
+        <v>45.011361829999998</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>56.030661045999999</v>
+        <v>44.050956559999996</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -21450,31 +22122,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>11855.705</v>
+        <v>11577.0987</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>-2.4452815085153068E-3</v>
+        <v>1.0385437943370324E-2</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>1.7799625911556927E-2</v>
+        <v>1.0385437943370324E-2</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>0.10473295831300679</v>
+        <v>7.8771991672588637E-2</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>6.4762082979361812E-2</v>
+        <v>3.9740422578806056E-2</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>101.51255053</v>
+        <v>62.176910110000001</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>85.279963508000009</v>
+        <v>72.121441837999996</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -21488,31 +22160,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>2050.3964000000001</v>
+        <v>2033.9422</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>-4.0954847958909468E-3</v>
+        <v>-1.736311607294927E-3</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>7.5235667025850272E-3</v>
+        <v>-1.736311607294927E-3</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>3.3855447049732756E-2</v>
+        <v>2.5558873617958389E-2</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-5.7900141926324533E-2</v>
+        <v>-6.5460387098777995E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>109.68699164</v>
+        <v>116.98948233</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>120.66442945399999</v>
+        <v>117.71034315</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -21526,31 +22198,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2601.7941999999998</v>
+        <v>2582.8177999999998</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>3.5474853978461063E-3</v>
+        <v>1.0946926804271673E-3</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>2.2708278122240744E-2</v>
+        <v>1.0946926804271673E-3</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>6.1443077876838004E-2</v>
+        <v>5.3701355482721702E-2</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-5.7979980599804248E-2</v>
+        <v>-6.4850681094157703E-2</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>118.63106467999999</v>
+        <v>91.882382379999996</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>103.827024944</v>
+        <v>107.41779386799999</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -21564,31 +22236,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1209.5898999999999</v>
+        <v>1181.0798</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>-9.7036102319364437E-3</v>
+        <v>9.0301671092229974E-3</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>1.0354972005349072E-2</v>
+        <v>9.0301671092229974E-3</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>6.3767202594290806E-2</v>
+        <v>3.8694151535677124E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-2.5008860515535636E-2</v>
+        <v>-4.7989454918494934E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>24.596881159999999</v>
+        <v>19.317713000000001</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>19.957076735999998</v>
+        <v>20.89352706</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -21602,31 +22274,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2997.2015000000001</v>
+        <v>2965.4636999999998</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>-7.7018283875929239E-3</v>
+        <v>1.3148889577957679E-2</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>7.6449457967506795E-3</v>
+        <v>1.3148889577957679E-2</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>7.7902900892322879E-2</v>
+        <v>6.648883123836713E-2</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-1.5858746051919947E-2</v>
+        <v>-2.6279960070915154E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>75.187049490000007</v>
+        <v>56.903485500000002</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>69.946836254000004</v>
+        <v>60.09895607</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -21640,31 +22312,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>830.59709999999995</v>
+        <v>811.71730000000002</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>-8.664725444165966E-3</v>
+        <v>5.0231514412681921E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>-5.0089934036394723E-3</v>
+        <v>5.0231514412681921E-3</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>4.4252261349619681E-2</v>
+        <v>2.0515995181788593E-2</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>3.3023794081048941E-2</v>
+        <v>9.5427554071945142E-3</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>10.32222749</v>
+        <v>6.13844922</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>12.476109107999999</v>
+        <v>7.8957679679999995</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -21678,31 +22350,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4543.8154999999997</v>
+        <v>4540.8594999999996</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>-6.3261803335349365E-3</v>
+        <v>1.3096004068215983E-2</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>5.1287760719733733E-3</v>
+        <v>1.3096004068215983E-2</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>6.6127357321719149E-2</v>
+        <v>6.5433783282843105E-2</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>2.7858819577913252E-2</v>
+        <v>2.7190141311669302E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>64.192213989999999</v>
+        <v>57.159574910000003</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>58.023247837999996</v>
+        <v>54.967024021999997</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -21716,31 +22388,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>5133.2070999999996</v>
+        <v>5032.5308000000005</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>5.0271060518281008E-3</v>
+        <v>1.6315198821894583E-3</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>1.9854269439792738E-2</v>
+        <v>1.6315198821894583E-3</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>7.3868795054436331E-2</v>
+        <v>5.2807276423805227E-2</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>4.2340854442541875E-3</v>
+        <v>-1.5461705137896686E-2</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>135.06598081000001</v>
+        <v>111.10402757</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>120.53293677799999</v>
+        <v>121.73527770000001</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -21754,31 +22426,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>747.23040000000003</v>
+        <v>745.04480000000001</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>2.9131885906086286E-3</v>
+        <v>-3.0755611243186154E-3</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>2.0646349364013661E-2</v>
+        <v>-3.0755611243186154E-3</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>5.3749620830564115E-2</v>
+        <v>5.0667472176966433E-2</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-5.9073476924564661E-2</v>
+        <v>-6.1825625403579609E-2</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>20.026834650000001</v>
+        <v>12.514053049999999</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>15.213954214000001</v>
+        <v>15.196074968</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -21792,31 +22464,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>23615.276099999999</v>
+        <v>23445.384999999998</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>-2.5315309390525398E-2</v>
+        <v>2.6825726491359836E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>-1.0284878591663715E-2</v>
+        <v>2.6825726491359836E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>0.10750489773834859</v>
+        <v>9.9537376014892764E-2</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-6.1956260256741939E-2</v>
+        <v>-6.8704658290212217E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>240.31852470000001</v>
+        <v>169.05708379000001</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>245.78197772799999</v>
+        <v>207.13924968999999</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -21830,31 +22502,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1889.7835</v>
+        <v>1872.5059000000001</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>2.864647539723153E-3</v>
+        <v>2.5561487230740809E-3</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>2.1530657430827382E-2</v>
+        <v>2.5561487230740809E-3</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>7.3128575872465573E-2</v>
+        <v>6.3317353432173373E-2</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>-1.380999937169558E-3</v>
+        <v>-1.0511008552169909E-2</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>70.158116500000006</v>
+        <v>45.579556670000002</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>68.503400251999992</v>
+        <v>58.270009628000004</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -21868,31 +22540,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2899.8669</v>
+        <v>2850.1194</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>5.9396603793704372E-4</v>
+        <v>-3.2874734875010247E-5</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>1.8657605490437268E-2</v>
+        <v>-3.2874734875010247E-5</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>4.6380301571262494E-2</v>
+        <v>2.8429545261579481E-2</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>9.0554004148659661E-3</v>
+        <v>-8.2550435686624679E-3</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>31.744005229999999</v>
+        <v>19.9305068</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>27.518027419999999</v>
+        <v>24.321876125999999</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -21906,31 +22578,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2750.547</v>
+        <v>2713.6154000000001</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>-7.3843138004965336E-3</v>
+        <v>2.7849518515552507E-3</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>1.0563542767655809E-2</v>
+        <v>2.7849518515552507E-3</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>6.8915066443371309E-2</v>
+        <v>5.4562741735646014E-2</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-3.2901904667240078E-2</v>
+        <v>-4.5887132702823956E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>42.627921989999997</v>
+        <v>39.55759613</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>38.268716771999998</v>
+        <v>38.225081926000001</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -21944,31 +22616,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1783.68</v>
+        <v>1825.1709000000001</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>2.2310947074335452E-3</v>
+        <v>3.8959616744560499E-3</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>1.4378494411585896E-2</v>
+        <v>3.8959616744560499E-3</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>5.4896951374542535E-2</v>
+        <v>7.9435334896130527E-2</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-3.6772253891255269E-2</v>
+        <v>-1.4366224731863775E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>66.130615750000004</v>
+        <v>71.103032859999999</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>67.787110787999993</v>
+        <v>71.646646750000002</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -21982,31 +22654,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2453.1383999999998</v>
+        <v>2409.8757000000001</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>-4.0565456101346875E-3</v>
+        <v>7.9498782663200984E-4</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>4.7852193087278838E-3</v>
+        <v>7.9498782663200984E-4</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>3.2049318488311718E-2</v>
+        <v>1.3848453811877492E-2</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-4.1069201071987527E-2</v>
+        <v>-5.7980572837552306E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>83.284273999999996</v>
+        <v>61.359742679999997</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>85.667474928000004</v>
+        <v>67.517328685999999</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -22020,31 +22692,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1508.8976</v>
+        <v>1478.0174</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>-1.1354534894935764E-2</v>
+        <v>-1.072448969798856E-3</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>1.3086911064945639E-3</v>
+        <v>-1.072448969798856E-3</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>3.8405869311365581E-2</v>
+        <v>1.7154472977042534E-2</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-2.6769775442038735E-2</v>
+        <v>-4.6687325831405557E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>25.923515640000002</v>
+        <v>21.603289419999999</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>28.980277496000003</v>
+        <v>23.841657529999999</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -22058,31 +22730,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2918.3969999999999</v>
+        <v>2897.1379000000002</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>7.4963714044140595E-4</v>
+        <v>1.1698996372357939E-3</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>1.9269714711408259E-2</v>
+        <v>1.1698996372357939E-3</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>8.8233758698533116E-2</v>
+        <v>8.0306506066506925E-2</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-3.1814500722606831E-2</v>
+        <v>-3.8867260284684124E-2</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>29.85201906</v>
+        <v>23.065214260000001</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>26.981968776000002</v>
+        <v>29.099742092000003</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -22096,31 +22768,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6637.3302999999996</v>
+        <v>6625.5012999999999</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>-4.4841579719978597E-3</v>
+        <v>1.2935034910973808E-2</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>9.8712167126906447E-3</v>
+        <v>1.2935034910973808E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>7.8148596017276528E-2</v>
+        <v>7.6227127721162358E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>3.8472645487312995E-3</v>
+        <v>2.0582155251582801E-3</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>76.254077879999997</v>
+        <v>71.941359149999997</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>70.086759819999997</v>
+        <v>65.891134311999991</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -22134,31 +22806,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1523.0007000000001</v>
+        <v>1523.3678</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>-4.3087326660395942E-3</v>
+        <v>1.7950357948393059E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>8.8130343088346219E-3</v>
+        <v>1.7950357948393059E-3</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>4.5225866137030835E-2</v>
+        <v>4.5477804573736069E-2</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-6.8016355418133001E-2</v>
+        <v>-6.77917125824955E-2</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>17.57028343</v>
+        <v>18.619571919999998</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>19.066506554</v>
+        <v>19.940391756</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -22172,31 +22844,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1110.4902999999999</v>
+        <v>1092.4423999999999</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>-2.3074569843384296E-4</v>
+        <v>1.9294004697805178E-3</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>1.077731957899597E-2</v>
+        <v>1.9294004697805178E-3</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>4.3346272318104617E-2</v>
+        <v>2.638960985273231E-2</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-7.233138400093897E-2</v>
+        <v>-8.7408031149220577E-2</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>17.967931799999999</v>
+        <v>16.83400138</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>18.707776459999998</v>
+        <v>17.742749816</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -22210,31 +22882,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1823.6031</v>
+        <v>1794.0182</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>-1.7339341896568383E-3</v>
+        <v>2.9623857302762957E-4</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>1.0555902332453959E-2</v>
+        <v>2.9623857302762957E-4</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>4.8866356616255713E-2</v>
+        <v>3.1850260145561915E-2</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-3.4959633852580496E-2</v>
+        <v>-5.0615794301328787E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>37.725700570000001</v>
+        <v>33.123010299999997</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>32.063673729999998</v>
+        <v>32.651898107999997</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -22248,31 +22920,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2245.1522</v>
+        <v>2207.8843999999999</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>-5.7514596749058677E-3</v>
+        <v>-2.5550474554313363E-3</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>8.5144291337326816E-3</v>
+        <v>-2.5550474554313363E-3</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>5.5165382319014356E-2</v>
+        <v>3.7650448393738101E-2</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-2.5173142696466977E-2</v>
+        <v>-4.1354518886738918E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>81.352452850000006</v>
+        <v>52.192309190000003</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>71.579239623999996</v>
+        <v>64.811736803999992</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -22286,31 +22958,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>4125.3019000000004</v>
+        <v>4038.1786999999999</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>-5.4095012870986059E-3</v>
+        <v>9.0041514760541563E-3</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>1.3819025486233372E-2</v>
+        <v>9.0041514760541563E-3</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>7.2770208764008304E-2</v>
+        <v>5.0114127895796168E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-2.6429777353586426E-2</v>
+        <v>-4.6990830890460522E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>104.33929568000001</v>
+        <v>88.16843763</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>95.646438837999995</v>
+        <v>90.022657937999995</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -22324,31 +22996,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2331.6358</v>
+        <v>2319.9836</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>-7.702233529412239E-3</v>
+        <v>9.8048829895553968E-3</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>6.8925913085897683E-3</v>
+        <v>9.8048829895553968E-3</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>5.0236391897917176E-2</v>
+        <v>4.4987903053444578E-2</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-6.6333136960370687E-2</v>
+        <v>-7.0999077079110684E-2</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>42.316070170000003</v>
+        <v>40.237010650000002</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>41.213602844</v>
+        <v>38.005124869999996</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -22362,31 +23034,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>1892.6503</v>
+        <v>2000.2312999999999</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>-1.1259566250901076E-2</v>
+        <v>7.3615005372140718E-3</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>7.1177482837654349E-3</v>
+        <v>7.3615005372140718E-3</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>7.6875033356293532E-2</v>
+        <v>0.13808617889305919</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>-2.995680895741315E-2</v>
+        <v>2.5181859044569155E-2</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>24.49277253</v>
+        <v>48.560624709999999</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>28.890998505999999</v>
+        <v>34.589691166000001</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -22400,31 +23072,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>13780.596799999999</v>
+        <v>13631.718800000001</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>-7.4261118904864754E-3</v>
+        <v>1.7018626880443311E-2</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>1.3507178324417835E-2</v>
+        <v>1.7018626880443311E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>0.10265934873966052</v>
+        <v>9.0746822678259273E-2</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>1.5245423183779971E-2</v>
+        <v>4.2772691693795384E-3</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>104.29872690000001</v>
+        <v>78.746246479999996</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>94.240313356000001</v>
+        <v>83.153607881999989</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -22438,31 +23110,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>3011.1783999999998</v>
+        <v>2950.8438999999998</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>-1.5907619427090181E-3</v>
+        <v>-4.6539527279052528E-3</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>2.6070599152245189E-2</v>
+        <v>-4.6539527279052528E-3</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>8.8940599151623889E-2</v>
+        <v>6.7121670529024513E-2</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>4.4751396339756333E-2</v>
+        <v>2.3817879706380829E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>30.65483867</v>
+        <v>20.95103889</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>27.259391950000001</v>
+        <v>25.463201445999999</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -22476,31 +23148,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1905.9956</v>
+        <v>1902.6292000000001</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>-1.0122533194729444E-2</v>
+        <v>-1.3347350614676401E-3</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>1.3485585063977013E-4</v>
+        <v>-1.3347350614676401E-3</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>4.7380849437721029E-2</v>
+        <v>4.5530948581944175E-2</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>-1.6565542781484144E-2</v>
+        <v>-1.8302500493653229E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>13.354413389999999</v>
+        <v>9.2416009799999994</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>17.141972383999999</v>
+        <v>11.795226154</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -22514,31 +23186,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3158.5118000000002</v>
+        <v>3113.3852000000002</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>-8.931288962488404E-3</v>
+        <v>-3.9491584875619434E-3</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>1.2455187766061027E-2</v>
+        <v>-3.9491584875619434E-3</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>4.2146201430056207E-2</v>
+        <v>2.7256747867320241E-2</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-5.7984287767501197E-2</v>
+        <v>-7.1443147170727417E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>50.145330790000003</v>
+        <v>37.750658790000003</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>53.284600671999996</v>
+        <v>61.497784651999993</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -22552,31 +23224,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1415.3017</v>
+        <v>1421.5545</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>6.2866354232093968E-3</v>
+        <v>-3.7881230027471124E-3</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>1.8473546525288098E-2</v>
+        <v>-3.7881230027471124E-3</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>6.4653814157388689E-2</v>
+        <v>6.9357452518851392E-2</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-4.3469471891431584E-2</v>
+        <v>-3.9243521985374619E-2</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>32.941115920000001</v>
+        <v>23.502092470000001</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>30.350990603999996</v>
+        <v>27.97641827</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -22590,31 +23262,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1166.5563</v>
+        <v>1139.6851999999999</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>6.3299541889643152E-3</v>
+        <v>2.2010920505799447E-4</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>1.9320900286479592E-2</v>
+        <v>2.2010920505799447E-4</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>3.501867468639519E-2</v>
+        <v>1.1177484758943201E-2</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-5.0979660624252077E-2</v>
+        <v>-7.2839917554328837E-2</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>29.177508320000001</v>
+        <v>18.682554490000001</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>23.716519099999999</v>
+        <v>22.915091466</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -22628,31 +23300,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>4044.1997999999999</v>
+        <v>4019.3458000000001</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>-1.3410947026005537E-2</v>
+        <v>1.332103771483828E-2</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>-1.0172619838659802E-3</v>
+        <v>1.332103771483828E-2</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>3.6716962643196238E-2</v>
+        <v>3.0345723667927427E-2</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-7.5504063706418711E-2</v>
+        <v>-8.1185638093678292E-2</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>31.938568549999999</v>
+        <v>28.25958911</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>38.760600203999999</v>
+        <v>26.746909510000002</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -22666,31 +23338,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3701.1433999999999</v>
+        <v>3670.6042000000002</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>-9.496582025840139E-3</v>
+        <v>1.08066079347926E-2</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>2.1111446874044759E-4</v>
+        <v>1.08066079347926E-2</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>3.3034931500100839E-2</v>
+        <v>2.4511062800480099E-2</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-8.5440447392809413E-2</v>
+        <v>-9.2986741624203173E-2</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>50.777720670000001</v>
+        <v>47.467517919999999</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>60.427674593999996</v>
+        <v>44.772537272000001</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -22704,31 +23376,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2402.3159000000001</v>
+        <v>2342.7244000000001</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>-6.3207805105648385E-3</v>
+        <v>-3.6591657574996939E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>7.9154170599515794E-3</v>
+        <v>-3.6591657574996939E-3</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>3.0727073746890543E-2</v>
+        <v>5.1590073592902019E-3</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>-1.9642123384871812E-2</v>
+        <v>-4.3960738769430741E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>8.7369122899999994</v>
+        <v>8.8227237800000005</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>8.3200507039999998</v>
+        <v>8.8901507280000001</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -22742,31 +23414,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3417.9600999999998</v>
+        <v>3362.0691000000002</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>-6.9265502622625208E-3</v>
+        <v>1.0712065083709366E-2</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>5.4585446044177477E-3</v>
+        <v>1.0712065083709366E-2</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>3.1042276152844828E-2</v>
+        <v>1.4182517065411959E-2</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.11278657159545535</v>
+        <v>-0.12729441963234667</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>21.756731640000002</v>
+        <v>16.710278729999999</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>22.943440557999999</v>
+        <v>17.542235196</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -22780,31 +23452,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2263.3105999999998</v>
+        <v>2203.2159999999999</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>-8.4054473698969012E-3</v>
+        <v>6.9893659002200348E-3</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>5.93951768641654E-3</v>
+        <v>6.9893659002200348E-3</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>5.393379540490173E-2</v>
+        <v>2.5950128531543992E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-5.3836149083923202E-2</v>
+        <v>-7.8958347581672972E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>32.717151039999997</v>
+        <v>26.32648034</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>32.278713355999997</v>
+        <v>29.063014021999997</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -22818,31 +23490,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3876.2815000000001</v>
+        <v>3803.4202</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>-1.5830371538946952E-2</v>
+        <v>7.0474678943432956E-3</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>4.7207559948716504E-3</v>
+        <v>7.0474678943432956E-3</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>7.0688511545553556E-2</v>
+        <v>5.0563100930696603E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-2.3779099772100687E-2</v>
+        <v>-4.2128831048782962E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>32.497417919999997</v>
+        <v>22.74937431</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>34.430703907999998</v>
+        <v>27.024492720000001</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -22856,31 +23528,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2221.5938000000001</v>
+        <v>2194.9702000000002</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>2.6269839013293161E-3</v>
+        <v>-5.9477939139251923E-4</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>1.4193637569752449E-2</v>
+        <v>-5.9477939139251923E-4</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>8.7665038183680544E-2</v>
+        <v>7.463045062290008E-2</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-6.8585323645911633E-2</v>
+        <v>-7.9747405470852128E-2</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>11.265330369999999</v>
+        <v>9.7364799899999994</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>8.6250203420000009</v>
+        <v>11.810978952000001</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -22894,31 +23566,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2338.5738000000001</v>
+        <v>2289.4238</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>-6.1927726295639696E-3</v>
+        <v>-5.9574760252978365E-5</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>1.1286177042880707E-2</v>
+        <v>-5.9574760252978365E-5</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>6.0270665387823108E-2</v>
+        <v>3.7986868655040196E-2</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-3.4356180140135084E-2</v>
+        <v>-5.4651196592518388E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>12.1914462</v>
+        <v>5.7837169700000004</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>9.8126757359999992</v>
+        <v>8.9484897920000002</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -22932,31 +23604,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2241.1696999999999</v>
+        <v>2203.2628</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>-1.3438842043621335E-2</v>
+        <v>8.2174795638374487E-3</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>2.4281435103619131E-3</v>
+        <v>8.2174795638374487E-3</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>4.6145039710824509E-2</v>
+        <v>2.8450656547508446E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-4.7093203810182116E-2</v>
+        <v>-6.3210565486313874E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>45.678576900000003</v>
+        <v>37.361101529999999</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>48.016330749999995</v>
+        <v>39.234305122000002</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -23062,27 +23734,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>1911.35</v>
+        <v>1945.65</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>-1.9574149401644592E-2</v>
+        <v>2.1558445649719982E-2</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>-1.1179745054217483E-2</v>
+        <v>2.1558445649719982E-2</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>1.8609806920588445E-2</v>
+        <v>3.688919917076583E-2</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>-3.0396647846312352E-2</v>
+        <v>-1.299669756045585E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>200.28710000000001</v>
+        <v>176.32560000000001</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -23104,27 +23776,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3255.99</v>
+        <v>3106.13</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-4.1778171975594969E-3</v>
+        <v>-3.3051084892444682E-2</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>4.811134427848307E-3</v>
+        <v>-3.3051084892444682E-2</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>-2.0265756738702789E-2</v>
+        <v>-6.5358946120469219E-2</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>-1.9672841903695226E-2</v>
+        <v>-6.4793320748013583E-2</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>58.918700000000001</v>
+        <v>68.774600000000007</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -23146,27 +23818,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>4073.09</v>
+        <v>4012.32</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>-4.4679410564186783E-3</v>
+        <v>-2.9570947910401157E-3</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>2.1503003247771213E-2</v>
+        <v>-2.9570947910401157E-3</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>2.4094477102326817E-2</v>
+        <v>8.8151139226502195E-3</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-1.7573776818340714E-2</v>
+        <v>-3.2231454793231862E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>311.91640000000001</v>
+        <v>261.4024</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -23188,27 +23860,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>5848.04</v>
+        <v>5735.64</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>-3.2826001738448518E-3</v>
+        <v>-1.66018856505048E-2</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>-1.8170767947054189E-2</v>
+        <v>-1.66018856505048E-2</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>5.6351639734697478E-3</v>
+        <v>-1.3693259298364513E-2</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>1.5237132981613666E-2</v>
+        <v>-4.2758412366087351E-3</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>155.83529999999999</v>
+        <v>145.7115</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -23230,27 +23902,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2648.5</v>
+        <v>2662.3</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>-6.7094461050333232E-3</v>
+        <v>1.2797394870390333E-2</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>7.1529343762952724E-3</v>
+        <v>1.2797394870390333E-2</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>1.6058987815732229E-2</v>
+        <v>2.1353159623116458E-2</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>-1.7596830790002738E-2</v>
+        <v>-1.2478022507919295E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>16.258299999999998</v>
+        <v>19.618200000000002</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -23272,27 +23944,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>6071.46</v>
+        <v>5964.16</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>-8.200390090269627E-3</v>
+        <v>1.0960734385989657E-3</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>6.4900510749612561E-3</v>
+        <v>1.0960734385989657E-3</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>3.8378261895721799E-2</v>
+        <v>2.0027158948257684E-2</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-3.201552229097282E-2</v>
+        <v>-4.9122566471150098E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>121.25369999999999</v>
+        <v>81.792599999999993</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -23314,27 +23986,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4583.24</v>
+        <v>4501.91</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>-4.7144920140284041E-3</v>
+        <v>-2.6319345826899543E-3</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>1.9215758656653703E-2</v>
+        <v>-2.6319345826899543E-3</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>3.4642803931572264E-2</v>
+        <v>1.6282975678250322E-2</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>1.6135826501066264E-2</v>
+        <v>-1.8955937975284609E-3</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>260.17430000000002</v>
+        <v>185.43559999999999</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -23356,31 +24028,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>8052.5</v>
+        <v>8016.48</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>-2.2538345544185212E-3</v>
+        <v>1.2915087670211101E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>1.6882587156403561E-2</v>
+        <v>1.2915087670211101E-3</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>6.2536946332812482E-2</v>
+        <v>5.7784064518852984E-2</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>4.9140558125839506E-2</v>
+        <v>4.4447600298618939E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>30.9132</v>
+        <v>19.0215</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>25.282140000000002</v>
+        <v>22.5883</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -23398,31 +24070,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3186.24</v>
+        <v>3051.84</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>-1.0831602574251975E-2</v>
+        <v>-2.461599432381123E-2</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>1.0433381747607218E-2</v>
+        <v>-2.461599432381123E-2</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>-1.5087865720777249E-2</v>
+        <v>-5.6632818658135076E-2</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>-1.2015541133460927E-2</v>
+        <v>-5.3690088961516051E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>27.363299999999999</v>
+        <v>29.334800000000001</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>30.826100000000004</v>
+        <v>26.63308</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -23440,31 +24112,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2719.54</v>
+        <v>2686.04</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>8.9064892238854831E-4</v>
+        <v>-1.7244711374075905E-3</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>1.3944089421134009E-2</v>
+        <v>-1.7244711374075905E-3</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>3.754487568338849E-2</v>
+        <v>2.4764128448417244E-2</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>-3.5431498492237701E-3</v>
+        <v>-1.5817764114890442E-2</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>48.806600000000003</v>
+        <v>31.8491</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>41.909399999999998</v>
+        <v>38.150819999999996</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -23482,27 +24154,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3498.88</v>
+        <v>3404.01</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>3.9914260381008759E-3</v>
+        <v>-6.6360253884876208E-3</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>2.2603856742870132E-2</v>
+        <v>-6.6360253884876208E-3</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>2.3417436425433369E-2</v>
+        <v>-4.3319039902656176E-3</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>5.0758890764176279E-2</v>
+        <v>2.2268203468013725E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>35.826000000000001</v>
+        <v>19.351199999999999</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -23524,27 +24196,27 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>3021.18</v>
+        <v>2943.01</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>-1.8727832560315072E-2</v>
+        <v>-2.4134529664794346E-3</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>-5.0354523509206217E-3</v>
+        <v>-2.4134529664794346E-3</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>-6.6198861379263008E-6</v>
+        <v>-2.5880444856348328E-2</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>5.8970745967317884E-2</v>
+        <v>3.1570940853996365E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>32.410899999999998</v>
+        <v>17.919499999999999</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amount(A184,-5,$B$1,100000000)/5</f>
@@ -23566,31 +24238,31 @@
       </c>
       <c r="E185" s="12">
         <f>[1]!i_dq_close(A185,"")</f>
-        <v>2542.3000000000002</v>
+        <v>2463.63</v>
       </c>
       <c r="F185" s="4">
         <f>[1]!i_dq_pctchange(A185,$B$1)/100</f>
-        <v>-5.5389092729789535E-3</v>
+        <v>-7.7051346082586125E-3</v>
       </c>
       <c r="G185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$2,$B$1)/100</f>
-        <v>7.0030341199864843E-3</v>
+        <v>-7.7051346082586125E-3</v>
       </c>
       <c r="H185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$3,$B$1)/100</f>
-        <v>1.7070526437912736E-2</v>
+        <v>-1.4402131515464323E-2</v>
       </c>
       <c r="I185" s="4">
         <f>[1]!i_pq_pctchange(A185,$B$4,$B$1)/100</f>
-        <v>8.6330706912012278E-3</v>
+        <v>-2.2578495084386585E-2</v>
       </c>
       <c r="J185" s="12">
         <f>[1]!i_dq_amount(A185,$B$1)/100000000</f>
-        <v>6.9893000000000001</v>
+        <v>3.9194</v>
       </c>
       <c r="K185" s="5">
         <f>[1]!s_nq_amount(A185,-5,$B$1,100000000)/5</f>
-        <v>6.7702200000000001</v>
+        <v>4.9616999999999996</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23621,27 +24293,27 @@
       </c>
       <c r="E187" s="12">
         <f>[1]!i_dq_close(A187,"")</f>
-        <v>8217.0400000000009</v>
+        <v>8310.1299999999992</v>
       </c>
       <c r="F187" s="4">
         <f>[1]!i_dq_pctchange(A187,$B$1)/100</f>
-        <v>-1.3181534322908917E-2</v>
+        <v>2.0234957294442912E-2</v>
       </c>
       <c r="G187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$2,$B$1)/100</f>
-        <v>-4.1774172242412533E-3</v>
+        <v>2.0234957294442912E-2</v>
       </c>
       <c r="H187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$3,$B$1)/100</f>
-        <v>6.6319922968915312E-2</v>
+        <v>7.840015157059832E-2</v>
       </c>
       <c r="I187" s="4">
         <f>[1]!i_pq_pctchange(A187,$B$4,$B$1)/100</f>
-        <v>1.7513228102892686E-2</v>
+        <v>2.9040530684369292E-2</v>
       </c>
       <c r="J187" s="12">
         <f>[1]!i_dq_amount(A187,$B$1)/100000000</f>
-        <v>318.96910000000003</v>
+        <v>294.9699</v>
       </c>
       <c r="K187" s="5">
         <f>[1]!s_nq_amount(A187,-5,$B$1,100000000)/5</f>
@@ -23663,27 +24335,27 @@
       </c>
       <c r="E188" s="12">
         <f>[1]!i_dq_close(A188,"")</f>
-        <v>11296.69</v>
+        <v>11556.77</v>
       </c>
       <c r="F188" s="4">
         <f>[1]!i_dq_pctchange(A188,$B$1)/100</f>
-        <v>-1.1127636051369794E-2</v>
+        <v>5.9433398122816783E-3</v>
       </c>
       <c r="G188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$2,$B$1)/100</f>
-        <v>-1.4422439364857764E-2</v>
+        <v>5.9433398122816783E-3</v>
       </c>
       <c r="H188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$3,$B$1)/100</f>
-        <v>-2.7850751749609604E-3</v>
+        <v>2.0173477963037589E-2</v>
       </c>
       <c r="I188" s="4">
         <f>[1]!i_pq_pctchange(A188,$B$4,$B$1)/100</f>
-        <v>-2.0222292571022149E-2</v>
+        <v>2.3348092126089792E-3</v>
       </c>
       <c r="J188" s="12">
         <f>[1]!i_dq_amount(A188,$B$1)/100000000</f>
-        <v>149.2826</v>
+        <v>120.0716</v>
       </c>
       <c r="K188" s="5">
         <f>[1]!s_nq_amount(A188,-5,$B$1,100000000)/5</f>
@@ -23705,31 +24377,31 @@
       </c>
       <c r="E189" s="12">
         <f>[1]!i_dq_close(A189,"")</f>
-        <v>4400.2</v>
+        <v>4396.93</v>
       </c>
       <c r="F189" s="4">
         <f>[1]!i_dq_pctchange(A189,$B$1)/100</f>
-        <v>-5.7348415348948967E-3</v>
+        <v>4.1266448345005369E-3</v>
       </c>
       <c r="G189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$2,$B$1)/100</f>
-        <v>8.977195858795417E-3</v>
+        <v>4.1266448345005369E-3</v>
       </c>
       <c r="H189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$3,$B$1)/100</f>
-        <v>3.9823427102238185E-2</v>
+        <v>3.9050684361766397E-2</v>
       </c>
       <c r="I189" s="4">
         <f>[1]!i_pq_pctchange(A189,$B$4,$B$1)/100</f>
-        <v>-5.8067285749791031E-3</v>
+        <v>-6.5455613547525937E-3</v>
       </c>
       <c r="J189" s="12">
         <f>[1]!i_dq_amount(A189,$B$1)/100000000</f>
-        <v>87.312799999999996</v>
+        <v>78.5548</v>
       </c>
       <c r="K189" s="5">
         <f>[1]!s_nq_amount(A189,-5,$B$1,100000000)/5</f>
-        <v>79.057100000000005</v>
+        <v>84.064040000000006</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -23789,27 +24461,27 @@
       </c>
       <c r="E191" s="12">
         <f>[1]!i_dq_close(A191,"")</f>
-        <v>5186.3100000000004</v>
+        <v>5123.18</v>
       </c>
       <c r="F191" s="4">
         <f>[1]!i_dq_pctchange(A191,$B$1)/100</f>
-        <v>-5.4213378642190557E-3</v>
+        <v>1.2410027302061089E-3</v>
       </c>
       <c r="G191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$2,$B$1)/100</f>
-        <v>1.5434225880473607E-2</v>
+        <v>1.2410027302061089E-3</v>
       </c>
       <c r="H191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$3,$B$1)/100</f>
-        <v>5.5211141517207851E-2</v>
+        <v>4.2366656832724781E-2</v>
       </c>
       <c r="I191" s="4">
         <f>[1]!i_pq_pctchange(A191,$B$4,$B$1)/100</f>
-        <v>-3.6324278122561227E-2</v>
+        <v>-4.8054554238358908E-2</v>
       </c>
       <c r="J191" s="12">
         <f>[1]!i_dq_amount(A191,$B$1)/100000000</f>
-        <v>206.93129999999999</v>
+        <v>146.26310000000001</v>
       </c>
       <c r="K191" s="5">
         <f>[1]!s_nq_amount(A191,-5,$B$1,100000000)/5</f>
@@ -23831,31 +24503,31 @@
       </c>
       <c r="E192" s="12">
         <f>[1]!i_dq_close(A192,"")</f>
-        <v>3493.48</v>
+        <v>3409.1</v>
       </c>
       <c r="F192" s="4">
         <f>[1]!i_dq_pctchange(A192,$B$1)/100</f>
-        <v>-1.0807979273144253E-2</v>
+        <v>7.9802253622738295E-3</v>
       </c>
       <c r="G192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$2,$B$1)/100</f>
-        <v>6.8884418286940807E-3</v>
+        <v>7.9802253622738295E-3</v>
       </c>
       <c r="H192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$3,$B$1)/100</f>
-        <v>5.5805224203117065E-2</v>
+        <v>3.0303762961530145E-2</v>
       </c>
       <c r="I192" s="4">
         <f>[1]!i_pq_pctchange(A192,$B$4,$B$1)/100</f>
-        <v>5.3440232984451885E-3</v>
+        <v>-1.893861999303581E-2</v>
       </c>
       <c r="J192" s="12">
         <f>[1]!i_dq_amount(A192,$B$1)/100000000</f>
-        <v>467.40269999999998</v>
+        <v>362.28769999999997</v>
       </c>
       <c r="K192" s="5">
         <f>[1]!s_nq_amount(A192,-5,$B$1,100000000)/5</f>
-        <v>482.44552000000004</v>
+        <v>396.41705999999999</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
@@ -23873,31 +24545,31 @@
       </c>
       <c r="E193" s="12">
         <f>[1]!i_dq_close(A193,"")</f>
-        <v>7855.23</v>
+        <v>7761.69</v>
       </c>
       <c r="F193" s="4">
         <f>[1]!i_dq_pctchange(A193,$B$1)/100</f>
-        <v>-1.8209404337727886E-3</v>
+        <v>-2.3444941021321108E-3</v>
       </c>
       <c r="G193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$2,$B$1)/100</f>
-        <v>7.5625908286911514E-3</v>
+        <v>-2.3444941021321108E-3</v>
       </c>
       <c r="H193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$3,$B$1)/100</f>
-        <v>5.7050813656346566E-2</v>
+        <v>4.44634631765497E-2</v>
       </c>
       <c r="I193" s="4">
         <f>[1]!i_pq_pctchange(A193,$B$4,$B$1)/100</f>
-        <v>8.7364515995072001E-2</v>
+        <v>7.44161902520728E-2</v>
       </c>
       <c r="J193" s="12">
         <f>[1]!i_dq_amount(A193,$B$1)/100000000</f>
-        <v>120.0611</v>
+        <v>85.619299999999996</v>
       </c>
       <c r="K193" s="5">
         <f>[1]!s_nq_amount(A193,-5,$B$1,100000000)/5</f>
-        <v>115.49375999999999</v>
+        <v>105.89955999999999</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -23915,27 +24587,27 @@
       </c>
       <c r="E194" s="12">
         <f>[1]!i_dq_close(A194,"")</f>
-        <v>8827.83</v>
+        <v>8595.26</v>
       </c>
       <c r="F194" s="4">
         <f>[1]!i_dq_pctchange(A194,$B$1)/100</f>
-        <v>-1.282965951584325E-2</v>
+        <v>-7.6780612197402398E-5</v>
       </c>
       <c r="G194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$2,$B$1)/100</f>
-        <v>-1.4636734130625273E-3</v>
+        <v>-7.6780612197402398E-5</v>
       </c>
       <c r="H194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$3,$B$1)/100</f>
-        <v>2.1719480056526574E-2</v>
+        <v>-5.197814394855671E-3</v>
       </c>
       <c r="I194" s="4">
         <f>[1]!i_pq_pctchange(A194,$B$4,$B$1)/100</f>
-        <v>-6.9330322409245193E-2</v>
+        <v>-9.3848901371151094E-2</v>
       </c>
       <c r="J194" s="12">
         <f>[1]!i_dq_amount(A194,$B$1)/100000000</f>
-        <v>18.6724</v>
+        <v>12.5534</v>
       </c>
       <c r="K194" s="5">
         <f>[1]!s_nq_amount(A194,-5,$B$1,100000000)/5</f>
@@ -23970,27 +24642,27 @@
       </c>
       <c r="E196" s="12">
         <f>[1]!i_dq_close(A196,"")</f>
-        <v>2659.38</v>
+        <v>2637.11</v>
       </c>
       <c r="F196" s="4">
         <f>[1]!i_dq_pctchange(A196,$B$1)/100</f>
-        <v>-6.0101814267452536E-3</v>
+        <v>-2.1228128594780182E-3</v>
       </c>
       <c r="G196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$2,$B$1)/100</f>
-        <v>-6.886198474878813E-3</v>
+        <v>-2.1228128594780182E-3</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$3,$B$1)/100</f>
-        <v>3.3756520792679767E-2</v>
+        <v>2.5099706904460284E-2</v>
       </c>
       <c r="I196" s="4">
         <f>[1]!i_pq_pctchange(A196,$B$4,$B$1)/100</f>
-        <v>-4.5032398620952208E-3</v>
+        <v>-1.2839661452191842E-2</v>
       </c>
       <c r="J196" s="12">
         <f>[1]!i_dq_amount(A196,$B$1)/100000000</f>
-        <v>38.820399999999999</v>
+        <v>28.4407</v>
       </c>
       <c r="K196" s="5">
         <f>[1]!s_nq_amount(A196,-5,$B$1,100000000)/5</f>
@@ -24012,27 +24684,27 @@
       </c>
       <c r="E197" s="12">
         <f>[1]!i_dq_close(A197,"")</f>
-        <v>1412.56</v>
+        <v>1376.42</v>
       </c>
       <c r="F197" s="4">
         <f>[1]!i_dq_pctchange(A197,$B$1)/100</f>
-        <v>-2.2179840361659098E-3</v>
+        <v>-1.6786673524201379E-2</v>
       </c>
       <c r="G197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$2,$B$1)/100</f>
-        <v>3.7233891367989269E-3</v>
+        <v>-1.6786673524201379E-2</v>
       </c>
       <c r="H197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$3,$B$1)/100</f>
-        <v>-9.7096907621231354E-3</v>
+        <v>-3.5046024635273176E-2</v>
       </c>
       <c r="I197" s="4">
         <f>[1]!i_pq_pctchange(A197,$B$4,$B$1)/100</f>
-        <v>-4.7389114058927879E-2</v>
+        <v>-7.1761429159107881E-2</v>
       </c>
       <c r="J197" s="12">
         <f>[1]!i_dq_amount(A197,$B$1)/100000000</f>
-        <v>5.1113</v>
+        <v>6.4021999999999997</v>
       </c>
       <c r="K197" s="5">
         <f>[1]!s_nq_amount(A197,-5,$B$1,100000000)/5</f>
@@ -24054,27 +24726,27 @@
       </c>
       <c r="E198" s="12">
         <f>[1]!i_dq_close(A198,"")</f>
-        <v>5380.64</v>
+        <v>5227.59</v>
       </c>
       <c r="F198" s="4">
         <f>[1]!i_dq_pctchange(A198,$B$1)/100</f>
-        <v>6.2292770410654619E-3</v>
+        <v>-3.7600146360426967E-3</v>
       </c>
       <c r="G198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$2,$B$1)/100</f>
-        <v>4.5160507425627827E-3</v>
+        <v>-3.7600146360426967E-3</v>
       </c>
       <c r="H198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$3,$B$1)/100</f>
-        <v>2.5174763885369433E-2</v>
+        <v>-3.9858931391957286E-3</v>
       </c>
       <c r="I198" s="4">
         <f>[1]!i_pq_pctchange(A198,$B$4,$B$1)/100</f>
-        <v>3.4284967360465046E-2</v>
+        <v>4.8651745004113511E-3</v>
       </c>
       <c r="J198" s="12">
         <f>[1]!i_dq_amount(A198,$B$1)/100000000</f>
-        <v>24.063099999999999</v>
+        <v>8.9712999999999994</v>
       </c>
       <c r="K198" s="5">
         <f>[1]!s_nq_amount(A198,-5,$B$1,100000000)/5</f>
@@ -24096,27 +24768,27 @@
       </c>
       <c r="E199" s="12">
         <f>[1]!i_dq_close(A199,"")</f>
-        <v>3013.61</v>
+        <v>2963</v>
       </c>
       <c r="F199" s="4">
         <f>[1]!i_dq_pctchange(A199,$B$1)/100</f>
-        <v>-8.3057735656579812E-3</v>
+        <v>-5.6980248189585359E-3</v>
       </c>
       <c r="G199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$2,$B$1)/100</f>
-        <v>-3.9233443949389102E-3</v>
+        <v>-5.6980248189585359E-3</v>
       </c>
       <c r="H199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$3,$B$1)/100</f>
-        <v>2.0082727432741532E-2</v>
+        <v>2.9516498097674759E-3</v>
       </c>
       <c r="I199" s="4">
         <f>[1]!i_pq_pctchange(A199,$B$4,$B$1)/100</f>
-        <v>-5.1255816296333571E-2</v>
+        <v>-6.7188847822391318E-2</v>
       </c>
       <c r="J199" s="12">
         <f>[1]!i_dq_amount(A199,$B$1)/100000000</f>
-        <v>7.2346000000000004</v>
+        <v>6.5117000000000003</v>
       </c>
       <c r="K199" s="5">
         <f>[1]!s_nq_amount(A199,-5,$B$1,100000000)/5</f>
@@ -24138,27 +24810,27 @@
       </c>
       <c r="E200" s="12">
         <f>[1]!i_dq_close(A200,"")</f>
-        <v>6339.42</v>
+        <v>6256.37</v>
       </c>
       <c r="F200" s="4">
         <f>[1]!i_dq_pctchange(A200,$B$1)/100</f>
-        <v>-4.2414906080145975E-4</v>
+        <v>7.6892969946671386E-3</v>
       </c>
       <c r="G200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$2,$B$1)/100</f>
-        <v>-6.2670470577169679E-3</v>
+        <v>7.6892969946671386E-3</v>
       </c>
       <c r="H200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$3,$B$1)/100</f>
-        <v>1.8393810683510869E-2</v>
+        <v>5.0522737641607307E-3</v>
       </c>
       <c r="I200" s="4">
         <f>[1]!i_pq_pctchange(A200,$B$4,$B$1)/100</f>
-        <v>9.7472811691751607E-2</v>
+        <v>8.3095294977130862E-2</v>
       </c>
       <c r="J200" s="12">
         <f>[1]!i_dq_amount(A200,$B$1)/100000000</f>
-        <v>4.0297000000000001</v>
+        <v>3.5707</v>
       </c>
       <c r="K200" s="5">
         <f>[1]!s_nq_amount(A200,-5,$B$1,100000000)/5</f>
@@ -24241,30 +24913,30 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="C208" s="12">
         <f>[1]!i_dq_close(A208,"")</f>
-        <v>2874.8</v>
+        <v>2897.4</v>
       </c>
       <c r="D208" s="4">
         <f>[1]!i_dq_pctchange(A208,$B$1)/100</f>
-        <v>-1.2842524551885049E-2</v>
+        <v>6.3212003334260471E-3</v>
       </c>
       <c r="E208" s="31">
         <f>[1]!s_dq_volume(A208,$B$1)</f>
-        <v>12502</v>
+        <v>11822</v>
       </c>
       <c r="F208" s="31">
         <f>[1]!s_dq_oi(A208,$B$1)</f>
-        <v>12625</v>
+        <v>14372</v>
       </c>
       <c r="G208" s="31">
         <f>[1]!s_dq_oichange(A208,$B$1)</f>
-        <v>-1632</v>
+        <v>339</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="7"/>
@@ -24279,23 +24951,23 @@
       </c>
       <c r="C209" s="12">
         <f>[1]!i_dq_close(A209,"")</f>
-        <v>2871.4</v>
+        <v>2898.4</v>
       </c>
       <c r="D209" s="4">
         <f>[1]!i_dq_pctchange(A209,$B$1)/100</f>
-        <v>-1.4821930968228855E-2</v>
+        <v>6.6685190330648351E-3</v>
       </c>
       <c r="E209" s="31">
         <f>[1]!s_dq_volume(A209,$B$1)</f>
-        <v>3182</v>
+        <v>46</v>
       </c>
       <c r="F209" s="31">
         <f>[1]!s_dq_oi(A209,$B$1)</f>
-        <v>4398</v>
+        <v>45</v>
       </c>
       <c r="G209" s="31">
         <f>[1]!s_dq_oichange(A209,$B$1)</f>
-        <v>1712</v>
+        <v>45</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="7"/>
@@ -24303,58 +24975,58 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C210" s="12">
         <f>[1]!i_dq_close(A210,"")</f>
-        <v>2867</v>
+        <v>2893.8</v>
       </c>
       <c r="D210" s="4">
         <f>[1]!i_dq_pctchange(A210,$B$1)/100</f>
-        <v>-1.5182742511678971E-2</v>
+        <v>6.2591278948466514E-3</v>
       </c>
       <c r="E210" s="31">
         <f>[1]!s_dq_volume(A210,$B$1)</f>
-        <v>1607</v>
+        <v>1016</v>
       </c>
       <c r="F210" s="31">
         <f>[1]!s_dq_oi(A210,$B$1)</f>
-        <v>4792</v>
+        <v>5368</v>
       </c>
       <c r="G210" s="31">
         <f>[1]!s_dq_oichange(A210,$B$1)</f>
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C211" s="12">
         <f>[1]!i_dq_close(A211,"")</f>
-        <v>2852.4</v>
+        <v>2866.8</v>
       </c>
       <c r="D211" s="4">
         <f>[1]!i_dq_pctchange(A211,$B$1)/100</f>
-        <v>-1.6481621957106313E-2</v>
+        <v>3.6409466461280247E-3</v>
       </c>
       <c r="E211" s="31">
         <f>[1]!s_dq_volume(A211,$B$1)</f>
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="F211" s="31">
         <f>[1]!s_dq_oi(A211,$B$1)</f>
-        <v>1833</v>
+        <v>2150</v>
       </c>
       <c r="G211" s="31">
         <f>[1]!s_dq_oichange(A211,$B$1)</f>
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
@@ -24365,30 +25037,30 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="C213" s="12">
         <f>[1]!i_dq_close(A213,"")</f>
-        <v>4075.2</v>
+        <v>4049.2</v>
       </c>
       <c r="D213" s="4">
         <f>[1]!i_dq_pctchange(A213,$B$1)/100</f>
-        <v>-1.2216404886562086E-2</v>
+        <v>1.5830612446818138E-3</v>
       </c>
       <c r="E213" s="31">
         <f>[1]!s_dq_volume(A213,$B$1)</f>
-        <v>17078</v>
+        <v>15648</v>
       </c>
       <c r="F213" s="31">
         <f>[1]!s_dq_oi(A213,$B$1)</f>
-        <v>18969</v>
+        <v>25518</v>
       </c>
       <c r="G213" s="31">
         <f>[1]!s_dq_oichange(A213,$B$1)</f>
-        <v>-3782</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -24400,79 +25072,79 @@
       </c>
       <c r="C214" s="12">
         <f>[1]!i_dq_close(A214,"")</f>
-        <v>4067</v>
+        <v>4037</v>
       </c>
       <c r="D214" s="4">
         <f>[1]!i_dq_pctchange(A214,$B$1)/100</f>
-        <v>-1.3295162307729676E-2</v>
+        <v>-1.4346492529930198E-3</v>
       </c>
       <c r="E214" s="31">
         <f>[1]!s_dq_volume(A214,$B$1)</f>
-        <v>4981</v>
+        <v>47</v>
       </c>
       <c r="F214" s="31">
         <f>[1]!s_dq_oi(A214,$B$1)</f>
-        <v>9233</v>
+        <v>45</v>
       </c>
       <c r="G214" s="31">
         <f>[1]!s_dq_oichange(A214,$B$1)</f>
-        <v>2879</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C215" s="12">
         <f>[1]!i_dq_close(A215,"")</f>
-        <v>4051.2</v>
+        <v>4020</v>
       </c>
       <c r="D215" s="4">
         <f>[1]!i_dq_pctchange(A215,$B$1)/100</f>
-        <v>-1.3538521476575522E-2</v>
+        <v>1.1954572624029145E-3</v>
       </c>
       <c r="E215" s="31">
         <f>[1]!s_dq_volume(A215,$B$1)</f>
-        <v>2135</v>
+        <v>1429</v>
       </c>
       <c r="F215" s="31">
         <f>[1]!s_dq_oi(A215,$B$1)</f>
-        <v>9227</v>
+        <v>10415</v>
       </c>
       <c r="G215" s="31">
         <f>[1]!s_dq_oichange(A215,$B$1)</f>
-        <v>645</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C216" s="12">
         <f>[1]!i_dq_close(A216,"")</f>
-        <v>4036.2</v>
+        <v>4000.6</v>
       </c>
       <c r="D216" s="4">
         <f>[1]!i_dq_pctchange(A216,$B$1)/100</f>
-        <v>-1.3443488463042629E-2</v>
+        <v>1.652478718077093E-3</v>
       </c>
       <c r="E216" s="31">
         <f>[1]!s_dq_volume(A216,$B$1)</f>
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="F216" s="31">
         <f>[1]!s_dq_oi(A216,$B$1)</f>
-        <v>2685</v>
+        <v>2958</v>
       </c>
       <c r="G216" s="31">
         <f>[1]!s_dq_oichange(A216,$B$1)</f>
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
@@ -24482,30 +25154,30 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="C218" s="12">
         <f>[1]!i_dq_close(A218,"")</f>
-        <v>6241</v>
+        <v>6080.4</v>
       </c>
       <c r="D218" s="4">
         <f>[1]!i_dq_pctchange(A218,$B$1)/100</f>
-        <v>-6.1468883368367986E-3</v>
+        <v>-1.9369029250517352E-3</v>
       </c>
       <c r="E218" s="31">
         <f>[1]!s_dq_volume(A218,$B$1)</f>
-        <v>9979</v>
+        <v>10304</v>
       </c>
       <c r="F218" s="31">
         <f>[1]!s_dq_oi(A218,$B$1)</f>
-        <v>14193</v>
+        <v>16741</v>
       </c>
       <c r="G218" s="31">
         <f>[1]!s_dq_oichange(A218,$B$1)</f>
-        <v>-2055</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -24517,79 +25189,79 @@
       </c>
       <c r="C219" s="12">
         <f>[1]!i_dq_close(A219,"")</f>
-        <v>6202</v>
+        <v>6044.8</v>
       </c>
       <c r="D219" s="4">
         <f>[1]!i_dq_pctchange(A219,$B$1)/100</f>
-        <v>-6.8218941165167279E-3</v>
+        <v>-7.7804405633432319E-3</v>
       </c>
       <c r="E219" s="31">
         <f>[1]!s_dq_volume(A219,$B$1)</f>
-        <v>2511</v>
+        <v>81</v>
       </c>
       <c r="F219" s="31">
         <f>[1]!s_dq_oi(A219,$B$1)</f>
-        <v>5517</v>
+        <v>81</v>
       </c>
       <c r="G219" s="31">
         <f>[1]!s_dq_oichange(A219,$B$1)</f>
-        <v>1242</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C220" s="12">
         <f>[1]!i_dq_close(A220,"")</f>
-        <v>6143.2</v>
+        <v>5993.6</v>
       </c>
       <c r="D220" s="4">
         <f>[1]!i_dq_pctchange(A220,$B$1)/100</f>
-        <v>-6.6297985188059896E-3</v>
+        <v>-3.922090008641803E-3</v>
       </c>
       <c r="E220" s="31">
         <f>[1]!s_dq_volume(A220,$B$1)</f>
-        <v>1216</v>
+        <v>1110</v>
       </c>
       <c r="F220" s="31">
         <f>[1]!s_dq_oi(A220,$B$1)</f>
-        <v>8327</v>
+        <v>9976</v>
       </c>
       <c r="G220" s="31">
         <f>[1]!s_dq_oichange(A220,$B$1)</f>
-        <v>287</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C221" s="12">
         <f>[1]!i_dq_close(A221,"")</f>
-        <v>6054.4</v>
+        <v>5895</v>
       </c>
       <c r="D221" s="4">
         <f>[1]!i_dq_pctchange(A221,$B$1)/100</f>
-        <v>-6.172028890348057E-3</v>
+        <v>-4.9289355524796295E-3</v>
       </c>
       <c r="E221" s="31">
         <f>[1]!s_dq_volume(A221,$B$1)</f>
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F221" s="31">
         <f>[1]!s_dq_oi(A221,$B$1)</f>
-        <v>2912</v>
+        <v>3454</v>
       </c>
       <c r="G221" s="31">
         <f>[1]!s_dq_oichange(A221,$B$1)</f>
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
@@ -25107,10 +25779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE106"/>
+  <dimension ref="B1:AE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF120" sqref="AF120"/>
+    <sheetView tabSelected="1" topLeftCell="M85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:AE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25124,7 +25796,7 @@
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.15">
@@ -25150,7 +25822,7 @@
         <v>399106</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K4" s="42">
         <v>399006</v>
@@ -25165,55 +25837,55 @@
         <v>16</v>
       </c>
       <c r="O4" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC4" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="P4" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="U4" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="X4" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z4" s="42" t="s">
+      <c r="AD4" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE4" s="42" t="s">
         <v>386</v>
-      </c>
-      <c r="AA4" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB4" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC4" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD4" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE4" s="42" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.15">
@@ -25239,7 +25911,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>27</v>
@@ -25254,60 +25926,60 @@
         <v>17</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P5" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="U5" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="V5" s="44" t="s">
         <v>365</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>371</v>
       </c>
       <c r="W5" s="44" t="s">
         <v>281</v>
       </c>
       <c r="X5" s="44" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Y5" s="44" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z5" s="44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA5" s="44" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AB5" s="42" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AC5" s="42" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AD5" s="42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AE5" s="42" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D6" s="44">
         <v>20171229</v>
@@ -30893,14 +31565,482 @@
         <v>3.5190557250778465E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="1" t="s">
-        <v>398</v>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C54" s="40">
+        <v>20180314</v>
+      </c>
+      <c r="D54" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C54)/100</f>
+        <v>4.2952323700671258E-3</v>
+      </c>
+      <c r="E54" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C54)/100</f>
+        <v>-1.5176626684380023E-3</v>
+      </c>
+      <c r="F54" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C54)/100</f>
+        <v>1.3547820354906426E-2</v>
+      </c>
+      <c r="G54" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C54)/100</f>
+        <v>1.8307843201641916E-2</v>
+      </c>
+      <c r="H54" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C54)/100</f>
+        <v>1.0373288931894153E-2</v>
+      </c>
+      <c r="I54" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C54)/100</f>
+        <v>-4.6758937990866167E-3</v>
+      </c>
+      <c r="J54" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C54)/100</f>
+        <v>7.0972602620412273E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C54)/100</f>
+        <v>5.5169532683769562E-2</v>
+      </c>
+      <c r="L54" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C54)/100</f>
+        <v>-1.7486925756692417E-2</v>
+      </c>
+      <c r="M54" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C54)/100</f>
+        <v>-2.4101464826595809E-3</v>
+      </c>
+      <c r="N54" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C54)/100</f>
+        <v>2.0682756396582125E-2</v>
+      </c>
+      <c r="O54" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C54)/100</f>
+        <v>-9.101739492448635E-4</v>
+      </c>
+      <c r="P54" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C54)/100</f>
+        <v>-1.3235168269655651E-2</v>
+      </c>
+      <c r="Q54" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C54)/100</f>
+        <v>-2.4028180993593384E-2</v>
+      </c>
+      <c r="R54" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C54)/100</f>
+        <v>1.7075800988656908E-2</v>
+      </c>
+      <c r="S54" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C54)/100</f>
+        <v>2.6539634710769811E-2</v>
+      </c>
+      <c r="T54" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C54)/100</f>
+        <v>7.4805689679585008E-2</v>
+      </c>
+      <c r="U54" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C54)/100</f>
+        <v>2.1805681665712617E-2</v>
+      </c>
+      <c r="V54" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C54)/100</f>
+        <v>-4.6810428002322046E-2</v>
+      </c>
+      <c r="W54" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C54)/100</f>
+        <v>-4.2115928481137994E-2</v>
+      </c>
+      <c r="X54" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C54)/100</f>
+        <v>3.6087739652438611E-2</v>
+      </c>
+      <c r="Y54" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C54)/100</f>
+        <v>5.2615699790816262E-2</v>
+      </c>
+      <c r="Z54" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C54)/100</f>
+        <v>8.5632562164123835E-2</v>
+      </c>
+      <c r="AA54" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C54)/100</f>
+        <v>-4.1345857714813583E-2</v>
+      </c>
+      <c r="AB54" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C54)/100</f>
+        <v>2.983910949771218E-2</v>
+      </c>
+      <c r="AC54" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C54)/100</f>
+        <v>2.6840186734282456E-2</v>
+      </c>
+      <c r="AD54" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C54)/100</f>
+        <v>2.4622453915794651E-2</v>
+      </c>
+      <c r="AE54" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C54)/100</f>
+        <v>3.3900196415606265E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C55" s="40">
+        <v>20180315</v>
+      </c>
+      <c r="D55" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C55)/100</f>
+        <v>1.2566780400102395E-2</v>
+      </c>
+      <c r="E55" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C55)/100</f>
+        <v>-1.5995402478357068E-3</v>
+      </c>
+      <c r="F55" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C55)/100</f>
+        <v>1.9225497023138693E-2</v>
+      </c>
+      <c r="G55" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C55)/100</f>
+        <v>2.0882659687090799E-2</v>
+      </c>
+      <c r="H55" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C55)/100</f>
+        <v>1.0681858317416637E-2</v>
+      </c>
+      <c r="I55" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C55)/100</f>
+        <v>-6.8502771387684014E-3</v>
+      </c>
+      <c r="J55" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C55)/100</f>
+        <v>7.8863242198768946E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C55)/100</f>
+        <v>5.9422326710190543E-2</v>
+      </c>
+      <c r="L55" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C55)/100</f>
+        <v>-1.9037120036620836E-2</v>
+      </c>
+      <c r="M55" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C55)/100</f>
+        <v>-3.8939954613839145E-3</v>
+      </c>
+      <c r="N55" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C55)/100</f>
+        <v>2.8932449760904255E-2</v>
+      </c>
+      <c r="O55" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C55)/100</f>
+        <v>-4.0401224973074523E-4</v>
+      </c>
+      <c r="P55" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C55)/100</f>
+        <v>5.8788830699778583E-3</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C55)/100</f>
+        <v>-7.2168624826772776E-3</v>
+      </c>
+      <c r="R55" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C55)/100</f>
+        <v>1.5565936611200204E-2</v>
+      </c>
+      <c r="S55" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C55)/100</f>
+        <v>2.8551691195457973E-2</v>
+      </c>
+      <c r="T55" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C55)/100</f>
+        <v>7.1981257302064616E-2</v>
+      </c>
+      <c r="U55" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C55)/100</f>
+        <v>2.1509572014660527E-2</v>
+      </c>
+      <c r="V55" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C55)/100</f>
+        <v>-4.7836432027161029E-2</v>
+      </c>
+      <c r="W55" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C55)/100</f>
+        <v>-3.1328016665781333E-2</v>
+      </c>
+      <c r="X55" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C55)/100</f>
+        <v>3.5851390557567919E-2</v>
+      </c>
+      <c r="Y55" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C55)/100</f>
+        <v>5.6168172005420569E-2</v>
+      </c>
+      <c r="Z55" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C55)/100</f>
+        <v>8.8655502101593786E-2</v>
+      </c>
+      <c r="AA55" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C55)/100</f>
+        <v>-4.2115799199260895E-2</v>
+      </c>
+      <c r="AB55" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C55)/100</f>
+        <v>2.9345313562601394E-2</v>
+      </c>
+      <c r="AC55" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C55)/100</f>
+        <v>2.8127614743759244E-2</v>
+      </c>
+      <c r="AD55" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C55)/100</f>
+        <v>3.4423329318143736E-2</v>
+      </c>
+      <c r="AE55" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C55)/100</f>
+        <v>3.6405775883613822E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C56" s="40">
+        <v>20180316</v>
+      </c>
+      <c r="D56" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C56)/100</f>
+        <v>4.0846032377777064E-3</v>
+      </c>
+      <c r="E56" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C56)/100</f>
+        <v>-8.0398989838778023E-3</v>
+      </c>
+      <c r="F56" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C56)/100</f>
+        <v>9.3371878565500221E-3</v>
+      </c>
+      <c r="G56" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C56)/100</f>
+        <v>9.2043051166474932E-3</v>
+      </c>
+      <c r="H56" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C56)/100</f>
+        <v>1.8807812678443003E-3</v>
+      </c>
+      <c r="I56" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C56)/100</f>
+        <v>-1.2882630508964654E-2</v>
+      </c>
+      <c r="J56" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C56)/100</f>
+        <v>5.8697981124859577E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C56)/100</f>
+        <v>4.3727240557759561E-2</v>
+      </c>
+      <c r="L56" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C56)/100</f>
+        <v>-2.1642732709082124E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C56)/100</f>
+        <v>-9.3426620910224134E-3</v>
+      </c>
+      <c r="N56" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C56)/100</f>
+        <v>1.8390955566205403E-2</v>
+      </c>
+      <c r="O56" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C56)/100</f>
+        <v>-8.9779987874333278E-3</v>
+      </c>
+      <c r="P56" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C56)/100</f>
+        <v>-6.280444260999607E-3</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C56)/100</f>
+        <v>-2.0277432777574989E-2</v>
+      </c>
+      <c r="R56" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C56)/100</f>
+        <v>1.597754841970711E-2</v>
+      </c>
+      <c r="S56" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C56)/100</f>
+        <v>2.6718029675101729E-2</v>
+      </c>
+      <c r="T56" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C56)/100</f>
+        <v>7.0199404946295507E-2</v>
+      </c>
+      <c r="U56" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C56)/100</f>
+        <v>1.6763694152004627E-2</v>
+      </c>
+      <c r="V56" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C56)/100</f>
+        <v>-5.0760893660097291E-2</v>
+      </c>
+      <c r="W56" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C56)/100</f>
+        <v>-3.6582234913199896E-2</v>
+      </c>
+      <c r="X56" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C56)/100</f>
+        <v>2.5359967577585962E-2</v>
+      </c>
+      <c r="Y56" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C56)/100</f>
+        <v>5.4857886042959825E-2</v>
+      </c>
+      <c r="Z56" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C56)/100</f>
+        <v>8.4652588713273413E-2</v>
+      </c>
+      <c r="AA56" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C56)/100</f>
+        <v>-4.7120418848167415E-2</v>
+      </c>
+      <c r="AB56" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C56)/100</f>
+        <v>2.1332118717340753E-2</v>
+      </c>
+      <c r="AC56" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C56)/100</f>
+        <v>2.0032636685751726E-2</v>
+      </c>
+      <c r="AD56" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C56)/100</f>
+        <v>2.3790501573355716E-2</v>
+      </c>
+      <c r="AE56" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C56)/100</f>
+        <v>2.7351274804418235E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C57" s="40">
+        <v>20180319</v>
+      </c>
+      <c r="D57" s="4">
+        <f>[1]!i_pq_pctchange(D$4,$D$6,C57)/100</f>
+        <v>1.3361798695841198E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <f>[1]!i_pq_pctchange(E$4,E$6,C57)/100</f>
+        <v>-5.1975122927855333E-3</v>
+      </c>
+      <c r="F57" s="4">
+        <f>[1]!i_pq_pctchange(F$4,F$6,$C57)/100</f>
+        <v>1.3772558612717978E-2</v>
+      </c>
+      <c r="G57" s="4">
+        <f>[1]!i_pq_pctchange(G$4,G$6,$C57)/100</f>
+        <v>1.1577120530566143E-2</v>
+      </c>
+      <c r="H57" s="4">
+        <f>[1]!i_pq_pctchange(H$4,H$6,$C57)/100</f>
+        <v>3.8015748296356122E-3</v>
+      </c>
+      <c r="I57" s="4">
+        <f>[1]!i_pq_pctchange(I$4,I$6,$C57)/100</f>
+        <v>-1.0218881105505284E-2</v>
+      </c>
+      <c r="J57" s="4">
+        <f>[1]!i_pq_pctchange(J$4,J$6,$C57)/100</f>
+        <v>7.2568625417118282E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <f>[1]!i_pq_pctchange(K$4,K$6,$C57)/100</f>
+        <v>5.6103964573421372E-2</v>
+      </c>
+      <c r="L57" s="4">
+        <f>[1]!i_pq_pctchange(L$4,L$6,$C57)/100</f>
+        <v>-1.9547421010694954E-2</v>
+      </c>
+      <c r="M57" s="4">
+        <f>[1]!i_pq_pctchange(M$4,M$6,$C57)/100</f>
+        <v>-8.1292881151436847E-3</v>
+      </c>
+      <c r="N57" s="4">
+        <f>[1]!i_pq_pctchange(N$4,N$6,$C57)/100</f>
+        <v>2.4500299162440786E-2</v>
+      </c>
+      <c r="O57" s="4">
+        <f>[1]!i_pq_pctchange(O$4,O$6,$C57)/100</f>
+        <v>-7.9084827571475058E-3</v>
+      </c>
+      <c r="P57" s="4">
+        <f>[1]!i_pq_pctchange(P$4,P$6,$C57)/100</f>
+        <v>-3.437846090253216E-3</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>[1]!i_pq_pctchange(Q$4,Q$6,$C57)/100</f>
+        <v>-1.7315833005819292E-2</v>
+      </c>
+      <c r="R57" s="4">
+        <f>[1]!i_pq_pctchange(R$4,R$6,$C57)/100</f>
+        <v>3.3408087715916412E-2</v>
+      </c>
+      <c r="S57" s="4">
+        <f>[1]!i_pq_pctchange(S$4,S$6,$C57)/100</f>
+        <v>4.7879934890936227E-2</v>
+      </c>
+      <c r="T57" s="4">
+        <f>[1]!i_pq_pctchange(T$4,T$6,$C57)/100</f>
+        <v>9.9844708858568776E-2</v>
+      </c>
+      <c r="U57" s="4">
+        <f>[1]!i_pq_pctchange(U$4,U$6,$C57)/100</f>
+        <v>3.1411922401865855E-2</v>
+      </c>
+      <c r="V57" s="4">
+        <f>[1]!i_pq_pctchange(V$4,V$6,$C57)/100</f>
+        <v>-5.0415188123889114E-2</v>
+      </c>
+      <c r="W57" s="4">
+        <f>[1]!i_pq_pctchange(W$4,W$6,$C57)/100</f>
+        <v>-1.467909078941565E-2</v>
+      </c>
+      <c r="X57" s="4">
+        <f>[1]!i_pq_pctchange(X$4,X$6,$C57)/100</f>
+        <v>3.0268048533188763E-2</v>
+      </c>
+      <c r="Y57" s="4">
+        <f>[1]!i_pq_pctchange(Y$4,Y$6,$C57)/100</f>
+        <v>5.5252679590044318E-2</v>
+      </c>
+      <c r="Z57" s="4">
+        <f>[1]!i_pq_pctchange(Z$4,Z$6,$C57)/100</f>
+        <v>8.3573334109323869E-2</v>
+      </c>
+      <c r="AA57" s="4">
+        <f>[1]!i_pq_pctchange(AA$4,AA$6,$C57)/100</f>
+        <v>-3.9421004003695637E-2</v>
+      </c>
+      <c r="AB57" s="4">
+        <f>[1]!i_pq_pctchange(AB$4,AB$6,$C57)/100</f>
+        <v>1.6704070463487763E-2</v>
+      </c>
+      <c r="AC57" s="4">
+        <f>[1]!i_pq_pctchange(AC$4,AC$6,$C57)/100</f>
+        <v>1.548156129404954E-2</v>
+      </c>
+      <c r="AD57" s="4">
+        <f>[1]!i_pq_pctchange(AD$4,AD$6,$C57)/100</f>
+        <v>1.9230668496596159E-2</v>
+      </c>
+      <c r="AE57" s="4">
+        <f>[1]!i_pq_pctchange(AE$4,AE$6,$C57)/100</f>
+        <v>2.2322941946823383E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D53">
+  <conditionalFormatting sqref="D7:D57">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -30912,7 +32052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E53">
+  <conditionalFormatting sqref="E7:E57">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -30924,7 +32064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F53">
+  <conditionalFormatting sqref="F7:F57">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -30936,7 +32076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z53">
+  <conditionalFormatting sqref="Z7:Z57">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -30948,7 +32088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AA53">
+  <conditionalFormatting sqref="G7:AA57">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -30960,7 +32100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AE53">
+  <conditionalFormatting sqref="AB7:AE57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据/日报新.xlsx
+++ b/每日交易数据/日报新.xlsx
@@ -8803,7 +8803,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12187,7 +12186,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12525,157 +12523,157 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>5.3866235802149109E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.058099818170267E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3720338160052812E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5380473042066365E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3489505602308789E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3475365677632993E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1135031512273379E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6195491208249617E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3726242891588329E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6714270766326838E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.42459962736792E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3421668349926899E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4629243706779906E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4072616646319247E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8193101108319221E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5199865625718232E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3763402672737181E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6436918971260402E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.1823243016640799E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10123061804781998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.4029458109247552E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.2282219034646165E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.051597091530184E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8585112957541003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8665836923833563E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10594986995755606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0287693134486915E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7461795540745708E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7962447196911331E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.5327318369398046E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.703603027962135E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.263969841274748E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3671145943713991E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.5672919780944667E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9653710867217917E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.882357357952305E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3921514082771331E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3941832752911729E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.4218801734400719E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2434017378661908E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3274998364647193E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1856134090596733E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9466202060826507E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3748979331693407E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.5993139980687205E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.699869722495075E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3013943682346891E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.983910949771218E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9345313562601394E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1332118717340753E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6704070463487763E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12882,157 +12880,157 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>6.8309682343226097E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.490673469088045E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9913246112141412E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3713328895958128E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1088361986066468E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9626081509570596E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8872821258355348E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2015880878449439E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.920877155805603E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4311943925376749E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0464537332625348E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5416762856070232E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4050348802751289E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.258397809108974E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.2145157317332176E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2725112185296101E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5583285654542896E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.723300677362022E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2766597130549786E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9973718649592799E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9202349253058491E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6099694162732101E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4865015351839537E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3922597830848638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.2684623307673224E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0614105788443732E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.9668234243995801E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8385426716750706E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.877788817174153E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.083902760826073E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.7158556016437858E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1760803640930018E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8155748144172996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.5577702801435898E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8567876636642398E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8256350974899211E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1998238401412351E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5093751898754171E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6493756743457544E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3851591984164857E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2471042247657715E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6004952236331924E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1966046343296908E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1545610222926124E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.5149827963225633E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.7258842224815902E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0905329472575405E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6840186734282456E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8127614743759244E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0032636685751726E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.548156129404954E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13239,157 +13237,157 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2.8213739111475622E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3624301380528179E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5326776060993872E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9074226087330244E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8820615494751252E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3259119856429171E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1040872778783459E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4970170372826073E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5742248561348147E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.360859580368297E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10496771693607831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12427780873177241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10323658897972621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10995383464776509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10234739724162957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13599659563265853</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14691106493257622</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13470554170025406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12718411274347718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13425598747135514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1015759413664432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0372506017747578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6559334778383535E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8673187674703771E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.4315129623614649E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8233982203181442E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.729514866461181E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0691477418868223E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.4129633240307378E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.3914872460463543E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.5809635246036513E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.0412996678235151E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3956406279275857E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8620362674362418E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7047678379513949E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2605249862162076E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1417020896520524E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7270629966893463E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.613376871389077E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6072782006995059E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.6210590832788085E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4839262957156762E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.6815298073537033E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0777535742163353E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7012499767751672E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.6638182773426564E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7972581501221061E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.4622453915794651E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4423329318143736E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3790501573355716E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9230668496596159E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13596,157 +13594,157 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>4.6200702975784935E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3172740490679633E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5492378262287563E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9453124418984844E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9118231437278217E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0893665910213937E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0340423890996577E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3234110651660735E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7153921263764174E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4325519243782159E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0010288740291804E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3677775664566578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9807364671134806E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7468511749086097E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8298416747417452E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10259351565434847</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1222139740019732</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12075974743020289</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11383704540457495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1228387152704653</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11085699228494716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.1133742224876357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8678684136478831E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10048060287817817</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11085064649574171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11879873068771118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4285568135905398E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.2387132458562311E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2021262120730096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7936403742879765E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.5561373946631001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2649716515297458E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.6609623281887984E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9144460867205142E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2087177914894145E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.8317550980651944E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7256128424940416E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.591870449739675E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6629768644444995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4728482901934079E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2409583793619792E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2396949461614533E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.027732156459173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.9610919854210058E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1398988659151259E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9882731158508156E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.5190557250778465E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3900196415606265E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6405775883613822E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7351274804418235E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.2322941946823383E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14143,88 +14141,88 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1.3361798695841198E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1975122927855333E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3772558612717978E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1577120530566143E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8015748296356122E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0218881105505284E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2568625417118282E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6103964573421372E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9547421010694954E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.1292881151436847E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4500299162440786E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.9084827571475058E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.437846090253216E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.7315833005819292E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3408087715916412E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7879934890936227E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9844708858568776E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1411922401865855E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.0415188123889114E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.467909078941565E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0268048533188763E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5252679590044318E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3573334109323869E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.9421004003695637E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6704070463487763E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.548156129404954E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9230668496596159E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2322941946823383E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18224,8 +18222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18248,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>20180319</v>
+        <v>20180402</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -18256,7 +18254,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>20180319</v>
+        <v>20180402</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -18264,7 +18262,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>20180301</v>
+        <v>20180402</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -18318,31 +18316,31 @@
       </c>
       <c r="C11" s="12">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>2897.2557999999999</v>
+        <v>2711.3735000000001</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!i_dq_pctchange(A11,$B$1)/100</f>
-        <v>9.2394559463897519E-3</v>
+        <v>-3.9599170215632862E-3</v>
       </c>
       <c r="E11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$2,$B$1)/100</f>
-        <v>9.2394559463897519E-3</v>
+        <v>-3.9599170215632862E-3</v>
       </c>
       <c r="F11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$3,$B$1)/100</f>
-        <v>6.457573099990066E-3</v>
+        <v>-3.9599170215632862E-3</v>
       </c>
       <c r="G11" s="4">
         <f>[1]!i_pq_pctchange(A11,$B$4,$B$1)/100</f>
-        <v>1.2871987395769002E-2</v>
+        <v>-5.2111910340390984E-2</v>
       </c>
       <c r="H11" s="12">
         <f>[1]!i_dq_amount(A11,$B$1)/100000000</f>
-        <v>374.18712945999999</v>
+        <v>433.02463213999999</v>
       </c>
       <c r="I11" s="5">
         <f>[1]!s_nq_amount(A11,-5,$B$1,100000000)/5</f>
-        <v>1.2324664679999999</v>
+        <v>1.817017246</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -18354,31 +18352,31 @@
       </c>
       <c r="C12" s="12">
         <f>[1]!i_dq_close(A12,"")</f>
-        <v>3279.2516999999998</v>
+        <v>3163.1790000000001</v>
       </c>
       <c r="D12" s="4">
         <f>[1]!i_dq_pctchange(A12,$B$1)/100</f>
-        <v>2.8654244139261209E-3</v>
+        <v>-1.8042873345882615E-3</v>
       </c>
       <c r="E12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$2,$B$1)/100</f>
-        <v>2.8654244139261209E-3</v>
+        <v>-1.8042873345882615E-3</v>
       </c>
       <c r="F12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$3,$B$1)/100</f>
-        <v>6.0881301144255495E-3</v>
+        <v>-1.8042873345882615E-3</v>
       </c>
       <c r="G12" s="4">
         <f>[1]!i_pq_pctchange(A12,$B$4,$B$1)/100</f>
-        <v>-8.4423789133925009E-3</v>
+        <v>-4.3539645245555751E-2</v>
       </c>
       <c r="H12" s="12">
         <f>[1]!i_dq_amount(A12,$B$1)/100000000</f>
-        <v>1697.72207</v>
+        <v>2262.535664</v>
       </c>
       <c r="I12" s="5">
         <f>[1]!s_nq_amount(A12,-5,$B$1,100000000)/5</f>
-        <v>11.003923539999999</v>
+        <v>11.769290723999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -18390,27 +18388,27 @@
       </c>
       <c r="C13" s="12">
         <f>[1]!i_dq_close(A13,"")</f>
-        <v>4074.2478999999998</v>
+        <v>3886.9189000000001</v>
       </c>
       <c r="D13" s="4">
         <f>[1]!i_dq_pctchange(A13,$B$1)/100</f>
-        <v>4.394339978285311E-3</v>
+        <v>-2.9700671620249697E-3</v>
       </c>
       <c r="E13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$2,$B$1)/100</f>
-        <v>4.394339978285311E-3</v>
+        <v>-2.9700671620249697E-3</v>
       </c>
       <c r="F13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$3,$B$1)/100</f>
-        <v>1.257726365532319E-2</v>
+        <v>-2.9700671620249697E-3</v>
       </c>
       <c r="G13" s="4">
         <f>[1]!i_pq_pctchange(A13,$B$4,$B$1)/100</f>
-        <v>1.0765210129493941E-2</v>
+        <v>-3.5708554034033724E-2</v>
       </c>
       <c r="H13" s="12">
         <f>[1]!i_dq_amount(A13,$B$1)/100000000</f>
-        <v>1181.8381514</v>
+        <v>1593.56080038</v>
       </c>
       <c r="I13" s="5">
         <f>[1]!s_nq_amount(A13,-5,$B$1,100000000)/5</f>
@@ -18437,31 +18435,31 @@
       </c>
       <c r="C15" s="12">
         <f>[1]!i_dq_close(A15,"")</f>
-        <v>7581.2795999999998</v>
+        <v>7396.4054999999998</v>
       </c>
       <c r="D15" s="4">
         <f>[1]!i_dq_pctchange(A15,$B$1)/100</f>
-        <v>2.3511744865618578E-3</v>
+        <v>-6.3384901036819263E-3</v>
       </c>
       <c r="E15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$2,$B$1)/100</f>
-        <v>2.3511744865618578E-3</v>
+        <v>-6.3384901036819263E-3</v>
       </c>
       <c r="F15" s="4">
         <f>[1]!i_pq_pctchange(A15,$B$3,$B$1)/100</f>
-        <v>1.3911079867354514E-2</v>
+        <v>-6.3384901036819263E-3</v>
       </c>
       <c r="G15" s="13">
         <f>[1]!i_pq_pctchange(A15,$B$4,$B$1)/100</f>
-        <v>3.4975517270274814E-3</v>
+        <v>-2.0973344548548045E-2</v>
       </c>
       <c r="H15" s="12">
         <f>[1]!i_dq_amount(A15,$B$1)/100000000</f>
-        <v>921.63834099999997</v>
+        <v>1384.8938270000001</v>
       </c>
       <c r="I15" s="5">
         <f>[1]!s_nq_amount(A15,-5,$B$1,100000000)/5</f>
-        <v>1070.0607098</v>
+        <v>1182.2655562</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -18473,31 +18471,31 @@
       </c>
       <c r="C16" s="12">
         <f>[1]!i_dq_close(A16,"")</f>
-        <v>1480.1523999999999</v>
+        <v>1457.1501000000001</v>
       </c>
       <c r="D16" s="4">
         <f>[1]!i_dq_pctchange(A16,$B$1)/100</f>
-        <v>1.9171877509822632E-3</v>
+        <v>-2.0456983114803817E-3</v>
       </c>
       <c r="E16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$2,$B$1)/100</f>
-        <v>1.9171877509822632E-3</v>
+        <v>-2.0456983114803817E-3</v>
       </c>
       <c r="F16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$3,$B$1)/100</f>
-        <v>1.8277296240301721E-2</v>
+        <v>-2.0456983114803817E-3</v>
       </c>
       <c r="G16" s="4">
         <f>[1]!i_pq_pctchange(A16,$B$4,$B$1)/100</f>
-        <v>-5.5149269605766493E-3</v>
+        <v>-2.0969716613030376E-2</v>
       </c>
       <c r="H16" s="12">
         <f>[1]!i_dq_amount(A16,$B$1)/100000000</f>
-        <v>511.51998600000002</v>
+        <v>821.215461</v>
       </c>
       <c r="I16" s="5">
         <f>[1]!s_nq_amount(A16,-5,$B$1,100000000)/5</f>
-        <v>612.39327939999998</v>
+        <v>693.28881320000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -18509,31 +18507,31 @@
       </c>
       <c r="C17" s="12">
         <f>[1]!i_dq_close(A17,"")</f>
-        <v>1868.0532000000001</v>
+        <v>1856.6636000000001</v>
       </c>
       <c r="D17" s="4">
         <f>[1]!i_dq_pctchange(A17,$B$1)/100</f>
-        <v>2.6985133539214612E-3</v>
+        <v>1.5869695226111702E-3</v>
       </c>
       <c r="E17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$2,$B$1)/100</f>
-        <v>2.6985133539214612E-3</v>
+        <v>1.5869695226111702E-3</v>
       </c>
       <c r="F17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$3,$B$1)/100</f>
-        <v>3.1058255119378542E-2</v>
+        <v>1.5869695226111702E-3</v>
       </c>
       <c r="G17" s="4">
         <f>[1]!i_pq_pctchange(A17,$B$4,$B$1)/100</f>
-        <v>-1.6474323024017301E-2</v>
+        <v>-2.2470921006604527E-2</v>
       </c>
       <c r="H17" s="12">
         <f>[1]!i_dq_amount(A17,$B$1)/100000000</f>
-        <v>2271.306826</v>
+        <v>3482.432213</v>
       </c>
       <c r="I17" s="5">
         <f>[1]!s_nq_amount(A17,-5,$B$1,100000000)/5</f>
-        <v>2547.060391</v>
+        <v>3043.0220226000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -18545,31 +18543,31 @@
       </c>
       <c r="C18" s="12">
         <f>[1]!i_dq_close(A18,"")</f>
-        <v>1625.4962</v>
+        <v>1664.7828999999999</v>
       </c>
       <c r="D18" s="4">
         <f>[1]!i_dq_pctchange(A18,$B$1)/100</f>
-        <v>1.3101606444475777E-2</v>
+        <v>-4.5477471293303706E-3</v>
       </c>
       <c r="E18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$2,$B$1)/100</f>
-        <v>1.3101606444475777E-2</v>
+        <v>-4.5477471293303706E-3</v>
       </c>
       <c r="F18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$3,$B$1)/100</f>
-        <v>5.5182643422084343E-2</v>
+        <v>-4.5477471293303706E-3</v>
       </c>
       <c r="G18" s="4">
         <f>[1]!i_pq_pctchange(A18,$B$4,$B$1)/100</f>
-        <v>6.9580116278205262E-2</v>
+        <v>9.5430852289883905E-2</v>
       </c>
       <c r="H18" s="12">
         <f>[1]!i_dq_amount(A18,$B$1)/100000000</f>
-        <v>216.09523200000001</v>
+        <v>305.68701600000003</v>
       </c>
       <c r="I18" s="5">
         <f>[1]!s_nq_amount(A18,-5,$B$1,100000000)/5</f>
-        <v>220.29207919999999</v>
+        <v>270.2659496</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -18581,31 +18579,31 @@
       </c>
       <c r="C19" s="12">
         <f>[1]!i_dq_close(A19,"")</f>
-        <v>1842.9199000000001</v>
+        <v>1900.2546</v>
       </c>
       <c r="D19" s="4">
         <f>[1]!i_dq_pctchange(A19,$B$1)/100</f>
-        <v>1.185819775006336E-2</v>
+        <v>-1.1949602040373097E-4</v>
       </c>
       <c r="E19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$2,$B$1)/100</f>
-        <v>1.185819775006336E-2</v>
+        <v>-1.1949602040373097E-4</v>
       </c>
       <c r="F19" s="4">
         <f>[1]!i_pq_pctchange(A19,$B$3,$B$1)/100</f>
-        <v>5.0918741347221186E-2</v>
+        <v>-1.1949602040373097E-4</v>
       </c>
       <c r="G19" s="13">
         <f>[1]!i_pq_pctchange(A19,$B$4,$B$1)/100</f>
-        <v>5.1503607105118476E-2</v>
+        <v>8.4216718435833116E-2</v>
       </c>
       <c r="H19" s="12">
         <f>[1]!i_dq_amount(A19,$B$1)/100000000</f>
-        <v>778.29772500000001</v>
+        <v>1295.200427</v>
       </c>
       <c r="I19" s="5">
         <f>[1]!s_nq_amount(A19,-5,$B$1,100000000)/5</f>
-        <v>825.68460660000005</v>
+        <v>1123.0905324</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18628,31 +18626,31 @@
       </c>
       <c r="C21" s="12">
         <f>[1]!i_dq_close(A21,"")</f>
-        <v>6820.5015999999996</v>
+        <v>6835.8746000000001</v>
       </c>
       <c r="D21" s="4">
         <f>[1]!i_dq_pctchange(A21,$B$1)/100</f>
-        <v>2.1416631413073706E-3</v>
+        <v>5.4725716582970652E-3</v>
       </c>
       <c r="E21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$2,$B$1)/100</f>
-        <v>2.1416631413073706E-3</v>
+        <v>5.4725716582970652E-3</v>
       </c>
       <c r="F21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$3,$B$1)/100</f>
-        <v>3.9107483893952022E-2</v>
+        <v>5.4725716582970652E-3</v>
       </c>
       <c r="G21" s="4">
         <f>[1]!i_pq_pctchange(A21,$B$4,$B$1)/100</f>
-        <v>-2.8051838135164209E-2</v>
+        <v>-2.5861125491339232E-2</v>
       </c>
       <c r="H21" s="12">
         <f>[1]!i_dq_amount(A21,$B$1)/100000000</f>
-        <v>953.64093129000003</v>
+        <v>1447.0751028899999</v>
       </c>
       <c r="I21" s="5">
         <f>[1]!s_nq_amount(A21,-5,$B$1,100000000)/5</f>
-        <v>0.66863026999999997</v>
+        <v>0.70802492399999994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -18664,31 +18662,31 @@
       </c>
       <c r="C22" s="12">
         <f>[1]!i_dq_close(A22,"")</f>
-        <v>6153.8338999999996</v>
+        <v>6121.9642000000003</v>
       </c>
       <c r="D22" s="4">
         <f>[1]!i_dq_pctchange(A22,$B$1)/100</f>
-        <v>1.2248170274897774E-3</v>
+        <v>1.1817349759963847E-3</v>
       </c>
       <c r="E22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$2,$B$1)/100</f>
-        <v>1.2248170274897774E-3</v>
+        <v>1.1817349759963847E-3</v>
       </c>
       <c r="F22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$3,$B$1)/100</f>
-        <v>2.1607549674393267E-2</v>
+        <v>1.1817349759963847E-3</v>
       </c>
       <c r="G22" s="4">
         <f>[1]!i_pq_pctchange(A22,$B$4,$B$1)/100</f>
-        <v>-1.5515850582628388E-2</v>
+        <v>-2.061433309069316E-2</v>
       </c>
       <c r="H22" s="12">
         <f>[1]!i_dq_amount(A22,$B$1)/100000000</f>
-        <v>786.81889716000001</v>
+        <v>1099.10556974</v>
       </c>
       <c r="I22" s="5">
         <f>[1]!s_nq_amount(A22,-5,$B$1,100000000)/5</f>
-        <v>0.49363301000000004</v>
+        <v>0.376871548</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -18700,31 +18698,31 @@
       </c>
       <c r="C23" s="12">
         <f>[1]!i_dq_close(A23,"")</f>
-        <v>4177.7942999999996</v>
+        <v>3920.9387000000002</v>
       </c>
       <c r="D23" s="4">
         <f>[1]!i_dq_pctchange(A23,$B$1)/100</f>
-        <v>5.9990159602691939E-3</v>
+        <v>-5.3714838311232915E-3</v>
       </c>
       <c r="E23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$2,$B$1)/100</f>
-        <v>5.9990159602691939E-3</v>
+        <v>-5.3714838311232915E-3</v>
       </c>
       <c r="F23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$3,$B$1)/100</f>
-        <v>1.1070264033985477E-2</v>
+        <v>-5.3714838311232915E-3</v>
       </c>
       <c r="G23" s="4">
         <f>[1]!i_pq_pctchange(A23,$B$4,$B$1)/100</f>
-        <v>2.3656198258008132E-2</v>
+        <v>-3.9279362498843784E-2</v>
       </c>
       <c r="H23" s="12">
         <f>[1]!i_dq_amount(A23,$B$1)/100000000</f>
-        <v>649.58473392999997</v>
+        <v>768.16388156000005</v>
       </c>
       <c r="I23" s="5">
         <f>[1]!s_nq_amount(A23,-5,$B$1,100000000)/5</f>
-        <v>0.599334476</v>
+        <v>0.26476792999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -18736,31 +18734,31 @@
       </c>
       <c r="C24" s="12">
         <f>[1]!i_dq_close(A24,"")</f>
-        <v>4305.3993</v>
+        <v>4246.0279</v>
       </c>
       <c r="D24" s="4">
         <f>[1]!i_dq_pctchange(A24,$B$1)/100</f>
-        <v>1.0792051326582452E-3</v>
+        <v>1.8111286045467967E-3</v>
       </c>
       <c r="E24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$2,$B$1)/100</f>
-        <v>1.0792051326582452E-3</v>
+        <v>1.8111286045467967E-3</v>
       </c>
       <c r="F24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$3,$B$1)/100</f>
-        <v>1.5721461735104691E-2</v>
+        <v>1.8111286045467967E-3</v>
       </c>
       <c r="G24" s="4">
         <f>[1]!i_pq_pctchange(A24,$B$4,$B$1)/100</f>
-        <v>-1.5107535478575573E-2</v>
+        <v>-2.868918967452605E-2</v>
       </c>
       <c r="H24" s="12">
         <f>[1]!i_dq_amount(A24,$B$1)/100000000</f>
-        <v>532.25341700000001</v>
+        <v>825.39691800000003</v>
       </c>
       <c r="I24" s="5">
         <f>[1]!s_nq_amount(A24,-5,$B$1,100000000)/5</f>
-        <v>599.44365919999996</v>
+        <v>717.09365760000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -18783,31 +18781,31 @@
       </c>
       <c r="C26" s="12">
         <f>[1]!i_dq_close(A26,"")</f>
-        <v>9075.1510999999991</v>
+        <v>8660.3837999999996</v>
       </c>
       <c r="D26" s="4">
         <f>[1]!i_dq_pctchange(A26,$B$1)/100</f>
-        <v>2.8605637821350616E-3</v>
+        <v>-1.3803056916160683E-3</v>
       </c>
       <c r="E26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$2,$B$1)/100</f>
-        <v>2.8605637821350616E-3</v>
+        <v>-1.3803056916160683E-3</v>
       </c>
       <c r="F26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$3,$B$1)/100</f>
-        <v>2.1314828834761101E-2</v>
+        <v>-1.3803056916160683E-3</v>
       </c>
       <c r="G26" s="4">
         <f>[1]!i_pq_pctchange(A26,$B$4,$B$1)/100</f>
-        <v>-3.0355222800659831E-3</v>
+        <v>-4.8600412612283976E-2</v>
       </c>
       <c r="H26" s="12">
         <f>[1]!i_dq_amount(A26,$B$1)/100000000</f>
-        <v>84.167560969999997</v>
+        <v>86.561529089999993</v>
       </c>
       <c r="I26" s="5">
         <f>[1]!s_nq_amount(A26,-5,$B$1,100000000)/5</f>
-        <v>1.0451867379999999</v>
+        <v>0.80615362400000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -18819,31 +18817,31 @@
       </c>
       <c r="C27" s="12">
         <f>[1]!i_dq_close(A27,"")</f>
-        <v>12588.3192</v>
+        <v>11772.179700000001</v>
       </c>
       <c r="D27" s="4">
         <f>[1]!i_dq_pctchange(A27,$B$1)/100</f>
-        <v>3.0228963492717753E-3</v>
+        <v>-1.3425426265490925E-3</v>
       </c>
       <c r="E27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$2,$B$1)/100</f>
-        <v>3.0228963492717753E-3</v>
+        <v>-1.3425426265490925E-3</v>
       </c>
       <c r="F27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$3,$B$1)/100</f>
-        <v>1.1638563147067016E-2</v>
+        <v>-1.3425426265490925E-3</v>
       </c>
       <c r="G27" s="4">
         <f>[1]!i_pq_pctchange(A27,$B$4,$B$1)/100</f>
-        <v>-1.089372207817807E-2</v>
+        <v>-7.5020528070671166E-2</v>
       </c>
       <c r="H27" s="12">
         <f>[1]!i_dq_amount(A27,$B$1)/100000000</f>
-        <v>108.07648936</v>
+        <v>130.53035229</v>
       </c>
       <c r="I27" s="5">
         <f>[1]!s_nq_amount(A27,-5,$B$1,100000000)/5</f>
-        <v>5.3325185699999995</v>
+        <v>4.1798012760000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -18855,31 +18853,31 @@
       </c>
       <c r="C28" s="12">
         <f>[1]!i_dq_close(A28,"")</f>
-        <v>13865.749400000001</v>
+        <v>14368.362800000001</v>
       </c>
       <c r="D28" s="4">
         <f>[1]!i_dq_pctchange(A28,$B$1)/100</f>
-        <v>1.7156421737194227E-2</v>
+        <v>-1.0468025426554339E-3</v>
       </c>
       <c r="E28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$2,$B$1)/100</f>
-        <v>1.7156421737194227E-2</v>
+        <v>-1.0468025426554339E-3</v>
       </c>
       <c r="F28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$3,$B$1)/100</f>
-        <v>6.9187579874848915E-2</v>
+        <v>-1.0468025426554339E-3</v>
       </c>
       <c r="G28" s="4">
         <f>[1]!i_pq_pctchange(A28,$B$4,$B$1)/100</f>
-        <v>2.1516814270999607E-2</v>
+        <v>5.8545324188964409E-2</v>
       </c>
       <c r="H28" s="12">
         <f>[1]!i_dq_amount(A28,$B$1)/100000000</f>
-        <v>196.37936117000001</v>
+        <v>264.56159869999999</v>
       </c>
       <c r="I28" s="5">
         <f>[1]!s_nq_amount(A28,-5,$B$1,100000000)/5</f>
-        <v>0.24712537800000001</v>
+        <v>0.28943142799999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -18891,27 +18889,27 @@
       </c>
       <c r="C29" s="12">
         <f>[1]!i_dq_close(A29,"")</f>
-        <v>10482.619500000001</v>
+        <v>10709.1993</v>
       </c>
       <c r="D29" s="4">
         <f>[1]!i_dq_pctchange(A29,$B$1)/100</f>
-        <v>2.0611214183636317E-2</v>
+        <v>-4.9058649546818156E-3</v>
       </c>
       <c r="E29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$2,$B$1)/100</f>
-        <v>2.0611214183636317E-2</v>
+        <v>-4.9058649546818156E-3</v>
       </c>
       <c r="F29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$3,$B$1)/100</f>
-        <v>7.6235683122866327E-2</v>
+        <v>-4.9058649546818156E-3</v>
       </c>
       <c r="G29" s="4">
         <f>[1]!i_pq_pctchange(A29,$B$4,$B$1)/100</f>
-        <v>3.8071297498870615E-2</v>
+        <v>6.050900850927543E-2</v>
       </c>
       <c r="H29" s="12">
         <f>[1]!i_dq_amount(A29,$B$1)/100000000</f>
-        <v>265.8723225</v>
+        <v>388.32548807000001</v>
       </c>
       <c r="I29" s="5">
         <f>[1]!s_nq_amount(A29,-5,$B$1,100000000)/5</f>
@@ -18927,31 +18925,31 @@
       </c>
       <c r="C30" s="12">
         <f>[1]!i_dq_close(A30,"")</f>
-        <v>7532.2767000000003</v>
+        <v>7979.7286999999997</v>
       </c>
       <c r="D30" s="4">
         <f>[1]!i_dq_pctchange(A30,$B$1)/100</f>
-        <v>2.7700729205470953E-2</v>
+        <v>-5.0152552058050359E-3</v>
       </c>
       <c r="E30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$2,$B$1)/100</f>
-        <v>2.7700729205470953E-2</v>
+        <v>-5.0152552058050359E-3</v>
       </c>
       <c r="F30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$3,$B$1)/100</f>
-        <v>7.9889953335041453E-2</v>
+        <v>-5.0152552058050359E-3</v>
       </c>
       <c r="G30" s="4">
         <f>[1]!i_pq_pctchange(A30,$B$4,$B$1)/100</f>
-        <v>8.4850717091379479E-2</v>
+        <v>0.14929585664181211</v>
       </c>
       <c r="H30" s="12">
         <f>[1]!i_dq_amount(A30,$B$1)/100000000</f>
-        <v>51.676763919999999</v>
+        <v>79.991829800000005</v>
       </c>
       <c r="I30" s="5">
         <f>[1]!s_nq_amount(A30,-5,$B$1,100000000)/5</f>
-        <v>45.315633825999996</v>
+        <v>79.44391343800001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -18963,31 +18961,31 @@
       </c>
       <c r="C31" s="12">
         <f>[1]!i_dq_close(A31,"")</f>
-        <v>8722.6530000000002</v>
+        <v>8669.6918000000005</v>
       </c>
       <c r="D31" s="4">
         <f>[1]!i_dq_pctchange(A31,$B$1)/100</f>
-        <v>1.4406718428393361E-2</v>
+        <v>7.5187102608786915E-5</v>
       </c>
       <c r="E31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$2,$B$1)/100</f>
-        <v>1.4406718428393361E-2</v>
+        <v>7.5187102608786915E-5</v>
       </c>
       <c r="F31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$3,$B$1)/100</f>
-        <v>4.8774927926769962E-2</v>
+        <v>7.5187102608786915E-5</v>
       </c>
       <c r="G31" s="4">
         <f>[1]!i_pq_pctchange(A31,$B$4,$B$1)/100</f>
-        <v>2.1256586857727688E-2</v>
+        <v>1.5055838719759906E-2</v>
       </c>
       <c r="H31" s="12">
         <f>[1]!i_dq_amount(A31,$B$1)/100000000</f>
-        <v>331.30088799999999</v>
+        <v>349.66976399999999</v>
       </c>
       <c r="I31" s="5">
         <f>[1]!s_nq_amount(A31,-5,$B$1,100000000)/5</f>
-        <v>301.48844880000001</v>
+        <v>373.76766559999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -18999,27 +18997,27 @@
       </c>
       <c r="C32" s="12">
         <f>[1]!i_dq_close(A32,"")</f>
-        <v>1640.6650999999999</v>
+        <v>1642.8758</v>
       </c>
       <c r="D32" s="4">
         <f>[1]!i_dq_pctchange(A32,$B$1)/100</f>
-        <v>3.641922608321746E-4</v>
+        <v>2.2944700215952185E-3</v>
       </c>
       <c r="E32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$2,$B$1)/100</f>
-        <v>3.641922608321746E-4</v>
+        <v>2.2944700215952185E-3</v>
       </c>
       <c r="F32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$3,$B$1)/100</f>
-        <v>2.9106126388361409E-2</v>
+        <v>2.2944700215952185E-3</v>
       </c>
       <c r="G32" s="4">
         <f>[1]!i_pq_pctchange(A32,$B$4,$B$1)/100</f>
-        <v>-5.6787682915478532E-2</v>
+        <v>-5.5516759636023864E-2</v>
       </c>
       <c r="H32" s="12">
         <f>[1]!i_dq_amount(A32,$B$1)/100000000</f>
-        <v>140.47471060000001</v>
+        <v>203.40842308000001</v>
       </c>
       <c r="I32" s="5">
         <f>[1]!s_nq_amount(A32,-5,$B$1,100000000)/5</f>
@@ -19035,27 +19033,27 @@
       </c>
       <c r="C33" s="12">
         <f>[1]!i_dq_close(A33,"")</f>
-        <v>10066.320900000001</v>
+        <v>9316.7576000000008</v>
       </c>
       <c r="D33" s="4">
         <f>[1]!i_dq_pctchange(A33,$B$1)/100</f>
-        <v>2.2734835206003057E-2</v>
+        <v>7.0381909639816165E-4</v>
       </c>
       <c r="E33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$2,$B$1)/100</f>
-        <v>2.2734835206003057E-2</v>
+        <v>7.0381909639816165E-4</v>
       </c>
       <c r="F33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$3,$B$1)/100</f>
-        <v>3.8299915551342156E-2</v>
+        <v>7.0381909639816165E-4</v>
       </c>
       <c r="G33" s="4">
         <f>[1]!i_pq_pctchange(A33,$B$4,$B$1)/100</f>
-        <v>-1.08469564693775E-2</v>
+        <v>-8.4501753180046268E-2</v>
       </c>
       <c r="H33" s="12">
         <f>[1]!i_dq_amount(A33,$B$1)/100000000</f>
-        <v>143.00268</v>
+        <v>201.979097</v>
       </c>
       <c r="I33" s="5">
         <f>[1]!s_nq_amount(A33,-5,$B$1,100000000)/5</f>
@@ -19071,31 +19069,31 @@
       </c>
       <c r="C34" s="12">
         <f>[1]!i_dq_close(A34,"")</f>
-        <v>6672.0300999999999</v>
+        <v>6334.5631000000003</v>
       </c>
       <c r="D34" s="4">
         <f>[1]!i_dq_pctchange(A34,$B$1)/100</f>
-        <v>4.7866906362632466E-3</v>
+        <v>-7.2346943232490801E-3</v>
       </c>
       <c r="E34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$2,$B$1)/100</f>
-        <v>4.7866906362632466E-3</v>
+        <v>-7.2346943232490801E-3</v>
       </c>
       <c r="F34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$3,$B$1)/100</f>
-        <v>-1.6862630660385736E-2</v>
+        <v>-7.2346943232490801E-3</v>
       </c>
       <c r="G34" s="4">
         <f>[1]!i_pq_pctchange(A34,$B$4,$B$1)/100</f>
-        <v>2.2918201056210341E-2</v>
+        <v>-2.8820344990792002E-2</v>
       </c>
       <c r="H34" s="12">
         <f>[1]!i_dq_amount(A34,$B$1)/100000000</f>
-        <v>90.766499999999994</v>
+        <v>136.41890599999999</v>
       </c>
       <c r="I34" s="5">
         <f>[1]!s_nq_amount(A34,-5,$B$1,100000000)/5</f>
-        <v>122.21256960000001</v>
+        <v>152.4346256</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19118,31 +19116,31 @@
       </c>
       <c r="C36" s="12">
         <f>[1]!i_dq_close(A36,"")</f>
-        <v>31513.759999999998</v>
+        <v>30093.38</v>
       </c>
       <c r="D36" s="4">
         <f>[1]!i_dq_pctchange(A36,$B$1)/100</f>
-        <v>3.7426230803960792E-4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$2,$B$1)/100</f>
-        <v>3.7426230803960792E-4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$3,$B$1)/100</f>
-        <v>2.1690584320428252E-2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
         <f>[1]!i_pq_pctchange(A36,$B$4,$B$1)/100</f>
-        <v>5.3297302897976628E-2</v>
+        <v>5.823360623547158E-3</v>
       </c>
       <c r="H36" s="12">
         <f>[1]!i_dq_amount(A36,$B$1)/100000000</f>
-        <v>1062.2266689999999</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
         <f>[1]!s_nq_amount(A36,-5,$B$1,100000000)/5</f>
-        <v>1147.985848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -19154,31 +19152,31 @@
       </c>
       <c r="C37" s="12">
         <f>[1]!i_dq_close(A37,"")</f>
-        <v>12660.46</v>
+        <v>11998.34</v>
       </c>
       <c r="D37" s="4">
         <f>[1]!i_dq_pctchange(A37,$B$1)/100</f>
-        <v>-9.9502330532386107E-4</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$2,$B$1)/100</f>
-        <v>-9.9502330532386107E-4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$3,$B$1)/100</f>
-        <v>2.248249082545084E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
         <f>[1]!i_pq_pctchange(A37,$B$4,$B$1)/100</f>
-        <v>8.1231158139256868E-2</v>
+        <v>2.4684652370338123E-2</v>
       </c>
       <c r="H37" s="12">
         <f>[1]!i_dq_amount(A37,$B$1)/100000000</f>
-        <v>296.89254199999999</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5">
         <f>[1]!s_nq_amount(A37,-5,$B$1,100000000)/5</f>
-        <v>350.03611919999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -19190,23 +19188,23 @@
       </c>
       <c r="C38" s="12">
         <f>[1]!i_dq_close(A38,"")</f>
-        <v>124.76</v>
+        <v>127.06</v>
       </c>
       <c r="D38" s="4">
         <f>[1]!i_dq_pctchange(A38,$B$1)/100</f>
-        <v>8.0801551389786397E-3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$2,$B$1)/100</f>
-        <v>8.0801551389786397E-3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$3,$B$1)/100</f>
-        <v>-2.1106316202432307E-2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
         <f>[1]!i_pq_pctchange(A38,$B$4,$B$1)/100</f>
-        <v>-4.288454161871879E-2</v>
+        <v>-2.5239739163789743E-2</v>
       </c>
       <c r="H38" s="12">
         <f>[1]!i_dq_amount(A38,$B$1)/100000000</f>
@@ -19272,31 +19270,31 @@
       </c>
       <c r="C43" s="12">
         <f>[1]!i_dq_close(A43,"")</f>
-        <v>3027.6947</v>
+        <v>2895.9609</v>
       </c>
       <c r="D43" s="4">
         <f>[1]!i_dq_pctchange(A43,$B$1)/100</f>
-        <v>-4.5313842275568339E-3</v>
+        <v>-7.8964424488062734E-3</v>
       </c>
       <c r="E43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$2,$B$1)/100</f>
-        <v>-4.5313842275568339E-3</v>
+        <v>-7.8964424488062734E-3</v>
       </c>
       <c r="F43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$3,$B$1)/100</f>
-        <v>-7.0685287561353949E-3</v>
+        <v>-7.8964424488062734E-3</v>
       </c>
       <c r="G43" s="4">
         <f>[1]!i_pq_pctchange(A43,$B$4,$B$1)/100</f>
-        <v>1.1256810681418372E-2</v>
+        <v>-3.2742573552052678E-2</v>
       </c>
       <c r="H43" s="12">
         <f>[1]!i_dq_amount(A43,$B$1)/100000000</f>
-        <v>198.13601831</v>
+        <v>229.72133657000001</v>
       </c>
       <c r="I43" s="5">
         <f>[1]!s_nq_amount(A43,-5,$B$1,100000000)/5</f>
-        <v>212.73240227400001</v>
+        <v>267.21771729799997</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -19308,31 +19306,31 @@
       </c>
       <c r="C44" s="12">
         <f>[1]!i_dq_close(A44,"")</f>
-        <v>4791.6057000000001</v>
+        <v>4578.5138999999999</v>
       </c>
       <c r="D44" s="4">
         <f>[1]!i_dq_pctchange(A44,$B$1)/100</f>
-        <v>-4.4616958595454781E-3</v>
+        <v>-5.0750471232490213E-3</v>
       </c>
       <c r="E44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$2,$B$1)/100</f>
-        <v>-4.4616958595454781E-3</v>
+        <v>-5.0750471232490213E-3</v>
       </c>
       <c r="F44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$3,$B$1)/100</f>
-        <v>3.8204293403465428E-4</v>
+        <v>-5.0750471232490213E-3</v>
       </c>
       <c r="G44" s="4">
         <f>[1]!i_pq_pctchange(A44,$B$4,$B$1)/100</f>
-        <v>8.5919020497529086E-3</v>
+        <v>-3.6262094153066138E-2</v>
       </c>
       <c r="H44" s="12">
         <f>[1]!i_dq_amount(A44,$B$1)/100000000</f>
-        <v>327.52043500000002</v>
+        <v>431.748176</v>
       </c>
       <c r="I44" s="5">
         <f>[1]!s_nq_amount(A44,-5,$B$1,100000000)/5</f>
-        <v>373.299599</v>
+        <v>472.91560140000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -19344,31 +19342,31 @@
       </c>
       <c r="C45" s="12">
         <f>[1]!i_dq_close(A45,"")</f>
-        <v>9106.2206000000006</v>
+        <v>8479.9097999999994</v>
       </c>
       <c r="D45" s="4">
         <f>[1]!i_dq_pctchange(A45,$B$1)/100</f>
-        <v>-4.4538731994016034E-3</v>
+        <v>-9.0560387107964102E-3</v>
       </c>
       <c r="E45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$2,$B$1)/100</f>
-        <v>-4.4538731994016034E-3</v>
+        <v>-9.0560387107964102E-3</v>
       </c>
       <c r="F45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$3,$B$1)/100</f>
-        <v>1.4435368603139542E-2</v>
+        <v>-9.0560387107964102E-3</v>
       </c>
       <c r="G45" s="4">
         <f>[1]!i_pq_pctchange(A45,$B$4,$B$1)/100</f>
-        <v>1.6363128082771183E-2</v>
+        <v>-5.3540647786663002E-2</v>
       </c>
       <c r="H45" s="12">
         <f>[1]!i_dq_amount(A45,$B$1)/100000000</f>
-        <v>146.05148500000001</v>
+        <v>207.80270899999999</v>
       </c>
       <c r="I45" s="5">
         <f>[1]!s_nq_amount(A45,-5,$B$1,100000000)/5</f>
-        <v>177.61363739999999</v>
+        <v>217.33989299999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -19380,31 +19378,31 @@
       </c>
       <c r="C46" s="12">
         <f>[1]!i_dq_close(A46,"")</f>
-        <v>6089.6770999999999</v>
+        <v>5759.9387999999999</v>
       </c>
       <c r="D46" s="4">
         <f>[1]!i_dq_pctchange(A46,$B$1)/100</f>
-        <v>-4.8944630535959766E-3</v>
+        <v>-8.1540419262906561E-3</v>
       </c>
       <c r="E46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$2,$B$1)/100</f>
-        <v>-4.8944630535959766E-3</v>
+        <v>-8.1540419262906561E-3</v>
       </c>
       <c r="F46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$3,$B$1)/100</f>
-        <v>-3.5049195758011242E-3</v>
+        <v>-8.1540419262906561E-3</v>
       </c>
       <c r="G46" s="4">
         <f>[1]!i_pq_pctchange(A46,$B$4,$B$1)/100</f>
-        <v>1.7621459268677642E-2</v>
+        <v>-3.7479782474135415E-2</v>
       </c>
       <c r="H46" s="12">
         <f>[1]!i_dq_amount(A46,$B$1)/100000000</f>
-        <v>267.32599224000001</v>
+        <v>336.87463493000001</v>
       </c>
       <c r="I46" s="5">
         <f>[1]!s_nq_amount(A46,-5,$B$1,100000000)/5</f>
-        <v>300.47272020999998</v>
+        <v>395.12981085400003</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -19449,27 +19447,27 @@
       </c>
       <c r="C50" s="12">
         <f>[1]!i_dq_close(A50,"")</f>
-        <v>1945.65</v>
+        <v>1808.81</v>
       </c>
       <c r="D50" s="4">
         <f>[1]!i_dq_pctchange(A50,$B$1)/100</f>
-        <v>2.1558445649719982E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="E50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$2,$B$1)/100</f>
-        <v>2.1558445649719982E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="F50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$3,$B$1)/100</f>
-        <v>3.688919917076583E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="G50" s="4">
         <f>[1]!i_pq_pctchange(A50,$B$4,$B$1)/100</f>
-        <v>-1.299669756045585E-2</v>
+        <v>-8.2413875318956831E-2</v>
       </c>
       <c r="H50" s="12">
         <f>[1]!i_dq_amount(A50,$B$1)/100000000</f>
-        <v>176.32560000000001</v>
+        <v>232.738</v>
       </c>
       <c r="I50" s="5">
         <f>[1]!s_nq_amount(A50,-5,$B$1,100000000)/5</f>
@@ -19486,27 +19484,27 @@
       </c>
       <c r="C51" s="12">
         <f>[1]!i_dq_close(A51,"")</f>
-        <v>3727.61</v>
+        <v>3539.23</v>
       </c>
       <c r="D51" s="4">
         <f>[1]!i_dq_pctchange(A51,$B$1)/100</f>
-        <v>4.6626831720260054E-3</v>
+        <v>-7.6127613995143895E-3</v>
       </c>
       <c r="E51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$2,$B$1)/100</f>
-        <v>4.6626831720260054E-3</v>
+        <v>-7.6127613995143895E-3</v>
       </c>
       <c r="F51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$3,$B$1)/100</f>
-        <v>-1.786368271148564E-2</v>
+        <v>-7.6127613995143895E-3</v>
       </c>
       <c r="G51" s="4">
         <f>[1]!i_pq_pctchange(A51,$B$4,$B$1)/100</f>
-        <v>2.339672577620755E-2</v>
+        <v>-2.8322063260661223E-2</v>
       </c>
       <c r="H51" s="12">
         <f>[1]!i_dq_amount(A51,$B$1)/100000000</f>
-        <v>93.930599999999998</v>
+        <v>138.95750000000001</v>
       </c>
       <c r="I51" s="5">
         <f>[1]!s_nq_amount(A51,-5,$B$1,100000000)/5</f>
@@ -19523,27 +19521,27 @@
       </c>
       <c r="C52" s="12">
         <f>[1]!i_dq_close(A52,"")</f>
-        <v>11556.77</v>
+        <v>10661.22</v>
       </c>
       <c r="D52" s="4">
         <f>[1]!i_dq_pctchange(A52,$B$1)/100</f>
-        <v>5.9433398122816783E-3</v>
+        <v>-4.796221272146961E-3</v>
       </c>
       <c r="E52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$2,$B$1)/100</f>
-        <v>5.9433398122816783E-3</v>
+        <v>-4.796221272146961E-3</v>
       </c>
       <c r="F52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$3,$B$1)/100</f>
-        <v>2.0173477963037589E-2</v>
+        <v>-4.796221272146961E-3</v>
       </c>
       <c r="G52" s="4">
         <f>[1]!i_pq_pctchange(A52,$B$4,$B$1)/100</f>
-        <v>2.3348092126089792E-3</v>
+        <v>-7.5337493549352375E-2</v>
       </c>
       <c r="H52" s="12">
         <f>[1]!i_dq_amount(A52,$B$1)/100000000</f>
-        <v>120.0716</v>
+        <v>136.86269999999999</v>
       </c>
       <c r="I52" s="5">
         <f>[1]!s_nq_amount(A52,-5,$B$1,100000000)/5</f>
@@ -19559,31 +19557,31 @@
       </c>
       <c r="C53" s="12">
         <f>[1]!i_dq_close(A53,"")</f>
-        <v>7761.69</v>
+        <v>6989.19</v>
       </c>
       <c r="D53" s="4">
         <f>[1]!i_dq_pctchange(A53,$B$1)/100</f>
-        <v>-2.3444941021321108E-3</v>
+        <v>-1.7183701076723512E-2</v>
       </c>
       <c r="E53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$2,$B$1)/100</f>
-        <v>-2.3444941021321108E-3</v>
+        <v>-1.7183701076723512E-2</v>
       </c>
       <c r="F53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$3,$B$1)/100</f>
-        <v>4.44634631765497E-2</v>
+        <v>-1.7183701076723512E-2</v>
       </c>
       <c r="G53" s="4">
         <f>[1]!i_pq_pctchange(A53,$B$4,$B$1)/100</f>
-        <v>7.44161902520728E-2</v>
+        <v>-3.2517545438186191E-2</v>
       </c>
       <c r="H53" s="12">
         <f>[1]!i_dq_amount(A53,$B$1)/100000000</f>
-        <v>85.619299999999996</v>
+        <v>114.00109999999999</v>
       </c>
       <c r="I53" s="5">
         <f>[1]!s_nq_amount(A53,-5,$B$1,100000000)/5</f>
-        <v>105.89955999999999</v>
+        <v>117.30301999999999</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -19597,31 +19595,31 @@
       </c>
       <c r="C54" s="12">
         <f>[1]!i_dq_close(A54,"")</f>
-        <v>3409.1</v>
+        <v>3366.91</v>
       </c>
       <c r="D54" s="4">
         <f>[1]!i_dq_pctchange(A54,$B$1)/100</f>
-        <v>7.9802253622738295E-3</v>
+        <v>7.3631930108009058E-3</v>
       </c>
       <c r="E54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$2,$B$1)/100</f>
-        <v>7.9802253622738295E-3</v>
+        <v>7.3631930108009058E-3</v>
       </c>
       <c r="F54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$3,$B$1)/100</f>
-        <v>3.0303762961530145E-2</v>
+        <v>7.3631930108009058E-3</v>
       </c>
       <c r="G54" s="4">
         <f>[1]!i_pq_pctchange(A54,$B$4,$B$1)/100</f>
-        <v>-1.893861999303581E-2</v>
+        <v>-3.1079941638776254E-2</v>
       </c>
       <c r="H54" s="12">
         <f>[1]!i_dq_amount(A54,$B$1)/100000000</f>
-        <v>362.28769999999997</v>
+        <v>655.40840000000003</v>
       </c>
       <c r="I54" s="5">
         <f>[1]!s_nq_amount(A54,-5,$B$1,100000000)/5</f>
-        <v>396.41705999999999</v>
+        <v>500.58073999999999</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -19635,27 +19633,27 @@
       </c>
       <c r="C55" s="12">
         <f>[1]!i_dq_close(A55,"")</f>
-        <v>4428.8999999999996</v>
+        <v>4726.9799999999996</v>
       </c>
       <c r="D55" s="4">
         <f>[1]!i_dq_pctchange(A55,$B$1)/100</f>
-        <v>1.2942815125185358E-2</v>
+        <v>1.5563299488241533E-2</v>
       </c>
       <c r="E55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$2,$B$1)/100</f>
-        <v>1.2942815125185358E-2</v>
+        <v>1.5563299488241533E-2</v>
       </c>
       <c r="F55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$3,$B$1)/100</f>
-        <v>8.7089386832396767E-2</v>
+        <v>1.5563299488241533E-2</v>
       </c>
       <c r="G55" s="4">
         <f>[1]!i_pq_pctchange(A55,$B$4,$B$1)/100</f>
-        <v>5.9304703476482645E-2</v>
+        <v>0.13059950489721239</v>
       </c>
       <c r="H55" s="12">
         <f>[1]!i_dq_amount(A55,$B$1)/100000000</f>
-        <v>418.41410000000002</v>
+        <v>754.06110000000001</v>
       </c>
       <c r="I55" s="5">
         <f>[1]!s_nq_amount(A55,-5,$B$1,100000000)/5</f>
@@ -19673,27 +19671,27 @@
       </c>
       <c r="C56" s="12">
         <f>[1]!i_dq_close(A56,"")</f>
-        <v>5900.61</v>
+        <v>5833.04</v>
       </c>
       <c r="D56" s="4">
         <f>[1]!i_dq_pctchange(A56,$B$1)/100</f>
-        <v>7.0039269093125078E-3</v>
+        <v>1.6051518144399202E-2</v>
       </c>
       <c r="E56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$2,$B$1)/100</f>
-        <v>7.0039269093125078E-3</v>
+        <v>1.6051518144399202E-2</v>
       </c>
       <c r="F56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$3,$B$1)/100</f>
-        <v>3.8041154956485856E-2</v>
+        <v>1.6051518144399202E-2</v>
       </c>
       <c r="G56" s="4">
         <f>[1]!i_pq_pctchange(A56,$B$4,$B$1)/100</f>
-        <v>9.3325106449210229E-2</v>
+        <v>8.0805048786905184E-2</v>
       </c>
       <c r="H56" s="12">
         <f>[1]!i_dq_amount(A56,$B$1)/100000000</f>
-        <v>20.0534</v>
+        <v>26.255199999999999</v>
       </c>
       <c r="I56" s="5">
         <f>[1]!s_nq_amount(A56,-5,$B$1,100000000)/5</f>
@@ -19711,27 +19709,27 @@
       </c>
       <c r="C57" s="12">
         <f>[1]!i_dq_close(A57,"")</f>
-        <v>8310.1299999999992</v>
+        <v>8543.9599999999991</v>
       </c>
       <c r="D57" s="4">
         <f>[1]!i_dq_pctchange(A57,$B$1)/100</f>
-        <v>2.0234957294442912E-2</v>
+        <v>-1.5052285656855791E-3</v>
       </c>
       <c r="E57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$2,$B$1)/100</f>
-        <v>2.0234957294442912E-2</v>
+        <v>-1.5052285656855791E-3</v>
       </c>
       <c r="F57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$3,$B$1)/100</f>
-        <v>7.840015157059832E-2</v>
+        <v>-1.5052285656855791E-3</v>
       </c>
       <c r="G57" s="4">
         <f>[1]!i_pq_pctchange(A57,$B$4,$B$1)/100</f>
-        <v>2.9040530684369292E-2</v>
+        <v>5.7995618906806934E-2</v>
       </c>
       <c r="H57" s="12">
         <f>[1]!i_dq_amount(A57,$B$1)/100000000</f>
-        <v>294.9699</v>
+        <v>452.9237</v>
       </c>
       <c r="I57" s="5">
         <f>[1]!s_nq_amount(A57,-5,$B$1,100000000)/5</f>
@@ -19749,27 +19747,27 @@
       </c>
       <c r="C58" s="12">
         <f>[1]!i_dq_close(A58,"")</f>
-        <v>3206.53</v>
+        <v>3071.81</v>
       </c>
       <c r="D58" s="4">
         <f>[1]!i_dq_pctchange(A58,$B$1)/100</f>
-        <v>-2.1277439992186009E-2</v>
+        <v>-1.8456599371565741E-3</v>
       </c>
       <c r="E58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$2,$B$1)/100</f>
-        <v>-2.1277439992186009E-2</v>
+        <v>-1.8456599371565741E-3</v>
       </c>
       <c r="F58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$3,$B$1)/100</f>
-        <v>-3.8683159649354204E-2</v>
+        <v>-1.8456599371565741E-3</v>
       </c>
       <c r="G58" s="4">
         <f>[1]!i_pq_pctchange(A58,$B$4,$B$1)/100</f>
-        <v>-6.4267704770687217E-2</v>
+        <v>-0.1035818090557845</v>
       </c>
       <c r="H58" s="12">
         <f>[1]!i_dq_amount(A58,$B$1)/100000000</f>
-        <v>87.329899999999995</v>
+        <v>69.316500000000005</v>
       </c>
       <c r="I58" s="5">
         <f>[1]!s_nq_amount(A58,-5,$B$1,100000000)/5</f>
@@ -19787,27 +19785,27 @@
       </c>
       <c r="C59" s="12">
         <f>[1]!i_dq_close(A59,"")</f>
-        <v>5038.6099999999997</v>
+        <v>4796.22</v>
       </c>
       <c r="D59" s="4">
         <f>[1]!i_dq_pctchange(A59,$B$1)/100</f>
-        <v>-1.1907904268415592E-5</v>
+        <v>-1.6028576662392435E-3</v>
       </c>
       <c r="E59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$2,$B$1)/100</f>
-        <v>-1.1907904268415592E-5</v>
+        <v>-1.6028576662392435E-3</v>
       </c>
       <c r="F59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$3,$B$1)/100</f>
-        <v>3.7964122678356693E-2</v>
+        <v>-1.6028576662392435E-3</v>
       </c>
       <c r="G59" s="4">
         <f>[1]!i_pq_pctchange(A59,$B$4,$B$1)/100</f>
-        <v>-3.1302930155745701E-2</v>
+        <v>-7.7903576516457962E-2</v>
       </c>
       <c r="H59" s="12">
         <f>[1]!i_dq_amount(A59,$B$1)/100000000</f>
-        <v>131.29429999999999</v>
+        <v>166.80420000000001</v>
       </c>
       <c r="I59" s="5">
         <f>[1]!s_nq_amount(A59,-5,$B$1,100000000)/5</f>
@@ -19825,27 +19823,27 @@
       </c>
       <c r="C60" s="12">
         <f>[1]!i_dq_close(A60,"")</f>
-        <v>927.22</v>
+        <v>908.58</v>
       </c>
       <c r="D60" s="4">
         <f>[1]!i_dq_pctchange(A60,$B$1)/100</f>
-        <v>1.7285711198979925E-3</v>
+        <v>-3.7172275403796196E-3</v>
       </c>
       <c r="E60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$2,$B$1)/100</f>
-        <v>1.7285711198979925E-3</v>
+        <v>-3.7172275403796196E-3</v>
       </c>
       <c r="F60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$3,$B$1)/100</f>
-        <v>3.1769169995660373E-2</v>
+        <v>-3.7172275403796196E-3</v>
       </c>
       <c r="G60" s="4">
         <f>[1]!i_pq_pctchange(A60,$B$4,$B$1)/100</f>
-        <v>-1.7333634787851659E-3</v>
+        <v>-2.18016213946578E-2</v>
       </c>
       <c r="H60" s="12">
         <f>[1]!i_dq_amount(A60,$B$1)/100000000</f>
-        <v>208.1095</v>
+        <v>239.36060000000001</v>
       </c>
       <c r="I60" s="5">
         <f>[1]!s_nq_amount(A60,-5,$B$1,100000000)/5</f>
@@ -19863,27 +19861,27 @@
       </c>
       <c r="C61" s="12">
         <f>[1]!i_dq_close(A61,"")</f>
-        <v>2651.75</v>
+        <v>2683.37</v>
       </c>
       <c r="D61" s="4">
         <f>[1]!i_dq_pctchange(A61,$B$1)/100</f>
-        <v>5.2389563028587549E-3</v>
+        <v>4.4168784647229398E-3</v>
       </c>
       <c r="E61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$2,$B$1)/100</f>
-        <v>5.2389563028587549E-3</v>
+        <v>4.4168784647229398E-3</v>
       </c>
       <c r="F61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$3,$B$1)/100</f>
-        <v>3.0442098227643433E-2</v>
+        <v>4.4168784647229398E-3</v>
       </c>
       <c r="G61" s="4">
         <f>[1]!i_pq_pctchange(A61,$B$4,$B$1)/100</f>
-        <v>-5.237785528459938E-2</v>
+        <v>-4.1078218359587249E-2</v>
       </c>
       <c r="H61" s="12">
         <f>[1]!i_dq_amount(A61,$B$1)/100000000</f>
-        <v>151.5384</v>
+        <v>270.36739999999998</v>
       </c>
       <c r="I61" s="5">
         <f>[1]!s_nq_amount(A61,-5,$B$1,100000000)/5</f>
@@ -19901,27 +19899,27 @@
       </c>
       <c r="C62" s="12">
         <f>[1]!i_dq_close(A62,"")</f>
-        <v>2942.92</v>
+        <v>2881.11</v>
       </c>
       <c r="D62" s="4">
         <f>[1]!i_dq_pctchange(A62,$B$1)/100</f>
-        <v>6.3582734057554546E-4</v>
+        <v>-3.758670530224939E-3</v>
       </c>
       <c r="E62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$2,$B$1)/100</f>
-        <v>6.3582734057554546E-4</v>
+        <v>-3.758670530224939E-3</v>
       </c>
       <c r="F62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$3,$B$1)/100</f>
-        <v>1.6570234373650683E-2</v>
+        <v>-3.758670530224939E-3</v>
       </c>
       <c r="G62" s="4">
         <f>[1]!i_pq_pctchange(A62,$B$4,$B$1)/100</f>
-        <v>-1.171998307486688E-2</v>
+        <v>-3.2476778314337373E-2</v>
       </c>
       <c r="H62" s="12">
         <f>[1]!i_dq_amount(A62,$B$1)/100000000</f>
-        <v>65.624899999999997</v>
+        <v>79.8459</v>
       </c>
       <c r="I62" s="5">
         <f>[1]!s_nq_amount(A62,-5,$B$1,100000000)/5</f>
@@ -19939,27 +19937,27 @@
       </c>
       <c r="C63" s="12">
         <f>[1]!i_dq_close(A63,"")</f>
-        <v>4893.8999999999996</v>
+        <v>4860.47</v>
       </c>
       <c r="D63" s="4">
         <f>[1]!i_dq_pctchange(A63,$B$1)/100</f>
-        <v>-1.5486191579760611E-2</v>
+        <v>1.6816732648985422E-3</v>
       </c>
       <c r="E63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$2,$B$1)/100</f>
-        <v>-1.5486191579760611E-2</v>
+        <v>1.6816732648985422E-3</v>
       </c>
       <c r="F63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$3,$B$1)/100</f>
-        <v>-9.6467317067248093E-3</v>
+        <v>1.6816732648985422E-3</v>
       </c>
       <c r="G63" s="4">
         <f>[1]!i_pq_pctchange(A63,$B$4,$B$1)/100</f>
-        <v>-3.3581853987159072E-3</v>
+        <v>-1.0166198611515576E-2</v>
       </c>
       <c r="H63" s="12">
         <f>[1]!i_dq_amount(A63,$B$1)/100000000</f>
-        <v>160.89850000000001</v>
+        <v>195.87809999999999</v>
       </c>
       <c r="I63" s="5">
         <f>[1]!s_nq_amount(A63,-5,$B$1,100000000)/5</f>
@@ -19977,31 +19975,31 @@
       </c>
       <c r="C64" s="12">
         <f>[1]!i_dq_close(A64,"")</f>
-        <v>2686.04</v>
+        <v>2618</v>
       </c>
       <c r="D64" s="4">
         <f>[1]!i_dq_pctchange(A64,$B$1)/100</f>
-        <v>-1.7244711374075905E-3</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="E64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$2,$B$1)/100</f>
-        <v>-1.7244711374075905E-3</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="F64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$3,$B$1)/100</f>
-        <v>2.4764128448417244E-2</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="G64" s="4">
         <f>[1]!i_pq_pctchange(A64,$B$4,$B$1)/100</f>
-        <v>-1.5817764114890442E-2</v>
+        <v>-4.0748055298053254E-2</v>
       </c>
       <c r="H64" s="12">
         <f>[1]!i_dq_amount(A64,$B$1)/100000000</f>
-        <v>31.8491</v>
+        <v>46.908900000000003</v>
       </c>
       <c r="I64" s="5">
         <f>[1]!s_nq_amount(A64,-5,$B$1,100000000)/5</f>
-        <v>38.150819999999996</v>
+        <v>41.084040000000002</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -20015,27 +20013,27 @@
       </c>
       <c r="C65" s="12">
         <f>[1]!i_dq_close(A65,"")</f>
-        <v>3146.36</v>
+        <v>3079.85</v>
       </c>
       <c r="D65" s="4">
         <f>[1]!i_dq_pctchange(A65,$B$1)/100</f>
-        <v>-9.3671312128684736E-4</v>
+        <v>1.1930381187057471E-3</v>
       </c>
       <c r="E65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$2,$B$1)/100</f>
-        <v>-9.3671312128684736E-4</v>
+        <v>1.1930381187057471E-3</v>
       </c>
       <c r="F65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$3,$B$1)/100</f>
-        <v>1.3686096111963142E-2</v>
+        <v>1.1930381187057471E-3</v>
       </c>
       <c r="G65" s="4">
         <f>[1]!i_pq_pctchange(A65,$B$4,$B$1)/100</f>
-        <v>-1.2937633329150433E-2</v>
+        <v>-3.3802861086711045E-2</v>
       </c>
       <c r="H65" s="12">
         <f>[1]!i_dq_amount(A65,$B$1)/100000000</f>
-        <v>271.01670000000001</v>
+        <v>313.89769999999999</v>
       </c>
       <c r="I65" s="5">
         <f>[1]!s_nq_amount(A65,-5,$B$1,100000000)/5</f>
@@ -20053,27 +20051,27 @@
       </c>
       <c r="C66" s="12">
         <f>[1]!i_dq_close(A66,"")</f>
-        <v>1373.31</v>
+        <v>1364.45</v>
       </c>
       <c r="D66" s="4">
         <f>[1]!i_dq_pctchange(A66,$B$1)/100</f>
-        <v>1.7141273268366231E-3</v>
+        <v>6.8107023213943574E-3</v>
       </c>
       <c r="E66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$2,$B$1)/100</f>
-        <v>1.7141273268366231E-3</v>
+        <v>6.8107023213943574E-3</v>
       </c>
       <c r="F66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$3,$B$1)/100</f>
-        <v>2.5669559502292882E-2</v>
+        <v>6.8107023213943574E-3</v>
       </c>
       <c r="G66" s="4">
         <f>[1]!i_pq_pctchange(A66,$B$4,$B$1)/100</f>
-        <v>-5.8293104394097295E-2</v>
+        <v>-6.4368588512809133E-2</v>
       </c>
       <c r="H66" s="12">
         <f>[1]!i_dq_amount(A66,$B$1)/100000000</f>
-        <v>173.61150000000001</v>
+        <v>293.04410000000001</v>
       </c>
       <c r="I66" s="5">
         <f>[1]!s_nq_amount(A66,-5,$B$1,100000000)/5</f>
@@ -20091,31 +20089,31 @@
       </c>
       <c r="C67" s="12">
         <f>[1]!i_dq_close(A67,"")</f>
-        <v>2725.86</v>
+        <v>2748.5</v>
       </c>
       <c r="D67" s="4">
         <f>[1]!i_dq_pctchange(A67,$B$1)/100</f>
-        <v>-9.0880670045003775E-3</v>
+        <v>1.2275474463845804E-2</v>
       </c>
       <c r="E67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$2,$B$1)/100</f>
-        <v>-9.0880670045003775E-3</v>
+        <v>1.2275474463845804E-2</v>
       </c>
       <c r="F67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$3,$B$1)/100</f>
-        <v>1.2415150891833537E-3</v>
+        <v>1.2275474463845804E-2</v>
       </c>
       <c r="G67" s="4">
         <f>[1]!i_pq_pctchange(A67,$B$4,$B$1)/100</f>
-        <v>-7.0509847782202928E-2</v>
+        <v>-6.2789841235201038E-2</v>
       </c>
       <c r="H67" s="12">
         <f>[1]!i_dq_amount(A67,$B$1)/100000000</f>
-        <v>57.137799999999999</v>
+        <v>111.0615</v>
       </c>
       <c r="I67" s="5">
         <f>[1]!s_nq_amount(A67,-5,$B$1,100000000)/5</f>
-        <v>60.66516</v>
+        <v>102.50698</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -20129,27 +20127,27 @@
       </c>
       <c r="C68" s="12">
         <f>[1]!i_dq_close(A68,"")</f>
-        <v>2504.54</v>
+        <v>2469.1</v>
       </c>
       <c r="D68" s="4">
         <f>[1]!i_dq_pctchange(A68,$B$1)/100</f>
-        <v>-4.1036081531378166E-3</v>
+        <v>2.5458517234238087E-3</v>
       </c>
       <c r="E68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$2,$B$1)/100</f>
-        <v>-4.1036081531378166E-3</v>
+        <v>2.5458517234238087E-3</v>
       </c>
       <c r="F68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$3,$B$1)/100</f>
-        <v>8.1715132193347362E-3</v>
+        <v>2.5458517234238087E-3</v>
       </c>
       <c r="G68" s="4">
         <f>[1]!i_pq_pctchange(A68,$B$4,$B$1)/100</f>
-        <v>-9.5869839103862375E-2</v>
+        <v>-0.10866355487688217</v>
       </c>
       <c r="H68" s="12">
         <f>[1]!i_dq_amount(A68,$B$1)/100000000</f>
-        <v>51.954099999999997</v>
+        <v>46.478000000000002</v>
       </c>
       <c r="I68" s="5">
         <f>[1]!s_nq_amount(A68,-5,$B$1,100000000)/5</f>
@@ -20167,27 +20165,27 @@
       </c>
       <c r="C69" s="12">
         <f>[1]!i_dq_close(A69,"")</f>
-        <v>2840.61</v>
+        <v>2747.97</v>
       </c>
       <c r="D69" s="4">
         <f>[1]!i_dq_pctchange(A69,$B$1)/100</f>
-        <v>-7.6991598693517682E-3</v>
+        <v>-3.1342845016162357E-3</v>
       </c>
       <c r="E69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$2,$B$1)/100</f>
-        <v>-7.6991598693517682E-3</v>
+        <v>-3.1342845016162357E-3</v>
       </c>
       <c r="F69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$3,$B$1)/100</f>
-        <v>-6.7206792012112215E-3</v>
+        <v>-3.1342845016162357E-3</v>
       </c>
       <c r="G69" s="4">
         <f>[1]!i_pq_pctchange(A69,$B$4,$B$1)/100</f>
-        <v>-2.3130332511425822E-2</v>
+        <v>-5.4988703071320311E-2</v>
       </c>
       <c r="H69" s="12">
         <f>[1]!i_dq_amount(A69,$B$1)/100000000</f>
-        <v>93.131699999999995</v>
+        <v>106.26600000000001</v>
       </c>
       <c r="I69" s="5">
         <f>[1]!s_nq_amount(A69,-5,$B$1,100000000)/5</f>
@@ -20205,31 +20203,31 @@
       </c>
       <c r="C70" s="12">
         <f>[1]!i_dq_close(A70,"")</f>
-        <v>4396.93</v>
+        <v>4364.26</v>
       </c>
       <c r="D70" s="4">
         <f>[1]!i_dq_pctchange(A70,$B$1)/100</f>
-        <v>4.1266448345005369E-3</v>
+        <v>7.3259904166627088E-3</v>
       </c>
       <c r="E70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$2,$B$1)/100</f>
-        <v>4.1266448345005369E-3</v>
+        <v>7.3259904166627088E-3</v>
       </c>
       <c r="F70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$3,$B$1)/100</f>
-        <v>3.9050684361766397E-2</v>
+        <v>7.3259904166627088E-3</v>
       </c>
       <c r="G70" s="4">
         <f>[1]!i_pq_pctchange(A70,$B$4,$B$1)/100</f>
-        <v>-6.5455613547525937E-3</v>
+        <v>-1.3927110870105341E-2</v>
       </c>
       <c r="H70" s="12">
         <f>[1]!i_dq_amount(A70,$B$1)/100000000</f>
-        <v>78.5548</v>
+        <v>108.87390000000001</v>
       </c>
       <c r="I70" s="5">
         <f>[1]!s_nq_amount(A70,-5,$B$1,100000000)/5</f>
-        <v>84.064040000000006</v>
+        <v>95.994860000000003</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -20243,27 +20241,27 @@
       </c>
       <c r="C71" s="12">
         <f>[1]!i_dq_close(A71,"")</f>
-        <v>3086.11</v>
+        <v>2916.57</v>
       </c>
       <c r="D71" s="4">
         <f>[1]!i_dq_pctchange(A71,$B$1)/100</f>
-        <v>-2.5978247833304935E-2</v>
+        <v>-6.9553895703411417E-4</v>
       </c>
       <c r="E71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$2,$B$1)/100</f>
-        <v>-2.5978247833304935E-2</v>
+        <v>-6.9553895703411417E-4</v>
       </c>
       <c r="F71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$3,$B$1)/100</f>
-        <v>-7.9987002223931403E-2</v>
+        <v>-6.9553895703411417E-4</v>
       </c>
       <c r="G71" s="4">
         <f>[1]!i_pq_pctchange(A71,$B$4,$B$1)/100</f>
-        <v>-2.9078126464002763E-3</v>
+        <v>-5.7684541098700803E-2</v>
       </c>
       <c r="H71" s="12">
         <f>[1]!i_dq_amount(A71,$B$1)/100000000</f>
-        <v>71.527199999999993</v>
+        <v>62.644100000000002</v>
       </c>
       <c r="I71" s="5">
         <f>[1]!s_nq_amount(A71,-5,$B$1,100000000)/5</f>
@@ -20281,27 +20279,27 @@
       </c>
       <c r="C72" s="12">
         <f>[1]!i_dq_close(A72,"")</f>
-        <v>5123.18</v>
+        <v>5110.83</v>
       </c>
       <c r="D72" s="4">
         <f>[1]!i_dq_pctchange(A72,$B$1)/100</f>
-        <v>1.2410027302061089E-3</v>
+        <v>-2.8057386916828797E-3</v>
       </c>
       <c r="E72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$2,$B$1)/100</f>
-        <v>1.2410027302061089E-3</v>
+        <v>-2.8057386916828797E-3</v>
       </c>
       <c r="F72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$3,$B$1)/100</f>
-        <v>4.2366656832724781E-2</v>
+        <v>-2.8057386916828797E-3</v>
       </c>
       <c r="G72" s="4">
         <f>[1]!i_pq_pctchange(A72,$B$4,$B$1)/100</f>
-        <v>-4.8054554238358908E-2</v>
+        <v>-5.0349325504478133E-2</v>
       </c>
       <c r="H72" s="12">
         <f>[1]!i_dq_amount(A72,$B$1)/100000000</f>
-        <v>146.26310000000001</v>
+        <v>206.22309999999999</v>
       </c>
       <c r="I72" s="5">
         <f>[1]!s_nq_amount(A72,-5,$B$1,100000000)/5</f>
@@ -20319,27 +20317,27 @@
       </c>
       <c r="C73" s="12">
         <f>[1]!i_dq_close(A73,"")</f>
-        <v>2837.16</v>
+        <v>2806</v>
       </c>
       <c r="D73" s="4">
         <f>[1]!i_dq_pctchange(A73,$B$1)/100</f>
-        <v>-1.7978587537426094E-3</v>
+        <v>-4.9512180352562218E-4</v>
       </c>
       <c r="E73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$2,$B$1)/100</f>
-        <v>-1.7978587537426094E-3</v>
+        <v>-4.9512180352562218E-4</v>
       </c>
       <c r="F73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$3,$B$1)/100</f>
-        <v>-4.7566930459672641E-3</v>
+        <v>-4.9512180352562218E-4</v>
       </c>
       <c r="G73" s="4">
         <f>[1]!i_pq_pctchange(A73,$B$4,$B$1)/100</f>
-        <v>-5.9814558300139813E-2</v>
+        <v>-7.0140439943532362E-2</v>
       </c>
       <c r="H73" s="12">
         <f>[1]!i_dq_amount(A73,$B$1)/100000000</f>
-        <v>77.383499999999998</v>
+        <v>116.3198</v>
       </c>
       <c r="I73" s="5">
         <f>[1]!s_nq_amount(A73,-5,$B$1,100000000)/5</f>
@@ -20357,27 +20355,27 @@
       </c>
       <c r="C74" s="12">
         <f>[1]!i_dq_close(A74,"")</f>
-        <v>2528.84</v>
+        <v>2486.4899999999998</v>
       </c>
       <c r="D74" s="4">
         <f>[1]!i_dq_pctchange(A74,$B$1)/100</f>
-        <v>2.3862185966496696E-3</v>
+        <v>-2.4232406430415576E-3</v>
       </c>
       <c r="E74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$2,$B$1)/100</f>
-        <v>2.3862185966496696E-3</v>
+        <v>-2.4232406430415576E-3</v>
       </c>
       <c r="F74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$3,$B$1)/100</f>
-        <v>2.2695654987220593E-2</v>
+        <v>-2.4232406430415576E-3</v>
       </c>
       <c r="G74" s="4">
         <f>[1]!i_pq_pctchange(A74,$B$4,$B$1)/100</f>
-        <v>-5.6962473756241645E-2</v>
+        <v>-7.2755342912227627E-2</v>
       </c>
       <c r="H74" s="12">
         <f>[1]!i_dq_amount(A74,$B$1)/100000000</f>
-        <v>104.88339999999999</v>
+        <v>141.93260000000001</v>
       </c>
       <c r="I74" s="5">
         <f>[1]!s_nq_amount(A74,-5,$B$1,100000000)/5</f>
@@ -20395,27 +20393,27 @@
       </c>
       <c r="C75" s="12">
         <f>[1]!i_dq_close(A75,"")</f>
-        <v>4012.32</v>
+        <v>3903.87</v>
       </c>
       <c r="D75" s="4">
         <f>[1]!i_dq_pctchange(A75,$B$1)/100</f>
-        <v>-2.9570947910401157E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="E75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$2,$B$1)/100</f>
-        <v>-2.9570947910401157E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="F75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$3,$B$1)/100</f>
-        <v>8.8151139226502195E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="G75" s="4">
         <f>[1]!i_pq_pctchange(A75,$B$4,$B$1)/100</f>
-        <v>-3.2231454793231862E-2</v>
+        <v>-5.8389512656930265E-2</v>
       </c>
       <c r="H75" s="12">
         <f>[1]!i_dq_amount(A75,$B$1)/100000000</f>
-        <v>261.4024</v>
+        <v>358.99650000000003</v>
       </c>
       <c r="I75" s="5">
         <f>[1]!s_nq_amount(A75,-5,$B$1,100000000)/5</f>
@@ -20433,27 +20431,27 @@
       </c>
       <c r="C76" s="12">
         <f>[1]!i_dq_close(A76,"")</f>
-        <v>6096.32</v>
+        <v>5924.69</v>
       </c>
       <c r="D76" s="4">
         <f>[1]!i_dq_pctchange(A76,$B$1)/100</f>
-        <v>-1.3567587946609949E-2</v>
+        <v>1.5192976118316714E-4</v>
       </c>
       <c r="E76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$2,$B$1)/100</f>
-        <v>-1.3567587946609949E-2</v>
+        <v>1.5192976118316714E-4</v>
       </c>
       <c r="F76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$3,$B$1)/100</f>
-        <v>4.0334746312261416E-2</v>
+        <v>1.5192976118316714E-4</v>
       </c>
       <c r="G76" s="4">
         <f>[1]!i_pq_pctchange(A76,$B$4,$B$1)/100</f>
-        <v>1.5653842821823361E-2</v>
+        <v>-1.2939910301947966E-2</v>
       </c>
       <c r="H76" s="12">
         <f>[1]!i_dq_amount(A76,$B$1)/100000000</f>
-        <v>118.4174</v>
+        <v>109.85339999999999</v>
       </c>
       <c r="I76" s="5">
         <f>[1]!s_nq_amount(A76,-5,$B$1,100000000)/5</f>
@@ -20471,27 +20469,27 @@
       </c>
       <c r="C77" s="12">
         <f>[1]!i_dq_close(A77,"")</f>
-        <v>1195.19</v>
+        <v>1286.79</v>
       </c>
       <c r="D77" s="4">
         <f>[1]!i_dq_pctchange(A77,$B$1)/100</f>
-        <v>8.7353566726309229E-3</v>
+        <v>2.4661177557293357E-2</v>
       </c>
       <c r="E77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$2,$B$1)/100</f>
-        <v>8.7353566726309229E-3</v>
+        <v>2.4661177557293357E-2</v>
       </c>
       <c r="F77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$3,$B$1)/100</f>
-        <v>1.6136574251196745E-2</v>
+        <v>2.4661177557293357E-2</v>
       </c>
       <c r="G77" s="4">
         <f>[1]!i_pq_pctchange(A77,$B$4,$B$1)/100</f>
-        <v>-6.9326127922007097E-2</v>
+        <v>2.0012147451371476E-3</v>
       </c>
       <c r="H77" s="12">
         <f>[1]!i_dq_amount(A77,$B$1)/100000000</f>
-        <v>52.874899999999997</v>
+        <v>187.42089999999999</v>
       </c>
       <c r="I77" s="5">
         <f>[1]!s_nq_amount(A77,-5,$B$1,100000000)/5</f>
@@ -20575,31 +20573,31 @@
       </c>
       <c r="C85" s="12">
         <f>[1]!i_dq_close(A85,"")</f>
-        <v>1523.7116000000001</v>
+        <v>1596.8620000000001</v>
       </c>
       <c r="D85" s="4">
         <f>[1]!i_dq_pctchange(A85,$B$1)/100</f>
-        <v>1.1920004138765927E-2</v>
+        <v>1.2705446511372287E-2</v>
       </c>
       <c r="E85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$2,$B$1)/100</f>
-        <v>1.1920004138765927E-2</v>
+        <v>1.2705446511372287E-2</v>
       </c>
       <c r="F85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$3,$B$1)/100</f>
-        <v>5.248617487010665E-2</v>
+        <v>1.2705446511372287E-2</v>
       </c>
       <c r="G85" s="4">
         <f>[1]!i_pq_pctchange(A85,$B$4,$B$1)/100</f>
-        <v>-2.8534795907470101E-2</v>
+        <v>1.8103339724922618E-2</v>
       </c>
       <c r="H85" s="12">
         <f>[1]!i_dq_amount(A85,$B$1)/100000000</f>
-        <v>31.86346898</v>
+        <v>48.932729960000003</v>
       </c>
       <c r="I85" s="5">
         <f>[1]!s_nq_amount(A85,-5,$B$1,100000000)/5</f>
-        <v>37.876219839999997</v>
+        <v>42.548901158</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -20611,31 +20609,31 @@
       </c>
       <c r="C86" s="12">
         <f>[1]!i_dq_close(A86,"")</f>
-        <v>9778.6736000000001</v>
+        <v>9565.2081999999991</v>
       </c>
       <c r="D86" s="4">
         <f>[1]!i_dq_pctchange(A86,$B$1)/100</f>
-        <v>-1.2740391035515053E-4</v>
+        <v>5.5932370012450328E-3</v>
       </c>
       <c r="E86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$2,$B$1)/100</f>
-        <v>-1.2740391035515053E-4</v>
+        <v>5.5932370012450328E-3</v>
       </c>
       <c r="F86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$3,$B$1)/100</f>
-        <v>4.4413380502363431E-2</v>
+        <v>5.5932370012450328E-3</v>
       </c>
       <c r="G86" s="4">
         <f>[1]!i_pq_pctchange(A86,$B$4,$B$1)/100</f>
-        <v>-4.0836331535066162E-2</v>
+        <v>-6.1774575772437501E-2</v>
       </c>
       <c r="H86" s="12">
         <f>[1]!i_dq_amount(A86,$B$1)/100000000</f>
-        <v>96.825758680000007</v>
+        <v>133.79121526</v>
       </c>
       <c r="I86" s="5">
         <f>[1]!s_nq_amount(A86,-5,$B$1,100000000)/5</f>
-        <v>113.51901382200001</v>
+        <v>118.13310943399999</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -20647,31 +20645,31 @@
       </c>
       <c r="C87" s="12">
         <f>[1]!i_dq_close(A87,"")</f>
-        <v>2305.5414000000001</v>
+        <v>2342.2743</v>
       </c>
       <c r="D87" s="4">
         <f>[1]!i_dq_pctchange(A87,$B$1)/100</f>
-        <v>-2.1916334134767235E-3</v>
+        <v>1.1325432015737436E-2</v>
       </c>
       <c r="E87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$2,$B$1)/100</f>
-        <v>-2.1916334134767235E-3</v>
+        <v>1.1325432015737436E-2</v>
       </c>
       <c r="F87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$3,$B$1)/100</f>
-        <v>2.8072267790380856E-2</v>
+        <v>1.1325432015737436E-2</v>
       </c>
       <c r="G87" s="4">
         <f>[1]!i_pq_pctchange(A87,$B$4,$B$1)/100</f>
-        <v>-6.4640251196887988E-2</v>
+        <v>-4.9737688130004898E-2</v>
       </c>
       <c r="H87" s="12">
         <f>[1]!i_dq_amount(A87,$B$1)/100000000</f>
-        <v>72.495064920000004</v>
+        <v>101.18991678</v>
       </c>
       <c r="I87" s="5">
         <f>[1]!s_nq_amount(A87,-5,$B$1,100000000)/5</f>
-        <v>84.020970239999997</v>
+        <v>87.996543036000006</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -20683,31 +20681,31 @@
       </c>
       <c r="C88" s="12">
         <f>[1]!i_dq_close(A88,"")</f>
-        <v>3410.5399000000002</v>
+        <v>3457.0497999999998</v>
       </c>
       <c r="D88" s="4">
         <f>[1]!i_dq_pctchange(A88,$B$1)/100</f>
-        <v>2.8530021294104202E-5</v>
+        <v>9.5136751798561292E-3</v>
       </c>
       <c r="E88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$2,$B$1)/100</f>
-        <v>2.8530021294104202E-5</v>
+        <v>9.5136751798561292E-3</v>
       </c>
       <c r="F88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$3,$B$1)/100</f>
-        <v>8.6263713461094405E-2</v>
+        <v>9.5136751798561292E-3</v>
       </c>
       <c r="G88" s="4">
         <f>[1]!i_pq_pctchange(A88,$B$4,$B$1)/100</f>
-        <v>7.0337099047249607E-2</v>
+        <v>8.4933401363776362E-2</v>
       </c>
       <c r="H88" s="12">
         <f>[1]!i_dq_amount(A88,$B$1)/100000000</f>
-        <v>83.034603239999996</v>
+        <v>129.07275139000001</v>
       </c>
       <c r="I88" s="5">
         <f>[1]!s_nq_amount(A88,-5,$B$1,100000000)/5</f>
-        <v>105.566236172</v>
+        <v>114.609424064</v>
       </c>
       <c r="J88" s="6"/>
     </row>
@@ -20720,31 +20718,31 @@
       </c>
       <c r="C89" s="12">
         <f>[1]!i_dq_close(A89,"")</f>
-        <v>1922.5931</v>
+        <v>1925.4011</v>
       </c>
       <c r="D89" s="4">
         <f>[1]!i_dq_pctchange(A89,$B$1)/100</f>
-        <v>3.9136900565923671E-3</v>
+        <v>9.5225067183490886E-3</v>
       </c>
       <c r="E89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$2,$B$1)/100</f>
-        <v>3.9136900565923671E-3</v>
+        <v>9.5225067183490886E-3</v>
       </c>
       <c r="F89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$3,$B$1)/100</f>
-        <v>2.6945477364173076E-2</v>
+        <v>9.5225067183490886E-3</v>
       </c>
       <c r="G89" s="4">
         <f>[1]!i_pq_pctchange(A89,$B$4,$B$1)/100</f>
-        <v>-5.8826354307769509E-2</v>
+        <v>-5.7451744361908474E-2</v>
       </c>
       <c r="H89" s="12">
         <f>[1]!i_dq_amount(A89,$B$1)/100000000</f>
-        <v>12.11907972</v>
+        <v>18.49023549</v>
       </c>
       <c r="I89" s="5">
         <f>[1]!s_nq_amount(A89,-5,$B$1,100000000)/5</f>
-        <v>10.534500694</v>
+        <v>19.784553410000001</v>
       </c>
       <c r="J89" s="6"/>
     </row>
@@ -20757,31 +20755,31 @@
       </c>
       <c r="C90" s="12">
         <f>[1]!i_dq_close(A90,"")</f>
-        <v>6181.9314999999997</v>
+        <v>6195.2683999999999</v>
       </c>
       <c r="D90" s="4">
         <f>[1]!i_dq_pctchange(A90,$B$1)/100</f>
-        <v>1.3218883239472623E-2</v>
+        <v>1.1022408459151034E-2</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$2,$B$1)/100</f>
-        <v>1.3218883239472623E-2</v>
+        <v>1.1022408459151034E-2</v>
       </c>
       <c r="F90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$3,$B$1)/100</f>
-        <v>6.8778305779858773E-2</v>
+        <v>1.1022408459151034E-2</v>
       </c>
       <c r="G90" s="4">
         <f>[1]!i_pq_pctchange(A90,$B$4,$B$1)/100</f>
-        <v>-3.9107200390554042E-2</v>
+        <v>-3.7034170112054232E-2</v>
       </c>
       <c r="H90" s="12">
         <f>[1]!i_dq_amount(A90,$B$1)/100000000</f>
-        <v>99.627331029999993</v>
+        <v>142.05788383999999</v>
       </c>
       <c r="I90" s="5">
         <f>[1]!s_nq_amount(A90,-5,$B$1,100000000)/5</f>
-        <v>109.58131779800001</v>
+        <v>118.66579470399999</v>
       </c>
       <c r="J90" s="6"/>
     </row>
@@ -20794,31 +20792,31 @@
       </c>
       <c r="C91" s="12">
         <f>[1]!i_dq_close(A91,"")</f>
-        <v>6780.0393000000004</v>
+        <v>6719.4422000000004</v>
       </c>
       <c r="D91" s="4">
         <f>[1]!i_dq_pctchange(A91,$B$1)/100</f>
-        <v>4.939322248837863E-3</v>
+        <v>-1.2940112721946395E-3</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$2,$B$1)/100</f>
-        <v>4.939322248837863E-3</v>
+        <v>-1.2940112721946395E-3</v>
       </c>
       <c r="F91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$3,$B$1)/100</f>
-        <v>3.1214138709543704E-2</v>
+        <v>-1.2940112721946395E-3</v>
       </c>
       <c r="G91" s="4">
         <f>[1]!i_pq_pctchange(A91,$B$4,$B$1)/100</f>
-        <v>-1.5562573253408263E-2</v>
+        <v>-2.4361055172577362E-2</v>
       </c>
       <c r="H91" s="12">
         <f>[1]!i_dq_amount(A91,$B$1)/100000000</f>
-        <v>59.145228709999998</v>
+        <v>76.156201449999998</v>
       </c>
       <c r="I91" s="5">
         <f>[1]!s_nq_amount(A91,-5,$B$1,100000000)/5</f>
-        <v>67.999137227999995</v>
+        <v>69.659188516</v>
       </c>
       <c r="J91" s="6"/>
     </row>
@@ -20831,31 +20829,31 @@
       </c>
       <c r="C92" s="12">
         <f>[1]!i_dq_close(A92,"")</f>
-        <v>2894.2121000000002</v>
+        <v>3093.6819</v>
       </c>
       <c r="D92" s="4">
         <f>[1]!i_dq_pctchange(A92,$B$1)/100</f>
-        <v>8.1766399461380423E-3</v>
+        <v>2.183290884702993E-2</v>
       </c>
       <c r="E92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$2,$B$1)/100</f>
-        <v>8.1766399461380423E-3</v>
+        <v>2.183290884702993E-2</v>
       </c>
       <c r="F92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$3,$B$1)/100</f>
-        <v>5.6267679052170338E-2</v>
+        <v>2.183290884702993E-2</v>
       </c>
       <c r="G92" s="4">
         <f>[1]!i_pq_pctchange(A92,$B$4,$B$1)/100</f>
-        <v>-4.0419960229084777E-2</v>
+        <v>2.571452888354675E-2</v>
       </c>
       <c r="H92" s="12">
         <f>[1]!i_dq_amount(A92,$B$1)/100000000</f>
-        <v>99.324524420000003</v>
+        <v>231.38442309000001</v>
       </c>
       <c r="I92" s="5">
         <f>[1]!s_nq_amount(A92,-5,$B$1,100000000)/5</f>
-        <v>107.446627096</v>
+        <v>173.08234098200001</v>
       </c>
       <c r="J92" s="6"/>
     </row>
@@ -20868,31 +20866,31 @@
       </c>
       <c r="C93" s="12">
         <f>[1]!i_dq_close(A93,"")</f>
-        <v>5524.1448</v>
+        <v>6172.6698999999999</v>
       </c>
       <c r="D93" s="4">
         <f>[1]!i_dq_pctchange(A93,$B$1)/100</f>
-        <v>1.8906979772533639E-2</v>
+        <v>2.9360728967116279E-2</v>
       </c>
       <c r="E93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$2,$B$1)/100</f>
-        <v>1.8906979772533639E-2</v>
+        <v>2.9360728967116279E-2</v>
       </c>
       <c r="F93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$3,$B$1)/100</f>
-        <v>0.10480410190770705</v>
+        <v>2.9360728967116279E-2</v>
       </c>
       <c r="G93" s="4">
         <f>[1]!i_pq_pctchange(A93,$B$4,$B$1)/100</f>
-        <v>5.3146872504584719E-2</v>
+        <v>0.1767845043070175</v>
       </c>
       <c r="H93" s="12">
         <f>[1]!i_dq_amount(A93,$B$1)/100000000</f>
-        <v>110.68559801000001</v>
+        <v>187.70319330000001</v>
       </c>
       <c r="I93" s="5">
         <f>[1]!s_nq_amount(A93,-5,$B$1,100000000)/5</f>
-        <v>108.53487551999999</v>
+        <v>150.34179583400001</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -20906,31 +20904,31 @@
       </c>
       <c r="C94" s="12">
         <f>[1]!i_dq_close(A94,"")</f>
-        <v>1757.1195</v>
+        <v>1834.3859</v>
       </c>
       <c r="D94" s="4">
         <f>[1]!i_dq_pctchange(A94,$B$1)/100</f>
-        <v>-3.0439984011206844E-3</v>
+        <v>2.1998884506162719E-2</v>
       </c>
       <c r="E94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$2,$B$1)/100</f>
-        <v>-3.0439984011206844E-3</v>
+        <v>2.1998884506162719E-2</v>
       </c>
       <c r="F94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$3,$B$1)/100</f>
-        <v>2.4385538735347101E-2</v>
+        <v>2.1998884506162719E-2</v>
       </c>
       <c r="G94" s="4">
         <f>[1]!i_pq_pctchange(A94,$B$4,$B$1)/100</f>
-        <v>-5.0053376125058779E-2</v>
+        <v>-8.2810573846596736E-3</v>
       </c>
       <c r="H94" s="12">
         <f>[1]!i_dq_amount(A94,$B$1)/100000000</f>
-        <v>35.107808370000001</v>
+        <v>79.358252820000004</v>
       </c>
       <c r="I94" s="5">
         <f>[1]!s_nq_amount(A94,-5,$B$1,100000000)/5</f>
-        <v>43.210949782</v>
+        <v>69.880658307999994</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -20944,31 +20942,31 @@
       </c>
       <c r="C95" s="12">
         <f>[1]!i_dq_close(A95,"")</f>
-        <v>2476.8290000000002</v>
+        <v>2489.4036999999998</v>
       </c>
       <c r="D95" s="4">
         <f>[1]!i_dq_pctchange(A95,$B$1)/100</f>
-        <v>2.409305362454095E-4</v>
+        <v>-5.6226820237426089E-4</v>
       </c>
       <c r="E95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$2,$B$1)/100</f>
-        <v>2.409305362454095E-4</v>
+        <v>-5.6226820237426089E-4</v>
       </c>
       <c r="F95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$3,$B$1)/100</f>
-        <v>1.6341161314572306E-2</v>
+        <v>-5.6226820237426089E-4</v>
       </c>
       <c r="G95" s="4">
         <f>[1]!i_pq_pctchange(A95,$B$4,$B$1)/100</f>
-        <v>-5.2485810789201788E-2</v>
+        <v>-4.7675342777454228E-2</v>
       </c>
       <c r="H95" s="12">
         <f>[1]!i_dq_amount(A95,$B$1)/100000000</f>
-        <v>20.636398750000001</v>
+        <v>24.812865209999998</v>
       </c>
       <c r="I95" s="5">
         <f>[1]!s_nq_amount(A95,-5,$B$1,100000000)/5</f>
-        <v>24.438498877999997</v>
+        <v>28.812423838000001</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -20982,31 +20980,31 @@
       </c>
       <c r="C96" s="12">
         <f>[1]!i_dq_close(A96,"")</f>
-        <v>984.37850000000003</v>
+        <v>1006.4455</v>
       </c>
       <c r="D96" s="4">
         <f>[1]!i_dq_pctchange(A96,$B$1)/100</f>
-        <v>5.2755652858225144E-3</v>
+        <v>1.3436284836430223E-2</v>
       </c>
       <c r="E96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$2,$B$1)/100</f>
-        <v>5.2755652858225144E-3</v>
+        <v>1.3436284836430223E-2</v>
       </c>
       <c r="F96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$3,$B$1)/100</f>
-        <v>6.4936701739809699E-2</v>
+        <v>1.3436284836430223E-2</v>
       </c>
       <c r="G96" s="4">
         <f>[1]!i_pq_pctchange(A96,$B$4,$B$1)/100</f>
-        <v>1.2270916514927288E-2</v>
+        <v>3.4963186119286727E-2</v>
       </c>
       <c r="H96" s="12">
         <f>[1]!i_dq_amount(A96,$B$1)/100000000</f>
-        <v>43.531995879999997</v>
+        <v>76.190329550000001</v>
       </c>
       <c r="I96" s="5">
         <f>[1]!s_nq_amount(A96,-5,$B$1,100000000)/5</f>
-        <v>47.512897894000005</v>
+        <v>63.181227399999997</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -21020,31 +21018,31 @@
       </c>
       <c r="C97" s="12">
         <f>[1]!i_dq_close(A97,"")</f>
-        <v>2384.8148000000001</v>
+        <v>2352.8910000000001</v>
       </c>
       <c r="D97" s="4">
         <f>[1]!i_dq_pctchange(A97,$B$1)/100</f>
-        <v>-2.5743526685820806E-3</v>
+        <v>-4.0516193524823274E-3</v>
       </c>
       <c r="E97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$2,$B$1)/100</f>
-        <v>-2.5743526685820806E-3</v>
+        <v>-4.0516193524823274E-3</v>
       </c>
       <c r="F97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$3,$B$1)/100</f>
-        <v>3.4042633268094757E-2</v>
+        <v>-4.0516193524823274E-3</v>
       </c>
       <c r="G97" s="4">
         <f>[1]!i_pq_pctchange(A97,$B$4,$B$1)/100</f>
-        <v>-8.8451217210888333E-2</v>
+        <v>-0.10065346496279048</v>
       </c>
       <c r="H97" s="12">
         <f>[1]!i_dq_amount(A97,$B$1)/100000000</f>
-        <v>35.975305069999997</v>
+        <v>38.817071720000001</v>
       </c>
       <c r="I97" s="5">
         <f>[1]!s_nq_amount(A97,-5,$B$1,100000000)/5</f>
-        <v>45.110504188</v>
+        <v>41.654449648000003</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -21058,31 +21056,31 @@
       </c>
       <c r="C98" s="12">
         <f>[1]!i_dq_close(A98,"")</f>
-        <v>1606.4092000000001</v>
+        <v>1665.2764</v>
       </c>
       <c r="D98" s="4">
         <f>[1]!i_dq_pctchange(A98,$B$1)/100</f>
-        <v>6.7907219100635796E-3</v>
+        <v>6.7080970631974157E-3</v>
       </c>
       <c r="E98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$2,$B$1)/100</f>
-        <v>6.7907219100635796E-3</v>
+        <v>6.7080970631974157E-3</v>
       </c>
       <c r="F98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$3,$B$1)/100</f>
-        <v>0.1014805105097054</v>
+        <v>6.7080970631974157E-3</v>
       </c>
       <c r="G98" s="4">
         <f>[1]!i_pq_pctchange(A98,$B$4,$B$1)/100</f>
-        <v>2.3229482038266136E-2</v>
+        <v>6.072593970611484E-2</v>
       </c>
       <c r="H98" s="12">
         <f>[1]!i_dq_amount(A98,$B$1)/100000000</f>
-        <v>18.005755570000002</v>
+        <v>39.236723019999999</v>
       </c>
       <c r="I98" s="5">
         <f>[1]!s_nq_amount(A98,-5,$B$1,100000000)/5</f>
-        <v>17.873186466</v>
+        <v>34.426278304</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -21096,31 +21094,31 @@
       </c>
       <c r="C99" s="12">
         <f>[1]!i_dq_close(A99,"")</f>
-        <v>1961.5177000000001</v>
+        <v>1934.7353000000001</v>
       </c>
       <c r="D99" s="4">
         <f>[1]!i_dq_pctchange(A99,$B$1)/100</f>
-        <v>-3.1934112060172382E-3</v>
+        <v>5.1969819182664523E-3</v>
       </c>
       <c r="E99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$2,$B$1)/100</f>
-        <v>-3.1934112060172382E-3</v>
+        <v>5.1969819182664523E-3</v>
       </c>
       <c r="F99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$3,$B$1)/100</f>
-        <v>5.2522740200211526E-3</v>
+        <v>5.1969819182664523E-3</v>
       </c>
       <c r="G99" s="4">
         <f>[1]!i_pq_pctchange(A99,$B$4,$B$1)/100</f>
-        <v>-6.202038364574259E-2</v>
+        <v>-7.4827479537381114E-2</v>
       </c>
       <c r="H99" s="12">
         <f>[1]!i_dq_amount(A99,$B$1)/100000000</f>
-        <v>30.02565542</v>
+        <v>38.293388540000002</v>
       </c>
       <c r="I99" s="5">
         <f>[1]!s_nq_amount(A99,-5,$B$1,100000000)/5</f>
-        <v>35.580064379999996</v>
+        <v>32.054279641999997</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -21134,31 +21132,31 @@
       </c>
       <c r="C100" s="12">
         <f>[1]!i_dq_close(A100,"")</f>
-        <v>4703.1463999999996</v>
+        <v>4814.2296999999999</v>
       </c>
       <c r="D100" s="4">
         <f>[1]!i_dq_pctchange(A100,$B$1)/100</f>
-        <v>1.5827197667728221E-3</v>
+        <v>9.980391706841063E-3</v>
       </c>
       <c r="E100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$2,$B$1)/100</f>
-        <v>1.5827197667728221E-3</v>
+        <v>9.980391706841063E-3</v>
       </c>
       <c r="F100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$3,$B$1)/100</f>
-        <v>2.4140971066207051E-2</v>
+        <v>9.980391706841063E-3</v>
       </c>
       <c r="G100" s="4">
         <f>[1]!i_pq_pctchange(A100,$B$4,$B$1)/100</f>
-        <v>3.331578384339462E-2</v>
+        <v>5.7721600173375576E-2</v>
       </c>
       <c r="H100" s="12">
         <f>[1]!i_dq_amount(A100,$B$1)/100000000</f>
-        <v>9.0388731500000006</v>
+        <v>13.62677433</v>
       </c>
       <c r="I100" s="5">
         <f>[1]!s_nq_amount(A100,-5,$B$1,100000000)/5</f>
-        <v>9.0299175080000005</v>
+        <v>14.15497665</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -21172,31 +21170,31 @@
       </c>
       <c r="C101" s="12">
         <f>[1]!i_dq_close(A101,"")</f>
-        <v>4446.4516999999996</v>
+        <v>4801.8419000000004</v>
       </c>
       <c r="D101" s="4">
         <f>[1]!i_dq_pctchange(A101,$B$1)/100</f>
-        <v>1.3588895002629942E-2</v>
+        <v>2.0319865298044526E-2</v>
       </c>
       <c r="E101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$2,$B$1)/100</f>
-        <v>1.3588895002629942E-2</v>
+        <v>2.0319865298044526E-2</v>
       </c>
       <c r="F101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$3,$B$1)/100</f>
-        <v>9.4896833939614358E-2</v>
+        <v>2.0319865298044526E-2</v>
       </c>
       <c r="G101" s="4">
         <f>[1]!i_pq_pctchange(A101,$B$4,$B$1)/100</f>
-        <v>2.15365634456679E-2</v>
+        <v>0.10318460734329292</v>
       </c>
       <c r="H101" s="12">
         <f>[1]!i_dq_amount(A101,$B$1)/100000000</f>
-        <v>143.18691937</v>
+        <v>278.16237161999999</v>
       </c>
       <c r="I101" s="5">
         <f>[1]!s_nq_amount(A101,-5,$B$1,100000000)/5</f>
-        <v>159.48238933600001</v>
+        <v>219.508861502</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -21210,31 +21208,31 @@
       </c>
       <c r="C102" s="12">
         <f>[1]!i_dq_close(A102,"")</f>
-        <v>2606.4427999999998</v>
+        <v>2548.5421000000001</v>
       </c>
       <c r="D102" s="4">
         <f>[1]!i_dq_pctchange(A102,$B$1)/100</f>
-        <v>-1.6735405814919391E-3</v>
+        <v>8.406765720438969E-4</v>
       </c>
       <c r="E102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$2,$B$1)/100</f>
-        <v>-1.6735405814919391E-3</v>
+        <v>8.406765720438969E-4</v>
       </c>
       <c r="F102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$3,$B$1)/100</f>
-        <v>4.4189934004465803E-2</v>
+        <v>8.406765720438969E-4</v>
       </c>
       <c r="G102" s="4">
         <f>[1]!i_pq_pctchange(A102,$B$4,$B$1)/100</f>
-        <v>-3.7549146444477488E-2</v>
+        <v>-5.8929465297614003E-2</v>
       </c>
       <c r="H102" s="12">
         <f>[1]!i_dq_amount(A102,$B$1)/100000000</f>
-        <v>59.617464079999998</v>
+        <v>74.941238619999993</v>
       </c>
       <c r="I102" s="5">
         <f>[1]!s_nq_amount(A102,-5,$B$1,100000000)/5</f>
-        <v>60.016910970000005</v>
+        <v>70.099320090000006</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -21248,31 +21246,31 @@
       </c>
       <c r="C103" s="12">
         <f>[1]!i_dq_close(A103,"")</f>
-        <v>2581.0320000000002</v>
+        <v>2545.3447000000001</v>
       </c>
       <c r="D103" s="4">
         <f>[1]!i_dq_pctchange(A103,$B$1)/100</f>
-        <v>7.1269836760827765E-3</v>
+        <v>-1.2928073471039081E-3</v>
       </c>
       <c r="E103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$2,$B$1)/100</f>
-        <v>7.1269836760827765E-3</v>
+        <v>-1.2928073471039081E-3</v>
       </c>
       <c r="F103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$3,$B$1)/100</f>
-        <v>2.5343466932884695E-2</v>
+        <v>-1.2928073471039081E-3</v>
       </c>
       <c r="G103" s="4">
         <f>[1]!i_pq_pctchange(A103,$B$4,$B$1)/100</f>
-        <v>-1.406500390148091E-2</v>
+        <v>-2.769728664197646E-2</v>
       </c>
       <c r="H103" s="12">
         <f>[1]!i_dq_amount(A103,$B$1)/100000000</f>
-        <v>33.37698984</v>
+        <v>41.179348269999998</v>
       </c>
       <c r="I103" s="5">
         <f>[1]!s_nq_amount(A103,-5,$B$1,100000000)/5</f>
-        <v>38.588364983999995</v>
+        <v>38.802189970000001</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -21286,31 +21284,31 @@
       </c>
       <c r="C104" s="12">
         <f>[1]!i_dq_close(A104,"")</f>
-        <v>3905.1597000000002</v>
+        <v>3925.5342999999998</v>
       </c>
       <c r="D104" s="4">
         <f>[1]!i_dq_pctchange(A104,$B$1)/100</f>
-        <v>3.7716881644094258E-3</v>
+        <v>6.3570807260269202E-3</v>
       </c>
       <c r="E104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$2,$B$1)/100</f>
-        <v>3.7716881644094258E-3</v>
+        <v>6.3570807260269202E-3</v>
       </c>
       <c r="F104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$3,$B$1)/100</f>
-        <v>5.040048478370851E-2</v>
+        <v>6.3570807260269202E-3</v>
       </c>
       <c r="G104" s="4">
         <f>[1]!i_pq_pctchange(A104,$B$4,$B$1)/100</f>
-        <v>2.1343052250820005E-2</v>
+        <v>2.6671760357786622E-2</v>
       </c>
       <c r="H104" s="12">
         <f>[1]!i_dq_amount(A104,$B$1)/100000000</f>
-        <v>47.782333000000001</v>
+        <v>85.460233630000005</v>
       </c>
       <c r="I104" s="5">
         <f>[1]!s_nq_amount(A104,-5,$B$1,100000000)/5</f>
-        <v>55.035826688</v>
+        <v>70.198974883999995</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -21324,31 +21322,31 @@
       </c>
       <c r="C105" s="12">
         <f>[1]!i_dq_close(A105,"")</f>
-        <v>3508.2564000000002</v>
+        <v>3499.0879</v>
       </c>
       <c r="D105" s="4">
         <f>[1]!i_dq_pctchange(A105,$B$1)/100</f>
-        <v>4.9166278058556667E-3</v>
+        <v>8.0904791343190396E-3</v>
       </c>
       <c r="E105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$2,$B$1)/100</f>
-        <v>4.9166278058556667E-3</v>
+        <v>8.0904791343190396E-3</v>
       </c>
       <c r="F105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$3,$B$1)/100</f>
-        <v>5.2502348456738623E-2</v>
+        <v>8.0904791343190396E-3</v>
       </c>
       <c r="G105" s="4">
         <f>[1]!i_pq_pctchange(A105,$B$4,$B$1)/100</f>
-        <v>-2.8598726765429405E-2</v>
+        <v>-3.1137393145016623E-2</v>
       </c>
       <c r="H105" s="12">
         <f>[1]!i_dq_amount(A105,$B$1)/100000000</f>
-        <v>153.92586152999999</v>
+        <v>250.27266079</v>
       </c>
       <c r="I105" s="5">
         <f>[1]!s_nq_amount(A105,-5,$B$1,100000000)/5</f>
-        <v>186.88310970399999</v>
+        <v>207.14293976200003</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -21362,31 +21360,31 @@
       </c>
       <c r="C106" s="12">
         <f>[1]!i_dq_close(A106,"")</f>
-        <v>2018.0530000000001</v>
+        <v>1975.1677</v>
       </c>
       <c r="D106" s="4">
         <f>[1]!i_dq_pctchange(A106,$B$1)/100</f>
-        <v>-8.760670801517545E-4</v>
+        <v>-2.2019911225239497E-3</v>
       </c>
       <c r="E106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$2,$B$1)/100</f>
-        <v>-8.760670801517545E-4</v>
+        <v>-2.2019911225239497E-3</v>
       </c>
       <c r="F106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$3,$B$1)/100</f>
-        <v>2.5140946828432931E-2</v>
+        <v>-2.2019911225239497E-3</v>
       </c>
       <c r="G106" s="4">
         <f>[1]!i_pq_pctchange(A106,$B$4,$B$1)/100</f>
-        <v>-0.11035245693213847</v>
+        <v>-0.12925820508579355</v>
       </c>
       <c r="H106" s="12">
         <f>[1]!i_dq_amount(A106,$B$1)/100000000</f>
-        <v>24.032674849999999</v>
+        <v>21.781624780000001</v>
       </c>
       <c r="I106" s="5">
         <f>[1]!s_nq_amount(A106,-5,$B$1,100000000)/5</f>
-        <v>24.074698890000001</v>
+        <v>19.563640466000003</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -21400,31 +21398,31 @@
       </c>
       <c r="C107" s="12">
         <f>[1]!i_dq_close(A107,"")</f>
-        <v>4092.4036000000001</v>
+        <v>4178.7430999999997</v>
       </c>
       <c r="D107" s="4">
         <f>[1]!i_dq_pctchange(A107,$B$1)/100</f>
-        <v>3.2794834747948975E-3</v>
+        <v>1.0931407147475314E-2</v>
       </c>
       <c r="E107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$2,$B$1)/100</f>
-        <v>3.2794834747948975E-3</v>
+        <v>1.0931407147475314E-2</v>
       </c>
       <c r="F107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$3,$B$1)/100</f>
-        <v>8.4904721515828285E-2</v>
+        <v>1.0931407147475314E-2</v>
       </c>
       <c r="G107" s="4">
         <f>[1]!i_pq_pctchange(A107,$B$4,$B$1)/100</f>
-        <v>-2.7143004836538531E-2</v>
+        <v>-6.6181508035894066E-3</v>
       </c>
       <c r="H107" s="12">
         <f>[1]!i_dq_amount(A107,$B$1)/100000000</f>
-        <v>63.57866027</v>
+        <v>103.00825999</v>
       </c>
       <c r="I107" s="5">
         <f>[1]!s_nq_amount(A107,-5,$B$1,100000000)/5</f>
-        <v>67.060593845999989</v>
+        <v>75.228359314000002</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -21438,31 +21436,31 @@
       </c>
       <c r="C108" s="12">
         <f>[1]!i_dq_close(A108,"")</f>
-        <v>1303.0378000000001</v>
+        <v>1303.0983000000001</v>
       </c>
       <c r="D108" s="4">
         <f>[1]!i_dq_pctchange(A108,$B$1)/100</f>
-        <v>-7.7060360063352373E-4</v>
+        <v>-1.4443864104916049E-3</v>
       </c>
       <c r="E108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$2,$B$1)/100</f>
-        <v>-7.7060360063352373E-4</v>
+        <v>-1.4443864104916049E-3</v>
       </c>
       <c r="F108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$3,$B$1)/100</f>
-        <v>3.3538665518993538E-2</v>
+        <v>-1.4443864104916049E-3</v>
       </c>
       <c r="G108" s="4">
         <f>[1]!i_pq_pctchange(A108,$B$4,$B$1)/100</f>
-        <v>-5.1786250440801096E-2</v>
+        <v>-5.1742224909194556E-2</v>
       </c>
       <c r="H108" s="12">
         <f>[1]!i_dq_amount(A108,$B$1)/100000000</f>
-        <v>14.807205529999999</v>
+        <v>14.771279310000001</v>
       </c>
       <c r="I108" s="5">
         <f>[1]!s_nq_amount(A108,-5,$B$1,100000000)/5</f>
-        <v>15.174313746000001</v>
+        <v>15.110697934000001</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -21476,31 +21474,31 @@
       </c>
       <c r="C109" s="12">
         <f>[1]!i_dq_close(A109,"")</f>
-        <v>2458.0814999999998</v>
+        <v>2461.2828</v>
       </c>
       <c r="D109" s="4">
         <f>[1]!i_dq_pctchange(A109,$B$1)/100</f>
-        <v>-2.0650235793905347E-3</v>
+        <v>3.049719549202079E-3</v>
       </c>
       <c r="E109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$2,$B$1)/100</f>
-        <v>-2.0650235793905347E-3</v>
+        <v>3.049719549202079E-3</v>
       </c>
       <c r="F109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$3,$B$1)/100</f>
-        <v>2.4992089725282884E-2</v>
+        <v>3.049719549202079E-3</v>
       </c>
       <c r="G109" s="4">
         <f>[1]!i_pq_pctchange(A109,$B$4,$B$1)/100</f>
-        <v>-6.5430010746818423E-2</v>
+        <v>-6.4212866845529404E-2</v>
       </c>
       <c r="H109" s="12">
         <f>[1]!i_dq_amount(A109,$B$1)/100000000</f>
-        <v>103.9796145</v>
+        <v>156.6630289</v>
       </c>
       <c r="I109" s="5">
         <f>[1]!s_nq_amount(A109,-5,$B$1,100000000)/5</f>
-        <v>112.75105113800001</v>
+        <v>139.44083984399998</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -21514,31 +21512,31 @@
       </c>
       <c r="C110" s="12">
         <f>[1]!i_dq_close(A110,"")</f>
-        <v>5381.6688000000004</v>
+        <v>5619.3923999999997</v>
       </c>
       <c r="D110" s="4">
         <f>[1]!i_dq_pctchange(A110,$B$1)/100</f>
-        <v>1.5773563607882179E-2</v>
+        <v>1.3096864659818408E-2</v>
       </c>
       <c r="E110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$2,$B$1)/100</f>
-        <v>1.5773563607882179E-2</v>
+        <v>1.3096864659818408E-2</v>
       </c>
       <c r="F110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$3,$B$1)/100</f>
-        <v>0.13367466160825381</v>
+        <v>1.3096864659818408E-2</v>
       </c>
       <c r="G110" s="4">
         <f>[1]!i_pq_pctchange(A110,$B$4,$B$1)/100</f>
-        <v>5.487525548046035E-2</v>
+        <v>0.1014720923730863</v>
       </c>
       <c r="H110" s="12">
         <f>[1]!i_dq_amount(A110,$B$1)/100000000</f>
-        <v>186.83210324000001</v>
+        <v>268.59554498</v>
       </c>
       <c r="I110" s="5">
         <f>[1]!s_nq_amount(A110,-5,$B$1,100000000)/5</f>
-        <v>186.34522182999999</v>
+        <v>228.46457354200001</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -21552,31 +21550,31 @@
       </c>
       <c r="C111" s="12">
         <f>[1]!i_dq_close(A111,"")</f>
-        <v>1932.4565</v>
+        <v>1930.7787000000001</v>
       </c>
       <c r="D111" s="4">
         <f>[1]!i_dq_pctchange(A111,$B$1)/100</f>
-        <v>1.8989068764683203E-3</v>
+        <v>1.6661417389829403E-3</v>
       </c>
       <c r="E111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$2,$B$1)/100</f>
-        <v>1.8989068764683203E-3</v>
+        <v>1.6661417389829403E-3</v>
       </c>
       <c r="F111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$3,$B$1)/100</f>
-        <v>3.4921306989632805E-2</v>
+        <v>1.6661417389829403E-3</v>
       </c>
       <c r="G111" s="4">
         <f>[1]!i_pq_pctchange(A111,$B$4,$B$1)/100</f>
-        <v>-3.005258362665808E-2</v>
+        <v>-3.0894712686324488E-2</v>
       </c>
       <c r="H111" s="12">
         <f>[1]!i_dq_amount(A111,$B$1)/100000000</f>
-        <v>95.634471219999995</v>
+        <v>128.55149505</v>
       </c>
       <c r="I111" s="5">
         <f>[1]!s_nq_amount(A111,-5,$B$1,100000000)/5</f>
-        <v>90.056243550000005</v>
+        <v>121.58856401200001</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -21590,31 +21588,31 @@
       </c>
       <c r="C112" s="12">
         <f>[1]!i_dq_close(A112,"")</f>
-        <v>3280.2474999999999</v>
+        <v>3313.8989999999999</v>
       </c>
       <c r="D112" s="4">
         <f>[1]!i_dq_pctchange(A112,$B$1)/100</f>
-        <v>2.0977394380756742E-3</v>
+        <v>1.3746069243475212E-2</v>
       </c>
       <c r="E112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$2,$B$1)/100</f>
-        <v>2.0977394380756742E-3</v>
+        <v>1.3746069243475212E-2</v>
       </c>
       <c r="F112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$3,$B$1)/100</f>
-        <v>6.5423223194098545E-2</v>
+        <v>1.3746069243475212E-2</v>
       </c>
       <c r="G112" s="4">
         <f>[1]!i_pq_pctchange(A112,$B$4,$B$1)/100</f>
-        <v>-6.9424146371714568E-2</v>
+        <v>-5.9877527301546163E-2</v>
       </c>
       <c r="H112" s="12">
         <f>[1]!i_dq_amount(A112,$B$1)/100000000</f>
-        <v>48.942669379999998</v>
+        <v>116.63698864</v>
       </c>
       <c r="I112" s="5">
         <f>[1]!s_nq_amount(A112,-5,$B$1,100000000)/5</f>
-        <v>57.541248412000002</v>
+        <v>82.509770438000004</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -21628,31 +21626,31 @@
       </c>
       <c r="C113" s="12">
         <f>[1]!i_dq_close(A113,"")</f>
-        <v>3405.8946999999998</v>
+        <v>3389.5731000000001</v>
       </c>
       <c r="D113" s="4">
         <f>[1]!i_dq_pctchange(A113,$B$1)/100</f>
-        <v>-1.1161684142053652E-3</v>
+        <v>3.904465896876097E-3</v>
       </c>
       <c r="E113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$2,$B$1)/100</f>
-        <v>-1.1161684142053652E-3</v>
+        <v>3.904465896876097E-3</v>
       </c>
       <c r="F113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$3,$B$1)/100</f>
-        <v>4.6989132279546819E-2</v>
+        <v>3.904465896876097E-3</v>
       </c>
       <c r="G113" s="4">
         <f>[1]!i_pq_pctchange(A113,$B$4,$B$1)/100</f>
-        <v>-5.5337677712466442E-2</v>
+        <v>-5.9864652829885061E-2</v>
       </c>
       <c r="H113" s="12">
         <f>[1]!i_dq_amount(A113,$B$1)/100000000</f>
-        <v>198.80805072999999</v>
+        <v>236.29968310000001</v>
       </c>
       <c r="I113" s="5">
         <f>[1]!s_nq_amount(A113,-5,$B$1,100000000)/5</f>
-        <v>204.462579906</v>
+        <v>205.40647277799999</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -21666,31 +21664,31 @@
       </c>
       <c r="C114" s="12">
         <f>[1]!i_dq_close(A114,"")</f>
-        <v>2377.5787</v>
+        <v>2349.2548000000002</v>
       </c>
       <c r="D114" s="4">
         <f>[1]!i_dq_pctchange(A114,$B$1)/100</f>
-        <v>7.1179597477912804E-3</v>
+        <v>6.3761084036955129E-3</v>
       </c>
       <c r="E114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$2,$B$1)/100</f>
-        <v>7.1179597477912804E-3</v>
+        <v>6.3761084036955129E-3</v>
       </c>
       <c r="F114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$3,$B$1)/100</f>
-        <v>7.8391353705781208E-2</v>
+        <v>6.3761084036955129E-3</v>
       </c>
       <c r="G114" s="4">
         <f>[1]!i_pq_pctchange(A114,$B$4,$B$1)/100</f>
-        <v>2.7421679137345389E-2</v>
+        <v>1.5182088961962936E-2</v>
       </c>
       <c r="H114" s="12">
         <f>[1]!i_dq_amount(A114,$B$1)/100000000</f>
-        <v>39.745066620000003</v>
+        <v>33.067354109999997</v>
       </c>
       <c r="I114" s="5">
         <f>[1]!s_nq_amount(A114,-5,$B$1,100000000)/5</f>
-        <v>30.186189169999999</v>
+        <v>32.028762119999996</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -21704,31 +21702,31 @@
       </c>
       <c r="C115" s="12">
         <f>[1]!i_dq_close(A115,"")</f>
-        <v>1312.0815</v>
+        <v>1304.1690000000001</v>
       </c>
       <c r="D115" s="4">
         <f>[1]!i_dq_pctchange(A115,$B$1)/100</f>
-        <v>7.0273401685161385E-3</v>
+        <v>-2.4311824079812361E-3</v>
       </c>
       <c r="E115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$2,$B$1)/100</f>
-        <v>7.0273401685161385E-3</v>
+        <v>-2.4311824079812361E-3</v>
       </c>
       <c r="F115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$3,$B$1)/100</f>
-        <v>2.6941048479251162E-2</v>
+        <v>-2.4311824079812361E-3</v>
       </c>
       <c r="G115" s="4">
         <f>[1]!i_pq_pctchange(A115,$B$4,$B$1)/100</f>
-        <v>-3.5004862920364532E-2</v>
+        <v>-4.0824260588986923E-2</v>
       </c>
       <c r="H115" s="12">
         <f>[1]!i_dq_amount(A115,$B$1)/100000000</f>
-        <v>9.1017088299999998</v>
+        <v>16.014861830000001</v>
       </c>
       <c r="I115" s="5">
         <f>[1]!s_nq_amount(A115,-5,$B$1,100000000)/5</f>
-        <v>13.324971012000001</v>
+        <v>16.084497912</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -21742,31 +21740,31 @@
       </c>
       <c r="C116" s="12">
         <f>[1]!i_dq_close(A116,"")</f>
-        <v>4222.0078999999996</v>
+        <v>4237.4664000000002</v>
       </c>
       <c r="D116" s="4">
         <f>[1]!i_dq_pctchange(A116,$B$1)/100</f>
-        <v>8.4018682675655043E-3</v>
+        <v>8.6417060121379841E-3</v>
       </c>
       <c r="E116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$2,$B$1)/100</f>
-        <v>8.4018682675655043E-3</v>
+        <v>8.6417060121379841E-3</v>
       </c>
       <c r="F116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$3,$B$1)/100</f>
-        <v>7.3023891815808817E-2</v>
+        <v>8.6417060121379841E-3</v>
       </c>
       <c r="G116" s="4">
         <f>[1]!i_pq_pctchange(A116,$B$4,$B$1)/100</f>
-        <v>-2.5642876027296535E-2</v>
+        <v>-2.2075355558911602E-2</v>
       </c>
       <c r="H116" s="12">
         <f>[1]!i_dq_amount(A116,$B$1)/100000000</f>
-        <v>93.399320149999994</v>
+        <v>171.56394463000001</v>
       </c>
       <c r="I116" s="5">
         <f>[1]!s_nq_amount(A116,-5,$B$1,100000000)/5</f>
-        <v>102.67654974</v>
+        <v>127.328988628</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -21780,31 +21778,31 @@
       </c>
       <c r="C117" s="12">
         <f>[1]!i_dq_close(A117,"")</f>
-        <v>3139.9951999999998</v>
+        <v>3230.4733000000001</v>
       </c>
       <c r="D117" s="4">
         <f>[1]!i_dq_pctchange(A117,$B$1)/100</f>
-        <v>4.3396495092353771E-3</v>
+        <v>7.0731065053222242E-3</v>
       </c>
       <c r="E117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$2,$B$1)/100</f>
-        <v>4.3396495092353771E-3</v>
+        <v>7.0731065053222242E-3</v>
       </c>
       <c r="F117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$3,$B$1)/100</f>
-        <v>5.2140863648802549E-2</v>
+        <v>7.0731065053222242E-3</v>
       </c>
       <c r="G117" s="4">
         <f>[1]!i_pq_pctchange(A117,$B$4,$B$1)/100</f>
-        <v>-5.2652393314467257E-2</v>
+        <v>-2.5354832002126848E-2</v>
       </c>
       <c r="H117" s="12">
         <f>[1]!i_dq_amount(A117,$B$1)/100000000</f>
-        <v>14.20801576</v>
+        <v>25.04402666</v>
       </c>
       <c r="I117" s="5">
         <f>[1]!s_nq_amount(A117,-5,$B$1,100000000)/5</f>
-        <v>14.717602615999999</v>
+        <v>21.109535026</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -21818,31 +21816,31 @@
       </c>
       <c r="C118" s="12">
         <f>[1]!i_dq_close(A118,"")</f>
-        <v>2465.7224999999999</v>
+        <v>2691.4050999999999</v>
       </c>
       <c r="D118" s="4">
         <f>[1]!i_dq_pctchange(A118,$B$1)/100</f>
-        <v>-2.6229597539946137E-2</v>
+        <v>1.9401544931664683E-2</v>
       </c>
       <c r="E118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$2,$B$1)/100</f>
-        <v>-2.6229597539946137E-2</v>
+        <v>1.9401544931664683E-2</v>
       </c>
       <c r="F118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$3,$B$1)/100</f>
-        <v>4.5180045954100301E-2</v>
+        <v>1.9401544931664683E-2</v>
       </c>
       <c r="G118" s="4">
         <f>[1]!i_pq_pctchange(A118,$B$4,$B$1)/100</f>
-        <v>4.2155584289676362E-2</v>
+        <v>0.13754197990678807</v>
       </c>
       <c r="H118" s="12">
         <f>[1]!i_dq_amount(A118,$B$1)/100000000</f>
-        <v>41.367065359999998</v>
+        <v>49.17964619</v>
       </c>
       <c r="I118" s="5">
         <f>[1]!s_nq_amount(A118,-5,$B$1,100000000)/5</f>
-        <v>35.993827553999999</v>
+        <v>45.280628186000001</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -21856,31 +21854,31 @@
       </c>
       <c r="C119" s="12">
         <f>[1]!i_dq_close(A119,"")</f>
-        <v>2358.2817</v>
+        <v>2395.2804000000001</v>
       </c>
       <c r="D119" s="4">
         <f>[1]!i_dq_pctchange(A119,$B$1)/100</f>
-        <v>9.9608444953580566E-3</v>
+        <v>1.3339486270370848E-2</v>
       </c>
       <c r="E119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$2,$B$1)/100</f>
-        <v>9.9608444953580566E-3</v>
+        <v>1.3339486270370848E-2</v>
       </c>
       <c r="F119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$3,$B$1)/100</f>
-        <v>9.1732792402225302E-2</v>
+        <v>1.3339486270370848E-2</v>
       </c>
       <c r="G119" s="4">
         <f>[1]!i_pq_pctchange(A119,$B$4,$B$1)/100</f>
-        <v>2.0264629703753645E-2</v>
+        <v>3.6271396391134525E-2</v>
       </c>
       <c r="H119" s="12">
         <f>[1]!i_dq_amount(A119,$B$1)/100000000</f>
-        <v>74.760325820000006</v>
+        <v>135.36339487000001</v>
       </c>
       <c r="I119" s="5">
         <f>[1]!s_nq_amount(A119,-5,$B$1,100000000)/5</f>
-        <v>85.073665497999997</v>
+        <v>102.22301628400001</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -21894,31 +21892,31 @@
       </c>
       <c r="C120" s="12">
         <f>[1]!i_dq_close(A120,"")</f>
-        <v>4611.5693000000001</v>
+        <v>4529.8168999999998</v>
       </c>
       <c r="D120" s="4">
         <f>[1]!i_dq_pctchange(A120,$B$1)/100</f>
-        <v>2.3075561303964598E-4</v>
+        <v>1.3068134719893543E-3</v>
       </c>
       <c r="E120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$2,$B$1)/100</f>
-        <v>2.3075561303964598E-4</v>
+        <v>1.3068134719893543E-3</v>
       </c>
       <c r="F120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$3,$B$1)/100</f>
-        <v>5.1370851627458469E-2</v>
+        <v>1.3068134719893543E-3</v>
       </c>
       <c r="G120" s="4">
         <f>[1]!i_pq_pctchange(A120,$B$4,$B$1)/100</f>
-        <v>-1.5971640265805442E-2</v>
+        <v>-3.3416174835921186E-2</v>
       </c>
       <c r="H120" s="12">
         <f>[1]!i_dq_amount(A120,$B$1)/100000000</f>
-        <v>213.47197331000001</v>
+        <v>284.14124222999999</v>
       </c>
       <c r="I120" s="5">
         <f>[1]!s_nq_amount(A120,-5,$B$1,100000000)/5</f>
-        <v>258.62870793799999</v>
+        <v>243.54164829800001</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -21932,31 +21930,31 @@
       </c>
       <c r="C121" s="12">
         <f>[1]!i_dq_close(A121,"")</f>
-        <v>5172.1755999999996</v>
+        <v>5359.4305000000004</v>
       </c>
       <c r="D121" s="4">
         <f>[1]!i_dq_pctchange(A121,$B$1)/100</f>
-        <v>8.0548880894366626E-3</v>
+        <v>1.8922275574301706E-2</v>
       </c>
       <c r="E121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$2,$B$1)/100</f>
-        <v>8.0548880894366626E-3</v>
+        <v>1.8922275574301706E-2</v>
       </c>
       <c r="F121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$3,$B$1)/100</f>
-        <v>9.0441366247127952E-2</v>
+        <v>1.8922275574301706E-2</v>
       </c>
       <c r="G121" s="4">
         <f>[1]!i_pq_pctchange(A121,$B$4,$B$1)/100</f>
-        <v>-3.1310422817146688E-2</v>
+        <v>3.7602870609978467E-3</v>
       </c>
       <c r="H121" s="12">
         <f>[1]!i_dq_amount(A121,$B$1)/100000000</f>
-        <v>65.60616168</v>
+        <v>107.44672636</v>
       </c>
       <c r="I121" s="5">
         <f>[1]!s_nq_amount(A121,-5,$B$1,100000000)/5</f>
-        <v>73.516298140000004</v>
+        <v>76.483453910000009</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -21970,31 +21968,31 @@
       </c>
       <c r="C122" s="12">
         <f>[1]!i_dq_close(A122,"")</f>
-        <v>5079.0294999999996</v>
+        <v>5030.9874</v>
       </c>
       <c r="D122" s="4">
         <f>[1]!i_dq_pctchange(A122,$B$1)/100</f>
-        <v>7.3134337974556374E-4</v>
+        <v>7.1426632054993888E-4</v>
       </c>
       <c r="E122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$2,$B$1)/100</f>
-        <v>7.3134337974556374E-4</v>
+        <v>7.1426632054993888E-4</v>
       </c>
       <c r="F122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$3,$B$1)/100</f>
-        <v>4.648755466907617E-2</v>
+        <v>7.1426632054993888E-4</v>
       </c>
       <c r="G122" s="4">
         <f>[1]!i_pq_pctchange(A122,$B$4,$B$1)/100</f>
-        <v>-6.1171091728909888E-3</v>
+        <v>-1.5518161328505586E-2</v>
       </c>
       <c r="H122" s="12">
         <f>[1]!i_dq_amount(A122,$B$1)/100000000</f>
-        <v>132.94061060000001</v>
+        <v>161.90604556</v>
       </c>
       <c r="I122" s="5">
         <f>[1]!s_nq_amount(A122,-5,$B$1,100000000)/5</f>
-        <v>148.677202126</v>
+        <v>141.799346786</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -22008,31 +22006,31 @@
       </c>
       <c r="C123" s="12">
         <f>[1]!i_dq_close(A123,"")</f>
-        <v>5040.9612999999999</v>
+        <v>5527.3409000000001</v>
       </c>
       <c r="D123" s="4">
         <f>[1]!i_dq_pctchange(A123,$B$1)/100</f>
-        <v>1.386632231820073E-2</v>
+        <v>2.6769043486996713E-2</v>
       </c>
       <c r="E123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$2,$B$1)/100</f>
-        <v>1.386632231820073E-2</v>
+        <v>2.6769043486996713E-2</v>
       </c>
       <c r="F123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$3,$B$1)/100</f>
-        <v>8.1070161734784887E-2</v>
+        <v>2.6769043486996713E-2</v>
       </c>
       <c r="G123" s="4">
         <f>[1]!i_pq_pctchange(A123,$B$4,$B$1)/100</f>
-        <v>-8.4188436479469053E-2</v>
+        <v>4.1740871408750824E-3</v>
       </c>
       <c r="H123" s="12">
         <f>[1]!i_dq_amount(A123,$B$1)/100000000</f>
-        <v>158.85898236</v>
+        <v>316.72974542999998</v>
       </c>
       <c r="I123" s="5">
         <f>[1]!s_nq_amount(A123,-5,$B$1,100000000)/5</f>
-        <v>157.74618854800002</v>
+        <v>235.588971276</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -22046,31 +22044,31 @@
       </c>
       <c r="C124" s="12">
         <f>[1]!i_dq_close(A124,"")</f>
-        <v>1576.7976000000001</v>
+        <v>1520.1547</v>
       </c>
       <c r="D124" s="4">
         <f>[1]!i_dq_pctchange(A124,$B$1)/100</f>
-        <v>5.9855850620866846E-3</v>
+        <v>-3.0129555119476903E-3</v>
       </c>
       <c r="E124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$2,$B$1)/100</f>
-        <v>5.9855850620866846E-3</v>
+        <v>-3.0129555119476903E-3</v>
       </c>
       <c r="F124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$3,$B$1)/100</f>
-        <v>2.6652908489718907E-2</v>
+        <v>-3.0129555119476903E-3</v>
       </c>
       <c r="G124" s="4">
         <f>[1]!i_pq_pctchange(A124,$B$4,$B$1)/100</f>
-        <v>-5.9947458804823439E-2</v>
+        <v>-9.3716727660676735E-2</v>
       </c>
       <c r="H124" s="12">
         <f>[1]!i_dq_amount(A124,$B$1)/100000000</f>
-        <v>20.893134799999999</v>
+        <v>17.84216773</v>
       </c>
       <c r="I124" s="5">
         <f>[1]!s_nq_amount(A124,-5,$B$1,100000000)/5</f>
-        <v>20.194880521999998</v>
+        <v>19.873524648</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -22084,31 +22082,31 @@
       </c>
       <c r="C125" s="12">
         <f>[1]!i_dq_close(A125,"")</f>
-        <v>5202.9422999999997</v>
+        <v>5221.1652000000004</v>
       </c>
       <c r="D125" s="4">
         <f>[1]!i_dq_pctchange(A125,$B$1)/100</f>
-        <v>1.2777429735085777E-2</v>
+        <v>7.5243536364584251E-3</v>
       </c>
       <c r="E125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$2,$B$1)/100</f>
-        <v>1.2777429735085777E-2</v>
+        <v>7.5243536364584251E-3</v>
       </c>
       <c r="F125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$3,$B$1)/100</f>
-        <v>5.1153456227054139E-2</v>
+        <v>7.5243536364584251E-3</v>
       </c>
       <c r="G125" s="4">
         <f>[1]!i_pq_pctchange(A125,$B$4,$B$1)/100</f>
-        <v>-2.3476849106412456E-2</v>
+        <v>-2.0056652859681168E-2</v>
       </c>
       <c r="H125" s="12">
         <f>[1]!i_dq_amount(A125,$B$1)/100000000</f>
-        <v>45.011361829999998</v>
+        <v>64.468870039999999</v>
       </c>
       <c r="I125" s="5">
         <f>[1]!s_nq_amount(A125,-5,$B$1,100000000)/5</f>
-        <v>44.050956559999996</v>
+        <v>56.630155737999999</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -22122,31 +22120,31 @@
       </c>
       <c r="C126" s="12">
         <f>[1]!i_dq_close(A126,"")</f>
-        <v>11577.0987</v>
+        <v>12563.1623</v>
       </c>
       <c r="D126" s="4">
         <f>[1]!i_dq_pctchange(A126,$B$1)/100</f>
-        <v>1.0385437943370324E-2</v>
+        <v>8.6945812467738026E-3</v>
       </c>
       <c r="E126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$2,$B$1)/100</f>
-        <v>1.0385437943370324E-2</v>
+        <v>8.6945812467738026E-3</v>
       </c>
       <c r="F126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$3,$B$1)/100</f>
-        <v>7.8771991672588637E-2</v>
+        <v>8.6945812467738026E-3</v>
       </c>
       <c r="G126" s="4">
         <f>[1]!i_pq_pctchange(A126,$B$4,$B$1)/100</f>
-        <v>3.9740422578806056E-2</v>
+        <v>0.1282988957093476</v>
       </c>
       <c r="H126" s="12">
         <f>[1]!i_dq_amount(A126,$B$1)/100000000</f>
-        <v>62.176910110000001</v>
+        <v>129.61131262000001</v>
       </c>
       <c r="I126" s="5">
         <f>[1]!s_nq_amount(A126,-5,$B$1,100000000)/5</f>
-        <v>72.121441837999996</v>
+        <v>110.341979896</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -22160,31 +22158,31 @@
       </c>
       <c r="C127" s="12">
         <f>[1]!i_dq_close(A127,"")</f>
-        <v>2033.9422</v>
+        <v>2029.3261</v>
       </c>
       <c r="D127" s="4">
         <f>[1]!i_dq_pctchange(A127,$B$1)/100</f>
-        <v>-1.736311607294927E-3</v>
+        <v>3.7084256858013198E-3</v>
       </c>
       <c r="E127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$2,$B$1)/100</f>
-        <v>-1.736311607294927E-3</v>
+        <v>3.7084256858013198E-3</v>
       </c>
       <c r="F127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$3,$B$1)/100</f>
-        <v>2.5558873617958389E-2</v>
+        <v>3.7084256858013198E-3</v>
       </c>
       <c r="G127" s="4">
         <f>[1]!i_pq_pctchange(A127,$B$4,$B$1)/100</f>
-        <v>-6.5460387098777995E-2</v>
+        <v>-6.7581356075729904E-2</v>
       </c>
       <c r="H127" s="12">
         <f>[1]!i_dq_amount(A127,$B$1)/100000000</f>
-        <v>116.98948233</v>
+        <v>151.27720264999999</v>
       </c>
       <c r="I127" s="5">
         <f>[1]!s_nq_amount(A127,-5,$B$1,100000000)/5</f>
-        <v>117.71034315</v>
+        <v>156.737896036</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -22198,31 +22196,31 @@
       </c>
       <c r="C128" s="12">
         <f>[1]!i_dq_close(A128,"")</f>
-        <v>2582.8177999999998</v>
+        <v>2494.8624</v>
       </c>
       <c r="D128" s="4">
         <f>[1]!i_dq_pctchange(A128,$B$1)/100</f>
-        <v>1.0946926804271673E-3</v>
+        <v>-1.869906830318957E-3</v>
       </c>
       <c r="E128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$2,$B$1)/100</f>
-        <v>1.0946926804271673E-3</v>
+        <v>-1.869906830318957E-3</v>
       </c>
       <c r="F128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$3,$B$1)/100</f>
-        <v>5.3701355482721702E-2</v>
+        <v>-1.869906830318957E-3</v>
       </c>
       <c r="G128" s="4">
         <f>[1]!i_pq_pctchange(A128,$B$4,$B$1)/100</f>
-        <v>-6.4850681094157703E-2</v>
+        <v>-9.6696300403460445E-2</v>
       </c>
       <c r="H128" s="12">
         <f>[1]!i_dq_amount(A128,$B$1)/100000000</f>
-        <v>91.882382379999996</v>
+        <v>98.962093409999994</v>
       </c>
       <c r="I128" s="5">
         <f>[1]!s_nq_amount(A128,-5,$B$1,100000000)/5</f>
-        <v>107.41779386799999</v>
+        <v>103.41214823600001</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -22236,31 +22234,31 @@
       </c>
       <c r="C129" s="12">
         <f>[1]!i_dq_close(A129,"")</f>
-        <v>1181.0798</v>
+        <v>1223.8402000000001</v>
       </c>
       <c r="D129" s="4">
         <f>[1]!i_dq_pctchange(A129,$B$1)/100</f>
-        <v>9.0301671092229974E-3</v>
+        <v>1.6315403847538601E-2</v>
       </c>
       <c r="E129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$2,$B$1)/100</f>
-        <v>9.0301671092229974E-3</v>
+        <v>1.6315403847538601E-2</v>
       </c>
       <c r="F129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$3,$B$1)/100</f>
-        <v>3.8694151535677124E-2</v>
+        <v>1.6315403847538601E-2</v>
       </c>
       <c r="G129" s="4">
         <f>[1]!i_pq_pctchange(A129,$B$4,$B$1)/100</f>
-        <v>-4.7989454918494934E-2</v>
+        <v>-1.3522392056270593E-2</v>
       </c>
       <c r="H129" s="12">
         <f>[1]!i_dq_amount(A129,$B$1)/100000000</f>
-        <v>19.317713000000001</v>
+        <v>41.602452040000003</v>
       </c>
       <c r="I129" s="5">
         <f>[1]!s_nq_amount(A129,-5,$B$1,100000000)/5</f>
-        <v>20.89352706</v>
+        <v>29.760629397999999</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -22274,31 +22272,31 @@
       </c>
       <c r="C130" s="12">
         <f>[1]!i_dq_close(A130,"")</f>
-        <v>2965.4636999999998</v>
+        <v>3076.8013000000001</v>
       </c>
       <c r="D130" s="4">
         <f>[1]!i_dq_pctchange(A130,$B$1)/100</f>
-        <v>1.3148889577957679E-2</v>
+        <v>2.9728313394714601E-3</v>
       </c>
       <c r="E130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$2,$B$1)/100</f>
-        <v>1.3148889577957679E-2</v>
+        <v>2.9728313394714601E-3</v>
       </c>
       <c r="F130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$3,$B$1)/100</f>
-        <v>6.648883123836713E-2</v>
+        <v>2.9728313394714601E-3</v>
       </c>
       <c r="G130" s="4">
         <f>[1]!i_pq_pctchange(A130,$B$4,$B$1)/100</f>
-        <v>-2.6279960070915154E-2</v>
+        <v>1.0278117614408888E-2</v>
       </c>
       <c r="H130" s="12">
         <f>[1]!i_dq_amount(A130,$B$1)/100000000</f>
-        <v>56.903485500000002</v>
+        <v>85.1346068</v>
       </c>
       <c r="I130" s="5">
         <f>[1]!s_nq_amount(A130,-5,$B$1,100000000)/5</f>
-        <v>60.09895607</v>
+        <v>78.290360622000009</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -22312,31 +22310,31 @@
       </c>
       <c r="C131" s="12">
         <f>[1]!i_dq_close(A131,"")</f>
-        <v>811.71730000000002</v>
+        <v>823.32330000000002</v>
       </c>
       <c r="D131" s="4">
         <f>[1]!i_dq_pctchange(A131,$B$1)/100</f>
-        <v>5.0231514412681921E-3</v>
+        <v>5.1095181897944375E-3</v>
       </c>
       <c r="E131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$2,$B$1)/100</f>
-        <v>5.0231514412681921E-3</v>
+        <v>5.1095181897944375E-3</v>
       </c>
       <c r="F131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$3,$B$1)/100</f>
-        <v>2.0515995181788593E-2</v>
+        <v>5.1095181897944375E-3</v>
       </c>
       <c r="G131" s="4">
         <f>[1]!i_pq_pctchange(A131,$B$4,$B$1)/100</f>
-        <v>9.5427554071945142E-3</v>
+        <v>2.3977279864485279E-2</v>
       </c>
       <c r="H131" s="12">
         <f>[1]!i_dq_amount(A131,$B$1)/100000000</f>
-        <v>6.13844922</v>
+        <v>10.31132562</v>
       </c>
       <c r="I131" s="5">
         <f>[1]!s_nq_amount(A131,-5,$B$1,100000000)/5</f>
-        <v>7.8957679679999995</v>
+        <v>10.600049438000001</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -22350,31 +22348,31 @@
       </c>
       <c r="C132" s="12">
         <f>[1]!i_dq_close(A132,"")</f>
-        <v>4540.8594999999996</v>
+        <v>4703.6994999999997</v>
       </c>
       <c r="D132" s="4">
         <f>[1]!i_dq_pctchange(A132,$B$1)/100</f>
-        <v>1.3096004068215983E-2</v>
+        <v>4.4752401642533801E-3</v>
       </c>
       <c r="E132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$2,$B$1)/100</f>
-        <v>1.3096004068215983E-2</v>
+        <v>4.4752401642533801E-3</v>
       </c>
       <c r="F132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$3,$B$1)/100</f>
-        <v>6.5433783282843105E-2</v>
+        <v>4.4752401642533801E-3</v>
       </c>
       <c r="G132" s="4">
         <f>[1]!i_pq_pctchange(A132,$B$4,$B$1)/100</f>
-        <v>2.7190141311669302E-2</v>
+        <v>6.4026260687569891E-2</v>
       </c>
       <c r="H132" s="12">
         <f>[1]!i_dq_amount(A132,$B$1)/100000000</f>
-        <v>57.159574910000003</v>
+        <v>91.029380099999997</v>
       </c>
       <c r="I132" s="5">
         <f>[1]!s_nq_amount(A132,-5,$B$1,100000000)/5</f>
-        <v>54.967024021999997</v>
+        <v>80.92149225</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -22388,31 +22386,31 @@
       </c>
       <c r="C133" s="12">
         <f>[1]!i_dq_close(A133,"")</f>
-        <v>5032.5308000000005</v>
+        <v>5061.9196000000002</v>
       </c>
       <c r="D133" s="4">
         <f>[1]!i_dq_pctchange(A133,$B$1)/100</f>
-        <v>1.6315198821894583E-3</v>
+        <v>6.3783571536855099E-3</v>
       </c>
       <c r="E133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$2,$B$1)/100</f>
-        <v>1.6315198821894583E-3</v>
+        <v>6.3783571536855099E-3</v>
       </c>
       <c r="F133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$3,$B$1)/100</f>
-        <v>5.2807276423805227E-2</v>
+        <v>6.3783571536855099E-3</v>
       </c>
       <c r="G133" s="4">
         <f>[1]!i_pq_pctchange(A133,$B$4,$B$1)/100</f>
-        <v>-1.5461705137896686E-2</v>
+        <v>-9.7122323199573257E-3</v>
       </c>
       <c r="H133" s="12">
         <f>[1]!i_dq_amount(A133,$B$1)/100000000</f>
-        <v>111.10402757</v>
+        <v>174.56104918</v>
       </c>
       <c r="I133" s="5">
         <f>[1]!s_nq_amount(A133,-5,$B$1,100000000)/5</f>
-        <v>121.73527770000001</v>
+        <v>143.58257452800001</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -22426,31 +22424,31 @@
       </c>
       <c r="C134" s="12">
         <f>[1]!i_dq_close(A134,"")</f>
-        <v>745.04480000000001</v>
+        <v>706.8492</v>
       </c>
       <c r="D134" s="4">
         <f>[1]!i_dq_pctchange(A134,$B$1)/100</f>
-        <v>-3.0755611243186154E-3</v>
+        <v>-3.8114104417199535E-3</v>
       </c>
       <c r="E134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$2,$B$1)/100</f>
-        <v>-3.0755611243186154E-3</v>
+        <v>-3.8114104417199535E-3</v>
       </c>
       <c r="F134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$3,$B$1)/100</f>
-        <v>5.0667472176966433E-2</v>
+        <v>-3.8114104417199535E-3</v>
       </c>
       <c r="G134" s="4">
         <f>[1]!i_pq_pctchange(A134,$B$4,$B$1)/100</f>
-        <v>-6.1825625403579609E-2</v>
+        <v>-0.10992224072434287</v>
       </c>
       <c r="H134" s="12">
         <f>[1]!i_dq_amount(A134,$B$1)/100000000</f>
-        <v>12.514053049999999</v>
+        <v>14.265924200000001</v>
       </c>
       <c r="I134" s="5">
         <f>[1]!s_nq_amount(A134,-5,$B$1,100000000)/5</f>
-        <v>15.196074968</v>
+        <v>17.634757025999999</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -22464,31 +22462,31 @@
       </c>
       <c r="C135" s="12">
         <f>[1]!i_dq_close(A135,"")</f>
-        <v>23445.384999999998</v>
+        <v>24080.275600000001</v>
       </c>
       <c r="D135" s="4">
         <f>[1]!i_dq_pctchange(A135,$B$1)/100</f>
-        <v>2.6825726491359836E-2</v>
+        <v>1.1285769625018816E-2</v>
       </c>
       <c r="E135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$2,$B$1)/100</f>
-        <v>2.6825726491359836E-2</v>
+        <v>1.1285769625018816E-2</v>
       </c>
       <c r="F135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$3,$B$1)/100</f>
-        <v>9.9537376014892764E-2</v>
+        <v>1.1285769625018816E-2</v>
       </c>
       <c r="G135" s="4">
         <f>[1]!i_pq_pctchange(A135,$B$4,$B$1)/100</f>
-        <v>-6.8704658290212217E-2</v>
+        <v>-4.3485594569341979E-2</v>
       </c>
       <c r="H135" s="12">
         <f>[1]!i_dq_amount(A135,$B$1)/100000000</f>
-        <v>169.05708379000001</v>
+        <v>202.54799463000001</v>
       </c>
       <c r="I135" s="5">
         <f>[1]!s_nq_amount(A135,-5,$B$1,100000000)/5</f>
-        <v>207.13924968999999</v>
+        <v>182.00623823400002</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -22502,31 +22500,31 @@
       </c>
       <c r="C136" s="12">
         <f>[1]!i_dq_close(A136,"")</f>
-        <v>1872.5059000000001</v>
+        <v>1873.0259000000001</v>
       </c>
       <c r="D136" s="4">
         <f>[1]!i_dq_pctchange(A136,$B$1)/100</f>
-        <v>2.5561487230740809E-3</v>
+        <v>-5.8502051867159732E-4</v>
       </c>
       <c r="E136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$2,$B$1)/100</f>
-        <v>2.5561487230740809E-3</v>
+        <v>-5.8502051867159732E-4</v>
       </c>
       <c r="F136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$3,$B$1)/100</f>
-        <v>6.3317353432173373E-2</v>
+        <v>-5.8502051867159732E-4</v>
       </c>
       <c r="G136" s="4">
         <f>[1]!i_pq_pctchange(A136,$B$4,$B$1)/100</f>
-        <v>-1.0511008552169909E-2</v>
+        <v>-1.0236224758136014E-2</v>
       </c>
       <c r="H136" s="12">
         <f>[1]!i_dq_amount(A136,$B$1)/100000000</f>
-        <v>45.579556670000002</v>
+        <v>73.421031749999997</v>
       </c>
       <c r="I136" s="5">
         <f>[1]!s_nq_amount(A136,-5,$B$1,100000000)/5</f>
-        <v>58.270009628000004</v>
+        <v>62.880951711999998</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -22540,31 +22538,31 @@
       </c>
       <c r="C137" s="12">
         <f>[1]!i_dq_close(A137,"")</f>
-        <v>2850.1194</v>
+        <v>2834.0722999999998</v>
       </c>
       <c r="D137" s="4">
         <f>[1]!i_dq_pctchange(A137,$B$1)/100</f>
-        <v>-3.2874734875010247E-5</v>
+        <v>2.6168552150294122E-3</v>
       </c>
       <c r="E137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$2,$B$1)/100</f>
-        <v>-3.2874734875010247E-5</v>
+        <v>2.6168552150294122E-3</v>
       </c>
       <c r="F137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$3,$B$1)/100</f>
-        <v>2.8429545261579481E-2</v>
+        <v>2.6168552150294122E-3</v>
       </c>
       <c r="G137" s="4">
         <f>[1]!i_pq_pctchange(A137,$B$4,$B$1)/100</f>
-        <v>-8.2550435686624679E-3</v>
+        <v>-1.3838890508671153E-2</v>
       </c>
       <c r="H137" s="12">
         <f>[1]!i_dq_amount(A137,$B$1)/100000000</f>
-        <v>19.9305068</v>
+        <v>38.384609939999997</v>
       </c>
       <c r="I137" s="5">
         <f>[1]!s_nq_amount(A137,-5,$B$1,100000000)/5</f>
-        <v>24.321876125999999</v>
+        <v>31.396215792</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -22578,31 +22576,31 @@
       </c>
       <c r="C138" s="12">
         <f>[1]!i_dq_close(A138,"")</f>
-        <v>2713.6154000000001</v>
+        <v>2770.1224999999999</v>
       </c>
       <c r="D138" s="4">
         <f>[1]!i_dq_pctchange(A138,$B$1)/100</f>
-        <v>2.7849518515552507E-3</v>
+        <v>6.0862256216021038E-3</v>
       </c>
       <c r="E138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$2,$B$1)/100</f>
-        <v>2.7849518515552507E-3</v>
+        <v>6.0862256216021038E-3</v>
       </c>
       <c r="F138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$3,$B$1)/100</f>
-        <v>5.4562741735646014E-2</v>
+        <v>6.0862256216021038E-3</v>
       </c>
       <c r="G138" s="4">
         <f>[1]!i_pq_pctchange(A138,$B$4,$B$1)/100</f>
-        <v>-4.5887132702823956E-2</v>
+        <v>-2.6019117801505232E-2</v>
       </c>
       <c r="H138" s="12">
         <f>[1]!i_dq_amount(A138,$B$1)/100000000</f>
-        <v>39.55759613</v>
+        <v>54.354973170000001</v>
       </c>
       <c r="I138" s="5">
         <f>[1]!s_nq_amount(A138,-5,$B$1,100000000)/5</f>
-        <v>38.225081926000001</v>
+        <v>47.054140862000004</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -22616,31 +22614,31 @@
       </c>
       <c r="C139" s="12">
         <f>[1]!i_dq_close(A139,"")</f>
-        <v>1825.1709000000001</v>
+        <v>1815.7692999999999</v>
       </c>
       <c r="D139" s="4">
         <f>[1]!i_dq_pctchange(A139,$B$1)/100</f>
-        <v>3.8959616744560499E-3</v>
+        <v>-2.7982860449921043E-3</v>
       </c>
       <c r="E139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$2,$B$1)/100</f>
-        <v>3.8959616744560499E-3</v>
+        <v>-2.7982860449921043E-3</v>
       </c>
       <c r="F139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$3,$B$1)/100</f>
-        <v>7.9435334896130527E-2</v>
+        <v>-2.7982860449921043E-3</v>
       </c>
       <c r="G139" s="4">
         <f>[1]!i_pq_pctchange(A139,$B$4,$B$1)/100</f>
-        <v>-1.4366224731863775E-2</v>
+        <v>-1.9443302446373156E-2</v>
       </c>
       <c r="H139" s="12">
         <f>[1]!i_dq_amount(A139,$B$1)/100000000</f>
-        <v>71.103032859999999</v>
+        <v>82.953034700000003</v>
       </c>
       <c r="I139" s="5">
         <f>[1]!s_nq_amount(A139,-5,$B$1,100000000)/5</f>
-        <v>71.646646750000002</v>
+        <v>86.333463156000008</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -22654,31 +22652,31 @@
       </c>
       <c r="C140" s="12">
         <f>[1]!i_dq_close(A140,"")</f>
-        <v>2409.8757000000001</v>
+        <v>2434.6370000000002</v>
       </c>
       <c r="D140" s="4">
         <f>[1]!i_dq_pctchange(A140,$B$1)/100</f>
-        <v>7.9498782663200984E-4</v>
+        <v>2.4826158625783634E-3</v>
       </c>
       <c r="E140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$2,$B$1)/100</f>
-        <v>7.9498782663200984E-4</v>
+        <v>2.4826158625783634E-3</v>
       </c>
       <c r="F140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$3,$B$1)/100</f>
-        <v>1.3848453811877492E-2</v>
+        <v>2.4826158625783634E-3</v>
       </c>
       <c r="G140" s="4">
         <f>[1]!i_pq_pctchange(A140,$B$4,$B$1)/100</f>
-        <v>-5.7980572837552306E-2</v>
+        <v>-4.8301390777748206E-2</v>
       </c>
       <c r="H140" s="12">
         <f>[1]!i_dq_amount(A140,$B$1)/100000000</f>
-        <v>61.359742679999997</v>
+        <v>113.23434981</v>
       </c>
       <c r="I140" s="5">
         <f>[1]!s_nq_amount(A140,-5,$B$1,100000000)/5</f>
-        <v>67.517328685999999</v>
+        <v>94.073788198000003</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -22692,31 +22690,31 @@
       </c>
       <c r="C141" s="12">
         <f>[1]!i_dq_close(A141,"")</f>
-        <v>1478.0174</v>
+        <v>1473.0235</v>
       </c>
       <c r="D141" s="4">
         <f>[1]!i_dq_pctchange(A141,$B$1)/100</f>
-        <v>-1.072448969798856E-3</v>
+        <v>2.0758217111740418E-3</v>
       </c>
       <c r="E141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$2,$B$1)/100</f>
-        <v>-1.072448969798856E-3</v>
+        <v>2.0758217111740418E-3</v>
       </c>
       <c r="F141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$3,$B$1)/100</f>
-        <v>1.7154472977042534E-2</v>
+        <v>2.0758217111740418E-3</v>
       </c>
       <c r="G141" s="4">
         <f>[1]!i_pq_pctchange(A141,$B$4,$B$1)/100</f>
-        <v>-4.6687325831405557E-2</v>
+        <v>-4.9908362446759662E-2</v>
       </c>
       <c r="H141" s="12">
         <f>[1]!i_dq_amount(A141,$B$1)/100000000</f>
-        <v>21.603289419999999</v>
+        <v>37.361585869999999</v>
       </c>
       <c r="I141" s="5">
         <f>[1]!s_nq_amount(A141,-5,$B$1,100000000)/5</f>
-        <v>23.841657529999999</v>
+        <v>32.269623041999999</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -22730,31 +22728,31 @@
       </c>
       <c r="C142" s="12">
         <f>[1]!i_dq_close(A142,"")</f>
-        <v>2897.1379000000002</v>
+        <v>2874.7166999999999</v>
       </c>
       <c r="D142" s="4">
         <f>[1]!i_dq_pctchange(A142,$B$1)/100</f>
-        <v>1.1698996372357939E-3</v>
+        <v>3.6465580167077682E-4</v>
       </c>
       <c r="E142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$2,$B$1)/100</f>
-        <v>1.1698996372357939E-3</v>
+        <v>3.6465580167077682E-4</v>
       </c>
       <c r="F142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$3,$B$1)/100</f>
-        <v>8.0306506066506925E-2</v>
+        <v>3.6465580167077682E-4</v>
       </c>
       <c r="G142" s="4">
         <f>[1]!i_pq_pctchange(A142,$B$4,$B$1)/100</f>
-        <v>-3.8867260284684124E-2</v>
+        <v>-4.6305549426428172E-2</v>
       </c>
       <c r="H142" s="12">
         <f>[1]!i_dq_amount(A142,$B$1)/100000000</f>
-        <v>23.065214260000001</v>
+        <v>23.872371090000001</v>
       </c>
       <c r="I142" s="5">
         <f>[1]!s_nq_amount(A142,-5,$B$1,100000000)/5</f>
-        <v>29.099742092000003</v>
+        <v>23.633012298000001</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -22768,31 +22766,31 @@
       </c>
       <c r="C143" s="12">
         <f>[1]!i_dq_close(A143,"")</f>
-        <v>6625.5012999999999</v>
+        <v>6993.3543</v>
       </c>
       <c r="D143" s="4">
         <f>[1]!i_dq_pctchange(A143,$B$1)/100</f>
-        <v>1.2935034910973808E-2</v>
+        <v>1.063642026870637E-2</v>
       </c>
       <c r="E143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$2,$B$1)/100</f>
-        <v>1.2935034910973808E-2</v>
+        <v>1.063642026870637E-2</v>
       </c>
       <c r="F143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$3,$B$1)/100</f>
-        <v>7.6227127721162358E-2</v>
+        <v>1.063642026870637E-2</v>
       </c>
       <c r="G143" s="4">
         <f>[1]!i_pq_pctchange(A143,$B$4,$B$1)/100</f>
-        <v>2.0582155251582801E-3</v>
+        <v>5.7693269246387846E-2</v>
       </c>
       <c r="H143" s="12">
         <f>[1]!i_dq_amount(A143,$B$1)/100000000</f>
-        <v>71.941359149999997</v>
+        <v>128.57253871</v>
       </c>
       <c r="I143" s="5">
         <f>[1]!s_nq_amount(A143,-5,$B$1,100000000)/5</f>
-        <v>65.891134311999991</v>
+        <v>105.46681668199999</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -22806,31 +22804,31 @@
       </c>
       <c r="C144" s="12">
         <f>[1]!i_dq_close(A144,"")</f>
-        <v>1523.3678</v>
+        <v>1499.9966999999999</v>
       </c>
       <c r="D144" s="4">
         <f>[1]!i_dq_pctchange(A144,$B$1)/100</f>
-        <v>1.7950357948393059E-3</v>
+        <v>-1.4516927228436227E-3</v>
       </c>
       <c r="E144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$2,$B$1)/100</f>
-        <v>1.7950357948393059E-3</v>
+        <v>-1.4516927228436227E-3</v>
       </c>
       <c r="F144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$3,$B$1)/100</f>
-        <v>4.5477804573736069E-2</v>
+        <v>-1.4516927228436227E-3</v>
       </c>
       <c r="G144" s="4">
         <f>[1]!i_pq_pctchange(A144,$B$4,$B$1)/100</f>
-        <v>-6.77917125824955E-2</v>
+        <v>-8.2093401974947758E-2</v>
       </c>
       <c r="H144" s="12">
         <f>[1]!i_dq_amount(A144,$B$1)/100000000</f>
-        <v>18.619571919999998</v>
+        <v>25.352460579999999</v>
       </c>
       <c r="I144" s="5">
         <f>[1]!s_nq_amount(A144,-5,$B$1,100000000)/5</f>
-        <v>19.940391756</v>
+        <v>20.346859094000003</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -22844,31 +22842,31 @@
       </c>
       <c r="C145" s="12">
         <f>[1]!i_dq_close(A145,"")</f>
-        <v>1092.4423999999999</v>
+        <v>1093.173</v>
       </c>
       <c r="D145" s="4">
         <f>[1]!i_dq_pctchange(A145,$B$1)/100</f>
-        <v>1.9294004697805178E-3</v>
+        <v>5.0129615122564974E-3</v>
       </c>
       <c r="E145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$2,$B$1)/100</f>
-        <v>1.9294004697805178E-3</v>
+        <v>5.0129615122564974E-3</v>
       </c>
       <c r="F145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$3,$B$1)/100</f>
-        <v>2.638960985273231E-2</v>
+        <v>5.0129615122564974E-3</v>
       </c>
       <c r="G145" s="4">
         <f>[1]!i_pq_pctchange(A145,$B$4,$B$1)/100</f>
-        <v>-8.7408031149220577E-2</v>
+        <v>-8.6797710923236626E-2</v>
       </c>
       <c r="H145" s="12">
         <f>[1]!i_dq_amount(A145,$B$1)/100000000</f>
-        <v>16.83400138</v>
+        <v>29.87671735</v>
       </c>
       <c r="I145" s="5">
         <f>[1]!s_nq_amount(A145,-5,$B$1,100000000)/5</f>
-        <v>17.742749816</v>
+        <v>21.984983500000002</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -22882,31 +22880,31 @@
       </c>
       <c r="C146" s="12">
         <f>[1]!i_dq_close(A146,"")</f>
-        <v>1794.0182</v>
+        <v>1821.3022000000001</v>
       </c>
       <c r="D146" s="4">
         <f>[1]!i_dq_pctchange(A146,$B$1)/100</f>
-        <v>2.9623857302762957E-4</v>
+        <v>3.4350792392106033E-3</v>
       </c>
       <c r="E146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$2,$B$1)/100</f>
-        <v>2.9623857302762957E-4</v>
+        <v>3.4350792392106033E-3</v>
       </c>
       <c r="F146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$3,$B$1)/100</f>
-        <v>3.1850260145561915E-2</v>
+        <v>3.4350792392106033E-3</v>
       </c>
       <c r="G146" s="4">
         <f>[1]!i_pq_pctchange(A146,$B$4,$B$1)/100</f>
-        <v>-5.0615794301328787E-2</v>
+        <v>-3.6177257017658726E-2</v>
       </c>
       <c r="H146" s="12">
         <f>[1]!i_dq_amount(A146,$B$1)/100000000</f>
-        <v>33.123010299999997</v>
+        <v>45.11154106</v>
       </c>
       <c r="I146" s="5">
         <f>[1]!s_nq_amount(A146,-5,$B$1,100000000)/5</f>
-        <v>32.651898107999997</v>
+        <v>37.704904764000005</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -22920,31 +22918,31 @@
       </c>
       <c r="C147" s="12">
         <f>[1]!i_dq_close(A147,"")</f>
-        <v>2207.8843999999999</v>
+        <v>2236.9488999999999</v>
       </c>
       <c r="D147" s="4">
         <f>[1]!i_dq_pctchange(A147,$B$1)/100</f>
-        <v>-2.5550474554313363E-3</v>
+        <v>9.4450475029876912E-3</v>
       </c>
       <c r="E147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$2,$B$1)/100</f>
-        <v>-2.5550474554313363E-3</v>
+        <v>9.4450475029876912E-3</v>
       </c>
       <c r="F147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$3,$B$1)/100</f>
-        <v>3.7650448393738101E-2</v>
+        <v>9.4450475029876912E-3</v>
       </c>
       <c r="G147" s="4">
         <f>[1]!i_pq_pctchange(A147,$B$4,$B$1)/100</f>
-        <v>-4.1354518886738918E-2</v>
+        <v>-2.8734948955534079E-2</v>
       </c>
       <c r="H147" s="12">
         <f>[1]!i_dq_amount(A147,$B$1)/100000000</f>
-        <v>52.192309190000003</v>
+        <v>85.001494470000011</v>
       </c>
       <c r="I147" s="5">
         <f>[1]!s_nq_amount(A147,-5,$B$1,100000000)/5</f>
-        <v>64.811736803999992</v>
+        <v>69.151779603999998</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -22958,31 +22956,31 @@
       </c>
       <c r="C148" s="12">
         <f>[1]!i_dq_close(A148,"")</f>
-        <v>4038.1786999999999</v>
+        <v>4345.6369000000004</v>
       </c>
       <c r="D148" s="4">
         <f>[1]!i_dq_pctchange(A148,$B$1)/100</f>
-        <v>9.0041514760541563E-3</v>
+        <v>1.5216246630040287E-2</v>
       </c>
       <c r="E148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$2,$B$1)/100</f>
-        <v>9.0041514760541563E-3</v>
+        <v>1.5216246630040287E-2</v>
       </c>
       <c r="F148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$3,$B$1)/100</f>
-        <v>5.0114127895796168E-2</v>
+        <v>1.5216246630040287E-2</v>
       </c>
       <c r="G148" s="4">
         <f>[1]!i_pq_pctchange(A148,$B$4,$B$1)/100</f>
-        <v>-4.6990830890460522E-2</v>
+        <v>2.5569227860261723E-2</v>
       </c>
       <c r="H148" s="12">
         <f>[1]!i_dq_amount(A148,$B$1)/100000000</f>
-        <v>88.16843763</v>
+        <v>219.63290637</v>
       </c>
       <c r="I148" s="5">
         <f>[1]!s_nq_amount(A148,-5,$B$1,100000000)/5</f>
-        <v>90.022657937999995</v>
+        <v>181.90067214999999</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -22996,31 +22994,31 @@
       </c>
       <c r="C149" s="12">
         <f>[1]!i_dq_close(A149,"")</f>
-        <v>2319.9836</v>
+        <v>2337.3524000000002</v>
       </c>
       <c r="D149" s="4">
         <f>[1]!i_dq_pctchange(A149,$B$1)/100</f>
-        <v>9.8048829895553968E-3</v>
+        <v>2.0086880818126485E-3</v>
       </c>
       <c r="E149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$2,$B$1)/100</f>
-        <v>9.8048829895553968E-3</v>
+        <v>2.0086880818126485E-3</v>
       </c>
       <c r="F149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$3,$B$1)/100</f>
-        <v>4.4987903053444578E-2</v>
+        <v>2.0086880818126485E-3</v>
       </c>
       <c r="G149" s="4">
         <f>[1]!i_pq_pctchange(A149,$B$4,$B$1)/100</f>
-        <v>-7.0999077079110684E-2</v>
+        <v>-6.4044014452793618E-2</v>
       </c>
       <c r="H149" s="12">
         <f>[1]!i_dq_amount(A149,$B$1)/100000000</f>
-        <v>40.237010650000002</v>
+        <v>46.262714260000003</v>
       </c>
       <c r="I149" s="5">
         <f>[1]!s_nq_amount(A149,-5,$B$1,100000000)/5</f>
-        <v>38.005124869999996</v>
+        <v>40.715065891999998</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -23034,31 +23032,31 @@
       </c>
       <c r="C150" s="12">
         <f>[1]!i_dq_close(A150,"")</f>
-        <v>2000.2312999999999</v>
+        <v>1951.0685000000001</v>
       </c>
       <c r="D150" s="4">
         <f>[1]!i_dq_pctchange(A150,$B$1)/100</f>
-        <v>7.3615005372140718E-3</v>
+        <v>5.7642547643894648E-3</v>
       </c>
       <c r="E150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$2,$B$1)/100</f>
-        <v>7.3615005372140718E-3</v>
+        <v>5.7642547643894648E-3</v>
       </c>
       <c r="F150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$3,$B$1)/100</f>
-        <v>0.13808617889305919</v>
+        <v>5.7642547643894648E-3</v>
       </c>
       <c r="G150" s="4">
         <f>[1]!i_pq_pctchange(A150,$B$4,$B$1)/100</f>
-        <v>2.5181859044569155E-2</v>
+        <v>-1.5632215484617795E-5</v>
       </c>
       <c r="H150" s="12">
         <f>[1]!i_dq_amount(A150,$B$1)/100000000</f>
-        <v>48.560624709999999</v>
+        <v>34.509756830000001</v>
       </c>
       <c r="I150" s="5">
         <f>[1]!s_nq_amount(A150,-5,$B$1,100000000)/5</f>
-        <v>34.589691166000001</v>
+        <v>32.150919104000003</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -23072,31 +23070,31 @@
       </c>
       <c r="C151" s="12">
         <f>[1]!i_dq_close(A151,"")</f>
-        <v>13631.718800000001</v>
+        <v>14614.4146</v>
       </c>
       <c r="D151" s="4">
         <f>[1]!i_dq_pctchange(A151,$B$1)/100</f>
-        <v>1.7018626880443311E-2</v>
+        <v>1.3634263334072694E-2</v>
       </c>
       <c r="E151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$2,$B$1)/100</f>
-        <v>1.7018626880443311E-2</v>
+        <v>1.3634263334072694E-2</v>
       </c>
       <c r="F151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$3,$B$1)/100</f>
-        <v>9.0746822678259273E-2</v>
+        <v>1.3634263334072694E-2</v>
       </c>
       <c r="G151" s="4">
         <f>[1]!i_pq_pctchange(A151,$B$4,$B$1)/100</f>
-        <v>4.2772691693795384E-3</v>
+        <v>7.6674526545919441E-2</v>
       </c>
       <c r="H151" s="12">
         <f>[1]!i_dq_amount(A151,$B$1)/100000000</f>
-        <v>78.746246479999996</v>
+        <v>152.93295470999999</v>
       </c>
       <c r="I151" s="5">
         <f>[1]!s_nq_amount(A151,-5,$B$1,100000000)/5</f>
-        <v>83.153607881999989</v>
+        <v>125.00784321799999</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -23110,31 +23108,31 @@
       </c>
       <c r="C152" s="12">
         <f>[1]!i_dq_close(A152,"")</f>
-        <v>2950.8438999999998</v>
+        <v>2911.4926999999998</v>
       </c>
       <c r="D152" s="4">
         <f>[1]!i_dq_pctchange(A152,$B$1)/100</f>
-        <v>-4.6539527279052528E-3</v>
+        <v>4.8449420106551067E-3</v>
       </c>
       <c r="E152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$2,$B$1)/100</f>
-        <v>-4.6539527279052528E-3</v>
+        <v>4.8449420106551067E-3</v>
       </c>
       <c r="F152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$3,$B$1)/100</f>
-        <v>6.7121670529024513E-2</v>
+        <v>4.8449420106551067E-3</v>
       </c>
       <c r="G152" s="4">
         <f>[1]!i_pq_pctchange(A152,$B$4,$B$1)/100</f>
-        <v>2.3817879706380829E-2</v>
+        <v>1.0164679634393936E-2</v>
       </c>
       <c r="H152" s="12">
         <f>[1]!i_dq_amount(A152,$B$1)/100000000</f>
-        <v>20.95103889</v>
+        <v>17.869056090000001</v>
       </c>
       <c r="I152" s="5">
         <f>[1]!s_nq_amount(A152,-5,$B$1,100000000)/5</f>
-        <v>25.463201445999999</v>
+        <v>16.327615141999999</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -23148,31 +23146,31 @@
       </c>
       <c r="C153" s="12">
         <f>[1]!i_dq_close(A153,"")</f>
-        <v>1902.6292000000001</v>
+        <v>1915.0128</v>
       </c>
       <c r="D153" s="4">
         <f>[1]!i_dq_pctchange(A153,$B$1)/100</f>
-        <v>-1.3347350614676401E-3</v>
+        <v>-4.0102562303134803E-5</v>
       </c>
       <c r="E153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$2,$B$1)/100</f>
-        <v>-1.3347350614676401E-3</v>
+        <v>-4.0102562303134803E-5</v>
       </c>
       <c r="F153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$3,$B$1)/100</f>
-        <v>4.5530948581944175E-2</v>
+        <v>-4.0102562303134803E-5</v>
       </c>
       <c r="G153" s="4">
         <f>[1]!i_pq_pctchange(A153,$B$4,$B$1)/100</f>
-        <v>-1.8302500493653229E-2</v>
+        <v>-1.1912947997093859E-2</v>
       </c>
       <c r="H153" s="12">
         <f>[1]!i_dq_amount(A153,$B$1)/100000000</f>
-        <v>9.2416009799999994</v>
+        <v>12.338270319999999</v>
       </c>
       <c r="I153" s="5">
         <f>[1]!s_nq_amount(A153,-5,$B$1,100000000)/5</f>
-        <v>11.795226154</v>
+        <v>14.276907926000002</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -23186,31 +23184,31 @@
       </c>
       <c r="C154" s="12">
         <f>[1]!i_dq_close(A154,"")</f>
-        <v>3113.3852000000002</v>
+        <v>3096.904</v>
       </c>
       <c r="D154" s="4">
         <f>[1]!i_dq_pctchange(A154,$B$1)/100</f>
-        <v>-3.9491584875619434E-3</v>
+        <v>6.4671009439796201E-3</v>
       </c>
       <c r="E154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$2,$B$1)/100</f>
-        <v>-3.9491584875619434E-3</v>
+        <v>6.4671009439796201E-3</v>
       </c>
       <c r="F154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$3,$B$1)/100</f>
-        <v>2.7256747867320241E-2</v>
+        <v>6.4671009439796201E-3</v>
       </c>
       <c r="G154" s="4">
         <f>[1]!i_pq_pctchange(A154,$B$4,$B$1)/100</f>
-        <v>-7.1443147170727417E-2</v>
+        <v>-7.6358610635656188E-2</v>
       </c>
       <c r="H154" s="12">
         <f>[1]!i_dq_amount(A154,$B$1)/100000000</f>
-        <v>37.750658790000003</v>
+        <v>71.944906099999997</v>
       </c>
       <c r="I154" s="5">
         <f>[1]!s_nq_amount(A154,-5,$B$1,100000000)/5</f>
-        <v>61.497784651999993</v>
+        <v>52.423643554000002</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -23224,31 +23222,31 @@
       </c>
       <c r="C155" s="12">
         <f>[1]!i_dq_close(A155,"")</f>
-        <v>1421.5545</v>
+        <v>1366.0554</v>
       </c>
       <c r="D155" s="4">
         <f>[1]!i_dq_pctchange(A155,$B$1)/100</f>
-        <v>-3.7881230027471124E-3</v>
+        <v>-2.5825929975521467E-3</v>
       </c>
       <c r="E155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$2,$B$1)/100</f>
-        <v>-3.7881230027471124E-3</v>
+        <v>-2.5825929975521467E-3</v>
       </c>
       <c r="F155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$3,$B$1)/100</f>
-        <v>6.9357452518851392E-2</v>
+        <v>-2.5825929975521467E-3</v>
       </c>
       <c r="G155" s="4">
         <f>[1]!i_pq_pctchange(A155,$B$4,$B$1)/100</f>
-        <v>-3.9243521985374619E-2</v>
+        <v>-7.6752544572254999E-2</v>
       </c>
       <c r="H155" s="12">
         <f>[1]!i_dq_amount(A155,$B$1)/100000000</f>
-        <v>23.502092470000001</v>
+        <v>27.920989500000001</v>
       </c>
       <c r="I155" s="5">
         <f>[1]!s_nq_amount(A155,-5,$B$1,100000000)/5</f>
-        <v>27.97641827</v>
+        <v>28.537529338000002</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -23262,31 +23260,31 @@
       </c>
       <c r="C156" s="12">
         <f>[1]!i_dq_close(A156,"")</f>
-        <v>1139.6851999999999</v>
+        <v>1096.8770999999999</v>
       </c>
       <c r="D156" s="4">
         <f>[1]!i_dq_pctchange(A156,$B$1)/100</f>
-        <v>2.2010920505799447E-4</v>
+        <v>-6.3127499557456002E-3</v>
       </c>
       <c r="E156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$2,$B$1)/100</f>
-        <v>2.2010920505799447E-4</v>
+        <v>-6.3127499557456002E-3</v>
       </c>
       <c r="F156" s="4">
         <f>[1]!i_pq_pctchange(A156,$B$3,$B$1)/100</f>
-        <v>1.1177484758943201E-2</v>
+        <v>-6.3127499557456002E-3</v>
       </c>
       <c r="G156" s="13">
         <f>[1]!i_pq_pctchange(A156,$B$4,$B$1)/100</f>
-        <v>-7.2839917554328837E-2</v>
+        <v>-0.10766528996887148</v>
       </c>
       <c r="H156" s="12">
         <f>[1]!i_dq_amount(A156,$B$1)/100000000</f>
-        <v>18.682554490000001</v>
+        <v>16.32173616</v>
       </c>
       <c r="I156" s="5">
         <f>[1]!s_nq_amount(A156,-5,$B$1,100000000)/5</f>
-        <v>22.915091466</v>
+        <v>15.926426060000001</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -23300,31 +23298,31 @@
       </c>
       <c r="C157" s="12">
         <f>[1]!i_dq_close(A157,"")</f>
-        <v>4019.3458000000001</v>
+        <v>4056.4823999999999</v>
       </c>
       <c r="D157" s="4">
         <f>[1]!i_dq_pctchange(A157,$B$1)/100</f>
-        <v>1.332103771483828E-2</v>
+        <v>2.5590885903756799E-3</v>
       </c>
       <c r="E157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$2,$B$1)/100</f>
-        <v>1.332103771483828E-2</v>
+        <v>2.5590885903756799E-3</v>
       </c>
       <c r="F157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$3,$B$1)/100</f>
-        <v>3.0345723667927427E-2</v>
+        <v>2.5590885903756799E-3</v>
       </c>
       <c r="G157" s="4">
         <f>[1]!i_pq_pctchange(A157,$B$4,$B$1)/100</f>
-        <v>-8.1185638093678292E-2</v>
+        <v>-7.269628606221834E-2</v>
       </c>
       <c r="H157" s="12">
         <f>[1]!i_dq_amount(A157,$B$1)/100000000</f>
-        <v>28.25958911</v>
+        <v>50.218561450000003</v>
       </c>
       <c r="I157" s="5">
         <f>[1]!s_nq_amount(A157,-5,$B$1,100000000)/5</f>
-        <v>26.746909510000002</v>
+        <v>48.518616917999999</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -23338,31 +23336,31 @@
       </c>
       <c r="C158" s="12">
         <f>[1]!i_dq_close(A158,"")</f>
-        <v>3670.6042000000002</v>
+        <v>3642.2419</v>
       </c>
       <c r="D158" s="4">
         <f>[1]!i_dq_pctchange(A158,$B$1)/100</f>
-        <v>1.08066079347926E-2</v>
+        <v>-2.4816463572974179E-4</v>
       </c>
       <c r="E158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$2,$B$1)/100</f>
-        <v>1.08066079347926E-2</v>
+        <v>-2.4816463572974179E-4</v>
       </c>
       <c r="F158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$3,$B$1)/100</f>
-        <v>2.4511062800480099E-2</v>
+        <v>-2.4816463572974179E-4</v>
       </c>
       <c r="G158" s="4">
         <f>[1]!i_pq_pctchange(A158,$B$4,$B$1)/100</f>
-        <v>-9.2986741624203173E-2</v>
+        <v>-9.9995119737548155E-2</v>
       </c>
       <c r="H158" s="12">
         <f>[1]!i_dq_amount(A158,$B$1)/100000000</f>
-        <v>47.467517919999999</v>
+        <v>84.397042569999996</v>
       </c>
       <c r="I158" s="5">
         <f>[1]!s_nq_amount(A158,-5,$B$1,100000000)/5</f>
-        <v>44.772537272000001</v>
+        <v>82.964251271999998</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -23376,31 +23374,31 @@
       </c>
       <c r="C159" s="12">
         <f>[1]!i_dq_close(A159,"")</f>
-        <v>2342.7244000000001</v>
+        <v>2262.7791000000002</v>
       </c>
       <c r="D159" s="4">
         <f>[1]!i_dq_pctchange(A159,$B$1)/100</f>
-        <v>-3.6591657574996939E-3</v>
+        <v>2.7582754578672208E-3</v>
       </c>
       <c r="E159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$2,$B$1)/100</f>
-        <v>-3.6591657574996939E-3</v>
+        <v>2.7582754578672208E-3</v>
       </c>
       <c r="F159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$3,$B$1)/100</f>
-        <v>5.1590073592902019E-3</v>
+        <v>2.7582754578672208E-3</v>
       </c>
       <c r="G159" s="4">
         <f>[1]!i_pq_pctchange(A159,$B$4,$B$1)/100</f>
-        <v>-4.3960738769430741E-2</v>
+        <v>-7.6585509122638284E-2</v>
       </c>
       <c r="H159" s="12">
         <f>[1]!i_dq_amount(A159,$B$1)/100000000</f>
-        <v>8.8227237800000005</v>
+        <v>8.1657443000000001</v>
       </c>
       <c r="I159" s="5">
         <f>[1]!s_nq_amount(A159,-5,$B$1,100000000)/5</f>
-        <v>8.8901507280000001</v>
+        <v>8.1614208179999999</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -23414,31 +23412,31 @@
       </c>
       <c r="C160" s="12">
         <f>[1]!i_dq_close(A160,"")</f>
-        <v>3362.0691000000002</v>
+        <v>3312.5722000000001</v>
       </c>
       <c r="D160" s="4">
         <f>[1]!i_dq_pctchange(A160,$B$1)/100</f>
-        <v>1.0712065083709366E-2</v>
+        <v>-7.0733801291072984E-3</v>
       </c>
       <c r="E160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$2,$B$1)/100</f>
-        <v>1.0712065083709366E-2</v>
+        <v>-7.0733801291072984E-3</v>
       </c>
       <c r="F160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$3,$B$1)/100</f>
-        <v>1.4182517065411959E-2</v>
+        <v>-7.0733801291072984E-3</v>
       </c>
       <c r="G160" s="4">
         <f>[1]!i_pq_pctchange(A160,$B$4,$B$1)/100</f>
-        <v>-0.12729441963234667</v>
+        <v>-0.14014252583007469</v>
       </c>
       <c r="H160" s="12">
         <f>[1]!i_dq_amount(A160,$B$1)/100000000</f>
-        <v>16.710278729999999</v>
+        <v>18.534201020000001</v>
       </c>
       <c r="I160" s="5">
         <f>[1]!s_nq_amount(A160,-5,$B$1,100000000)/5</f>
-        <v>17.542235196</v>
+        <v>20.658656499999999</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -23452,31 +23450,31 @@
       </c>
       <c r="C161" s="12">
         <f>[1]!i_dq_close(A161,"")</f>
-        <v>2203.2159999999999</v>
+        <v>2366.6792</v>
       </c>
       <c r="D161" s="4">
         <f>[1]!i_dq_pctchange(A161,$B$1)/100</f>
-        <v>6.9893659002200348E-3</v>
+        <v>1.3955495415460373E-2</v>
       </c>
       <c r="E161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$2,$B$1)/100</f>
-        <v>6.9893659002200348E-3</v>
+        <v>1.3955495415460373E-2</v>
       </c>
       <c r="F161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$3,$B$1)/100</f>
-        <v>2.5950128531543992E-2</v>
+        <v>1.3955495415460373E-2</v>
       </c>
       <c r="G161" s="4">
         <f>[1]!i_pq_pctchange(A161,$B$4,$B$1)/100</f>
-        <v>-7.8958347581672972E-2</v>
+        <v>-1.0623506223591206E-2</v>
       </c>
       <c r="H161" s="12">
         <f>[1]!i_dq_amount(A161,$B$1)/100000000</f>
-        <v>26.32648034</v>
+        <v>72.617726619999999</v>
       </c>
       <c r="I161" s="5">
         <f>[1]!s_nq_amount(A161,-5,$B$1,100000000)/5</f>
-        <v>29.063014021999997</v>
+        <v>64.085334178000011</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -23490,31 +23488,31 @@
       </c>
       <c r="C162" s="12">
         <f>[1]!i_dq_close(A162,"")</f>
-        <v>3803.4202</v>
+        <v>4203.3712999999998</v>
       </c>
       <c r="D162" s="4">
         <f>[1]!i_dq_pctchange(A162,$B$1)/100</f>
-        <v>7.0474678943432956E-3</v>
+        <v>2.4498112170074471E-2</v>
       </c>
       <c r="E162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$2,$B$1)/100</f>
-        <v>7.0474678943432956E-3</v>
+        <v>2.4498112170074471E-2</v>
       </c>
       <c r="F162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$3,$B$1)/100</f>
-        <v>5.0563100930696603E-2</v>
+        <v>2.4498112170074471E-2</v>
       </c>
       <c r="G162" s="4">
         <f>[1]!i_pq_pctchange(A162,$B$4,$B$1)/100</f>
-        <v>-4.2128831048782962E-2</v>
+        <v>5.8596728456928426E-2</v>
       </c>
       <c r="H162" s="12">
         <f>[1]!i_dq_amount(A162,$B$1)/100000000</f>
-        <v>22.74937431</v>
+        <v>93.485796590000007</v>
       </c>
       <c r="I162" s="5">
         <f>[1]!s_nq_amount(A162,-5,$B$1,100000000)/5</f>
-        <v>27.024492720000001</v>
+        <v>71.071593836000005</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -23528,31 +23526,31 @@
       </c>
       <c r="C163" s="12">
         <f>[1]!i_dq_close(A163,"")</f>
-        <v>2194.9702000000002</v>
+        <v>2175.3622999999998</v>
       </c>
       <c r="D163" s="4">
         <f>[1]!i_dq_pctchange(A163,$B$1)/100</f>
-        <v>-5.9477939139251923E-4</v>
+        <v>-3.0795815116405612E-3</v>
       </c>
       <c r="E163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$2,$B$1)/100</f>
-        <v>-5.9477939139251923E-4</v>
+        <v>-3.0795815116405612E-3</v>
       </c>
       <c r="F163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$3,$B$1)/100</f>
-        <v>7.463045062290008E-2</v>
+        <v>-3.0795815116405612E-3</v>
       </c>
       <c r="G163" s="4">
         <f>[1]!i_pq_pctchange(A163,$B$4,$B$1)/100</f>
-        <v>-7.9747405470852128E-2</v>
+        <v>-8.7968118831000974E-2</v>
       </c>
       <c r="H163" s="12">
         <f>[1]!i_dq_amount(A163,$B$1)/100000000</f>
-        <v>9.7364799899999994</v>
+        <v>14.09064744</v>
       </c>
       <c r="I163" s="5">
         <f>[1]!s_nq_amount(A163,-5,$B$1,100000000)/5</f>
-        <v>11.810978952000001</v>
+        <v>10.040338816</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -23566,31 +23564,31 @@
       </c>
       <c r="C164" s="12">
         <f>[1]!i_dq_close(A164,"")</f>
-        <v>2289.4238</v>
+        <v>2354.9627</v>
       </c>
       <c r="D164" s="4">
         <f>[1]!i_dq_pctchange(A164,$B$1)/100</f>
-        <v>-5.9574760252978365E-5</v>
+        <v>8.9730184345075958E-3</v>
       </c>
       <c r="E164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$2,$B$1)/100</f>
-        <v>-5.9574760252978365E-5</v>
+        <v>8.9730184345075958E-3</v>
       </c>
       <c r="F164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$3,$B$1)/100</f>
-        <v>3.7986868655040196E-2</v>
+        <v>8.9730184345075958E-3</v>
       </c>
       <c r="G164" s="4">
         <f>[1]!i_pq_pctchange(A164,$B$4,$B$1)/100</f>
-        <v>-5.4651196592518388E-2</v>
+        <v>-2.7588876068182722E-2</v>
       </c>
       <c r="H164" s="12">
         <f>[1]!i_dq_amount(A164,$B$1)/100000000</f>
-        <v>5.7837169700000004</v>
+        <v>11.659053180000001</v>
       </c>
       <c r="I164" s="5">
         <f>[1]!s_nq_amount(A164,-5,$B$1,100000000)/5</f>
-        <v>8.9484897920000002</v>
+        <v>9.3360109740000006</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -23604,31 +23602,31 @@
       </c>
       <c r="C165" s="12">
         <f>[1]!i_dq_close(A165,"")</f>
-        <v>2203.2628</v>
+        <v>2401.8515000000002</v>
       </c>
       <c r="D165" s="4">
         <f>[1]!i_dq_pctchange(A165,$B$1)/100</f>
-        <v>8.2174795638374487E-3</v>
+        <v>2.2517465077826593E-2</v>
       </c>
       <c r="E165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$2,$B$1)/100</f>
-        <v>8.2174795638374487E-3</v>
+        <v>2.2517465077826593E-2</v>
       </c>
       <c r="F165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$3,$B$1)/100</f>
-        <v>2.8450656547508446E-2</v>
+        <v>2.2517465077826593E-2</v>
       </c>
       <c r="G165" s="4">
         <f>[1]!i_pq_pctchange(A165,$B$4,$B$1)/100</f>
-        <v>-6.3210565486313874E-2</v>
+        <v>2.1225932953095272E-2</v>
       </c>
       <c r="H165" s="12">
         <f>[1]!i_dq_amount(A165,$B$1)/100000000</f>
-        <v>37.361101529999999</v>
+        <v>132.24764579000001</v>
       </c>
       <c r="I165" s="5">
         <f>[1]!s_nq_amount(A165,-5,$B$1,100000000)/5</f>
-        <v>39.234305122000002</v>
+        <v>106.65258794399999</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -23734,27 +23732,27 @@
       </c>
       <c r="E173" s="12">
         <f>[1]!i_dq_close(A173,"")</f>
-        <v>1945.65</v>
+        <v>1808.81</v>
       </c>
       <c r="F173" s="4">
         <f>[1]!i_dq_pctchange(A173,$B$1)/100</f>
-        <v>2.1558445649719982E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="G173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$2,$B$1)/100</f>
-        <v>2.1558445649719982E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="H173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$3,$B$1)/100</f>
-        <v>3.688919917076583E-2</v>
+        <v>5.0334642402782848E-4</v>
       </c>
       <c r="I173" s="4">
         <f>[1]!i_pq_pctchange(A173,$B$4,$B$1)/100</f>
-        <v>-1.299669756045585E-2</v>
+        <v>-8.2413875318956831E-2</v>
       </c>
       <c r="J173" s="12">
         <f>[1]!i_dq_amount(A173,$B$1)/100000000</f>
-        <v>176.32560000000001</v>
+        <v>232.738</v>
       </c>
       <c r="K173" s="5">
         <f>[1]!s_nq_amount(A173,-5,$B$1,100000000)/5</f>
@@ -23776,27 +23774,27 @@
       </c>
       <c r="E174" s="12">
         <f>[1]!i_dq_close(A174,"")</f>
-        <v>3106.13</v>
+        <v>2965.04</v>
       </c>
       <c r="F174" s="4">
         <f>[1]!i_dq_pctchange(A174,$B$1)/100</f>
-        <v>-3.3051084892444682E-2</v>
+        <v>-2.405633556401221E-3</v>
       </c>
       <c r="G174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$2,$B$1)/100</f>
-        <v>-3.3051084892444682E-2</v>
+        <v>-2.405633556401221E-3</v>
       </c>
       <c r="H174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$3,$B$1)/100</f>
-        <v>-6.5358946120469219E-2</v>
+        <v>-2.405633556401221E-3</v>
       </c>
       <c r="I174" s="4">
         <f>[1]!i_pq_pctchange(A174,$B$4,$B$1)/100</f>
-        <v>-6.4793320748013583E-2</v>
+        <v>-0.1072732911213279</v>
       </c>
       <c r="J174" s="12">
         <f>[1]!i_dq_amount(A174,$B$1)/100000000</f>
-        <v>68.774600000000007</v>
+        <v>51.689900000000002</v>
       </c>
       <c r="K174" s="5">
         <f>[1]!s_nq_amount(A174,-5,$B$1,100000000)/5</f>
@@ -23818,27 +23816,27 @@
       </c>
       <c r="E175" s="12">
         <f>[1]!i_dq_close(A175,"")</f>
-        <v>4012.32</v>
+        <v>3903.87</v>
       </c>
       <c r="F175" s="4">
         <f>[1]!i_dq_pctchange(A175,$B$1)/100</f>
-        <v>-2.9570947910401157E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="G175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$2,$B$1)/100</f>
-        <v>-2.9570947910401157E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="H175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$3,$B$1)/100</f>
-        <v>8.8151139226502195E-3</v>
+        <v>3.8424887030874544E-5</v>
       </c>
       <c r="I175" s="4">
         <f>[1]!i_pq_pctchange(A175,$B$4,$B$1)/100</f>
-        <v>-3.2231454793231862E-2</v>
+        <v>-5.8389512656930265E-2</v>
       </c>
       <c r="J175" s="12">
         <f>[1]!i_dq_amount(A175,$B$1)/100000000</f>
-        <v>261.4024</v>
+        <v>358.99650000000003</v>
       </c>
       <c r="K175" s="5">
         <f>[1]!s_nq_amount(A175,-5,$B$1,100000000)/5</f>
@@ -23860,27 +23858,27 @@
       </c>
       <c r="E176" s="12">
         <f>[1]!i_dq_close(A176,"")</f>
-        <v>5735.64</v>
+        <v>5703.85</v>
       </c>
       <c r="F176" s="4">
         <f>[1]!i_dq_pctchange(A176,$B$1)/100</f>
-        <v>-1.66018856505048E-2</v>
+        <v>1.0916819800514954E-3</v>
       </c>
       <c r="G176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$2,$B$1)/100</f>
-        <v>-1.66018856505048E-2</v>
+        <v>1.0916819800514954E-3</v>
       </c>
       <c r="H176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$3,$B$1)/100</f>
-        <v>-1.3693259298364513E-2</v>
+        <v>1.0916819800514954E-3</v>
       </c>
       <c r="I176" s="4">
         <f>[1]!i_pq_pctchange(A176,$B$4,$B$1)/100</f>
-        <v>-4.2758412366087351E-3</v>
+        <v>-9.7946797632749716E-3</v>
       </c>
       <c r="J176" s="12">
         <f>[1]!i_dq_amount(A176,$B$1)/100000000</f>
-        <v>145.7115</v>
+        <v>188.2422</v>
       </c>
       <c r="K176" s="5">
         <f>[1]!s_nq_amount(A176,-5,$B$1,100000000)/5</f>
@@ -23902,27 +23900,27 @@
       </c>
       <c r="E177" s="12">
         <f>[1]!i_dq_close(A177,"")</f>
-        <v>2662.3</v>
+        <v>2601.69</v>
       </c>
       <c r="F177" s="4">
         <f>[1]!i_dq_pctchange(A177,$B$1)/100</f>
-        <v>1.2797394870390333E-2</v>
+        <v>-7.3409057090421115E-3</v>
       </c>
       <c r="G177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$2,$B$1)/100</f>
-        <v>1.2797394870390333E-2</v>
+        <v>-7.3409057090421115E-3</v>
       </c>
       <c r="H177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$3,$B$1)/100</f>
-        <v>2.1353159623116458E-2</v>
+        <v>-7.3409057090421115E-3</v>
       </c>
       <c r="I177" s="4">
         <f>[1]!i_pq_pctchange(A177,$B$4,$B$1)/100</f>
-        <v>-1.2478022507919295E-2</v>
+        <v>-3.4959976854084251E-2</v>
       </c>
       <c r="J177" s="12">
         <f>[1]!i_dq_amount(A177,$B$1)/100000000</f>
-        <v>19.618200000000002</v>
+        <v>16.976500000000001</v>
       </c>
       <c r="K177" s="5">
         <f>[1]!s_nq_amount(A177,-5,$B$1,100000000)/5</f>
@@ -23944,27 +23942,27 @@
       </c>
       <c r="E178" s="12">
         <f>[1]!i_dq_close(A178,"")</f>
-        <v>5964.16</v>
+        <v>5887.34</v>
       </c>
       <c r="F178" s="4">
         <f>[1]!i_dq_pctchange(A178,$B$1)/100</f>
-        <v>1.0960734385989657E-3</v>
+        <v>9.7573943692168541E-3</v>
       </c>
       <c r="G178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$2,$B$1)/100</f>
-        <v>1.0960734385989657E-3</v>
+        <v>9.7573943692168541E-3</v>
       </c>
       <c r="H178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$3,$B$1)/100</f>
-        <v>2.0027158948257684E-2</v>
+        <v>9.7573943692168541E-3</v>
       </c>
       <c r="I178" s="4">
         <f>[1]!i_pq_pctchange(A178,$B$4,$B$1)/100</f>
-        <v>-4.9122566471150098E-2</v>
+        <v>-6.1370125967153848E-2</v>
       </c>
       <c r="J178" s="12">
         <f>[1]!i_dq_amount(A178,$B$1)/100000000</f>
-        <v>81.792599999999993</v>
+        <v>132.24940000000001</v>
       </c>
       <c r="K178" s="5">
         <f>[1]!s_nq_amount(A178,-5,$B$1,100000000)/5</f>
@@ -23986,27 +23984,27 @@
       </c>
       <c r="E179" s="12">
         <f>[1]!i_dq_close(A179,"")</f>
-        <v>4501.91</v>
+        <v>4438.38</v>
       </c>
       <c r="F179" s="4">
         <f>[1]!i_dq_pctchange(A179,$B$1)/100</f>
-        <v>-2.6319345826899543E-3</v>
+        <v>3.928966457890759E-3</v>
       </c>
       <c r="G179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$2,$B$1)/100</f>
-        <v>-2.6319345826899543E-3</v>
+        <v>3.928966457890759E-3</v>
       </c>
       <c r="H179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$3,$B$1)/100</f>
-        <v>1.6282975678250322E-2</v>
+        <v>3.928966457890759E-3</v>
       </c>
       <c r="I179" s="4">
         <f>[1]!i_pq_pctchange(A179,$B$4,$B$1)/100</f>
-        <v>-1.8955937975284609E-3</v>
+        <v>-1.5980631687233626E-2</v>
       </c>
       <c r="J179" s="12">
         <f>[1]!i_dq_amount(A179,$B$1)/100000000</f>
-        <v>185.43559999999999</v>
+        <v>217.05840000000001</v>
       </c>
       <c r="K179" s="5">
         <f>[1]!s_nq_amount(A179,-5,$B$1,100000000)/5</f>
@@ -24028,31 +24026,31 @@
       </c>
       <c r="E180" s="12">
         <f>[1]!i_dq_close(A180,"")</f>
-        <v>8016.48</v>
+        <v>7325.54</v>
       </c>
       <c r="F180" s="4">
         <f>[1]!i_dq_pctchange(A180,$B$1)/100</f>
-        <v>1.2915087670211101E-3</v>
+        <v>-1.7714695293614691E-3</v>
       </c>
       <c r="G180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$2,$B$1)/100</f>
-        <v>1.2915087670211101E-3</v>
+        <v>-1.7714695293614691E-3</v>
       </c>
       <c r="H180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$3,$B$1)/100</f>
-        <v>5.7784064518852984E-2</v>
+        <v>-1.7714695293614691E-3</v>
       </c>
       <c r="I180" s="4">
         <f>[1]!i_pq_pctchange(A180,$B$4,$B$1)/100</f>
-        <v>4.4447600298618939E-2</v>
+        <v>-4.5573284796875162E-2</v>
       </c>
       <c r="J180" s="12">
         <f>[1]!i_dq_amount(A180,$B$1)/100000000</f>
-        <v>19.0215</v>
+        <v>21.243200000000002</v>
       </c>
       <c r="K180" s="5">
         <f>[1]!s_nq_amount(A180,-5,$B$1,100000000)/5</f>
-        <v>22.5883</v>
+        <v>24.541499999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
@@ -24070,31 +24068,31 @@
       </c>
       <c r="E181" s="12">
         <f>[1]!i_dq_close(A181,"")</f>
-        <v>3051.84</v>
+        <v>2969.52</v>
       </c>
       <c r="F181" s="4">
         <f>[1]!i_dq_pctchange(A181,$B$1)/100</f>
-        <v>-2.461599432381123E-2</v>
+        <v>-7.0221901207816462E-3</v>
       </c>
       <c r="G181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$2,$B$1)/100</f>
-        <v>-2.461599432381123E-2</v>
+        <v>-7.0221901207816462E-3</v>
       </c>
       <c r="H181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$3,$B$1)/100</f>
-        <v>-5.6632818658135076E-2</v>
+        <v>-7.0221901207816462E-3</v>
       </c>
       <c r="I181" s="4">
         <f>[1]!i_pq_pctchange(A181,$B$4,$B$1)/100</f>
-        <v>-5.3690088961516051E-2</v>
+        <v>-7.9215749506199917E-2</v>
       </c>
       <c r="J181" s="12">
         <f>[1]!i_dq_amount(A181,$B$1)/100000000</f>
-        <v>29.334800000000001</v>
+        <v>23.7483</v>
       </c>
       <c r="K181" s="5">
         <f>[1]!s_nq_amount(A181,-5,$B$1,100000000)/5</f>
-        <v>26.63308</v>
+        <v>31.763760000000001</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
@@ -24112,31 +24110,31 @@
       </c>
       <c r="E182" s="12">
         <f>[1]!i_dq_close(A182,"")</f>
-        <v>2686.04</v>
+        <v>2618</v>
       </c>
       <c r="F182" s="4">
         <f>[1]!i_dq_pctchange(A182,$B$1)/100</f>
-        <v>-1.7244711374075905E-3</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="G182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$2,$B$1)/100</f>
-        <v>-1.7244711374075905E-3</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="H182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$3,$B$1)/100</f>
-        <v>2.4764128448417244E-2</v>
+        <v>-2.024036386828465E-4</v>
       </c>
       <c r="I182" s="4">
         <f>[1]!i_pq_pctchange(A182,$B$4,$B$1)/100</f>
-        <v>-1.5817764114890442E-2</v>
+        <v>-4.0748055298053254E-2</v>
       </c>
       <c r="J182" s="12">
         <f>[1]!i_dq_amount(A182,$B$1)/100000000</f>
-        <v>31.8491</v>
+        <v>46.908900000000003</v>
       </c>
       <c r="K182" s="5">
         <f>[1]!s_nq_amount(A182,-5,$B$1,100000000)/5</f>
-        <v>38.150819999999996</v>
+        <v>41.084040000000002</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
@@ -24154,27 +24152,27 @@
       </c>
       <c r="E183" s="12">
         <f>[1]!i_dq_close(A183,"")</f>
-        <v>3404.01</v>
+        <v>3280.47</v>
       </c>
       <c r="F183" s="4">
         <f>[1]!i_dq_pctchange(A183,$B$1)/100</f>
-        <v>-6.6360253884876208E-3</v>
+        <v>7.5656118536060468E-4</v>
       </c>
       <c r="G183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$2,$B$1)/100</f>
-        <v>-6.6360253884876208E-3</v>
+        <v>7.5656118536060468E-4</v>
       </c>
       <c r="H183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$3,$B$1)/100</f>
-        <v>-4.3319039902656176E-3</v>
+        <v>7.5656118536060468E-4</v>
       </c>
       <c r="I183" s="4">
         <f>[1]!i_pq_pctchange(A183,$B$4,$B$1)/100</f>
-        <v>2.2268203468013725E-2</v>
+        <v>-1.4832455418546275E-2</v>
       </c>
       <c r="J183" s="12">
         <f>[1]!i_dq_amount(A183,$B$1)/100000000</f>
-        <v>19.351199999999999</v>
+        <v>26.565000000000001</v>
       </c>
       <c r="K183" s="5">
         <f>[1]!s_nq_amount(A183,-5,$B$1,100000000)/5</f>
@@ -24196,27 +24194,27 @@
       </c>
       <c r="E184" s="12">
         <f>[1]!i_dq_close(A184,"")</f>
-        <v>2943.01</v>
+        <v>2786.67</v>
       </c>
       <c r="F184" s="4">
         <f>[1]!i_dq_pctchange(A184,$B$1)/100</f>
-        <v>-2.4134529664794346E-3</v>
+        <v>-1.5119546201558531E-2</v>
       </c>
       <c r="G184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$2,$B$1)/100</f>
-        <v>-2.4134529664794346E-3</v>
+        <v>-1.5119546201558531E-2</v>
       </c>
       <c r="H184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$3,$B$1)/100</f>
-        <v>-2.5880444856348328E-2</v>
+        <v>-1.5119546201558531E-2</v>
       </c>
       <c r="I184" s="4">
         <f>[1]!i_pq_pctchange(A184,$B$4,$B$1)/100</f>
-        <v>3.1570940853996365E-2</v>
+        <v>-2.3228669372647115E-2</v>
       </c>
       <c r="J184" s="12">
         <f>[1]!i_dq_amount(A184,$B$1)/100000000</f>
-        <v>17.919499999999999</v>
+        <v>22.013500000000001</v>
       </c>
       <c r="K184" s="5">
         <f>[1]!s_nq_amou